--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F1F43D-EA32-46F1-93E0-4F1D897EA6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF25D9C-E642-4DA1-AF24-A2C20A07370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiele" sheetId="35" r:id="rId1"/>
@@ -1162,6 +1162,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1323,21 +1330,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,6 +1351,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3334,7 +3334,7 @@
       <calculatedColumnFormula>IF($B2="","",IF(VLOOKUP($A2,Spiele!$A$2:$F$15,3,FALSE)=$B2,VLOOKUP($A2,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A2,Spiele!$A$2:$F$15,3,FALSE)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{D19C19F7-DE1E-42DF-974A-D2D74520C748}" name="AbNr" dataDxfId="92">
-      <calculatedColumnFormula>COUNTIFS($A$2:$A2,$A2,$B$2:$B2,$B2,$L$2:$L2,"&lt;&gt;ET")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A2,$A2,$B$2:$B2,$B2,$L$2:$L2,"&lt;&gt;ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{3B1D1C24-F95D-4C77-AF08-E4A123A74007}" name="Min" dataDxfId="91"/>
     <tableColumn id="9" xr3:uid="{6606DEAC-71A2-4313-AAE4-5C8A940C1133}" name="HZ" dataDxfId="90"/>
@@ -9248,7 +9248,7 @@
         <v>GWD</v>
       </c>
       <c r="E2" s="18">
-        <f>COUNTIFS($A$2:$A2,$A2,$B$2:$B2,$B2,$L$2:$L2,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A2,$A2,$B$2:$B2,$B2,$L$2:$L2,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F2" s="11">
@@ -9363,7 +9363,7 @@
         <v>GWD</v>
       </c>
       <c r="E3" s="18">
-        <f>COUNTIFS($A$2:$A3,$A3,$B$2:$B3,$B3,$L$2:$L3,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A3,$A3,$B$2:$B3,$B3,$L$2:$L3,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F3" s="11">
@@ -9485,7 +9485,7 @@
         <v>GWD</v>
       </c>
       <c r="E4" s="18">
-        <f>COUNTIFS($A$2:$A4,$A4,$B$2:$B4,$B4,$L$2:$L4,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A4,$A4,$B$2:$B4,$B4,$L$2:$L4,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F4" s="11">
@@ -9619,7 +9619,7 @@
         <v>FCN</v>
       </c>
       <c r="E5" s="18">
-        <f>COUNTIFS($A$2:$A5,$A5,$B$2:$B5,$B5,$L$2:$L5,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A5,$A5,$B$2:$B5,$B5,$L$2:$L5,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F5" s="11">
@@ -9732,7 +9732,7 @@
         <v>GWD</v>
       </c>
       <c r="E6" s="18">
-        <f>COUNTIFS($A$2:$A6,$A6,$B$2:$B6,$B6,$L$2:$L6,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A6,$A6,$B$2:$B6,$B6,$L$2:$L6,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F6" s="11">
@@ -9863,7 +9863,7 @@
         <v>GWD</v>
       </c>
       <c r="E7" s="18">
-        <f>COUNTIFS($A$2:$A7,$A7,$B$2:$B7,$B7,$L$2:$L7,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A7,$A7,$B$2:$B7,$B7,$L$2:$L7,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F7" s="11">
@@ -9990,7 +9990,7 @@
         <v>FCN</v>
       </c>
       <c r="E8" s="18">
-        <f>COUNTIFS($A$2:$A8,$A8,$B$2:$B8,$B8,$L$2:$L8,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A8,$A8,$B$2:$B8,$B8,$L$2:$L8,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F8" s="11">
@@ -10103,7 +10103,7 @@
         <v>FCN</v>
       </c>
       <c r="E9" s="18">
-        <f>COUNTIFS($A$2:$A9,$A9,$B$2:$B9,$B9,$L$2:$L9,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A9,$A9,$B$2:$B9,$B9,$L$2:$L9,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F9" s="11">
@@ -10216,7 +10216,7 @@
         <v>GWD</v>
       </c>
       <c r="E10" s="18">
-        <f>COUNTIFS($A$2:$A10,$A10,$B$2:$B10,$B10,$L$2:$L10,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A10,$A10,$B$2:$B10,$B10,$L$2:$L10,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F10" s="11">
@@ -10332,7 +10332,7 @@
         <v>FCN</v>
       </c>
       <c r="E11" s="18">
-        <f>COUNTIFS($A$2:$A11,$A11,$B$2:$B11,$B11,$L$2:$L11,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A11,$A11,$B$2:$B11,$B11,$L$2:$L11,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F11" s="11">
@@ -10443,7 +10443,7 @@
         <v>FCN</v>
       </c>
       <c r="E12" s="18">
-        <f>COUNTIFS($A$2:$A12,$A12,$B$2:$B12,$B12,$L$2:$L12,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A12,$A12,$B$2:$B12,$B12,$L$2:$L12,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F12" s="11">
@@ -10560,7 +10560,7 @@
         <v>FCN</v>
       </c>
       <c r="E13" s="18">
-        <f>COUNTIFS($A$2:$A13,$A13,$B$2:$B13,$B13,$L$2:$L13,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A13,$A13,$B$2:$B13,$B13,$L$2:$L13,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F13" s="11">
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="17" t="str">
-        <f>IF(OR($L13="Tor",$L13="ET"),_xlfn.IFNA(IF(VLOOKUP($A13,Spiele!$A$2:$C$15,3,FALSE)=$B13,COUNTIFS($L$2:$L13,"Tor",$B$2:$B15,$B13,$A$2:$A15,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B15,$B13,$A$2:$A15,$A13)&amp;":"&amp;COUNTIFS($L$2:$L13,"Tor",$B$2:$B15,"&lt;&gt;"&amp;$B13,$A$2:$A15,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B15,"&lt;&gt;"&amp;$B13,$A$2:$A15,$A13),COUNTIFS($L$2:$L13,"Tor",$B$2:$B15,"&lt;&gt;"&amp;$B13,$A$2:$A15,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B15,"&lt;&gt;"&amp;$B13,$A$2:$A15,$A13)&amp;":"&amp;COUNTIFS($L$2:$L13,"Tor",$B$2:$B15,$B13,$A$2:$A15,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B15,$B13,$A$2:$A15,$A13)),""),"")</f>
+        <f>IF(OR($L13="Tor",$L13="ET"),_xlfn.IFNA(IF(VLOOKUP($A13,Spiele!$A$2:$C$15,3,FALSE)=$B13,COUNTIFS($L$2:$L13,"Tor",$B$2:$B13,$B13,$A$2:$A13,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B13,$B13,$A$2:$A13,$A13)&amp;":"&amp;COUNTIFS($L$2:$L13,"Tor",$B$2:$B13,"&lt;&gt;"&amp;$B13,$A$2:$A13,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B13,"&lt;&gt;"&amp;$B13,$A$2:$A13,$A13),COUNTIFS($L$2:$L13,"Tor",$B$2:$B13,"&lt;&gt;"&amp;$B13,$A$2:$A13,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B13,"&lt;&gt;"&amp;$B13,$A$2:$A13,$A13)&amp;":"&amp;COUNTIFS($L$2:$L13,"Tor",$B$2:$B13,$B13,$A$2:$A13,$A13)+COUNTIFS($L$2:$L13,"ET",$B$2:$B13,$B13,$A$2:$A13,$A13)),""),"")</f>
         <v/>
       </c>
       <c r="J13" s="18">
@@ -10677,7 +10677,7 @@
         <v>GWD</v>
       </c>
       <c r="E14" s="18">
-        <f>COUNTIFS($A$2:$A14,$A14,$B$2:$B14,$B14,$L$2:$L14,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A14,$A14,$B$2:$B14,$B14,$L$2:$L14,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F14" s="11">
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="17" t="str">
-        <f>IF(OR($L14="Tor",$L14="ET"),_xlfn.IFNA(IF(VLOOKUP($A14,Spiele!$A$2:$C$15,3,FALSE)=$B14,COUNTIFS($L$2:$L14,"Tor",$B$2:$B15,$B14,$A$2:$A15,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B15,$B14,$A$2:$A15,$A14)&amp;":"&amp;COUNTIFS($L$2:$L14,"Tor",$B$2:$B15,"&lt;&gt;"&amp;$B14,$A$2:$A15,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B15,"&lt;&gt;"&amp;$B14,$A$2:$A15,$A14),COUNTIFS($L$2:$L14,"Tor",$B$2:$B15,"&lt;&gt;"&amp;$B14,$A$2:$A15,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B15,"&lt;&gt;"&amp;$B14,$A$2:$A15,$A14)&amp;":"&amp;COUNTIFS($L$2:$L14,"Tor",$B$2:$B15,$B14,$A$2:$A15,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B15,$B14,$A$2:$A15,$A14)),""),"")</f>
+        <f>IF(OR($L14="Tor",$L14="ET"),_xlfn.IFNA(IF(VLOOKUP($A14,Spiele!$A$2:$C$15,3,FALSE)=$B14,COUNTIFS($L$2:$L14,"Tor",$B$2:$B14,$B14,$A$2:$A14,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B14,$B14,$A$2:$A14,$A14)&amp;":"&amp;COUNTIFS($L$2:$L14,"Tor",$B$2:$B14,"&lt;&gt;"&amp;$B14,$A$2:$A14,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B14,"&lt;&gt;"&amp;$B14,$A$2:$A14,$A14),COUNTIFS($L$2:$L14,"Tor",$B$2:$B14,"&lt;&gt;"&amp;$B14,$A$2:$A14,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B14,"&lt;&gt;"&amp;$B14,$A$2:$A14,$A14)&amp;":"&amp;COUNTIFS($L$2:$L14,"Tor",$B$2:$B14,$B14,$A$2:$A14,$A14)+COUNTIFS($L$2:$L14,"ET",$B$2:$B14,$B14,$A$2:$A14,$A14)),""),"")</f>
         <v/>
       </c>
       <c r="J14" s="18">
@@ -10796,7 +10796,7 @@
         <v>GWD</v>
       </c>
       <c r="E15" s="18">
-        <f>COUNTIFS($A$2:$A15,$A15,$B$2:$B15,$B15,$L$2:$L15,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A15,$A15,$B$2:$B15,$B15,$L$2:$L15,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F15" s="11">
@@ -10911,7 +10911,7 @@
         <v>GWD</v>
       </c>
       <c r="E16" s="18">
-        <f>COUNTIFS($A$2:$A16,$A16,$B$2:$B16,$B16,$L$2:$L16,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A16,$A16,$B$2:$B16,$B16,$L$2:$L16,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F16" s="11">
@@ -11035,7 +11035,7 @@
         <v>GWD</v>
       </c>
       <c r="E17" s="18">
-        <f>COUNTIFS($A$2:$A17,$A17,$B$2:$B17,$B17,$L$2:$L17,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A17,$A17,$B$2:$B17,$B17,$L$2:$L17,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F17" s="11">
@@ -11160,7 +11160,7 @@
         <v>FCN</v>
       </c>
       <c r="E18" s="18">
-        <f>COUNTIFS($A$2:$A18,$A18,$B$2:$B18,$B18,$L$2:$L18,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A18,$A18,$B$2:$B18,$B18,$L$2:$L18,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F18" s="11">
@@ -11273,7 +11273,7 @@
         <v>GWD</v>
       </c>
       <c r="E19" s="18">
-        <f>COUNTIFS($A$2:$A19,$A19,$B$2:$B19,$B19,$L$2:$L19,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A19,$A19,$B$2:$B19,$B19,$L$2:$L19,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F19" s="11">
@@ -11392,7 +11392,7 @@
         <v>FCN</v>
       </c>
       <c r="E20" s="18">
-        <f>COUNTIFS($A$2:$A20,$A20,$B$2:$B20,$B20,$L$2:$L20,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A20,$A20,$B$2:$B20,$B20,$L$2:$L20,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F20" s="11">
@@ -11509,7 +11509,7 @@
         <v>GWD</v>
       </c>
       <c r="E21" s="18">
-        <f>COUNTIFS($A$2:$A21,$A21,$B$2:$B21,$B21,$L$2:$L21,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A21,$A21,$B$2:$B21,$B21,$L$2:$L21,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F21" s="11">
@@ -11627,7 +11627,7 @@
         <v>GWD</v>
       </c>
       <c r="E22" s="18">
-        <f>COUNTIFS($A$2:$A22,$A22,$B$2:$B22,$B22,$L$2:$L22,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A22,$A22,$B$2:$B22,$B22,$L$2:$L22,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F22" s="11">
@@ -11745,7 +11745,7 @@
         <v>GWD</v>
       </c>
       <c r="E23" s="18">
-        <f>COUNTIFS($A$2:$A23,$A23,$B$2:$B23,$B23,$L$2:$L23,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A23,$A23,$B$2:$B23,$B23,$L$2:$L23,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F23" s="11">
@@ -11878,7 +11878,7 @@
         <v>GWD</v>
       </c>
       <c r="E24" s="18">
-        <f>COUNTIFS($A$2:$A24,$A24,$B$2:$B24,$B24,$L$2:$L24,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A24,$A24,$B$2:$B24,$B24,$L$2:$L24,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F24" s="11">
@@ -12000,7 +12000,7 @@
         <v>FCN</v>
       </c>
       <c r="E25" s="18">
-        <f>COUNTIFS($A$2:$A25,$A25,$B$2:$B25,$B25,$L$2:$L25,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A25,$A25,$B$2:$B25,$B25,$L$2:$L25,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F25" s="11">
@@ -12117,7 +12117,7 @@
         <v>GWD</v>
       </c>
       <c r="E26" s="18">
-        <f>COUNTIFS($A$2:$A26,$A26,$B$2:$B26,$B26,$L$2:$L26,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A26,$A26,$B$2:$B26,$B26,$L$2:$L26,"&lt;&gt;ET"))</f>
         <v>16</v>
       </c>
       <c r="F26" s="11">
@@ -12232,7 +12232,7 @@
         <v>GWD</v>
       </c>
       <c r="E27" s="18">
-        <f>COUNTIFS($A$2:$A27,$A27,$B$2:$B27,$B27,$L$2:$L27,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A27,$A27,$B$2:$B27,$B27,$L$2:$L27,"&lt;&gt;ET"))</f>
         <v>17</v>
       </c>
       <c r="F27" s="11">
@@ -12347,7 +12347,7 @@
         <v>FCN</v>
       </c>
       <c r="E28" s="18">
-        <f>COUNTIFS($A$2:$A28,$A28,$B$2:$B28,$B28,$L$2:$L28,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A28,$A28,$B$2:$B28,$B28,$L$2:$L28,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F28" s="11">
@@ -12460,7 +12460,7 @@
         <v>FCD</v>
       </c>
       <c r="E29" s="18">
-        <f>COUNTIFS($A$2:$A29,$A29,$B$2:$B29,$B29,$L$2:$L29,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A29,$A29,$B$2:$B29,$B29,$L$2:$L29,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F29" s="11">
@@ -12584,7 +12584,7 @@
         <v>FCN</v>
       </c>
       <c r="E30" s="18">
-        <f>COUNTIFS($A$2:$A30,$A30,$B$2:$B30,$B30,$L$2:$L30,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A30,$A30,$B$2:$B30,$B30,$L$2:$L30,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F30" s="11">
@@ -12695,7 +12695,7 @@
         <v>FCN</v>
       </c>
       <c r="E31" s="18">
-        <f>COUNTIFS($A$2:$A31,$A31,$B$2:$B31,$B31,$L$2:$L31,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A31,$A31,$B$2:$B31,$B31,$L$2:$L31,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F31" s="11">
@@ -12802,7 +12802,7 @@
         <v>FCD</v>
       </c>
       <c r="E32" s="18">
-        <f>COUNTIFS($A$2:$A32,$A32,$B$2:$B32,$B32,$L$2:$L32,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A32,$A32,$B$2:$B32,$B32,$L$2:$L32,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F32" s="11">
@@ -12924,7 +12924,7 @@
         <v>FCD</v>
       </c>
       <c r="E33" s="18">
-        <f>COUNTIFS($A$2:$A33,$A33,$B$2:$B33,$B33,$L$2:$L33,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A33,$A33,$B$2:$B33,$B33,$L$2:$L33,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F33" s="11">
@@ -13049,7 +13049,7 @@
         <v>FCD</v>
       </c>
       <c r="E34" s="18">
-        <f>COUNTIFS($A$2:$A34,$A34,$B$2:$B34,$B34,$L$2:$L34,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A34,$A34,$B$2:$B34,$B34,$L$2:$L34,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F34" s="11">
@@ -13161,7 +13161,7 @@
         <v>FCD</v>
       </c>
       <c r="E35" s="18">
-        <f>COUNTIFS($A$2:$A35,$A35,$B$2:$B35,$B35,$L$2:$L35,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A35,$A35,$B$2:$B35,$B35,$L$2:$L35,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F35" s="11">
@@ -13273,7 +13273,7 @@
         <v>FCN</v>
       </c>
       <c r="E36" s="18">
-        <f>COUNTIFS($A$2:$A36,$A36,$B$2:$B36,$B36,$L$2:$L36,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A36,$A36,$B$2:$B36,$B36,$L$2:$L36,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F36" s="11">
@@ -13386,7 +13386,7 @@
         <v>FCN</v>
       </c>
       <c r="E37" s="18">
-        <f>COUNTIFS($A$2:$A37,$A37,$B$2:$B37,$B37,$L$2:$L37,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A37,$A37,$B$2:$B37,$B37,$L$2:$L37,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F37" s="11">
@@ -13499,7 +13499,7 @@
         <v>FCD</v>
       </c>
       <c r="E38" s="18">
-        <f>COUNTIFS($A$2:$A38,$A38,$B$2:$B38,$B38,$L$2:$L38,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A38,$A38,$B$2:$B38,$B38,$L$2:$L38,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F38" s="11">
@@ -13611,7 +13611,7 @@
         <v>FCD</v>
       </c>
       <c r="E39" s="18">
-        <f>COUNTIFS($A$2:$A39,$A39,$B$2:$B39,$B39,$L$2:$L39,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A39,$A39,$B$2:$B39,$B39,$L$2:$L39,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F39" s="11">
@@ -13733,7 +13733,7 @@
         <v>FCD</v>
       </c>
       <c r="E40" s="18">
-        <f>COUNTIFS($A$2:$A40,$A40,$B$2:$B40,$B40,$L$2:$L40,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A40,$A40,$B$2:$B40,$B40,$L$2:$L40,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F40" s="11">
@@ -13860,7 +13860,7 @@
         <v>FCN</v>
       </c>
       <c r="E41" s="18">
-        <f>COUNTIFS($A$2:$A41,$A41,$B$2:$B41,$B41,$L$2:$L41,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A41,$A41,$B$2:$B41,$B41,$L$2:$L41,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F41" s="11">
@@ -13977,7 +13977,7 @@
         <v>FCD</v>
       </c>
       <c r="E42" s="18">
-        <f>COUNTIFS($A$2:$A42,$A42,$B$2:$B42,$B42,$L$2:$L42,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A42,$A42,$B$2:$B42,$B42,$L$2:$L42,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F42" s="11">
@@ -14096,7 +14096,7 @@
         <v>FCD</v>
       </c>
       <c r="E43" s="18">
-        <f>COUNTIFS($A$2:$A43,$A43,$B$2:$B43,$B43,$L$2:$L43,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A43,$A43,$B$2:$B43,$B43,$L$2:$L43,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F43" s="11">
@@ -14215,7 +14215,7 @@
         <v>FCD</v>
       </c>
       <c r="E44" s="18">
-        <f>COUNTIFS($A$2:$A44,$A44,$B$2:$B44,$B44,$L$2:$L44,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A44,$A44,$B$2:$B44,$B44,$L$2:$L44,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F44" s="11">
@@ -14351,7 +14351,7 @@
         <v>FCD</v>
       </c>
       <c r="E45" s="18">
-        <f>COUNTIFS($A$2:$A45,$A45,$B$2:$B45,$B45,$L$2:$L45,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A45,$A45,$B$2:$B45,$B45,$L$2:$L45,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F45" s="11">
@@ -14476,7 +14476,7 @@
         <v>FCD</v>
       </c>
       <c r="E46" s="18">
-        <f>COUNTIFS($A$2:$A46,$A46,$B$2:$B46,$B46,$L$2:$L46,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A46,$A46,$B$2:$B46,$B46,$L$2:$L46,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F46" s="11">
@@ -14601,7 +14601,7 @@
         <v>FCN</v>
       </c>
       <c r="E47" s="18">
-        <f>COUNTIFS($A$2:$A47,$A47,$B$2:$B47,$B47,$L$2:$L47,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A47,$A47,$B$2:$B47,$B47,$L$2:$L47,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F47" s="11">
@@ -14712,7 +14712,7 @@
         <v>TSV</v>
       </c>
       <c r="E48" s="18">
-        <f>COUNTIFS($A$2:$A48,$A48,$B$2:$B48,$B48,$L$2:$L48,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A48,$A48,$B$2:$B48,$B48,$L$2:$L48,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F48" s="11">
@@ -14833,7 +14833,7 @@
         <v>TSV</v>
       </c>
       <c r="E49" s="18">
-        <f>COUNTIFS($A$2:$A49,$A49,$B$2:$B49,$B49,$L$2:$L49,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A49,$A49,$B$2:$B49,$B49,$L$2:$L49,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F49" s="11">
@@ -14952,7 +14952,7 @@
         <v>FCN</v>
       </c>
       <c r="E50" s="18">
-        <f>COUNTIFS($A$2:$A50,$A50,$B$2:$B50,$B50,$L$2:$L50,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A50,$A50,$B$2:$B50,$B50,$L$2:$L50,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F50" s="11">
@@ -15063,7 +15063,7 @@
         <v>FCN</v>
       </c>
       <c r="E51" s="18">
-        <f>COUNTIFS($A$2:$A51,$A51,$B$2:$B51,$B51,$L$2:$L51,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A51,$A51,$B$2:$B51,$B51,$L$2:$L51,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F51" s="11">
@@ -15180,7 +15180,7 @@
         <v>FCN</v>
       </c>
       <c r="E52" s="18">
-        <f>COUNTIFS($A$2:$A52,$A52,$B$2:$B52,$B52,$L$2:$L52,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A52,$A52,$B$2:$B52,$B52,$L$2:$L52,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F52" s="11">
@@ -15291,7 +15291,7 @@
         <v>TSV</v>
       </c>
       <c r="E53" s="18">
-        <f>COUNTIFS($A$2:$A53,$A53,$B$2:$B53,$B53,$L$2:$L53,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A53,$A53,$B$2:$B53,$B53,$L$2:$L53,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F53" s="11">
@@ -15410,7 +15410,7 @@
         <v>TSV</v>
       </c>
       <c r="E54" s="18">
-        <f>COUNTIFS($A$2:$A54,$A54,$B$2:$B54,$B54,$L$2:$L54,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A54,$A54,$B$2:$B54,$B54,$L$2:$L54,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F54" s="11">
@@ -15516,7 +15516,7 @@
         <v>TSV</v>
       </c>
       <c r="E55" s="18">
-        <f>COUNTIFS($A$2:$A55,$A55,$B$2:$B55,$B55,$L$2:$L55,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A55,$A55,$B$2:$B55,$B55,$L$2:$L55,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F55" s="11">
@@ -15637,7 +15637,7 @@
         <v>FCN</v>
       </c>
       <c r="E56" s="18">
-        <f>COUNTIFS($A$2:$A56,$A56,$B$2:$B56,$B56,$L$2:$L56,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A56,$A56,$B$2:$B56,$B56,$L$2:$L56,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F56" s="11">
@@ -15753,7 +15753,7 @@
         <v>FCN</v>
       </c>
       <c r="E57" s="18">
-        <f>COUNTIFS($A$2:$A57,$A57,$B$2:$B57,$B57,$L$2:$L57,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A57,$A57,$B$2:$B57,$B57,$L$2:$L57,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F57" s="11">
@@ -15863,7 +15863,7 @@
         <v>TSV</v>
       </c>
       <c r="E58" s="18">
-        <f>COUNTIFS($A$2:$A58,$A58,$B$2:$B58,$B58,$L$2:$L58,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A58,$A58,$B$2:$B58,$B58,$L$2:$L58,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F58" s="11">
@@ -15975,7 +15975,7 @@
         <v>FCN</v>
       </c>
       <c r="E59" s="18">
-        <f>COUNTIFS($A$2:$A59,$A59,$B$2:$B59,$B59,$L$2:$L59,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A59,$A59,$B$2:$B59,$B59,$L$2:$L59,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F59" s="11">
@@ -16091,7 +16091,7 @@
         <v>FCN</v>
       </c>
       <c r="E60" s="18">
-        <f>COUNTIFS($A$2:$A60,$A60,$B$2:$B60,$B60,$L$2:$L60,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A60,$A60,$B$2:$B60,$B60,$L$2:$L60,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F60" s="11">
@@ -16197,7 +16197,7 @@
         <v>TSV</v>
       </c>
       <c r="E61" s="18">
-        <f>COUNTIFS($A$2:$A61,$A61,$B$2:$B61,$B61,$L$2:$L61,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A61,$A61,$B$2:$B61,$B61,$L$2:$L61,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F61" s="11">
@@ -16308,7 +16308,7 @@
         <v>TSV</v>
       </c>
       <c r="E62" s="18">
-        <f>COUNTIFS($A$2:$A62,$A62,$B$2:$B62,$B62,$L$2:$L62,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A62,$A62,$B$2:$B62,$B62,$L$2:$L62,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F62" s="11">
@@ -16438,7 +16438,7 @@
         <v>TSV</v>
       </c>
       <c r="E63" s="18">
-        <f>COUNTIFS($A$2:$A63,$A63,$B$2:$B63,$B63,$L$2:$L63,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A63,$A63,$B$2:$B63,$B63,$L$2:$L63,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F63" s="11">
@@ -16555,7 +16555,7 @@
         <v>TSV</v>
       </c>
       <c r="E64" s="18">
-        <f>COUNTIFS($A$2:$A64,$A64,$B$2:$B64,$B64,$L$2:$L64,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A64,$A64,$B$2:$B64,$B64,$L$2:$L64,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F64" s="11">
@@ -16667,7 +16667,7 @@
         <v>FCN</v>
       </c>
       <c r="E65" s="18">
-        <f>COUNTIFS($A$2:$A65,$A65,$B$2:$B65,$B65,$L$2:$L65,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A65,$A65,$B$2:$B65,$B65,$L$2:$L65,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F65" s="11">
@@ -16777,7 +16777,7 @@
         <v>FCN</v>
       </c>
       <c r="E66" s="18">
-        <f>COUNTIFS($A$2:$A66,$A66,$B$2:$B66,$B66,$L$2:$L66,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A66,$A66,$B$2:$B66,$B66,$L$2:$L66,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F66" s="11">
@@ -16887,7 +16887,7 @@
         <v>FCN</v>
       </c>
       <c r="E67" s="18">
-        <f>COUNTIFS($A$2:$A67,$A67,$B$2:$B67,$B67,$L$2:$L67,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A67,$A67,$B$2:$B67,$B67,$L$2:$L67,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F67" s="11">
@@ -16997,7 +16997,7 @@
         <v>TSV</v>
       </c>
       <c r="E68" s="18">
-        <f>COUNTIFS($A$2:$A68,$A68,$B$2:$B68,$B68,$L$2:$L68,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A68,$A68,$B$2:$B68,$B68,$L$2:$L68,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F68" s="11">
@@ -17112,7 +17112,7 @@
         <v>TSV</v>
       </c>
       <c r="E69" s="18">
-        <f>COUNTIFS($A$2:$A69,$A69,$B$2:$B69,$B69,$L$2:$L69,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A69,$A69,$B$2:$B69,$B69,$L$2:$L69,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F69" s="11">
@@ -17239,7 +17239,7 @@
         <v>FCN</v>
       </c>
       <c r="E70" s="18">
-        <f>COUNTIFS($A$2:$A70,$A70,$B$2:$B70,$B70,$L$2:$L70,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A70,$A70,$B$2:$B70,$B70,$L$2:$L70,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F70" s="11">
@@ -17349,7 +17349,7 @@
         <v>TSV</v>
       </c>
       <c r="E71" s="18">
-        <f>COUNTIFS($A$2:$A71,$A71,$B$2:$B71,$B71,$L$2:$L71,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A71,$A71,$B$2:$B71,$B71,$L$2:$L71,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F71" s="11">
@@ -17460,7 +17460,7 @@
         <v>TSV</v>
       </c>
       <c r="E72" s="18">
-        <f>COUNTIFS($A$2:$A72,$A72,$B$2:$B72,$B72,$L$2:$L72,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A72,$A72,$B$2:$B72,$B72,$L$2:$L72,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F72" s="11">
@@ -17586,7 +17586,7 @@
         <v>TSV</v>
       </c>
       <c r="E73" s="18">
-        <f>COUNTIFS($A$2:$A73,$A73,$B$2:$B73,$B73,$L$2:$L73,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A73,$A73,$B$2:$B73,$B73,$L$2:$L73,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F73" s="11">
@@ -17700,7 +17700,7 @@
         <v>FCN</v>
       </c>
       <c r="E74" s="18">
-        <f>COUNTIFS($A$2:$A74,$A74,$B$2:$B74,$B74,$L$2:$L74,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A74,$A74,$B$2:$B74,$B74,$L$2:$L74,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F74" s="11">
@@ -17810,7 +17810,7 @@
         <v>TSV</v>
       </c>
       <c r="E75" s="18">
-        <f>COUNTIFS($A$2:$A75,$A75,$B$2:$B75,$B75,$L$2:$L75,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A75,$A75,$B$2:$B75,$B75,$L$2:$L75,"&lt;&gt;ET"))</f>
         <v>16</v>
       </c>
       <c r="F75" s="11">
@@ -17928,7 +17928,7 @@
         <v>TSV</v>
       </c>
       <c r="E76" s="18">
-        <f>COUNTIFS($A$2:$A76,$A76,$B$2:$B76,$B76,$L$2:$L76,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A76,$A76,$B$2:$B76,$B76,$L$2:$L76,"&lt;&gt;ET"))</f>
         <v>17</v>
       </c>
       <c r="F76" s="11">
@@ -18042,7 +18042,7 @@
         <v>TSV</v>
       </c>
       <c r="E77" s="18">
-        <f>COUNTIFS($A$2:$A77,$A77,$B$2:$B77,$B77,$L$2:$L77,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A77,$A77,$B$2:$B77,$B77,$L$2:$L77,"&lt;&gt;ET"))</f>
         <v>18</v>
       </c>
       <c r="F77" s="11">
@@ -18175,7 +18175,7 @@
         <v>TSV</v>
       </c>
       <c r="E78" s="18">
-        <f>COUNTIFS($A$2:$A78,$A78,$B$2:$B78,$B78,$L$2:$L78,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A78,$A78,$B$2:$B78,$B78,$L$2:$L78,"&lt;&gt;ET"))</f>
         <v>19</v>
       </c>
       <c r="F78" s="11">
@@ -18290,7 +18290,7 @@
         <v>TSV</v>
       </c>
       <c r="E79" s="18">
-        <f>COUNTIFS($A$2:$A79,$A79,$B$2:$B79,$B79,$L$2:$L79,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A79,$A79,$B$2:$B79,$B79,$L$2:$L79,"&lt;&gt;ET"))</f>
         <v>20</v>
       </c>
       <c r="F79" s="11">
@@ -18407,7 +18407,7 @@
         <v>TSV</v>
       </c>
       <c r="E80" s="18">
-        <f>COUNTIFS($A$2:$A80,$A80,$B$2:$B80,$B80,$L$2:$L80,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A80,$A80,$B$2:$B80,$B80,$L$2:$L80,"&lt;&gt;ET"))</f>
         <v>21</v>
       </c>
       <c r="F80" s="11">
@@ -18540,7 +18540,7 @@
         <v>TSV</v>
       </c>
       <c r="E81" s="18">
-        <f>COUNTIFS($A$2:$A81,$A81,$B$2:$B81,$B81,$L$2:$L81,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A81,$A81,$B$2:$B81,$B81,$L$2:$L81,"&lt;&gt;ET"))</f>
         <v>22</v>
       </c>
       <c r="F81" s="11">
@@ -18673,7 +18673,7 @@
         <v>TSV</v>
       </c>
       <c r="E82" s="18">
-        <f>COUNTIFS($A$2:$A82,$A82,$B$2:$B82,$B82,$L$2:$L82,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A82,$A82,$B$2:$B82,$B82,$L$2:$L82,"&lt;&gt;ET"))</f>
         <v>23</v>
       </c>
       <c r="F82" s="11">
@@ -18794,7 +18794,7 @@
         <v>TSV</v>
       </c>
       <c r="E83" s="18">
-        <f>COUNTIFS($A$2:$A83,$A83,$B$2:$B83,$B83,$L$2:$L83,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A83,$A83,$B$2:$B83,$B83,$L$2:$L83,"&lt;&gt;ET"))</f>
         <v>24</v>
       </c>
       <c r="F83" s="11">
@@ -18915,7 +18915,7 @@
         <v>DJK</v>
       </c>
       <c r="E84" s="18">
-        <f>COUNTIFS($A$2:$A84,$A84,$B$2:$B84,$B84,$L$2:$L84,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A84,$A84,$B$2:$B84,$B84,$L$2:$L84,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F84" s="11">
@@ -19027,7 +19027,7 @@
         <v>DJK</v>
       </c>
       <c r="E85" s="18">
-        <f>COUNTIFS($A$2:$A85,$A85,$B$2:$B85,$B85,$L$2:$L85,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A85,$A85,$B$2:$B85,$B85,$L$2:$L85,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F85" s="11">
@@ -19154,7 +19154,7 @@
         <v>DJK</v>
       </c>
       <c r="E86" s="18">
-        <f>COUNTIFS($A$2:$A86,$A86,$B$2:$B86,$B86,$L$2:$L86,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A86,$A86,$B$2:$B86,$B86,$L$2:$L86,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F86" s="11">
@@ -19283,7 +19283,7 @@
         <v>DJK</v>
       </c>
       <c r="E87" s="18">
-        <f>COUNTIFS($A$2:$A87,$A87,$B$2:$B87,$B87,$L$2:$L87,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A87,$A87,$B$2:$B87,$B87,$L$2:$L87,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F87" s="11">
@@ -19397,7 +19397,7 @@
         <v>DJK</v>
       </c>
       <c r="E88" s="18">
-        <f>COUNTIFS($A$2:$A88,$A88,$B$2:$B88,$B88,$L$2:$L88,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A88,$A88,$B$2:$B88,$B88,$L$2:$L88,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F88" s="11">
@@ -19524,7 +19524,7 @@
         <v>DJK</v>
       </c>
       <c r="E89" s="18">
-        <f>COUNTIFS($A$2:$A89,$A89,$B$2:$B89,$B89,$L$2:$L89,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A89,$A89,$B$2:$B89,$B89,$L$2:$L89,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F89" s="11">
@@ -19657,7 +19657,7 @@
         <v>DJK</v>
       </c>
       <c r="E90" s="18">
-        <f>COUNTIFS($A$2:$A90,$A90,$B$2:$B90,$B90,$L$2:$L90,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A90,$A90,$B$2:$B90,$B90,$L$2:$L90,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F90" s="11">
@@ -19769,7 +19769,7 @@
         <v>DJK</v>
       </c>
       <c r="E91" s="18">
-        <f>COUNTIFS($A$2:$A91,$A91,$B$2:$B91,$B91,$L$2:$L91,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A91,$A91,$B$2:$B91,$B91,$L$2:$L91,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F91" s="11">
@@ -19905,7 +19905,7 @@
         <v>DJK</v>
       </c>
       <c r="E92" s="18">
-        <f>COUNTIFS($A$2:$A92,$A92,$B$2:$B92,$B92,$L$2:$L92,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A92,$A92,$B$2:$B92,$B92,$L$2:$L92,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F92" s="11">
@@ -20022,7 +20022,7 @@
         <v>DJK</v>
       </c>
       <c r="E93" s="18">
-        <f>COUNTIFS($A$2:$A93,$A93,$B$2:$B93,$B93,$L$2:$L93,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A93,$A93,$B$2:$B93,$B93,$L$2:$L93,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F93" s="11">
@@ -20140,7 +20140,7 @@
         <v>FCN</v>
       </c>
       <c r="E94" s="18">
-        <f>COUNTIFS($A$2:$A94,$A94,$B$2:$B94,$B94,$L$2:$L94,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A94,$A94,$B$2:$B94,$B94,$L$2:$L94,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F94" s="11">
@@ -20252,7 +20252,7 @@
         <v>DJK</v>
       </c>
       <c r="E95" s="18">
-        <f>COUNTIFS($A$2:$A95,$A95,$B$2:$B95,$B95,$L$2:$L95,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A95,$A95,$B$2:$B95,$B95,$L$2:$L95,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F95" s="11">
@@ -20366,7 +20366,7 @@
         <v>FCN</v>
       </c>
       <c r="E96" s="18">
-        <f>COUNTIFS($A$2:$A96,$A96,$B$2:$B96,$B96,$L$2:$L96,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A96,$A96,$B$2:$B96,$B96,$L$2:$L96,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F96" s="11">
@@ -20482,7 +20482,7 @@
         <v>DJK</v>
       </c>
       <c r="E97" s="18">
-        <f>COUNTIFS($A$2:$A97,$A97,$B$2:$B97,$B97,$L$2:$L97,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A97,$A97,$B$2:$B97,$B97,$L$2:$L97,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F97" s="11">
@@ -20600,7 +20600,7 @@
         <v>DJK</v>
       </c>
       <c r="E98" s="18">
-        <f>COUNTIFS($A$2:$A98,$A98,$B$2:$B98,$B98,$L$2:$L98,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A98,$A98,$B$2:$B98,$B98,$L$2:$L98,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F98" s="11">
@@ -20730,7 +20730,7 @@
         <v>DJK</v>
       </c>
       <c r="E99" s="18">
-        <f>COUNTIFS($A$2:$A99,$A99,$B$2:$B99,$B99,$L$2:$L99,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A99,$A99,$B$2:$B99,$B99,$L$2:$L99,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F99" s="11">
@@ -20845,7 +20845,7 @@
         <v>DJK</v>
       </c>
       <c r="E100" s="18">
-        <f>COUNTIFS($A$2:$A100,$A100,$B$2:$B100,$B100,$L$2:$L100,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A100,$A100,$B$2:$B100,$B100,$L$2:$L100,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F100" s="11">
@@ -20974,7 +20974,7 @@
         <v>FCN</v>
       </c>
       <c r="E101" s="18">
-        <f>COUNTIFS($A$2:$A101,$A101,$B$2:$B101,$B101,$L$2:$L101,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A101,$A101,$B$2:$B101,$B101,$L$2:$L101,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F101" s="11">
@@ -21084,7 +21084,7 @@
         <v>DJK</v>
       </c>
       <c r="E102" s="18">
-        <f>COUNTIFS($A$2:$A102,$A102,$B$2:$B102,$B102,$L$2:$L102,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A102,$A102,$B$2:$B102,$B102,$L$2:$L102,"&lt;&gt;ET"))</f>
         <v>16</v>
       </c>
       <c r="F102" s="11">
@@ -21205,7 +21205,7 @@
         <v>FCN</v>
       </c>
       <c r="E103" s="18">
-        <f>COUNTIFS($A$2:$A103,$A103,$B$2:$B103,$B103,$L$2:$L103,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A103,$A103,$B$2:$B103,$B103,$L$2:$L103,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F103" s="11">
@@ -21314,7 +21314,7 @@
         <v>DJK</v>
       </c>
       <c r="E104" s="18">
-        <f>COUNTIFS($A$2:$A104,$A104,$B$2:$B104,$B104,$L$2:$L104,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A104,$A104,$B$2:$B104,$B104,$L$2:$L104,"&lt;&gt;ET"))</f>
         <v>17</v>
       </c>
       <c r="F104" s="11">
@@ -21432,7 +21432,7 @@
         <v>DJK</v>
       </c>
       <c r="E105" s="18">
-        <f>COUNTIFS($A$2:$A105,$A105,$B$2:$B105,$B105,$L$2:$L105,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A105,$A105,$B$2:$B105,$B105,$L$2:$L105,"&lt;&gt;ET"))</f>
         <v>18</v>
       </c>
       <c r="F105" s="11">
@@ -21544,7 +21544,7 @@
         <v>FCM</v>
       </c>
       <c r="E106" s="18">
-        <f>COUNTIFS($A$2:$A106,$A106,$B$2:$B106,$B106,$L$2:$L106,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A106,$A106,$B$2:$B106,$B106,$L$2:$L106,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F106" s="11">
@@ -21674,7 +21674,7 @@
         <v>FCN</v>
       </c>
       <c r="E107" s="18">
-        <f>COUNTIFS($A$2:$A107,$A107,$B$2:$B107,$B107,$L$2:$L107,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A107,$A107,$B$2:$B107,$B107,$L$2:$L107,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F107" s="11">
@@ -21790,7 +21790,7 @@
         <v>FCM</v>
       </c>
       <c r="E108" s="18">
-        <f>COUNTIFS($A$2:$A108,$A108,$B$2:$B108,$B108,$L$2:$L108,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A108,$A108,$B$2:$B108,$B108,$L$2:$L108,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F108" s="11">
@@ -21914,7 +21914,7 @@
         <v>FCM</v>
       </c>
       <c r="E109" s="18">
-        <f>COUNTIFS($A$2:$A109,$A109,$B$2:$B109,$B109,$L$2:$L109,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A109,$A109,$B$2:$B109,$B109,$L$2:$L109,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F109" s="11">
@@ -22041,7 +22041,7 @@
         <v>FCN</v>
       </c>
       <c r="E110" s="18">
-        <f>COUNTIFS($A$2:$A110,$A110,$B$2:$B110,$B110,$L$2:$L110,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A110,$A110,$B$2:$B110,$B110,$L$2:$L110,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F110" s="11">
@@ -22151,7 +22151,7 @@
         <v>FCM</v>
       </c>
       <c r="E111" s="18">
-        <f>COUNTIFS($A$2:$A111,$A111,$B$2:$B111,$B111,$L$2:$L111,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A111,$A111,$B$2:$B111,$B111,$L$2:$L111,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F111" s="11">
@@ -22269,7 +22269,7 @@
         <v>FCM</v>
       </c>
       <c r="E112" s="18">
-        <f>COUNTIFS($A$2:$A112,$A112,$B$2:$B112,$B112,$L$2:$L112,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A112,$A112,$B$2:$B112,$B112,$L$2:$L112,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F112" s="11">
@@ -22408,7 +22408,7 @@
         <v>FCM</v>
       </c>
       <c r="E113" s="18">
-        <f>COUNTIFS($A$2:$A113,$A113,$B$2:$B113,$B113,$L$2:$L113,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A113,$A113,$B$2:$B113,$B113,$L$2:$L113,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F113" s="11">
@@ -22529,7 +22529,7 @@
         <v>FCM</v>
       </c>
       <c r="E114" s="18">
-        <f>COUNTIFS($A$2:$A114,$A114,$B$2:$B114,$B114,$L$2:$L114,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A114,$A114,$B$2:$B114,$B114,$L$2:$L114,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F114" s="11">
@@ -22643,7 +22643,7 @@
         <v>FCM</v>
       </c>
       <c r="E115" s="18">
-        <f>COUNTIFS($A$2:$A115,$A115,$B$2:$B115,$B115,$L$2:$L115,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A115,$A115,$B$2:$B115,$B115,$L$2:$L115,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F115" s="11">
@@ -22758,7 +22758,7 @@
         <v>FCN</v>
       </c>
       <c r="E116" s="18">
-        <f>COUNTIFS($A$2:$A116,$A116,$B$2:$B116,$B116,$L$2:$L116,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A116,$A116,$B$2:$B116,$B116,$L$2:$L116,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F116" s="11">
@@ -22874,7 +22874,7 @@
         <v>FCN</v>
       </c>
       <c r="E117" s="18">
-        <f>COUNTIFS($A$2:$A117,$A117,$B$2:$B117,$B117,$L$2:$L117,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A117,$A117,$B$2:$B117,$B117,$L$2:$L117,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F117" s="11">
@@ -22984,7 +22984,7 @@
         <v>FCM</v>
       </c>
       <c r="E118" s="18">
-        <f>COUNTIFS($A$2:$A118,$A118,$B$2:$B118,$B118,$L$2:$L118,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A118,$A118,$B$2:$B118,$B118,$L$2:$L118,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F118" s="11">
@@ -23089,7 +23089,7 @@
         <v>FCM</v>
       </c>
       <c r="E119" s="18">
-        <f>COUNTIFS($A$2:$A119,$A119,$B$2:$B119,$B119,$L$2:$L119,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A119,$A119,$B$2:$B119,$B119,$L$2:$L119,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F119" s="11">
@@ -23216,7 +23216,7 @@
         <v>FCM</v>
       </c>
       <c r="E120" s="18">
-        <f>COUNTIFS($A$2:$A120,$A120,$B$2:$B120,$B120,$L$2:$L120,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A120,$A120,$B$2:$B120,$B120,$L$2:$L120,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F120" s="11">
@@ -23339,7 +23339,7 @@
         <v>FCM</v>
       </c>
       <c r="E121" s="18">
-        <f>COUNTIFS($A$2:$A121,$A121,$B$2:$B121,$B121,$L$2:$L121,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A121,$A121,$B$2:$B121,$B121,$L$2:$L121,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F121" s="11">
@@ -23450,7 +23450,7 @@
         <v>FCN</v>
       </c>
       <c r="E122" s="18">
-        <f>COUNTIFS($A$2:$A122,$A122,$B$2:$B122,$B122,$L$2:$L122,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A122,$A122,$B$2:$B122,$B122,$L$2:$L122,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F122" s="11">
@@ -23560,7 +23560,7 @@
         <v>FCM</v>
       </c>
       <c r="E123" s="18">
-        <f>COUNTIFS($A$2:$A123,$A123,$B$2:$B123,$B123,$L$2:$L123,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A123,$A123,$B$2:$B123,$B123,$L$2:$L123,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F123" s="11">
@@ -23687,7 +23687,7 @@
         <v>FCM</v>
       </c>
       <c r="E124" s="18">
-        <f>COUNTIFS($A$2:$A124,$A124,$B$2:$B124,$B124,$L$2:$L124,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A124,$A124,$B$2:$B124,$B124,$L$2:$L124,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F124" s="11">
@@ -23805,7 +23805,7 @@
         <v>FWK</v>
       </c>
       <c r="E125" s="18">
-        <f>COUNTIFS($A$2:$A125,$A125,$B$2:$B125,$B125,$L$2:$L125,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A125,$A125,$B$2:$B125,$B125,$L$2:$L125,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F125" s="11">
@@ -23935,7 +23935,7 @@
         <v>FWK</v>
       </c>
       <c r="E126" s="18">
-        <f>COUNTIFS($A$2:$A126,$A126,$B$2:$B126,$B126,$L$2:$L126,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A126,$A126,$B$2:$B126,$B126,$L$2:$L126,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F126" s="11">
@@ -24049,7 +24049,7 @@
         <v>FCN</v>
       </c>
       <c r="E127" s="18">
-        <f>COUNTIFS($A$2:$A127,$A127,$B$2:$B127,$B127,$L$2:$L127,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A127,$A127,$B$2:$B127,$B127,$L$2:$L127,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F127" s="11">
@@ -24158,7 +24158,7 @@
         <v>FCN</v>
       </c>
       <c r="E128" s="18">
-        <f>COUNTIFS($A$2:$A128,$A128,$B$2:$B128,$B128,$L$2:$L128,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A128,$A128,$B$2:$B128,$B128,$L$2:$L128,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F128" s="11">
@@ -24270,7 +24270,7 @@
         <v>FWK</v>
       </c>
       <c r="E129" s="18">
-        <f>COUNTIFS($A$2:$A129,$A129,$B$2:$B129,$B129,$L$2:$L129,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A129,$A129,$B$2:$B129,$B129,$L$2:$L129,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F129" s="11">
@@ -24391,7 +24391,7 @@
         <v>FCN</v>
       </c>
       <c r="E130" s="18">
-        <f>COUNTIFS($A$2:$A130,$A130,$B$2:$B130,$B130,$L$2:$L130,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A130,$A130,$B$2:$B130,$B130,$L$2:$L130,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F130" s="11">
@@ -24503,7 +24503,7 @@
         <v>FCN</v>
       </c>
       <c r="E131" s="18">
-        <f>COUNTIFS($A$2:$A131,$A131,$B$2:$B131,$B131,$L$2:$L131,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A131,$A131,$B$2:$B131,$B131,$L$2:$L131,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F131" s="11">
@@ -24609,7 +24609,7 @@
         <v>FCN</v>
       </c>
       <c r="E132" s="18">
-        <f>COUNTIFS($A$2:$A132,$A132,$B$2:$B132,$B132,$L$2:$L132,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A132,$A132,$B$2:$B132,$B132,$L$2:$L132,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F132" s="11">
@@ -24721,7 +24721,7 @@
         <v>FCN</v>
       </c>
       <c r="E133" s="18">
-        <f>COUNTIFS($A$2:$A133,$A133,$B$2:$B133,$B133,$L$2:$L133,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A133,$A133,$B$2:$B133,$B133,$L$2:$L133,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F133" s="11">
@@ -24837,7 +24837,7 @@
         <v>FWK</v>
       </c>
       <c r="E134" s="18">
-        <f>COUNTIFS($A$2:$A134,$A134,$B$2:$B134,$B134,$L$2:$L134,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A134,$A134,$B$2:$B134,$B134,$L$2:$L134,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F134" s="11">
@@ -24961,7 +24961,7 @@
         <v>FCN</v>
       </c>
       <c r="E135" s="18">
-        <f>COUNTIFS($A$2:$A135,$A135,$B$2:$B135,$B135,$L$2:$L135,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A135,$A135,$B$2:$B135,$B135,$L$2:$L135,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F135" s="11">
@@ -25077,7 +25077,7 @@
         <v>FCN</v>
       </c>
       <c r="E136" s="18">
-        <f>COUNTIFS($A$2:$A136,$A136,$B$2:$B136,$B136,$L$2:$L136,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A136,$A136,$B$2:$B136,$B136,$L$2:$L136,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F136" s="11">
@@ -25187,7 +25187,7 @@
         <v>FWK</v>
       </c>
       <c r="E137" s="18">
-        <f>COUNTIFS($A$2:$A137,$A137,$B$2:$B137,$B137,$L$2:$L137,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A137,$A137,$B$2:$B137,$B137,$L$2:$L137,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F137" s="11">
@@ -25314,7 +25314,7 @@
         <v>FCN</v>
       </c>
       <c r="E138" s="18">
-        <f>COUNTIFS($A$2:$A138,$A138,$B$2:$B138,$B138,$L$2:$L138,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A138,$A138,$B$2:$B138,$B138,$L$2:$L138,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F138" s="11">
@@ -25430,7 +25430,7 @@
         <v>FWK</v>
       </c>
       <c r="E139" s="18">
-        <f>COUNTIFS($A$2:$A139,$A139,$B$2:$B139,$B139,$L$2:$L139,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A139,$A139,$B$2:$B139,$B139,$L$2:$L139,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F139" s="11">
@@ -25545,7 +25545,7 @@
         <v>FWK</v>
       </c>
       <c r="E140" s="18">
-        <f>COUNTIFS($A$2:$A140,$A140,$B$2:$B140,$B140,$L$2:$L140,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A140,$A140,$B$2:$B140,$B140,$L$2:$L140,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F140" s="11">
@@ -25663,7 +25663,7 @@
         <v>FWK</v>
       </c>
       <c r="E141" s="18">
-        <f>COUNTIFS($A$2:$A141,$A141,$B$2:$B141,$B141,$L$2:$L141,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A141,$A141,$B$2:$B141,$B141,$L$2:$L141,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F141" s="11">
@@ -25784,7 +25784,7 @@
         <v>FCN</v>
       </c>
       <c r="E142" s="18">
-        <f>COUNTIFS($A$2:$A142,$A142,$B$2:$B142,$B142,$L$2:$L142,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A142,$A142,$B$2:$B142,$B142,$L$2:$L142,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F142" s="11">
@@ -25887,7 +25887,7 @@
         <v>FCN</v>
       </c>
       <c r="E143" s="18">
-        <f>COUNTIFS($A$2:$A143,$A143,$B$2:$B143,$B143,$L$2:$L143,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A143,$A143,$B$2:$B143,$B143,$L$2:$L143,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F143" s="11">
@@ -25997,7 +25997,7 @@
         <v>FCN</v>
       </c>
       <c r="E144" s="18">
-        <f>COUNTIFS($A$2:$A144,$A144,$B$2:$B144,$B144,$L$2:$L144,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A144,$A144,$B$2:$B144,$B144,$L$2:$L144,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F144" s="11">
@@ -26107,7 +26107,7 @@
         <v>FCN</v>
       </c>
       <c r="E145" s="18">
-        <f>COUNTIFS($A$2:$A145,$A145,$B$2:$B145,$B145,$L$2:$L145,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A145,$A145,$B$2:$B145,$B145,$L$2:$L145,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F145" s="11">
@@ -26219,7 +26219,7 @@
         <v>FWK</v>
       </c>
       <c r="E146" s="18">
-        <f>COUNTIFS($A$2:$A146,$A146,$B$2:$B146,$B146,$L$2:$L146,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A146,$A146,$B$2:$B146,$B146,$L$2:$L146,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F146" s="11">
@@ -26343,7 +26343,7 @@
         <v>FCN</v>
       </c>
       <c r="E147" s="18">
-        <f>COUNTIFS($A$2:$A147,$A147,$B$2:$B147,$B147,$L$2:$L147,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A147,$A147,$B$2:$B147,$B147,$L$2:$L147,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F147" s="11">
@@ -26453,7 +26453,7 @@
         <v>FWK</v>
       </c>
       <c r="E148" s="18">
-        <f>COUNTIFS($A$2:$A148,$A148,$B$2:$B148,$B148,$L$2:$L148,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A148,$A148,$B$2:$B148,$B148,$L$2:$L148,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F148" s="11">
@@ -26567,7 +26567,7 @@
         <v>FWK</v>
       </c>
       <c r="E149" s="18">
-        <f>COUNTIFS($A$2:$A149,$A149,$B$2:$B149,$B149,$L$2:$L149,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A149,$A149,$B$2:$B149,$B149,$L$2:$L149,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F149" s="11">
@@ -26709,7 +26709,7 @@
         <v>FCN</v>
       </c>
       <c r="E150" s="18">
-        <f>COUNTIFS($A$2:$A150,$A150,$B$2:$B150,$B150,$L$2:$L150,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A150,$A150,$B$2:$B150,$B150,$L$2:$L150,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F150" s="11">
@@ -26821,7 +26821,7 @@
         <v>FWK</v>
       </c>
       <c r="E151" s="18">
-        <f>COUNTIFS($A$2:$A151,$A151,$B$2:$B151,$B151,$L$2:$L151,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A151,$A151,$B$2:$B151,$B151,$L$2:$L151,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F151" s="11">
@@ -26942,7 +26942,7 @@
         <v>FWK</v>
       </c>
       <c r="E152" s="18">
-        <f>COUNTIFS($A$2:$A152,$A152,$B$2:$B152,$B152,$L$2:$L152,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A152,$A152,$B$2:$B152,$B152,$L$2:$L152,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F152" s="11">
@@ -27063,7 +27063,7 @@
         <v>FCA</v>
       </c>
       <c r="E153" s="18">
-        <f>COUNTIFS($A$2:$A153,$A153,$B$2:$B153,$B153,$L$2:$L153,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A153,$A153,$B$2:$B153,$B153,$L$2:$L153,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F153" s="11">
@@ -27180,7 +27180,7 @@
         <v>FCA</v>
       </c>
       <c r="E154" s="18">
-        <f>COUNTIFS($A$2:$A154,$A154,$B$2:$B154,$B154,$L$2:$L154,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A154,$A154,$B$2:$B154,$B154,$L$2:$L154,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F154" s="11">
@@ -27297,7 +27297,7 @@
         <v>FCA</v>
       </c>
       <c r="E155" s="18">
-        <f>COUNTIFS($A$2:$A155,$A155,$B$2:$B155,$B155,$L$2:$L155,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A155,$A155,$B$2:$B155,$B155,$L$2:$L155,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F155" s="11">
@@ -27415,7 +27415,7 @@
         <v>FCA</v>
       </c>
       <c r="E156" s="18">
-        <f>COUNTIFS($A$2:$A156,$A156,$B$2:$B156,$B156,$L$2:$L156,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A156,$A156,$B$2:$B156,$B156,$L$2:$L156,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F156" s="11">
@@ -27544,7 +27544,7 @@
         <v>FCA</v>
       </c>
       <c r="E157" s="18">
-        <f>COUNTIFS($A$2:$A157,$A157,$B$2:$B157,$B157,$L$2:$L157,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A157,$A157,$B$2:$B157,$B157,$L$2:$L157,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F157" s="11">
@@ -27661,7 +27661,7 @@
         <v>FCA</v>
       </c>
       <c r="E158" s="18">
-        <f>COUNTIFS($A$2:$A158,$A158,$B$2:$B158,$B158,$L$2:$L158,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A158,$A158,$B$2:$B158,$B158,$L$2:$L158,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F158" s="11">
@@ -27778,7 +27778,7 @@
         <v>FCA</v>
       </c>
       <c r="E159" s="18">
-        <f>COUNTIFS($A$2:$A159,$A159,$B$2:$B159,$B159,$L$2:$L159,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A159,$A159,$B$2:$B159,$B159,$L$2:$L159,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F159" s="11">
@@ -27899,7 +27899,7 @@
         <v>FCA</v>
       </c>
       <c r="E160" s="18">
-        <f>COUNTIFS($A$2:$A160,$A160,$B$2:$B160,$B160,$L$2:$L160,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A160,$A160,$B$2:$B160,$B160,$L$2:$L160,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F160" s="11">
@@ -27971,27 +27971,27 @@
         <v>146</v>
       </c>
       <c r="AH160" s="13">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI160" s="13">
-        <v>19.5</v>
+        <v>2.5</v>
       </c>
       <c r="AJ160" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC160-$AH160)^2+($AD160-$AI160)^2))</f>
-        <v>1.8027756377319946</v>
+        <v>17.269916039170543</v>
       </c>
       <c r="AK160" s="3">
         <v>1</v>
       </c>
       <c r="AL160" s="13">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM160" s="13">
-        <v>2.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN160" s="19">
         <f t="shared" si="10"/>
-        <v>17.269916039170543</v>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AO160" s="3">
         <v>2</v>
@@ -28023,7 +28023,7 @@
         <v>FCA</v>
       </c>
       <c r="E161" s="18">
-        <f>COUNTIFS($A$2:$A161,$A161,$B$2:$B161,$B161,$L$2:$L161,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A161,$A161,$B$2:$B161,$B161,$L$2:$L161,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F161" s="11">
@@ -28144,7 +28144,7 @@
         <v>FCA</v>
       </c>
       <c r="E162" s="18">
-        <f>COUNTIFS($A$2:$A162,$A162,$B$2:$B162,$B162,$L$2:$L162,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A162,$A162,$B$2:$B162,$B162,$L$2:$L162,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F162" s="11">
@@ -28271,7 +28271,7 @@
         <v>FCA</v>
       </c>
       <c r="E163" s="18">
-        <f>COUNTIFS($A$2:$A163,$A163,$B$2:$B163,$B163,$L$2:$L163,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A163,$A163,$B$2:$B163,$B163,$L$2:$L163,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F163" s="11">
@@ -28389,7 +28389,7 @@
         <v>FCA</v>
       </c>
       <c r="E164" s="18">
-        <f>COUNTIFS($A$2:$A164,$A164,$B$2:$B164,$B164,$L$2:$L164,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A164,$A164,$B$2:$B164,$B164,$L$2:$L164,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F164" s="11">
@@ -28506,7 +28506,7 @@
         <v>FCA</v>
       </c>
       <c r="E165" s="18">
-        <f>COUNTIFS($A$2:$A165,$A165,$B$2:$B165,$B165,$L$2:$L165,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A165,$A165,$B$2:$B165,$B165,$L$2:$L165,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F165" s="11">
@@ -28620,7 +28620,7 @@
         <v>FCN</v>
       </c>
       <c r="E166" s="18">
-        <f>COUNTIFS($A$2:$A166,$A166,$B$2:$B166,$B166,$L$2:$L166,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A166,$A166,$B$2:$B166,$B166,$L$2:$L166,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F166" s="11">
@@ -28732,7 +28732,7 @@
         <v>FCA</v>
       </c>
       <c r="E167" s="18">
-        <f>COUNTIFS($A$2:$A167,$A167,$B$2:$B167,$B167,$L$2:$L167,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A167,$A167,$B$2:$B167,$B167,$L$2:$L167,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F167" s="11">
@@ -28852,7 +28852,7 @@
         <v>FCA</v>
       </c>
       <c r="E168" s="18">
-        <f>COUNTIFS($A$2:$A168,$A168,$B$2:$B168,$B168,$L$2:$L168,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A168,$A168,$B$2:$B168,$B168,$L$2:$L168,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F168" s="11">
@@ -28972,7 +28972,7 @@
         <v>FCN</v>
       </c>
       <c r="E169" s="18">
-        <f>COUNTIFS($A$2:$A169,$A169,$B$2:$B169,$B169,$L$2:$L169,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A169,$A169,$B$2:$B169,$B169,$L$2:$L169,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F169" s="11">
@@ -29084,7 +29084,7 @@
         <v>FCN</v>
       </c>
       <c r="E170" s="18">
-        <f>COUNTIFS($A$2:$A170,$A170,$B$2:$B170,$B170,$L$2:$L170,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A170,$A170,$B$2:$B170,$B170,$L$2:$L170,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F170" s="11">
@@ -29200,7 +29200,7 @@
         <v>FCA</v>
       </c>
       <c r="E171" s="18">
-        <f>COUNTIFS($A$2:$A171,$A171,$B$2:$B171,$B171,$L$2:$L171,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A171,$A171,$B$2:$B171,$B171,$L$2:$L171,"&lt;&gt;ET"))</f>
         <v>16</v>
       </c>
       <c r="F171" s="11">
@@ -29315,7 +29315,7 @@
         <v>FCA</v>
       </c>
       <c r="E172" s="18">
-        <f>COUNTIFS($A$2:$A172,$A172,$B$2:$B172,$B172,$L$2:$L172,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A172,$A172,$B$2:$B172,$B172,$L$2:$L172,"&lt;&gt;ET"))</f>
         <v>17</v>
       </c>
       <c r="F172" s="11">
@@ -29436,7 +29436,7 @@
         <v>FCN</v>
       </c>
       <c r="E173" s="18">
-        <f>COUNTIFS($A$2:$A173,$A173,$B$2:$B173,$B173,$L$2:$L173,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A173,$A173,$B$2:$B173,$B173,$L$2:$L173,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F173" s="11">
@@ -29546,7 +29546,7 @@
         <v>FCN</v>
       </c>
       <c r="E174" s="18">
-        <f>COUNTIFS($A$2:$A174,$A174,$B$2:$B174,$B174,$L$2:$L174,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A174,$A174,$B$2:$B174,$B174,$L$2:$L174,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F174" s="11">
@@ -29656,7 +29656,7 @@
         <v>FCN</v>
       </c>
       <c r="E175" s="18">
-        <f>COUNTIFS($A$2:$A175,$A175,$B$2:$B175,$B175,$L$2:$L175,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A175,$A175,$B$2:$B175,$B175,$L$2:$L175,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F175" s="11">
@@ -29768,7 +29768,7 @@
         <v>FCA</v>
       </c>
       <c r="E176" s="18">
-        <f>COUNTIFS($A$2:$A176,$A176,$B$2:$B176,$B176,$L$2:$L176,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A176,$A176,$B$2:$B176,$B176,$L$2:$L176,"&lt;&gt;ET"))</f>
         <v>18</v>
       </c>
       <c r="F176" s="11">
@@ -29874,7 +29874,7 @@
         <v>FCN</v>
       </c>
       <c r="E177" s="18">
-        <f>COUNTIFS($A$2:$A177,$A177,$B$2:$B177,$B177,$L$2:$L177,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A177,$A177,$B$2:$B177,$B177,$L$2:$L177,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F177" s="11">
@@ -29986,8 +29986,8 @@
         <v>FCN</v>
       </c>
       <c r="E178" s="18">
-        <f>COUNTIFS($A$2:$A178,$A178,$B$2:$B178,$B178,$L$2:$L178,"&lt;&gt;ET")</f>
-        <v>7</v>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A178,$A178,$B$2:$B178,$B178,$L$2:$L178,"&lt;&gt;ET"))</f>
+        <v>0</v>
       </c>
       <c r="F178" s="11">
         <v>55</v>
@@ -30006,6 +30006,9 @@
       <c r="J178" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A178,Spiele!$A$2:$D$15,3,FALSE)=$B178,(COUNTIFS($L$1:$L177,"Tor",$B$1:$B177,$B178,$A$1:$A177,$A178)+COUNTIFS($L$1:$L177,"ET",$B$1:$B177,$B178,$A$1:$A177,$A178))-(COUNTIFS($L$1:$L177,"Tor",$B$1:$B177,"&lt;&gt;"&amp;$B178,$A$1:$A177,$A178)+COUNTIFS($L$1:$L177,"ET",$B$1:$B177,"&lt;&gt;"&amp;$B178,$A$1:$A177,$A178)),(COUNTIFS($L$1:$L177,"Tor",$B$1:$B177,$B178,$A$1:$A177,$A178)+COUNTIFS($L$1:$L177,"ET",$B$1:$B177,$B178,$A$1:$A177,$A178))-(COUNTIFS($L$1:$L177,"Tor",$B$1:$B177,"&lt;&gt;"&amp;$B178,$A$1:$A177,$A178)+COUNTIFS($L$1:$L177,"ET",$B$1:$B177,"&lt;&gt;"&amp;$B178,$A$1:$A177,$A178))),"")</f>
         <v>-1</v>
+      </c>
+      <c r="K178" s="3">
+        <v>21</v>
       </c>
       <c r="L178" s="17" t="s">
         <v>171</v>
@@ -30052,7 +30055,7 @@
         <v>FCA</v>
       </c>
       <c r="E179" s="18">
-        <f>COUNTIFS($A$2:$A179,$A179,$B$2:$B179,$B179,$L$2:$L179,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A179,$A179,$B$2:$B179,$B179,$L$2:$L179,"&lt;&gt;ET"))</f>
         <v>19</v>
       </c>
       <c r="F179" s="11">
@@ -30074,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="K179" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L179" s="17" t="s">
         <v>19</v>
@@ -30176,7 +30179,7 @@
         <v>FCA</v>
       </c>
       <c r="E180" s="18">
-        <f>COUNTIFS($A$2:$A180,$A180,$B$2:$B180,$B180,$L$2:$L180,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A180,$A180,$B$2:$B180,$B180,$L$2:$L180,"&lt;&gt;ET"))</f>
         <v>20</v>
       </c>
       <c r="F180" s="11">
@@ -30198,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L180" s="17" t="s">
         <v>20</v>
@@ -30297,7 +30300,7 @@
         <v>FCA</v>
       </c>
       <c r="E181" s="18">
-        <f>COUNTIFS($A$2:$A181,$A181,$B$2:$B181,$B181,$L$2:$L181,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A181,$A181,$B$2:$B181,$B181,$L$2:$L181,"&lt;&gt;ET"))</f>
         <v>21</v>
       </c>
       <c r="F181" s="11">
@@ -30319,7 +30322,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L181" s="17" t="s">
         <v>20</v>
@@ -30415,7 +30418,7 @@
         <v>FCN</v>
       </c>
       <c r="E182" s="18">
-        <f>COUNTIFS($A$2:$A182,$A182,$B$2:$B182,$B182,$L$2:$L182,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A182,$A182,$B$2:$B182,$B182,$L$2:$L182,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F182" s="11">
@@ -30437,7 +30440,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L182" s="17" t="s">
         <v>20</v>
@@ -30531,7 +30534,7 @@
         <v>FCA</v>
       </c>
       <c r="E183" s="18">
-        <f>COUNTIFS($A$2:$A183,$A183,$B$2:$B183,$B183,$L$2:$L183,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A183,$A183,$B$2:$B183,$B183,$L$2:$L183,"&lt;&gt;ET"))</f>
         <v>22</v>
       </c>
       <c r="F183" s="11">
@@ -30553,7 +30556,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L183" s="17" t="s">
         <v>18</v>
@@ -30655,7 +30658,7 @@
         <v>FCA</v>
       </c>
       <c r="E184" s="18">
-        <f>COUNTIFS($A$2:$A184,$A184,$B$2:$B184,$B184,$L$2:$L184,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A184,$A184,$B$2:$B184,$B184,$L$2:$L184,"&lt;&gt;ET"))</f>
         <v>23</v>
       </c>
       <c r="F184" s="11">
@@ -30677,7 +30680,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L184" s="17" t="s">
         <v>170</v>
@@ -30773,7 +30776,7 @@
         <v>FCN</v>
       </c>
       <c r="E185" s="18">
-        <f>COUNTIFS($A$2:$A185,$A185,$B$2:$B185,$B185,$L$2:$L185,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A185,$A185,$B$2:$B185,$B185,$L$2:$L185,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F185" s="11">
@@ -30795,7 +30798,7 @@
         <v>0</v>
       </c>
       <c r="K185" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L185" s="17" t="s">
         <v>18</v>
@@ -30883,7 +30886,7 @@
         <v>FCN</v>
       </c>
       <c r="E186" s="18">
-        <f>COUNTIFS($A$2:$A186,$A186,$B$2:$B186,$B186,$L$2:$L186,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A186,$A186,$B$2:$B186,$B186,$L$2:$L186,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F186" s="11">
@@ -30905,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L186" s="17" t="s">
         <v>170</v>
@@ -30993,7 +30996,7 @@
         <v>FCN</v>
       </c>
       <c r="E187" s="18">
-        <f>COUNTIFS($A$2:$A187,$A187,$B$2:$B187,$B187,$L$2:$L187,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A187,$A187,$B$2:$B187,$B187,$L$2:$L187,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F187" s="11">
@@ -31015,7 +31018,7 @@
         <v>0</v>
       </c>
       <c r="K187" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L187" s="17" t="s">
         <v>20</v>
@@ -31105,7 +31108,7 @@
         <v>FCN</v>
       </c>
       <c r="E188" s="18">
-        <f>COUNTIFS($A$2:$A188,$A188,$B$2:$B188,$B188,$L$2:$L188,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A188,$A188,$B$2:$B188,$B188,$L$2:$L188,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F188" s="11">
@@ -31127,7 +31130,7 @@
         <v>0</v>
       </c>
       <c r="K188" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L188" s="17" t="s">
         <v>20</v>
@@ -31221,7 +31224,7 @@
         <v>FCA</v>
       </c>
       <c r="E189" s="18">
-        <f>COUNTIFS($A$2:$A189,$A189,$B$2:$B189,$B189,$L$2:$L189,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A189,$A189,$B$2:$B189,$B189,$L$2:$L189,"&lt;&gt;ET"))</f>
         <v>24</v>
       </c>
       <c r="F189" s="11">
@@ -31243,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="K189" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L189" s="18" t="s">
         <v>18</v>
@@ -31345,7 +31348,7 @@
         <v>FCN</v>
       </c>
       <c r="E190" s="18">
-        <f>COUNTIFS($A$2:$A190,$A190,$B$2:$B190,$B190,$L$2:$L190,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A190,$A190,$B$2:$B190,$B190,$L$2:$L190,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F190" s="11">
@@ -31367,7 +31370,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L190" s="17" t="s">
         <v>19</v>
@@ -31461,7 +31464,7 @@
         <v>FCA</v>
       </c>
       <c r="E191" s="18">
-        <f>COUNTIFS($A$2:$A191,$A191,$B$2:$B191,$B191,$L$2:$L191,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A191,$A191,$B$2:$B191,$B191,$L$2:$L191,"&lt;&gt;ET"))</f>
         <v>25</v>
       </c>
       <c r="F191" s="11">
@@ -31483,7 +31486,7 @@
         <v>0</v>
       </c>
       <c r="K191" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L191" s="17" t="s">
         <v>18</v>
@@ -31579,7 +31582,7 @@
         <v>FCA</v>
       </c>
       <c r="E192" s="18">
-        <f>COUNTIFS($A$2:$A192,$A192,$B$2:$B192,$B192,$L$2:$L192,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A192,$A192,$B$2:$B192,$B192,$L$2:$L192,"&lt;&gt;ET"))</f>
         <v>26</v>
       </c>
       <c r="F192" s="11">
@@ -31601,7 +31604,7 @@
         <v>0</v>
       </c>
       <c r="K192" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L192" s="18" t="s">
         <v>20</v>
@@ -31697,7 +31700,7 @@
         <v>FCA</v>
       </c>
       <c r="E193" s="18">
-        <f>COUNTIFS($A$2:$A193,$A193,$B$2:$B193,$B193,$L$2:$L193,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A193,$A193,$B$2:$B193,$B193,$L$2:$L193,"&lt;&gt;ET"))</f>
         <v>27</v>
       </c>
       <c r="F193" s="11">
@@ -31719,7 +31722,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L193" s="17" t="s">
         <v>0</v>
@@ -31815,7 +31818,7 @@
         <v>FCN</v>
       </c>
       <c r="E194" s="18">
-        <f>COUNTIFS($A$2:$A194,$A194,$B$2:$B194,$B194,$L$2:$L194,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A194,$A194,$B$2:$B194,$B194,$L$2:$L194,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F194" s="11">
@@ -31837,7 +31840,7 @@
         <v>-1</v>
       </c>
       <c r="K194" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L194" s="17" t="s">
         <v>18</v>
@@ -31925,7 +31928,7 @@
         <v>FCN</v>
       </c>
       <c r="E195" s="18">
-        <f>COUNTIFS($A$2:$A195,$A195,$B$2:$B195,$B195,$L$2:$L195,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A195,$A195,$B$2:$B195,$B195,$L$2:$L195,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F195" s="11">
@@ -32041,7 +32044,7 @@
         <v>FCN</v>
       </c>
       <c r="E196" s="18">
-        <f>COUNTIFS($A$2:$A196,$A196,$B$2:$B196,$B196,$L$2:$L196,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A196,$A196,$B$2:$B196,$B196,$L$2:$L196,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F196" s="11">
@@ -32153,7 +32156,7 @@
         <v>60M</v>
       </c>
       <c r="E197" s="18">
-        <f>COUNTIFS($A$2:$A197,$A197,$B$2:$B197,$B197,$L$2:$L197,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A197,$A197,$B$2:$B197,$B197,$L$2:$L197,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F197" s="11">
@@ -32270,7 +32273,7 @@
         <v>FCN</v>
       </c>
       <c r="E198" s="18">
-        <f>COUNTIFS($A$2:$A198,$A198,$B$2:$B198,$B198,$L$2:$L198,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A198,$A198,$B$2:$B198,$B198,$L$2:$L198,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F198" s="11">
@@ -32382,7 +32385,7 @@
         <v>60M</v>
       </c>
       <c r="E199" s="18">
-        <f>COUNTIFS($A$2:$A199,$A199,$B$2:$B199,$B199,$L$2:$L199,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A199,$A199,$B$2:$B199,$B199,$L$2:$L199,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F199" s="11">
@@ -32506,7 +32509,7 @@
         <v>FCN</v>
       </c>
       <c r="E200" s="18">
-        <f>COUNTIFS($A$2:$A200,$A200,$B$2:$B200,$B200,$L$2:$L200,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A200,$A200,$B$2:$B200,$B200,$L$2:$L200,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F200" s="11">
@@ -32618,7 +32621,7 @@
         <v>FCN</v>
       </c>
       <c r="E201" s="18">
-        <f>COUNTIFS($A$2:$A201,$A201,$B$2:$B201,$B201,$L$2:$L201,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A201,$A201,$B$2:$B201,$B201,$L$2:$L201,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F201" s="11">
@@ -32734,7 +32737,7 @@
         <v>FCN</v>
       </c>
       <c r="E202" s="18">
-        <f>COUNTIFS($A$2:$A202,$A202,$B$2:$B202,$B202,$L$2:$L202,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A202,$A202,$B$2:$B202,$B202,$L$2:$L202,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F202" s="11">
@@ -32850,7 +32853,7 @@
         <v>60M</v>
       </c>
       <c r="E203" s="18">
-        <f>COUNTIFS($A$2:$A203,$A203,$B$2:$B203,$B203,$L$2:$L203,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A203,$A203,$B$2:$B203,$B203,$L$2:$L203,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F203" s="11">
@@ -32971,7 +32974,7 @@
         <v>60M</v>
       </c>
       <c r="E204" s="18">
-        <f>COUNTIFS($A$2:$A204,$A204,$B$2:$B204,$B204,$L$2:$L204,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A204,$A204,$B$2:$B204,$B204,$L$2:$L204,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F204" s="11">
@@ -33089,7 +33092,7 @@
         <v>60M</v>
       </c>
       <c r="E205" s="18">
-        <f>COUNTIFS($A$2:$A205,$A205,$B$2:$B205,$B205,$L$2:$L205,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A205,$A205,$B$2:$B205,$B205,$L$2:$L205,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F205" s="11">
@@ -33203,7 +33206,7 @@
         <v>FCN</v>
       </c>
       <c r="E206" s="18">
-        <f>COUNTIFS($A$2:$A206,$A206,$B$2:$B206,$B206,$L$2:$L206,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A206,$A206,$B$2:$B206,$B206,$L$2:$L206,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F206" s="11">
@@ -33319,7 +33322,7 @@
         <v>60M</v>
       </c>
       <c r="E207" s="18">
-        <f>COUNTIFS($A$2:$A207,$A207,$B$2:$B207,$B207,$L$2:$L207,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A207,$A207,$B$2:$B207,$B207,$L$2:$L207,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F207" s="11">
@@ -33440,7 +33443,7 @@
         <v>FCN</v>
       </c>
       <c r="E208" s="18">
-        <f>COUNTIFS($A$2:$A208,$A208,$B$2:$B208,$B208,$L$2:$L208,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A208,$A208,$B$2:$B208,$B208,$L$2:$L208,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F208" s="11">
@@ -33550,7 +33553,7 @@
         <v>FCN</v>
       </c>
       <c r="E209" s="18">
-        <f>COUNTIFS($A$2:$A209,$A209,$B$2:$B209,$B209,$L$2:$L209,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A209,$A209,$B$2:$B209,$B209,$L$2:$L209,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F209" s="11">
@@ -33666,7 +33669,7 @@
         <v>60M</v>
       </c>
       <c r="E210" s="18">
-        <f>COUNTIFS($A$2:$A210,$A210,$B$2:$B210,$B210,$L$2:$L210,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A210,$A210,$B$2:$B210,$B210,$L$2:$L210,"&lt;&gt;ET"))</f>
         <v>7</v>
       </c>
       <c r="F210" s="11">
@@ -33781,7 +33784,7 @@
         <v>60M</v>
       </c>
       <c r="E211" s="18">
-        <f>COUNTIFS($A$2:$A211,$A211,$B$2:$B211,$B211,$L$2:$L211,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A211,$A211,$B$2:$B211,$B211,$L$2:$L211,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F211" s="11">
@@ -33893,7 +33896,7 @@
         <v>FCN</v>
       </c>
       <c r="E212" s="18">
-        <f>COUNTIFS($A$2:$A212,$A212,$B$2:$B212,$B212,$L$2:$L212,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A212,$A212,$B$2:$B212,$B212,$L$2:$L212,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F212" s="11">
@@ -34002,7 +34005,7 @@
         <v>60M</v>
       </c>
       <c r="E213" s="18">
-        <f>COUNTIFS($A$2:$A213,$A213,$B$2:$B213,$B213,$L$2:$L213,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A213,$A213,$B$2:$B213,$B213,$L$2:$L213,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F213" s="11">
@@ -34129,7 +34132,7 @@
         <v>FCN</v>
       </c>
       <c r="E214" s="18">
-        <f>COUNTIFS($A$2:$A214,$A214,$B$2:$B214,$B214,$L$2:$L214,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A214,$A214,$B$2:$B214,$B214,$L$2:$L214,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F214" s="11">
@@ -34239,7 +34242,7 @@
         <v>60M</v>
       </c>
       <c r="E215" s="18">
-        <f>COUNTIFS($A$2:$A215,$A215,$B$2:$B215,$B215,$L$2:$L215,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A215,$A215,$B$2:$B215,$B215,$L$2:$L215,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F215" s="11">
@@ -34372,7 +34375,7 @@
         <v>60M</v>
       </c>
       <c r="E216" s="18">
-        <f>COUNTIFS($A$2:$A216,$A216,$B$2:$B216,$B216,$L$2:$L216,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A216,$A216,$B$2:$B216,$B216,$L$2:$L216,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F216" s="11">
@@ -34483,7 +34486,7 @@
         <v>FCN</v>
       </c>
       <c r="E217" s="18">
-        <f>COUNTIFS($A$2:$A217,$A217,$B$2:$B217,$B217,$L$2:$L217,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A217,$A217,$B$2:$B217,$B217,$L$2:$L217,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F217" s="11">
@@ -34593,7 +34596,7 @@
         <v>FCN</v>
       </c>
       <c r="E218" s="18">
-        <f>COUNTIFS($A$2:$A218,$A218,$B$2:$B218,$B218,$L$2:$L218,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A218,$A218,$B$2:$B218,$B218,$L$2:$L218,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F218" s="11">
@@ -34709,7 +34712,7 @@
         <v>60M</v>
       </c>
       <c r="E219" s="18">
-        <f>COUNTIFS($A$2:$A219,$A219,$B$2:$B219,$B219,$L$2:$L219,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A219,$A219,$B$2:$B219,$B219,$L$2:$L219,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F219" s="11">
@@ -34836,7 +34839,7 @@
         <v>60M</v>
       </c>
       <c r="E220" s="18">
-        <f>COUNTIFS($A$2:$A220,$A220,$B$2:$B220,$B220,$L$2:$L220,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A220,$A220,$B$2:$B220,$B220,$L$2:$L220,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F220" s="11">
@@ -34974,7 +34977,7 @@
         <v>60M</v>
       </c>
       <c r="E221" s="18">
-        <f>COUNTIFS($A$2:$A221,$A221,$B$2:$B221,$B221,$L$2:$L221,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A221,$A221,$B$2:$B221,$B221,$L$2:$L221,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F221" s="11">
@@ -35092,7 +35095,7 @@
         <v>60M</v>
       </c>
       <c r="E222" s="18">
-        <f>COUNTIFS($A$2:$A222,$A222,$B$2:$B222,$B222,$L$2:$L222,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A222,$A222,$B$2:$B222,$B222,$L$2:$L222,"&lt;&gt;ET"))</f>
         <v>15</v>
       </c>
       <c r="F222" s="11">
@@ -35213,7 +35216,7 @@
         <v>FCN</v>
       </c>
       <c r="E223" s="18">
-        <f>COUNTIFS($A$2:$A223,$A223,$B$2:$B223,$B223,$L$2:$L223,"&lt;&gt;ET")</f>
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A223,$A223,$B$2:$B223,$B223,$L$2:$L223,"&lt;&gt;ET"))</f>
         <v>14</v>
       </c>
       <c r="F223" s="11">
@@ -35318,111 +35321,111 @@
       <formula>$C2="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:AR1048576">
-    <cfRule type="expression" dxfId="38" priority="13">
-      <formula>$L2="ET"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K223 M2:M223 Z2:AA223 AC2:AD223 AG2:AI223 AK2:AK223 AO2:AO223">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:M223 X2:AD223 AG2:AI223 AK2:AK223 AO2:AO223">
-    <cfRule type="expression" dxfId="36" priority="49">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$F2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L223 Y2:Y223 AB2:AB223">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="notEqual">
+  <conditionalFormatting sqref="M226">
+    <cfRule type="cellIs" dxfId="36" priority="121" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M226">
-    <cfRule type="cellIs" dxfId="34" priority="121" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="122">
+    <cfRule type="expression" dxfId="35" priority="122">
       <formula>$F226&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:AR1048576">
+    <cfRule type="expression" dxfId="34" priority="13">
+      <formula>$L2="ET"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2:N223">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>$M2="nEW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>$M2="EW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$M2="n11M"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$M2="nFS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$M2="nE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$M2="FSF"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$M2="E"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>$M2="USO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>$M2="EB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N226:W226">
-    <cfRule type="expression" dxfId="22" priority="104">
+    <cfRule type="expression" dxfId="23" priority="104">
       <formula>$M226="nEW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="105">
+    <cfRule type="expression" dxfId="22" priority="105">
       <formula>$M226="EW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="106">
+    <cfRule type="expression" dxfId="21" priority="106">
       <formula>$M226="n11M"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="107">
+    <cfRule type="expression" dxfId="20" priority="107">
       <formula>$M226="nFS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="108">
+    <cfRule type="expression" dxfId="19" priority="108">
       <formula>$M226="nE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="109">
+    <cfRule type="expression" dxfId="18" priority="109">
       <formula>$M226="FSF"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="110">
+    <cfRule type="expression" dxfId="17" priority="110">
       <formula>$M226="E"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="111">
+    <cfRule type="expression" dxfId="16" priority="111">
       <formula>$M226="USO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="123">
+    <cfRule type="expression" dxfId="15" priority="123">
       <formula>$M226="EB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N226:X226">
-    <cfRule type="cellIs" dxfId="13" priority="103" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="103" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X223">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="53">
+    <cfRule type="expression" dxfId="12" priority="53">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X226">
-    <cfRule type="expression" dxfId="10" priority="124">
+    <cfRule type="expression" dxfId="11" priority="124">
       <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y223 AB2:AB223 L2:L223">
+    <cfRule type="cellIs" dxfId="10" priority="47" operator="notEqual">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z225:AA225">

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF25D9C-E642-4DA1-AF24-A2C20A07370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A0B4D-4D87-4156-8061-DB9E241858F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiele" sheetId="35" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="180">
   <si>
     <t>Tor</t>
   </si>
@@ -3277,10 +3277,10 @@
     <tableColumn id="7" xr3:uid="{1F4B0B22-113B-4B13-B735-0BBD579317AF}" name="1. HZ" dataDxfId="119"/>
     <tableColumn id="8" xr3:uid="{12077EEE-5CEB-4092-B79D-C908B22B2779}" name="2. HZ" dataDxfId="118"/>
     <tableColumn id="13" xr3:uid="{9623CA39-28F7-4980-A88A-3573C5D164D8}" name="TH" dataDxfId="117">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$C2,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$C2,Abschlüsse!$L$2:$L$223,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{C91559F3-290E-4254-BCA6-0153E99BEA95}" name="TG" dataDxfId="116">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$D2,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$D2,Abschlüsse!$L$2:$L$223,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{20A97A80-E72B-4108-88BD-336F6FD51B46}" name="PH" dataDxfId="115">
       <calculatedColumnFormula>IF($A2="","",IF($G2&gt;$H2,3,IF($G2=$H2,1,IF($G2&lt;$H2,0,""))))</calculatedColumnFormula>
@@ -3322,8 +3322,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AR223" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Standard 2">
-  <autoFilter ref="A1:AR223" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AR254" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:AR254" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
   <tableColumns count="44">
     <tableColumn id="3" xr3:uid="{0676AC04-BF24-449C-85E1-9A2476826D3A}" name="SID" dataDxfId="96"/>
     <tableColumn id="4" xr3:uid="{115800A1-176E-47B9-8A68-56625F9DD647}" name="TID" dataDxfId="95"/>
@@ -3756,11 +3756,11 @@
         <v>40</v>
       </c>
       <c r="G2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$C2,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$C2,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$D2,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A2,Abschlüsse!$B$2:$B$223,$D2,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I2" s="18">
@@ -3792,11 +3792,11 @@
         <v>43</v>
       </c>
       <c r="G3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A3,Abschlüsse!$B$2:$B$223,$C3,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A3,Abschlüsse!$B$2:$B$223,$C3,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$C3,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$C3,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A3,Abschlüsse!$B$2:$B$223,$D3,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A3,Abschlüsse!$B$2:$B$223,$D3,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$D3,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$D3,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I3" s="18">
@@ -3828,11 +3828,11 @@
         <v>40</v>
       </c>
       <c r="G4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A4,Abschlüsse!$B$2:$B$223,$C4,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A4,Abschlüsse!$B$2:$B$223,$C4,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$C4,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$C4,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A4,Abschlüsse!$B$2:$B$223,$D4,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A4,Abschlüsse!$B$2:$B$223,$D4,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$D4,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$D4,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
@@ -3864,11 +3864,11 @@
         <v>43</v>
       </c>
       <c r="G5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A5,Abschlüsse!$B$2:$B$223,$C5,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A5,Abschlüsse!$B$2:$B$223,$C5,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$C5,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$C5,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A5,Abschlüsse!$B$2:$B$223,$D5,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A5,Abschlüsse!$B$2:$B$223,$D5,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$D5,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$D5,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I5" s="18">
@@ -3900,11 +3900,11 @@
         <v>42</v>
       </c>
       <c r="G6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A6,Abschlüsse!$B$2:$B$223,$C6,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A6,Abschlüsse!$B$2:$B$223,$C6,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$C6,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$C6,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A6,Abschlüsse!$B$2:$B$223,$D6,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A6,Abschlüsse!$B$2:$B$223,$D6,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$D6,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$D6,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I6" s="18">
@@ -3936,11 +3936,11 @@
         <v>45</v>
       </c>
       <c r="G7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A7,Abschlüsse!$B$2:$B$223,$C7,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A7,Abschlüsse!$B$2:$B$223,$C7,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$C7,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$C7,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A7,Abschlüsse!$B$2:$B$223,$D7,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A7,Abschlüsse!$B$2:$B$223,$D7,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$D7,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$D7,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I7" s="18">
@@ -3972,11 +3972,11 @@
         <v>45</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A8,Abschlüsse!$B$2:$B$223,$C8,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A8,Abschlüsse!$B$2:$B$223,$C8,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$C8,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$C8,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A8,Abschlüsse!$B$2:$B$223,$D8,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A8,Abschlüsse!$B$2:$B$223,$D8,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$D8,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$D8,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I8" s="18">
@@ -4008,20 +4008,20 @@
         <v>46</v>
       </c>
       <c r="G9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A9,Abschlüsse!$B$2:$B$223,$C9,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A9,Abschlüsse!$B$2:$B$223,$C9,Abschlüsse!$L$2:$L$223,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$C9,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$C9,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <v>2</v>
       </c>
       <c r="H9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A9,Abschlüsse!$B$2:$B$223,$D9,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A9,Abschlüsse!$B$2:$B$223,$D9,Abschlüsse!$L$2:$L$223,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$D9,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$D9,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <v>3</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.05" customHeight="1">
@@ -4044,11 +4044,11 @@
         <v>44</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A10,Abschlüsse!$B$2:$B$223,$C10,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A10,Abschlüsse!$B$2:$B$223,$C10,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$C10,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$C10,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A10,Abschlüsse!$B$2:$B$223,$D10,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A10,Abschlüsse!$B$2:$B$223,$D10,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$D10,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$D10,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I10" s="18">
@@ -4080,11 +4080,11 @@
         <v>44</v>
       </c>
       <c r="G11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A11,Abschlüsse!$B$2:$B$223,$C11,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A11,Abschlüsse!$B$2:$B$223,$C11,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$C11,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$C11,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A11,Abschlüsse!$B$2:$B$223,$D11,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A11,Abschlüsse!$B$2:$B$223,$D11,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$D11,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$D11,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I11" s="18">
@@ -4116,11 +4116,11 @@
         <v>46</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A12,Abschlüsse!$B$2:$B$223,$C12,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A12,Abschlüsse!$B$2:$B$223,$C12,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$C12,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$C12,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A12,Abschlüsse!$B$2:$B$223,$D12,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A12,Abschlüsse!$B$2:$B$223,$D12,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$D12,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$D12,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I12" s="18">
@@ -4152,11 +4152,11 @@
         <v>45</v>
       </c>
       <c r="G13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A13,Abschlüsse!$B$2:$B$223,$C13,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A13,Abschlüsse!$B$2:$B$223,$C13,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$C13,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$C13,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A13,Abschlüsse!$B$2:$B$223,$D13,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A13,Abschlüsse!$B$2:$B$223,$D13,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$D13,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$D13,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I13" s="18">
@@ -4188,11 +4188,11 @@
         <v>44</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A14,Abschlüsse!$B$2:$B$223,$C14,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A14,Abschlüsse!$B$2:$B$223,$C14,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$C14,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$C14,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>1</v>
       </c>
       <c r="H14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A14,Abschlüsse!$B$2:$B$223,$D14,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A14,Abschlüsse!$B$2:$B$223,$D14,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$D14,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$D14,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I14" s="18">
@@ -4224,11 +4224,11 @@
         <v>45</v>
       </c>
       <c r="G15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A15,Abschlüsse!$B$2:$B$223,$C15,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A15,Abschlüsse!$B$2:$B$223,$C15,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$C15,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$C15,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$223,$A15,Abschlüsse!$B$2:$B$223,$D15,Abschlüsse!$L$2:$L$223,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$223,$A15,Abschlüsse!$B$2:$B$223,$D15,Abschlüsse!$L$2:$L$223,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$D15,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$D15,Abschlüsse!$L$2:$L$254,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I15" s="18">
@@ -9059,7 +9059,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS225"/>
+  <dimension ref="A1:AS256"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -25014,11 +25014,11 @@
         <v>14.5</v>
       </c>
       <c r="AE135" s="19">
-        <f t="shared" ref="AE135:AE194" si="8">IF($L135="ET","",IF($AC135&gt;3.66,SQRT($AD135^2+($AC135-(7.32/2))^2),IF($AC135&lt;-3.66,SQRT($AD135^2+($AC135+(7.32/2))^2),$AD135)))</f>
+        <f t="shared" ref="AE135:AE201" si="8">IF($L135="ET","",IF($AC135&gt;3.66,SQRT($AD135^2+($AC135-(7.32/2))^2),IF($AC135&lt;-3.66,SQRT($AD135^2+($AC135+(7.32/2))^2),$AD135)))</f>
         <v>15.135573989776535</v>
       </c>
       <c r="AF135" s="19">
-        <f t="shared" ref="AF135:AF194" si="9">IF($L135="ET","",IF(DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2)))))</f>
+        <f t="shared" ref="AF135:AF201" si="9">IF($L135="ET","",IF(DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD135)/($AD135^2+$AC135^2-(7.32/2)^2)))))</f>
         <v>22.141095680440266</v>
       </c>
       <c r="AG135" s="2" t="s">
@@ -25044,7 +25044,7 @@
         <v>14</v>
       </c>
       <c r="AN135" s="19">
-        <f t="shared" ref="AN135:AN194" si="10">IF(AK135=0,"",SQRT(($AC135-$AL135)^2+($AD135-$AM135)^2))</f>
+        <f t="shared" ref="AN135:AN202" si="10">IF(AK135=0,"",SQRT(($AC135-$AL135)^2+($AD135-$AM135)^2))</f>
         <v>2.0615528128088303</v>
       </c>
       <c r="AO135" s="3">
@@ -25057,7 +25057,7 @@
         <v>13</v>
       </c>
       <c r="AR135" s="19">
-        <f t="shared" ref="AR135:AR194" si="11">IF(AO135=0,"",SQRT(($AC135-$AP135)^2+($AD135-$AQ135)^2))</f>
+        <f t="shared" ref="AR135:AR202" si="11">IF(AO135=0,"",SQRT(($AC135-$AP135)^2+($AD135-$AQ135)^2))</f>
         <v>2.5</v>
       </c>
     </row>
@@ -31914,10 +31914,10 @@
     </row>
     <row r="195" spans="1:44" ht="25.05" customHeight="1">
       <c r="A195" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C195" s="17" t="str">
         <f>IF($A195="","",IF(VLOOKUP($A195,Spiele!$A$2:$D$15,3,FALSE)=$B195,"H","G"))</f>
@@ -31925,14 +31925,14 @@
       </c>
       <c r="D195" s="17" t="str">
         <f>IF($B195="","",IF(VLOOKUP($A195,Spiele!$A$2:$F$15,3,FALSE)=$B195,VLOOKUP($A195,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A195,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E195" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A195,$A195,$B$2:$B195,$B195,$L$2:$L195,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F195" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G195" s="12">
         <v>1</v>
@@ -31953,87 +31953,92 @@
         <v>1</v>
       </c>
       <c r="L195" s="17" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="M195" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="O195" s="2">
+        <v>27</v>
+      </c>
+      <c r="P195" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>20</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y195" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z195" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA195" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB195" s="18"/>
+      <c r="AB195" s="18">
+        <v>7</v>
+      </c>
       <c r="AC195" s="13">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AD195" s="13">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE195" s="19">
-        <f t="shared" ref="AE195:AE223" si="12">IF($L195="ET","",IF($AC195&gt;3.66,SQRT($AD195^2+($AC195-(7.32/2))^2),IF($AC195&lt;-3.66,SQRT($AD195^2+($AC195+(7.32/2))^2),$AD195)))</f>
-        <v>17.5</v>
+        <f t="shared" si="8"/>
+        <v>8.6049753050197655</v>
       </c>
       <c r="AF195" s="19">
-        <f t="shared" ref="AF195:AF223" si="13">IF($L195="ET","",IF(DEGREES(ATAN((7.32*$AD195)/($AD195^2+$AC195^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD195)/($AD195^2+$AC195^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD195)/($AD195^2+$AC195^2-(7.32/2)^2)))))</f>
-        <v>23.341389828691302</v>
+        <f t="shared" si="9"/>
+        <v>36.575430535953068</v>
       </c>
       <c r="AG195" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH195" s="13">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="AI195" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AJ195" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC195-$AH195)^2+($AD195-$AI195)^2))</f>
-        <v>17.066048165876012</v>
+        <v>7.2801098892805181</v>
       </c>
       <c r="AK195" s="3">
         <v>1</v>
       </c>
       <c r="AL195" s="13">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="AM195" s="13">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AN195" s="19">
-        <f t="shared" ref="AN195:AN223" si="14">IF(AK195=0,"",SQRT(($AC195-$AL195)^2+($AD195-$AM195)^2))</f>
-        <v>0.70710678118654757</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AO195" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP195" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AQ195" s="13">
-        <v>14</v>
-      </c>
-      <c r="AR195" s="19">
-        <f t="shared" ref="AR195:AR223" si="15">IF(AO195=0,"",SQRT(($AC195-$AP195)^2+($AD195-$AQ195)^2))</f>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="AR195" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
     <row r="196" spans="1:44" ht="25.05" customHeight="1">
       <c r="A196" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C196" s="17" t="str">
         <f>IF($A196="","",IF(VLOOKUP($A196,Spiele!$A$2:$D$15,3,FALSE)=$B196,"H","G"))</f>
@@ -32041,14 +32046,14 @@
       </c>
       <c r="D196" s="17" t="str">
         <f>IF($B196="","",IF(VLOOKUP($A196,Spiele!$A$2:$F$15,3,FALSE)=$B196,VLOOKUP($A196,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A196,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E196" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A196,$A196,$B$2:$B196,$B196,$L$2:$L196,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F196" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G196" s="12">
         <v>1</v>
@@ -32069,98 +32074,107 @@
         <v>1</v>
       </c>
       <c r="L196" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M196" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
+      </c>
+      <c r="O196" s="2">
+        <v>5</v>
       </c>
       <c r="X196" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Y196" s="17" t="s">
         <v>143</v>
       </c>
       <c r="Z196" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AA196" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB196" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AB196" s="18">
+        <v>10</v>
+      </c>
       <c r="AC196" s="13">
-        <v>-12</v>
+        <v>1.5</v>
       </c>
       <c r="AD196" s="13">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE196" s="19">
-        <f t="shared" si="12"/>
-        <v>17.601295406872758</v>
+        <f t="shared" si="8"/>
+        <v>5.5</v>
       </c>
       <c r="AF196" s="19">
-        <f t="shared" si="13"/>
-        <v>17.011080950867086</v>
+        <f t="shared" si="9"/>
+        <v>64.61446408277591</v>
       </c>
       <c r="AG196" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH196" s="13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI196" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ196" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC196-$AH196)^2+($AD196-$AI196)^2))</f>
-        <v>17.613914953808536</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AK196" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL196" s="13"/>
-      <c r="AM196" s="13"/>
-      <c r="AN196" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="AL196" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM196" s="13">
+        <v>7</v>
+      </c>
+      <c r="AN196" s="19">
+        <f t="shared" si="10"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AO196" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP196" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AQ196" s="13">
         <v>2</v>
       </c>
-      <c r="AP196" s="13">
-        <v>-10.5</v>
-      </c>
-      <c r="AQ196" s="13">
-        <v>13.5</v>
-      </c>
       <c r="AR196" s="19">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f t="shared" si="11"/>
+        <v>4.3011626335213133</v>
       </c>
     </row>
     <row r="197" spans="1:44" ht="25.05" customHeight="1">
       <c r="A197" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="17" t="str">
         <f>IF($A197="","",IF(VLOOKUP($A197,Spiele!$A$2:$D$15,3,FALSE)=$B197,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D197" s="17" t="str">
         <f>IF($B197="","",IF(VLOOKUP($A197,Spiele!$A$2:$F$15,3,FALSE)=$B197,VLOOKUP($A197,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A197,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E197" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A197,$A197,$B$2:$B197,$B197,$L$2:$L197,"&lt;&gt;ET"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F197" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G197" s="12">
         <v>1</v>
@@ -32171,29 +32185,26 @@
       </c>
       <c r="I197" s="17" t="str">
         <f>IF(OR($L197="Tor",$L197="ET"),_xlfn.IFNA(IF(VLOOKUP($A197,Spiele!$A$2:$C$15,3,FALSE)=$B197,COUNTIFS($L$2:$L197,"Tor",$B$2:$B197,$B197,$A$2:$A197,$A197)+COUNTIFS($L$2:$L197,"ET",$B$2:$B197,$B197,$A$2:$A197,$A197)&amp;":"&amp;COUNTIFS($L$2:$L197,"Tor",$B$2:$B197,"&lt;&gt;"&amp;$B197,$A$2:$A197,$A197)+COUNTIFS($L$2:$L197,"ET",$B$2:$B197,"&lt;&gt;"&amp;$B197,$A$2:$A197,$A197),COUNTIFS($L$2:$L197,"Tor",$B$2:$B197,"&lt;&gt;"&amp;$B197,$A$2:$A197,$A197)+COUNTIFS($L$2:$L197,"ET",$B$2:$B197,"&lt;&gt;"&amp;$B197,$A$2:$A197,$A197)&amp;":"&amp;COUNTIFS($L$2:$L197,"Tor",$B$2:$B197,$B197,$A$2:$A197,$A197)+COUNTIFS($L$2:$L197,"ET",$B$2:$B197,$B197,$A$2:$A197,$A197)),""),"")</f>
-        <v/>
+        <v>0:1</v>
       </c>
       <c r="J197" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A197,Spiele!$A$2:$D$15,3,FALSE)=$B197,(COUNTIFS($L$1:$L196,"Tor",$B$1:$B196,$B197,$A$1:$A196,$A197)+COUNTIFS($L$1:$L196,"ET",$B$1:$B196,$B197,$A$1:$A196,$A197))-(COUNTIFS($L$1:$L196,"Tor",$B$1:$B196,"&lt;&gt;"&amp;$B197,$A$1:$A196,$A197)+COUNTIFS($L$1:$L196,"ET",$B$1:$B196,"&lt;&gt;"&amp;$B197,$A$1:$A196,$A197)),(COUNTIFS($L$1:$L196,"Tor",$B$1:$B196,$B197,$A$1:$A196,$A197)+COUNTIFS($L$1:$L196,"ET",$B$1:$B196,$B197,$A$1:$A196,$A197))-(COUNTIFS($L$1:$L196,"Tor",$B$1:$B196,"&lt;&gt;"&amp;$B197,$A$1:$A196,$A197)+COUNTIFS($L$1:$L196,"ET",$B$1:$B196,"&lt;&gt;"&amp;$B197,$A$1:$A196,$A197))),"")</f>
         <v>0</v>
       </c>
       <c r="K197" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L197" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M197" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O197" s="2">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="X197" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y197" s="17" t="s">
         <v>143</v>
@@ -32202,37 +32213,37 @@
         <v>150</v>
       </c>
       <c r="AA197" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AB197" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC197" s="13">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="AD197" s="13">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="AE197" s="19">
-        <f t="shared" si="12"/>
-        <v>11.5</v>
+        <f t="shared" si="8"/>
+        <v>3.0192051934242561</v>
       </c>
       <c r="AF197" s="19">
-        <f t="shared" si="13"/>
-        <v>32.703859314557576</v>
+        <f t="shared" si="9"/>
+        <v>62.146525921751461</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AH197" s="13">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AI197" s="13">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AJ197" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC197-$AH197)^2+($AD197-$AI197)^2))</f>
-        <v>8.2462112512353212</v>
+        <v>3.640054944640259</v>
       </c>
       <c r="AK197" s="3">
         <v>0</v>
@@ -32240,29 +32251,29 @@
       <c r="AL197" s="13"/>
       <c r="AM197" s="13"/>
       <c r="AN197" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AO197" s="3">
         <v>1</v>
       </c>
       <c r="AP197" s="13">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AQ197" s="13">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="AR197" s="19">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3.2015621187164243</v>
       </c>
     </row>
     <row r="198" spans="1:44" ht="25.05" customHeight="1">
       <c r="A198" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C198" s="17" t="str">
         <f>IF($A198="","",IF(VLOOKUP($A198,Spiele!$A$2:$D$15,3,FALSE)=$B198,"H","G"))</f>
@@ -32270,14 +32281,14 @@
       </c>
       <c r="D198" s="17" t="str">
         <f>IF($B198="","",IF(VLOOKUP($A198,Spiele!$A$2:$F$15,3,FALSE)=$B198,VLOOKUP($A198,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A198,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E198" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A198,$A198,$B$2:$B198,$B198,$L$2:$L198,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F198" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G198" s="12">
         <v>1</v>
@@ -32292,89 +32303,104 @@
       </c>
       <c r="J198" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A198,Spiele!$A$2:$D$15,3,FALSE)=$B198,(COUNTIFS($L$1:$L197,"Tor",$B$1:$B197,$B198,$A$1:$A197,$A198)+COUNTIFS($L$1:$L197,"ET",$B$1:$B197,$B198,$A$1:$A197,$A198))-(COUNTIFS($L$1:$L197,"Tor",$B$1:$B197,"&lt;&gt;"&amp;$B198,$A$1:$A197,$A198)+COUNTIFS($L$1:$L197,"ET",$B$1:$B197,"&lt;&gt;"&amp;$B198,$A$1:$A197,$A198)),(COUNTIFS($L$1:$L197,"Tor",$B$1:$B197,$B198,$A$1:$A197,$A198)+COUNTIFS($L$1:$L197,"ET",$B$1:$B197,$B198,$A$1:$A197,$A198))-(COUNTIFS($L$1:$L197,"Tor",$B$1:$B197,"&lt;&gt;"&amp;$B198,$A$1:$A197,$A198)+COUNTIFS($L$1:$L197,"ET",$B$1:$B197,"&lt;&gt;"&amp;$B198,$A$1:$A197,$A198))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L198" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="O198" s="2">
+        <v>23</v>
+      </c>
+      <c r="P198" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>27</v>
+      </c>
       <c r="X198" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Y198" s="17" t="s">
         <v>143</v>
       </c>
       <c r="Z198" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AA198" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB198" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AB198" s="18">
+        <v>5</v>
+      </c>
       <c r="AC198" s="13">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AD198" s="13">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE198" s="19">
-        <f t="shared" si="12"/>
-        <v>15.5</v>
+        <f t="shared" si="8"/>
+        <v>19.5</v>
       </c>
       <c r="AF198" s="19">
-        <f t="shared" si="13"/>
-        <v>26.546439371443093</v>
+        <f t="shared" si="9"/>
+        <v>20.935545465147808</v>
       </c>
       <c r="AG198" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH198" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI198" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AJ198" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC198-$AH198)^2+($AD198-$AI198)^2))</f>
-        <v>15.033296378372908</v>
+        <v>18.027756377319946</v>
       </c>
       <c r="AK198" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL198" s="13"/>
-      <c r="AM198" s="13"/>
-      <c r="AN198" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AL198" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM198" s="13">
+        <v>16</v>
+      </c>
+      <c r="AN198" s="19">
+        <f t="shared" si="10"/>
+        <v>3.8078865529319543</v>
       </c>
       <c r="AO198" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP198" s="13">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AQ198" s="13">
         <v>9.5</v>
       </c>
       <c r="AR198" s="19">
-        <f t="shared" si="15"/>
-        <v>6.0207972893961479</v>
+        <f t="shared" si="11"/>
+        <v>10.04987562112089</v>
       </c>
     </row>
     <row r="199" spans="1:44" ht="25.05" customHeight="1">
       <c r="A199" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C199" s="17" t="str">
         <f>IF($A199="","",IF(VLOOKUP($A199,Spiele!$A$2:$D$15,3,FALSE)=$B199,"H","G"))</f>
@@ -32382,14 +32408,14 @@
       </c>
       <c r="D199" s="17" t="str">
         <f>IF($B199="","",IF(VLOOKUP($A199,Spiele!$A$2:$F$15,3,FALSE)=$B199,VLOOKUP($A199,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A199,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E199" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A199,$A199,$B$2:$B199,$B199,$L$2:$L199,"&lt;&gt;ET"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G199" s="12">
         <v>1</v>
@@ -32404,31 +32430,19 @@
       </c>
       <c r="J199" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A199,Spiele!$A$2:$D$15,3,FALSE)=$B199,(COUNTIFS($L$1:$L198,"Tor",$B$1:$B198,$B199,$A$1:$A198,$A199)+COUNTIFS($L$1:$L198,"ET",$B$1:$B198,$B199,$A$1:$A198,$A199))-(COUNTIFS($L$1:$L198,"Tor",$B$1:$B198,"&lt;&gt;"&amp;$B199,$A$1:$A198,$A199)+COUNTIFS($L$1:$L198,"ET",$B$1:$B198,"&lt;&gt;"&amp;$B199,$A$1:$A198,$A199)),(COUNTIFS($L$1:$L198,"Tor",$B$1:$B198,$B199,$A$1:$A198,$A199)+COUNTIFS($L$1:$L198,"ET",$B$1:$B198,$B199,$A$1:$A198,$A199))-(COUNTIFS($L$1:$L198,"Tor",$B$1:$B198,"&lt;&gt;"&amp;$B199,$A$1:$A198,$A199)+COUNTIFS($L$1:$L198,"ET",$B$1:$B198,"&lt;&gt;"&amp;$B199,$A$1:$A198,$A199))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K199" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L199" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O199" s="2">
-        <v>9</v>
-      </c>
-      <c r="P199" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q199" s="2">
-        <v>7</v>
-      </c>
-      <c r="R199" s="2">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="X199" s="2" t="s">
         <v>151</v>
@@ -32442,67 +32456,65 @@
       <c r="AA199" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AB199" s="18">
-        <v>7</v>
-      </c>
+      <c r="AB199" s="18"/>
       <c r="AC199" s="13">
-        <v>15</v>
+        <v>-9.5</v>
       </c>
       <c r="AD199" s="13">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AE199" s="19">
-        <f t="shared" si="12"/>
-        <v>13.595793467098565</v>
+        <f t="shared" si="8"/>
+        <v>21.796917213220773</v>
       </c>
       <c r="AF199" s="19">
-        <f t="shared" si="13"/>
-        <v>11.583042211219654</v>
+        <f t="shared" si="9"/>
+        <v>16.533005071706455</v>
       </c>
       <c r="AG199" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH199" s="13">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AI199" s="13">
         <v>1.5</v>
       </c>
       <c r="AJ199" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC199-$AH199)^2+($AD199-$AI199)^2))</f>
-        <v>12.529964086141668</v>
+        <v>21.272047386182649</v>
       </c>
       <c r="AK199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL199" s="13">
-        <v>13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="AM199" s="13">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AN199" s="19">
-        <f t="shared" si="14"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="AO199" s="3">
         <v>0</v>
       </c>
       <c r="AR199" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:44" ht="25.05" customHeight="1">
       <c r="A200" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C200" s="17" t="str">
         <f>IF($A200="","",IF(VLOOKUP($A200,Spiele!$A$2:$D$15,3,FALSE)=$B200,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D200" s="17" t="str">
         <f>IF($B200="","",IF(VLOOKUP($A200,Spiele!$A$2:$F$15,3,FALSE)=$B200,VLOOKUP($A200,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A200,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -32510,10 +32522,10 @@
       </c>
       <c r="E200" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A200,$A200,$B$2:$B200,$B200,$L$2:$L200,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F200" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G200" s="12">
         <v>1</v>
@@ -32528,93 +32540,91 @@
       </c>
       <c r="J200" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A200,Spiele!$A$2:$D$15,3,FALSE)=$B200,(COUNTIFS($L$1:$L199,"Tor",$B$1:$B199,$B200,$A$1:$A199,$A200)+COUNTIFS($L$1:$L199,"ET",$B$1:$B199,$B200,$A$1:$A199,$A200))-(COUNTIFS($L$1:$L199,"Tor",$B$1:$B199,"&lt;&gt;"&amp;$B200,$A$1:$A199,$A200)+COUNTIFS($L$1:$L199,"ET",$B$1:$B199,"&lt;&gt;"&amp;$B200,$A$1:$A199,$A200)),(COUNTIFS($L$1:$L199,"Tor",$B$1:$B199,$B200,$A$1:$A199,$A200)+COUNTIFS($L$1:$L199,"ET",$B$1:$B199,$B200,$A$1:$A199,$A200))-(COUNTIFS($L$1:$L199,"Tor",$B$1:$B199,"&lt;&gt;"&amp;$B200,$A$1:$A199,$A200)+COUNTIFS($L$1:$L199,"ET",$B$1:$B199,"&lt;&gt;"&amp;$B200,$A$1:$A199,$A200))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K200" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L200" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M200" s="2" t="s">
         <v>147</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X200" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y200" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Z200" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AA200" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AB200" s="18"/>
       <c r="AC200" s="13">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD200" s="13">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE200" s="19">
-        <f t="shared" si="12"/>
-        <v>13.555279414309393</v>
+        <f t="shared" si="8"/>
+        <v>12.811151392439323</v>
       </c>
       <c r="AF200" s="19">
-        <f t="shared" si="13"/>
-        <v>24.188491715950388</v>
+        <f t="shared" si="9"/>
+        <v>19.433068014600664</v>
       </c>
       <c r="AG200" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH200" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI200" s="13">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AJ200" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC200-$AH200)^2+($AD200-$AI200)^2))</f>
-        <v>14.089002803605371</v>
+        <v>10.63014581273465</v>
       </c>
       <c r="AK200" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL200" s="13"/>
-      <c r="AM200" s="13"/>
-      <c r="AN200" s="19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AL200" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AM200" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AN200" s="19">
+        <f t="shared" si="10"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AO200" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP200" s="13">
-        <v>7</v>
-      </c>
-      <c r="AQ200" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR200" s="19">
-        <f t="shared" si="15"/>
-        <v>1.1180339887498949</v>
+        <v>0</v>
+      </c>
+      <c r="AR200" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:44" ht="25.05" customHeight="1">
       <c r="A201" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C201" s="17" t="str">
         <f>IF($A201="","",IF(VLOOKUP($A201,Spiele!$A$2:$D$15,3,FALSE)=$B201,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D201" s="17" t="str">
         <f>IF($B201="","",IF(VLOOKUP($A201,Spiele!$A$2:$F$15,3,FALSE)=$B201,VLOOKUP($A201,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A201,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -32622,10 +32632,10 @@
       </c>
       <c r="E201" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A201,$A201,$B$2:$B201,$B201,$L$2:$L201,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F201" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G201" s="12">
         <v>1</v>
@@ -32636,17 +32646,17 @@
       </c>
       <c r="I201" s="17" t="str">
         <f>IF(OR($L201="Tor",$L201="ET"),_xlfn.IFNA(IF(VLOOKUP($A201,Spiele!$A$2:$C$15,3,FALSE)=$B201,COUNTIFS($L$2:$L201,"Tor",$B$2:$B201,$B201,$A$2:$A201,$A201)+COUNTIFS($L$2:$L201,"ET",$B$2:$B201,$B201,$A$2:$A201,$A201)&amp;":"&amp;COUNTIFS($L$2:$L201,"Tor",$B$2:$B201,"&lt;&gt;"&amp;$B201,$A$2:$A201,$A201)+COUNTIFS($L$2:$L201,"ET",$B$2:$B201,"&lt;&gt;"&amp;$B201,$A$2:$A201,$A201),COUNTIFS($L$2:$L201,"Tor",$B$2:$B201,"&lt;&gt;"&amp;$B201,$A$2:$A201,$A201)+COUNTIFS($L$2:$L201,"ET",$B$2:$B201,"&lt;&gt;"&amp;$B201,$A$2:$A201,$A201)&amp;":"&amp;COUNTIFS($L$2:$L201,"Tor",$B$2:$B201,$B201,$A$2:$A201,$A201)+COUNTIFS($L$2:$L201,"ET",$B$2:$B201,$B201,$A$2:$A201,$A201)),""),"")</f>
-        <v/>
+        <v>1:1</v>
       </c>
       <c r="J201" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A201,Spiele!$A$2:$D$15,3,FALSE)=$B201,(COUNTIFS($L$1:$L200,"Tor",$B$1:$B200,$B201,$A$1:$A200,$A201)+COUNTIFS($L$1:$L200,"ET",$B$1:$B200,$B201,$A$1:$A200,$A201))-(COUNTIFS($L$1:$L200,"Tor",$B$1:$B200,"&lt;&gt;"&amp;$B201,$A$1:$A200,$A201)+COUNTIFS($L$1:$L200,"ET",$B$1:$B200,"&lt;&gt;"&amp;$B201,$A$1:$A200,$A201)),(COUNTIFS($L$1:$L200,"Tor",$B$1:$B200,$B201,$A$1:$A200,$A201)+COUNTIFS($L$1:$L200,"ET",$B$1:$B200,$B201,$A$1:$A200,$A201))-(COUNTIFS($L$1:$L200,"Tor",$B$1:$B200,"&lt;&gt;"&amp;$B201,$A$1:$A200,$A201)+COUNTIFS($L$1:$L200,"ET",$B$1:$B200,"&lt;&gt;"&amp;$B201,$A$1:$A200,$A201))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K201" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L201" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M201" s="2" t="s">
         <v>163</v>
@@ -32658,7 +32668,7 @@
         <v>141</v>
       </c>
       <c r="Y201" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z201" s="14" t="s">
         <v>150</v>
@@ -32668,65 +32678,61 @@
       </c>
       <c r="AB201" s="18"/>
       <c r="AC201" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD201" s="13">
         <v>19</v>
       </c>
       <c r="AE201" s="19">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="8"/>
+        <v>19.047194019067479</v>
       </c>
       <c r="AF201" s="19">
-        <f t="shared" si="13"/>
-        <v>21.750134253188115</v>
+        <f t="shared" si="9"/>
+        <v>20.468818692757591</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AH201" s="13">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="AI201" s="13">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ201" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC201-$AH201)^2+($AD201-$AI201)^2))</f>
-        <v>18.527007313648905</v>
+        <v>10.606601717798213</v>
       </c>
       <c r="AK201" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL201" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="AM201" s="13">
-        <v>18</v>
-      </c>
-      <c r="AN201" s="19">
-        <f t="shared" si="14"/>
-        <v>2.6925824035672519</v>
+        <v>0</v>
+      </c>
+      <c r="AL201" s="13"/>
+      <c r="AM201" s="13"/>
+      <c r="AN201" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AO201" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP201" s="13">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AQ201" s="13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR201" s="19">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>9.013878188659973</v>
       </c>
     </row>
     <row r="202" spans="1:44" ht="25.05" customHeight="1">
       <c r="A202" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C202" s="17" t="str">
         <f>IF($A202="","",IF(VLOOKUP($A202,Spiele!$A$2:$D$15,3,FALSE)=$B202,"H","G"))</f>
@@ -32734,14 +32740,14 @@
       </c>
       <c r="D202" s="17" t="str">
         <f>IF($B202="","",IF(VLOOKUP($A202,Spiele!$A$2:$F$15,3,FALSE)=$B202,VLOOKUP($A202,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A202,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E202" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A202,$A202,$B$2:$B202,$B202,$L$2:$L202,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F202" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G202" s="12">
         <v>1</v>
@@ -32762,102 +32768,94 @@
         <v>6</v>
       </c>
       <c r="L202" s="17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="N202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y202" s="17" t="s">
         <v>149</v>
       </c>
       <c r="Z202" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA202" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB202" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="AB202" s="18">
+        <v>26</v>
+      </c>
       <c r="AC202" s="13">
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD202" s="13">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE202" s="19">
-        <f t="shared" si="12"/>
-        <v>14.775506759498978</v>
+        <f t="shared" ref="AE202:AE225" si="12">IF($L202="ET","",IF($AC202&gt;3.66,SQRT($AD202^2+($AC202-(7.32/2))^2),IF($AC202&lt;-3.66,SQRT($AD202^2+($AC202+(7.32/2))^2),$AD202)))</f>
+        <v>16.16123757637391</v>
       </c>
       <c r="AF202" s="19">
-        <f t="shared" si="13"/>
-        <v>23.936746455580142</v>
+        <f t="shared" ref="AF202:AF225" si="13">IF($L202="ET","",IF(DEGREES(ATAN((7.32*$AD202)/($AD202^2+$AC202^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD202)/($AD202^2+$AC202^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD202)/($AD202^2+$AC202^2-(7.32/2)^2)))))</f>
+        <v>13.033066816395907</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH202" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AI202" s="13">
-        <v>0.5</v>
+        <v>166</v>
       </c>
       <c r="AJ202" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC202-$AH202)^2+($AD202-$AI202)^2))</f>
-        <v>15.231546211727817</v>
+        <v>19.006577808748212</v>
       </c>
       <c r="AK202" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL202" s="13">
-        <v>3</v>
-      </c>
-      <c r="AM202" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="AN202" s="19">
-        <f t="shared" si="14"/>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="AL202" s="13"/>
+      <c r="AM202" s="13"/>
+      <c r="AN202" s="19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AO202" s="3">
         <v>2</v>
       </c>
       <c r="AP202" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ202" s="13">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AR202" s="19">
-        <f t="shared" si="15"/>
-        <v>1.1180339887498949</v>
+        <f t="shared" si="11"/>
+        <v>5.8523499553598128</v>
       </c>
     </row>
     <row r="203" spans="1:44" ht="25.05" customHeight="1">
       <c r="A203" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="17" t="str">
         <f>IF($A203="","",IF(VLOOKUP($A203,Spiele!$A$2:$D$15,3,FALSE)=$B203,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D203" s="17" t="str">
         <f>IF($B203="","",IF(VLOOKUP($A203,Spiele!$A$2:$F$15,3,FALSE)=$B203,VLOOKUP($A203,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A203,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E203" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A203,$A203,$B$2:$B203,$B203,$L$2:$L203,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F203" s="11">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G203" s="12">
         <v>1</v>
@@ -32884,10 +32882,7 @@
         <v>163</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O203" s="2">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="X203" s="2" t="s">
         <v>151</v>
@@ -32899,86 +32894,80 @@
         <v>150</v>
       </c>
       <c r="AA203" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AB203" s="18">
+        <v>10</v>
+      </c>
+      <c r="AC203" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AD203" s="13">
         <v>8</v>
-      </c>
-      <c r="AC203" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="AD203" s="13">
-        <v>14.5</v>
       </c>
       <c r="AE203" s="19">
         <f t="shared" si="12"/>
-        <v>14.524310654898565</v>
+        <v>15.128304597673859</v>
       </c>
       <c r="AF203" s="19">
         <f t="shared" si="13"/>
-        <v>26.053510457112758</v>
+        <v>10.280656949084873</v>
       </c>
       <c r="AG203" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH203" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AI203" s="13">
         <v>1.5</v>
-      </c>
-      <c r="AI203" s="13">
-        <v>3.5</v>
       </c>
       <c r="AJ203" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC203-$AH203)^2+($AD203-$AI203)^2))</f>
-        <v>11.401754250991379</v>
+        <v>14.534441853748634</v>
       </c>
       <c r="AK203" s="3">
         <v>1</v>
       </c>
       <c r="AL203" s="13">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AM203" s="13">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="AN203" s="19">
-        <f t="shared" si="14"/>
-        <v>3.905124837953327</v>
+        <f t="shared" ref="AN203:AN225" si="14">IF(AK203=0,"",SQRT(($AC203-$AL203)^2+($AD203-$AM203)^2))</f>
+        <v>2.5</v>
       </c>
       <c r="AO203" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP203" s="13">
-        <v>4</v>
-      </c>
-      <c r="AQ203" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="AR203" s="19">
-        <f t="shared" si="15"/>
-        <v>4.0311288741492746</v>
+        <v>0</v>
+      </c>
+      <c r="AR203" s="19" t="str">
+        <f t="shared" ref="AR203:AR225" si="15">IF(AO203=0,"",SQRT(($AC203-$AP203)^2+($AD203-$AQ203)^2))</f>
+        <v/>
       </c>
     </row>
     <row r="204" spans="1:44" ht="25.05" customHeight="1">
       <c r="A204" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="17" t="str">
         <f>IF($A204="","",IF(VLOOKUP($A204,Spiele!$A$2:$D$15,3,FALSE)=$B204,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D204" s="17" t="str">
         <f>IF($B204="","",IF(VLOOKUP($A204,Spiele!$A$2:$F$15,3,FALSE)=$B204,VLOOKUP($A204,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A204,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E204" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A204,$A204,$B$2:$B204,$B204,$L$2:$L204,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F204" s="11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G204" s="12">
         <v>1</v>
@@ -32998,105 +32987,101 @@
       <c r="K204" s="3">
         <v>8</v>
       </c>
-      <c r="L204" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M204" s="2" t="s">
-        <v>168</v>
+      <c r="L204" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="N204" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X204" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y204" s="17" t="s">
+      <c r="X204" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y204" s="18" t="s">
         <v>143</v>
       </c>
       <c r="Z204" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AA204" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AB204" s="18">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AC204" s="13">
-        <v>-6.5</v>
+        <v>25</v>
       </c>
       <c r="AD204" s="13">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AE204" s="19">
-        <f t="shared" si="12"/>
-        <v>16.742628228566744</v>
+        <f>IF($L204="ET","",IF($AC204&gt;3.66,SQRT($AD204^2+($AC204-(7.32/2))^2),IF($AC204&lt;-3.66,SQRT($AD204^2+($AC204+(7.32/2))^2),$AD204)))</f>
+        <v>38.462912006243108</v>
       </c>
       <c r="AF204" s="19">
-        <f t="shared" si="13"/>
-        <v>21.856872591143812</v>
-      </c>
-      <c r="AG204" s="2" t="s">
+        <f>IF($L204="ET","",IF(DEGREES(ATAN((7.32*$AD204)/($AD204^2+$AC204^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD204)/($AD204^2+$AC204^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD204)/($AD204^2+$AC204^2-(7.32/2)^2)))))</f>
+        <v>8.1500891092486309</v>
+      </c>
+      <c r="AG204" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AH204" s="13">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="AI204" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ204" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC204-$AH204)^2+($AD204-$AI204)^2))</f>
-        <v>15.337861650177967</v>
+        <v>36.124783736376884</v>
       </c>
       <c r="AK204" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL204" s="13">
-        <v>-3</v>
-      </c>
-      <c r="AM204" s="13">
-        <v>14</v>
-      </c>
-      <c r="AN204" s="19">
-        <f t="shared" si="14"/>
-        <v>4.3011626335213133</v>
+        <v>0</v>
+      </c>
+      <c r="AL204" s="13"/>
+      <c r="AM204" s="13"/>
+      <c r="AN204" s="19" t="str">
+        <f>IF(AK204=0,"",SQRT(($AC204-$AL204)^2+($AD204-$AM204)^2))</f>
+        <v/>
       </c>
       <c r="AO204" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP204" s="13">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AQ204" s="13">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="AR204" s="19">
-        <f t="shared" si="15"/>
-        <v>11.423659658795863</v>
+        <f>IF(AO204=0,"",SQRT(($AC204-$AP204)^2+($AD204-$AQ204)^2))</f>
+        <v>20.886598574205422</v>
       </c>
     </row>
     <row r="205" spans="1:44" ht="25.05" customHeight="1">
       <c r="A205" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="17" t="str">
         <f>IF($A205="","",IF(VLOOKUP($A205,Spiele!$A$2:$D$15,3,FALSE)=$B205,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D205" s="17" t="str">
         <f>IF($B205="","",IF(VLOOKUP($A205,Spiele!$A$2:$F$15,3,FALSE)=$B205,VLOOKUP($A205,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A205,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E205" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A205,$A205,$B$2:$B205,$B205,$L$2:$L205,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F205" s="11">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G205" s="12">
         <v>1</v>
@@ -33107,7 +33092,7 @@
       </c>
       <c r="I205" s="17" t="str">
         <f>IF(OR($L205="Tor",$L205="ET"),_xlfn.IFNA(IF(VLOOKUP($A205,Spiele!$A$2:$C$15,3,FALSE)=$B205,COUNTIFS($L$2:$L205,"Tor",$B$2:$B205,$B205,$A$2:$A205,$A205)+COUNTIFS($L$2:$L205,"ET",$B$2:$B205,$B205,$A$2:$A205,$A205)&amp;":"&amp;COUNTIFS($L$2:$L205,"Tor",$B$2:$B205,"&lt;&gt;"&amp;$B205,$A$2:$A205,$A205)+COUNTIFS($L$2:$L205,"ET",$B$2:$B205,"&lt;&gt;"&amp;$B205,$A$2:$A205,$A205),COUNTIFS($L$2:$L205,"Tor",$B$2:$B205,"&lt;&gt;"&amp;$B205,$A$2:$A205,$A205)+COUNTIFS($L$2:$L205,"ET",$B$2:$B205,"&lt;&gt;"&amp;$B205,$A$2:$A205,$A205)&amp;":"&amp;COUNTIFS($L$2:$L205,"Tor",$B$2:$B205,$B205,$A$2:$A205,$A205)+COUNTIFS($L$2:$L205,"ET",$B$2:$B205,$B205,$A$2:$A205,$A205)),""),"")</f>
-        <v/>
+        <v>1:2</v>
       </c>
       <c r="J205" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A205,Spiele!$A$2:$D$15,3,FALSE)=$B205,(COUNTIFS($L$1:$L204,"Tor",$B$1:$B204,$B205,$A$1:$A204,$A205)+COUNTIFS($L$1:$L204,"ET",$B$1:$B204,$B205,$A$1:$A204,$A205))-(COUNTIFS($L$1:$L204,"Tor",$B$1:$B204,"&lt;&gt;"&amp;$B205,$A$1:$A204,$A205)+COUNTIFS($L$1:$L204,"ET",$B$1:$B204,"&lt;&gt;"&amp;$B205,$A$1:$A204,$A205)),(COUNTIFS($L$1:$L204,"Tor",$B$1:$B204,$B205,$A$1:$A204,$A205)+COUNTIFS($L$1:$L204,"ET",$B$1:$B204,$B205,$A$1:$A204,$A205))-(COUNTIFS($L$1:$L204,"Tor",$B$1:$B204,"&lt;&gt;"&amp;$B205,$A$1:$A204,$A205)+COUNTIFS($L$1:$L204,"ET",$B$1:$B204,"&lt;&gt;"&amp;$B205,$A$1:$A204,$A205))),"")</f>
@@ -33117,55 +33102,52 @@
         <v>9</v>
       </c>
       <c r="L205" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N205" s="2" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="X205" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y205" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z205" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AA205" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AB205" s="18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AC205" s="13">
-        <v>-13.5</v>
+        <v>0</v>
       </c>
       <c r="AD205" s="13">
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="AE205" s="19">
         <f t="shared" si="12"/>
-        <v>23.644779550674606</v>
+        <v>11</v>
       </c>
       <c r="AF205" s="19">
         <f t="shared" si="13"/>
-        <v>14.002393253988416</v>
+        <v>36.807381798785883</v>
       </c>
       <c r="AG205" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH205" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AI205" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ205" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC205-$AH205)^2+($AD205-$AI205)^2))</f>
-        <v>22.610838109190027</v>
+        <v>11</v>
       </c>
       <c r="AK205" s="3">
         <v>0</v>
@@ -33177,25 +33159,19 @@
         <v/>
       </c>
       <c r="AO205" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP205" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AQ205" s="13">
-        <v>20.5</v>
-      </c>
-      <c r="AR205" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>1.8027756377319946</v>
+        <v/>
       </c>
     </row>
     <row r="206" spans="1:44" ht="25.05" customHeight="1">
       <c r="A206" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C206" s="17" t="str">
         <f>IF($A206="","",IF(VLOOKUP($A206,Spiele!$A$2:$D$15,3,FALSE)=$B206,"H","G"))</f>
@@ -33203,14 +33179,14 @@
       </c>
       <c r="D206" s="17" t="str">
         <f>IF($B206="","",IF(VLOOKUP($A206,Spiele!$A$2:$F$15,3,FALSE)=$B206,VLOOKUP($A206,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A206,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E206" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A206,$A206,$B$2:$B206,$B206,$L$2:$L206,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F206" s="11">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G206" s="12">
         <v>1</v>
@@ -33225,19 +33201,34 @@
       </c>
       <c r="J206" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A206,Spiele!$A$2:$D$15,3,FALSE)=$B206,(COUNTIFS($L$1:$L205,"Tor",$B$1:$B205,$B206,$A$1:$A205,$A206)+COUNTIFS($L$1:$L205,"ET",$B$1:$B205,$B206,$A$1:$A205,$A206))-(COUNTIFS($L$1:$L205,"Tor",$B$1:$B205,"&lt;&gt;"&amp;$B206,$A$1:$A205,$A206)+COUNTIFS($L$1:$L205,"ET",$B$1:$B205,"&lt;&gt;"&amp;$B206,$A$1:$A205,$A206)),(COUNTIFS($L$1:$L205,"Tor",$B$1:$B205,$B206,$A$1:$A205,$A206)+COUNTIFS($L$1:$L205,"ET",$B$1:$B205,$B206,$A$1:$A205,$A206))-(COUNTIFS($L$1:$L205,"Tor",$B$1:$B205,"&lt;&gt;"&amp;$B206,$A$1:$A205,$A206)+COUNTIFS($L$1:$L205,"ET",$B$1:$B205,"&lt;&gt;"&amp;$B206,$A$1:$A205,$A206))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="3">
         <v>10</v>
       </c>
       <c r="L206" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="O206" s="2">
+        <v>26</v>
+      </c>
+      <c r="P206" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>20</v>
+      </c>
+      <c r="R206" s="2">
+        <v>16</v>
+      </c>
+      <c r="S206" s="2">
+        <v>23</v>
       </c>
       <c r="X206" s="2" t="s">
         <v>151</v>
@@ -33251,67 +33242,69 @@
       <c r="AA206" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AB206" s="18"/>
+      <c r="AB206" s="18">
+        <v>16</v>
+      </c>
       <c r="AC206" s="13">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD206" s="13">
         <v>25.5</v>
       </c>
       <c r="AE206" s="19">
         <f t="shared" si="12"/>
-        <v>25.5</v>
+        <v>28.114686553472367</v>
       </c>
       <c r="AF206" s="19">
         <f t="shared" si="13"/>
-        <v>16.335693207949546</v>
+        <v>12.01410579710266</v>
       </c>
       <c r="AG206" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH206" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI206" s="13">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AJ206" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC206-$AH206)^2+($AD206-$AI206)^2))</f>
+        <v>26.767517628648346</v>
+      </c>
+      <c r="AK206" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL206" s="13">
+        <v>13</v>
+      </c>
+      <c r="AM206" s="13">
         <v>25</v>
-      </c>
-      <c r="AK206" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL206" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AM206" s="13">
-        <v>28</v>
       </c>
       <c r="AN206" s="19">
         <f t="shared" si="14"/>
-        <v>3.2015621187164243</v>
+        <v>2.5495097567963922</v>
       </c>
       <c r="AO206" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP206" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ206" s="13">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AR206" s="19">
         <f t="shared" si="15"/>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="207" spans="1:44" ht="25.05" customHeight="1">
       <c r="A207" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C207" s="17" t="str">
         <f>IF($A207="","",IF(VLOOKUP($A207,Spiele!$A$2:$D$15,3,FALSE)=$B207,"H","G"))</f>
@@ -33319,17 +33312,17 @@
       </c>
       <c r="D207" s="17" t="str">
         <f>IF($B207="","",IF(VLOOKUP($A207,Spiele!$A$2:$F$15,3,FALSE)=$B207,VLOOKUP($A207,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A207,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E207" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A207,$A207,$B$2:$B207,$B207,$L$2:$L207,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F207" s="11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G207" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A207,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B207,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F207,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G207)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A207,'Rote Karten'!$D$2:$D$4,$B207,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F207,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G207)</f>
@@ -33341,34 +33334,22 @@
       </c>
       <c r="J207" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A207,Spiele!$A$2:$D$15,3,FALSE)=$B207,(COUNTIFS($L$1:$L206,"Tor",$B$1:$B206,$B207,$A$1:$A206,$A207)+COUNTIFS($L$1:$L206,"ET",$B$1:$B206,$B207,$A$1:$A206,$A207))-(COUNTIFS($L$1:$L206,"Tor",$B$1:$B206,"&lt;&gt;"&amp;$B207,$A$1:$A206,$A207)+COUNTIFS($L$1:$L206,"ET",$B$1:$B206,"&lt;&gt;"&amp;$B207,$A$1:$A206,$A207)),(COUNTIFS($L$1:$L206,"Tor",$B$1:$B206,$B207,$A$1:$A206,$A207)+COUNTIFS($L$1:$L206,"ET",$B$1:$B206,$B207,$A$1:$A206,$A207))-(COUNTIFS($L$1:$L206,"Tor",$B$1:$B206,"&lt;&gt;"&amp;$B207,$A$1:$A206,$A207)+COUNTIFS($L$1:$L206,"ET",$B$1:$B206,"&lt;&gt;"&amp;$B207,$A$1:$A206,$A207))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K207" s="3">
         <v>11</v>
       </c>
-      <c r="L207" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N207" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O207" s="2">
-        <v>8</v>
-      </c>
-      <c r="P207" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q207" s="2">
-        <v>26</v>
-      </c>
-      <c r="X207" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y207" s="17" t="s">
-        <v>149</v>
+      <c r="L207" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X207" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y207" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="Z207" s="14" t="s">
         <v>150</v>
@@ -33376,63 +33357,63 @@
       <c r="AA207" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AB207" s="18">
-        <v>7</v>
-      </c>
+      <c r="AB207" s="18"/>
       <c r="AC207" s="13">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AD207" s="13">
-        <v>17.5</v>
+        <v>45.5</v>
       </c>
       <c r="AE207" s="19">
-        <f t="shared" si="12"/>
-        <v>17.59646555419582</v>
+        <f>IF($L207="ET","",IF($AC207&gt;3.66,SQRT($AD207^2+($AC207-(7.32/2))^2),IF($AC207&lt;-3.66,SQRT($AD207^2+($AC207+(7.32/2))^2),$AD207)))</f>
+        <v>45.5</v>
       </c>
       <c r="AF207" s="19">
-        <f t="shared" si="13"/>
-        <v>21.626656434445117</v>
-      </c>
-      <c r="AG207" s="2" t="s">
+        <f>IF($L207="ET","",IF(DEGREES(ATAN((7.32*$AD207)/($AD207^2+$AC207^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD207)/($AD207^2+$AC207^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD207)/($AD207^2+$AC207^2-(7.32/2)^2)))))</f>
+        <v>9.1978903665112632</v>
+      </c>
+      <c r="AG207" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AH207" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI207" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ207" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC207-$AH207)^2+($AD207-$AI207)^2))</f>
-        <v>15.182226450688976</v>
+        <v>44.5</v>
       </c>
       <c r="AK207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="13"/>
+      <c r="AM207" s="13"/>
+      <c r="AN207" s="19" t="str">
+        <f>IF(AK207=0,"",SQRT(($AC207-$AL207)^2+($AD207-$AM207)^2))</f>
+        <v/>
+      </c>
+      <c r="AO207" s="3">
         <v>2</v>
       </c>
-      <c r="AL207" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="AM207" s="13">
-        <v>18.5</v>
-      </c>
-      <c r="AN207" s="19">
-        <f t="shared" si="14"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AO207" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR207" s="19" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="AP207" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ207" s="13">
+        <v>39</v>
+      </c>
+      <c r="AR207" s="19">
+        <f>IF(AO207=0,"",SQRT(($AC207-$AP207)^2+($AD207-$AQ207)^2))</f>
+        <v>6.5764732189829527</v>
       </c>
     </row>
     <row r="208" spans="1:44" ht="25.05" customHeight="1">
       <c r="A208" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C208" s="17" t="str">
         <f>IF($A208="","",IF(VLOOKUP($A208,Spiele!$A$2:$D$15,3,FALSE)=$B208,"H","G"))</f>
@@ -33440,17 +33421,17 @@
       </c>
       <c r="D208" s="17" t="str">
         <f>IF($B208="","",IF(VLOOKUP($A208,Spiele!$A$2:$F$15,3,FALSE)=$B208,VLOOKUP($A208,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A208,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E208" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A208,$A208,$B$2:$B208,$B208,$L$2:$L208,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F208" s="11">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G208" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A208,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B208,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F208,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G208)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A208,'Rote Karten'!$D$2:$D$4,$B208,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F208,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G208)</f>
@@ -33458,69 +33439,74 @@
       </c>
       <c r="I208" s="17" t="str">
         <f>IF(OR($L208="Tor",$L208="ET"),_xlfn.IFNA(IF(VLOOKUP($A208,Spiele!$A$2:$C$15,3,FALSE)=$B208,COUNTIFS($L$2:$L208,"Tor",$B$2:$B208,$B208,$A$2:$A208,$A208)+COUNTIFS($L$2:$L208,"ET",$B$2:$B208,$B208,$A$2:$A208,$A208)&amp;":"&amp;COUNTIFS($L$2:$L208,"Tor",$B$2:$B208,"&lt;&gt;"&amp;$B208,$A$2:$A208,$A208)+COUNTIFS($L$2:$L208,"ET",$B$2:$B208,"&lt;&gt;"&amp;$B208,$A$2:$A208,$A208),COUNTIFS($L$2:$L208,"Tor",$B$2:$B208,"&lt;&gt;"&amp;$B208,$A$2:$A208,$A208)+COUNTIFS($L$2:$L208,"ET",$B$2:$B208,"&lt;&gt;"&amp;$B208,$A$2:$A208,$A208)&amp;":"&amp;COUNTIFS($L$2:$L208,"Tor",$B$2:$B208,$B208,$A$2:$A208,$A208)+COUNTIFS($L$2:$L208,"ET",$B$2:$B208,$B208,$A$2:$A208,$A208)),""),"")</f>
-        <v/>
+        <v>1:3</v>
       </c>
       <c r="J208" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A208,Spiele!$A$2:$D$15,3,FALSE)=$B208,(COUNTIFS($L$1:$L207,"Tor",$B$1:$B207,$B208,$A$1:$A207,$A208)+COUNTIFS($L$1:$L207,"ET",$B$1:$B207,$B208,$A$1:$A207,$A208))-(COUNTIFS($L$1:$L207,"Tor",$B$1:$B207,"&lt;&gt;"&amp;$B208,$A$1:$A207,$A208)+COUNTIFS($L$1:$L207,"ET",$B$1:$B207,"&lt;&gt;"&amp;$B208,$A$1:$A207,$A208)),(COUNTIFS($L$1:$L207,"Tor",$B$1:$B207,$B208,$A$1:$A207,$A208)+COUNTIFS($L$1:$L207,"ET",$B$1:$B207,$B208,$A$1:$A207,$A208))-(COUNTIFS($L$1:$L207,"Tor",$B$1:$B207,"&lt;&gt;"&amp;$B208,$A$1:$A207,$A208)+COUNTIFS($L$1:$L207,"ET",$B$1:$B207,"&lt;&gt;"&amp;$B208,$A$1:$A207,$A208))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208" s="3">
         <v>12</v>
       </c>
       <c r="L208" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M208" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="O208" s="2">
+        <v>10</v>
       </c>
       <c r="X208" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y208" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Z208" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AA208" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB208" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AB208" s="18">
+        <v>27</v>
+      </c>
       <c r="AC208" s="13">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="AD208" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE208" s="19">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10.207624601247835</v>
       </c>
       <c r="AF208" s="19">
         <f t="shared" si="13"/>
-        <v>43.839454439268671</v>
+        <v>21.247736920309759</v>
       </c>
       <c r="AG208" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH208" s="13">
-        <v>-1</v>
+        <v>-3.5</v>
       </c>
       <c r="AI208" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ208" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC208-$AH208)^2+($AD208-$AI208)^2))</f>
-        <v>8.5</v>
+        <v>9.5524865872713995</v>
       </c>
       <c r="AK208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL208" s="13">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AM208" s="13">
         <v>9</v>
@@ -33530,23 +33516,29 @@
         <v>1</v>
       </c>
       <c r="AO208" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR208" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="AP208" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AQ208" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AR208" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>7.9056941504209481</v>
       </c>
     </row>
     <row r="209" spans="1:44" ht="25.05" customHeight="1">
       <c r="A209" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C209" s="17" t="str">
         <f>IF($A209="","",IF(VLOOKUP($A209,Spiele!$A$2:$D$15,3,FALSE)=$B209,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D209" s="17" t="str">
         <f>IF($B209="","",IF(VLOOKUP($A209,Spiele!$A$2:$F$15,3,FALSE)=$B209,VLOOKUP($A209,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A209,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -33554,13 +33546,13 @@
       </c>
       <c r="E209" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A209,$A209,$B$2:$B209,$B209,$L$2:$L209,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F209" s="11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G209" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A209,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B209,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F209,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G209)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A209,'Rote Karten'!$D$2:$D$4,$B209,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F209,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G209)</f>
@@ -33572,7 +33564,7 @@
       </c>
       <c r="J209" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A209,Spiele!$A$2:$D$15,3,FALSE)=$B209,(COUNTIFS($L$1:$L208,"Tor",$B$1:$B208,$B209,$A$1:$A208,$A209)+COUNTIFS($L$1:$L208,"ET",$B$1:$B208,$B209,$A$1:$A208,$A209))-(COUNTIFS($L$1:$L208,"Tor",$B$1:$B208,"&lt;&gt;"&amp;$B209,$A$1:$A208,$A209)+COUNTIFS($L$1:$L208,"ET",$B$1:$B208,"&lt;&gt;"&amp;$B209,$A$1:$A208,$A209)),(COUNTIFS($L$1:$L208,"Tor",$B$1:$B208,$B209,$A$1:$A208,$A209)+COUNTIFS($L$1:$L208,"ET",$B$1:$B208,$B209,$A$1:$A208,$A209))-(COUNTIFS($L$1:$L208,"Tor",$B$1:$B208,"&lt;&gt;"&amp;$B209,$A$1:$A208,$A209)+COUNTIFS($L$1:$L208,"ET",$B$1:$B208,"&lt;&gt;"&amp;$B209,$A$1:$A208,$A209))),"")</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K209" s="3">
         <v>13</v>
@@ -33581,84 +33573,84 @@
         <v>19</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="X209" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Y209" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Z209" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AA209" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AB209" s="18"/>
       <c r="AC209" s="13">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="AD209" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AE209" s="19">
         <f t="shared" si="12"/>
-        <v>2.5447200238926087</v>
+        <v>14.392901027937349</v>
       </c>
       <c r="AF209" s="19">
         <f t="shared" si="13"/>
-        <v>17.229273479884245</v>
+        <v>23.868366629530648</v>
       </c>
       <c r="AG209" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH209" s="13">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AI209" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ209" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC209-$AH209)^2+($AD209-$AI209)^2))</f>
-        <v>2.0615528128088303</v>
+        <v>14.317821063276353</v>
       </c>
       <c r="AK209" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL209" s="13">
-        <v>-5</v>
+        <v>10.5</v>
       </c>
       <c r="AM209" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AN209" s="19">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="AO209" s="3">
         <v>1</v>
       </c>
       <c r="AP209" s="13">
-        <v>-3.5</v>
+        <v>1</v>
       </c>
       <c r="AQ209" s="13">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="AR209" s="19">
         <f t="shared" si="15"/>
-        <v>2.5495097567963922</v>
+        <v>9.6046863561492728</v>
       </c>
     </row>
     <row r="210" spans="1:44" ht="25.05" customHeight="1">
       <c r="A210" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C210" s="17" t="str">
         <f>IF($A210="","",IF(VLOOKUP($A210,Spiele!$A$2:$D$15,3,FALSE)=$B210,"H","G"))</f>
@@ -33666,17 +33658,17 @@
       </c>
       <c r="D210" s="17" t="str">
         <f>IF($B210="","",IF(VLOOKUP($A210,Spiele!$A$2:$F$15,3,FALSE)=$B210,VLOOKUP($A210,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A210,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E210" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A210,$A210,$B$2:$B210,$B210,$L$2:$L210,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F210" s="11">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G210" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A210,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B210,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F210,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G210)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A210,'Rote Karten'!$D$2:$D$4,$B210,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F210,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G210)</f>
@@ -33688,92 +33680,93 @@
       </c>
       <c r="J210" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A210,Spiele!$A$2:$D$15,3,FALSE)=$B210,(COUNTIFS($L$1:$L209,"Tor",$B$1:$B209,$B210,$A$1:$A209,$A210)+COUNTIFS($L$1:$L209,"ET",$B$1:$B209,$B210,$A$1:$A209,$A210))-(COUNTIFS($L$1:$L209,"Tor",$B$1:$B209,"&lt;&gt;"&amp;$B210,$A$1:$A209,$A210)+COUNTIFS($L$1:$L209,"ET",$B$1:$B209,"&lt;&gt;"&amp;$B210,$A$1:$A209,$A210)),(COUNTIFS($L$1:$L209,"Tor",$B$1:$B209,$B210,$A$1:$A209,$A210)+COUNTIFS($L$1:$L209,"ET",$B$1:$B209,$B210,$A$1:$A209,$A210))-(COUNTIFS($L$1:$L209,"Tor",$B$1:$B209,"&lt;&gt;"&amp;$B210,$A$1:$A209,$A210)+COUNTIFS($L$1:$L209,"ET",$B$1:$B209,"&lt;&gt;"&amp;$B210,$A$1:$A209,$A210))),"")</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K210" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L210" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O210" s="2">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="X210" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="Y210" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Z210" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AA210" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB210" s="18">
-        <v>9</v>
-      </c>
+      <c r="AB210" s="18"/>
       <c r="AC210" s="13">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="AD210" s="13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE210" s="19">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AF210" s="19">
         <f t="shared" si="13"/>
-        <v>42.615768593997174</v>
+        <v>25.562959137153186</v>
       </c>
       <c r="AG210" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH210" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI210" s="13">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AJ210" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC210-$AH210)^2+($AD210-$AI210)^2))</f>
-        <v>6.5</v>
+        <v>15.074813431681335</v>
       </c>
       <c r="AK210" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL210" s="13">
-        <v>-0.5</v>
+        <v>4.5</v>
       </c>
       <c r="AM210" s="13">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AN210" s="19">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>3.0413812651491097</v>
       </c>
       <c r="AO210" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR210" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP210" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ210" s="13">
+        <v>14</v>
+      </c>
+      <c r="AR210" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.0615528128088303</v>
       </c>
     </row>
     <row r="211" spans="1:44" ht="25.05" customHeight="1">
       <c r="A211" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C211" s="17" t="str">
         <f>IF($A211="","",IF(VLOOKUP($A211,Spiele!$A$2:$D$15,3,FALSE)=$B211,"H","G"))</f>
@@ -33781,17 +33774,17 @@
       </c>
       <c r="D211" s="17" t="str">
         <f>IF($B211="","",IF(VLOOKUP($A211,Spiele!$A$2:$F$15,3,FALSE)=$B211,VLOOKUP($A211,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A211,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E211" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A211,$A211,$B$2:$B211,$B211,$L$2:$L211,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F211" s="11">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G211" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A211,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B211,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F211,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G211)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A211,'Rote Karten'!$D$2:$D$4,$B211,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F211,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G211)</f>
@@ -33799,93 +33792,97 @@
       </c>
       <c r="I211" s="17" t="str">
         <f>IF(OR($L211="Tor",$L211="ET"),_xlfn.IFNA(IF(VLOOKUP($A211,Spiele!$A$2:$C$15,3,FALSE)=$B211,COUNTIFS($L$2:$L211,"Tor",$B$2:$B211,$B211,$A$2:$A211,$A211)+COUNTIFS($L$2:$L211,"ET",$B$2:$B211,$B211,$A$2:$A211,$A211)&amp;":"&amp;COUNTIFS($L$2:$L211,"Tor",$B$2:$B211,"&lt;&gt;"&amp;$B211,$A$2:$A211,$A211)+COUNTIFS($L$2:$L211,"ET",$B$2:$B211,"&lt;&gt;"&amp;$B211,$A$2:$A211,$A211),COUNTIFS($L$2:$L211,"Tor",$B$2:$B211,"&lt;&gt;"&amp;$B211,$A$2:$A211,$A211)+COUNTIFS($L$2:$L211,"ET",$B$2:$B211,"&lt;&gt;"&amp;$B211,$A$2:$A211,$A211)&amp;":"&amp;COUNTIFS($L$2:$L211,"Tor",$B$2:$B211,$B211,$A$2:$A211,$A211)+COUNTIFS($L$2:$L211,"ET",$B$2:$B211,$B211,$A$2:$A211,$A211)),""),"")</f>
-        <v>1:0</v>
+        <v/>
       </c>
       <c r="J211" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A211,Spiele!$A$2:$D$15,3,FALSE)=$B211,(COUNTIFS($L$1:$L210,"Tor",$B$1:$B210,$B211,$A$1:$A210,$A211)+COUNTIFS($L$1:$L210,"ET",$B$1:$B210,$B211,$A$1:$A210,$A211))-(COUNTIFS($L$1:$L210,"Tor",$B$1:$B210,"&lt;&gt;"&amp;$B211,$A$1:$A210,$A211)+COUNTIFS($L$1:$L210,"ET",$B$1:$B210,"&lt;&gt;"&amp;$B211,$A$1:$A210,$A211)),(COUNTIFS($L$1:$L210,"Tor",$B$1:$B210,$B211,$A$1:$A210,$A211)+COUNTIFS($L$1:$L210,"ET",$B$1:$B210,$B211,$A$1:$A210,$A211))-(COUNTIFS($L$1:$L210,"Tor",$B$1:$B210,"&lt;&gt;"&amp;$B211,$A$1:$A210,$A211)+COUNTIFS($L$1:$L210,"ET",$B$1:$B210,"&lt;&gt;"&amp;$B211,$A$1:$A210,$A211))),"")</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K211" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L211" s="17" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="X211" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y211" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Z211" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AA211" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AB211" s="18">
-        <v>7</v>
-      </c>
+      <c r="AB211" s="18"/>
       <c r="AC211" s="13">
-        <v>-6.5</v>
+        <v>3</v>
       </c>
       <c r="AD211" s="13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE211" s="19">
         <f t="shared" si="12"/>
-        <v>5.7502695588989567</v>
+        <v>14</v>
       </c>
       <c r="AF211" s="19">
         <f t="shared" si="13"/>
-        <v>34.200427604672875</v>
+        <v>28.140188848686396</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AH211" s="13">
         <v>0.5</v>
       </c>
       <c r="AI211" s="13">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AJ211" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC211-$AH211)^2+($AD211-$AI211)^2))</f>
-        <v>7.6157731058639087</v>
+        <v>13.729530217745982</v>
       </c>
       <c r="AK211" s="3">
         <v>1</v>
       </c>
       <c r="AL211" s="13">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AM211" s="13">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AN211" s="19">
         <f t="shared" si="14"/>
-        <v>2.5495097567963922</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AO211" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR211" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP211" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ211" s="13">
+        <v>13</v>
+      </c>
+      <c r="AR211" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="212" spans="1:44" ht="25.05" customHeight="1">
       <c r="A212" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C212" s="17" t="str">
         <f>IF($A212="","",IF(VLOOKUP($A212,Spiele!$A$2:$D$15,3,FALSE)=$B212,"H","G"))</f>
@@ -33893,14 +33890,14 @@
       </c>
       <c r="D212" s="17" t="str">
         <f>IF($B212="","",IF(VLOOKUP($A212,Spiele!$A$2:$F$15,3,FALSE)=$B212,VLOOKUP($A212,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A212,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E212" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A212,$A212,$B$2:$B212,$B212,$L$2:$L212,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" s="11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G212" s="12">
         <v>2</v>
@@ -33915,13 +33912,13 @@
       </c>
       <c r="J212" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A212,Spiele!$A$2:$D$15,3,FALSE)=$B212,(COUNTIFS($L$1:$L211,"Tor",$B$1:$B211,$B212,$A$1:$A211,$A212)+COUNTIFS($L$1:$L211,"ET",$B$1:$B211,$B212,$A$1:$A211,$A212))-(COUNTIFS($L$1:$L211,"Tor",$B$1:$B211,"&lt;&gt;"&amp;$B212,$A$1:$A211,$A212)+COUNTIFS($L$1:$L211,"ET",$B$1:$B211,"&lt;&gt;"&amp;$B212,$A$1:$A211,$A212)),(COUNTIFS($L$1:$L211,"Tor",$B$1:$B211,$B212,$A$1:$A211,$A212)+COUNTIFS($L$1:$L211,"ET",$B$1:$B211,$B212,$A$1:$A211,$A212))-(COUNTIFS($L$1:$L211,"Tor",$B$1:$B211,"&lt;&gt;"&amp;$B212,$A$1:$A211,$A212)+COUNTIFS($L$1:$L211,"ET",$B$1:$B211,"&lt;&gt;"&amp;$B212,$A$1:$A211,$A212))),"")</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K212" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L212" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M212" s="2" t="s">
         <v>174</v>
@@ -33936,22 +33933,24 @@
         <v>150</v>
       </c>
       <c r="AA212" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB212" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AB212" s="18">
+        <v>8</v>
+      </c>
       <c r="AC212" s="13">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="AD212" s="13">
-        <v>34</v>
+        <v>21.5</v>
       </c>
       <c r="AE212" s="19">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>21.933663624666082</v>
       </c>
       <c r="AF212" s="19">
         <f t="shared" si="13"/>
-        <v>12.194976603981754</v>
+        <v>17.059716863006322</v>
       </c>
       <c r="AG212" s="2" t="s">
         <v>146</v>
@@ -33964,7 +33963,7 @@
       </c>
       <c r="AJ212" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC212-$AH212)^2+($AD212-$AI212)^2))</f>
-        <v>33.68233958619858</v>
+        <v>22.655021518418383</v>
       </c>
       <c r="AK212" s="3">
         <v>0</v>
@@ -33976,25 +33975,25 @@
         <v/>
       </c>
       <c r="AO212" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP212" s="13">
-        <v>-3.5</v>
+        <v>-5</v>
       </c>
       <c r="AQ212" s="13">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AR212" s="19">
         <f t="shared" si="15"/>
-        <v>7.0178344238090995</v>
+        <v>7.6157731058639087</v>
       </c>
     </row>
     <row r="213" spans="1:44" ht="25.05" customHeight="1">
       <c r="A213" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C213" s="17" t="str">
         <f>IF($A213="","",IF(VLOOKUP($A213,Spiele!$A$2:$D$15,3,FALSE)=$B213,"H","G"))</f>
@@ -34002,14 +34001,14 @@
       </c>
       <c r="D213" s="17" t="str">
         <f>IF($B213="","",IF(VLOOKUP($A213,Spiele!$A$2:$F$15,3,FALSE)=$B213,VLOOKUP($A213,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A213,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E213" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A213,$A213,$B$2:$B213,$B213,$L$2:$L213,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F213" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G213" s="12">
         <v>2</v>
@@ -34024,104 +34023,87 @@
       </c>
       <c r="J213" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A213,Spiele!$A$2:$D$15,3,FALSE)=$B213,(COUNTIFS($L$1:$L212,"Tor",$B$1:$B212,$B213,$A$1:$A212,$A213)+COUNTIFS($L$1:$L212,"ET",$B$1:$B212,$B213,$A$1:$A212,$A213))-(COUNTIFS($L$1:$L212,"Tor",$B$1:$B212,"&lt;&gt;"&amp;$B213,$A$1:$A212,$A213)+COUNTIFS($L$1:$L212,"ET",$B$1:$B212,"&lt;&gt;"&amp;$B213,$A$1:$A212,$A213)),(COUNTIFS($L$1:$L212,"Tor",$B$1:$B212,$B213,$A$1:$A212,$A213)+COUNTIFS($L$1:$L212,"ET",$B$1:$B212,$B213,$A$1:$A212,$A213))-(COUNTIFS($L$1:$L212,"Tor",$B$1:$B212,"&lt;&gt;"&amp;$B213,$A$1:$A212,$A213)+COUNTIFS($L$1:$L212,"ET",$B$1:$B212,"&lt;&gt;"&amp;$B213,$A$1:$A212,$A213))),"")</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K213" s="3">
-        <v>16</v>
-      </c>
-      <c r="L213" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L213" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M213" s="3" t="s">
+      <c r="M213" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O213" s="2">
-        <v>8</v>
-      </c>
-      <c r="P213" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q213" s="2">
-        <v>6</v>
-      </c>
-      <c r="X213" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y213" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
+      </c>
+      <c r="X213" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y213" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="Z213" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AA213" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB213" s="18">
-        <v>10</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AB213" s="18"/>
       <c r="AC213" s="13">
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="AD213" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE213" s="19">
         <f t="shared" si="12"/>
-        <v>14.689642609675703</v>
+        <v>12</v>
       </c>
       <c r="AF213" s="19">
         <f t="shared" si="13"/>
-        <v>19.694334659050181</v>
-      </c>
-      <c r="AG213" s="3" t="s">
+        <v>32.694377561564657</v>
+      </c>
+      <c r="AG213" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH213" s="13">
-        <v>-3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AI213" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AJ213" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC213-$AH213)^2+($AD213-$AI213)^2))</f>
-        <v>12.619429464123963</v>
+        <v>9.2195444572928871</v>
       </c>
       <c r="AK213" s="3">
         <v>2</v>
       </c>
       <c r="AL213" s="13">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="AM213" s="13">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AN213" s="19">
         <f t="shared" si="14"/>
-        <v>0.70710678118654757</v>
+        <v>2.5</v>
       </c>
       <c r="AO213" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP213" s="13">
-        <v>-3</v>
-      </c>
-      <c r="AQ213" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="AR213" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR213" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>9.3005376188691375</v>
+        <v/>
       </c>
     </row>
     <row r="214" spans="1:44" ht="25.05" customHeight="1">
       <c r="A214" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C214" s="17" t="str">
         <f>IF($A214="","",IF(VLOOKUP($A214,Spiele!$A$2:$D$15,3,FALSE)=$B214,"H","G"))</f>
@@ -34129,14 +34111,14 @@
       </c>
       <c r="D214" s="17" t="str">
         <f>IF($B214="","",IF(VLOOKUP($A214,Spiele!$A$2:$F$15,3,FALSE)=$B214,VLOOKUP($A214,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A214,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E214" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A214,$A214,$B$2:$B214,$B214,$L$2:$L214,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G214" s="12">
         <v>2</v>
@@ -34151,102 +34133,113 @@
       </c>
       <c r="J214" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A214,Spiele!$A$2:$D$15,3,FALSE)=$B214,(COUNTIFS($L$1:$L213,"Tor",$B$1:$B213,$B214,$A$1:$A213,$A214)+COUNTIFS($L$1:$L213,"ET",$B$1:$B213,$B214,$A$1:$A213,$A214))-(COUNTIFS($L$1:$L213,"Tor",$B$1:$B213,"&lt;&gt;"&amp;$B214,$A$1:$A213,$A214)+COUNTIFS($L$1:$L213,"ET",$B$1:$B213,"&lt;&gt;"&amp;$B214,$A$1:$A213,$A214)),(COUNTIFS($L$1:$L213,"Tor",$B$1:$B213,$B214,$A$1:$A213,$A214)+COUNTIFS($L$1:$L213,"ET",$B$1:$B213,$B214,$A$1:$A213,$A214))-(COUNTIFS($L$1:$L213,"Tor",$B$1:$B213,"&lt;&gt;"&amp;$B214,$A$1:$A213,$A214)+COUNTIFS($L$1:$L213,"ET",$B$1:$B213,"&lt;&gt;"&amp;$B214,$A$1:$A213,$A214))),"")</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K214" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L214" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M214" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="O214" s="2">
+        <v>7</v>
       </c>
       <c r="X214" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Y214" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z214" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AA214" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB214" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="AB214" s="18">
+        <v>10</v>
+      </c>
       <c r="AC214" s="13">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD214" s="13">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="AE214" s="19">
         <f t="shared" si="12"/>
-        <v>11.216309553502882</v>
+        <v>18.279649887237994</v>
       </c>
       <c r="AF214" s="19">
         <f t="shared" si="13"/>
-        <v>16.373402664953399</v>
+        <v>16.364400935432283</v>
       </c>
       <c r="AG214" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH214" s="13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AI214" s="13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AJ214" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC214-$AH214)^2+($AD214-$AI214)^2))</f>
-        <v>11.01135777277262</v>
+        <v>16.918924315688631</v>
       </c>
       <c r="AK214" s="3">
         <v>1</v>
       </c>
       <c r="AL214" s="13">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AM214" s="13">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN214" s="19">
         <f t="shared" si="14"/>
-        <v>3.1622776601683795</v>
+        <v>8.1394102980498531</v>
       </c>
       <c r="AO214" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR214" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="AP214" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AQ214" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AR214" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2.6925824035672519</v>
       </c>
     </row>
     <row r="215" spans="1:44" ht="25.05" customHeight="1">
       <c r="A215" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="17" t="str">
         <f>IF($A215="","",IF(VLOOKUP($A215,Spiele!$A$2:$D$15,3,FALSE)=$B215,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D215" s="17" t="str">
         <f>IF($B215="","",IF(VLOOKUP($A215,Spiele!$A$2:$F$15,3,FALSE)=$B215,VLOOKUP($A215,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A215,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E215" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A215,$A215,$B$2:$B215,$B215,$L$2:$L215,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F215" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G215" s="12">
         <v>2</v>
@@ -34261,110 +34254,101 @@
       </c>
       <c r="J215" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A215,Spiele!$A$2:$D$15,3,FALSE)=$B215,(COUNTIFS($L$1:$L214,"Tor",$B$1:$B214,$B215,$A$1:$A214,$A215)+COUNTIFS($L$1:$L214,"ET",$B$1:$B214,$B215,$A$1:$A214,$A215))-(COUNTIFS($L$1:$L214,"Tor",$B$1:$B214,"&lt;&gt;"&amp;$B215,$A$1:$A214,$A215)+COUNTIFS($L$1:$L214,"ET",$B$1:$B214,"&lt;&gt;"&amp;$B215,$A$1:$A214,$A215)),(COUNTIFS($L$1:$L214,"Tor",$B$1:$B214,$B215,$A$1:$A214,$A215)+COUNTIFS($L$1:$L214,"ET",$B$1:$B214,$B215,$A$1:$A214,$A215))-(COUNTIFS($L$1:$L214,"Tor",$B$1:$B214,"&lt;&gt;"&amp;$B215,$A$1:$A214,$A215)+COUNTIFS($L$1:$L214,"ET",$B$1:$B214,"&lt;&gt;"&amp;$B215,$A$1:$A214,$A215))),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K215" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L215" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N215" s="2" t="s">
         <v>158</v>
       </c>
       <c r="O215" s="2">
+        <v>7</v>
+      </c>
+      <c r="P215" s="2">
         <v>4</v>
       </c>
-      <c r="P215" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q215" s="2">
-        <v>6</v>
-      </c>
-      <c r="R215" s="2">
-        <v>8</v>
-      </c>
-      <c r="S215" s="2">
-        <v>20</v>
-      </c>
       <c r="X215" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Y215" s="17" t="s">
         <v>143</v>
       </c>
       <c r="Z215" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA215" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AB215" s="18">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AC215" s="13">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="AD215" s="13">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE215" s="19">
         <f t="shared" si="12"/>
-        <v>22.071828197954062</v>
+        <v>17.630813934699667</v>
       </c>
       <c r="AF215" s="19">
         <f t="shared" si="13"/>
-        <v>14.230221882728383</v>
+        <v>14.085030356677075</v>
       </c>
       <c r="AG215" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH215" s="13">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AI215" s="13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AJ215" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC215-$AH215)^2+($AD215-$AI215)^2))</f>
-        <v>21.100947846009191</v>
+        <v>16.98528775146303</v>
       </c>
       <c r="AK215" s="3">
         <v>1</v>
       </c>
       <c r="AL215" s="13">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="AM215" s="13">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AN215" s="19">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>3.6055512754639891</v>
       </c>
       <c r="AO215" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP215" s="13">
-        <v>-11</v>
+        <v>-12.5</v>
       </c>
       <c r="AQ215" s="13">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR215" s="19">
         <f t="shared" si="15"/>
-        <v>5.8309518948453007</v>
+        <v>3.2015621187164243</v>
       </c>
     </row>
     <row r="216" spans="1:44" ht="25.05" customHeight="1">
       <c r="A216" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C216" s="17" t="str">
         <f>IF($A216="","",IF(VLOOKUP($A216,Spiele!$A$2:$D$15,3,FALSE)=$B216,"H","G"))</f>
@@ -34372,14 +34356,14 @@
       </c>
       <c r="D216" s="17" t="str">
         <f>IF($B216="","",IF(VLOOKUP($A216,Spiele!$A$2:$F$15,3,FALSE)=$B216,VLOOKUP($A216,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A216,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E216" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A216,$A216,$B$2:$B216,$B216,$L$2:$L216,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F216" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G216" s="12">
         <v>2</v>
@@ -34394,10 +34378,10 @@
       </c>
       <c r="J216" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A216,Spiele!$A$2:$D$15,3,FALSE)=$B216,(COUNTIFS($L$1:$L215,"Tor",$B$1:$B215,$B216,$A$1:$A215,$A216)+COUNTIFS($L$1:$L215,"ET",$B$1:$B215,$B216,$A$1:$A215,$A216))-(COUNTIFS($L$1:$L215,"Tor",$B$1:$B215,"&lt;&gt;"&amp;$B216,$A$1:$A215,$A216)+COUNTIFS($L$1:$L215,"ET",$B$1:$B215,"&lt;&gt;"&amp;$B216,$A$1:$A215,$A216)),(COUNTIFS($L$1:$L215,"Tor",$B$1:$B215,$B216,$A$1:$A215,$A216)+COUNTIFS($L$1:$L215,"ET",$B$1:$B215,$B216,$A$1:$A215,$A216))-(COUNTIFS($L$1:$L215,"Tor",$B$1:$B215,"&lt;&gt;"&amp;$B216,$A$1:$A215,$A216)+COUNTIFS($L$1:$L215,"ET",$B$1:$B215,"&lt;&gt;"&amp;$B216,$A$1:$A215,$A216))),"")</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K216" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L216" s="17" t="s">
         <v>18</v>
@@ -34415,37 +34399,35 @@
         <v>150</v>
       </c>
       <c r="AA216" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB216" s="18">
-        <v>8</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AB216" s="18"/>
       <c r="AC216" s="13">
-        <v>14</v>
+        <v>-25</v>
       </c>
       <c r="AD216" s="13">
-        <v>23.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE216" s="19">
         <f t="shared" si="12"/>
-        <v>25.674220533445606</v>
+        <v>25.800108526903525</v>
       </c>
       <c r="AF216" s="19">
         <f t="shared" si="13"/>
-        <v>13.174977970680043</v>
+        <v>7.3588437597607248</v>
       </c>
       <c r="AG216" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH216" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI216" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AJ216" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC216-$AH216)^2+($AD216-$AI216)^2))</f>
-        <v>25.238858928247925</v>
+        <v>27.784887978899608</v>
       </c>
       <c r="AK216" s="3">
         <v>0</v>
@@ -34457,29 +34439,29 @@
         <v/>
       </c>
       <c r="AO216" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP216" s="13">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="AQ216" s="13">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="AR216" s="19">
         <f t="shared" si="15"/>
-        <v>9.013878188659973</v>
+        <v>8.4852813742385695</v>
       </c>
     </row>
     <row r="217" spans="1:44" ht="25.05" customHeight="1">
       <c r="A217" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C217" s="17" t="str">
         <f>IF($A217="","",IF(VLOOKUP($A217,Spiele!$A$2:$D$15,3,FALSE)=$B217,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D217" s="17" t="str">
         <f>IF($B217="","",IF(VLOOKUP($A217,Spiele!$A$2:$F$15,3,FALSE)=$B217,VLOOKUP($A217,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A217,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -34487,10 +34469,10 @@
       </c>
       <c r="E217" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A217,$A217,$B$2:$B217,$B217,$L$2:$L217,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F217" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G217" s="12">
         <v>2</v>
@@ -34501,95 +34483,94 @@
       </c>
       <c r="I217" s="17" t="str">
         <f>IF(OR($L217="Tor",$L217="ET"),_xlfn.IFNA(IF(VLOOKUP($A217,Spiele!$A$2:$C$15,3,FALSE)=$B217,COUNTIFS($L$2:$L217,"Tor",$B$2:$B217,$B217,$A$2:$A217,$A217)+COUNTIFS($L$2:$L217,"ET",$B$2:$B217,$B217,$A$2:$A217,$A217)&amp;":"&amp;COUNTIFS($L$2:$L217,"Tor",$B$2:$B217,"&lt;&gt;"&amp;$B217,$A$2:$A217,$A217)+COUNTIFS($L$2:$L217,"ET",$B$2:$B217,"&lt;&gt;"&amp;$B217,$A$2:$A217,$A217),COUNTIFS($L$2:$L217,"Tor",$B$2:$B217,"&lt;&gt;"&amp;$B217,$A$2:$A217,$A217)+COUNTIFS($L$2:$L217,"ET",$B$2:$B217,"&lt;&gt;"&amp;$B217,$A$2:$A217,$A217)&amp;":"&amp;COUNTIFS($L$2:$L217,"Tor",$B$2:$B217,$B217,$A$2:$A217,$A217)+COUNTIFS($L$2:$L217,"ET",$B$2:$B217,$B217,$A$2:$A217,$A217)),""),"")</f>
-        <v>1:1</v>
+        <v/>
       </c>
       <c r="J217" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A217,Spiele!$A$2:$D$15,3,FALSE)=$B217,(COUNTIFS($L$1:$L216,"Tor",$B$1:$B216,$B217,$A$1:$A216,$A217)+COUNTIFS($L$1:$L216,"ET",$B$1:$B216,$B217,$A$1:$A216,$A217))-(COUNTIFS($L$1:$L216,"Tor",$B$1:$B216,"&lt;&gt;"&amp;$B217,$A$1:$A216,$A217)+COUNTIFS($L$1:$L216,"ET",$B$1:$B216,"&lt;&gt;"&amp;$B217,$A$1:$A216,$A217)),(COUNTIFS($L$1:$L216,"Tor",$B$1:$B216,$B217,$A$1:$A216,$A217)+COUNTIFS($L$1:$L216,"ET",$B$1:$B216,$B217,$A$1:$A216,$A217))-(COUNTIFS($L$1:$L216,"Tor",$B$1:$B216,"&lt;&gt;"&amp;$B217,$A$1:$A216,$A217)+COUNTIFS($L$1:$L216,"ET",$B$1:$B216,"&lt;&gt;"&amp;$B217,$A$1:$A216,$A217))),"")</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K217" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L217" s="17" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N217" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="X217" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y217" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z217" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AA217" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AB217" s="18"/>
       <c r="AC217" s="13">
-        <v>-8.5</v>
+        <v>-5</v>
       </c>
       <c r="AD217" s="13">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AE217" s="19">
         <f t="shared" si="12"/>
-        <v>8.5103231431009725</v>
+        <v>26.034507869364461</v>
       </c>
       <c r="AF217" s="19">
         <f t="shared" si="13"/>
-        <v>25.411688271902904</v>
+        <v>15.471399757937141</v>
       </c>
       <c r="AG217" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH217" s="13">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AI217" s="13">
         <v>0.5</v>
       </c>
       <c r="AJ217" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC217-$AH217)^2+($AD217-$AI217)^2))</f>
-        <v>8.5146931829632013</v>
+        <v>26.196373794859472</v>
       </c>
       <c r="AK217" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL217" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AM217" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="AN217" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="13"/>
+      <c r="AM217" s="13"/>
+      <c r="AN217" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>3.5355339059327378</v>
+        <v/>
       </c>
       <c r="AO217" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR217" s="19" t="str">
+        <v>4</v>
+      </c>
+      <c r="AP217" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AQ217" s="13">
+        <v>19</v>
+      </c>
+      <c r="AR217" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>7.0710678118654755</v>
       </c>
     </row>
     <row r="218" spans="1:44" ht="25.05" customHeight="1">
       <c r="A218" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C218" s="17" t="str">
         <f>IF($A218="","",IF(VLOOKUP($A218,Spiele!$A$2:$D$15,3,FALSE)=$B218,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D218" s="17" t="str">
         <f>IF($B218="","",IF(VLOOKUP($A218,Spiele!$A$2:$F$15,3,FALSE)=$B218,VLOOKUP($A218,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A218,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -34597,7 +34578,7 @@
       </c>
       <c r="E218" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A218,$A218,$B$2:$B218,$B218,$L$2:$L218,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F218" s="11">
         <v>65</v>
@@ -34615,108 +34596,98 @@
       </c>
       <c r="J218" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A218,Spiele!$A$2:$D$15,3,FALSE)=$B218,(COUNTIFS($L$1:$L217,"Tor",$B$1:$B217,$B218,$A$1:$A217,$A218)+COUNTIFS($L$1:$L217,"ET",$B$1:$B217,$B218,$A$1:$A217,$A218))-(COUNTIFS($L$1:$L217,"Tor",$B$1:$B217,"&lt;&gt;"&amp;$B218,$A$1:$A217,$A218)+COUNTIFS($L$1:$L217,"ET",$B$1:$B217,"&lt;&gt;"&amp;$B218,$A$1:$A217,$A218)),(COUNTIFS($L$1:$L217,"Tor",$B$1:$B217,$B218,$A$1:$A217,$A218)+COUNTIFS($L$1:$L217,"ET",$B$1:$B217,$B218,$A$1:$A217,$A218))-(COUNTIFS($L$1:$L217,"Tor",$B$1:$B217,"&lt;&gt;"&amp;$B218,$A$1:$A217,$A218)+COUNTIFS($L$1:$L217,"ET",$B$1:$B217,"&lt;&gt;"&amp;$B218,$A$1:$A217,$A218))),"")</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K218" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L218" s="17" t="s">
         <v>18</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="X218" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y218" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z218" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AA218" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AB218" s="18"/>
       <c r="AC218" s="13">
-        <v>4.5</v>
+        <v>-8.5</v>
       </c>
       <c r="AD218" s="13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE218" s="19">
         <f t="shared" si="12"/>
-        <v>11.032026105842935</v>
+        <v>7.708800166044</v>
       </c>
       <c r="AF218" s="19">
         <f t="shared" si="13"/>
-        <v>32.201857009576806</v>
+        <v>24.845336733081307</v>
       </c>
       <c r="AG218" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH218" s="13">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="AI218" s="13">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AJ218" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC218-$AH218)^2+($AD218-$AI218)^2))</f>
-        <v>11.067971810589327</v>
+        <v>3.2015621187164243</v>
       </c>
       <c r="AK218" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL218" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="AM218" s="13">
-        <v>9</v>
-      </c>
-      <c r="AN218" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="13"/>
+      <c r="AM218" s="13"/>
+      <c r="AN218" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AO218" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP218" s="13">
-        <v>4</v>
-      </c>
-      <c r="AQ218" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="AR218" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR218" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>5.5226805085936306</v>
+        <v/>
       </c>
     </row>
     <row r="219" spans="1:44" ht="25.05" customHeight="1">
       <c r="A219" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="17" t="str">
         <f>IF($A219="","",IF(VLOOKUP($A219,Spiele!$A$2:$D$15,3,FALSE)=$B219,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D219" s="17" t="str">
         <f>IF($B219="","",IF(VLOOKUP($A219,Spiele!$A$2:$F$15,3,FALSE)=$B219,VLOOKUP($A219,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A219,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E219" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A219,$A219,$B$2:$B219,$B219,$L$2:$L219,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F219" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G219" s="12">
         <v>2</v>
@@ -34731,119 +34702,110 @@
       </c>
       <c r="J219" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A219,Spiele!$A$2:$D$15,3,FALSE)=$B219,(COUNTIFS($L$1:$L218,"Tor",$B$1:$B218,$B219,$A$1:$A218,$A219)+COUNTIFS($L$1:$L218,"ET",$B$1:$B218,$B219,$A$1:$A218,$A219))-(COUNTIFS($L$1:$L218,"Tor",$B$1:$B218,"&lt;&gt;"&amp;$B219,$A$1:$A218,$A219)+COUNTIFS($L$1:$L218,"ET",$B$1:$B218,"&lt;&gt;"&amp;$B219,$A$1:$A218,$A219)),(COUNTIFS($L$1:$L218,"Tor",$B$1:$B218,$B219,$A$1:$A218,$A219)+COUNTIFS($L$1:$L218,"ET",$B$1:$B218,$B219,$A$1:$A218,$A219))-(COUNTIFS($L$1:$L218,"Tor",$B$1:$B218,"&lt;&gt;"&amp;$B219,$A$1:$A218,$A219)+COUNTIFS($L$1:$L218,"ET",$B$1:$B218,"&lt;&gt;"&amp;$B219,$A$1:$A218,$A219))),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K219" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O219" s="2">
+        <v>7</v>
+      </c>
+      <c r="P219" s="2">
         <v>20</v>
       </c>
-      <c r="M219" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N219" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O219" s="2">
-        <v>8</v>
-      </c>
-      <c r="P219" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q219" s="2">
-        <v>6</v>
-      </c>
       <c r="X219" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Y219" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Z219" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AA219" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AB219" s="18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC219" s="13">
-        <v>-5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="AD219" s="13">
-        <v>4</v>
+        <v>20.5</v>
       </c>
       <c r="AE219" s="19">
         <f t="shared" si="12"/>
-        <v>4.4029081298614443</v>
+        <v>22.324775474794812</v>
       </c>
       <c r="AF219" s="19">
         <f t="shared" si="13"/>
-        <v>41.707579601485392</v>
+        <v>14.921805822022099</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AH219" s="13">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="AI219" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ219" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC219-$AH219)^2+($AD219-$AI219)^2))</f>
-        <v>1.8027756377319946</v>
+        <v>19.83053201505194</v>
       </c>
       <c r="AK219" s="3">
         <v>1</v>
       </c>
       <c r="AL219" s="13">
-        <v>-5.5</v>
+        <v>-10.5</v>
       </c>
       <c r="AM219" s="13">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="AN219" s="19">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>2.0615528128088303</v>
       </c>
       <c r="AO219" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP219" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AQ219" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AR219" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR219" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>6.5</v>
+        <v/>
       </c>
     </row>
     <row r="220" spans="1:44" ht="25.05" customHeight="1">
       <c r="A220" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="17" t="str">
         <f>IF($A220="","",IF(VLOOKUP($A220,Spiele!$A$2:$D$15,3,FALSE)=$B220,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D220" s="17" t="str">
         <f>IF($B220="","",IF(VLOOKUP($A220,Spiele!$A$2:$F$15,3,FALSE)=$B220,VLOOKUP($A220,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A220,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E220" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A220,$A220,$B$2:$B220,$B220,$L$2:$L220,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F220" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G220" s="12">
         <v>2</v>
@@ -34858,49 +34820,25 @@
       </c>
       <c r="J220" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A220,Spiele!$A$2:$D$15,3,FALSE)=$B220,(COUNTIFS($L$1:$L219,"Tor",$B$1:$B219,$B220,$A$1:$A219,$A220)+COUNTIFS($L$1:$L219,"ET",$B$1:$B219,$B220,$A$1:$A219,$A220))-(COUNTIFS($L$1:$L219,"Tor",$B$1:$B219,"&lt;&gt;"&amp;$B220,$A$1:$A219,$A220)+COUNTIFS($L$1:$L219,"ET",$B$1:$B219,"&lt;&gt;"&amp;$B220,$A$1:$A219,$A220)),(COUNTIFS($L$1:$L219,"Tor",$B$1:$B219,$B220,$A$1:$A219,$A220)+COUNTIFS($L$1:$L219,"ET",$B$1:$B219,$B220,$A$1:$A219,$A220))-(COUNTIFS($L$1:$L219,"Tor",$B$1:$B219,"&lt;&gt;"&amp;$B220,$A$1:$A219,$A220)+COUNTIFS($L$1:$L219,"ET",$B$1:$B219,"&lt;&gt;"&amp;$B220,$A$1:$A219,$A220))),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K220" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L220" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O220" s="2">
-        <v>7</v>
-      </c>
-      <c r="P220" s="2">
-        <v>18</v>
-      </c>
-      <c r="Q220" s="2">
-        <v>8</v>
-      </c>
-      <c r="R220" s="2">
-        <v>23</v>
-      </c>
-      <c r="S220" s="2">
-        <v>6</v>
-      </c>
-      <c r="T220" s="2">
-        <v>5</v>
-      </c>
-      <c r="U220" s="2">
-        <v>16</v>
-      </c>
-      <c r="V220" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="X220" s="2" t="s">
         <v>142</v>
       </c>
       <c r="Y220" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z220" s="14" t="s">
         <v>150</v>
@@ -34909,79 +34847,83 @@
         <v>156</v>
       </c>
       <c r="AB220" s="18">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AC220" s="13">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AD220" s="13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE220" s="19">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>25.002311893103006</v>
       </c>
       <c r="AF220" s="19">
         <f t="shared" si="13"/>
-        <v>26.748394088035369</v>
+        <v>16.255889866256815</v>
       </c>
       <c r="AG220" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH220" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI220" s="13">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AJ220" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC220-$AH220)^2+($AD220-$AI220)^2))</f>
-        <v>11.76860229593982</v>
+        <v>23.759208741033444</v>
       </c>
       <c r="AK220" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL220" s="13"/>
-      <c r="AM220" s="13"/>
-      <c r="AN220" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="AL220" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM220" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="AN220" s="19">
         <f t="shared" si="14"/>
-        <v/>
+        <v>3.0413812651491097</v>
       </c>
       <c r="AO220" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP220" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ220" s="13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AR220" s="19">
         <f t="shared" si="15"/>
-        <v>4.1231056256176606</v>
+        <v>3.6055512754639891</v>
       </c>
     </row>
     <row r="221" spans="1:44" ht="25.05" customHeight="1">
       <c r="A221" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="17" t="str">
         <f>IF($A221="","",IF(VLOOKUP($A221,Spiele!$A$2:$D$15,3,FALSE)=$B221,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D221" s="17" t="str">
         <f>IF($B221="","",IF(VLOOKUP($A221,Spiele!$A$2:$F$15,3,FALSE)=$B221,VLOOKUP($A221,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A221,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SSV</v>
       </c>
       <c r="E221" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A221,$A221,$B$2:$B221,$B221,$L$2:$L221,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F221" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G221" s="12">
         <v>2</v>
@@ -34996,95 +34938,97 @@
       </c>
       <c r="J221" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A221,Spiele!$A$2:$D$15,3,FALSE)=$B221,(COUNTIFS($L$1:$L220,"Tor",$B$1:$B220,$B221,$A$1:$A220,$A221)+COUNTIFS($L$1:$L220,"ET",$B$1:$B220,$B221,$A$1:$A220,$A221))-(COUNTIFS($L$1:$L220,"Tor",$B$1:$B220,"&lt;&gt;"&amp;$B221,$A$1:$A220,$A221)+COUNTIFS($L$1:$L220,"ET",$B$1:$B220,"&lt;&gt;"&amp;$B221,$A$1:$A220,$A221)),(COUNTIFS($L$1:$L220,"Tor",$B$1:$B220,$B221,$A$1:$A220,$A221)+COUNTIFS($L$1:$L220,"ET",$B$1:$B220,$B221,$A$1:$A220,$A221))-(COUNTIFS($L$1:$L220,"Tor",$B$1:$B220,"&lt;&gt;"&amp;$B221,$A$1:$A220,$A221)+COUNTIFS($L$1:$L220,"ET",$B$1:$B220,"&lt;&gt;"&amp;$B221,$A$1:$A220,$A221))),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K221" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L221" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="O221" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P221" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X221" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Y221" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z221" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA221" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AB221" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC221" s="13">
-        <v>-13.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AD221" s="13">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE221" s="19">
         <f t="shared" si="12"/>
-        <v>19.211340400919454</v>
+        <v>11.5</v>
       </c>
       <c r="AF221" s="19">
         <f t="shared" si="13"/>
-        <v>15.312989252529659</v>
+        <v>33.935742874009215</v>
       </c>
       <c r="AG221" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH221" s="13">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AI221" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ221" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC221-$AH221)^2+($AD221-$AI221)^2))</f>
-        <v>17.613914953808536</v>
+        <v>10.547511554864494</v>
       </c>
       <c r="AK221" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="13"/>
+      <c r="AM221" s="13"/>
+      <c r="AN221" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AO221" s="3">
         <v>2</v>
       </c>
-      <c r="AL221" s="13">
-        <v>-12.5</v>
-      </c>
-      <c r="AM221" s="13">
-        <v>17.5</v>
-      </c>
-      <c r="AN221" s="19">
-        <f t="shared" si="14"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AO221" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR221" s="19" t="str">
+      <c r="AP221" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AQ221" s="13">
+        <v>11</v>
+      </c>
+      <c r="AR221" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="222" spans="1:44" ht="25.05" customHeight="1">
       <c r="A222" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C222" s="17" t="str">
         <f>IF($A222="","",IF(VLOOKUP($A222,Spiele!$A$2:$D$15,3,FALSE)=$B222,"H","G"))</f>
@@ -35092,14 +35036,14 @@
       </c>
       <c r="D222" s="17" t="str">
         <f>IF($B222="","",IF(VLOOKUP($A222,Spiele!$A$2:$F$15,3,FALSE)=$B222,VLOOKUP($A222,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A222,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E222" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A222,$A222,$B$2:$B222,$B222,$L$2:$L222,"&lt;&gt;ET"))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F222" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G222" s="12">
         <v>2</v>
@@ -35110,17 +35054,17 @@
       </c>
       <c r="I222" s="17" t="str">
         <f>IF(OR($L222="Tor",$L222="ET"),_xlfn.IFNA(IF(VLOOKUP($A222,Spiele!$A$2:$C$15,3,FALSE)=$B222,COUNTIFS($L$2:$L222,"Tor",$B$2:$B222,$B222,$A$2:$A222,$A222)+COUNTIFS($L$2:$L222,"ET",$B$2:$B222,$B222,$A$2:$A222,$A222)&amp;":"&amp;COUNTIFS($L$2:$L222,"Tor",$B$2:$B222,"&lt;&gt;"&amp;$B222,$A$2:$A222,$A222)+COUNTIFS($L$2:$L222,"ET",$B$2:$B222,"&lt;&gt;"&amp;$B222,$A$2:$A222,$A222),COUNTIFS($L$2:$L222,"Tor",$B$2:$B222,"&lt;&gt;"&amp;$B222,$A$2:$A222,$A222)+COUNTIFS($L$2:$L222,"ET",$B$2:$B222,"&lt;&gt;"&amp;$B222,$A$2:$A222,$A222)&amp;":"&amp;COUNTIFS($L$2:$L222,"Tor",$B$2:$B222,$B222,$A$2:$A222,$A222)+COUNTIFS($L$2:$L222,"ET",$B$2:$B222,$B222,$A$2:$A222,$A222)),""),"")</f>
-        <v/>
+        <v>2:3</v>
       </c>
       <c r="J222" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A222,Spiele!$A$2:$D$15,3,FALSE)=$B222,(COUNTIFS($L$1:$L221,"Tor",$B$1:$B221,$B222,$A$1:$A221,$A222)+COUNTIFS($L$1:$L221,"ET",$B$1:$B221,$B222,$A$1:$A221,$A222))-(COUNTIFS($L$1:$L221,"Tor",$B$1:$B221,"&lt;&gt;"&amp;$B222,$A$1:$A221,$A222)+COUNTIFS($L$1:$L221,"ET",$B$1:$B221,"&lt;&gt;"&amp;$B222,$A$1:$A221,$A222)),(COUNTIFS($L$1:$L221,"Tor",$B$1:$B221,$B222,$A$1:$A221,$A222)+COUNTIFS($L$1:$L221,"ET",$B$1:$B221,$B222,$A$1:$A221,$A222))-(COUNTIFS($L$1:$L221,"Tor",$B$1:$B221,"&lt;&gt;"&amp;$B222,$A$1:$A221,$A222)+COUNTIFS($L$1:$L221,"ET",$B$1:$B221,"&lt;&gt;"&amp;$B222,$A$1:$A221,$A222))),"")</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K222" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L222" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M222" s="2" t="s">
         <v>163</v>
@@ -35128,11 +35072,8 @@
       <c r="N222" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O222" s="2">
-        <v>10</v>
-      </c>
       <c r="X222" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y222" s="17" t="s">
         <v>143</v>
@@ -35141,71 +35082,69 @@
         <v>150</v>
       </c>
       <c r="AA222" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB222" s="18">
-        <v>6</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB222" s="18"/>
       <c r="AC222" s="13">
-        <v>14.5</v>
+        <v>2</v>
       </c>
       <c r="AD222" s="13">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="AE222" s="19">
         <f t="shared" si="12"/>
-        <v>17.7060893480181</v>
+        <v>9.5</v>
       </c>
       <c r="AF222" s="19">
         <f t="shared" si="13"/>
-        <v>14.620361026676797</v>
+        <v>40.697655718401577</v>
       </c>
       <c r="AG222" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AH222" s="13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI222" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AJ222" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC222-$AH222)^2+($AD222-$AI222)^2))</f>
-        <v>17.327723451163457</v>
+        <v>7.5166481891864541</v>
       </c>
       <c r="AK222" s="3">
         <v>1</v>
       </c>
       <c r="AL222" s="13">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="AM222" s="13">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AN222" s="19">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AO222" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP222" s="13">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AQ222" s="13">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="AR222" s="19">
         <f t="shared" si="15"/>
-        <v>8.4852813742385695</v>
+        <v>6.324555320336759</v>
       </c>
     </row>
     <row r="223" spans="1:44" ht="25.05" customHeight="1">
       <c r="A223" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C223" s="17" t="str">
         <f>IF($A223="","",IF(VLOOKUP($A223,Spiele!$A$2:$D$15,3,FALSE)=$B223,"H","G"))</f>
@@ -35213,14 +35152,14 @@
       </c>
       <c r="D223" s="17" t="str">
         <f>IF($B223="","",IF(VLOOKUP($A223,Spiele!$A$2:$F$15,3,FALSE)=$B223,VLOOKUP($A223,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A223,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SSV</v>
       </c>
       <c r="E223" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A223,$A223,$B$2:$B223,$B223,$L$2:$L223,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F223" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G223" s="12">
         <v>2</v>
@@ -35235,22 +35174,31 @@
       </c>
       <c r="J223" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A223,Spiele!$A$2:$D$15,3,FALSE)=$B223,(COUNTIFS($L$1:$L222,"Tor",$B$1:$B222,$B223,$A$1:$A222,$A223)+COUNTIFS($L$1:$L222,"ET",$B$1:$B222,$B223,$A$1:$A222,$A223))-(COUNTIFS($L$1:$L222,"Tor",$B$1:$B222,"&lt;&gt;"&amp;$B223,$A$1:$A222,$A223)+COUNTIFS($L$1:$L222,"ET",$B$1:$B222,"&lt;&gt;"&amp;$B223,$A$1:$A222,$A223)),(COUNTIFS($L$1:$L222,"Tor",$B$1:$B222,$B223,$A$1:$A222,$A223)+COUNTIFS($L$1:$L222,"ET",$B$1:$B222,$B223,$A$1:$A222,$A223))-(COUNTIFS($L$1:$L222,"Tor",$B$1:$B222,"&lt;&gt;"&amp;$B223,$A$1:$A222,$A223)+COUNTIFS($L$1:$L222,"ET",$B$1:$B222,"&lt;&gt;"&amp;$B223,$A$1:$A222,$A223))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L223" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+      <c r="O223" s="2">
+        <v>13</v>
+      </c>
+      <c r="P223" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>20</v>
       </c>
       <c r="X223" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Y223" s="17" t="s">
         <v>143</v>
@@ -35259,48 +35207,50 @@
         <v>150</v>
       </c>
       <c r="AA223" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB223" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AB223" s="18">
+        <v>26</v>
+      </c>
       <c r="AC223" s="13">
-        <v>-12</v>
+        <v>-14.5</v>
       </c>
       <c r="AD223" s="13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AE223" s="19">
         <f t="shared" si="12"/>
-        <v>19.838235808660002</v>
+        <v>38.555227920477918</v>
       </c>
       <c r="AF223" s="19">
         <f t="shared" si="13"/>
-        <v>16.163407255354326</v>
+        <v>9.8131451437535286</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AH223" s="13">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AI223" s="13">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="AJ223" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC223-$AH223)^2+($AD223-$AI223)^2))</f>
-        <v>18.721645226849056</v>
+        <v>29.295904150580505</v>
       </c>
       <c r="AK223" s="3">
         <v>1</v>
       </c>
       <c r="AL223" s="13">
-        <v>-10.5</v>
+        <v>-15</v>
       </c>
       <c r="AM223" s="13">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AN223" s="19">
         <f t="shared" si="14"/>
-        <v>3.3541019662496847</v>
+        <v>1.1180339887498949</v>
       </c>
       <c r="AO223" s="3">
         <v>0</v>
@@ -35310,33 +35260,3665 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="26:27" ht="25.05" customHeight="1">
-      <c r="Z225" s="14"/>
-      <c r="AA225" s="14"/>
+    <row r="224" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A224" s="3">
+        <v>8</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="17" t="str">
+        <f>IF($A224="","",IF(VLOOKUP($A224,Spiele!$A$2:$D$15,3,FALSE)=$B224,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D224" s="17" t="str">
+        <f>IF($B224="","",IF(VLOOKUP($A224,Spiele!$A$2:$F$15,3,FALSE)=$B224,VLOOKUP($A224,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A224,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>SSV</v>
+      </c>
+      <c r="E224" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A224,$A224,$B$2:$B224,$B224,$L$2:$L224,"&lt;&gt;ET"))</f>
+        <v>18</v>
+      </c>
+      <c r="F224" s="11">
+        <v>80</v>
+      </c>
+      <c r="G224" s="12">
+        <v>2</v>
+      </c>
+      <c r="H224" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A224,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B224,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F224,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G224)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A224,'Rote Karten'!$D$2:$D$4,$B224,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F224,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G224)</f>
+        <v>0</v>
+      </c>
+      <c r="I224" s="17" t="str">
+        <f>IF(OR($L224="Tor",$L224="ET"),_xlfn.IFNA(IF(VLOOKUP($A224,Spiele!$A$2:$C$15,3,FALSE)=$B224,COUNTIFS($L$2:$L224,"Tor",$B$2:$B224,$B224,$A$2:$A224,$A224)+COUNTIFS($L$2:$L224,"ET",$B$2:$B224,$B224,$A$2:$A224,$A224)&amp;":"&amp;COUNTIFS($L$2:$L224,"Tor",$B$2:$B224,"&lt;&gt;"&amp;$B224,$A$2:$A224,$A224)+COUNTIFS($L$2:$L224,"ET",$B$2:$B224,"&lt;&gt;"&amp;$B224,$A$2:$A224,$A224),COUNTIFS($L$2:$L224,"Tor",$B$2:$B224,"&lt;&gt;"&amp;$B224,$A$2:$A224,$A224)+COUNTIFS($L$2:$L224,"ET",$B$2:$B224,"&lt;&gt;"&amp;$B224,$A$2:$A224,$A224)&amp;":"&amp;COUNTIFS($L$2:$L224,"Tor",$B$2:$B224,$B224,$A$2:$A224,$A224)+COUNTIFS($L$2:$L224,"ET",$B$2:$B224,$B224,$A$2:$A224,$A224)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J224" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A224,Spiele!$A$2:$D$15,3,FALSE)=$B224,(COUNTIFS($L$1:$L223,"Tor",$B$1:$B223,$B224,$A$1:$A223,$A224)+COUNTIFS($L$1:$L223,"ET",$B$1:$B223,$B224,$A$1:$A223,$A224))-(COUNTIFS($L$1:$L223,"Tor",$B$1:$B223,"&lt;&gt;"&amp;$B224,$A$1:$A223,$A224)+COUNTIFS($L$1:$L223,"ET",$B$1:$B223,"&lt;&gt;"&amp;$B224,$A$1:$A223,$A224)),(COUNTIFS($L$1:$L223,"Tor",$B$1:$B223,$B224,$A$1:$A223,$A224)+COUNTIFS($L$1:$L223,"ET",$B$1:$B223,$B224,$A$1:$A223,$A224))-(COUNTIFS($L$1:$L223,"Tor",$B$1:$B223,"&lt;&gt;"&amp;$B224,$A$1:$A223,$A224)+COUNTIFS($L$1:$L223,"ET",$B$1:$B223,"&lt;&gt;"&amp;$B224,$A$1:$A223,$A224))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K224" s="3">
+        <v>25</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O224" s="2">
+        <v>25</v>
+      </c>
+      <c r="P224" s="2">
+        <v>13</v>
+      </c>
+      <c r="X224" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y224" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z224" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA224" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB224" s="18">
+        <v>10</v>
+      </c>
+      <c r="AC224" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AD224" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AE224" s="19">
+        <f t="shared" si="12"/>
+        <v>8.5</v>
+      </c>
+      <c r="AF224" s="19">
+        <f t="shared" si="13"/>
+        <v>43.702246514345354</v>
+      </c>
+      <c r="AG224" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH224" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AI224" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ224" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC224-$AH224)^2+($AD224-$AI224)^2))</f>
+        <v>4.5276925690687087</v>
+      </c>
+      <c r="AK224" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL224" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AM224" s="13">
+        <v>11</v>
+      </c>
+      <c r="AN224" s="19">
+        <f t="shared" si="14"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AO224" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A225" s="3">
+        <v>8</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C225" s="17" t="str">
+        <f>IF($A225="","",IF(VLOOKUP($A225,Spiele!$A$2:$D$15,3,FALSE)=$B225,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D225" s="17" t="str">
+        <f>IF($B225="","",IF(VLOOKUP($A225,Spiele!$A$2:$F$15,3,FALSE)=$B225,VLOOKUP($A225,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A225,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E225" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A225,$A225,$B$2:$B225,$B225,$L$2:$L225,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F225" s="11">
+        <v>81</v>
+      </c>
+      <c r="G225" s="12">
+        <v>2</v>
+      </c>
+      <c r="H225" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A225,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B225,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F225,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G225)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A225,'Rote Karten'!$D$2:$D$4,$B225,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F225,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G225)</f>
+        <v>0</v>
+      </c>
+      <c r="I225" s="17" t="str">
+        <f>IF(OR($L225="Tor",$L225="ET"),_xlfn.IFNA(IF(VLOOKUP($A225,Spiele!$A$2:$C$15,3,FALSE)=$B225,COUNTIFS($L$2:$L225,"Tor",$B$2:$B225,$B225,$A$2:$A225,$A225)+COUNTIFS($L$2:$L225,"ET",$B$2:$B225,$B225,$A$2:$A225,$A225)&amp;":"&amp;COUNTIFS($L$2:$L225,"Tor",$B$2:$B225,"&lt;&gt;"&amp;$B225,$A$2:$A225,$A225)+COUNTIFS($L$2:$L225,"ET",$B$2:$B225,"&lt;&gt;"&amp;$B225,$A$2:$A225,$A225),COUNTIFS($L$2:$L225,"Tor",$B$2:$B225,"&lt;&gt;"&amp;$B225,$A$2:$A225,$A225)+COUNTIFS($L$2:$L225,"ET",$B$2:$B225,"&lt;&gt;"&amp;$B225,$A$2:$A225,$A225)&amp;":"&amp;COUNTIFS($L$2:$L225,"Tor",$B$2:$B225,$B225,$A$2:$A225,$A225)+COUNTIFS($L$2:$L225,"ET",$B$2:$B225,$B225,$A$2:$A225,$A225)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J225" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A225,Spiele!$A$2:$D$15,3,FALSE)=$B225,(COUNTIFS($L$1:$L224,"Tor",$B$1:$B224,$B225,$A$1:$A224,$A225)+COUNTIFS($L$1:$L224,"ET",$B$1:$B224,$B225,$A$1:$A224,$A225))-(COUNTIFS($L$1:$L224,"Tor",$B$1:$B224,"&lt;&gt;"&amp;$B225,$A$1:$A224,$A225)+COUNTIFS($L$1:$L224,"ET",$B$1:$B224,"&lt;&gt;"&amp;$B225,$A$1:$A224,$A225)),(COUNTIFS($L$1:$L224,"Tor",$B$1:$B224,$B225,$A$1:$A224,$A225)+COUNTIFS($L$1:$L224,"ET",$B$1:$B224,$B225,$A$1:$A224,$A225))-(COUNTIFS($L$1:$L224,"Tor",$B$1:$B224,"&lt;&gt;"&amp;$B225,$A$1:$A224,$A225)+COUNTIFS($L$1:$L224,"ET",$B$1:$B224,"&lt;&gt;"&amp;$B225,$A$1:$A224,$A225))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K225" s="3">
+        <v>26</v>
+      </c>
+      <c r="L225" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N225" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X225" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y225" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z225" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA225" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB225" s="18"/>
+      <c r="AC225" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD225" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="AE225" s="19">
+        <f t="shared" si="12"/>
+        <v>26.5</v>
+      </c>
+      <c r="AF225" s="19">
+        <f t="shared" si="13"/>
+        <v>15.53413786875184</v>
+      </c>
+      <c r="AG225" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH225" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ225" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC225-$AH225)^2+($AD225-$AI225)^2))</f>
+        <v>23.690715480964268</v>
+      </c>
+      <c r="AK225" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL225" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM225" s="13">
+        <v>25</v>
+      </c>
+      <c r="AN225" s="19">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
+      <c r="AO225" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP225" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AQ225" s="13">
+        <v>21</v>
+      </c>
+      <c r="AR225" s="19">
+        <f t="shared" si="15"/>
+        <v>5.7008771254956896</v>
+      </c>
+    </row>
+    <row r="226" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A226" s="3">
+        <v>13</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C226" s="17" t="str">
+        <f>IF($A226="","",IF(VLOOKUP($A226,Spiele!$A$2:$D$15,3,FALSE)=$B226,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D226" s="17" t="str">
+        <f>IF($B226="","",IF(VLOOKUP($A226,Spiele!$A$2:$F$15,3,FALSE)=$B226,VLOOKUP($A226,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A226,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E226" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A226,$A226,$B$2:$B226,$B226,$L$2:$L226,"&lt;&gt;ET"))</f>
+        <v>1</v>
+      </c>
+      <c r="F226" s="11">
+        <v>7</v>
+      </c>
+      <c r="G226" s="12">
+        <v>1</v>
+      </c>
+      <c r="H226" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A226,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B226,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F226,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G226)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A226,'Rote Karten'!$D$2:$D$4,$B226,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F226,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G226)</f>
+        <v>0</v>
+      </c>
+      <c r="I226" s="17" t="str">
+        <f>IF(OR($L226="Tor",$L226="ET"),_xlfn.IFNA(IF(VLOOKUP($A226,Spiele!$A$2:$C$15,3,FALSE)=$B226,COUNTIFS($L$2:$L226,"Tor",$B$2:$B226,$B226,$A$2:$A226,$A226)+COUNTIFS($L$2:$L226,"ET",$B$2:$B226,$B226,$A$2:$A226,$A226)&amp;":"&amp;COUNTIFS($L$2:$L226,"Tor",$B$2:$B226,"&lt;&gt;"&amp;$B226,$A$2:$A226,$A226)+COUNTIFS($L$2:$L226,"ET",$B$2:$B226,"&lt;&gt;"&amp;$B226,$A$2:$A226,$A226),COUNTIFS($L$2:$L226,"Tor",$B$2:$B226,"&lt;&gt;"&amp;$B226,$A$2:$A226,$A226)+COUNTIFS($L$2:$L226,"ET",$B$2:$B226,"&lt;&gt;"&amp;$B226,$A$2:$A226,$A226)&amp;":"&amp;COUNTIFS($L$2:$L226,"Tor",$B$2:$B226,$B226,$A$2:$A226,$A226)+COUNTIFS($L$2:$L226,"ET",$B$2:$B226,$B226,$A$2:$A226,$A226)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J226" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A226,Spiele!$A$2:$D$15,3,FALSE)=$B226,(COUNTIFS($L$1:$L225,"Tor",$B$1:$B225,$B226,$A$1:$A225,$A226)+COUNTIFS($L$1:$L225,"ET",$B$1:$B225,$B226,$A$1:$A225,$A226))-(COUNTIFS($L$1:$L225,"Tor",$B$1:$B225,"&lt;&gt;"&amp;$B226,$A$1:$A225,$A226)+COUNTIFS($L$1:$L225,"ET",$B$1:$B225,"&lt;&gt;"&amp;$B226,$A$1:$A225,$A226)),(COUNTIFS($L$1:$L225,"Tor",$B$1:$B225,$B226,$A$1:$A225,$A226)+COUNTIFS($L$1:$L225,"ET",$B$1:$B225,$B226,$A$1:$A225,$A226))-(COUNTIFS($L$1:$L225,"Tor",$B$1:$B225,"&lt;&gt;"&amp;$B226,$A$1:$A225,$A226)+COUNTIFS($L$1:$L225,"ET",$B$1:$B225,"&lt;&gt;"&amp;$B226,$A$1:$A225,$A226))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>1</v>
+      </c>
+      <c r="L226" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X226" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y226" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z226" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA226" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB226" s="18"/>
+      <c r="AC226" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AD226" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AE226" s="19">
+        <f t="shared" ref="AE226:AE254" si="16">IF($L226="ET","",IF($AC226&gt;3.66,SQRT($AD226^2+($AC226-(7.32/2))^2),IF($AC226&lt;-3.66,SQRT($AD226^2+($AC226+(7.32/2))^2),$AD226)))</f>
+        <v>17.5</v>
+      </c>
+      <c r="AF226" s="19">
+        <f t="shared" ref="AF226:AF254" si="17">IF($L226="ET","",IF(DEGREES(ATAN((7.32*$AD226)/($AD226^2+$AC226^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AD226)/($AD226^2+$AC226^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AD226)/($AD226^2+$AC226^2-(7.32/2)^2)))))</f>
+        <v>23.341389828691302</v>
+      </c>
+      <c r="AG226" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH226" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AI226" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ226" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC226-$AH226)^2+($AD226-$AI226)^2))</f>
+        <v>17.066048165876012</v>
+      </c>
+      <c r="AK226" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL226" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AM226" s="13">
+        <v>17</v>
+      </c>
+      <c r="AN226" s="19">
+        <f t="shared" ref="AN226:AN254" si="18">IF(AK226=0,"",SQRT(($AC226-$AL226)^2+($AD226-$AM226)^2))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AO226" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP226" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AQ226" s="13">
+        <v>14</v>
+      </c>
+      <c r="AR226" s="19">
+        <f t="shared" ref="AR226:AR254" si="19">IF(AO226=0,"",SQRT(($AC226-$AP226)^2+($AD226-$AQ226)^2))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A227" s="3">
+        <v>13</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C227" s="17" t="str">
+        <f>IF($A227="","",IF(VLOOKUP($A227,Spiele!$A$2:$D$15,3,FALSE)=$B227,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D227" s="17" t="str">
+        <f>IF($B227="","",IF(VLOOKUP($A227,Spiele!$A$2:$F$15,3,FALSE)=$B227,VLOOKUP($A227,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A227,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E227" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A227,$A227,$B$2:$B227,$B227,$L$2:$L227,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F227" s="11">
+        <v>7</v>
+      </c>
+      <c r="G227" s="12">
+        <v>1</v>
+      </c>
+      <c r="H227" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A227,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B227,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F227,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G227)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A227,'Rote Karten'!$D$2:$D$4,$B227,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F227,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G227)</f>
+        <v>0</v>
+      </c>
+      <c r="I227" s="17" t="str">
+        <f>IF(OR($L227="Tor",$L227="ET"),_xlfn.IFNA(IF(VLOOKUP($A227,Spiele!$A$2:$C$15,3,FALSE)=$B227,COUNTIFS($L$2:$L227,"Tor",$B$2:$B227,$B227,$A$2:$A227,$A227)+COUNTIFS($L$2:$L227,"ET",$B$2:$B227,$B227,$A$2:$A227,$A227)&amp;":"&amp;COUNTIFS($L$2:$L227,"Tor",$B$2:$B227,"&lt;&gt;"&amp;$B227,$A$2:$A227,$A227)+COUNTIFS($L$2:$L227,"ET",$B$2:$B227,"&lt;&gt;"&amp;$B227,$A$2:$A227,$A227),COUNTIFS($L$2:$L227,"Tor",$B$2:$B227,"&lt;&gt;"&amp;$B227,$A$2:$A227,$A227)+COUNTIFS($L$2:$L227,"ET",$B$2:$B227,"&lt;&gt;"&amp;$B227,$A$2:$A227,$A227)&amp;":"&amp;COUNTIFS($L$2:$L227,"Tor",$B$2:$B227,$B227,$A$2:$A227,$A227)+COUNTIFS($L$2:$L227,"ET",$B$2:$B227,$B227,$A$2:$A227,$A227)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J227" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A227,Spiele!$A$2:$D$15,3,FALSE)=$B227,(COUNTIFS($L$1:$L226,"Tor",$B$1:$B226,$B227,$A$1:$A226,$A227)+COUNTIFS($L$1:$L226,"ET",$B$1:$B226,$B227,$A$1:$A226,$A227))-(COUNTIFS($L$1:$L226,"Tor",$B$1:$B226,"&lt;&gt;"&amp;$B227,$A$1:$A226,$A227)+COUNTIFS($L$1:$L226,"ET",$B$1:$B226,"&lt;&gt;"&amp;$B227,$A$1:$A226,$A227)),(COUNTIFS($L$1:$L226,"Tor",$B$1:$B226,$B227,$A$1:$A226,$A227)+COUNTIFS($L$1:$L226,"ET",$B$1:$B226,$B227,$A$1:$A226,$A227))-(COUNTIFS($L$1:$L226,"Tor",$B$1:$B226,"&lt;&gt;"&amp;$B227,$A$1:$A226,$A227)+COUNTIFS($L$1:$L226,"ET",$B$1:$B226,"&lt;&gt;"&amp;$B227,$A$1:$A226,$A227))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K227" s="3">
+        <v>1</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X227" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y227" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z227" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA227" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB227" s="18"/>
+      <c r="AC227" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AD227" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AE227" s="19">
+        <f t="shared" si="16"/>
+        <v>17.601295406872758</v>
+      </c>
+      <c r="AF227" s="19">
+        <f t="shared" si="17"/>
+        <v>17.011080950867086</v>
+      </c>
+      <c r="AG227" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH227" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AI227" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ227" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC227-$AH227)^2+($AD227-$AI227)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="13"/>
+      <c r="AM227" s="13"/>
+      <c r="AN227" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO227" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP227" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AQ227" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AR227" s="19">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A228" s="3">
+        <v>13</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="17" t="str">
+        <f>IF($A228="","",IF(VLOOKUP($A228,Spiele!$A$2:$D$15,3,FALSE)=$B228,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D228" s="17" t="str">
+        <f>IF($B228="","",IF(VLOOKUP($A228,Spiele!$A$2:$F$15,3,FALSE)=$B228,VLOOKUP($A228,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A228,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E228" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A228,$A228,$B$2:$B228,$B228,$L$2:$L228,"&lt;&gt;ET"))</f>
+        <v>1</v>
+      </c>
+      <c r="F228" s="11">
+        <v>8</v>
+      </c>
+      <c r="G228" s="12">
+        <v>1</v>
+      </c>
+      <c r="H228" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A228,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B228,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F228,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G228)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A228,'Rote Karten'!$D$2:$D$4,$B228,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F228,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G228)</f>
+        <v>0</v>
+      </c>
+      <c r="I228" s="17" t="str">
+        <f>IF(OR($L228="Tor",$L228="ET"),_xlfn.IFNA(IF(VLOOKUP($A228,Spiele!$A$2:$C$15,3,FALSE)=$B228,COUNTIFS($L$2:$L228,"Tor",$B$2:$B228,$B228,$A$2:$A228,$A228)+COUNTIFS($L$2:$L228,"ET",$B$2:$B228,$B228,$A$2:$A228,$A228)&amp;":"&amp;COUNTIFS($L$2:$L228,"Tor",$B$2:$B228,"&lt;&gt;"&amp;$B228,$A$2:$A228,$A228)+COUNTIFS($L$2:$L228,"ET",$B$2:$B228,"&lt;&gt;"&amp;$B228,$A$2:$A228,$A228),COUNTIFS($L$2:$L228,"Tor",$B$2:$B228,"&lt;&gt;"&amp;$B228,$A$2:$A228,$A228)+COUNTIFS($L$2:$L228,"ET",$B$2:$B228,"&lt;&gt;"&amp;$B228,$A$2:$A228,$A228)&amp;":"&amp;COUNTIFS($L$2:$L228,"Tor",$B$2:$B228,$B228,$A$2:$A228,$A228)+COUNTIFS($L$2:$L228,"ET",$B$2:$B228,$B228,$A$2:$A228,$A228)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J228" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A228,Spiele!$A$2:$D$15,3,FALSE)=$B228,(COUNTIFS($L$1:$L227,"Tor",$B$1:$B227,$B228,$A$1:$A227,$A228)+COUNTIFS($L$1:$L227,"ET",$B$1:$B227,$B228,$A$1:$A227,$A228))-(COUNTIFS($L$1:$L227,"Tor",$B$1:$B227,"&lt;&gt;"&amp;$B228,$A$1:$A227,$A228)+COUNTIFS($L$1:$L227,"ET",$B$1:$B227,"&lt;&gt;"&amp;$B228,$A$1:$A227,$A228)),(COUNTIFS($L$1:$L227,"Tor",$B$1:$B227,$B228,$A$1:$A227,$A228)+COUNTIFS($L$1:$L227,"ET",$B$1:$B227,$B228,$A$1:$A227,$A228))-(COUNTIFS($L$1:$L227,"Tor",$B$1:$B227,"&lt;&gt;"&amp;$B228,$A$1:$A227,$A228)+COUNTIFS($L$1:$L227,"ET",$B$1:$B227,"&lt;&gt;"&amp;$B228,$A$1:$A227,$A228))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>2</v>
+      </c>
+      <c r="L228" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O228" s="2">
+        <v>8</v>
+      </c>
+      <c r="X228" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y228" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z228" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA228" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB228" s="18">
+        <v>9</v>
+      </c>
+      <c r="AC228" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AD228" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AE228" s="19">
+        <f t="shared" si="16"/>
+        <v>11.5</v>
+      </c>
+      <c r="AF228" s="19">
+        <f t="shared" si="17"/>
+        <v>32.703859314557576</v>
+      </c>
+      <c r="AG228" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH228" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AI228" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AJ228" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC228-$AH228)^2+($AD228-$AI228)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="AK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="13"/>
+      <c r="AM228" s="13"/>
+      <c r="AN228" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO228" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP228" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AQ228" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AR228" s="19">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A229" s="3">
+        <v>13</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C229" s="17" t="str">
+        <f>IF($A229="","",IF(VLOOKUP($A229,Spiele!$A$2:$D$15,3,FALSE)=$B229,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D229" s="17" t="str">
+        <f>IF($B229="","",IF(VLOOKUP($A229,Spiele!$A$2:$F$15,3,FALSE)=$B229,VLOOKUP($A229,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A229,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E229" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A229,$A229,$B$2:$B229,$B229,$L$2:$L229,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F229" s="11">
+        <v>9</v>
+      </c>
+      <c r="G229" s="12">
+        <v>1</v>
+      </c>
+      <c r="H229" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A229,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B229,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F229,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G229)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A229,'Rote Karten'!$D$2:$D$4,$B229,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F229,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G229)</f>
+        <v>0</v>
+      </c>
+      <c r="I229" s="17" t="str">
+        <f>IF(OR($L229="Tor",$L229="ET"),_xlfn.IFNA(IF(VLOOKUP($A229,Spiele!$A$2:$C$15,3,FALSE)=$B229,COUNTIFS($L$2:$L229,"Tor",$B$2:$B229,$B229,$A$2:$A229,$A229)+COUNTIFS($L$2:$L229,"ET",$B$2:$B229,$B229,$A$2:$A229,$A229)&amp;":"&amp;COUNTIFS($L$2:$L229,"Tor",$B$2:$B229,"&lt;&gt;"&amp;$B229,$A$2:$A229,$A229)+COUNTIFS($L$2:$L229,"ET",$B$2:$B229,"&lt;&gt;"&amp;$B229,$A$2:$A229,$A229),COUNTIFS($L$2:$L229,"Tor",$B$2:$B229,"&lt;&gt;"&amp;$B229,$A$2:$A229,$A229)+COUNTIFS($L$2:$L229,"ET",$B$2:$B229,"&lt;&gt;"&amp;$B229,$A$2:$A229,$A229)&amp;":"&amp;COUNTIFS($L$2:$L229,"Tor",$B$2:$B229,$B229,$A$2:$A229,$A229)+COUNTIFS($L$2:$L229,"ET",$B$2:$B229,$B229,$A$2:$A229,$A229)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J229" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A229,Spiele!$A$2:$D$15,3,FALSE)=$B229,(COUNTIFS($L$1:$L228,"Tor",$B$1:$B228,$B229,$A$1:$A228,$A229)+COUNTIFS($L$1:$L228,"ET",$B$1:$B228,$B229,$A$1:$A228,$A229))-(COUNTIFS($L$1:$L228,"Tor",$B$1:$B228,"&lt;&gt;"&amp;$B229,$A$1:$A228,$A229)+COUNTIFS($L$1:$L228,"ET",$B$1:$B228,"&lt;&gt;"&amp;$B229,$A$1:$A228,$A229)),(COUNTIFS($L$1:$L228,"Tor",$B$1:$B228,$B229,$A$1:$A228,$A229)+COUNTIFS($L$1:$L228,"ET",$B$1:$B228,$B229,$A$1:$A228,$A229))-(COUNTIFS($L$1:$L228,"Tor",$B$1:$B228,"&lt;&gt;"&amp;$B229,$A$1:$A228,$A229)+COUNTIFS($L$1:$L228,"ET",$B$1:$B228,"&lt;&gt;"&amp;$B229,$A$1:$A228,$A229))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>3</v>
+      </c>
+      <c r="L229" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X229" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y229" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z229" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA229" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB229" s="18"/>
+      <c r="AC229" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AD229" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AE229" s="19">
+        <f t="shared" si="16"/>
+        <v>15.5</v>
+      </c>
+      <c r="AF229" s="19">
+        <f t="shared" si="17"/>
+        <v>26.546439371443093</v>
+      </c>
+      <c r="AG229" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH229" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AI229" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ229" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC229-$AH229)^2+($AD229-$AI229)^2))</f>
+        <v>15.033296378372908</v>
+      </c>
+      <c r="AK229" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL229" s="13"/>
+      <c r="AM229" s="13"/>
+      <c r="AN229" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO229" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP229" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AQ229" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AR229" s="19">
+        <f t="shared" si="19"/>
+        <v>6.0207972893961479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A230" s="3">
+        <v>13</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="17" t="str">
+        <f>IF($A230="","",IF(VLOOKUP($A230,Spiele!$A$2:$D$15,3,FALSE)=$B230,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D230" s="17" t="str">
+        <f>IF($B230="","",IF(VLOOKUP($A230,Spiele!$A$2:$F$15,3,FALSE)=$B230,VLOOKUP($A230,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A230,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E230" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A230,$A230,$B$2:$B230,$B230,$L$2:$L230,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F230" s="11">
+        <v>10</v>
+      </c>
+      <c r="G230" s="12">
+        <v>1</v>
+      </c>
+      <c r="H230" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A230,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B230,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F230,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G230)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A230,'Rote Karten'!$D$2:$D$4,$B230,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F230,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G230)</f>
+        <v>0</v>
+      </c>
+      <c r="I230" s="17" t="str">
+        <f>IF(OR($L230="Tor",$L230="ET"),_xlfn.IFNA(IF(VLOOKUP($A230,Spiele!$A$2:$C$15,3,FALSE)=$B230,COUNTIFS($L$2:$L230,"Tor",$B$2:$B230,$B230,$A$2:$A230,$A230)+COUNTIFS($L$2:$L230,"ET",$B$2:$B230,$B230,$A$2:$A230,$A230)&amp;":"&amp;COUNTIFS($L$2:$L230,"Tor",$B$2:$B230,"&lt;&gt;"&amp;$B230,$A$2:$A230,$A230)+COUNTIFS($L$2:$L230,"ET",$B$2:$B230,"&lt;&gt;"&amp;$B230,$A$2:$A230,$A230),COUNTIFS($L$2:$L230,"Tor",$B$2:$B230,"&lt;&gt;"&amp;$B230,$A$2:$A230,$A230)+COUNTIFS($L$2:$L230,"ET",$B$2:$B230,"&lt;&gt;"&amp;$B230,$A$2:$A230,$A230)&amp;":"&amp;COUNTIFS($L$2:$L230,"Tor",$B$2:$B230,$B230,$A$2:$A230,$A230)+COUNTIFS($L$2:$L230,"ET",$B$2:$B230,$B230,$A$2:$A230,$A230)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J230" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A230,Spiele!$A$2:$D$15,3,FALSE)=$B230,(COUNTIFS($L$1:$L229,"Tor",$B$1:$B229,$B230,$A$1:$A229,$A230)+COUNTIFS($L$1:$L229,"ET",$B$1:$B229,$B230,$A$1:$A229,$A230))-(COUNTIFS($L$1:$L229,"Tor",$B$1:$B229,"&lt;&gt;"&amp;$B230,$A$1:$A229,$A230)+COUNTIFS($L$1:$L229,"ET",$B$1:$B229,"&lt;&gt;"&amp;$B230,$A$1:$A229,$A230)),(COUNTIFS($L$1:$L229,"Tor",$B$1:$B229,$B230,$A$1:$A229,$A230)+COUNTIFS($L$1:$L229,"ET",$B$1:$B229,$B230,$A$1:$A229,$A230))-(COUNTIFS($L$1:$L229,"Tor",$B$1:$B229,"&lt;&gt;"&amp;$B230,$A$1:$A229,$A230)+COUNTIFS($L$1:$L229,"ET",$B$1:$B229,"&lt;&gt;"&amp;$B230,$A$1:$A229,$A230))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K230" s="3">
+        <v>4</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O230" s="2">
+        <v>9</v>
+      </c>
+      <c r="P230" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>7</v>
+      </c>
+      <c r="R230" s="2">
+        <v>23</v>
+      </c>
+      <c r="X230" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y230" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z230" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA230" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB230" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC230" s="13">
+        <v>15</v>
+      </c>
+      <c r="AD230" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AE230" s="19">
+        <f t="shared" si="16"/>
+        <v>13.595793467098565</v>
+      </c>
+      <c r="AF230" s="19">
+        <f t="shared" si="17"/>
+        <v>11.583042211219654</v>
+      </c>
+      <c r="AG230" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH230" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI230" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AJ230" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC230-$AH230)^2+($AD230-$AI230)^2))</f>
+        <v>12.529964086141668</v>
+      </c>
+      <c r="AK230" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL230" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AM230" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AN230" s="19">
+        <f t="shared" si="18"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AO230" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR230" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A231" s="3">
+        <v>13</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C231" s="17" t="str">
+        <f>IF($A231="","",IF(VLOOKUP($A231,Spiele!$A$2:$D$15,3,FALSE)=$B231,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D231" s="17" t="str">
+        <f>IF($B231="","",IF(VLOOKUP($A231,Spiele!$A$2:$F$15,3,FALSE)=$B231,VLOOKUP($A231,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A231,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E231" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A231,$A231,$B$2:$B231,$B231,$L$2:$L231,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F231" s="11">
+        <v>14</v>
+      </c>
+      <c r="G231" s="12">
+        <v>1</v>
+      </c>
+      <c r="H231" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A231,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B231,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F231,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G231)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A231,'Rote Karten'!$D$2:$D$4,$B231,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F231,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G231)</f>
+        <v>0</v>
+      </c>
+      <c r="I231" s="17" t="str">
+        <f>IF(OR($L231="Tor",$L231="ET"),_xlfn.IFNA(IF(VLOOKUP($A231,Spiele!$A$2:$C$15,3,FALSE)=$B231,COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,$B231,$A$2:$A231,$A231)&amp;":"&amp;COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231),COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)&amp;":"&amp;COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,$B231,$A$2:$A231,$A231)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J231" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A231,Spiele!$A$2:$D$15,3,FALSE)=$B231,(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,$B231,$A$1:$A230,$A231))-(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)),(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,$B231,$A$1:$A230,$A231))-(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K231" s="3">
+        <v>5</v>
+      </c>
+      <c r="L231" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X231" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y231" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z231" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA231" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB231" s="18"/>
+      <c r="AC231" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AD231" s="13">
+        <v>13</v>
+      </c>
+      <c r="AE231" s="19">
+        <f t="shared" si="16"/>
+        <v>13.555279414309393</v>
+      </c>
+      <c r="AF231" s="19">
+        <f t="shared" si="17"/>
+        <v>24.188491715950388</v>
+      </c>
+      <c r="AG231" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH231" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI231" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ231" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC231-$AH231)^2+($AD231-$AI231)^2))</f>
+        <v>14.089002803605371</v>
+      </c>
+      <c r="AK231" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL231" s="13"/>
+      <c r="AM231" s="13"/>
+      <c r="AN231" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO231" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP231" s="13">
+        <v>7</v>
+      </c>
+      <c r="AQ231" s="13">
+        <v>12</v>
+      </c>
+      <c r="AR231" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="232" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A232" s="3">
+        <v>13</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232" s="17" t="str">
+        <f>IF($A232="","",IF(VLOOKUP($A232,Spiele!$A$2:$D$15,3,FALSE)=$B232,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D232" s="17" t="str">
+        <f>IF($B232="","",IF(VLOOKUP($A232,Spiele!$A$2:$F$15,3,FALSE)=$B232,VLOOKUP($A232,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A232,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E232" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A232,$A232,$B$2:$B232,$B232,$L$2:$L232,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F232" s="11">
+        <v>18</v>
+      </c>
+      <c r="G232" s="12">
+        <v>1</v>
+      </c>
+      <c r="H232" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A232,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B232,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F232,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G232)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A232,'Rote Karten'!$D$2:$D$4,$B232,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F232,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G232)</f>
+        <v>0</v>
+      </c>
+      <c r="I232" s="17" t="str">
+        <f>IF(OR($L232="Tor",$L232="ET"),_xlfn.IFNA(IF(VLOOKUP($A232,Spiele!$A$2:$C$15,3,FALSE)=$B232,COUNTIFS($L$2:$L232,"Tor",$B$2:$B232,$B232,$A$2:$A232,$A232)+COUNTIFS($L$2:$L232,"ET",$B$2:$B232,$B232,$A$2:$A232,$A232)&amp;":"&amp;COUNTIFS($L$2:$L232,"Tor",$B$2:$B232,"&lt;&gt;"&amp;$B232,$A$2:$A232,$A232)+COUNTIFS($L$2:$L232,"ET",$B$2:$B232,"&lt;&gt;"&amp;$B232,$A$2:$A232,$A232),COUNTIFS($L$2:$L232,"Tor",$B$2:$B232,"&lt;&gt;"&amp;$B232,$A$2:$A232,$A232)+COUNTIFS($L$2:$L232,"ET",$B$2:$B232,"&lt;&gt;"&amp;$B232,$A$2:$A232,$A232)&amp;":"&amp;COUNTIFS($L$2:$L232,"Tor",$B$2:$B232,$B232,$A$2:$A232,$A232)+COUNTIFS($L$2:$L232,"ET",$B$2:$B232,$B232,$A$2:$A232,$A232)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J232" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A232,Spiele!$A$2:$D$15,3,FALSE)=$B232,(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,$B232,$A$1:$A231,$A232))-(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)),(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,$B232,$A$1:$A231,$A232))-(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K232" s="3">
+        <v>6</v>
+      </c>
+      <c r="L232" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X232" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y232" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z232" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA232" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB232" s="18"/>
+      <c r="AC232" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD232" s="13">
+        <v>19</v>
+      </c>
+      <c r="AE232" s="19">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="AF232" s="19">
+        <f t="shared" si="17"/>
+        <v>21.750134253188115</v>
+      </c>
+      <c r="AG232" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH232" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI232" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ232" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC232-$AH232)^2+($AD232-$AI232)^2))</f>
+        <v>18.527007313648905</v>
+      </c>
+      <c r="AK232" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL232" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AM232" s="13">
+        <v>18</v>
+      </c>
+      <c r="AN232" s="19">
+        <f t="shared" si="18"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="AO232" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP232" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ232" s="13">
+        <v>14</v>
+      </c>
+      <c r="AR232" s="19">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A233" s="3">
+        <v>13</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C233" s="17" t="str">
+        <f>IF($A233="","",IF(VLOOKUP($A233,Spiele!$A$2:$D$15,3,FALSE)=$B233,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D233" s="17" t="str">
+        <f>IF($B233="","",IF(VLOOKUP($A233,Spiele!$A$2:$F$15,3,FALSE)=$B233,VLOOKUP($A233,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A233,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E233" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A233,$A233,$B$2:$B233,$B233,$L$2:$L233,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F233" s="11">
+        <v>18</v>
+      </c>
+      <c r="G233" s="12">
+        <v>1</v>
+      </c>
+      <c r="H233" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A233,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B233,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F233,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G233)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A233,'Rote Karten'!$D$2:$D$4,$B233,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F233,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G233)</f>
+        <v>0</v>
+      </c>
+      <c r="I233" s="17" t="str">
+        <f>IF(OR($L233="Tor",$L233="ET"),_xlfn.IFNA(IF(VLOOKUP($A233,Spiele!$A$2:$C$15,3,FALSE)=$B233,COUNTIFS($L$2:$L233,"Tor",$B$2:$B233,$B233,$A$2:$A233,$A233)+COUNTIFS($L$2:$L233,"ET",$B$2:$B233,$B233,$A$2:$A233,$A233)&amp;":"&amp;COUNTIFS($L$2:$L233,"Tor",$B$2:$B233,"&lt;&gt;"&amp;$B233,$A$2:$A233,$A233)+COUNTIFS($L$2:$L233,"ET",$B$2:$B233,"&lt;&gt;"&amp;$B233,$A$2:$A233,$A233),COUNTIFS($L$2:$L233,"Tor",$B$2:$B233,"&lt;&gt;"&amp;$B233,$A$2:$A233,$A233)+COUNTIFS($L$2:$L233,"ET",$B$2:$B233,"&lt;&gt;"&amp;$B233,$A$2:$A233,$A233)&amp;":"&amp;COUNTIFS($L$2:$L233,"Tor",$B$2:$B233,$B233,$A$2:$A233,$A233)+COUNTIFS($L$2:$L233,"ET",$B$2:$B233,$B233,$A$2:$A233,$A233)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J233" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A233,Spiele!$A$2:$D$15,3,FALSE)=$B233,(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,$B233,$A$1:$A232,$A233))-(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)),(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,$B233,$A$1:$A232,$A233))-(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
+        <v>6</v>
+      </c>
+      <c r="L233" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X233" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y233" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z233" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA233" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB233" s="18"/>
+      <c r="AC233" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AD233" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AE233" s="19">
+        <f t="shared" si="16"/>
+        <v>14.775506759498978</v>
+      </c>
+      <c r="AF233" s="19">
+        <f t="shared" si="17"/>
+        <v>23.936746455580142</v>
+      </c>
+      <c r="AG233" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH233" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AI233" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ233" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC233-$AH233)^2+($AD233-$AI233)^2))</f>
+        <v>15.231546211727817</v>
+      </c>
+      <c r="AK233" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL233" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM233" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AN233" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="AO233" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP233" s="13">
+        <v>6</v>
+      </c>
+      <c r="AQ233" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AR233" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="234" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A234" s="3">
+        <v>13</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="17" t="str">
+        <f>IF($A234="","",IF(VLOOKUP($A234,Spiele!$A$2:$D$15,3,FALSE)=$B234,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D234" s="17" t="str">
+        <f>IF($B234="","",IF(VLOOKUP($A234,Spiele!$A$2:$F$15,3,FALSE)=$B234,VLOOKUP($A234,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A234,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E234" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A234,$A234,$B$2:$B234,$B234,$L$2:$L234,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F234" s="11">
+        <v>18</v>
+      </c>
+      <c r="G234" s="12">
+        <v>1</v>
+      </c>
+      <c r="H234" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A234,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B234,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F234,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G234)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A234,'Rote Karten'!$D$2:$D$4,$B234,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F234,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G234)</f>
+        <v>0</v>
+      </c>
+      <c r="I234" s="17" t="str">
+        <f>IF(OR($L234="Tor",$L234="ET"),_xlfn.IFNA(IF(VLOOKUP($A234,Spiele!$A$2:$C$15,3,FALSE)=$B234,COUNTIFS($L$2:$L234,"Tor",$B$2:$B234,$B234,$A$2:$A234,$A234)+COUNTIFS($L$2:$L234,"ET",$B$2:$B234,$B234,$A$2:$A234,$A234)&amp;":"&amp;COUNTIFS($L$2:$L234,"Tor",$B$2:$B234,"&lt;&gt;"&amp;$B234,$A$2:$A234,$A234)+COUNTIFS($L$2:$L234,"ET",$B$2:$B234,"&lt;&gt;"&amp;$B234,$A$2:$A234,$A234),COUNTIFS($L$2:$L234,"Tor",$B$2:$B234,"&lt;&gt;"&amp;$B234,$A$2:$A234,$A234)+COUNTIFS($L$2:$L234,"ET",$B$2:$B234,"&lt;&gt;"&amp;$B234,$A$2:$A234,$A234)&amp;":"&amp;COUNTIFS($L$2:$L234,"Tor",$B$2:$B234,$B234,$A$2:$A234,$A234)+COUNTIFS($L$2:$L234,"ET",$B$2:$B234,$B234,$A$2:$A234,$A234)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J234" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A234,Spiele!$A$2:$D$15,3,FALSE)=$B234,(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,$B234,$A$1:$A233,$A234))-(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)),(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,$B234,$A$1:$A233,$A234))-(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K234" s="3">
+        <v>7</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O234" s="2">
+        <v>7</v>
+      </c>
+      <c r="X234" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y234" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z234" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA234" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB234" s="18">
+        <v>8</v>
+      </c>
+      <c r="AC234" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AD234" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AE234" s="19">
+        <f t="shared" si="16"/>
+        <v>14.524310654898565</v>
+      </c>
+      <c r="AF234" s="19">
+        <f t="shared" si="17"/>
+        <v>26.053510457112758</v>
+      </c>
+      <c r="AG234" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH234" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AI234" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AJ234" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC234-$AH234)^2+($AD234-$AI234)^2))</f>
+        <v>11.401754250991379</v>
+      </c>
+      <c r="AK234" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL234" s="13">
+        <v>7</v>
+      </c>
+      <c r="AM234" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AN234" s="19">
+        <f t="shared" si="18"/>
+        <v>3.905124837953327</v>
+      </c>
+      <c r="AO234" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP234" s="13">
+        <v>4</v>
+      </c>
+      <c r="AQ234" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AR234" s="19">
+        <f t="shared" si="19"/>
+        <v>4.0311288741492746</v>
+      </c>
+    </row>
+    <row r="235" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A235" s="3">
+        <v>13</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="17" t="str">
+        <f>IF($A235="","",IF(VLOOKUP($A235,Spiele!$A$2:$D$15,3,FALSE)=$B235,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D235" s="17" t="str">
+        <f>IF($B235="","",IF(VLOOKUP($A235,Spiele!$A$2:$F$15,3,FALSE)=$B235,VLOOKUP($A235,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A235,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E235" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A235,$A235,$B$2:$B235,$B235,$L$2:$L235,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F235" s="11">
+        <v>22</v>
+      </c>
+      <c r="G235" s="12">
+        <v>1</v>
+      </c>
+      <c r="H235" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A235,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B235,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F235,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G235)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A235,'Rote Karten'!$D$2:$D$4,$B235,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F235,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G235)</f>
+        <v>0</v>
+      </c>
+      <c r="I235" s="17" t="str">
+        <f>IF(OR($L235="Tor",$L235="ET"),_xlfn.IFNA(IF(VLOOKUP($A235,Spiele!$A$2:$C$15,3,FALSE)=$B235,COUNTIFS($L$2:$L235,"Tor",$B$2:$B235,$B235,$A$2:$A235,$A235)+COUNTIFS($L$2:$L235,"ET",$B$2:$B235,$B235,$A$2:$A235,$A235)&amp;":"&amp;COUNTIFS($L$2:$L235,"Tor",$B$2:$B235,"&lt;&gt;"&amp;$B235,$A$2:$A235,$A235)+COUNTIFS($L$2:$L235,"ET",$B$2:$B235,"&lt;&gt;"&amp;$B235,$A$2:$A235,$A235),COUNTIFS($L$2:$L235,"Tor",$B$2:$B235,"&lt;&gt;"&amp;$B235,$A$2:$A235,$A235)+COUNTIFS($L$2:$L235,"ET",$B$2:$B235,"&lt;&gt;"&amp;$B235,$A$2:$A235,$A235)&amp;":"&amp;COUNTIFS($L$2:$L235,"Tor",$B$2:$B235,$B235,$A$2:$A235,$A235)+COUNTIFS($L$2:$L235,"ET",$B$2:$B235,$B235,$A$2:$A235,$A235)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J235" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A235,Spiele!$A$2:$D$15,3,FALSE)=$B235,(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,$B235,$A$1:$A234,$A235))-(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)),(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,$B235,$A$1:$A234,$A235))-(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K235" s="3">
+        <v>8</v>
+      </c>
+      <c r="L235" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X235" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y235" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z235" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA235" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB235" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC235" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AD235" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AE235" s="19">
+        <f t="shared" si="16"/>
+        <v>16.742628228566744</v>
+      </c>
+      <c r="AF235" s="19">
+        <f t="shared" si="17"/>
+        <v>21.856872591143812</v>
+      </c>
+      <c r="AG235" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH235" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AI235" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ235" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC235-$AH235)^2+($AD235-$AI235)^2))</f>
+        <v>15.337861650177967</v>
+      </c>
+      <c r="AK235" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL235" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AM235" s="13">
+        <v>14</v>
+      </c>
+      <c r="AN235" s="19">
+        <f t="shared" si="18"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="AO235" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP235" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AQ235" s="13">
+        <v>6</v>
+      </c>
+      <c r="AR235" s="19">
+        <f t="shared" si="19"/>
+        <v>11.423659658795863</v>
+      </c>
+    </row>
+    <row r="236" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A236" s="3">
+        <v>13</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="17" t="str">
+        <f>IF($A236="","",IF(VLOOKUP($A236,Spiele!$A$2:$D$15,3,FALSE)=$B236,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D236" s="17" t="str">
+        <f>IF($B236="","",IF(VLOOKUP($A236,Spiele!$A$2:$F$15,3,FALSE)=$B236,VLOOKUP($A236,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A236,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E236" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A236,$A236,$B$2:$B236,$B236,$L$2:$L236,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F236" s="11">
+        <v>25</v>
+      </c>
+      <c r="G236" s="12">
+        <v>1</v>
+      </c>
+      <c r="H236" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A236,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B236,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F236,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G236)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A236,'Rote Karten'!$D$2:$D$4,$B236,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F236,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G236)</f>
+        <v>0</v>
+      </c>
+      <c r="I236" s="17" t="str">
+        <f>IF(OR($L236="Tor",$L236="ET"),_xlfn.IFNA(IF(VLOOKUP($A236,Spiele!$A$2:$C$15,3,FALSE)=$B236,COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,$B236,$A$2:$A236,$A236)&amp;":"&amp;COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236),COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)&amp;":"&amp;COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,$B236,$A$2:$A236,$A236)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J236" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A236,Spiele!$A$2:$D$15,3,FALSE)=$B236,(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,$B236,$A$1:$A235,$A236))-(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)),(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,$B236,$A$1:$A235,$A236))-(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K236" s="3">
+        <v>9</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M236" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X236" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y236" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z236" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA236" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB236" s="18">
+        <v>20</v>
+      </c>
+      <c r="AC236" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AD236" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="AE236" s="19">
+        <f t="shared" si="16"/>
+        <v>23.644779550674606</v>
+      </c>
+      <c r="AF236" s="19">
+        <f t="shared" si="17"/>
+        <v>14.002393253988416</v>
+      </c>
+      <c r="AG236" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH236" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AI236" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ236" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC236-$AH236)^2+($AD236-$AI236)^2))</f>
+        <v>22.610838109190027</v>
+      </c>
+      <c r="AK236" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL236" s="13"/>
+      <c r="AM236" s="13"/>
+      <c r="AN236" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO236" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP236" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AQ236" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AR236" s="19">
+        <f t="shared" si="19"/>
+        <v>1.8027756377319946</v>
+      </c>
+    </row>
+    <row r="237" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A237" s="3">
+        <v>13</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C237" s="17" t="str">
+        <f>IF($A237="","",IF(VLOOKUP($A237,Spiele!$A$2:$D$15,3,FALSE)=$B237,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D237" s="17" t="str">
+        <f>IF($B237="","",IF(VLOOKUP($A237,Spiele!$A$2:$F$15,3,FALSE)=$B237,VLOOKUP($A237,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A237,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E237" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A237,$A237,$B$2:$B237,$B237,$L$2:$L237,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F237" s="11">
+        <v>28</v>
+      </c>
+      <c r="G237" s="12">
+        <v>1</v>
+      </c>
+      <c r="H237" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A237,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B237,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F237,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G237)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A237,'Rote Karten'!$D$2:$D$4,$B237,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F237,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G237)</f>
+        <v>0</v>
+      </c>
+      <c r="I237" s="17" t="str">
+        <f>IF(OR($L237="Tor",$L237="ET"),_xlfn.IFNA(IF(VLOOKUP($A237,Spiele!$A$2:$C$15,3,FALSE)=$B237,COUNTIFS($L$2:$L237,"Tor",$B$2:$B237,$B237,$A$2:$A237,$A237)+COUNTIFS($L$2:$L237,"ET",$B$2:$B237,$B237,$A$2:$A237,$A237)&amp;":"&amp;COUNTIFS($L$2:$L237,"Tor",$B$2:$B237,"&lt;&gt;"&amp;$B237,$A$2:$A237,$A237)+COUNTIFS($L$2:$L237,"ET",$B$2:$B237,"&lt;&gt;"&amp;$B237,$A$2:$A237,$A237),COUNTIFS($L$2:$L237,"Tor",$B$2:$B237,"&lt;&gt;"&amp;$B237,$A$2:$A237,$A237)+COUNTIFS($L$2:$L237,"ET",$B$2:$B237,"&lt;&gt;"&amp;$B237,$A$2:$A237,$A237)&amp;":"&amp;COUNTIFS($L$2:$L237,"Tor",$B$2:$B237,$B237,$A$2:$A237,$A237)+COUNTIFS($L$2:$L237,"ET",$B$2:$B237,$B237,$A$2:$A237,$A237)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J237" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A237,Spiele!$A$2:$D$15,3,FALSE)=$B237,(COUNTIFS($L$1:$L236,"Tor",$B$1:$B236,$B237,$A$1:$A236,$A237)+COUNTIFS($L$1:$L236,"ET",$B$1:$B236,$B237,$A$1:$A236,$A237))-(COUNTIFS($L$1:$L236,"Tor",$B$1:$B236,"&lt;&gt;"&amp;$B237,$A$1:$A236,$A237)+COUNTIFS($L$1:$L236,"ET",$B$1:$B236,"&lt;&gt;"&amp;$B237,$A$1:$A236,$A237)),(COUNTIFS($L$1:$L236,"Tor",$B$1:$B236,$B237,$A$1:$A236,$A237)+COUNTIFS($L$1:$L236,"ET",$B$1:$B236,$B237,$A$1:$A236,$A237))-(COUNTIFS($L$1:$L236,"Tor",$B$1:$B236,"&lt;&gt;"&amp;$B237,$A$1:$A236,$A237)+COUNTIFS($L$1:$L236,"ET",$B$1:$B236,"&lt;&gt;"&amp;$B237,$A$1:$A236,$A237))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K237" s="3">
+        <v>10</v>
+      </c>
+      <c r="L237" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X237" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y237" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z237" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA237" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB237" s="18"/>
+      <c r="AC237" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD237" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="AE237" s="19">
+        <f t="shared" si="16"/>
+        <v>25.5</v>
+      </c>
+      <c r="AF237" s="19">
+        <f t="shared" si="17"/>
+        <v>16.335693207949546</v>
+      </c>
+      <c r="AG237" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH237" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI237" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ237" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC237-$AH237)^2+($AD237-$AI237)^2))</f>
+        <v>25</v>
+      </c>
+      <c r="AK237" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL237" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AM237" s="13">
+        <v>28</v>
+      </c>
+      <c r="AN237" s="19">
+        <f t="shared" si="18"/>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="AO237" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP237" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ237" s="13">
+        <v>17</v>
+      </c>
+      <c r="AR237" s="19">
+        <f t="shared" si="19"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A238" s="3">
+        <v>13</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="17" t="str">
+        <f>IF($A238="","",IF(VLOOKUP($A238,Spiele!$A$2:$D$15,3,FALSE)=$B238,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D238" s="17" t="str">
+        <f>IF($B238="","",IF(VLOOKUP($A238,Spiele!$A$2:$F$15,3,FALSE)=$B238,VLOOKUP($A238,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A238,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E238" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A238,$A238,$B$2:$B238,$B238,$L$2:$L238,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F238" s="11">
+        <v>33</v>
+      </c>
+      <c r="G238" s="12">
+        <v>1</v>
+      </c>
+      <c r="H238" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A238,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B238,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F238,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G238)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A238,'Rote Karten'!$D$2:$D$4,$B238,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F238,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G238)</f>
+        <v>0</v>
+      </c>
+      <c r="I238" s="17" t="str">
+        <f>IF(OR($L238="Tor",$L238="ET"),_xlfn.IFNA(IF(VLOOKUP($A238,Spiele!$A$2:$C$15,3,FALSE)=$B238,COUNTIFS($L$2:$L238,"Tor",$B$2:$B238,$B238,$A$2:$A238,$A238)+COUNTIFS($L$2:$L238,"ET",$B$2:$B238,$B238,$A$2:$A238,$A238)&amp;":"&amp;COUNTIFS($L$2:$L238,"Tor",$B$2:$B238,"&lt;&gt;"&amp;$B238,$A$2:$A238,$A238)+COUNTIFS($L$2:$L238,"ET",$B$2:$B238,"&lt;&gt;"&amp;$B238,$A$2:$A238,$A238),COUNTIFS($L$2:$L238,"Tor",$B$2:$B238,"&lt;&gt;"&amp;$B238,$A$2:$A238,$A238)+COUNTIFS($L$2:$L238,"ET",$B$2:$B238,"&lt;&gt;"&amp;$B238,$A$2:$A238,$A238)&amp;":"&amp;COUNTIFS($L$2:$L238,"Tor",$B$2:$B238,$B238,$A$2:$A238,$A238)+COUNTIFS($L$2:$L238,"ET",$B$2:$B238,$B238,$A$2:$A238,$A238)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J238" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A238,Spiele!$A$2:$D$15,3,FALSE)=$B238,(COUNTIFS($L$1:$L237,"Tor",$B$1:$B237,$B238,$A$1:$A237,$A238)+COUNTIFS($L$1:$L237,"ET",$B$1:$B237,$B238,$A$1:$A237,$A238))-(COUNTIFS($L$1:$L237,"Tor",$B$1:$B237,"&lt;&gt;"&amp;$B238,$A$1:$A237,$A238)+COUNTIFS($L$1:$L237,"ET",$B$1:$B237,"&lt;&gt;"&amp;$B238,$A$1:$A237,$A238)),(COUNTIFS($L$1:$L237,"Tor",$B$1:$B237,$B238,$A$1:$A237,$A238)+COUNTIFS($L$1:$L237,"ET",$B$1:$B237,$B238,$A$1:$A237,$A238))-(COUNTIFS($L$1:$L237,"Tor",$B$1:$B237,"&lt;&gt;"&amp;$B238,$A$1:$A237,$A238)+COUNTIFS($L$1:$L237,"ET",$B$1:$B237,"&lt;&gt;"&amp;$B238,$A$1:$A237,$A238))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K238" s="3">
+        <v>11</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O238" s="2">
+        <v>8</v>
+      </c>
+      <c r="P238" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>26</v>
+      </c>
+      <c r="X238" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y238" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z238" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA238" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB238" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC238" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AD238" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AE238" s="19">
+        <f t="shared" si="16"/>
+        <v>17.59646555419582</v>
+      </c>
+      <c r="AF238" s="19">
+        <f t="shared" si="17"/>
+        <v>21.626656434445117</v>
+      </c>
+      <c r="AG238" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH238" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI238" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ238" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC238-$AH238)^2+($AD238-$AI238)^2))</f>
+        <v>15.182226450688976</v>
+      </c>
+      <c r="AK238" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL238" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AM238" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AN238" s="19">
+        <f t="shared" si="18"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AO238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR238" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A239" s="3">
+        <v>13</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C239" s="17" t="str">
+        <f>IF($A239="","",IF(VLOOKUP($A239,Spiele!$A$2:$D$15,3,FALSE)=$B239,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D239" s="17" t="str">
+        <f>IF($B239="","",IF(VLOOKUP($A239,Spiele!$A$2:$F$15,3,FALSE)=$B239,VLOOKUP($A239,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A239,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E239" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A239,$A239,$B$2:$B239,$B239,$L$2:$L239,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F239" s="11">
+        <v>35</v>
+      </c>
+      <c r="G239" s="12">
+        <v>1</v>
+      </c>
+      <c r="H239" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A239,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B239,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F239,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G239)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A239,'Rote Karten'!$D$2:$D$4,$B239,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F239,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G239)</f>
+        <v>0</v>
+      </c>
+      <c r="I239" s="17" t="str">
+        <f>IF(OR($L239="Tor",$L239="ET"),_xlfn.IFNA(IF(VLOOKUP($A239,Spiele!$A$2:$C$15,3,FALSE)=$B239,COUNTIFS($L$2:$L239,"Tor",$B$2:$B239,$B239,$A$2:$A239,$A239)+COUNTIFS($L$2:$L239,"ET",$B$2:$B239,$B239,$A$2:$A239,$A239)&amp;":"&amp;COUNTIFS($L$2:$L239,"Tor",$B$2:$B239,"&lt;&gt;"&amp;$B239,$A$2:$A239,$A239)+COUNTIFS($L$2:$L239,"ET",$B$2:$B239,"&lt;&gt;"&amp;$B239,$A$2:$A239,$A239),COUNTIFS($L$2:$L239,"Tor",$B$2:$B239,"&lt;&gt;"&amp;$B239,$A$2:$A239,$A239)+COUNTIFS($L$2:$L239,"ET",$B$2:$B239,"&lt;&gt;"&amp;$B239,$A$2:$A239,$A239)&amp;":"&amp;COUNTIFS($L$2:$L239,"Tor",$B$2:$B239,$B239,$A$2:$A239,$A239)+COUNTIFS($L$2:$L239,"ET",$B$2:$B239,$B239,$A$2:$A239,$A239)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J239" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A239,Spiele!$A$2:$D$15,3,FALSE)=$B239,(COUNTIFS($L$1:$L238,"Tor",$B$1:$B238,$B239,$A$1:$A238,$A239)+COUNTIFS($L$1:$L238,"ET",$B$1:$B238,$B239,$A$1:$A238,$A239))-(COUNTIFS($L$1:$L238,"Tor",$B$1:$B238,"&lt;&gt;"&amp;$B239,$A$1:$A238,$A239)+COUNTIFS($L$1:$L238,"ET",$B$1:$B238,"&lt;&gt;"&amp;$B239,$A$1:$A238,$A239)),(COUNTIFS($L$1:$L238,"Tor",$B$1:$B238,$B239,$A$1:$A238,$A239)+COUNTIFS($L$1:$L238,"ET",$B$1:$B238,$B239,$A$1:$A238,$A239))-(COUNTIFS($L$1:$L238,"Tor",$B$1:$B238,"&lt;&gt;"&amp;$B239,$A$1:$A238,$A239)+COUNTIFS($L$1:$L238,"ET",$B$1:$B238,"&lt;&gt;"&amp;$B239,$A$1:$A238,$A239))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K239" s="3">
+        <v>12</v>
+      </c>
+      <c r="L239" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X239" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y239" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z239" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA239" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB239" s="18"/>
+      <c r="AC239" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AD239" s="13">
+        <v>9</v>
+      </c>
+      <c r="AE239" s="19">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="AF239" s="19">
+        <f t="shared" si="17"/>
+        <v>43.839454439268671</v>
+      </c>
+      <c r="AG239" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH239" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AI239" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ239" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC239-$AH239)^2+($AD239-$AI239)^2))</f>
+        <v>8.5</v>
+      </c>
+      <c r="AK239" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL239" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM239" s="13">
+        <v>9</v>
+      </c>
+      <c r="AN239" s="19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AO239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR239" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A240" s="3">
+        <v>13</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C240" s="17" t="str">
+        <f>IF($A240="","",IF(VLOOKUP($A240,Spiele!$A$2:$D$15,3,FALSE)=$B240,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D240" s="17" t="str">
+        <f>IF($B240="","",IF(VLOOKUP($A240,Spiele!$A$2:$F$15,3,FALSE)=$B240,VLOOKUP($A240,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A240,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E240" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A240,$A240,$B$2:$B240,$B240,$L$2:$L240,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F240" s="11">
+        <v>37</v>
+      </c>
+      <c r="G240" s="12">
+        <v>1</v>
+      </c>
+      <c r="H240" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A240,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B240,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F240,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G240)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A240,'Rote Karten'!$D$2:$D$4,$B240,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F240,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G240)</f>
+        <v>0</v>
+      </c>
+      <c r="I240" s="17" t="str">
+        <f>IF(OR($L240="Tor",$L240="ET"),_xlfn.IFNA(IF(VLOOKUP($A240,Spiele!$A$2:$C$15,3,FALSE)=$B240,COUNTIFS($L$2:$L240,"Tor",$B$2:$B240,$B240,$A$2:$A240,$A240)+COUNTIFS($L$2:$L240,"ET",$B$2:$B240,$B240,$A$2:$A240,$A240)&amp;":"&amp;COUNTIFS($L$2:$L240,"Tor",$B$2:$B240,"&lt;&gt;"&amp;$B240,$A$2:$A240,$A240)+COUNTIFS($L$2:$L240,"ET",$B$2:$B240,"&lt;&gt;"&amp;$B240,$A$2:$A240,$A240),COUNTIFS($L$2:$L240,"Tor",$B$2:$B240,"&lt;&gt;"&amp;$B240,$A$2:$A240,$A240)+COUNTIFS($L$2:$L240,"ET",$B$2:$B240,"&lt;&gt;"&amp;$B240,$A$2:$A240,$A240)&amp;":"&amp;COUNTIFS($L$2:$L240,"Tor",$B$2:$B240,$B240,$A$2:$A240,$A240)+COUNTIFS($L$2:$L240,"ET",$B$2:$B240,$B240,$A$2:$A240,$A240)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J240" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A240,Spiele!$A$2:$D$15,3,FALSE)=$B240,(COUNTIFS($L$1:$L239,"Tor",$B$1:$B239,$B240,$A$1:$A239,$A240)+COUNTIFS($L$1:$L239,"ET",$B$1:$B239,$B240,$A$1:$A239,$A240))-(COUNTIFS($L$1:$L239,"Tor",$B$1:$B239,"&lt;&gt;"&amp;$B240,$A$1:$A239,$A240)+COUNTIFS($L$1:$L239,"ET",$B$1:$B239,"&lt;&gt;"&amp;$B240,$A$1:$A239,$A240)),(COUNTIFS($L$1:$L239,"Tor",$B$1:$B239,$B240,$A$1:$A239,$A240)+COUNTIFS($L$1:$L239,"ET",$B$1:$B239,$B240,$A$1:$A239,$A240))-(COUNTIFS($L$1:$L239,"Tor",$B$1:$B239,"&lt;&gt;"&amp;$B240,$A$1:$A239,$A240)+COUNTIFS($L$1:$L239,"ET",$B$1:$B239,"&lt;&gt;"&amp;$B240,$A$1:$A239,$A240))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K240" s="3">
+        <v>13</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N240" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X240" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y240" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z240" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA240" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB240" s="18"/>
+      <c r="AC240" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AD240" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE240" s="19">
+        <f t="shared" si="16"/>
+        <v>2.5447200238926087</v>
+      </c>
+      <c r="AF240" s="19">
+        <f t="shared" si="17"/>
+        <v>17.229273479884245</v>
+      </c>
+      <c r="AG240" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH240" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AI240" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ240" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC240-$AH240)^2+($AD240-$AI240)^2))</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="AK240" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL240" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AM240" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN240" s="19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AO240" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP240" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AQ240" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AR240" s="19">
+        <f t="shared" si="19"/>
+        <v>2.5495097567963922</v>
+      </c>
+    </row>
+    <row r="241" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A241" s="3">
+        <v>13</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="17" t="str">
+        <f>IF($A241="","",IF(VLOOKUP($A241,Spiele!$A$2:$D$15,3,FALSE)=$B241,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D241" s="17" t="str">
+        <f>IF($B241="","",IF(VLOOKUP($A241,Spiele!$A$2:$F$15,3,FALSE)=$B241,VLOOKUP($A241,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A241,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E241" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A241,$A241,$B$2:$B241,$B241,$L$2:$L241,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F241" s="11">
+        <v>40</v>
+      </c>
+      <c r="G241" s="12">
+        <v>1</v>
+      </c>
+      <c r="H241" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A241,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B241,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F241,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G241)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A241,'Rote Karten'!$D$2:$D$4,$B241,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F241,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G241)</f>
+        <v>0</v>
+      </c>
+      <c r="I241" s="17" t="str">
+        <f>IF(OR($L241="Tor",$L241="ET"),_xlfn.IFNA(IF(VLOOKUP($A241,Spiele!$A$2:$C$15,3,FALSE)=$B241,COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,$B241,$A$2:$A241,$A241)&amp;":"&amp;COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241),COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)&amp;":"&amp;COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,$B241,$A$2:$A241,$A241)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J241" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A241,Spiele!$A$2:$D$15,3,FALSE)=$B241,(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,$B241,$A$1:$A240,$A241))-(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)),(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,$B241,$A$1:$A240,$A241))-(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K241" s="3">
+        <v>14</v>
+      </c>
+      <c r="L241" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M241" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O241" s="2">
+        <v>7</v>
+      </c>
+      <c r="X241" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y241" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z241" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA241" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB241" s="18">
+        <v>9</v>
+      </c>
+      <c r="AC241" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AD241" s="13">
+        <v>9</v>
+      </c>
+      <c r="AE241" s="19">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="AF241" s="19">
+        <f t="shared" si="17"/>
+        <v>42.615768593997174</v>
+      </c>
+      <c r="AG241" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH241" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AI241" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AJ241" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC241-$AH241)^2+($AD241-$AI241)^2))</f>
+        <v>6.5</v>
+      </c>
+      <c r="AK241" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL241" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AM241" s="13">
+        <v>9</v>
+      </c>
+      <c r="AN241" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AO241" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR241" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A242" s="3">
+        <v>13</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="17" t="str">
+        <f>IF($A242="","",IF(VLOOKUP($A242,Spiele!$A$2:$D$15,3,FALSE)=$B242,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D242" s="17" t="str">
+        <f>IF($B242="","",IF(VLOOKUP($A242,Spiele!$A$2:$F$15,3,FALSE)=$B242,VLOOKUP($A242,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A242,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E242" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A242,$A242,$B$2:$B242,$B242,$L$2:$L242,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F242" s="11">
+        <v>40</v>
+      </c>
+      <c r="G242" s="12">
+        <v>1</v>
+      </c>
+      <c r="H242" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A242,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B242,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F242,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G242)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A242,'Rote Karten'!$D$2:$D$4,$B242,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F242,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G242)</f>
+        <v>0</v>
+      </c>
+      <c r="I242" s="17" t="str">
+        <f>IF(OR($L242="Tor",$L242="ET"),_xlfn.IFNA(IF(VLOOKUP($A242,Spiele!$A$2:$C$15,3,FALSE)=$B242,COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,$B242,$A$2:$A242,$A242)&amp;":"&amp;COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242),COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)&amp;":"&amp;COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,$B242,$A$2:$A242,$A242)),""),"")</f>
+        <v>1:0</v>
+      </c>
+      <c r="J242" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A242,Spiele!$A$2:$D$15,3,FALSE)=$B242,(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,$B242,$A$1:$A241,$A242))-(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)),(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,$B242,$A$1:$A241,$A242))-(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K242" s="3">
+        <v>14</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X242" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y242" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z242" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA242" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB242" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC242" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AD242" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE242" s="19">
+        <f t="shared" si="16"/>
+        <v>5.7502695588989567</v>
+      </c>
+      <c r="AF242" s="19">
+        <f t="shared" si="17"/>
+        <v>34.200427604672875</v>
+      </c>
+      <c r="AG242" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH242" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AI242" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ242" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC242-$AH242)^2+($AD242-$AI242)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="AK242" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL242" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AM242" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AN242" s="19">
+        <f t="shared" si="18"/>
+        <v>2.5495097567963922</v>
+      </c>
+      <c r="AO242" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR242" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A243" s="3">
+        <v>13</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C243" s="17" t="str">
+        <f>IF($A243="","",IF(VLOOKUP($A243,Spiele!$A$2:$D$15,3,FALSE)=$B243,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D243" s="17" t="str">
+        <f>IF($B243="","",IF(VLOOKUP($A243,Spiele!$A$2:$F$15,3,FALSE)=$B243,VLOOKUP($A243,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A243,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E243" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A243,$A243,$B$2:$B243,$B243,$L$2:$L243,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F243" s="11">
+        <v>44</v>
+      </c>
+      <c r="G243" s="12">
+        <v>2</v>
+      </c>
+      <c r="H243" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A243,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B243,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F243,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G243)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A243,'Rote Karten'!$D$2:$D$4,$B243,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F243,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G243)</f>
+        <v>0</v>
+      </c>
+      <c r="I243" s="17" t="str">
+        <f>IF(OR($L243="Tor",$L243="ET"),_xlfn.IFNA(IF(VLOOKUP($A243,Spiele!$A$2:$C$15,3,FALSE)=$B243,COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,$B243,$A$2:$A243,$A243)&amp;":"&amp;COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243),COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)&amp;":"&amp;COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,$B243,$A$2:$A243,$A243)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J243" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A243,Spiele!$A$2:$D$15,3,FALSE)=$B243,(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,$B243,$A$1:$A242,$A243))-(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)),(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,$B243,$A$1:$A242,$A243))-(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K243" s="3">
+        <v>15</v>
+      </c>
+      <c r="L243" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X243" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y243" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z243" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA243" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB243" s="18"/>
+      <c r="AC243" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AD243" s="13">
+        <v>34</v>
+      </c>
+      <c r="AE243" s="19">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="AF243" s="19">
+        <f t="shared" si="17"/>
+        <v>12.194976603981754</v>
+      </c>
+      <c r="AG243" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH243" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AI243" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ243" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC243-$AH243)^2+($AD243-$AI243)^2))</f>
+        <v>33.68233958619858</v>
+      </c>
+      <c r="AK243" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL243" s="13"/>
+      <c r="AM243" s="13"/>
+      <c r="AN243" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO243" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP243" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AQ243" s="13">
+        <v>27</v>
+      </c>
+      <c r="AR243" s="19">
+        <f t="shared" si="19"/>
+        <v>7.0178344238090995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A244" s="3">
+        <v>13</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="17" t="str">
+        <f>IF($A244="","",IF(VLOOKUP($A244,Spiele!$A$2:$D$15,3,FALSE)=$B244,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D244" s="17" t="str">
+        <f>IF($B244="","",IF(VLOOKUP($A244,Spiele!$A$2:$F$15,3,FALSE)=$B244,VLOOKUP($A244,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A244,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E244" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A244,$A244,$B$2:$B244,$B244,$L$2:$L244,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F244" s="11">
+        <v>51</v>
+      </c>
+      <c r="G244" s="12">
+        <v>2</v>
+      </c>
+      <c r="H244" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A244,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B244,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F244,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G244)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A244,'Rote Karten'!$D$2:$D$4,$B244,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F244,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G244)</f>
+        <v>0</v>
+      </c>
+      <c r="I244" s="17" t="str">
+        <f>IF(OR($L244="Tor",$L244="ET"),_xlfn.IFNA(IF(VLOOKUP($A244,Spiele!$A$2:$C$15,3,FALSE)=$B244,COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,$B244,$A$2:$A244,$A244)&amp;":"&amp;COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244),COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)&amp;":"&amp;COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,$B244,$A$2:$A244,$A244)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J244" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A244,Spiele!$A$2:$D$15,3,FALSE)=$B244,(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,$B244,$A$1:$A243,$A244))-(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)),(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,$B244,$A$1:$A243,$A244))-(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K244" s="3">
+        <v>16</v>
+      </c>
+      <c r="L244" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N244" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O244" s="2">
+        <v>8</v>
+      </c>
+      <c r="P244" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>6</v>
+      </c>
+      <c r="X244" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y244" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z244" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA244" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB244" s="18">
+        <v>10</v>
+      </c>
+      <c r="AC244" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AD244" s="13">
+        <v>13</v>
+      </c>
+      <c r="AE244" s="19">
+        <f t="shared" si="16"/>
+        <v>14.689642609675703</v>
+      </c>
+      <c r="AF244" s="19">
+        <f t="shared" si="17"/>
+        <v>19.694334659050181</v>
+      </c>
+      <c r="AG244" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH244" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AI244" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AJ244" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC244-$AH244)^2+($AD244-$AI244)^2))</f>
+        <v>12.619429464123963</v>
+      </c>
+      <c r="AK244" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL244" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AM244" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AN244" s="19">
+        <f t="shared" si="18"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AO244" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP244" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AQ244" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AR244" s="19">
+        <f t="shared" si="19"/>
+        <v>9.3005376188691375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A245" s="3">
+        <v>13</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C245" s="17" t="str">
+        <f>IF($A245="","",IF(VLOOKUP($A245,Spiele!$A$2:$D$15,3,FALSE)=$B245,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D245" s="17" t="str">
+        <f>IF($B245="","",IF(VLOOKUP($A245,Spiele!$A$2:$F$15,3,FALSE)=$B245,VLOOKUP($A245,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A245,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E245" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A245,$A245,$B$2:$B245,$B245,$L$2:$L245,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F245" s="11">
+        <v>57</v>
+      </c>
+      <c r="G245" s="12">
+        <v>2</v>
+      </c>
+      <c r="H245" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A245,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B245,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F245,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G245)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A245,'Rote Karten'!$D$2:$D$4,$B245,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F245,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G245)</f>
+        <v>0</v>
+      </c>
+      <c r="I245" s="17" t="str">
+        <f>IF(OR($L245="Tor",$L245="ET"),_xlfn.IFNA(IF(VLOOKUP($A245,Spiele!$A$2:$C$15,3,FALSE)=$B245,COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,$B245,$A$2:$A245,$A245)&amp;":"&amp;COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245),COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)&amp;":"&amp;COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,$B245,$A$2:$A245,$A245)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J245" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A245,Spiele!$A$2:$D$15,3,FALSE)=$B245,(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,$B245,$A$1:$A244,$A245))-(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)),(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,$B245,$A$1:$A244,$A245))-(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K245" s="3">
+        <v>17</v>
+      </c>
+      <c r="L245" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N245" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X245" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y245" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z245" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA245" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB245" s="18"/>
+      <c r="AC245" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD245" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AE245" s="19">
+        <f t="shared" si="16"/>
+        <v>11.216309553502882</v>
+      </c>
+      <c r="AF245" s="19">
+        <f t="shared" si="17"/>
+        <v>16.373402664953399</v>
+      </c>
+      <c r="AG245" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH245" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AI245" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ245" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC245-$AH245)^2+($AD245-$AI245)^2))</f>
+        <v>11.01135777277262</v>
+      </c>
+      <c r="AK245" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL245" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM245" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AN245" s="19">
+        <f t="shared" si="18"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AO245" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR245" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A246" s="3">
+        <v>13</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="17" t="str">
+        <f>IF($A246="","",IF(VLOOKUP($A246,Spiele!$A$2:$D$15,3,FALSE)=$B246,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D246" s="17" t="str">
+        <f>IF($B246="","",IF(VLOOKUP($A246,Spiele!$A$2:$F$15,3,FALSE)=$B246,VLOOKUP($A246,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A246,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E246" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A246,$A246,$B$2:$B246,$B246,$L$2:$L246,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F246" s="11">
+        <v>59</v>
+      </c>
+      <c r="G246" s="12">
+        <v>2</v>
+      </c>
+      <c r="H246" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A246,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B246,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F246,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G246)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A246,'Rote Karten'!$D$2:$D$4,$B246,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F246,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G246)</f>
+        <v>0</v>
+      </c>
+      <c r="I246" s="17" t="str">
+        <f>IF(OR($L246="Tor",$L246="ET"),_xlfn.IFNA(IF(VLOOKUP($A246,Spiele!$A$2:$C$15,3,FALSE)=$B246,COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,$B246,$A$2:$A246,$A246)&amp;":"&amp;COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246),COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)&amp;":"&amp;COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,$B246,$A$2:$A246,$A246)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J246" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A246,Spiele!$A$2:$D$15,3,FALSE)=$B246,(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,$B246,$A$1:$A245,$A246))-(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)),(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,$B246,$A$1:$A245,$A246))-(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K246" s="3">
+        <v>18</v>
+      </c>
+      <c r="L246" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M246" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N246" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O246" s="2">
+        <v>4</v>
+      </c>
+      <c r="P246" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>6</v>
+      </c>
+      <c r="R246" s="2">
+        <v>8</v>
+      </c>
+      <c r="S246" s="2">
+        <v>20</v>
+      </c>
+      <c r="X246" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y246" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z246" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA246" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB246" s="18">
+        <v>18</v>
+      </c>
+      <c r="AC246" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AD246" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="AE246" s="19">
+        <f t="shared" si="16"/>
+        <v>22.071828197954062</v>
+      </c>
+      <c r="AF246" s="19">
+        <f t="shared" si="17"/>
+        <v>14.230221882728383</v>
+      </c>
+      <c r="AG246" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH246" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AI246" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AJ246" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC246-$AH246)^2+($AD246-$AI246)^2))</f>
+        <v>21.100947846009191</v>
+      </c>
+      <c r="AK246" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL246" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AM246" s="13">
+        <v>18</v>
+      </c>
+      <c r="AN246" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AO246" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP246" s="13">
+        <v>-11</v>
+      </c>
+      <c r="AQ246" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AR246" s="19">
+        <f t="shared" si="19"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="247" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A247" s="3">
+        <v>13</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="17" t="str">
+        <f>IF($A247="","",IF(VLOOKUP($A247,Spiele!$A$2:$D$15,3,FALSE)=$B247,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D247" s="17" t="str">
+        <f>IF($B247="","",IF(VLOOKUP($A247,Spiele!$A$2:$F$15,3,FALSE)=$B247,VLOOKUP($A247,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A247,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E247" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A247,$A247,$B$2:$B247,$B247,$L$2:$L247,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F247" s="11">
+        <v>60</v>
+      </c>
+      <c r="G247" s="12">
+        <v>2</v>
+      </c>
+      <c r="H247" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A247,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B247,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F247,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G247)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A247,'Rote Karten'!$D$2:$D$4,$B247,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F247,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G247)</f>
+        <v>0</v>
+      </c>
+      <c r="I247" s="17" t="str">
+        <f>IF(OR($L247="Tor",$L247="ET"),_xlfn.IFNA(IF(VLOOKUP($A247,Spiele!$A$2:$C$15,3,FALSE)=$B247,COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,$B247,$A$2:$A247,$A247)&amp;":"&amp;COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247),COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)&amp;":"&amp;COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,$B247,$A$2:$A247,$A247)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J247" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A247,Spiele!$A$2:$D$15,3,FALSE)=$B247,(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,$B247,$A$1:$A246,$A247))-(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)),(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,$B247,$A$1:$A246,$A247))-(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K247" s="3">
+        <v>19</v>
+      </c>
+      <c r="L247" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X247" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y247" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z247" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA247" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB247" s="18">
+        <v>8</v>
+      </c>
+      <c r="AC247" s="13">
+        <v>14</v>
+      </c>
+      <c r="AD247" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="AE247" s="19">
+        <f t="shared" si="16"/>
+        <v>25.674220533445606</v>
+      </c>
+      <c r="AF247" s="19">
+        <f t="shared" si="17"/>
+        <v>13.174977970680043</v>
+      </c>
+      <c r="AG247" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH247" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI247" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AJ247" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC247-$AH247)^2+($AD247-$AI247)^2))</f>
+        <v>25.238858928247925</v>
+      </c>
+      <c r="AK247" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL247" s="13"/>
+      <c r="AM247" s="13"/>
+      <c r="AN247" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO247" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP247" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ247" s="13">
+        <v>16</v>
+      </c>
+      <c r="AR247" s="19">
+        <f t="shared" si="19"/>
+        <v>9.013878188659973</v>
+      </c>
+    </row>
+    <row r="248" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A248" s="3">
+        <v>13</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C248" s="17" t="str">
+        <f>IF($A248="","",IF(VLOOKUP($A248,Spiele!$A$2:$D$15,3,FALSE)=$B248,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D248" s="17" t="str">
+        <f>IF($B248="","",IF(VLOOKUP($A248,Spiele!$A$2:$F$15,3,FALSE)=$B248,VLOOKUP($A248,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A248,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E248" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A248,$A248,$B$2:$B248,$B248,$L$2:$L248,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F248" s="11">
+        <v>61</v>
+      </c>
+      <c r="G248" s="12">
+        <v>2</v>
+      </c>
+      <c r="H248" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A248,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B248,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F248,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G248)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A248,'Rote Karten'!$D$2:$D$4,$B248,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F248,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G248)</f>
+        <v>0</v>
+      </c>
+      <c r="I248" s="17" t="str">
+        <f>IF(OR($L248="Tor",$L248="ET"),_xlfn.IFNA(IF(VLOOKUP($A248,Spiele!$A$2:$C$15,3,FALSE)=$B248,COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,$B248,$A$2:$A248,$A248)&amp;":"&amp;COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248),COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)&amp;":"&amp;COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,$B248,$A$2:$A248,$A248)),""),"")</f>
+        <v>1:1</v>
+      </c>
+      <c r="J248" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A248,Spiele!$A$2:$D$15,3,FALSE)=$B248,(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,$B248,$A$1:$A247,$A248))-(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)),(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,$B248,$A$1:$A247,$A248))-(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K248" s="3">
+        <v>20</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X248" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y248" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z248" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA248" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB248" s="18"/>
+      <c r="AC248" s="13">
+        <v>-8.5</v>
+      </c>
+      <c r="AD248" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE248" s="19">
+        <f t="shared" si="16"/>
+        <v>8.5103231431009725</v>
+      </c>
+      <c r="AF248" s="19">
+        <f t="shared" si="17"/>
+        <v>25.411688271902904</v>
+      </c>
+      <c r="AG248" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH248" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AI248" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ248" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC248-$AH248)^2+($AD248-$AI248)^2))</f>
+        <v>8.5146931829632013</v>
+      </c>
+      <c r="AK248" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL248" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AM248" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AN248" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AO248" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR248" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A249" s="3">
+        <v>13</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C249" s="17" t="str">
+        <f>IF($A249="","",IF(VLOOKUP($A249,Spiele!$A$2:$D$15,3,FALSE)=$B249,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D249" s="17" t="str">
+        <f>IF($B249="","",IF(VLOOKUP($A249,Spiele!$A$2:$F$15,3,FALSE)=$B249,VLOOKUP($A249,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A249,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E249" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A249,$A249,$B$2:$B249,$B249,$L$2:$L249,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F249" s="11">
+        <v>65</v>
+      </c>
+      <c r="G249" s="12">
+        <v>2</v>
+      </c>
+      <c r="H249" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A249,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B249,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F249,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G249)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A249,'Rote Karten'!$D$2:$D$4,$B249,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F249,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G249)</f>
+        <v>0</v>
+      </c>
+      <c r="I249" s="17" t="str">
+        <f>IF(OR($L249="Tor",$L249="ET"),_xlfn.IFNA(IF(VLOOKUP($A249,Spiele!$A$2:$C$15,3,FALSE)=$B249,COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,$B249,$A$2:$A249,$A249)&amp;":"&amp;COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249),COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)&amp;":"&amp;COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,$B249,$A$2:$A249,$A249)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J249" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A249,Spiele!$A$2:$D$15,3,FALSE)=$B249,(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,$B249,$A$1:$A248,$A249))-(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)),(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,$B249,$A$1:$A248,$A249))-(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
+        <v>21</v>
+      </c>
+      <c r="L249" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M249" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X249" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y249" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z249" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA249" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB249" s="18"/>
+      <c r="AC249" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AD249" s="13">
+        <v>11</v>
+      </c>
+      <c r="AE249" s="19">
+        <f t="shared" si="16"/>
+        <v>11.032026105842935</v>
+      </c>
+      <c r="AF249" s="19">
+        <f t="shared" si="17"/>
+        <v>32.201857009576806</v>
+      </c>
+      <c r="AG249" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH249" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI249" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ249" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC249-$AH249)^2+($AD249-$AI249)^2))</f>
+        <v>11.067971810589327</v>
+      </c>
+      <c r="AK249" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL249" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AM249" s="13">
+        <v>9</v>
+      </c>
+      <c r="AN249" s="19">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AO249" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP249" s="13">
+        <v>4</v>
+      </c>
+      <c r="AQ249" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AR249" s="19">
+        <f t="shared" si="19"/>
+        <v>5.5226805085936306</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A250" s="3">
+        <v>13</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="17" t="str">
+        <f>IF($A250="","",IF(VLOOKUP($A250,Spiele!$A$2:$D$15,3,FALSE)=$B250,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D250" s="17" t="str">
+        <f>IF($B250="","",IF(VLOOKUP($A250,Spiele!$A$2:$F$15,3,FALSE)=$B250,VLOOKUP($A250,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A250,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E250" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A250,$A250,$B$2:$B250,$B250,$L$2:$L250,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F250" s="11">
+        <v>68</v>
+      </c>
+      <c r="G250" s="12">
+        <v>2</v>
+      </c>
+      <c r="H250" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A250,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B250,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F250,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G250)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A250,'Rote Karten'!$D$2:$D$4,$B250,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F250,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G250)</f>
+        <v>0</v>
+      </c>
+      <c r="I250" s="17" t="str">
+        <f>IF(OR($L250="Tor",$L250="ET"),_xlfn.IFNA(IF(VLOOKUP($A250,Spiele!$A$2:$C$15,3,FALSE)=$B250,COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,$B250,$A$2:$A250,$A250)&amp;":"&amp;COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250),COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)&amp;":"&amp;COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,$B250,$A$2:$A250,$A250)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J250" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A250,Spiele!$A$2:$D$15,3,FALSE)=$B250,(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,$B250,$A$1:$A249,$A250))-(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)),(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,$B250,$A$1:$A249,$A250))-(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K250" s="3">
+        <v>22</v>
+      </c>
+      <c r="L250" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M250" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N250" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O250" s="2">
+        <v>8</v>
+      </c>
+      <c r="P250" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q250" s="2">
+        <v>6</v>
+      </c>
+      <c r="X250" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y250" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z250" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA250" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB250" s="18">
+        <v>16</v>
+      </c>
+      <c r="AC250" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AD250" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE250" s="19">
+        <f t="shared" si="16"/>
+        <v>4.4029081298614443</v>
+      </c>
+      <c r="AF250" s="19">
+        <f t="shared" si="17"/>
+        <v>41.707579601485392</v>
+      </c>
+      <c r="AG250" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH250" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AI250" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ250" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC250-$AH250)^2+($AD250-$AI250)^2))</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AK250" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL250" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AM250" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AN250" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO250" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP250" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AQ250" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AR250" s="19">
+        <f t="shared" si="19"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A251" s="3">
+        <v>13</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="17" t="str">
+        <f>IF($A251="","",IF(VLOOKUP($A251,Spiele!$A$2:$D$15,3,FALSE)=$B251,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D251" s="17" t="str">
+        <f>IF($B251="","",IF(VLOOKUP($A251,Spiele!$A$2:$F$15,3,FALSE)=$B251,VLOOKUP($A251,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A251,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E251" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A251,$A251,$B$2:$B251,$B251,$L$2:$L251,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F251" s="11">
+        <v>71</v>
+      </c>
+      <c r="G251" s="12">
+        <v>2</v>
+      </c>
+      <c r="H251" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A251,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B251,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F251,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G251)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A251,'Rote Karten'!$D$2:$D$4,$B251,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F251,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G251)</f>
+        <v>0</v>
+      </c>
+      <c r="I251" s="17" t="str">
+        <f>IF(OR($L251="Tor",$L251="ET"),_xlfn.IFNA(IF(VLOOKUP($A251,Spiele!$A$2:$C$15,3,FALSE)=$B251,COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,$B251,$A$2:$A251,$A251)&amp;":"&amp;COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251),COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)&amp;":"&amp;COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,$B251,$A$2:$A251,$A251)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J251" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A251,Spiele!$A$2:$D$15,3,FALSE)=$B251,(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,$B251,$A$1:$A250,$A251))-(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)),(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,$B251,$A$1:$A250,$A251))-(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K251" s="3">
+        <v>23</v>
+      </c>
+      <c r="L251" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M251" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O251" s="2">
+        <v>7</v>
+      </c>
+      <c r="P251" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>8</v>
+      </c>
+      <c r="R251" s="2">
+        <v>23</v>
+      </c>
+      <c r="S251" s="2">
+        <v>6</v>
+      </c>
+      <c r="T251" s="2">
+        <v>5</v>
+      </c>
+      <c r="U251" s="2">
+        <v>16</v>
+      </c>
+      <c r="V251" s="2">
+        <v>20</v>
+      </c>
+      <c r="X251" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y251" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z251" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA251" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB251" s="18">
+        <v>10</v>
+      </c>
+      <c r="AC251" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AD251" s="13">
+        <v>15</v>
+      </c>
+      <c r="AE251" s="19">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="AF251" s="19">
+        <f t="shared" si="17"/>
+        <v>26.748394088035369</v>
+      </c>
+      <c r="AG251" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH251" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI251" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AJ251" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC251-$AH251)^2+($AD251-$AI251)^2))</f>
+        <v>11.76860229593982</v>
+      </c>
+      <c r="AK251" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL251" s="13"/>
+      <c r="AM251" s="13"/>
+      <c r="AN251" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AO251" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP251" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AQ251" s="13">
+        <v>11</v>
+      </c>
+      <c r="AR251" s="19">
+        <f t="shared" si="19"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A252" s="3">
+        <v>13</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="17" t="str">
+        <f>IF($A252="","",IF(VLOOKUP($A252,Spiele!$A$2:$D$15,3,FALSE)=$B252,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D252" s="17" t="str">
+        <f>IF($B252="","",IF(VLOOKUP($A252,Spiele!$A$2:$F$15,3,FALSE)=$B252,VLOOKUP($A252,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A252,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E252" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A252,$A252,$B$2:$B252,$B252,$L$2:$L252,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F252" s="11">
+        <v>73</v>
+      </c>
+      <c r="G252" s="12">
+        <v>2</v>
+      </c>
+      <c r="H252" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A252,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B252,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F252,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G252)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A252,'Rote Karten'!$D$2:$D$4,$B252,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F252,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G252)</f>
+        <v>0</v>
+      </c>
+      <c r="I252" s="17" t="str">
+        <f>IF(OR($L252="Tor",$L252="ET"),_xlfn.IFNA(IF(VLOOKUP($A252,Spiele!$A$2:$C$15,3,FALSE)=$B252,COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,$B252,$A$2:$A252,$A252)&amp;":"&amp;COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252),COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)&amp;":"&amp;COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,$B252,$A$2:$A252,$A252)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J252" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A252,Spiele!$A$2:$D$15,3,FALSE)=$B252,(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,$B252,$A$1:$A251,$A252))-(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)),(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,$B252,$A$1:$A251,$A252))-(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K252" s="3">
+        <v>24</v>
+      </c>
+      <c r="L252" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M252" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O252" s="2">
+        <v>18</v>
+      </c>
+      <c r="P252" s="2">
+        <v>5</v>
+      </c>
+      <c r="X252" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y252" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z252" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA252" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB252" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC252" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AD252" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AE252" s="19">
+        <f t="shared" si="16"/>
+        <v>19.211340400919454</v>
+      </c>
+      <c r="AF252" s="19">
+        <f t="shared" si="17"/>
+        <v>15.312989252529659</v>
+      </c>
+      <c r="AG252" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH252" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AI252" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ252" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC252-$AH252)^2+($AD252-$AI252)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AK252" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL252" s="13">
+        <v>-12.5</v>
+      </c>
+      <c r="AM252" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AN252" s="19">
+        <f t="shared" si="18"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AO252" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR252" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A253" s="3">
+        <v>13</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="17" t="str">
+        <f>IF($A253="","",IF(VLOOKUP($A253,Spiele!$A$2:$D$15,3,FALSE)=$B253,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D253" s="17" t="str">
+        <f>IF($B253="","",IF(VLOOKUP($A253,Spiele!$A$2:$F$15,3,FALSE)=$B253,VLOOKUP($A253,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A253,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E253" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A253,$A253,$B$2:$B253,$B253,$L$2:$L253,"&lt;&gt;ET"))</f>
+        <v>15</v>
+      </c>
+      <c r="F253" s="11">
+        <v>77</v>
+      </c>
+      <c r="G253" s="12">
+        <v>2</v>
+      </c>
+      <c r="H253" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A253,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B253,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F253,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G253)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A253,'Rote Karten'!$D$2:$D$4,$B253,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F253,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G253)</f>
+        <v>0</v>
+      </c>
+      <c r="I253" s="17" t="str">
+        <f>IF(OR($L253="Tor",$L253="ET"),_xlfn.IFNA(IF(VLOOKUP($A253,Spiele!$A$2:$C$15,3,FALSE)=$B253,COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,$B253,$A$2:$A253,$A253)&amp;":"&amp;COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253),COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)&amp;":"&amp;COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,$B253,$A$2:$A253,$A253)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J253" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A253,Spiele!$A$2:$D$15,3,FALSE)=$B253,(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,$B253,$A$1:$A252,$A253))-(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)),(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,$B253,$A$1:$A252,$A253))-(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K253" s="3">
+        <v>25</v>
+      </c>
+      <c r="L253" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M253" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O253" s="2">
+        <v>10</v>
+      </c>
+      <c r="X253" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y253" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z253" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA253" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB253" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC253" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AD253" s="13">
+        <v>14</v>
+      </c>
+      <c r="AE253" s="19">
+        <f t="shared" si="16"/>
+        <v>17.7060893480181</v>
+      </c>
+      <c r="AF253" s="19">
+        <f t="shared" si="17"/>
+        <v>14.620361026676797</v>
+      </c>
+      <c r="AG253" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH253" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AI253" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AJ253" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC253-$AH253)^2+($AD253-$AI253)^2))</f>
+        <v>17.327723451163457</v>
+      </c>
+      <c r="AK253" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL253" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM253" s="13">
+        <v>14</v>
+      </c>
+      <c r="AN253" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO253" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP253" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ253" s="13">
+        <v>8</v>
+      </c>
+      <c r="AR253" s="19">
+        <f t="shared" si="19"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" ht="25.05" customHeight="1">
+      <c r="A254" s="3">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C254" s="17" t="str">
+        <f>IF($A254="","",IF(VLOOKUP($A254,Spiele!$A$2:$D$15,3,FALSE)=$B254,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D254" s="17" t="str">
+        <f>IF($B254="","",IF(VLOOKUP($A254,Spiele!$A$2:$F$15,3,FALSE)=$B254,VLOOKUP($A254,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A254,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E254" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A254,$A254,$B$2:$B254,$B254,$L$2:$L254,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F254" s="11">
+        <v>83</v>
+      </c>
+      <c r="G254" s="12">
+        <v>2</v>
+      </c>
+      <c r="H254" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A254,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B254,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F254,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G254)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A254,'Rote Karten'!$D$2:$D$4,$B254,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F254,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G254)</f>
+        <v>0</v>
+      </c>
+      <c r="I254" s="17" t="str">
+        <f>IF(OR($L254="Tor",$L254="ET"),_xlfn.IFNA(IF(VLOOKUP($A254,Spiele!$A$2:$C$15,3,FALSE)=$B254,COUNTIFS($L$2:$L254,"Tor",$B$2:$B254,$B254,$A$2:$A254,$A254)+COUNTIFS($L$2:$L254,"ET",$B$2:$B254,$B254,$A$2:$A254,$A254)&amp;":"&amp;COUNTIFS($L$2:$L254,"Tor",$B$2:$B254,"&lt;&gt;"&amp;$B254,$A$2:$A254,$A254)+COUNTIFS($L$2:$L254,"ET",$B$2:$B254,"&lt;&gt;"&amp;$B254,$A$2:$A254,$A254),COUNTIFS($L$2:$L254,"Tor",$B$2:$B254,"&lt;&gt;"&amp;$B254,$A$2:$A254,$A254)+COUNTIFS($L$2:$L254,"ET",$B$2:$B254,"&lt;&gt;"&amp;$B254,$A$2:$A254,$A254)&amp;":"&amp;COUNTIFS($L$2:$L254,"Tor",$B$2:$B254,$B254,$A$2:$A254,$A254)+COUNTIFS($L$2:$L254,"ET",$B$2:$B254,$B254,$A$2:$A254,$A254)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J254" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A254,Spiele!$A$2:$D$15,3,FALSE)=$B254,(COUNTIFS($L$1:$L253,"Tor",$B$1:$B253,$B254,$A$1:$A253,$A254)+COUNTIFS($L$1:$L253,"ET",$B$1:$B253,$B254,$A$1:$A253,$A254))-(COUNTIFS($L$1:$L253,"Tor",$B$1:$B253,"&lt;&gt;"&amp;$B254,$A$1:$A253,$A254)+COUNTIFS($L$1:$L253,"ET",$B$1:$B253,"&lt;&gt;"&amp;$B254,$A$1:$A253,$A254)),(COUNTIFS($L$1:$L253,"Tor",$B$1:$B253,$B254,$A$1:$A253,$A254)+COUNTIFS($L$1:$L253,"ET",$B$1:$B253,$B254,$A$1:$A253,$A254))-(COUNTIFS($L$1:$L253,"Tor",$B$1:$B253,"&lt;&gt;"&amp;$B254,$A$1:$A253,$A254)+COUNTIFS($L$1:$L253,"ET",$B$1:$B253,"&lt;&gt;"&amp;$B254,$A$1:$A253,$A254))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K254" s="3">
+        <v>26</v>
+      </c>
+      <c r="L254" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X254" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y254" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z254" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA254" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB254" s="18"/>
+      <c r="AC254" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AD254" s="13">
+        <v>18</v>
+      </c>
+      <c r="AE254" s="19">
+        <f t="shared" si="16"/>
+        <v>19.838235808660002</v>
+      </c>
+      <c r="AF254" s="19">
+        <f t="shared" si="17"/>
+        <v>16.163407255354326</v>
+      </c>
+      <c r="AG254" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH254" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AI254" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AJ254" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC254-$AH254)^2+($AD254-$AI254)^2))</f>
+        <v>18.721645226849056</v>
+      </c>
+      <c r="AK254" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL254" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AM254" s="13">
+        <v>21</v>
+      </c>
+      <c r="AN254" s="19">
+        <f t="shared" si="18"/>
+        <v>3.3541019662496847</v>
+      </c>
+      <c r="AO254" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR254" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:44" ht="25.05" customHeight="1">
+      <c r="Z256" s="14"/>
+      <c r="AA256" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E223">
+  <conditionalFormatting sqref="A2:E254">
     <cfRule type="expression" dxfId="39" priority="126">
       <formula>$C2="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K223 M2:M223 Z2:AA223 AC2:AD223 AG2:AI223 AK2:AK223 AO2:AO223">
+  <conditionalFormatting sqref="K2:K254 M2:M254 Z2:AA254 AC2:AD254 AG2:AI254 AK2:AK254 AO2:AO254">
     <cfRule type="cellIs" dxfId="38" priority="46" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:M223 X2:AD223 AG2:AI223 AK2:AK223 AO2:AO223">
+  <conditionalFormatting sqref="K2:M254 X2:AD254 AG2:AI254 AK2:AK254 AO2:AO254">
     <cfRule type="expression" dxfId="37" priority="49">
       <formula>$F2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M226">
+  <conditionalFormatting sqref="M257">
     <cfRule type="cellIs" dxfId="36" priority="121" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="122">
-      <formula>$F226&lt;&gt;""</formula>
+      <formula>$F257&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AR1048576">
@@ -35344,7 +38926,7 @@
       <formula>$L2="ET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N223">
+  <conditionalFormatting sqref="N2:N254">
     <cfRule type="cellIs" dxfId="33" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -35376,41 +38958,41 @@
       <formula>$M2="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N226:W226">
+  <conditionalFormatting sqref="N257:W257">
     <cfRule type="expression" dxfId="23" priority="104">
-      <formula>$M226="nEW"</formula>
+      <formula>$M257="nEW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="105">
-      <formula>$M226="EW"</formula>
+      <formula>$M257="EW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="106">
-      <formula>$M226="n11M"</formula>
+      <formula>$M257="n11M"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="107">
-      <formula>$M226="nFS"</formula>
+      <formula>$M257="nFS"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="108">
-      <formula>$M226="nE"</formula>
+      <formula>$M257="nE"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="109">
-      <formula>$M226="FSF"</formula>
+      <formula>$M257="FSF"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="110">
-      <formula>$M226="E"</formula>
+      <formula>$M257="E"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="111">
-      <formula>$M226="USO"</formula>
+      <formula>$M257="USO"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="123">
-      <formula>$M226="EB"</formula>
+      <formula>$M257="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N226:X226">
+  <conditionalFormatting sqref="N257:X257">
     <cfRule type="cellIs" dxfId="14" priority="103" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X223">
+  <conditionalFormatting sqref="X2:X254">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -35418,38 +39000,38 @@
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X226">
+  <conditionalFormatting sqref="X257">
     <cfRule type="expression" dxfId="11" priority="124">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y223 AB2:AB223 L2:L223">
+  <conditionalFormatting sqref="Y2:Y254 AB2:AB254 L2:L254">
     <cfRule type="cellIs" dxfId="10" priority="47" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z225:AA225">
+  <conditionalFormatting sqref="Z256:AA256">
     <cfRule type="expression" dxfId="9" priority="99">
-      <formula>$L225="ET"</formula>
+      <formula>$L256="ET"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="100" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="101">
-      <formula>$F225&lt;&gt;""</formula>
+      <formula>$F256&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB223">
+  <conditionalFormatting sqref="AB2:AB254">
     <cfRule type="expression" dxfId="6" priority="2">
       <formula>$B2&lt;&gt;"FCN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI223">
+  <conditionalFormatting sqref="AH2:AI254">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>$AG2="niT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM223">
+  <conditionalFormatting sqref="AL2:AM254">
     <cfRule type="cellIs" dxfId="4" priority="17" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -35457,7 +39039,7 @@
       <formula>$AK2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AQ223">
+  <conditionalFormatting sqref="AP2:AQ254">
     <cfRule type="cellIs" dxfId="2" priority="14" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A0B4D-4D87-4156-8061-DB9E241858F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9E1F4-E400-4705-A101-328DFF131704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiele" sheetId="35" r:id="rId1"/>
@@ -3688,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:O2"/>
       <selection pane="bottomLeft"/>
@@ -9061,7 +9061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS256"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:O2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:O2"/>
@@ -10506,15 +10506,9 @@
       <c r="AG12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AH12" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>6.5</v>
-      </c>
       <c r="AJ12" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC12-$AH12)^2+($AD12-$AI12)^2))</f>
-        <v>9.7082439194737997</v>
+        <v>13.647344063956181</v>
       </c>
       <c r="AK12" s="3">
         <v>1</v>
@@ -32692,17 +32686,11 @@
         <v>20.468818692757591</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH201" s="13">
-        <v>-2.5</v>
-      </c>
-      <c r="AI201" s="13">
-        <v>11.5</v>
+        <v>166</v>
       </c>
       <c r="AJ201" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AC201-$AH201)^2+($AD201-$AI201)^2))</f>
-        <v>10.606601717798213</v>
+        <v>19.646882704388499</v>
       </c>
       <c r="AK201" s="3">
         <v>0</v>
@@ -33516,17 +33504,11 @@
         <v>1</v>
       </c>
       <c r="AO208" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP208" s="13">
-        <v>-2.5</v>
-      </c>
-      <c r="AQ208" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="AR208" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="19" t="str">
         <f t="shared" si="15"/>
-        <v>7.9056941504209481</v>
+        <v/>
       </c>
     </row>
     <row r="209" spans="1:44" ht="25.05" customHeight="1">
@@ -34196,27 +34178,27 @@
         <v>1</v>
       </c>
       <c r="AL214" s="13">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM214" s="13">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN214" s="19">
         <f t="shared" si="14"/>
-        <v>8.1394102980498531</v>
+        <v>2.6925824035672519</v>
       </c>
       <c r="AO214" s="3">
         <v>1</v>
       </c>
       <c r="AP214" s="13">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="AQ214" s="13">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AR214" s="19">
         <f t="shared" si="15"/>
-        <v>2.6925824035672519</v>
+        <v>8.1394102980498531</v>
       </c>
     </row>
     <row r="215" spans="1:44" ht="25.05" customHeight="1">

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027A44B-5406-4831-B9F4-9FBCD7A195E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F5616-7A96-403B-89FF-CF69B4B8499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,6 +1123,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1151,7 +1158,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1159,13 +1166,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1200,14 +1200,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -32253,7 +32253,7 @@
         <v>144</v>
       </c>
       <c r="AD195" s="14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AE195" s="18">
         <v>7</v>
@@ -33058,7 +33058,7 @@
         <v>144</v>
       </c>
       <c r="AD202" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AE202" s="18">
         <v>26</v>
@@ -39278,17 +39278,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N257:Z257">
-    <cfRule type="expression" dxfId="23" priority="105">
-      <formula>$M257="nEW"</formula>
+    <cfRule type="expression" dxfId="23" priority="108">
+      <formula>$M257="nFS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="106">
+    <cfRule type="expression" dxfId="22" priority="107">
+      <formula>$M257="n11M"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="106">
       <formula>$M257="EW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="107">
-      <formula>$M257="n11M"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="108">
-      <formula>$M257="nFS"</formula>
+    <cfRule type="expression" dxfId="20" priority="105">
+      <formula>$M257="nEW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="109">
       <formula>$M257="nE"</formula>
@@ -39312,11 +39312,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA254">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="notEqual">
+    <cfRule type="expression" dxfId="13" priority="54">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="notEqual">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="54">
-      <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA257">
@@ -39336,11 +39336,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE254">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$B2&lt;&gt;"FCN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($L2="ET", $D2="FCN")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$B2&lt;&gt;"FCN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL254">
@@ -39349,19 +39349,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AP254">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="notEqual">
+    <cfRule type="expression" dxfId="4" priority="21">
+      <formula>$AN2&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="notEqual">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="21">
-      <formula>$AN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AT254">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
+    <cfRule type="expression" dxfId="2" priority="55">
+      <formula>$AR2&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>$AR2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F5616-7A96-403B-89FF-CF69B4B8499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF78DD-8FE0-47E9-A97E-90223C207058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,13 +1123,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1158,7 +1151,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1166,6 +1159,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1200,14 +1200,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -32760,7 +32760,7 @@
         <v>21.272047386182649</v>
       </c>
       <c r="AN199" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO199" s="13">
         <v>-6.5</v>
@@ -33795,11 +33795,17 @@
         <v>1</v>
       </c>
       <c r="AR208" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU208" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="AS208" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AT208" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU208" s="19">
         <f t="shared" si="15"/>
-        <v/>
+        <v>7.433034373659253</v>
       </c>
     </row>
     <row r="209" spans="1:47" ht="25.05" customHeight="1">
@@ -39278,17 +39284,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N257:Z257">
-    <cfRule type="expression" dxfId="23" priority="108">
-      <formula>$M257="nFS"</formula>
+    <cfRule type="expression" dxfId="23" priority="105">
+      <formula>$M257="nEW"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="107">
+    <cfRule type="expression" dxfId="22" priority="106">
+      <formula>$M257="EW"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="107">
       <formula>$M257="n11M"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="106">
-      <formula>$M257="EW"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="105">
-      <formula>$M257="nEW"</formula>
+    <cfRule type="expression" dxfId="20" priority="108">
+      <formula>$M257="nFS"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="109">
       <formula>$M257="nE"</formula>
@@ -39312,11 +39318,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA254">
-    <cfRule type="expression" dxfId="13" priority="54">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="54">
       <formula>#REF!=1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="notEqual">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA257">
@@ -39336,11 +39342,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE254">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND($L2="ET", $D2="FCN")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$B2&lt;&gt;"FCN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>AND($L2="ET", $D2="FCN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL254">
@@ -39349,19 +39355,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AP254">
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>$AN2&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="notEqual">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AT254">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>$AR2&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF78DD-8FE0-47E9-A97E-90223C207058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D5D497-8400-444E-B088-637209857246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="188">
   <si>
     <t>Tor</t>
   </si>
@@ -3392,10 +3392,10 @@
     <tableColumn id="7" xr3:uid="{1F4B0B22-113B-4B13-B735-0BBD579317AF}" name="1. HZ" dataDxfId="124"/>
     <tableColumn id="8" xr3:uid="{12077EEE-5CEB-4092-B79D-C908B22B2779}" name="2. HZ" dataDxfId="123"/>
     <tableColumn id="13" xr3:uid="{9623CA39-28F7-4980-A88A-3573C5D164D8}" name="TH" dataDxfId="122">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{C91559F3-290E-4254-BCA6-0153E99BEA95}" name="TG" dataDxfId="121">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{20A97A80-E72B-4108-88BD-336F6FD51B46}" name="PH" dataDxfId="120">
       <calculatedColumnFormula>IF($A2="","",IF($G2&gt;$H2,3,IF($G2=$H2,1,IF($G2&lt;$H2,0,""))))</calculatedColumnFormula>
@@ -3437,8 +3437,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU254" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
-  <autoFilter ref="A1:AU254" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU282" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:AU282" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
   <tableColumns count="47">
     <tableColumn id="3" xr3:uid="{0676AC04-BF24-449C-85E1-9A2476826D3A}" name="SID" dataDxfId="101"/>
     <tableColumn id="4" xr3:uid="{115800A1-176E-47B9-8A68-56625F9DD647}" name="TID" dataDxfId="100"/>
@@ -3875,11 +3875,11 @@
         <v>40</v>
       </c>
       <c r="G2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$C2,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A2,Abschlüsse!$B$2:$B$254,$D2,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I2" s="18">
@@ -3911,11 +3911,11 @@
         <v>43</v>
       </c>
       <c r="G3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$C3,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$C3,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$C3,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$C3,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$D3,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A3,Abschlüsse!$B$2:$B$254,$D3,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$D3,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$D3,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I3" s="18">
@@ -3947,11 +3947,11 @@
         <v>40</v>
       </c>
       <c r="G4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$C4,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$C4,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$C4,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$C4,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$D4,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A4,Abschlüsse!$B$2:$B$254,$D4,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$D4,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$D4,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
@@ -3983,11 +3983,11 @@
         <v>43</v>
       </c>
       <c r="G5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$C5,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$C5,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$C5,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$C5,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$D5,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A5,Abschlüsse!$B$2:$B$254,$D5,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$D5,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$D5,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I5" s="18">
@@ -4019,11 +4019,11 @@
         <v>42</v>
       </c>
       <c r="G6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$C6,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$C6,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$C6,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$C6,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$D6,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A6,Abschlüsse!$B$2:$B$254,$D6,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$D6,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$D6,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I6" s="18">
@@ -4055,11 +4055,11 @@
         <v>45</v>
       </c>
       <c r="G7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$C7,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$C7,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$C7,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$C7,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$D7,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A7,Abschlüsse!$B$2:$B$254,$D7,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$D7,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$D7,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I7" s="18">
@@ -4091,11 +4091,11 @@
         <v>45</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$C8,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$C8,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$C8,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$C8,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$D8,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A8,Abschlüsse!$B$2:$B$254,$D8,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$D8,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$D8,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I8" s="18">
@@ -4127,11 +4127,11 @@
         <v>46</v>
       </c>
       <c r="G9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$C9,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$C9,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$C9,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$C9,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$D9,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A9,Abschlüsse!$B$2:$B$254,$D9,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$D9,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$D9,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I9" s="18">
@@ -4163,20 +4163,20 @@
         <v>44</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$C10,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$C10,Abschlüsse!$L$2:$L$254,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$C10,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$C10,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <v>2</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$D10,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A10,Abschlüsse!$B$2:$B$254,$D10,Abschlüsse!$L$2:$L$254,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$D10,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$D10,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <v>4</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.05" customHeight="1">
@@ -4199,11 +4199,11 @@
         <v>44</v>
       </c>
       <c r="G11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$C11,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$C11,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$C11,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$C11,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$D11,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A11,Abschlüsse!$B$2:$B$254,$D11,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$D11,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$D11,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I11" s="18">
@@ -4235,11 +4235,11 @@
         <v>46</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$C12,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$C12,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$C12,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$C12,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$D12,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A12,Abschlüsse!$B$2:$B$254,$D12,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$D12,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$D12,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I12" s="18">
@@ -4271,11 +4271,11 @@
         <v>45</v>
       </c>
       <c r="G13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$C13,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$C13,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$C13,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$C13,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$D13,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A13,Abschlüsse!$B$2:$B$254,$D13,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$D13,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$D13,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I13" s="18">
@@ -4307,11 +4307,11 @@
         <v>44</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$C14,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$C14,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$C14,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$C14,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>1</v>
       </c>
       <c r="H14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$D14,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A14,Abschlüsse!$B$2:$B$254,$D14,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$D14,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$D14,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I14" s="18">
@@ -4343,11 +4343,11 @@
         <v>45</v>
       </c>
       <c r="G15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$C15,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$C15,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$C15,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$C15,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$D15,Abschlüsse!$L$2:$L$254,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$254,$A15,Abschlüsse!$B$2:$B$254,$D15,Abschlüsse!$L$2:$L$254,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$D15,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$D15,Abschlüsse!$L$2:$L$282,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I15" s="18">
@@ -9178,7 +9178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV256"/>
+  <dimension ref="A1:AV284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -32144,11 +32144,11 @@
         <v>15</v>
       </c>
       <c r="AH194" s="19">
-        <f t="shared" ref="AH194:AH225" si="12">IF($L194="ET","",IF($AF194&gt;3.66,SQRT($AG194^2+($AF194-(7.32/2))^2),IF($AF194&lt;-3.66,SQRT($AG194^2+($AF194+(7.32/2))^2),$AG194)))</f>
+        <f t="shared" ref="AH194:AH253" si="12">IF($L194="ET","",IF($AF194&gt;3.66,SQRT($AG194^2+($AF194-(7.32/2))^2),IF($AF194&lt;-3.66,SQRT($AG194^2+($AF194+(7.32/2))^2),$AG194)))</f>
         <v>15</v>
       </c>
       <c r="AI194" s="19">
-        <f t="shared" ref="AI194:AI225" si="13">IF($L194="ET","",IF(DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))))</f>
+        <f t="shared" ref="AI194:AI253" si="13">IF($L194="ET","",IF(DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))))</f>
         <v>27.396825673048827</v>
       </c>
       <c r="AJ194" s="2" t="s">
@@ -33209,14 +33209,14 @@
         <v>6.5</v>
       </c>
       <c r="AQ203" s="19">
-        <f t="shared" ref="AQ203:AQ225" si="14">IF(AN203=0,"",SQRT(($AF203-$AO203)^2+($AG203-$AP203)^2))</f>
+        <f t="shared" ref="AQ203:AQ253" si="14">IF(AN203=0,"",SQRT(($AF203-$AO203)^2+($AG203-$AP203)^2))</f>
         <v>2.5</v>
       </c>
       <c r="AR203" s="3">
         <v>0</v>
       </c>
       <c r="AU203" s="19" t="str">
-        <f t="shared" ref="AU203:AU225" si="15">IF(AR203=0,"",SQRT(($AF203-$AS203)^2+($AG203-$AT203)^2))</f>
+        <f t="shared" ref="AU203:AU253" si="15">IF(AR203=0,"",SQRT(($AF203-$AS203)^2+($AG203-$AT203)^2))</f>
         <v/>
       </c>
     </row>
@@ -35786,10 +35786,10 @@
     </row>
     <row r="226" spans="1:47" ht="25.05" customHeight="1">
       <c r="A226" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C226" s="17" t="str">
         <f>IF($A226="","",IF(VLOOKUP($A226,Spiele!$A$2:$D$15,3,FALSE)=$B226,"H","G"))</f>
@@ -35797,14 +35797,14 @@
       </c>
       <c r="D226" s="17" t="str">
         <f>IF($B226="","",IF(VLOOKUP($A226,Spiele!$A$2:$F$15,3,FALSE)=$B226,VLOOKUP($A226,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A226,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>UHG</v>
       </c>
       <c r="E226" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A226,$A226,$B$2:$B226,$B226,$L$2:$L226,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F226" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G226" s="12">
         <v>1</v>
@@ -35825,17 +35825,19 @@
         <v>1</v>
       </c>
       <c r="L226" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O226" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="O226" s="17">
+        <v>26</v>
+      </c>
       <c r="AA226" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB226" s="17" t="s">
         <v>149</v>
@@ -35844,69 +35846,67 @@
         <v>150</v>
       </c>
       <c r="AD226" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE226" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE226" s="18">
+        <v>20</v>
+      </c>
       <c r="AF226" s="13">
-        <v>-2</v>
+        <v>-12.5</v>
       </c>
       <c r="AG226" s="13">
-        <v>17.5</v>
+        <v>32.5</v>
       </c>
       <c r="AH226" s="19">
-        <f t="shared" ref="AH226:AH254" si="16">IF($L226="ET","",IF($AF226&gt;3.66,SQRT($AG226^2+($AF226-(7.32/2))^2),IF($AF226&lt;-3.66,SQRT($AG226^2+($AF226+(7.32/2))^2),$AG226)))</f>
-        <v>17.5</v>
+        <f t="shared" si="12"/>
+        <v>33.680789776963366</v>
       </c>
       <c r="AI226" s="19">
-        <f t="shared" ref="AI226:AI254" si="17">IF($L226="ET","",IF(DEGREES(ATAN((7.32*$AG226)/($AG226^2+$AF226^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG226)/($AG226^2+$AF226^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG226)/($AG226^2+$AF226^2-(7.32/2)^2)))))</f>
-        <v>23.341389828691302</v>
+        <f t="shared" si="13"/>
+        <v>11.221651727219296</v>
       </c>
       <c r="AJ226" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK226" s="13">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AL226" s="13">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM226" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF226-$AK226)^2+($AG226-$AL226)^2))</f>
-        <v>17.066048165876012</v>
+        <v>31.016124838541646</v>
       </c>
       <c r="AN226" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO226" s="13">
-        <v>-2.5</v>
-      </c>
-      <c r="AP226" s="13">
-        <v>17</v>
-      </c>
-      <c r="AQ226" s="19">
-        <f t="shared" ref="AQ226:AQ254" si="18">IF(AN226=0,"",SQRT(($AF226-$AO226)^2+($AG226-$AP226)^2))</f>
-        <v>0.70710678118654757</v>
+        <v>0</v>
+      </c>
+      <c r="AO226" s="13"/>
+      <c r="AP226" s="13"/>
+      <c r="AQ226" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR226" s="3">
         <v>2</v>
       </c>
       <c r="AS226" s="13">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="AT226" s="13">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AU226" s="19">
-        <f t="shared" ref="AU226:AU254" si="19">IF(AR226=0,"",SQRT(($AF226-$AS226)^2+($AG226-$AT226)^2))</f>
-        <v>3.5</v>
+        <f t="shared" si="15"/>
+        <v>6.9641941385920596</v>
       </c>
     </row>
     <row r="227" spans="1:47" ht="25.05" customHeight="1">
       <c r="A227" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C227" s="17" t="str">
         <f>IF($A227="","",IF(VLOOKUP($A227,Spiele!$A$2:$D$15,3,FALSE)=$B227,"H","G"))</f>
@@ -35914,14 +35914,14 @@
       </c>
       <c r="D227" s="17" t="str">
         <f>IF($B227="","",IF(VLOOKUP($A227,Spiele!$A$2:$F$15,3,FALSE)=$B227,VLOOKUP($A227,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A227,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>UHG</v>
       </c>
       <c r="E227" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A227,$A227,$B$2:$B227,$B227,$L$2:$L227,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F227" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G227" s="12">
         <v>1</v>
@@ -35939,57 +35939,67 @@
         <v>0</v>
       </c>
       <c r="K227" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L227" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O227" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="O227" s="17">
+        <v>7</v>
+      </c>
+      <c r="P227" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>10</v>
+      </c>
       <c r="AA227" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB227" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC227" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD227" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE227" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE227" s="18">
+        <v>4</v>
+      </c>
       <c r="AF227" s="13">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="AG227" s="13">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AH227" s="19">
-        <f t="shared" si="16"/>
-        <v>17.601295406872758</v>
+        <f t="shared" si="12"/>
+        <v>26.055241315328477</v>
       </c>
       <c r="AI227" s="19">
-        <f t="shared" si="17"/>
-        <v>17.011080950867086</v>
+        <f t="shared" si="13"/>
+        <v>14.025120781171355</v>
       </c>
       <c r="AJ227" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK227" s="13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL227" s="13">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AM227" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF227-$AK227)^2+($AG227-$AL227)^2))</f>
-        <v>17.613914953808536</v>
+        <v>22.38861317723811</v>
       </c>
       <c r="AN227" s="3">
         <v>0</v>
@@ -35997,44 +36007,44 @@
       <c r="AO227" s="13"/>
       <c r="AP227" s="13"/>
       <c r="AQ227" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR227" s="3">
         <v>2</v>
       </c>
       <c r="AS227" s="13">
-        <v>-10.5</v>
+        <v>10.5</v>
       </c>
       <c r="AT227" s="13">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AU227" s="19">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
+        <f t="shared" si="15"/>
+        <v>3.0413812651491097</v>
       </c>
     </row>
     <row r="228" spans="1:47" ht="25.05" customHeight="1">
       <c r="A228" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="17" t="str">
         <f>IF($A228="","",IF(VLOOKUP($A228,Spiele!$A$2:$D$15,3,FALSE)=$B228,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D228" s="17" t="str">
         <f>IF($B228="","",IF(VLOOKUP($A228,Spiele!$A$2:$F$15,3,FALSE)=$B228,VLOOKUP($A228,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A228,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E228" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A228,$A228,$B$2:$B228,$B228,$L$2:$L228,"&lt;&gt;ET"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F228" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G228" s="12">
         <v>1</v>
@@ -36052,95 +36062,97 @@
         <v>0</v>
       </c>
       <c r="K228" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L228" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O228" s="17">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O228" s="17"/>
       <c r="AA228" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB228" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC228" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD228" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE228" s="18">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AF228" s="13">
-        <v>-3.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG228" s="13">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AH228" s="19">
-        <f t="shared" si="16"/>
-        <v>11.5</v>
+        <f t="shared" si="12"/>
+        <v>26.842980460448128</v>
       </c>
       <c r="AI228" s="19">
-        <f t="shared" si="17"/>
-        <v>32.703859314557576</v>
+        <f t="shared" si="13"/>
+        <v>11.577087390093457</v>
       </c>
       <c r="AJ228" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK228" s="13">
-        <v>-1.5</v>
+        <v>3</v>
       </c>
       <c r="AL228" s="13">
         <v>3.5</v>
       </c>
       <c r="AM228" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF228-$AK228)^2+($AG228-$AL228)^2))</f>
-        <v>8.2462112512353212</v>
+        <v>24.300205760445735</v>
       </c>
       <c r="AN228" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO228" s="13"/>
-      <c r="AP228" s="13"/>
-      <c r="AQ228" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO228" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AP228" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AQ228" s="19">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
       <c r="AR228" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS228" s="13">
-        <v>-3.5</v>
+        <v>14</v>
       </c>
       <c r="AT228" s="13">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
       <c r="AU228" s="19">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>4.3011626335213133</v>
       </c>
     </row>
     <row r="229" spans="1:47" ht="25.05" customHeight="1">
       <c r="A229" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C229" s="17" t="str">
         <f>IF($A229="","",IF(VLOOKUP($A229,Spiele!$A$2:$D$15,3,FALSE)=$B229,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D229" s="17" t="str">
         <f>IF($B229="","",IF(VLOOKUP($A229,Spiele!$A$2:$F$15,3,FALSE)=$B229,VLOOKUP($A229,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A229,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -36148,10 +36160,10 @@
       </c>
       <c r="E229" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A229,$A229,$B$2:$B229,$B229,$L$2:$L229,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F229" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G229" s="12">
         <v>1</v>
@@ -36169,87 +36181,91 @@
         <v>0</v>
       </c>
       <c r="K229" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L229" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O229" s="17"/>
       <c r="AA229" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB229" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC229" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD229" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE229" s="18"/>
       <c r="AF229" s="13">
-        <v>-0.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG229" s="13">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="AH229" s="19">
-        <f t="shared" si="16"/>
-        <v>15.5</v>
+        <f t="shared" si="12"/>
+        <v>11.922482962873127</v>
       </c>
       <c r="AI229" s="19">
-        <f t="shared" si="17"/>
-        <v>26.546439371443093</v>
+        <f t="shared" si="13"/>
+        <v>15.806694402996305</v>
       </c>
       <c r="AJ229" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK229" s="13">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="AL229" s="13">
         <v>0.5</v>
       </c>
       <c r="AM229" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF229-$AK229)^2+($AG229-$AL229)^2))</f>
-        <v>15.033296378372908</v>
+        <v>11.715374513859981</v>
       </c>
       <c r="AN229" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO229" s="13"/>
-      <c r="AP229" s="13"/>
-      <c r="AQ229" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO229" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AP229" s="13">
+        <v>11</v>
+      </c>
+      <c r="AQ229" s="19">
+        <f t="shared" si="14"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="AR229" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS229" s="13">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AT229" s="13">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AU229" s="19">
-        <f t="shared" si="19"/>
-        <v>6.0207972893961479</v>
+        <f t="shared" si="15"/>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="230" spans="1:47" ht="25.05" customHeight="1">
       <c r="A230" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C230" s="17" t="str">
         <f>IF($A230="","",IF(VLOOKUP($A230,Spiele!$A$2:$D$15,3,FALSE)=$B230,"H","G"))</f>
@@ -36257,14 +36273,14 @@
       </c>
       <c r="D230" s="17" t="str">
         <f>IF($B230="","",IF(VLOOKUP($A230,Spiele!$A$2:$F$15,3,FALSE)=$B230,VLOOKUP($A230,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A230,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E230" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A230,$A230,$B$2:$B230,$B230,$L$2:$L230,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F230" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G230" s="12">
         <v>1</v>
@@ -36282,98 +36298,85 @@
         <v>0</v>
       </c>
       <c r="K230" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L230" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O230" s="17">
-        <v>9</v>
-      </c>
-      <c r="P230" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q230" s="2">
-        <v>7</v>
-      </c>
-      <c r="R230" s="2">
-        <v>23</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O230" s="17"/>
       <c r="AA230" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB230" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AC230" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD230" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE230" s="18">
-        <v>7</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AE230" s="18"/>
       <c r="AF230" s="13">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AG230" s="13">
         <v>7.5</v>
       </c>
       <c r="AH230" s="19">
-        <f t="shared" si="16"/>
-        <v>13.595793467098565</v>
+        <f t="shared" si="12"/>
+        <v>8.0197007425464459</v>
       </c>
       <c r="AI230" s="19">
-        <f t="shared" si="17"/>
-        <v>11.583042211219654</v>
+        <f t="shared" si="13"/>
+        <v>32.825658781510008</v>
       </c>
       <c r="AJ230" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK230" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL230" s="13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM230" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF230-$AK230)^2+($AG230-$AL230)^2))</f>
-        <v>12.529964086141668</v>
+        <v>8.9022469073824286</v>
       </c>
       <c r="AN230" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO230" s="13">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP230" s="13">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ230" s="19">
-        <f t="shared" si="18"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AR230" s="3">
         <v>0</v>
       </c>
       <c r="AU230" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:47" ht="25.05" customHeight="1">
       <c r="A231" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C231" s="17" t="str">
         <f>IF($A231="","",IF(VLOOKUP($A231,Spiele!$A$2:$D$15,3,FALSE)=$B231,"H","G"))</f>
@@ -36381,14 +36384,14 @@
       </c>
       <c r="D231" s="17" t="str">
         <f>IF($B231="","",IF(VLOOKUP($A231,Spiele!$A$2:$F$15,3,FALSE)=$B231,VLOOKUP($A231,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A231,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>UHG</v>
       </c>
       <c r="E231" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A231,$A231,$B$2:$B231,$B231,$L$2:$L231,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F231" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G231" s="12">
         <v>1</v>
@@ -36399,98 +36402,55 @@
       </c>
       <c r="I231" s="17" t="str">
         <f>IF(OR($L231="Tor",$L231="ET"),_xlfn.IFNA(IF(VLOOKUP($A231,Spiele!$A$2:$C$15,3,FALSE)=$B231,COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,$B231,$A$2:$A231,$A231)&amp;":"&amp;COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231),COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,"&lt;&gt;"&amp;$B231,$A$2:$A231,$A231)&amp;":"&amp;COUNTIFS($L$2:$L231,"Tor",$B$2:$B231,$B231,$A$2:$A231,$A231)+COUNTIFS($L$2:$L231,"ET",$B$2:$B231,$B231,$A$2:$A231,$A231)),""),"")</f>
-        <v/>
+        <v>0:1</v>
       </c>
       <c r="J231" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A231,Spiele!$A$2:$D$15,3,FALSE)=$B231,(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,$B231,$A$1:$A230,$A231))-(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)),(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,$B231,$A$1:$A230,$A231))-(COUNTIFS($L$1:$L230,"Tor",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231)+COUNTIFS($L$1:$L230,"ET",$B$1:$B230,"&lt;&gt;"&amp;$B231,$A$1:$A230,$A231))),"")</f>
         <v>0</v>
       </c>
       <c r="K231" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L231" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M231" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N231" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O231" s="17"/>
-      <c r="AA231" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB231" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC231" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD231" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="AC231" s="14"/>
+      <c r="AD231" s="14"/>
       <c r="AE231" s="18"/>
-      <c r="AF231" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="AG231" s="13">
-        <v>13</v>
-      </c>
-      <c r="AH231" s="19">
-        <f t="shared" si="16"/>
-        <v>13.555279414309393</v>
-      </c>
-      <c r="AI231" s="19">
-        <f t="shared" si="17"/>
-        <v>24.188491715950388</v>
-      </c>
-      <c r="AJ231" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK231" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL231" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AM231" s="19">
+      <c r="AH231" s="19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AI231" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AM231" s="19" t="str">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF231-$AK231)^2+($AG231-$AL231)^2))</f>
-        <v>14.089002803605371</v>
-      </c>
-      <c r="AN231" s="3">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AO231" s="13"/>
       <c r="AP231" s="13"/>
       <c r="AQ231" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AR231" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS231" s="13">
-        <v>7</v>
-      </c>
-      <c r="AT231" s="13">
-        <v>12</v>
-      </c>
-      <c r="AU231" s="19">
-        <f t="shared" si="19"/>
-        <v>1.1180339887498949</v>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AU231" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="232" spans="1:47" ht="25.05" customHeight="1">
       <c r="A232" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C232" s="17" t="str">
         <f>IF($A232="","",IF(VLOOKUP($A232,Spiele!$A$2:$D$15,3,FALSE)=$B232,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D232" s="17" t="str">
         <f>IF($B232="","",IF(VLOOKUP($A232,Spiele!$A$2:$F$15,3,FALSE)=$B232,VLOOKUP($A232,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A232,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -36498,10 +36458,10 @@
       </c>
       <c r="E232" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A232,$A232,$B$2:$B232,$B232,$L$2:$L232,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F232" s="11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G232" s="12">
         <v>1</v>
@@ -36516,23 +36476,23 @@
       </c>
       <c r="J232" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A232,Spiele!$A$2:$D$15,3,FALSE)=$B232,(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,$B232,$A$1:$A231,$A232))-(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)),(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,$B232,$A$1:$A231,$A232))-(COUNTIFS($L$1:$L231,"Tor",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232)+COUNTIFS($L$1:$L231,"ET",$B$1:$B231,"&lt;&gt;"&amp;$B232,$A$1:$A231,$A232))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K232" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L232" s="17" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="O232" s="17"/>
       <c r="AA232" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AB232" s="17" t="s">
         <v>149</v>
@@ -36541,73 +36501,73 @@
         <v>150</v>
       </c>
       <c r="AD232" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE232" s="18"/>
       <c r="AF232" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG232" s="13">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AH232" s="19">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" si="12"/>
+        <v>14.517768423556012</v>
       </c>
       <c r="AI232" s="19">
-        <f t="shared" si="17"/>
-        <v>21.750134253188115</v>
+        <f t="shared" si="13"/>
+        <v>21.579309622286836</v>
       </c>
       <c r="AJ232" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK232" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL232" s="13">
         <v>0.5</v>
       </c>
       <c r="AM232" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF232-$AK232)^2+($AG232-$AL232)^2))</f>
-        <v>18.527007313648905</v>
+        <v>14.534441853748634</v>
       </c>
       <c r="AN232" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO232" s="13">
-        <v>-1.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP232" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ232" s="19">
-        <f t="shared" si="18"/>
-        <v>2.6925824035672519</v>
+        <f t="shared" si="14"/>
+        <v>1.5811388300841898</v>
       </c>
       <c r="AR232" s="3">
         <v>2</v>
       </c>
       <c r="AS232" s="13">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="AT232" s="13">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AU232" s="19">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>2.0615528128088303</v>
       </c>
     </row>
     <row r="233" spans="1:47" ht="25.05" customHeight="1">
       <c r="A233" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C233" s="17" t="str">
         <f>IF($A233="","",IF(VLOOKUP($A233,Spiele!$A$2:$D$15,3,FALSE)=$B233,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D233" s="17" t="str">
         <f>IF($B233="","",IF(VLOOKUP($A233,Spiele!$A$2:$F$15,3,FALSE)=$B233,VLOOKUP($A233,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A233,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -36615,10 +36575,10 @@
       </c>
       <c r="E233" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A233,$A233,$B$2:$B233,$B233,$L$2:$L233,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F233" s="11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G233" s="12">
         <v>1</v>
@@ -36633,94 +36593,90 @@
       </c>
       <c r="J233" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A233,Spiele!$A$2:$D$15,3,FALSE)=$B233,(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,$B233,$A$1:$A232,$A233))-(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)),(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,$B233,$A$1:$A232,$A233))-(COUNTIFS($L$1:$L232,"Tor",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233)+COUNTIFS($L$1:$L232,"ET",$B$1:$B232,"&lt;&gt;"&amp;$B233,$A$1:$A232,$A233))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K233" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L233" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="O233" s="17"/>
       <c r="AA233" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB233" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC233" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD233" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE233" s="18"/>
       <c r="AF233" s="13">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG233" s="13">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH233" s="19">
-        <f t="shared" si="16"/>
-        <v>14.775506759498978</v>
+        <f t="shared" si="12"/>
+        <v>22.784766841027803</v>
       </c>
       <c r="AI233" s="19">
-        <f t="shared" si="17"/>
-        <v>23.936746455580142</v>
+        <f t="shared" si="13"/>
+        <v>14.750363847165703</v>
       </c>
       <c r="AJ233" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK233" s="13">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AL233" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM233" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF233-$AK233)^2+($AG233-$AL233)^2))</f>
-        <v>15.231546211727817</v>
+        <v>22.360679774997898</v>
       </c>
       <c r="AN233" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO233" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP233" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="AQ233" s="19">
-        <f t="shared" si="18"/>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="AO233" s="13"/>
+      <c r="AP233" s="13"/>
+      <c r="AQ233" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR233" s="3">
         <v>2</v>
       </c>
       <c r="AS233" s="13">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="AT233" s="13">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AU233" s="19">
-        <f t="shared" si="19"/>
-        <v>1.1180339887498949</v>
+        <f t="shared" si="15"/>
+        <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="234" spans="1:47" ht="25.05" customHeight="1">
       <c r="A234" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C234" s="17" t="str">
         <f>IF($A234="","",IF(VLOOKUP($A234,Spiele!$A$2:$D$15,3,FALSE)=$B234,"H","G"))</f>
@@ -36728,14 +36684,14 @@
       </c>
       <c r="D234" s="17" t="str">
         <f>IF($B234="","",IF(VLOOKUP($A234,Spiele!$A$2:$F$15,3,FALSE)=$B234,VLOOKUP($A234,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A234,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E234" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A234,$A234,$B$2:$B234,$B234,$L$2:$L234,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F234" s="11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G234" s="12">
         <v>1</v>
@@ -36750,13 +36706,13 @@
       </c>
       <c r="J234" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A234,Spiele!$A$2:$D$15,3,FALSE)=$B234,(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,$B234,$A$1:$A233,$A234))-(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)),(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,$B234,$A$1:$A233,$A234))-(COUNTIFS($L$1:$L233,"Tor",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234)+COUNTIFS($L$1:$L233,"ET",$B$1:$B233,"&lt;&gt;"&amp;$B234,$A$1:$A233,$A234))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K234" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L234" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M234" s="2" t="s">
         <v>163</v>
@@ -36764,11 +36720,9 @@
       <c r="N234" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O234" s="17">
-        <v>7</v>
-      </c>
+      <c r="O234" s="17"/>
       <c r="AA234" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB234" s="17" t="s">
         <v>149</v>
@@ -36777,71 +36731,65 @@
         <v>150</v>
       </c>
       <c r="AD234" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE234" s="18">
-        <v>8</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AE234" s="18"/>
       <c r="AF234" s="13">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG234" s="13">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH234" s="19">
-        <f t="shared" si="16"/>
-        <v>14.524310654898565</v>
+        <f t="shared" si="12"/>
+        <v>21.441912228157264</v>
       </c>
       <c r="AI234" s="19">
-        <f t="shared" si="17"/>
-        <v>26.053510457112758</v>
+        <f t="shared" si="13"/>
+        <v>14.100633260461773</v>
       </c>
       <c r="AJ234" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK234" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AL234" s="13">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM234" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF234-$AK234)^2+($AG234-$AL234)^2))</f>
-        <v>11.401754250991379</v>
+        <v>21.914607000811127</v>
       </c>
       <c r="AN234" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO234" s="13">
-        <v>7</v>
-      </c>
-      <c r="AP234" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="AQ234" s="19">
-        <f t="shared" si="18"/>
-        <v>3.905124837953327</v>
+        <v>0</v>
+      </c>
+      <c r="AO234" s="13"/>
+      <c r="AP234" s="13"/>
+      <c r="AQ234" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR234" s="3">
         <v>2</v>
       </c>
       <c r="AS234" s="13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AT234" s="13">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AU234" s="19">
-        <f t="shared" si="19"/>
-        <v>4.0311288741492746</v>
+        <f t="shared" si="15"/>
+        <v>2.1213203435596424</v>
       </c>
     </row>
     <row r="235" spans="1:47" ht="25.05" customHeight="1">
       <c r="A235" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C235" s="17" t="str">
         <f>IF($A235="","",IF(VLOOKUP($A235,Spiele!$A$2:$D$15,3,FALSE)=$B235,"H","G"))</f>
@@ -36849,14 +36797,14 @@
       </c>
       <c r="D235" s="17" t="str">
         <f>IF($B235="","",IF(VLOOKUP($A235,Spiele!$A$2:$F$15,3,FALSE)=$B235,VLOOKUP($A235,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A235,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E235" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A235,$A235,$B$2:$B235,$B235,$L$2:$L235,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F235" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G235" s="12">
         <v>1</v>
@@ -36871,62 +36819,60 @@
       </c>
       <c r="J235" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A235,Spiele!$A$2:$D$15,3,FALSE)=$B235,(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,$B235,$A$1:$A234,$A235))-(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)),(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,$B235,$A$1:$A234,$A235))-(COUNTIFS($L$1:$L234,"Tor",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235)+COUNTIFS($L$1:$L234,"ET",$B$1:$B234,"&lt;&gt;"&amp;$B235,$A$1:$A234,$A235))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K235" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L235" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="O235" s="17"/>
       <c r="AA235" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AB235" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC235" s="14" t="s">
         <v>144</v>
       </c>
       <c r="AD235" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE235" s="18">
-        <v>6</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AE235" s="18"/>
       <c r="AF235" s="13">
-        <v>-6.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AG235" s="13">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH235" s="19">
-        <f t="shared" si="16"/>
-        <v>16.742628228566744</v>
+        <f t="shared" si="12"/>
+        <v>6.5</v>
       </c>
       <c r="AI235" s="19">
-        <f t="shared" si="17"/>
-        <v>21.856872591143812</v>
+        <f t="shared" si="13"/>
+        <v>56.826212548666831</v>
       </c>
       <c r="AJ235" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK235" s="13">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AL235" s="13">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AM235" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF235-$AK235)^2+($AG235-$AL235)^2))</f>
-        <v>15.337861650177967</v>
+        <v>6.0827625302982193</v>
       </c>
       <c r="AN235" s="3">
         <v>1</v>
@@ -36935,32 +36881,32 @@
         <v>-3</v>
       </c>
       <c r="AP235" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AQ235" s="19">
-        <f t="shared" si="18"/>
-        <v>4.3011626335213133</v>
+        <f t="shared" si="14"/>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AR235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS235" s="13">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="AT235" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU235" s="19">
-        <f t="shared" si="19"/>
-        <v>11.423659658795863</v>
+        <f t="shared" si="15"/>
+        <v>4.6097722286464435</v>
       </c>
     </row>
     <row r="236" spans="1:47" ht="25.05" customHeight="1">
       <c r="A236" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C236" s="17" t="str">
         <f>IF($A236="","",IF(VLOOKUP($A236,Spiele!$A$2:$D$15,3,FALSE)=$B236,"H","G"))</f>
@@ -36968,14 +36914,14 @@
       </c>
       <c r="D236" s="17" t="str">
         <f>IF($B236="","",IF(VLOOKUP($A236,Spiele!$A$2:$F$15,3,FALSE)=$B236,VLOOKUP($A236,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A236,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E236" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A236,$A236,$B$2:$B236,$B236,$L$2:$L236,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F236" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G236" s="12">
         <v>1</v>
@@ -36986,53 +36932,51 @@
       </c>
       <c r="I236" s="17" t="str">
         <f>IF(OR($L236="Tor",$L236="ET"),_xlfn.IFNA(IF(VLOOKUP($A236,Spiele!$A$2:$C$15,3,FALSE)=$B236,COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,$B236,$A$2:$A236,$A236)&amp;":"&amp;COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236),COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,"&lt;&gt;"&amp;$B236,$A$2:$A236,$A236)&amp;":"&amp;COUNTIFS($L$2:$L236,"Tor",$B$2:$B236,$B236,$A$2:$A236,$A236)+COUNTIFS($L$2:$L236,"ET",$B$2:$B236,$B236,$A$2:$A236,$A236)),""),"")</f>
-        <v/>
+        <v>1:1</v>
       </c>
       <c r="J236" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A236,Spiele!$A$2:$D$15,3,FALSE)=$B236,(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,$B236,$A$1:$A235,$A236))-(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)),(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,$B236,$A$1:$A235,$A236))-(COUNTIFS($L$1:$L235,"Tor",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236)+COUNTIFS($L$1:$L235,"ET",$B$1:$B235,"&lt;&gt;"&amp;$B236,$A$1:$A235,$A236))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K236" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L236" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="O236" s="17"/>
       <c r="AA236" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AB236" s="17" t="s">
         <v>149</v>
       </c>
       <c r="AC236" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD236" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE236" s="18">
-        <v>20</v>
-      </c>
+      <c r="AE236" s="18"/>
       <c r="AF236" s="13">
-        <v>-13.5</v>
+        <v>-1</v>
       </c>
       <c r="AG236" s="13">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="AH236" s="19">
-        <f t="shared" si="16"/>
-        <v>23.644779550674606</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="AI236" s="19">
-        <f t="shared" si="17"/>
-        <v>14.002393253988416</v>
+        <f t="shared" si="13"/>
+        <v>43.839454439268671</v>
       </c>
       <c r="AJ236" s="2" t="s">
         <v>146</v>
@@ -37041,11 +36985,11 @@
         <v>-0.5</v>
       </c>
       <c r="AL236" s="13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AM236" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF236-$AK236)^2+($AG236-$AL236)^2))</f>
-        <v>22.610838109190027</v>
+        <v>6.5192024052026492</v>
       </c>
       <c r="AN236" s="3">
         <v>0</v>
@@ -37053,29 +36997,29 @@
       <c r="AO236" s="13"/>
       <c r="AP236" s="13"/>
       <c r="AQ236" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR236" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS236" s="13">
-        <v>-12</v>
+        <v>-0.5</v>
       </c>
       <c r="AT236" s="13">
-        <v>20.5</v>
+        <v>8.5</v>
       </c>
       <c r="AU236" s="19">
-        <f t="shared" si="19"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="15"/>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="237" spans="1:47" ht="25.05" customHeight="1">
       <c r="A237" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C237" s="17" t="str">
         <f>IF($A237="","",IF(VLOOKUP($A237,Spiele!$A$2:$D$15,3,FALSE)=$B237,"H","G"))</f>
@@ -37083,14 +37027,14 @@
       </c>
       <c r="D237" s="17" t="str">
         <f>IF($B237="","",IF(VLOOKUP($A237,Spiele!$A$2:$F$15,3,FALSE)=$B237,VLOOKUP($A237,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A237,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>UHG</v>
       </c>
       <c r="E237" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A237,$A237,$B$2:$B237,$B237,$L$2:$L237,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F237" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G237" s="12">
         <v>1</v>
@@ -37108,18 +37052,35 @@
         <v>0</v>
       </c>
       <c r="K237" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L237" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O237" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="O237" s="17">
+        <v>4</v>
+      </c>
+      <c r="P237" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>16</v>
+      </c>
+      <c r="R237" s="2">
+        <v>26</v>
+      </c>
+      <c r="S237" s="2">
+        <v>13</v>
+      </c>
+      <c r="T237" s="2">
+        <v>4</v>
+      </c>
       <c r="AA237" s="2" t="s">
         <v>151</v>
       </c>
@@ -37130,84 +37091,86 @@
         <v>150</v>
       </c>
       <c r="AD237" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE237" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="AE237" s="18">
+        <v>7</v>
+      </c>
       <c r="AF237" s="13">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AG237" s="13">
-        <v>25.5</v>
+        <v>11</v>
       </c>
       <c r="AH237" s="19">
-        <f t="shared" si="16"/>
-        <v>25.5</v>
+        <f t="shared" si="12"/>
+        <v>13.804187770383304</v>
       </c>
       <c r="AI237" s="19">
-        <f t="shared" si="17"/>
-        <v>16.335693207949546</v>
+        <f t="shared" si="13"/>
+        <v>17.74603331770259</v>
       </c>
       <c r="AJ237" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK237" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL237" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AM237" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF237-$AK237)^2+($AG237-$AL237)^2))</f>
-        <v>25</v>
+        <v>13.0862523283024</v>
       </c>
       <c r="AN237" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO237" s="13">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="AP237" s="13">
-        <v>28</v>
+        <v>9.5</v>
       </c>
       <c r="AQ237" s="19">
-        <f t="shared" si="18"/>
-        <v>3.2015621187164243</v>
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
       <c r="AR237" s="3">
         <v>1</v>
       </c>
       <c r="AS237" s="13">
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="AT237" s="13">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="AU237" s="19">
-        <f t="shared" si="19"/>
-        <v>8.5</v>
+        <f t="shared" si="15"/>
+        <v>7.7781745930520225</v>
       </c>
     </row>
     <row r="238" spans="1:47" ht="25.05" customHeight="1">
       <c r="A238" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C238" s="17" t="str">
         <f>IF($A238="","",IF(VLOOKUP($A238,Spiele!$A$2:$D$15,3,FALSE)=$B238,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D238" s="17" t="str">
         <f>IF($B238="","",IF(VLOOKUP($A238,Spiele!$A$2:$F$15,3,FALSE)=$B238,VLOOKUP($A238,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A238,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E238" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A238,$A238,$B$2:$B238,$B238,$L$2:$L238,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F238" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G238" s="12">
         <v>1</v>
@@ -37225,31 +37188,23 @@
         <v>0</v>
       </c>
       <c r="K238" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L238" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O238" s="17">
-        <v>8</v>
-      </c>
-      <c r="P238" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q238" s="2">
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O238" s="17"/>
       <c r="AA238" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB238" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC238" s="14" t="s">
         <v>150</v>
@@ -37258,66 +37213,72 @@
         <v>145</v>
       </c>
       <c r="AE238" s="18">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AF238" s="13">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG238" s="13">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AH238" s="19">
-        <f t="shared" si="16"/>
-        <v>17.59646555419582</v>
+        <f t="shared" si="12"/>
+        <v>11.650991374127782</v>
       </c>
       <c r="AI238" s="19">
-        <f t="shared" si="17"/>
-        <v>21.626656434445117</v>
+        <f t="shared" si="13"/>
+        <v>26.170050414843899</v>
       </c>
       <c r="AJ238" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK238" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL238" s="13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AM238" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF238-$AK238)^2+($AG238-$AL238)^2))</f>
-        <v>15.182226450688976</v>
+        <v>12.619429464123963</v>
       </c>
       <c r="AN238" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO238" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AP238" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AQ238" s="19">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="AR238" s="3">
         <v>2</v>
       </c>
-      <c r="AO238" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="AP238" s="13">
-        <v>18.5</v>
-      </c>
-      <c r="AQ238" s="19">
-        <f t="shared" si="18"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AR238" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU238" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="AS238" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AT238" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU238" s="19">
+        <f t="shared" si="15"/>
+        <v>6.800735254367722</v>
       </c>
     </row>
     <row r="239" spans="1:47" ht="25.05" customHeight="1">
       <c r="A239" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C239" s="17" t="str">
         <f>IF($A239="","",IF(VLOOKUP($A239,Spiele!$A$2:$D$15,3,FALSE)=$B239,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D239" s="17" t="str">
         <f>IF($B239="","",IF(VLOOKUP($A239,Spiele!$A$2:$F$15,3,FALSE)=$B239,VLOOKUP($A239,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A239,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -37328,7 +37289,7 @@
         <v>8</v>
       </c>
       <c r="F239" s="11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G239" s="12">
         <v>1</v>
@@ -37346,7 +37307,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L239" s="17" t="s">
         <v>19</v>
@@ -37355,80 +37316,82 @@
         <v>163</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O239" s="17"/>
       <c r="AA239" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB239" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AC239" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD239" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE239" s="18"/>
       <c r="AF239" s="13">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="AG239" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH239" s="19">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>9.4802742576362213</v>
       </c>
       <c r="AI239" s="19">
-        <f t="shared" si="17"/>
-        <v>43.839454439268671</v>
+        <f t="shared" si="13"/>
+        <v>17.005738961714126</v>
       </c>
       <c r="AJ239" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK239" s="13">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AL239" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM239" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF239-$AK239)^2+($AG239-$AL239)^2))</f>
-        <v>8.5</v>
+        <v>7.810249675906654</v>
       </c>
       <c r="AN239" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO239" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP239" s="13">
-        <v>9</v>
-      </c>
-      <c r="AQ239" s="19">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AO239" s="13"/>
+      <c r="AP239" s="13"/>
+      <c r="AQ239" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR239" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU239" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS239" s="13">
+        <v>-9.5</v>
+      </c>
+      <c r="AT239" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU239" s="19">
+        <f t="shared" si="15"/>
+        <v>1.5811388300841898</v>
       </c>
     </row>
     <row r="240" spans="1:47" ht="25.05" customHeight="1">
       <c r="A240" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C240" s="17" t="str">
         <f>IF($A240="","",IF(VLOOKUP($A240,Spiele!$A$2:$D$15,3,FALSE)=$B240,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D240" s="17" t="str">
         <f>IF($B240="","",IF(VLOOKUP($A240,Spiele!$A$2:$F$15,3,FALSE)=$B240,VLOOKUP($A240,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A240,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -37439,7 +37402,7 @@
         <v>9</v>
       </c>
       <c r="F240" s="11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G240" s="12">
         <v>1</v>
@@ -37457,106 +37420,100 @@
         <v>0</v>
       </c>
       <c r="K240" s="3">
-        <v>13</v>
-      </c>
-      <c r="L240" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L240" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M240" s="2" t="s">
-        <v>173</v>
+      <c r="M240" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="O240" s="17"/>
-      <c r="AA240" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB240" s="17" t="s">
-        <v>160</v>
+      <c r="AA240" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB240" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="AC240" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD240" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE240" s="18"/>
       <c r="AF240" s="13">
-        <v>-6</v>
+        <v>12.5</v>
       </c>
       <c r="AG240" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH240" s="19">
-        <f t="shared" si="16"/>
-        <v>2.5447200238926087</v>
+        <f t="shared" si="12"/>
+        <v>11.922482962873127</v>
       </c>
       <c r="AI240" s="19">
-        <f t="shared" si="17"/>
-        <v>17.229273479884245</v>
-      </c>
-      <c r="AJ240" s="2" t="s">
+        <f t="shared" si="13"/>
+        <v>15.806694402996305</v>
+      </c>
+      <c r="AJ240" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK240" s="13">
-        <v>-4</v>
+        <v>3.5</v>
       </c>
       <c r="AL240" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM240" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF240-$AK240)^2+($AG240-$AL240)^2))</f>
-        <v>2.0615528128088303</v>
+        <v>11.401754250991379</v>
       </c>
       <c r="AN240" s="3">
         <v>1</v>
       </c>
       <c r="AO240" s="13">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="AP240" s="13">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="AQ240" s="19">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>IF(AN240=0,"",SQRT(($AF240-$AO240)^2+($AG240-$AP240)^2))</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR240" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS240" s="13">
-        <v>-3.5</v>
-      </c>
-      <c r="AT240" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AU240" s="19">
-        <f t="shared" si="19"/>
-        <v>2.5495097567963922</v>
+        <v>0</v>
+      </c>
+      <c r="AU240" s="19" t="str">
+        <f>IF(AR240=0,"",SQRT(($AF240-$AS240)^2+($AG240-$AT240)^2))</f>
+        <v/>
       </c>
     </row>
     <row r="241" spans="1:47" ht="25.05" customHeight="1">
       <c r="A241" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C241" s="17" t="str">
         <f>IF($A241="","",IF(VLOOKUP($A241,Spiele!$A$2:$D$15,3,FALSE)=$B241,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D241" s="17" t="str">
         <f>IF($B241="","",IF(VLOOKUP($A241,Spiele!$A$2:$F$15,3,FALSE)=$B241,VLOOKUP($A241,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A241,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E241" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A241,$A241,$B$2:$B241,$B241,$L$2:$L241,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F241" s="11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G241" s="12">
         <v>1</v>
@@ -37567,96 +37524,102 @@
       </c>
       <c r="I241" s="17" t="str">
         <f>IF(OR($L241="Tor",$L241="ET"),_xlfn.IFNA(IF(VLOOKUP($A241,Spiele!$A$2:$C$15,3,FALSE)=$B241,COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,$B241,$A$2:$A241,$A241)&amp;":"&amp;COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241),COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,"&lt;&gt;"&amp;$B241,$A$2:$A241,$A241)&amp;":"&amp;COUNTIFS($L$2:$L241,"Tor",$B$2:$B241,$B241,$A$2:$A241,$A241)+COUNTIFS($L$2:$L241,"ET",$B$2:$B241,$B241,$A$2:$A241,$A241)),""),"")</f>
-        <v/>
+        <v>1:2</v>
       </c>
       <c r="J241" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A241,Spiele!$A$2:$D$15,3,FALSE)=$B241,(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,$B241,$A$1:$A240,$A241))-(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)),(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,$B241,$A$1:$A240,$A241))-(COUNTIFS($L$1:$L240,"Tor",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241)+COUNTIFS($L$1:$L240,"ET",$B$1:$B240,"&lt;&gt;"&amp;$B241,$A$1:$A240,$A241))),"")</f>
         <v>0</v>
       </c>
       <c r="K241" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L241" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M241" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O241" s="17">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="P241" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>26</v>
       </c>
       <c r="AA241" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB241" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC241" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD241" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE241" s="18">
         <v>9</v>
       </c>
       <c r="AF241" s="13">
-        <v>-2</v>
+        <v>9.5</v>
       </c>
       <c r="AG241" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH241" s="19">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>9.9048271060125028</v>
       </c>
       <c r="AI241" s="19">
-        <f t="shared" si="17"/>
-        <v>42.615768593997174</v>
+        <f t="shared" si="13"/>
+        <v>22.575023463411867</v>
       </c>
       <c r="AJ241" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK241" s="13">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AL241" s="13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM241" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF241-$AK241)^2+($AG241-$AL241)^2))</f>
+        <v>7.1063352017759476</v>
+      </c>
+      <c r="AN241" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO241" s="13">
         <v>6.5</v>
       </c>
-      <c r="AN241" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO241" s="13">
-        <v>-0.5</v>
-      </c>
       <c r="AP241" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ241" s="19">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="AR241" s="3">
         <v>0</v>
       </c>
       <c r="AU241" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:47" ht="25.05" customHeight="1">
       <c r="A242" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C242" s="17" t="str">
         <f>IF($A242="","",IF(VLOOKUP($A242,Spiele!$A$2:$D$15,3,FALSE)=$B242,"H","G"))</f>
@@ -37664,11 +37627,11 @@
       </c>
       <c r="D242" s="17" t="str">
         <f>IF($B242="","",IF(VLOOKUP($A242,Spiele!$A$2:$F$15,3,FALSE)=$B242,VLOOKUP($A242,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A242,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E242" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A242,$A242,$B$2:$B242,$B242,$L$2:$L242,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F242" s="11">
         <v>40</v>
@@ -37682,98 +37645,102 @@
       </c>
       <c r="I242" s="17" t="str">
         <f>IF(OR($L242="Tor",$L242="ET"),_xlfn.IFNA(IF(VLOOKUP($A242,Spiele!$A$2:$C$15,3,FALSE)=$B242,COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,$B242,$A$2:$A242,$A242)&amp;":"&amp;COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242),COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,"&lt;&gt;"&amp;$B242,$A$2:$A242,$A242)&amp;":"&amp;COUNTIFS($L$2:$L242,"Tor",$B$2:$B242,$B242,$A$2:$A242,$A242)+COUNTIFS($L$2:$L242,"ET",$B$2:$B242,$B242,$A$2:$A242,$A242)),""),"")</f>
-        <v>1:0</v>
+        <v/>
       </c>
       <c r="J242" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A242,Spiele!$A$2:$D$15,3,FALSE)=$B242,(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,$B242,$A$1:$A241,$A242))-(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)),(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,$B242,$A$1:$A241,$A242))-(COUNTIFS($L$1:$L241,"Tor",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242)+COUNTIFS($L$1:$L241,"ET",$B$1:$B241,"&lt;&gt;"&amp;$B242,$A$1:$A241,$A242))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K242" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L242" s="17" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M242" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="O242" s="17"/>
       <c r="AA242" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB242" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AC242" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD242" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE242" s="18">
-        <v>7</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AE242" s="18"/>
       <c r="AF242" s="13">
-        <v>-6.5</v>
+        <v>3</v>
       </c>
       <c r="AG242" s="13">
-        <v>5</v>
+        <v>19.5</v>
       </c>
       <c r="AH242" s="19">
-        <f t="shared" si="16"/>
-        <v>5.7502695588989567</v>
+        <f t="shared" si="12"/>
+        <v>19.5</v>
       </c>
       <c r="AI242" s="19">
-        <f t="shared" si="17"/>
-        <v>34.200427604672875</v>
+        <f t="shared" si="13"/>
+        <v>20.795511315406127</v>
       </c>
       <c r="AJ242" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK242" s="13">
         <v>0.5</v>
       </c>
       <c r="AL242" s="13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AM242" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF242-$AK242)^2+($AG242-$AL242)^2))</f>
-        <v>7.6157731058639087</v>
+        <v>18.172781845386247</v>
       </c>
       <c r="AN242" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO242" s="13">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AP242" s="13">
-        <v>5.5</v>
+        <v>21.5</v>
       </c>
       <c r="AQ242" s="19">
-        <f t="shared" si="18"/>
-        <v>2.5495097567963922</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AR242" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU242" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="AS242" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AT242" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AU242" s="19">
+        <f t="shared" si="15"/>
+        <v>2.0615528128088303</v>
       </c>
     </row>
     <row r="243" spans="1:47" ht="25.05" customHeight="1">
       <c r="A243" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C243" s="17" t="str">
         <f>IF($A243="","",IF(VLOOKUP($A243,Spiele!$A$2:$D$15,3,FALSE)=$B243,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D243" s="17" t="str">
         <f>IF($B243="","",IF(VLOOKUP($A243,Spiele!$A$2:$F$15,3,FALSE)=$B243,VLOOKUP($A243,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A243,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -37781,34 +37748,37 @@
       </c>
       <c r="E243" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A243,$A243,$B$2:$B243,$B243,$L$2:$L243,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G243" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A243,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B243,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F243,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G243)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A243,'Rote Karten'!$D$2:$D$4,$B243,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F243,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G243)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" s="17" t="str">
         <f>IF(OR($L243="Tor",$L243="ET"),_xlfn.IFNA(IF(VLOOKUP($A243,Spiele!$A$2:$C$15,3,FALSE)=$B243,COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,$B243,$A$2:$A243,$A243)&amp;":"&amp;COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243),COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,"&lt;&gt;"&amp;$B243,$A$2:$A243,$A243)&amp;":"&amp;COUNTIFS($L$2:$L243,"Tor",$B$2:$B243,$B243,$A$2:$A243,$A243)+COUNTIFS($L$2:$L243,"ET",$B$2:$B243,$B243,$A$2:$A243,$A243)),""),"")</f>
-        <v/>
+        <v>2:2</v>
       </c>
       <c r="J243" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A243,Spiele!$A$2:$D$15,3,FALSE)=$B243,(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,$B243,$A$1:$A242,$A243))-(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)),(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,$B243,$A$1:$A242,$A243))-(COUNTIFS($L$1:$L242,"Tor",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243)+COUNTIFS($L$1:$L242,"ET",$B$1:$B242,"&lt;&gt;"&amp;$B243,$A$1:$A242,$A243))),"")</f>
         <v>-1</v>
       </c>
       <c r="K243" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L243" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="O243" s="17"/>
       <c r="AA243" s="2" t="s">
@@ -37821,65 +37791,63 @@
         <v>150</v>
       </c>
       <c r="AD243" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE243" s="18"/>
       <c r="AF243" s="13">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="AG243" s="13">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="AH243" s="19">
-        <f t="shared" si="16"/>
-        <v>34</v>
+        <f t="shared" si="12"/>
+        <v>6.5</v>
       </c>
       <c r="AI243" s="19">
-        <f t="shared" si="17"/>
-        <v>12.194976603981754</v>
+        <f t="shared" si="13"/>
+        <v>58.546125075791529</v>
       </c>
       <c r="AJ243" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AK243" s="13">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AL243" s="13">
         <v>0.5</v>
       </c>
       <c r="AM243" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF243-$AK243)^2+($AG243-$AL243)^2))</f>
-        <v>33.68233958619858</v>
+        <v>6.946221994724902</v>
       </c>
       <c r="AN243" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO243" s="13"/>
-      <c r="AP243" s="13"/>
-      <c r="AQ243" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO243" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP243" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AQ243" s="19">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
       <c r="AR243" s="3">
-        <v>3</v>
-      </c>
-      <c r="AS243" s="13">
-        <v>-3.5</v>
-      </c>
-      <c r="AT243" s="13">
-        <v>27</v>
-      </c>
-      <c r="AU243" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0178344238090995</v>
+        <v>0</v>
+      </c>
+      <c r="AU243" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="244" spans="1:47" ht="25.05" customHeight="1">
       <c r="A244" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C244" s="17" t="str">
         <f>IF($A244="","",IF(VLOOKUP($A244,Spiele!$A$2:$D$15,3,FALSE)=$B244,"H","G"))</f>
@@ -37887,21 +37855,21 @@
       </c>
       <c r="D244" s="17" t="str">
         <f>IF($B244="","",IF(VLOOKUP($A244,Spiele!$A$2:$F$15,3,FALSE)=$B244,VLOOKUP($A244,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A244,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E244" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A244,$A244,$B$2:$B244,$B244,$L$2:$L244,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F244" s="11">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G244" s="12">
         <v>2</v>
       </c>
       <c r="H244" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A244,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B244,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F244,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G244)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A244,'Rote Karten'!$D$2:$D$4,$B244,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F244,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G244)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" s="17" t="str">
         <f>IF(OR($L244="Tor",$L244="ET"),_xlfn.IFNA(IF(VLOOKUP($A244,Spiele!$A$2:$C$15,3,FALSE)=$B244,COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,$B244,$A$2:$A244,$A244)&amp;":"&amp;COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244),COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,"&lt;&gt;"&amp;$B244,$A$2:$A244,$A244)&amp;":"&amp;COUNTIFS($L$2:$L244,"Tor",$B$2:$B244,$B244,$A$2:$A244,$A244)+COUNTIFS($L$2:$L244,"ET",$B$2:$B244,$B244,$A$2:$A244,$A244)),""),"")</f>
@@ -37909,57 +37877,47 @@
       </c>
       <c r="J244" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A244,Spiele!$A$2:$D$15,3,FALSE)=$B244,(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,$B244,$A$1:$A243,$A244))-(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)),(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,$B244,$A$1:$A243,$A244))-(COUNTIFS($L$1:$L243,"Tor",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244)+COUNTIFS($L$1:$L243,"ET",$B$1:$B243,"&lt;&gt;"&amp;$B244,$A$1:$A243,$A244))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L244" s="18" t="s">
         <v>18</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O244" s="17">
-        <v>8</v>
-      </c>
-      <c r="P244" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q244" s="2">
-        <v>6</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O244" s="17"/>
       <c r="AA244" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB244" s="18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC244" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD244" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE244" s="18">
-        <v>10</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AE244" s="18"/>
       <c r="AF244" s="13">
-        <v>-10.5</v>
+        <v>-6</v>
       </c>
       <c r="AG244" s="13">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="AH244" s="19">
-        <f t="shared" si="16"/>
-        <v>14.689642609675703</v>
+        <f t="shared" si="12"/>
+        <v>5.0720410092979336</v>
       </c>
       <c r="AI244" s="19">
-        <f t="shared" si="17"/>
-        <v>19.694334659050181</v>
+        <f t="shared" si="13"/>
+        <v>37.547651610367623</v>
       </c>
       <c r="AJ244" s="3" t="s">
         <v>146</v>
@@ -37968,49 +37926,49 @@
         <v>-3.5</v>
       </c>
       <c r="AL244" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM244" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF244-$AK244)^2+($AG244-$AL244)^2))</f>
-        <v>12.619429464123963</v>
+        <v>4.7169905660283016</v>
       </c>
       <c r="AN244" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO244" s="13">
-        <v>-10</v>
+        <v>-6.5</v>
       </c>
       <c r="AP244" s="13">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="AQ244" s="19">
-        <f t="shared" si="18"/>
-        <v>0.70710678118654757</v>
+        <f>IF(AN244=0,"",SQRT(($AF244-$AO244)^2+($AG244-$AP244)^2))</f>
+        <v>1.5811388300841898</v>
       </c>
       <c r="AR244" s="3">
         <v>1</v>
       </c>
       <c r="AS244" s="13">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="AT244" s="13">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AU244" s="19">
-        <f t="shared" si="19"/>
-        <v>9.3005376188691375</v>
+        <f>IF(AR244=0,"",SQRT(($AF244-$AS244)^2+($AG244-$AT244)^2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:47" ht="25.05" customHeight="1">
       <c r="A245" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C245" s="17" t="str">
         <f>IF($A245="","",IF(VLOOKUP($A245,Spiele!$A$2:$D$15,3,FALSE)=$B245,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D245" s="17" t="str">
         <f>IF($B245="","",IF(VLOOKUP($A245,Spiele!$A$2:$F$15,3,FALSE)=$B245,VLOOKUP($A245,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A245,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -38018,17 +37976,17 @@
       </c>
       <c r="E245" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A245,$A245,$B$2:$B245,$B245,$L$2:$L245,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F245" s="11">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G245" s="12">
         <v>2</v>
       </c>
       <c r="H245" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A245,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B245,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F245,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G245)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A245,'Rote Karten'!$D$2:$D$4,$B245,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F245,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G245)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" s="17" t="str">
         <f>IF(OR($L245="Tor",$L245="ET"),_xlfn.IFNA(IF(VLOOKUP($A245,Spiele!$A$2:$C$15,3,FALSE)=$B245,COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,$B245,$A$2:$A245,$A245)&amp;":"&amp;COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245),COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,"&lt;&gt;"&amp;$B245,$A$2:$A245,$A245)&amp;":"&amp;COUNTIFS($L$2:$L245,"Tor",$B$2:$B245,$B245,$A$2:$A245,$A245)+COUNTIFS($L$2:$L245,"ET",$B$2:$B245,$B245,$A$2:$A245,$A245)),""),"")</f>
@@ -38036,88 +37994,88 @@
       </c>
       <c r="J245" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A245,Spiele!$A$2:$D$15,3,FALSE)=$B245,(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,$B245,$A$1:$A244,$A245))-(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)),(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,$B245,$A$1:$A244,$A245))-(COUNTIFS($L$1:$L244,"Tor",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245)+COUNTIFS($L$1:$L244,"ET",$B$1:$B244,"&lt;&gt;"&amp;$B245,$A$1:$A244,$A245))),"")</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K245" s="3">
-        <v>17</v>
-      </c>
-      <c r="L245" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M245" s="2" t="s">
-        <v>163</v>
+      <c r="L245" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O245" s="17"/>
-      <c r="AA245" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB245" s="17" t="s">
+      <c r="AA245" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB245" s="18" t="s">
         <v>143</v>
       </c>
       <c r="AC245" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD245" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE245" s="18"/>
       <c r="AF245" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG245" s="13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AH245" s="19">
-        <f t="shared" si="16"/>
-        <v>11.216309553502882</v>
+        <f t="shared" si="12"/>
+        <v>6.1249979591833332</v>
       </c>
       <c r="AI245" s="19">
-        <f t="shared" si="17"/>
-        <v>16.373402664953399</v>
-      </c>
-      <c r="AJ245" s="2" t="s">
-        <v>146</v>
+        <f t="shared" si="13"/>
+        <v>15.995882076080578</v>
+      </c>
+      <c r="AJ245" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="AK245" s="13">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AL245" s="13">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AM245" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF245-$AK245)^2+($AG245-$AL245)^2))</f>
-        <v>11.01135777277262</v>
+        <v>4</v>
       </c>
       <c r="AN245" s="3">
         <v>1</v>
       </c>
       <c r="AO245" s="13">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP245" s="13">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="AQ245" s="19">
-        <f t="shared" si="18"/>
-        <v>3.1622776601683795</v>
+        <f>IF(AN245=0,"",SQRT(($AF245-$AO245)^2+($AG245-$AP245)^2))</f>
+        <v>0.5</v>
       </c>
       <c r="AR245" s="3">
         <v>0</v>
       </c>
       <c r="AU245" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AR245=0,"",SQRT(($AF245-$AS245)^2+($AG245-$AT245)^2))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:47" ht="25.05" customHeight="1">
       <c r="A246" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C246" s="17" t="str">
         <f>IF($A246="","",IF(VLOOKUP($A246,Spiele!$A$2:$D$15,3,FALSE)=$B246,"H","G"))</f>
@@ -38125,21 +38083,21 @@
       </c>
       <c r="D246" s="17" t="str">
         <f>IF($B246="","",IF(VLOOKUP($A246,Spiele!$A$2:$F$15,3,FALSE)=$B246,VLOOKUP($A246,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A246,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E246" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A246,$A246,$B$2:$B246,$B246,$L$2:$L246,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F246" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G246" s="12">
         <v>2</v>
       </c>
       <c r="H246" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A246,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B246,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F246,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G246)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A246,'Rote Karten'!$D$2:$D$4,$B246,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F246,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G246)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" s="17" t="str">
         <f>IF(OR($L246="Tor",$L246="ET"),_xlfn.IFNA(IF(VLOOKUP($A246,Spiele!$A$2:$C$15,3,FALSE)=$B246,COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,$B246,$A$2:$A246,$A246)&amp;":"&amp;COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246),COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,"&lt;&gt;"&amp;$B246,$A$2:$A246,$A246)&amp;":"&amp;COUNTIFS($L$2:$L246,"Tor",$B$2:$B246,$B246,$A$2:$A246,$A246)+COUNTIFS($L$2:$L246,"ET",$B$2:$B246,$B246,$A$2:$A246,$A246)),""),"")</f>
@@ -38147,159 +38105,143 @@
       </c>
       <c r="J246" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A246,Spiele!$A$2:$D$15,3,FALSE)=$B246,(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,$B246,$A$1:$A245,$A246))-(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)),(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,$B246,$A$1:$A245,$A246))-(COUNTIFS($L$1:$L245,"Tor",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246)+COUNTIFS($L$1:$L245,"ET",$B$1:$B245,"&lt;&gt;"&amp;$B246,$A$1:$A245,$A246))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K246" s="3">
-        <v>18</v>
-      </c>
-      <c r="L246" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M246" s="2" t="s">
-        <v>147</v>
+        <v>20</v>
+      </c>
+      <c r="L246" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O246" s="17">
-        <v>4</v>
-      </c>
-      <c r="P246" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q246" s="2">
-        <v>6</v>
-      </c>
-      <c r="R246" s="2">
-        <v>8</v>
-      </c>
-      <c r="S246" s="2">
-        <v>20</v>
-      </c>
-      <c r="T246" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA246" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O246" s="17"/>
+      <c r="AA246" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AB246" s="17" t="s">
-        <v>143</v>
+      <c r="AB246" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="AC246" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD246" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE246" s="18">
-        <v>18</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AE246" s="18"/>
       <c r="AF246" s="13">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="AG246" s="13">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH246" s="19">
-        <f t="shared" si="16"/>
-        <v>22.071828197954062</v>
+        <f t="shared" si="12"/>
+        <v>25.205467660807248</v>
       </c>
       <c r="AI246" s="19">
-        <f t="shared" si="17"/>
-        <v>14.230221882728383</v>
-      </c>
-      <c r="AJ246" s="2" t="s">
+        <f t="shared" si="13"/>
+        <v>11.079766582545812</v>
+      </c>
+      <c r="AJ246" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK246" s="13">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AL246" s="13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AM246" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF246-$AK246)^2+($AG246-$AL246)^2))</f>
-        <v>21.100947846009191</v>
+        <v>24.418230894149559</v>
       </c>
       <c r="AN246" s="3">
         <v>1</v>
       </c>
       <c r="AO246" s="13">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="AP246" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ246" s="19">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f>IF(AN246=0,"",SQRT(($AF246-$AO246)^2+($AG246-$AP246)^2))</f>
+        <v>1</v>
       </c>
       <c r="AR246" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS246" s="13">
-        <v>-11</v>
+        <v>-11.5</v>
       </c>
       <c r="AT246" s="13">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AU246" s="19">
-        <f t="shared" si="19"/>
-        <v>5.8309518948453007</v>
+        <f>IF(AR246=0,"",SQRT(($AF246-$AS246)^2+($AG246-$AT246)^2))</f>
+        <v>9.6046863561492728</v>
       </c>
     </row>
     <row r="247" spans="1:47" ht="25.05" customHeight="1">
       <c r="A247" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C247" s="17" t="str">
         <f>IF($A247="","",IF(VLOOKUP($A247,Spiele!$A$2:$D$15,3,FALSE)=$B247,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D247" s="17" t="str">
         <f>IF($B247="","",IF(VLOOKUP($A247,Spiele!$A$2:$F$15,3,FALSE)=$B247,VLOOKUP($A247,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A247,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E247" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A247,$A247,$B$2:$B247,$B247,$L$2:$L247,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F247" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G247" s="12">
         <v>2</v>
       </c>
       <c r="H247" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A247,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B247,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F247,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G247)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A247,'Rote Karten'!$D$2:$D$4,$B247,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F247,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G247)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I247" s="17" t="str">
         <f>IF(OR($L247="Tor",$L247="ET"),_xlfn.IFNA(IF(VLOOKUP($A247,Spiele!$A$2:$C$15,3,FALSE)=$B247,COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,$B247,$A$2:$A247,$A247)&amp;":"&amp;COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247),COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,"&lt;&gt;"&amp;$B247,$A$2:$A247,$A247)&amp;":"&amp;COUNTIFS($L$2:$L247,"Tor",$B$2:$B247,$B247,$A$2:$A247,$A247)+COUNTIFS($L$2:$L247,"ET",$B$2:$B247,$B247,$A$2:$A247,$A247)),""),"")</f>
-        <v/>
+        <v>2:3</v>
       </c>
       <c r="J247" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A247,Spiele!$A$2:$D$15,3,FALSE)=$B247,(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,$B247,$A$1:$A246,$A247))-(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)),(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,$B247,$A$1:$A246,$A247))-(COUNTIFS($L$1:$L246,"Tor",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247)+COUNTIFS($L$1:$L246,"ET",$B$1:$B246,"&lt;&gt;"&amp;$B247,$A$1:$A246,$A247))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L247" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O247" s="17"/>
       <c r="AA247" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB247" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC247" s="14" t="s">
         <v>150</v>
@@ -38311,31 +38253,25 @@
         <v>8</v>
       </c>
       <c r="AF247" s="13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AG247" s="13">
-        <v>23.5</v>
+        <v>6</v>
       </c>
       <c r="AH247" s="19">
-        <f t="shared" si="16"/>
-        <v>25.674220533445606</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="AI247" s="19">
-        <f t="shared" si="17"/>
-        <v>13.174977970680043</v>
+        <f t="shared" si="13"/>
+        <v>61.744602004458379</v>
       </c>
       <c r="AJ247" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK247" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL247" s="13">
-        <v>2.5</v>
+        <v>166</v>
       </c>
       <c r="AM247" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF247-$AK247)^2+($AG247-$AL247)^2))</f>
-        <v>25.238858928247925</v>
+        <v>6.0827625302982193</v>
       </c>
       <c r="AN247" s="3">
         <v>0</v>
@@ -38343,33 +38279,27 @@
       <c r="AO247" s="13"/>
       <c r="AP247" s="13"/>
       <c r="AQ247" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR247" s="3">
-        <v>3</v>
-      </c>
-      <c r="AS247" s="13">
-        <v>9</v>
-      </c>
-      <c r="AT247" s="13">
-        <v>16</v>
-      </c>
-      <c r="AU247" s="19">
-        <f t="shared" si="19"/>
-        <v>9.013878188659973</v>
+        <v>0</v>
+      </c>
+      <c r="AU247" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="248" spans="1:47" ht="25.05" customHeight="1">
       <c r="A248" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C248" s="17" t="str">
         <f>IF($A248="","",IF(VLOOKUP($A248,Spiele!$A$2:$D$15,3,FALSE)=$B248,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D248" s="17" t="str">
         <f>IF($B248="","",IF(VLOOKUP($A248,Spiele!$A$2:$F$15,3,FALSE)=$B248,VLOOKUP($A248,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A248,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -38377,7 +38307,7 @@
       </c>
       <c r="E248" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A248,$A248,$B$2:$B248,$B248,$L$2:$L248,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F248" s="11">
         <v>61</v>
@@ -38387,100 +38317,106 @@
       </c>
       <c r="H248" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A248,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B248,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F248,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G248)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A248,'Rote Karten'!$D$2:$D$4,$B248,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F248,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G248)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" s="17" t="str">
         <f>IF(OR($L248="Tor",$L248="ET"),_xlfn.IFNA(IF(VLOOKUP($A248,Spiele!$A$2:$C$15,3,FALSE)=$B248,COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,$B248,$A$2:$A248,$A248)&amp;":"&amp;COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248),COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,"&lt;&gt;"&amp;$B248,$A$2:$A248,$A248)&amp;":"&amp;COUNTIFS($L$2:$L248,"Tor",$B$2:$B248,$B248,$A$2:$A248,$A248)+COUNTIFS($L$2:$L248,"ET",$B$2:$B248,$B248,$A$2:$A248,$A248)),""),"")</f>
-        <v>1:1</v>
+        <v/>
       </c>
       <c r="J248" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A248,Spiele!$A$2:$D$15,3,FALSE)=$B248,(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,$B248,$A$1:$A247,$A248))-(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)),(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,$B248,$A$1:$A247,$A248))-(COUNTIFS($L$1:$L247,"Tor",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248)+COUNTIFS($L$1:$L247,"ET",$B$1:$B247,"&lt;&gt;"&amp;$B248,$A$1:$A247,$A248))),"")</f>
         <v>-1</v>
       </c>
       <c r="K248" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L248" s="17" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M248" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O248" s="17"/>
       <c r="AA248" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB248" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC248" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD248" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE248" s="18"/>
       <c r="AF248" s="13">
-        <v>-8.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG248" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH248" s="19">
-        <f t="shared" si="16"/>
-        <v>8.5103231431009725</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="AI248" s="19">
-        <f t="shared" si="17"/>
-        <v>25.411688271902904</v>
+        <f t="shared" si="13"/>
+        <v>31.58701762323367</v>
       </c>
       <c r="AJ248" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK248" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL248" s="13">
         <v>0.5</v>
       </c>
       <c r="AM248" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF248-$AK248)^2+($AG248-$AL248)^2))</f>
-        <v>8.5146931829632013</v>
+        <v>12.020815280171307</v>
       </c>
       <c r="AN248" s="3">
         <v>1</v>
       </c>
       <c r="AO248" s="13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AP248" s="13">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AQ248" s="19">
-        <f t="shared" si="18"/>
-        <v>3.5355339059327378</v>
+        <f t="shared" si="14"/>
+        <v>3.640054944640259</v>
       </c>
       <c r="AR248" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU248" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS248" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AT248" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU248" s="19">
+        <f t="shared" si="15"/>
+        <v>11.045361017187261</v>
       </c>
     </row>
     <row r="249" spans="1:47" ht="25.05" customHeight="1">
       <c r="A249" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C249" s="17" t="str">
         <f>IF($A249="","",IF(VLOOKUP($A249,Spiele!$A$2:$D$15,3,FALSE)=$B249,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D249" s="17" t="str">
         <f>IF($B249="","",IF(VLOOKUP($A249,Spiele!$A$2:$F$15,3,FALSE)=$B249,VLOOKUP($A249,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A249,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -38488,17 +38424,17 @@
       </c>
       <c r="E249" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A249,$A249,$B$2:$B249,$B249,$L$2:$L249,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F249" s="11">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G249" s="12">
         <v>2</v>
       </c>
       <c r="H249" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A249,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B249,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F249,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G249)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A249,'Rote Karten'!$D$2:$D$4,$B249,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F249,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G249)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" s="17" t="str">
         <f>IF(OR($L249="Tor",$L249="ET"),_xlfn.IFNA(IF(VLOOKUP($A249,Spiele!$A$2:$C$15,3,FALSE)=$B249,COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,$B249,$A$2:$A249,$A249)&amp;":"&amp;COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249),COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,"&lt;&gt;"&amp;$B249,$A$2:$A249,$A249)&amp;":"&amp;COUNTIFS($L$2:$L249,"Tor",$B$2:$B249,$B249,$A$2:$A249,$A249)+COUNTIFS($L$2:$L249,"ET",$B$2:$B249,$B249,$A$2:$A249,$A249)),""),"")</f>
@@ -38506,116 +38442,116 @@
       </c>
       <c r="J249" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A249,Spiele!$A$2:$D$15,3,FALSE)=$B249,(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,$B249,$A$1:$A248,$A249))-(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)),(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,$B249,$A$1:$A248,$A249))-(COUNTIFS($L$1:$L248,"Tor",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249)+COUNTIFS($L$1:$L248,"ET",$B$1:$B248,"&lt;&gt;"&amp;$B249,$A$1:$A248,$A249))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K249" s="3">
-        <v>21</v>
-      </c>
-      <c r="L249" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M249" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="L249" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="O249" s="17"/>
-      <c r="AA249" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB249" s="17" t="s">
-        <v>143</v>
+      <c r="AA249" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB249" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="AC249" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD249" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE249" s="18"/>
       <c r="AF249" s="13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AG249" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH249" s="19">
-        <f t="shared" si="16"/>
-        <v>11.032026105842935</v>
+        <f t="shared" si="12"/>
+        <v>9.1014064847143263</v>
       </c>
       <c r="AI249" s="19">
-        <f t="shared" si="17"/>
-        <v>32.201857009576806</v>
-      </c>
-      <c r="AJ249" s="2" t="s">
+        <f t="shared" si="13"/>
+        <v>27.065903220982989</v>
+      </c>
+      <c r="AJ249" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK249" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL249" s="13">
         <v>0.5</v>
       </c>
       <c r="AM249" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF249-$AK249)^2+($AG249-$AL249)^2))</f>
-        <v>11.067971810589327</v>
+        <v>9.6046863561492728</v>
       </c>
       <c r="AN249" s="3">
         <v>1</v>
       </c>
       <c r="AO249" s="13">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP249" s="13">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AQ249" s="19">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <f>IF(AN249=0,"",SQRT(($AF249-$AO249)^2+($AG249-$AP249)^2))</f>
+        <v>1.5811388300841898</v>
       </c>
       <c r="AR249" s="3">
         <v>1</v>
       </c>
       <c r="AS249" s="13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AT249" s="13">
         <v>5.5</v>
       </c>
       <c r="AU249" s="19">
-        <f t="shared" si="19"/>
-        <v>5.5226805085936306</v>
+        <f>IF(AR249=0,"",SQRT(($AF249-$AS249)^2+($AG249-$AT249)^2))</f>
+        <v>5.1478150704935004</v>
       </c>
     </row>
     <row r="250" spans="1:47" ht="25.05" customHeight="1">
       <c r="A250" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C250" s="17" t="str">
         <f>IF($A250="","",IF(VLOOKUP($A250,Spiele!$A$2:$D$15,3,FALSE)=$B250,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D250" s="17" t="str">
         <f>IF($B250="","",IF(VLOOKUP($A250,Spiele!$A$2:$F$15,3,FALSE)=$B250,VLOOKUP($A250,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A250,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E250" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A250,$A250,$B$2:$B250,$B250,$L$2:$L250,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F250" s="11">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G250" s="12">
         <v>2</v>
       </c>
       <c r="H250" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A250,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B250,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F250,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G250)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A250,'Rote Karten'!$D$2:$D$4,$B250,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F250,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G250)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I250" s="17" t="str">
         <f>IF(OR($L250="Tor",$L250="ET"),_xlfn.IFNA(IF(VLOOKUP($A250,Spiele!$A$2:$C$15,3,FALSE)=$B250,COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,$B250,$A$2:$A250,$A250)&amp;":"&amp;COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250),COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,"&lt;&gt;"&amp;$B250,$A$2:$A250,$A250)&amp;":"&amp;COUNTIFS($L$2:$L250,"Tor",$B$2:$B250,$B250,$A$2:$A250,$A250)+COUNTIFS($L$2:$L250,"ET",$B$2:$B250,$B250,$A$2:$A250,$A250)),""),"")</f>
@@ -38623,107 +38559,92 @@
       </c>
       <c r="J250" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A250,Spiele!$A$2:$D$15,3,FALSE)=$B250,(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,$B250,$A$1:$A249,$A250))-(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)),(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,$B250,$A$1:$A249,$A250))-(COUNTIFS($L$1:$L249,"Tor",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250)+COUNTIFS($L$1:$L249,"ET",$B$1:$B249,"&lt;&gt;"&amp;$B250,$A$1:$A249,$A250))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L250" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O250" s="17">
-        <v>8</v>
-      </c>
-      <c r="P250" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q250" s="2">
-        <v>8</v>
-      </c>
-      <c r="R250" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA250" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB250" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC250" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD250" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AE250" s="18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AF250" s="13">
-        <v>-5.5</v>
+        <v>-4</v>
       </c>
       <c r="AG250" s="13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AH250" s="19">
-        <f t="shared" si="16"/>
-        <v>4.4029081298614443</v>
+        <f t="shared" si="12"/>
+        <v>17.003399660067981</v>
       </c>
       <c r="AI250" s="19">
-        <f t="shared" si="17"/>
-        <v>41.707579601485392</v>
+        <f t="shared" si="13"/>
+        <v>23.110004084388503</v>
       </c>
       <c r="AJ250" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK250" s="13">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="AL250" s="13">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AM250" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF250-$AK250)^2+($AG250-$AL250)^2))</f>
-        <v>1.8027756377319946</v>
+        <v>3.0413812651491097</v>
       </c>
       <c r="AN250" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO250" s="13">
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
       <c r="AP250" s="13">
-        <v>3.5</v>
+        <v>18</v>
       </c>
       <c r="AQ250" s="19">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AR250" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS250" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AT250" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AU250" s="19">
-        <f t="shared" si="19"/>
-        <v>6.5</v>
+        <v>0</v>
+      </c>
+      <c r="AU250" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="251" spans="1:47" ht="25.05" customHeight="1">
       <c r="A251" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C251" s="17" t="str">
         <f>IF($A251="","",IF(VLOOKUP($A251,Spiele!$A$2:$D$15,3,FALSE)=$B251,"H","G"))</f>
@@ -38731,21 +38652,21 @@
       </c>
       <c r="D251" s="17" t="str">
         <f>IF($B251="","",IF(VLOOKUP($A251,Spiele!$A$2:$F$15,3,FALSE)=$B251,VLOOKUP($A251,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A251,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E251" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A251,$A251,$B$2:$B251,$B251,$L$2:$L251,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F251" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G251" s="12">
         <v>2</v>
       </c>
       <c r="H251" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A251,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B251,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F251,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G251)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A251,'Rote Karten'!$D$2:$D$4,$B251,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F251,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G251)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" s="17" t="str">
         <f>IF(OR($L251="Tor",$L251="ET"),_xlfn.IFNA(IF(VLOOKUP($A251,Spiele!$A$2:$C$15,3,FALSE)=$B251,COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,$B251,$A$2:$A251,$A251)&amp;":"&amp;COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251),COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,"&lt;&gt;"&amp;$B251,$A$2:$A251,$A251)&amp;":"&amp;COUNTIFS($L$2:$L251,"Tor",$B$2:$B251,$B251,$A$2:$A251,$A251)+COUNTIFS($L$2:$L251,"ET",$B$2:$B251,$B251,$A$2:$A251,$A251)),""),"")</f>
@@ -38753,52 +38674,26 @@
       </c>
       <c r="J251" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A251,Spiele!$A$2:$D$15,3,FALSE)=$B251,(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,$B251,$A$1:$A250,$A251))-(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)),(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,$B251,$A$1:$A250,$A251))-(COUNTIFS($L$1:$L250,"Tor",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251)+COUNTIFS($L$1:$L250,"ET",$B$1:$B250,"&lt;&gt;"&amp;$B251,$A$1:$A250,$A251))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K251" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L251" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N251" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O251" s="17">
-        <v>7</v>
-      </c>
-      <c r="P251" s="2">
-        <v>18</v>
-      </c>
-      <c r="Q251" s="2">
-        <v>8</v>
-      </c>
-      <c r="R251" s="2">
-        <v>7</v>
-      </c>
-      <c r="S251" s="2">
-        <v>23</v>
-      </c>
-      <c r="T251" s="2">
-        <v>6</v>
-      </c>
-      <c r="U251" s="2">
-        <v>5</v>
-      </c>
-      <c r="V251" s="2">
-        <v>16</v>
-      </c>
-      <c r="W251" s="2">
-        <v>20</v>
-      </c>
+      <c r="O251" s="17"/>
       <c r="AA251" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB251" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC251" s="14" t="s">
         <v>150</v>
@@ -38806,65 +38701,67 @@
       <c r="AD251" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE251" s="18">
-        <v>10</v>
-      </c>
+      <c r="AE251" s="18"/>
       <c r="AF251" s="13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AG251" s="13">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="AH251" s="19">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>20.5</v>
       </c>
       <c r="AI251" s="19">
-        <f t="shared" si="17"/>
-        <v>26.748394088035369</v>
+        <f t="shared" si="13"/>
+        <v>20.199851444946965</v>
       </c>
       <c r="AJ251" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK251" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL251" s="13">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AM251" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF251-$AK251)^2+($AG251-$AL251)^2))</f>
-        <v>11.76860229593982</v>
+        <v>18.560711193270585</v>
       </c>
       <c r="AN251" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO251" s="13"/>
-      <c r="AP251" s="13"/>
-      <c r="AQ251" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="AO251" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP251" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AQ251" s="19">
+        <f t="shared" si="14"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AR251" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS251" s="13">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AT251" s="13">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AU251" s="19">
-        <f t="shared" si="19"/>
-        <v>4.1231056256176606</v>
+        <f t="shared" si="15"/>
+        <v>8.1394102980498531</v>
       </c>
     </row>
     <row r="252" spans="1:47" ht="25.05" customHeight="1">
       <c r="A252" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C252" s="17" t="str">
         <f>IF($A252="","",IF(VLOOKUP($A252,Spiele!$A$2:$D$15,3,FALSE)=$B252,"H","G"))</f>
@@ -38872,21 +38769,21 @@
       </c>
       <c r="D252" s="17" t="str">
         <f>IF($B252="","",IF(VLOOKUP($A252,Spiele!$A$2:$F$15,3,FALSE)=$B252,VLOOKUP($A252,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A252,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E252" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A252,$A252,$B$2:$B252,$B252,$L$2:$L252,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F252" s="11">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G252" s="12">
         <v>2</v>
       </c>
       <c r="H252" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A252,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B252,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F252,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G252)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A252,'Rote Karten'!$D$2:$D$4,$B252,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F252,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G252)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" s="17" t="str">
         <f>IF(OR($L252="Tor",$L252="ET"),_xlfn.IFNA(IF(VLOOKUP($A252,Spiele!$A$2:$C$15,3,FALSE)=$B252,COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,$B252,$A$2:$A252,$A252)&amp;":"&amp;COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252),COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,"&lt;&gt;"&amp;$B252,$A$2:$A252,$A252)&amp;":"&amp;COUNTIFS($L$2:$L252,"Tor",$B$2:$B252,$B252,$A$2:$A252,$A252)+COUNTIFS($L$2:$L252,"ET",$B$2:$B252,$B252,$A$2:$A252,$A252)),""),"")</f>
@@ -38894,33 +38791,22 @@
       </c>
       <c r="J252" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A252,Spiele!$A$2:$D$15,3,FALSE)=$B252,(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,$B252,$A$1:$A251,$A252))-(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)),(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,$B252,$A$1:$A251,$A252))-(COUNTIFS($L$1:$L251,"Tor",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252)+COUNTIFS($L$1:$L251,"ET",$B$1:$B251,"&lt;&gt;"&amp;$B252,$A$1:$A251,$A252))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K252" s="3">
-        <v>24</v>
-      </c>
-      <c r="L252" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L252" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M252" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N252" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O252" s="17">
-        <v>18</v>
-      </c>
-      <c r="P252" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q252" s="2">
-        <v>18</v>
-      </c>
-      <c r="AA252" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB252" s="17" t="s">
+      <c r="M252" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O252" s="17"/>
+      <c r="AA252" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB252" s="18" t="s">
         <v>143</v>
       </c>
       <c r="AC252" s="14" t="s">
@@ -38929,111 +38815,111 @@
       <c r="AD252" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE252" s="18">
-        <v>7</v>
-      </c>
+      <c r="AE252" s="18"/>
       <c r="AF252" s="13">
-        <v>-13.5</v>
+        <v>3</v>
       </c>
       <c r="AG252" s="13">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AH252" s="19">
-        <f t="shared" si="16"/>
-        <v>19.211340400919454</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="AI252" s="19">
-        <f t="shared" si="17"/>
-        <v>15.312989252529659</v>
-      </c>
-      <c r="AJ252" s="2" t="s">
+        <f t="shared" si="13"/>
+        <v>13.776977760937497</v>
+      </c>
+      <c r="AJ252" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK252" s="13">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AL252" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM252" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF252-$AK252)^2+($AG252-$AL252)^2))</f>
-        <v>17.613914953808536</v>
+        <v>29.210443337957059</v>
       </c>
       <c r="AN252" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO252" s="13">
-        <v>-12.5</v>
-      </c>
-      <c r="AP252" s="13">
-        <v>17.5</v>
-      </c>
-      <c r="AQ252" s="19">
-        <f t="shared" si="18"/>
-        <v>1.4142135623730951</v>
+        <v>0</v>
+      </c>
+      <c r="AO252" s="13"/>
+      <c r="AP252" s="13"/>
+      <c r="AQ252" s="19" t="str">
+        <f>IF(AN252=0,"",SQRT(($AF252-$AO252)^2+($AG252-$AP252)^2))</f>
+        <v/>
       </c>
       <c r="AR252" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU252" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="AS252" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT252" s="13">
+        <v>18</v>
+      </c>
+      <c r="AU252" s="19">
+        <f>IF(AR252=0,"",SQRT(($AF252-$AS252)^2+($AG252-$AT252)^2))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:47" ht="25.05" customHeight="1">
       <c r="A253" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C253" s="17" t="str">
         <f>IF($A253="","",IF(VLOOKUP($A253,Spiele!$A$2:$D$15,3,FALSE)=$B253,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D253" s="17" t="str">
         <f>IF($B253="","",IF(VLOOKUP($A253,Spiele!$A$2:$F$15,3,FALSE)=$B253,VLOOKUP($A253,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A253,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>UHG</v>
       </c>
       <c r="E253" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A253,$A253,$B$2:$B253,$B253,$L$2:$L253,"&lt;&gt;ET"))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F253" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G253" s="12">
         <v>2</v>
       </c>
       <c r="H253" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A253,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B253,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F253,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G253)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A253,'Rote Karten'!$D$2:$D$4,$B253,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F253,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G253)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I253" s="17" t="str">
         <f>IF(OR($L253="Tor",$L253="ET"),_xlfn.IFNA(IF(VLOOKUP($A253,Spiele!$A$2:$C$15,3,FALSE)=$B253,COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,$B253,$A$2:$A253,$A253)&amp;":"&amp;COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253),COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,"&lt;&gt;"&amp;$B253,$A$2:$A253,$A253)&amp;":"&amp;COUNTIFS($L$2:$L253,"Tor",$B$2:$B253,$B253,$A$2:$A253,$A253)+COUNTIFS($L$2:$L253,"ET",$B$2:$B253,$B253,$A$2:$A253,$A253)),""),"")</f>
-        <v/>
+        <v>2:4</v>
       </c>
       <c r="J253" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A253,Spiele!$A$2:$D$15,3,FALSE)=$B253,(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,$B253,$A$1:$A252,$A253))-(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)),(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,$B253,$A$1:$A252,$A253))-(COUNTIFS($L$1:$L252,"Tor",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253)+COUNTIFS($L$1:$L252,"ET",$B$1:$B252,"&lt;&gt;"&amp;$B253,$A$1:$A252,$A253))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K253" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L253" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M253" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O253" s="17">
         <v>20</v>
       </c>
-      <c r="M253" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N253" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O253" s="17">
-        <v>10</v>
-      </c>
       <c r="AA253" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB253" s="17" t="s">
         <v>143</v>
@@ -39042,63 +38928,57 @@
         <v>150</v>
       </c>
       <c r="AD253" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE253" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF253" s="13">
-        <v>14.5</v>
+        <v>-11</v>
       </c>
       <c r="AG253" s="13">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="AH253" s="19">
-        <f t="shared" si="16"/>
-        <v>17.7060893480181</v>
+        <f t="shared" si="12"/>
+        <v>9.1720008722197566</v>
       </c>
       <c r="AI253" s="19">
-        <f t="shared" si="17"/>
-        <v>14.620361026676797</v>
+        <f t="shared" si="13"/>
+        <v>16.280299499326109</v>
       </c>
       <c r="AJ253" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK253" s="13">
-        <v>2.5</v>
+        <v>-6</v>
       </c>
       <c r="AL253" s="13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AM253" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF253-$AK253)^2+($AG253-$AL253)^2))</f>
-        <v>17.327723451163457</v>
+        <v>5.5901699437494745</v>
       </c>
       <c r="AN253" s="3">
         <v>1</v>
       </c>
       <c r="AO253" s="13">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="AP253" s="13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AQ253" s="19">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
       <c r="AR253" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS253" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="AT253" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU253" s="19">
-        <f t="shared" si="19"/>
-        <v>8.4852813742385695</v>
+        <v>0</v>
+      </c>
+      <c r="AU253" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="254" spans="1:47" ht="25.05" customHeight="1">
@@ -39118,13 +38998,13 @@
       </c>
       <c r="E254" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A254,$A254,$B$2:$B254,$B254,$L$2:$L254,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F254" s="11">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="G254" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A254,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B254,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F254,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G254)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A254,'Rote Karten'!$D$2:$D$4,$B254,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F254,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G254)</f>
@@ -39139,23 +39019,23 @@
         <v>0</v>
       </c>
       <c r="K254" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L254" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O254" s="17"/>
       <c r="AA254" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB254" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC254" s="14" t="s">
         <v>150</v>
@@ -39165,85 +39045,3402 @@
       </c>
       <c r="AE254" s="18"/>
       <c r="AF254" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG254" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AH254" s="19">
+        <f t="shared" ref="AH254:AH282" si="16">IF($L254="ET","",IF($AF254&gt;3.66,SQRT($AG254^2+($AF254-(7.32/2))^2),IF($AF254&lt;-3.66,SQRT($AG254^2+($AF254+(7.32/2))^2),$AG254)))</f>
+        <v>17.5</v>
+      </c>
+      <c r="AI254" s="19">
+        <f t="shared" ref="AI254:AI282" si="17">IF($L254="ET","",IF(DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2)))))</f>
+        <v>23.341389828691302</v>
+      </c>
+      <c r="AJ254" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK254" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL254" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM254" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF254-$AK254)^2+($AG254-$AL254)^2))</f>
+        <v>17.066048165876012</v>
+      </c>
+      <c r="AN254" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO254" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AP254" s="13">
+        <v>17</v>
+      </c>
+      <c r="AQ254" s="19">
+        <f t="shared" ref="AQ254:AQ282" si="18">IF(AN254=0,"",SQRT(($AF254-$AO254)^2+($AG254-$AP254)^2))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR254" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS254" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT254" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU254" s="19">
+        <f t="shared" ref="AU254:AU282" si="19">IF(AR254=0,"",SQRT(($AF254-$AS254)^2+($AG254-$AT254)^2))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A255" s="3">
+        <v>13</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C255" s="17" t="str">
+        <f>IF($A255="","",IF(VLOOKUP($A255,Spiele!$A$2:$D$15,3,FALSE)=$B255,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D255" s="17" t="str">
+        <f>IF($B255="","",IF(VLOOKUP($A255,Spiele!$A$2:$F$15,3,FALSE)=$B255,VLOOKUP($A255,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A255,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E255" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A255,$A255,$B$2:$B255,$B255,$L$2:$L255,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F255" s="11">
+        <v>7</v>
+      </c>
+      <c r="G255" s="12">
+        <v>1</v>
+      </c>
+      <c r="H255" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A255,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B255,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F255,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G255)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A255,'Rote Karten'!$D$2:$D$4,$B255,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F255,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G255)</f>
+        <v>0</v>
+      </c>
+      <c r="I255" s="17" t="str">
+        <f>IF(OR($L255="Tor",$L255="ET"),_xlfn.IFNA(IF(VLOOKUP($A255,Spiele!$A$2:$C$15,3,FALSE)=$B255,COUNTIFS($L$2:$L255,"Tor",$B$2:$B255,$B255,$A$2:$A255,$A255)+COUNTIFS($L$2:$L255,"ET",$B$2:$B255,$B255,$A$2:$A255,$A255)&amp;":"&amp;COUNTIFS($L$2:$L255,"Tor",$B$2:$B255,"&lt;&gt;"&amp;$B255,$A$2:$A255,$A255)+COUNTIFS($L$2:$L255,"ET",$B$2:$B255,"&lt;&gt;"&amp;$B255,$A$2:$A255,$A255),COUNTIFS($L$2:$L255,"Tor",$B$2:$B255,"&lt;&gt;"&amp;$B255,$A$2:$A255,$A255)+COUNTIFS($L$2:$L255,"ET",$B$2:$B255,"&lt;&gt;"&amp;$B255,$A$2:$A255,$A255)&amp;":"&amp;COUNTIFS($L$2:$L255,"Tor",$B$2:$B255,$B255,$A$2:$A255,$A255)+COUNTIFS($L$2:$L255,"ET",$B$2:$B255,$B255,$A$2:$A255,$A255)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J255" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A255,Spiele!$A$2:$D$15,3,FALSE)=$B255,(COUNTIFS($L$1:$L254,"Tor",$B$1:$B254,$B255,$A$1:$A254,$A255)+COUNTIFS($L$1:$L254,"ET",$B$1:$B254,$B255,$A$1:$A254,$A255))-(COUNTIFS($L$1:$L254,"Tor",$B$1:$B254,"&lt;&gt;"&amp;$B255,$A$1:$A254,$A255)+COUNTIFS($L$1:$L254,"ET",$B$1:$B254,"&lt;&gt;"&amp;$B255,$A$1:$A254,$A255)),(COUNTIFS($L$1:$L254,"Tor",$B$1:$B254,$B255,$A$1:$A254,$A255)+COUNTIFS($L$1:$L254,"ET",$B$1:$B254,$B255,$A$1:$A254,$A255))-(COUNTIFS($L$1:$L254,"Tor",$B$1:$B254,"&lt;&gt;"&amp;$B255,$A$1:$A254,$A255)+COUNTIFS($L$1:$L254,"ET",$B$1:$B254,"&lt;&gt;"&amp;$B255,$A$1:$A254,$A255))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K255" s="3">
+        <v>1</v>
+      </c>
+      <c r="L255" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O255" s="17"/>
+      <c r="AA255" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB255" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC255" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD255" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE255" s="18"/>
+      <c r="AF255" s="13">
         <v>-12</v>
       </c>
-      <c r="AG254" s="13">
+      <c r="AG255" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AH255" s="19">
+        <f t="shared" si="16"/>
+        <v>17.601295406872758</v>
+      </c>
+      <c r="AI255" s="19">
+        <f t="shared" si="17"/>
+        <v>17.011080950867086</v>
+      </c>
+      <c r="AJ255" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK255" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL255" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM255" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF255-$AK255)^2+($AG255-$AL255)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AN255" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO255" s="13"/>
+      <c r="AP255" s="13"/>
+      <c r="AQ255" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR255" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS255" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AT255" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU255" s="19">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A256" s="3">
+        <v>13</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="17" t="str">
+        <f>IF($A256="","",IF(VLOOKUP($A256,Spiele!$A$2:$D$15,3,FALSE)=$B256,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D256" s="17" t="str">
+        <f>IF($B256="","",IF(VLOOKUP($A256,Spiele!$A$2:$F$15,3,FALSE)=$B256,VLOOKUP($A256,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A256,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E256" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A256,$A256,$B$2:$B256,$B256,$L$2:$L256,"&lt;&gt;ET"))</f>
+        <v>1</v>
+      </c>
+      <c r="F256" s="11">
+        <v>8</v>
+      </c>
+      <c r="G256" s="12">
+        <v>1</v>
+      </c>
+      <c r="H256" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A256,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B256,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F256,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G256)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A256,'Rote Karten'!$D$2:$D$4,$B256,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F256,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G256)</f>
+        <v>0</v>
+      </c>
+      <c r="I256" s="17" t="str">
+        <f>IF(OR($L256="Tor",$L256="ET"),_xlfn.IFNA(IF(VLOOKUP($A256,Spiele!$A$2:$C$15,3,FALSE)=$B256,COUNTIFS($L$2:$L256,"Tor",$B$2:$B256,$B256,$A$2:$A256,$A256)+COUNTIFS($L$2:$L256,"ET",$B$2:$B256,$B256,$A$2:$A256,$A256)&amp;":"&amp;COUNTIFS($L$2:$L256,"Tor",$B$2:$B256,"&lt;&gt;"&amp;$B256,$A$2:$A256,$A256)+COUNTIFS($L$2:$L256,"ET",$B$2:$B256,"&lt;&gt;"&amp;$B256,$A$2:$A256,$A256),COUNTIFS($L$2:$L256,"Tor",$B$2:$B256,"&lt;&gt;"&amp;$B256,$A$2:$A256,$A256)+COUNTIFS($L$2:$L256,"ET",$B$2:$B256,"&lt;&gt;"&amp;$B256,$A$2:$A256,$A256)&amp;":"&amp;COUNTIFS($L$2:$L256,"Tor",$B$2:$B256,$B256,$A$2:$A256,$A256)+COUNTIFS($L$2:$L256,"ET",$B$2:$B256,$B256,$A$2:$A256,$A256)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J256" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A256,Spiele!$A$2:$D$15,3,FALSE)=$B256,(COUNTIFS($L$1:$L255,"Tor",$B$1:$B255,$B256,$A$1:$A255,$A256)+COUNTIFS($L$1:$L255,"ET",$B$1:$B255,$B256,$A$1:$A255,$A256))-(COUNTIFS($L$1:$L255,"Tor",$B$1:$B255,"&lt;&gt;"&amp;$B256,$A$1:$A255,$A256)+COUNTIFS($L$1:$L255,"ET",$B$1:$B255,"&lt;&gt;"&amp;$B256,$A$1:$A255,$A256)),(COUNTIFS($L$1:$L255,"Tor",$B$1:$B255,$B256,$A$1:$A255,$A256)+COUNTIFS($L$1:$L255,"ET",$B$1:$B255,$B256,$A$1:$A255,$A256))-(COUNTIFS($L$1:$L255,"Tor",$B$1:$B255,"&lt;&gt;"&amp;$B256,$A$1:$A255,$A256)+COUNTIFS($L$1:$L255,"ET",$B$1:$B255,"&lt;&gt;"&amp;$B256,$A$1:$A255,$A256))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K256" s="3">
+        <v>2</v>
+      </c>
+      <c r="L256" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M256" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N256" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O256" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA256" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB256" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC256" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD256" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE256" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF256" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AG256" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AH256" s="19">
+        <f t="shared" si="16"/>
+        <v>11.5</v>
+      </c>
+      <c r="AI256" s="19">
+        <f t="shared" si="17"/>
+        <v>32.703859314557576</v>
+      </c>
+      <c r="AJ256" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK256" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL256" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM256" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF256-$AK256)^2+($AG256-$AL256)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="AN256" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO256" s="13"/>
+      <c r="AP256" s="13"/>
+      <c r="AQ256" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR256" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS256" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT256" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU256" s="19">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A257" s="3">
+        <v>13</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C257" s="17" t="str">
+        <f>IF($A257="","",IF(VLOOKUP($A257,Spiele!$A$2:$D$15,3,FALSE)=$B257,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D257" s="17" t="str">
+        <f>IF($B257="","",IF(VLOOKUP($A257,Spiele!$A$2:$F$15,3,FALSE)=$B257,VLOOKUP($A257,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A257,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E257" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A257,$A257,$B$2:$B257,$B257,$L$2:$L257,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F257" s="11">
+        <v>9</v>
+      </c>
+      <c r="G257" s="12">
+        <v>1</v>
+      </c>
+      <c r="H257" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A257,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B257,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F257,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G257)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A257,'Rote Karten'!$D$2:$D$4,$B257,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F257,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G257)</f>
+        <v>0</v>
+      </c>
+      <c r="I257" s="17" t="str">
+        <f>IF(OR($L257="Tor",$L257="ET"),_xlfn.IFNA(IF(VLOOKUP($A257,Spiele!$A$2:$C$15,3,FALSE)=$B257,COUNTIFS($L$2:$L257,"Tor",$B$2:$B257,$B257,$A$2:$A257,$A257)+COUNTIFS($L$2:$L257,"ET",$B$2:$B257,$B257,$A$2:$A257,$A257)&amp;":"&amp;COUNTIFS($L$2:$L257,"Tor",$B$2:$B257,"&lt;&gt;"&amp;$B257,$A$2:$A257,$A257)+COUNTIFS($L$2:$L257,"ET",$B$2:$B257,"&lt;&gt;"&amp;$B257,$A$2:$A257,$A257),COUNTIFS($L$2:$L257,"Tor",$B$2:$B257,"&lt;&gt;"&amp;$B257,$A$2:$A257,$A257)+COUNTIFS($L$2:$L257,"ET",$B$2:$B257,"&lt;&gt;"&amp;$B257,$A$2:$A257,$A257)&amp;":"&amp;COUNTIFS($L$2:$L257,"Tor",$B$2:$B257,$B257,$A$2:$A257,$A257)+COUNTIFS($L$2:$L257,"ET",$B$2:$B257,$B257,$A$2:$A257,$A257)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J257" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A257,Spiele!$A$2:$D$15,3,FALSE)=$B257,(COUNTIFS($L$1:$L256,"Tor",$B$1:$B256,$B257,$A$1:$A256,$A257)+COUNTIFS($L$1:$L256,"ET",$B$1:$B256,$B257,$A$1:$A256,$A257))-(COUNTIFS($L$1:$L256,"Tor",$B$1:$B256,"&lt;&gt;"&amp;$B257,$A$1:$A256,$A257)+COUNTIFS($L$1:$L256,"ET",$B$1:$B256,"&lt;&gt;"&amp;$B257,$A$1:$A256,$A257)),(COUNTIFS($L$1:$L256,"Tor",$B$1:$B256,$B257,$A$1:$A256,$A257)+COUNTIFS($L$1:$L256,"ET",$B$1:$B256,$B257,$A$1:$A256,$A257))-(COUNTIFS($L$1:$L256,"Tor",$B$1:$B256,"&lt;&gt;"&amp;$B257,$A$1:$A256,$A257)+COUNTIFS($L$1:$L256,"ET",$B$1:$B256,"&lt;&gt;"&amp;$B257,$A$1:$A256,$A257))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K257" s="3">
+        <v>3</v>
+      </c>
+      <c r="L257" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AH254" s="19">
+      <c r="M257" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N257" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O257" s="17"/>
+      <c r="AA257" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB257" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC257" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD257" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE257" s="18"/>
+      <c r="AF257" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AG257" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AH257" s="19">
+        <f t="shared" si="16"/>
+        <v>15.5</v>
+      </c>
+      <c r="AI257" s="19">
+        <f t="shared" si="17"/>
+        <v>26.546439371443093</v>
+      </c>
+      <c r="AJ257" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK257" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL257" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM257" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF257-$AK257)^2+($AG257-$AL257)^2))</f>
+        <v>15.033296378372908</v>
+      </c>
+      <c r="AN257" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO257" s="13"/>
+      <c r="AP257" s="13"/>
+      <c r="AQ257" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR257" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS257" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AT257" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU257" s="19">
+        <f t="shared" si="19"/>
+        <v>6.0207972893961479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A258" s="3">
+        <v>13</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="17" t="str">
+        <f>IF($A258="","",IF(VLOOKUP($A258,Spiele!$A$2:$D$15,3,FALSE)=$B258,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D258" s="17" t="str">
+        <f>IF($B258="","",IF(VLOOKUP($A258,Spiele!$A$2:$F$15,3,FALSE)=$B258,VLOOKUP($A258,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A258,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E258" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A258,$A258,$B$2:$B258,$B258,$L$2:$L258,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F258" s="11">
+        <v>10</v>
+      </c>
+      <c r="G258" s="12">
+        <v>1</v>
+      </c>
+      <c r="H258" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A258,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B258,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F258,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G258)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A258,'Rote Karten'!$D$2:$D$4,$B258,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F258,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G258)</f>
+        <v>0</v>
+      </c>
+      <c r="I258" s="17" t="str">
+        <f>IF(OR($L258="Tor",$L258="ET"),_xlfn.IFNA(IF(VLOOKUP($A258,Spiele!$A$2:$C$15,3,FALSE)=$B258,COUNTIFS($L$2:$L258,"Tor",$B$2:$B258,$B258,$A$2:$A258,$A258)+COUNTIFS($L$2:$L258,"ET",$B$2:$B258,$B258,$A$2:$A258,$A258)&amp;":"&amp;COUNTIFS($L$2:$L258,"Tor",$B$2:$B258,"&lt;&gt;"&amp;$B258,$A$2:$A258,$A258)+COUNTIFS($L$2:$L258,"ET",$B$2:$B258,"&lt;&gt;"&amp;$B258,$A$2:$A258,$A258),COUNTIFS($L$2:$L258,"Tor",$B$2:$B258,"&lt;&gt;"&amp;$B258,$A$2:$A258,$A258)+COUNTIFS($L$2:$L258,"ET",$B$2:$B258,"&lt;&gt;"&amp;$B258,$A$2:$A258,$A258)&amp;":"&amp;COUNTIFS($L$2:$L258,"Tor",$B$2:$B258,$B258,$A$2:$A258,$A258)+COUNTIFS($L$2:$L258,"ET",$B$2:$B258,$B258,$A$2:$A258,$A258)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J258" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A258,Spiele!$A$2:$D$15,3,FALSE)=$B258,(COUNTIFS($L$1:$L257,"Tor",$B$1:$B257,$B258,$A$1:$A257,$A258)+COUNTIFS($L$1:$L257,"ET",$B$1:$B257,$B258,$A$1:$A257,$A258))-(COUNTIFS($L$1:$L257,"Tor",$B$1:$B257,"&lt;&gt;"&amp;$B258,$A$1:$A257,$A258)+COUNTIFS($L$1:$L257,"ET",$B$1:$B257,"&lt;&gt;"&amp;$B258,$A$1:$A257,$A258)),(COUNTIFS($L$1:$L257,"Tor",$B$1:$B257,$B258,$A$1:$A257,$A258)+COUNTIFS($L$1:$L257,"ET",$B$1:$B257,$B258,$A$1:$A257,$A258))-(COUNTIFS($L$1:$L257,"Tor",$B$1:$B257,"&lt;&gt;"&amp;$B258,$A$1:$A257,$A258)+COUNTIFS($L$1:$L257,"ET",$B$1:$B257,"&lt;&gt;"&amp;$B258,$A$1:$A257,$A258))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K258" s="3">
+        <v>4</v>
+      </c>
+      <c r="L258" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N258" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O258" s="17">
+        <v>9</v>
+      </c>
+      <c r="P258" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q258" s="2">
+        <v>7</v>
+      </c>
+      <c r="R258" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA258" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB258" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC258" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD258" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE258" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF258" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG258" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH258" s="19">
+        <f t="shared" si="16"/>
+        <v>13.595793467098565</v>
+      </c>
+      <c r="AI258" s="19">
+        <f t="shared" si="17"/>
+        <v>11.583042211219654</v>
+      </c>
+      <c r="AJ258" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK258" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL258" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM258" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF258-$AK258)^2+($AG258-$AL258)^2))</f>
+        <v>12.529964086141668</v>
+      </c>
+      <c r="AN258" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO258" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AP258" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ258" s="19">
+        <f t="shared" si="18"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AR258" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU258" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A259" s="3">
+        <v>13</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C259" s="17" t="str">
+        <f>IF($A259="","",IF(VLOOKUP($A259,Spiele!$A$2:$D$15,3,FALSE)=$B259,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D259" s="17" t="str">
+        <f>IF($B259="","",IF(VLOOKUP($A259,Spiele!$A$2:$F$15,3,FALSE)=$B259,VLOOKUP($A259,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A259,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E259" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A259,$A259,$B$2:$B259,$B259,$L$2:$L259,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F259" s="11">
+        <v>14</v>
+      </c>
+      <c r="G259" s="12">
+        <v>1</v>
+      </c>
+      <c r="H259" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A259,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B259,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F259,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G259)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A259,'Rote Karten'!$D$2:$D$4,$B259,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F259,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G259)</f>
+        <v>0</v>
+      </c>
+      <c r="I259" s="17" t="str">
+        <f>IF(OR($L259="Tor",$L259="ET"),_xlfn.IFNA(IF(VLOOKUP($A259,Spiele!$A$2:$C$15,3,FALSE)=$B259,COUNTIFS($L$2:$L259,"Tor",$B$2:$B259,$B259,$A$2:$A259,$A259)+COUNTIFS($L$2:$L259,"ET",$B$2:$B259,$B259,$A$2:$A259,$A259)&amp;":"&amp;COUNTIFS($L$2:$L259,"Tor",$B$2:$B259,"&lt;&gt;"&amp;$B259,$A$2:$A259,$A259)+COUNTIFS($L$2:$L259,"ET",$B$2:$B259,"&lt;&gt;"&amp;$B259,$A$2:$A259,$A259),COUNTIFS($L$2:$L259,"Tor",$B$2:$B259,"&lt;&gt;"&amp;$B259,$A$2:$A259,$A259)+COUNTIFS($L$2:$L259,"ET",$B$2:$B259,"&lt;&gt;"&amp;$B259,$A$2:$A259,$A259)&amp;":"&amp;COUNTIFS($L$2:$L259,"Tor",$B$2:$B259,$B259,$A$2:$A259,$A259)+COUNTIFS($L$2:$L259,"ET",$B$2:$B259,$B259,$A$2:$A259,$A259)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J259" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A259,Spiele!$A$2:$D$15,3,FALSE)=$B259,(COUNTIFS($L$1:$L258,"Tor",$B$1:$B258,$B259,$A$1:$A258,$A259)+COUNTIFS($L$1:$L258,"ET",$B$1:$B258,$B259,$A$1:$A258,$A259))-(COUNTIFS($L$1:$L258,"Tor",$B$1:$B258,"&lt;&gt;"&amp;$B259,$A$1:$A258,$A259)+COUNTIFS($L$1:$L258,"ET",$B$1:$B258,"&lt;&gt;"&amp;$B259,$A$1:$A258,$A259)),(COUNTIFS($L$1:$L258,"Tor",$B$1:$B258,$B259,$A$1:$A258,$A259)+COUNTIFS($L$1:$L258,"ET",$B$1:$B258,$B259,$A$1:$A258,$A259))-(COUNTIFS($L$1:$L258,"Tor",$B$1:$B258,"&lt;&gt;"&amp;$B259,$A$1:$A258,$A259)+COUNTIFS($L$1:$L258,"ET",$B$1:$B258,"&lt;&gt;"&amp;$B259,$A$1:$A258,$A259))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K259" s="3">
+        <v>5</v>
+      </c>
+      <c r="L259" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M259" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N259" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O259" s="17"/>
+      <c r="AA259" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB259" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC259" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD259" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE259" s="18"/>
+      <c r="AF259" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AG259" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH259" s="19">
+        <f t="shared" si="16"/>
+        <v>13.555279414309393</v>
+      </c>
+      <c r="AI259" s="19">
+        <f t="shared" si="17"/>
+        <v>24.188491715950388</v>
+      </c>
+      <c r="AJ259" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL259" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM259" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF259-$AK259)^2+($AG259-$AL259)^2))</f>
+        <v>14.089002803605371</v>
+      </c>
+      <c r="AN259" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO259" s="13"/>
+      <c r="AP259" s="13"/>
+      <c r="AQ259" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR259" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS259" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT259" s="13">
+        <v>12</v>
+      </c>
+      <c r="AU259" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="260" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A260" s="3">
+        <v>13</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C260" s="17" t="str">
+        <f>IF($A260="","",IF(VLOOKUP($A260,Spiele!$A$2:$D$15,3,FALSE)=$B260,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D260" s="17" t="str">
+        <f>IF($B260="","",IF(VLOOKUP($A260,Spiele!$A$2:$F$15,3,FALSE)=$B260,VLOOKUP($A260,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A260,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E260" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A260,$A260,$B$2:$B260,$B260,$L$2:$L260,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F260" s="11">
+        <v>18</v>
+      </c>
+      <c r="G260" s="12">
+        <v>1</v>
+      </c>
+      <c r="H260" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A260,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B260,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F260,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G260)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A260,'Rote Karten'!$D$2:$D$4,$B260,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F260,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G260)</f>
+        <v>0</v>
+      </c>
+      <c r="I260" s="17" t="str">
+        <f>IF(OR($L260="Tor",$L260="ET"),_xlfn.IFNA(IF(VLOOKUP($A260,Spiele!$A$2:$C$15,3,FALSE)=$B260,COUNTIFS($L$2:$L260,"Tor",$B$2:$B260,$B260,$A$2:$A260,$A260)+COUNTIFS($L$2:$L260,"ET",$B$2:$B260,$B260,$A$2:$A260,$A260)&amp;":"&amp;COUNTIFS($L$2:$L260,"Tor",$B$2:$B260,"&lt;&gt;"&amp;$B260,$A$2:$A260,$A260)+COUNTIFS($L$2:$L260,"ET",$B$2:$B260,"&lt;&gt;"&amp;$B260,$A$2:$A260,$A260),COUNTIFS($L$2:$L260,"Tor",$B$2:$B260,"&lt;&gt;"&amp;$B260,$A$2:$A260,$A260)+COUNTIFS($L$2:$L260,"ET",$B$2:$B260,"&lt;&gt;"&amp;$B260,$A$2:$A260,$A260)&amp;":"&amp;COUNTIFS($L$2:$L260,"Tor",$B$2:$B260,$B260,$A$2:$A260,$A260)+COUNTIFS($L$2:$L260,"ET",$B$2:$B260,$B260,$A$2:$A260,$A260)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J260" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A260,Spiele!$A$2:$D$15,3,FALSE)=$B260,(COUNTIFS($L$1:$L259,"Tor",$B$1:$B259,$B260,$A$1:$A259,$A260)+COUNTIFS($L$1:$L259,"ET",$B$1:$B259,$B260,$A$1:$A259,$A260))-(COUNTIFS($L$1:$L259,"Tor",$B$1:$B259,"&lt;&gt;"&amp;$B260,$A$1:$A259,$A260)+COUNTIFS($L$1:$L259,"ET",$B$1:$B259,"&lt;&gt;"&amp;$B260,$A$1:$A259,$A260)),(COUNTIFS($L$1:$L259,"Tor",$B$1:$B259,$B260,$A$1:$A259,$A260)+COUNTIFS($L$1:$L259,"ET",$B$1:$B259,$B260,$A$1:$A259,$A260))-(COUNTIFS($L$1:$L259,"Tor",$B$1:$B259,"&lt;&gt;"&amp;$B260,$A$1:$A259,$A260)+COUNTIFS($L$1:$L259,"ET",$B$1:$B259,"&lt;&gt;"&amp;$B260,$A$1:$A259,$A260))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K260" s="3">
+        <v>6</v>
+      </c>
+      <c r="L260" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O260" s="17"/>
+      <c r="AA260" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB260" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC260" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD260" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE260" s="18"/>
+      <c r="AF260" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG260" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH260" s="19">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="AI260" s="19">
+        <f t="shared" si="17"/>
+        <v>21.750134253188115</v>
+      </c>
+      <c r="AJ260" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM260" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF260-$AK260)^2+($AG260-$AL260)^2))</f>
+        <v>18.527007313648905</v>
+      </c>
+      <c r="AN260" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO260" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AP260" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ260" s="19">
+        <f t="shared" si="18"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="AR260" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS260" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT260" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU260" s="19">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A261" s="3">
+        <v>13</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C261" s="17" t="str">
+        <f>IF($A261="","",IF(VLOOKUP($A261,Spiele!$A$2:$D$15,3,FALSE)=$B261,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D261" s="17" t="str">
+        <f>IF($B261="","",IF(VLOOKUP($A261,Spiele!$A$2:$F$15,3,FALSE)=$B261,VLOOKUP($A261,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A261,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E261" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A261,$A261,$B$2:$B261,$B261,$L$2:$L261,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F261" s="11">
+        <v>18</v>
+      </c>
+      <c r="G261" s="12">
+        <v>1</v>
+      </c>
+      <c r="H261" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A261,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B261,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F261,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G261)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A261,'Rote Karten'!$D$2:$D$4,$B261,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F261,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G261)</f>
+        <v>0</v>
+      </c>
+      <c r="I261" s="17" t="str">
+        <f>IF(OR($L261="Tor",$L261="ET"),_xlfn.IFNA(IF(VLOOKUP($A261,Spiele!$A$2:$C$15,3,FALSE)=$B261,COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,$B261,$A$2:$A261,$A261)&amp;":"&amp;COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261),COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)&amp;":"&amp;COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,$B261,$A$2:$A261,$A261)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J261" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A261,Spiele!$A$2:$D$15,3,FALSE)=$B261,(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,$B261,$A$1:$A260,$A261))-(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)),(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,$B261,$A$1:$A260,$A261))-(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K261" s="3">
+        <v>6</v>
+      </c>
+      <c r="L261" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O261" s="17"/>
+      <c r="AA261" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB261" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC261" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD261" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE261" s="18"/>
+      <c r="AF261" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AG261" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH261" s="19">
+        <f t="shared" si="16"/>
+        <v>14.775506759498978</v>
+      </c>
+      <c r="AI261" s="19">
+        <f t="shared" si="17"/>
+        <v>23.936746455580142</v>
+      </c>
+      <c r="AJ261" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK261" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL261" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM261" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF261-$AK261)^2+($AG261-$AL261)^2))</f>
+        <v>15.231546211727817</v>
+      </c>
+      <c r="AN261" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO261" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP261" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AQ261" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="AR261" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS261" s="13">
+        <v>6</v>
+      </c>
+      <c r="AT261" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU261" s="19">
+        <f t="shared" si="19"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="262" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A262" s="3">
+        <v>13</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="17" t="str">
+        <f>IF($A262="","",IF(VLOOKUP($A262,Spiele!$A$2:$D$15,3,FALSE)=$B262,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D262" s="17" t="str">
+        <f>IF($B262="","",IF(VLOOKUP($A262,Spiele!$A$2:$F$15,3,FALSE)=$B262,VLOOKUP($A262,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A262,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E262" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A262,$A262,$B$2:$B262,$B262,$L$2:$L262,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F262" s="11">
+        <v>18</v>
+      </c>
+      <c r="G262" s="12">
+        <v>1</v>
+      </c>
+      <c r="H262" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A262,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B262,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F262,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G262)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A262,'Rote Karten'!$D$2:$D$4,$B262,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F262,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G262)</f>
+        <v>0</v>
+      </c>
+      <c r="I262" s="17" t="str">
+        <f>IF(OR($L262="Tor",$L262="ET"),_xlfn.IFNA(IF(VLOOKUP($A262,Spiele!$A$2:$C$15,3,FALSE)=$B262,COUNTIFS($L$2:$L262,"Tor",$B$2:$B262,$B262,$A$2:$A262,$A262)+COUNTIFS($L$2:$L262,"ET",$B$2:$B262,$B262,$A$2:$A262,$A262)&amp;":"&amp;COUNTIFS($L$2:$L262,"Tor",$B$2:$B262,"&lt;&gt;"&amp;$B262,$A$2:$A262,$A262)+COUNTIFS($L$2:$L262,"ET",$B$2:$B262,"&lt;&gt;"&amp;$B262,$A$2:$A262,$A262),COUNTIFS($L$2:$L262,"Tor",$B$2:$B262,"&lt;&gt;"&amp;$B262,$A$2:$A262,$A262)+COUNTIFS($L$2:$L262,"ET",$B$2:$B262,"&lt;&gt;"&amp;$B262,$A$2:$A262,$A262)&amp;":"&amp;COUNTIFS($L$2:$L262,"Tor",$B$2:$B262,$B262,$A$2:$A262,$A262)+COUNTIFS($L$2:$L262,"ET",$B$2:$B262,$B262,$A$2:$A262,$A262)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J262" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A262,Spiele!$A$2:$D$15,3,FALSE)=$B262,(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,$B262,$A$1:$A261,$A262))-(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)),(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,$B262,$A$1:$A261,$A262))-(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K262" s="3">
+        <v>7</v>
+      </c>
+      <c r="L262" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O262" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA262" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB262" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC262" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD262" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE262" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF262" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG262" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH262" s="19">
+        <f t="shared" si="16"/>
+        <v>14.524310654898565</v>
+      </c>
+      <c r="AI262" s="19">
+        <f t="shared" si="17"/>
+        <v>26.053510457112758</v>
+      </c>
+      <c r="AJ262" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK262" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AL262" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM262" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF262-$AK262)^2+($AG262-$AL262)^2))</f>
+        <v>11.401754250991379</v>
+      </c>
+      <c r="AN262" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO262" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP262" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AQ262" s="19">
+        <f t="shared" si="18"/>
+        <v>3.905124837953327</v>
+      </c>
+      <c r="AR262" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS262" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT262" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AU262" s="19">
+        <f t="shared" si="19"/>
+        <v>4.0311288741492746</v>
+      </c>
+    </row>
+    <row r="263" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A263" s="3">
+        <v>13</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="17" t="str">
+        <f>IF($A263="","",IF(VLOOKUP($A263,Spiele!$A$2:$D$15,3,FALSE)=$B263,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D263" s="17" t="str">
+        <f>IF($B263="","",IF(VLOOKUP($A263,Spiele!$A$2:$F$15,3,FALSE)=$B263,VLOOKUP($A263,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A263,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E263" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A263,$A263,$B$2:$B263,$B263,$L$2:$L263,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F263" s="11">
+        <v>22</v>
+      </c>
+      <c r="G263" s="12">
+        <v>1</v>
+      </c>
+      <c r="H263" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A263,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B263,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F263,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G263)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A263,'Rote Karten'!$D$2:$D$4,$B263,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F263,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G263)</f>
+        <v>0</v>
+      </c>
+      <c r="I263" s="17" t="str">
+        <f>IF(OR($L263="Tor",$L263="ET"),_xlfn.IFNA(IF(VLOOKUP($A263,Spiele!$A$2:$C$15,3,FALSE)=$B263,COUNTIFS($L$2:$L263,"Tor",$B$2:$B263,$B263,$A$2:$A263,$A263)+COUNTIFS($L$2:$L263,"ET",$B$2:$B263,$B263,$A$2:$A263,$A263)&amp;":"&amp;COUNTIFS($L$2:$L263,"Tor",$B$2:$B263,"&lt;&gt;"&amp;$B263,$A$2:$A263,$A263)+COUNTIFS($L$2:$L263,"ET",$B$2:$B263,"&lt;&gt;"&amp;$B263,$A$2:$A263,$A263),COUNTIFS($L$2:$L263,"Tor",$B$2:$B263,"&lt;&gt;"&amp;$B263,$A$2:$A263,$A263)+COUNTIFS($L$2:$L263,"ET",$B$2:$B263,"&lt;&gt;"&amp;$B263,$A$2:$A263,$A263)&amp;":"&amp;COUNTIFS($L$2:$L263,"Tor",$B$2:$B263,$B263,$A$2:$A263,$A263)+COUNTIFS($L$2:$L263,"ET",$B$2:$B263,$B263,$A$2:$A263,$A263)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J263" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A263,Spiele!$A$2:$D$15,3,FALSE)=$B263,(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,$B263,$A$1:$A262,$A263))-(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)),(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,$B263,$A$1:$A262,$A263))-(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K263" s="3">
+        <v>8</v>
+      </c>
+      <c r="L263" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O263" s="17"/>
+      <c r="AA263" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB263" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC263" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD263" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE263" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF263" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG263" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH263" s="19">
+        <f t="shared" si="16"/>
+        <v>16.742628228566744</v>
+      </c>
+      <c r="AI263" s="19">
+        <f t="shared" si="17"/>
+        <v>21.856872591143812</v>
+      </c>
+      <c r="AJ263" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK263" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL263" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM263" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF263-$AK263)^2+($AG263-$AL263)^2))</f>
+        <v>15.337861650177967</v>
+      </c>
+      <c r="AN263" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO263" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AP263" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ263" s="19">
+        <f t="shared" si="18"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="AR263" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS263" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT263" s="13">
+        <v>6</v>
+      </c>
+      <c r="AU263" s="19">
+        <f t="shared" si="19"/>
+        <v>11.423659658795863</v>
+      </c>
+    </row>
+    <row r="264" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A264" s="3">
+        <v>13</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="17" t="str">
+        <f>IF($A264="","",IF(VLOOKUP($A264,Spiele!$A$2:$D$15,3,FALSE)=$B264,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D264" s="17" t="str">
+        <f>IF($B264="","",IF(VLOOKUP($A264,Spiele!$A$2:$F$15,3,FALSE)=$B264,VLOOKUP($A264,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A264,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E264" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A264,$A264,$B$2:$B264,$B264,$L$2:$L264,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F264" s="11">
+        <v>25</v>
+      </c>
+      <c r="G264" s="12">
+        <v>1</v>
+      </c>
+      <c r="H264" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A264,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B264,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F264,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G264)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A264,'Rote Karten'!$D$2:$D$4,$B264,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F264,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G264)</f>
+        <v>0</v>
+      </c>
+      <c r="I264" s="17" t="str">
+        <f>IF(OR($L264="Tor",$L264="ET"),_xlfn.IFNA(IF(VLOOKUP($A264,Spiele!$A$2:$C$15,3,FALSE)=$B264,COUNTIFS($L$2:$L264,"Tor",$B$2:$B264,$B264,$A$2:$A264,$A264)+COUNTIFS($L$2:$L264,"ET",$B$2:$B264,$B264,$A$2:$A264,$A264)&amp;":"&amp;COUNTIFS($L$2:$L264,"Tor",$B$2:$B264,"&lt;&gt;"&amp;$B264,$A$2:$A264,$A264)+COUNTIFS($L$2:$L264,"ET",$B$2:$B264,"&lt;&gt;"&amp;$B264,$A$2:$A264,$A264),COUNTIFS($L$2:$L264,"Tor",$B$2:$B264,"&lt;&gt;"&amp;$B264,$A$2:$A264,$A264)+COUNTIFS($L$2:$L264,"ET",$B$2:$B264,"&lt;&gt;"&amp;$B264,$A$2:$A264,$A264)&amp;":"&amp;COUNTIFS($L$2:$L264,"Tor",$B$2:$B264,$B264,$A$2:$A264,$A264)+COUNTIFS($L$2:$L264,"ET",$B$2:$B264,$B264,$A$2:$A264,$A264)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J264" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A264,Spiele!$A$2:$D$15,3,FALSE)=$B264,(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,$B264,$A$1:$A263,$A264))-(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)),(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,$B264,$A$1:$A263,$A264))-(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K264" s="3">
+        <v>9</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O264" s="17"/>
+      <c r="AA264" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB264" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC264" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD264" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE264" s="18">
+        <v>20</v>
+      </c>
+      <c r="AF264" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG264" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="AH264" s="19">
+        <f t="shared" si="16"/>
+        <v>23.644779550674606</v>
+      </c>
+      <c r="AI264" s="19">
+        <f t="shared" si="17"/>
+        <v>14.002393253988416</v>
+      </c>
+      <c r="AJ264" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK264" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL264" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM264" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF264-$AK264)^2+($AG264-$AL264)^2))</f>
+        <v>22.610838109190027</v>
+      </c>
+      <c r="AN264" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO264" s="13"/>
+      <c r="AP264" s="13"/>
+      <c r="AQ264" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR264" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS264" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AT264" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AU264" s="19">
+        <f t="shared" si="19"/>
+        <v>1.8027756377319946</v>
+      </c>
+    </row>
+    <row r="265" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A265" s="3">
+        <v>13</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C265" s="17" t="str">
+        <f>IF($A265="","",IF(VLOOKUP($A265,Spiele!$A$2:$D$15,3,FALSE)=$B265,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D265" s="17" t="str">
+        <f>IF($B265="","",IF(VLOOKUP($A265,Spiele!$A$2:$F$15,3,FALSE)=$B265,VLOOKUP($A265,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A265,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E265" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A265,$A265,$B$2:$B265,$B265,$L$2:$L265,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F265" s="11">
+        <v>28</v>
+      </c>
+      <c r="G265" s="12">
+        <v>1</v>
+      </c>
+      <c r="H265" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A265,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B265,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F265,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G265)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A265,'Rote Karten'!$D$2:$D$4,$B265,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F265,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G265)</f>
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="str">
+        <f>IF(OR($L265="Tor",$L265="ET"),_xlfn.IFNA(IF(VLOOKUP($A265,Spiele!$A$2:$C$15,3,FALSE)=$B265,COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,$B265,$A$2:$A265,$A265)&amp;":"&amp;COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265),COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)&amp;":"&amp;COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,$B265,$A$2:$A265,$A265)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J265" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A265,Spiele!$A$2:$D$15,3,FALSE)=$B265,(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,$B265,$A$1:$A264,$A265))-(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)),(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,$B265,$A$1:$A264,$A265))-(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K265" s="3">
+        <v>10</v>
+      </c>
+      <c r="L265" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N265" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O265" s="17"/>
+      <c r="AA265" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB265" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC265" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD265" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE265" s="18"/>
+      <c r="AF265" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG265" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="AH265" s="19">
+        <f t="shared" si="16"/>
+        <v>25.5</v>
+      </c>
+      <c r="AI265" s="19">
+        <f t="shared" si="17"/>
+        <v>16.335693207949546</v>
+      </c>
+      <c r="AJ265" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK265" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL265" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM265" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF265-$AK265)^2+($AG265-$AL265)^2))</f>
+        <v>25</v>
+      </c>
+      <c r="AN265" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO265" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AP265" s="13">
+        <v>28</v>
+      </c>
+      <c r="AQ265" s="19">
+        <f t="shared" si="18"/>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="AR265" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS265" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT265" s="13">
+        <v>17</v>
+      </c>
+      <c r="AU265" s="19">
+        <f t="shared" si="19"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A266" s="3">
+        <v>13</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="17" t="str">
+        <f>IF($A266="","",IF(VLOOKUP($A266,Spiele!$A$2:$D$15,3,FALSE)=$B266,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D266" s="17" t="str">
+        <f>IF($B266="","",IF(VLOOKUP($A266,Spiele!$A$2:$F$15,3,FALSE)=$B266,VLOOKUP($A266,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A266,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E266" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A266,$A266,$B$2:$B266,$B266,$L$2:$L266,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F266" s="11">
+        <v>33</v>
+      </c>
+      <c r="G266" s="12">
+        <v>1</v>
+      </c>
+      <c r="H266" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A266,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B266,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F266,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G266)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A266,'Rote Karten'!$D$2:$D$4,$B266,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F266,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G266)</f>
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="str">
+        <f>IF(OR($L266="Tor",$L266="ET"),_xlfn.IFNA(IF(VLOOKUP($A266,Spiele!$A$2:$C$15,3,FALSE)=$B266,COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,$B266,$A$2:$A266,$A266)&amp;":"&amp;COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266),COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)&amp;":"&amp;COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,$B266,$A$2:$A266,$A266)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J266" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A266,Spiele!$A$2:$D$15,3,FALSE)=$B266,(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,$B266,$A$1:$A265,$A266))-(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)),(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,$B266,$A$1:$A265,$A266))-(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K266" s="3">
+        <v>11</v>
+      </c>
+      <c r="L266" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N266" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O266" s="17">
+        <v>8</v>
+      </c>
+      <c r="P266" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q266" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA266" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB266" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC266" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD266" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE266" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF266" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AG266" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AH266" s="19">
+        <f t="shared" si="16"/>
+        <v>17.59646555419582</v>
+      </c>
+      <c r="AI266" s="19">
+        <f t="shared" si="17"/>
+        <v>21.626656434445117</v>
+      </c>
+      <c r="AJ266" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK266" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL266" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM266" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF266-$AK266)^2+($AG266-$AL266)^2))</f>
+        <v>15.182226450688976</v>
+      </c>
+      <c r="AN266" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO266" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AP266" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AQ266" s="19">
+        <f t="shared" si="18"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR266" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU266" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A267" s="3">
+        <v>13</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C267" s="17" t="str">
+        <f>IF($A267="","",IF(VLOOKUP($A267,Spiele!$A$2:$D$15,3,FALSE)=$B267,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D267" s="17" t="str">
+        <f>IF($B267="","",IF(VLOOKUP($A267,Spiele!$A$2:$F$15,3,FALSE)=$B267,VLOOKUP($A267,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A267,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E267" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A267,$A267,$B$2:$B267,$B267,$L$2:$L267,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F267" s="11">
+        <v>35</v>
+      </c>
+      <c r="G267" s="12">
+        <v>1</v>
+      </c>
+      <c r="H267" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A267,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B267,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F267,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G267)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A267,'Rote Karten'!$D$2:$D$4,$B267,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F267,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G267)</f>
+        <v>0</v>
+      </c>
+      <c r="I267" s="17" t="str">
+        <f>IF(OR($L267="Tor",$L267="ET"),_xlfn.IFNA(IF(VLOOKUP($A267,Spiele!$A$2:$C$15,3,FALSE)=$B267,COUNTIFS($L$2:$L267,"Tor",$B$2:$B267,$B267,$A$2:$A267,$A267)+COUNTIFS($L$2:$L267,"ET",$B$2:$B267,$B267,$A$2:$A267,$A267)&amp;":"&amp;COUNTIFS($L$2:$L267,"Tor",$B$2:$B267,"&lt;&gt;"&amp;$B267,$A$2:$A267,$A267)+COUNTIFS($L$2:$L267,"ET",$B$2:$B267,"&lt;&gt;"&amp;$B267,$A$2:$A267,$A267),COUNTIFS($L$2:$L267,"Tor",$B$2:$B267,"&lt;&gt;"&amp;$B267,$A$2:$A267,$A267)+COUNTIFS($L$2:$L267,"ET",$B$2:$B267,"&lt;&gt;"&amp;$B267,$A$2:$A267,$A267)&amp;":"&amp;COUNTIFS($L$2:$L267,"Tor",$B$2:$B267,$B267,$A$2:$A267,$A267)+COUNTIFS($L$2:$L267,"ET",$B$2:$B267,$B267,$A$2:$A267,$A267)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J267" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A267,Spiele!$A$2:$D$15,3,FALSE)=$B267,(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,$B267,$A$1:$A266,$A267))-(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)),(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,$B267,$A$1:$A266,$A267))-(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K267" s="3">
+        <v>12</v>
+      </c>
+      <c r="L267" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N267" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O267" s="17"/>
+      <c r="AA267" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB267" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC267" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD267" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE267" s="18"/>
+      <c r="AF267" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AG267" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH267" s="19">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="AI267" s="19">
+        <f t="shared" si="17"/>
+        <v>43.839454439268671</v>
+      </c>
+      <c r="AJ267" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK267" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AL267" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM267" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF267-$AK267)^2+($AG267-$AL267)^2))</f>
+        <v>8.5</v>
+      </c>
+      <c r="AN267" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO267" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP267" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ267" s="19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AR267" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU267" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A268" s="3">
+        <v>13</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C268" s="17" t="str">
+        <f>IF($A268="","",IF(VLOOKUP($A268,Spiele!$A$2:$D$15,3,FALSE)=$B268,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D268" s="17" t="str">
+        <f>IF($B268="","",IF(VLOOKUP($A268,Spiele!$A$2:$F$15,3,FALSE)=$B268,VLOOKUP($A268,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A268,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E268" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A268,$A268,$B$2:$B268,$B268,$L$2:$L268,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F268" s="11">
+        <v>37</v>
+      </c>
+      <c r="G268" s="12">
+        <v>1</v>
+      </c>
+      <c r="H268" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A268,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B268,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F268,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G268)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A268,'Rote Karten'!$D$2:$D$4,$B268,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F268,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G268)</f>
+        <v>0</v>
+      </c>
+      <c r="I268" s="17" t="str">
+        <f>IF(OR($L268="Tor",$L268="ET"),_xlfn.IFNA(IF(VLOOKUP($A268,Spiele!$A$2:$C$15,3,FALSE)=$B268,COUNTIFS($L$2:$L268,"Tor",$B$2:$B268,$B268,$A$2:$A268,$A268)+COUNTIFS($L$2:$L268,"ET",$B$2:$B268,$B268,$A$2:$A268,$A268)&amp;":"&amp;COUNTIFS($L$2:$L268,"Tor",$B$2:$B268,"&lt;&gt;"&amp;$B268,$A$2:$A268,$A268)+COUNTIFS($L$2:$L268,"ET",$B$2:$B268,"&lt;&gt;"&amp;$B268,$A$2:$A268,$A268),COUNTIFS($L$2:$L268,"Tor",$B$2:$B268,"&lt;&gt;"&amp;$B268,$A$2:$A268,$A268)+COUNTIFS($L$2:$L268,"ET",$B$2:$B268,"&lt;&gt;"&amp;$B268,$A$2:$A268,$A268)&amp;":"&amp;COUNTIFS($L$2:$L268,"Tor",$B$2:$B268,$B268,$A$2:$A268,$A268)+COUNTIFS($L$2:$L268,"ET",$B$2:$B268,$B268,$A$2:$A268,$A268)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J268" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A268,Spiele!$A$2:$D$15,3,FALSE)=$B268,(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,$B268,$A$1:$A267,$A268))-(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)),(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,$B268,$A$1:$A267,$A268))-(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K268" s="3">
+        <v>13</v>
+      </c>
+      <c r="L268" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O268" s="17"/>
+      <c r="AA268" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB268" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC268" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD268" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE268" s="18"/>
+      <c r="AF268" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AG268" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH268" s="19">
+        <f t="shared" si="16"/>
+        <v>2.5447200238926087</v>
+      </c>
+      <c r="AI268" s="19">
+        <f t="shared" si="17"/>
+        <v>17.229273479884245</v>
+      </c>
+      <c r="AJ268" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK268" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL268" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM268" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF268-$AK268)^2+($AG268-$AL268)^2))</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="AN268" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO268" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP268" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ268" s="19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AR268" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS268" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT268" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AU268" s="19">
+        <f t="shared" si="19"/>
+        <v>2.5495097567963922</v>
+      </c>
+    </row>
+    <row r="269" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A269" s="3">
+        <v>13</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="17" t="str">
+        <f>IF($A269="","",IF(VLOOKUP($A269,Spiele!$A$2:$D$15,3,FALSE)=$B269,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D269" s="17" t="str">
+        <f>IF($B269="","",IF(VLOOKUP($A269,Spiele!$A$2:$F$15,3,FALSE)=$B269,VLOOKUP($A269,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A269,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E269" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A269,$A269,$B$2:$B269,$B269,$L$2:$L269,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F269" s="11">
+        <v>40</v>
+      </c>
+      <c r="G269" s="12">
+        <v>1</v>
+      </c>
+      <c r="H269" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A269,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B269,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F269,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G269)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A269,'Rote Karten'!$D$2:$D$4,$B269,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F269,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G269)</f>
+        <v>0</v>
+      </c>
+      <c r="I269" s="17" t="str">
+        <f>IF(OR($L269="Tor",$L269="ET"),_xlfn.IFNA(IF(VLOOKUP($A269,Spiele!$A$2:$C$15,3,FALSE)=$B269,COUNTIFS($L$2:$L269,"Tor",$B$2:$B269,$B269,$A$2:$A269,$A269)+COUNTIFS($L$2:$L269,"ET",$B$2:$B269,$B269,$A$2:$A269,$A269)&amp;":"&amp;COUNTIFS($L$2:$L269,"Tor",$B$2:$B269,"&lt;&gt;"&amp;$B269,$A$2:$A269,$A269)+COUNTIFS($L$2:$L269,"ET",$B$2:$B269,"&lt;&gt;"&amp;$B269,$A$2:$A269,$A269),COUNTIFS($L$2:$L269,"Tor",$B$2:$B269,"&lt;&gt;"&amp;$B269,$A$2:$A269,$A269)+COUNTIFS($L$2:$L269,"ET",$B$2:$B269,"&lt;&gt;"&amp;$B269,$A$2:$A269,$A269)&amp;":"&amp;COUNTIFS($L$2:$L269,"Tor",$B$2:$B269,$B269,$A$2:$A269,$A269)+COUNTIFS($L$2:$L269,"ET",$B$2:$B269,$B269,$A$2:$A269,$A269)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J269" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A269,Spiele!$A$2:$D$15,3,FALSE)=$B269,(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,$B269,$A$1:$A268,$A269))-(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)),(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,$B269,$A$1:$A268,$A269))-(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K269" s="3">
+        <v>14</v>
+      </c>
+      <c r="L269" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M269" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N269" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O269" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA269" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB269" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC269" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD269" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE269" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF269" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG269" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH269" s="19">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="AI269" s="19">
+        <f t="shared" si="17"/>
+        <v>42.615768593997174</v>
+      </c>
+      <c r="AJ269" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK269" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL269" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM269" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF269-$AK269)^2+($AG269-$AL269)^2))</f>
+        <v>6.5</v>
+      </c>
+      <c r="AN269" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO269" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AP269" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ269" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR269" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU269" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A270" s="3">
+        <v>13</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="17" t="str">
+        <f>IF($A270="","",IF(VLOOKUP($A270,Spiele!$A$2:$D$15,3,FALSE)=$B270,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D270" s="17" t="str">
+        <f>IF($B270="","",IF(VLOOKUP($A270,Spiele!$A$2:$F$15,3,FALSE)=$B270,VLOOKUP($A270,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A270,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E270" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A270,$A270,$B$2:$B270,$B270,$L$2:$L270,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F270" s="11">
+        <v>40</v>
+      </c>
+      <c r="G270" s="12">
+        <v>1</v>
+      </c>
+      <c r="H270" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A270,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B270,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F270,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G270)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A270,'Rote Karten'!$D$2:$D$4,$B270,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F270,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G270)</f>
+        <v>0</v>
+      </c>
+      <c r="I270" s="17" t="str">
+        <f>IF(OR($L270="Tor",$L270="ET"),_xlfn.IFNA(IF(VLOOKUP($A270,Spiele!$A$2:$C$15,3,FALSE)=$B270,COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,$B270,$A$2:$A270,$A270)&amp;":"&amp;COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270),COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)&amp;":"&amp;COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,$B270,$A$2:$A270,$A270)),""),"")</f>
+        <v>1:0</v>
+      </c>
+      <c r="J270" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A270,Spiele!$A$2:$D$15,3,FALSE)=$B270,(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,$B270,$A$1:$A269,$A270))-(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)),(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,$B270,$A$1:$A269,$A270))-(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K270" s="3">
+        <v>14</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M270" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O270" s="17"/>
+      <c r="AA270" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB270" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC270" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD270" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE270" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF270" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG270" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH270" s="19">
+        <f t="shared" si="16"/>
+        <v>5.7502695588989567</v>
+      </c>
+      <c r="AI270" s="19">
+        <f t="shared" si="17"/>
+        <v>34.200427604672875</v>
+      </c>
+      <c r="AJ270" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK270" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL270" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM270" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF270-$AK270)^2+($AG270-$AL270)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="AN270" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO270" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP270" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AQ270" s="19">
+        <f t="shared" si="18"/>
+        <v>2.5495097567963922</v>
+      </c>
+      <c r="AR270" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU270" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A271" s="3">
+        <v>13</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C271" s="17" t="str">
+        <f>IF($A271="","",IF(VLOOKUP($A271,Spiele!$A$2:$D$15,3,FALSE)=$B271,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D271" s="17" t="str">
+        <f>IF($B271="","",IF(VLOOKUP($A271,Spiele!$A$2:$F$15,3,FALSE)=$B271,VLOOKUP($A271,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A271,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E271" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A271,$A271,$B$2:$B271,$B271,$L$2:$L271,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F271" s="11">
+        <v>44</v>
+      </c>
+      <c r="G271" s="12">
+        <v>2</v>
+      </c>
+      <c r="H271" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A271,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B271,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F271,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G271)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A271,'Rote Karten'!$D$2:$D$4,$B271,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F271,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G271)</f>
+        <v>0</v>
+      </c>
+      <c r="I271" s="17" t="str">
+        <f>IF(OR($L271="Tor",$L271="ET"),_xlfn.IFNA(IF(VLOOKUP($A271,Spiele!$A$2:$C$15,3,FALSE)=$B271,COUNTIFS($L$2:$L271,"Tor",$B$2:$B271,$B271,$A$2:$A271,$A271)+COUNTIFS($L$2:$L271,"ET",$B$2:$B271,$B271,$A$2:$A271,$A271)&amp;":"&amp;COUNTIFS($L$2:$L271,"Tor",$B$2:$B271,"&lt;&gt;"&amp;$B271,$A$2:$A271,$A271)+COUNTIFS($L$2:$L271,"ET",$B$2:$B271,"&lt;&gt;"&amp;$B271,$A$2:$A271,$A271),COUNTIFS($L$2:$L271,"Tor",$B$2:$B271,"&lt;&gt;"&amp;$B271,$A$2:$A271,$A271)+COUNTIFS($L$2:$L271,"ET",$B$2:$B271,"&lt;&gt;"&amp;$B271,$A$2:$A271,$A271)&amp;":"&amp;COUNTIFS($L$2:$L271,"Tor",$B$2:$B271,$B271,$A$2:$A271,$A271)+COUNTIFS($L$2:$L271,"ET",$B$2:$B271,$B271,$A$2:$A271,$A271)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J271" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A271,Spiele!$A$2:$D$15,3,FALSE)=$B271,(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,$B271,$A$1:$A270,$A271))-(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)),(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,$B271,$A$1:$A270,$A271))-(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K271" s="3">
+        <v>15</v>
+      </c>
+      <c r="L271" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O271" s="17"/>
+      <c r="AA271" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB271" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC271" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD271" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE271" s="18"/>
+      <c r="AF271" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AG271" s="13">
+        <v>34</v>
+      </c>
+      <c r="AH271" s="19">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="AI271" s="19">
+        <f t="shared" si="17"/>
+        <v>12.194976603981754</v>
+      </c>
+      <c r="AJ271" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK271" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL271" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM271" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF271-$AK271)^2+($AG271-$AL271)^2))</f>
+        <v>33.68233958619858</v>
+      </c>
+      <c r="AN271" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO271" s="13"/>
+      <c r="AP271" s="13"/>
+      <c r="AQ271" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR271" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS271" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT271" s="13">
+        <v>27</v>
+      </c>
+      <c r="AU271" s="19">
+        <f t="shared" si="19"/>
+        <v>7.0178344238090995</v>
+      </c>
+    </row>
+    <row r="272" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A272" s="3">
+        <v>13</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="17" t="str">
+        <f>IF($A272="","",IF(VLOOKUP($A272,Spiele!$A$2:$D$15,3,FALSE)=$B272,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D272" s="17" t="str">
+        <f>IF($B272="","",IF(VLOOKUP($A272,Spiele!$A$2:$F$15,3,FALSE)=$B272,VLOOKUP($A272,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A272,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E272" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A272,$A272,$B$2:$B272,$B272,$L$2:$L272,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F272" s="11">
+        <v>51</v>
+      </c>
+      <c r="G272" s="12">
+        <v>2</v>
+      </c>
+      <c r="H272" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A272,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B272,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F272,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G272)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A272,'Rote Karten'!$D$2:$D$4,$B272,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F272,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G272)</f>
+        <v>0</v>
+      </c>
+      <c r="I272" s="17" t="str">
+        <f>IF(OR($L272="Tor",$L272="ET"),_xlfn.IFNA(IF(VLOOKUP($A272,Spiele!$A$2:$C$15,3,FALSE)=$B272,COUNTIFS($L$2:$L272,"Tor",$B$2:$B272,$B272,$A$2:$A272,$A272)+COUNTIFS($L$2:$L272,"ET",$B$2:$B272,$B272,$A$2:$A272,$A272)&amp;":"&amp;COUNTIFS($L$2:$L272,"Tor",$B$2:$B272,"&lt;&gt;"&amp;$B272,$A$2:$A272,$A272)+COUNTIFS($L$2:$L272,"ET",$B$2:$B272,"&lt;&gt;"&amp;$B272,$A$2:$A272,$A272),COUNTIFS($L$2:$L272,"Tor",$B$2:$B272,"&lt;&gt;"&amp;$B272,$A$2:$A272,$A272)+COUNTIFS($L$2:$L272,"ET",$B$2:$B272,"&lt;&gt;"&amp;$B272,$A$2:$A272,$A272)&amp;":"&amp;COUNTIFS($L$2:$L272,"Tor",$B$2:$B272,$B272,$A$2:$A272,$A272)+COUNTIFS($L$2:$L272,"ET",$B$2:$B272,$B272,$A$2:$A272,$A272)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J272" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A272,Spiele!$A$2:$D$15,3,FALSE)=$B272,(COUNTIFS($L$1:$L271,"Tor",$B$1:$B271,$B272,$A$1:$A271,$A272)+COUNTIFS($L$1:$L271,"ET",$B$1:$B271,$B272,$A$1:$A271,$A272))-(COUNTIFS($L$1:$L271,"Tor",$B$1:$B271,"&lt;&gt;"&amp;$B272,$A$1:$A271,$A272)+COUNTIFS($L$1:$L271,"ET",$B$1:$B271,"&lt;&gt;"&amp;$B272,$A$1:$A271,$A272)),(COUNTIFS($L$1:$L271,"Tor",$B$1:$B271,$B272,$A$1:$A271,$A272)+COUNTIFS($L$1:$L271,"ET",$B$1:$B271,$B272,$A$1:$A271,$A272))-(COUNTIFS($L$1:$L271,"Tor",$B$1:$B271,"&lt;&gt;"&amp;$B272,$A$1:$A271,$A272)+COUNTIFS($L$1:$L271,"ET",$B$1:$B271,"&lt;&gt;"&amp;$B272,$A$1:$A271,$A272))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K272" s="3">
+        <v>16</v>
+      </c>
+      <c r="L272" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N272" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O272" s="17">
+        <v>8</v>
+      </c>
+      <c r="P272" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q272" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA272" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB272" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC272" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD272" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE272" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF272" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AG272" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH272" s="19">
+        <f t="shared" si="16"/>
+        <v>14.689642609675703</v>
+      </c>
+      <c r="AI272" s="19">
+        <f t="shared" si="17"/>
+        <v>19.694334659050181</v>
+      </c>
+      <c r="AJ272" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK272" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL272" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM272" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF272-$AK272)^2+($AG272-$AL272)^2))</f>
+        <v>12.619429464123963</v>
+      </c>
+      <c r="AN272" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO272" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP272" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AQ272" s="19">
+        <f t="shared" si="18"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR272" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS272" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AT272" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AU272" s="19">
+        <f t="shared" si="19"/>
+        <v>9.3005376188691375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A273" s="3">
+        <v>13</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C273" s="17" t="str">
+        <f>IF($A273="","",IF(VLOOKUP($A273,Spiele!$A$2:$D$15,3,FALSE)=$B273,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D273" s="17" t="str">
+        <f>IF($B273="","",IF(VLOOKUP($A273,Spiele!$A$2:$F$15,3,FALSE)=$B273,VLOOKUP($A273,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A273,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E273" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A273,$A273,$B$2:$B273,$B273,$L$2:$L273,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F273" s="11">
+        <v>57</v>
+      </c>
+      <c r="G273" s="12">
+        <v>2</v>
+      </c>
+      <c r="H273" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A273,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B273,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F273,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G273)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A273,'Rote Karten'!$D$2:$D$4,$B273,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F273,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G273)</f>
+        <v>0</v>
+      </c>
+      <c r="I273" s="17" t="str">
+        <f>IF(OR($L273="Tor",$L273="ET"),_xlfn.IFNA(IF(VLOOKUP($A273,Spiele!$A$2:$C$15,3,FALSE)=$B273,COUNTIFS($L$2:$L273,"Tor",$B$2:$B273,$B273,$A$2:$A273,$A273)+COUNTIFS($L$2:$L273,"ET",$B$2:$B273,$B273,$A$2:$A273,$A273)&amp;":"&amp;COUNTIFS($L$2:$L273,"Tor",$B$2:$B273,"&lt;&gt;"&amp;$B273,$A$2:$A273,$A273)+COUNTIFS($L$2:$L273,"ET",$B$2:$B273,"&lt;&gt;"&amp;$B273,$A$2:$A273,$A273),COUNTIFS($L$2:$L273,"Tor",$B$2:$B273,"&lt;&gt;"&amp;$B273,$A$2:$A273,$A273)+COUNTIFS($L$2:$L273,"ET",$B$2:$B273,"&lt;&gt;"&amp;$B273,$A$2:$A273,$A273)&amp;":"&amp;COUNTIFS($L$2:$L273,"Tor",$B$2:$B273,$B273,$A$2:$A273,$A273)+COUNTIFS($L$2:$L273,"ET",$B$2:$B273,$B273,$A$2:$A273,$A273)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J273" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A273,Spiele!$A$2:$D$15,3,FALSE)=$B273,(COUNTIFS($L$1:$L272,"Tor",$B$1:$B272,$B273,$A$1:$A272,$A273)+COUNTIFS($L$1:$L272,"ET",$B$1:$B272,$B273,$A$1:$A272,$A273))-(COUNTIFS($L$1:$L272,"Tor",$B$1:$B272,"&lt;&gt;"&amp;$B273,$A$1:$A272,$A273)+COUNTIFS($L$1:$L272,"ET",$B$1:$B272,"&lt;&gt;"&amp;$B273,$A$1:$A272,$A273)),(COUNTIFS($L$1:$L272,"Tor",$B$1:$B272,$B273,$A$1:$A272,$A273)+COUNTIFS($L$1:$L272,"ET",$B$1:$B272,$B273,$A$1:$A272,$A273))-(COUNTIFS($L$1:$L272,"Tor",$B$1:$B272,"&lt;&gt;"&amp;$B273,$A$1:$A272,$A273)+COUNTIFS($L$1:$L272,"ET",$B$1:$B272,"&lt;&gt;"&amp;$B273,$A$1:$A272,$A273))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K273" s="3">
+        <v>17</v>
+      </c>
+      <c r="L273" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M273" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N273" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O273" s="17"/>
+      <c r="AA273" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB273" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC273" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD273" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE273" s="18"/>
+      <c r="AF273" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG273" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH273" s="19">
+        <f t="shared" si="16"/>
+        <v>11.216309553502882</v>
+      </c>
+      <c r="AI273" s="19">
+        <f t="shared" si="17"/>
+        <v>16.373402664953399</v>
+      </c>
+      <c r="AJ273" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK273" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AL273" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM273" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF273-$AK273)^2+($AG273-$AL273)^2))</f>
+        <v>11.01135777277262</v>
+      </c>
+      <c r="AN273" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO273" s="13">
+        <v>9</v>
+      </c>
+      <c r="AP273" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ273" s="19">
+        <f t="shared" si="18"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AR273" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU273" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A274" s="3">
+        <v>13</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="17" t="str">
+        <f>IF($A274="","",IF(VLOOKUP($A274,Spiele!$A$2:$D$15,3,FALSE)=$B274,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D274" s="17" t="str">
+        <f>IF($B274="","",IF(VLOOKUP($A274,Spiele!$A$2:$F$15,3,FALSE)=$B274,VLOOKUP($A274,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A274,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E274" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A274,$A274,$B$2:$B274,$B274,$L$2:$L274,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F274" s="11">
+        <v>59</v>
+      </c>
+      <c r="G274" s="12">
+        <v>2</v>
+      </c>
+      <c r="H274" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A274,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B274,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F274,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G274)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A274,'Rote Karten'!$D$2:$D$4,$B274,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F274,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G274)</f>
+        <v>0</v>
+      </c>
+      <c r="I274" s="17" t="str">
+        <f>IF(OR($L274="Tor",$L274="ET"),_xlfn.IFNA(IF(VLOOKUP($A274,Spiele!$A$2:$C$15,3,FALSE)=$B274,COUNTIFS($L$2:$L274,"Tor",$B$2:$B274,$B274,$A$2:$A274,$A274)+COUNTIFS($L$2:$L274,"ET",$B$2:$B274,$B274,$A$2:$A274,$A274)&amp;":"&amp;COUNTIFS($L$2:$L274,"Tor",$B$2:$B274,"&lt;&gt;"&amp;$B274,$A$2:$A274,$A274)+COUNTIFS($L$2:$L274,"ET",$B$2:$B274,"&lt;&gt;"&amp;$B274,$A$2:$A274,$A274),COUNTIFS($L$2:$L274,"Tor",$B$2:$B274,"&lt;&gt;"&amp;$B274,$A$2:$A274,$A274)+COUNTIFS($L$2:$L274,"ET",$B$2:$B274,"&lt;&gt;"&amp;$B274,$A$2:$A274,$A274)&amp;":"&amp;COUNTIFS($L$2:$L274,"Tor",$B$2:$B274,$B274,$A$2:$A274,$A274)+COUNTIFS($L$2:$L274,"ET",$B$2:$B274,$B274,$A$2:$A274,$A274)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J274" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A274,Spiele!$A$2:$D$15,3,FALSE)=$B274,(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,$B274,$A$1:$A273,$A274))-(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)),(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,$B274,$A$1:$A273,$A274))-(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K274" s="3">
+        <v>18</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M274" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N274" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O274" s="17">
+        <v>4</v>
+      </c>
+      <c r="P274" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q274" s="2">
+        <v>6</v>
+      </c>
+      <c r="R274" s="2">
+        <v>8</v>
+      </c>
+      <c r="S274" s="2">
+        <v>20</v>
+      </c>
+      <c r="T274" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA274" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB274" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC274" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD274" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE274" s="18">
+        <v>18</v>
+      </c>
+      <c r="AF274" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AG274" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="AH274" s="19">
+        <f t="shared" si="16"/>
+        <v>22.071828197954062</v>
+      </c>
+      <c r="AI274" s="19">
+        <f t="shared" si="17"/>
+        <v>14.230221882728383</v>
+      </c>
+      <c r="AJ274" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK274" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL274" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM274" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF274-$AK274)^2+($AG274-$AL274)^2))</f>
+        <v>21.100947846009191</v>
+      </c>
+      <c r="AN274" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO274" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AP274" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ274" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR274" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS274" s="13">
+        <v>-11</v>
+      </c>
+      <c r="AT274" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AU274" s="19">
+        <f t="shared" si="19"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="275" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A275" s="3">
+        <v>13</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="17" t="str">
+        <f>IF($A275="","",IF(VLOOKUP($A275,Spiele!$A$2:$D$15,3,FALSE)=$B275,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D275" s="17" t="str">
+        <f>IF($B275="","",IF(VLOOKUP($A275,Spiele!$A$2:$F$15,3,FALSE)=$B275,VLOOKUP($A275,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A275,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E275" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A275,$A275,$B$2:$B275,$B275,$L$2:$L275,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F275" s="11">
+        <v>60</v>
+      </c>
+      <c r="G275" s="12">
+        <v>2</v>
+      </c>
+      <c r="H275" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A275,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B275,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F275,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G275)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A275,'Rote Karten'!$D$2:$D$4,$B275,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F275,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G275)</f>
+        <v>0</v>
+      </c>
+      <c r="I275" s="17" t="str">
+        <f>IF(OR($L275="Tor",$L275="ET"),_xlfn.IFNA(IF(VLOOKUP($A275,Spiele!$A$2:$C$15,3,FALSE)=$B275,COUNTIFS($L$2:$L275,"Tor",$B$2:$B275,$B275,$A$2:$A275,$A275)+COUNTIFS($L$2:$L275,"ET",$B$2:$B275,$B275,$A$2:$A275,$A275)&amp;":"&amp;COUNTIFS($L$2:$L275,"Tor",$B$2:$B275,"&lt;&gt;"&amp;$B275,$A$2:$A275,$A275)+COUNTIFS($L$2:$L275,"ET",$B$2:$B275,"&lt;&gt;"&amp;$B275,$A$2:$A275,$A275),COUNTIFS($L$2:$L275,"Tor",$B$2:$B275,"&lt;&gt;"&amp;$B275,$A$2:$A275,$A275)+COUNTIFS($L$2:$L275,"ET",$B$2:$B275,"&lt;&gt;"&amp;$B275,$A$2:$A275,$A275)&amp;":"&amp;COUNTIFS($L$2:$L275,"Tor",$B$2:$B275,$B275,$A$2:$A275,$A275)+COUNTIFS($L$2:$L275,"ET",$B$2:$B275,$B275,$A$2:$A275,$A275)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J275" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A275,Spiele!$A$2:$D$15,3,FALSE)=$B275,(COUNTIFS($L$1:$L274,"Tor",$B$1:$B274,$B275,$A$1:$A274,$A275)+COUNTIFS($L$1:$L274,"ET",$B$1:$B274,$B275,$A$1:$A274,$A275))-(COUNTIFS($L$1:$L274,"Tor",$B$1:$B274,"&lt;&gt;"&amp;$B275,$A$1:$A274,$A275)+COUNTIFS($L$1:$L274,"ET",$B$1:$B274,"&lt;&gt;"&amp;$B275,$A$1:$A274,$A275)),(COUNTIFS($L$1:$L274,"Tor",$B$1:$B274,$B275,$A$1:$A274,$A275)+COUNTIFS($L$1:$L274,"ET",$B$1:$B274,$B275,$A$1:$A274,$A275))-(COUNTIFS($L$1:$L274,"Tor",$B$1:$B274,"&lt;&gt;"&amp;$B275,$A$1:$A274,$A275)+COUNTIFS($L$1:$L274,"ET",$B$1:$B274,"&lt;&gt;"&amp;$B275,$A$1:$A274,$A275))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K275" s="3">
+        <v>19</v>
+      </c>
+      <c r="L275" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M275" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O275" s="17"/>
+      <c r="AA275" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB275" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC275" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD275" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE275" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF275" s="13">
+        <v>14</v>
+      </c>
+      <c r="AG275" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="AH275" s="19">
+        <f t="shared" si="16"/>
+        <v>25.674220533445606</v>
+      </c>
+      <c r="AI275" s="19">
+        <f t="shared" si="17"/>
+        <v>13.174977970680043</v>
+      </c>
+      <c r="AJ275" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK275" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL275" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM275" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF275-$AK275)^2+($AG275-$AL275)^2))</f>
+        <v>25.238858928247925</v>
+      </c>
+      <c r="AN275" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO275" s="13"/>
+      <c r="AP275" s="13"/>
+      <c r="AQ275" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR275" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS275" s="13">
+        <v>9</v>
+      </c>
+      <c r="AT275" s="13">
+        <v>16</v>
+      </c>
+      <c r="AU275" s="19">
+        <f t="shared" si="19"/>
+        <v>9.013878188659973</v>
+      </c>
+    </row>
+    <row r="276" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A276" s="3">
+        <v>13</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C276" s="17" t="str">
+        <f>IF($A276="","",IF(VLOOKUP($A276,Spiele!$A$2:$D$15,3,FALSE)=$B276,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D276" s="17" t="str">
+        <f>IF($B276="","",IF(VLOOKUP($A276,Spiele!$A$2:$F$15,3,FALSE)=$B276,VLOOKUP($A276,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A276,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E276" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A276,$A276,$B$2:$B276,$B276,$L$2:$L276,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F276" s="11">
+        <v>61</v>
+      </c>
+      <c r="G276" s="12">
+        <v>2</v>
+      </c>
+      <c r="H276" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A276,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B276,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F276,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G276)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A276,'Rote Karten'!$D$2:$D$4,$B276,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F276,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G276)</f>
+        <v>0</v>
+      </c>
+      <c r="I276" s="17" t="str">
+        <f>IF(OR($L276="Tor",$L276="ET"),_xlfn.IFNA(IF(VLOOKUP($A276,Spiele!$A$2:$C$15,3,FALSE)=$B276,COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,$B276,$A$2:$A276,$A276)&amp;":"&amp;COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276),COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)&amp;":"&amp;COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,$B276,$A$2:$A276,$A276)),""),"")</f>
+        <v>1:1</v>
+      </c>
+      <c r="J276" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A276,Spiele!$A$2:$D$15,3,FALSE)=$B276,(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,$B276,$A$1:$A275,$A276))-(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)),(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,$B276,$A$1:$A275,$A276))-(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K276" s="3">
+        <v>20</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M276" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N276" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O276" s="17"/>
+      <c r="AA276" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB276" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC276" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD276" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE276" s="18"/>
+      <c r="AF276" s="13">
+        <v>-8.5</v>
+      </c>
+      <c r="AG276" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH276" s="19">
+        <f t="shared" si="16"/>
+        <v>8.5103231431009725</v>
+      </c>
+      <c r="AI276" s="19">
+        <f t="shared" si="17"/>
+        <v>25.411688271902904</v>
+      </c>
+      <c r="AJ276" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK276" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AL276" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM276" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF276-$AK276)^2+($AG276-$AL276)^2))</f>
+        <v>8.5146931829632013</v>
+      </c>
+      <c r="AN276" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO276" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP276" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AQ276" s="19">
+        <f t="shared" si="18"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AR276" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU276" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A277" s="3">
+        <v>13</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C277" s="17" t="str">
+        <f>IF($A277="","",IF(VLOOKUP($A277,Spiele!$A$2:$D$15,3,FALSE)=$B277,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D277" s="17" t="str">
+        <f>IF($B277="","",IF(VLOOKUP($A277,Spiele!$A$2:$F$15,3,FALSE)=$B277,VLOOKUP($A277,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A277,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E277" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A277,$A277,$B$2:$B277,$B277,$L$2:$L277,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F277" s="11">
+        <v>65</v>
+      </c>
+      <c r="G277" s="12">
+        <v>2</v>
+      </c>
+      <c r="H277" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A277,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B277,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F277,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G277)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A277,'Rote Karten'!$D$2:$D$4,$B277,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F277,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G277)</f>
+        <v>0</v>
+      </c>
+      <c r="I277" s="17" t="str">
+        <f>IF(OR($L277="Tor",$L277="ET"),_xlfn.IFNA(IF(VLOOKUP($A277,Spiele!$A$2:$C$15,3,FALSE)=$B277,COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,$B277,$A$2:$A277,$A277)&amp;":"&amp;COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277),COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)&amp;":"&amp;COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,$B277,$A$2:$A277,$A277)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J277" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A277,Spiele!$A$2:$D$15,3,FALSE)=$B277,(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,$B277,$A$1:$A276,$A277))-(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)),(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,$B277,$A$1:$A276,$A277))-(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K277" s="3">
+        <v>21</v>
+      </c>
+      <c r="L277" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O277" s="17"/>
+      <c r="AA277" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB277" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC277" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD277" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE277" s="18"/>
+      <c r="AF277" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG277" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH277" s="19">
+        <f t="shared" si="16"/>
+        <v>11.032026105842935</v>
+      </c>
+      <c r="AI277" s="19">
+        <f t="shared" si="17"/>
+        <v>32.201857009576806</v>
+      </c>
+      <c r="AJ277" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK277" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL277" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM277" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF277-$AK277)^2+($AG277-$AL277)^2))</f>
+        <v>11.067971810589327</v>
+      </c>
+      <c r="AN277" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO277" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AP277" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ277" s="19">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AR277" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS277" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT277" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU277" s="19">
+        <f t="shared" si="19"/>
+        <v>5.5226805085936306</v>
+      </c>
+    </row>
+    <row r="278" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A278" s="3">
+        <v>13</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="17" t="str">
+        <f>IF($A278="","",IF(VLOOKUP($A278,Spiele!$A$2:$D$15,3,FALSE)=$B278,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D278" s="17" t="str">
+        <f>IF($B278="","",IF(VLOOKUP($A278,Spiele!$A$2:$F$15,3,FALSE)=$B278,VLOOKUP($A278,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A278,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E278" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A278,$A278,$B$2:$B278,$B278,$L$2:$L278,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F278" s="11">
+        <v>68</v>
+      </c>
+      <c r="G278" s="12">
+        <v>2</v>
+      </c>
+      <c r="H278" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A278,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B278,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F278,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G278)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A278,'Rote Karten'!$D$2:$D$4,$B278,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F278,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G278)</f>
+        <v>0</v>
+      </c>
+      <c r="I278" s="17" t="str">
+        <f>IF(OR($L278="Tor",$L278="ET"),_xlfn.IFNA(IF(VLOOKUP($A278,Spiele!$A$2:$C$15,3,FALSE)=$B278,COUNTIFS($L$2:$L278,"Tor",$B$2:$B278,$B278,$A$2:$A278,$A278)+COUNTIFS($L$2:$L278,"ET",$B$2:$B278,$B278,$A$2:$A278,$A278)&amp;":"&amp;COUNTIFS($L$2:$L278,"Tor",$B$2:$B278,"&lt;&gt;"&amp;$B278,$A$2:$A278,$A278)+COUNTIFS($L$2:$L278,"ET",$B$2:$B278,"&lt;&gt;"&amp;$B278,$A$2:$A278,$A278),COUNTIFS($L$2:$L278,"Tor",$B$2:$B278,"&lt;&gt;"&amp;$B278,$A$2:$A278,$A278)+COUNTIFS($L$2:$L278,"ET",$B$2:$B278,"&lt;&gt;"&amp;$B278,$A$2:$A278,$A278)&amp;":"&amp;COUNTIFS($L$2:$L278,"Tor",$B$2:$B278,$B278,$A$2:$A278,$A278)+COUNTIFS($L$2:$L278,"ET",$B$2:$B278,$B278,$A$2:$A278,$A278)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J278" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A278,Spiele!$A$2:$D$15,3,FALSE)=$B278,(COUNTIFS($L$1:$L277,"Tor",$B$1:$B277,$B278,$A$1:$A277,$A278)+COUNTIFS($L$1:$L277,"ET",$B$1:$B277,$B278,$A$1:$A277,$A278))-(COUNTIFS($L$1:$L277,"Tor",$B$1:$B277,"&lt;&gt;"&amp;$B278,$A$1:$A277,$A278)+COUNTIFS($L$1:$L277,"ET",$B$1:$B277,"&lt;&gt;"&amp;$B278,$A$1:$A277,$A278)),(COUNTIFS($L$1:$L277,"Tor",$B$1:$B277,$B278,$A$1:$A277,$A278)+COUNTIFS($L$1:$L277,"ET",$B$1:$B277,$B278,$A$1:$A277,$A278))-(COUNTIFS($L$1:$L277,"Tor",$B$1:$B277,"&lt;&gt;"&amp;$B278,$A$1:$A277,$A278)+COUNTIFS($L$1:$L277,"ET",$B$1:$B277,"&lt;&gt;"&amp;$B278,$A$1:$A277,$A278))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K278" s="3">
+        <v>22</v>
+      </c>
+      <c r="L278" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M278" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N278" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O278" s="17">
+        <v>8</v>
+      </c>
+      <c r="P278" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q278" s="2">
+        <v>8</v>
+      </c>
+      <c r="R278" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA278" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB278" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC278" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD278" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE278" s="18">
+        <v>16</v>
+      </c>
+      <c r="AF278" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AG278" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH278" s="19">
+        <f t="shared" si="16"/>
+        <v>4.4029081298614443</v>
+      </c>
+      <c r="AI278" s="19">
+        <f t="shared" si="17"/>
+        <v>41.707579601485392</v>
+      </c>
+      <c r="AJ278" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK278" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL278" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM278" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF278-$AK278)^2+($AG278-$AL278)^2))</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AN278" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO278" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AP278" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AQ278" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR278" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS278" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AT278" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AU278" s="19">
+        <f t="shared" si="19"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A279" s="3">
+        <v>13</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="17" t="str">
+        <f>IF($A279="","",IF(VLOOKUP($A279,Spiele!$A$2:$D$15,3,FALSE)=$B279,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D279" s="17" t="str">
+        <f>IF($B279="","",IF(VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)=$B279,VLOOKUP($A279,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E279" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A279,$A279,$B$2:$B279,$B279,$L$2:$L279,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F279" s="11">
+        <v>71</v>
+      </c>
+      <c r="G279" s="12">
+        <v>2</v>
+      </c>
+      <c r="H279" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A279,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B279,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F279,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G279)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A279,'Rote Karten'!$D$2:$D$4,$B279,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F279,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G279)</f>
+        <v>0</v>
+      </c>
+      <c r="I279" s="17" t="str">
+        <f>IF(OR($L279="Tor",$L279="ET"),_xlfn.IFNA(IF(VLOOKUP($A279,Spiele!$A$2:$C$15,3,FALSE)=$B279,COUNTIFS($L$2:$L279,"Tor",$B$2:$B279,$B279,$A$2:$A279,$A279)+COUNTIFS($L$2:$L279,"ET",$B$2:$B279,$B279,$A$2:$A279,$A279)&amp;":"&amp;COUNTIFS($L$2:$L279,"Tor",$B$2:$B279,"&lt;&gt;"&amp;$B279,$A$2:$A279,$A279)+COUNTIFS($L$2:$L279,"ET",$B$2:$B279,"&lt;&gt;"&amp;$B279,$A$2:$A279,$A279),COUNTIFS($L$2:$L279,"Tor",$B$2:$B279,"&lt;&gt;"&amp;$B279,$A$2:$A279,$A279)+COUNTIFS($L$2:$L279,"ET",$B$2:$B279,"&lt;&gt;"&amp;$B279,$A$2:$A279,$A279)&amp;":"&amp;COUNTIFS($L$2:$L279,"Tor",$B$2:$B279,$B279,$A$2:$A279,$A279)+COUNTIFS($L$2:$L279,"ET",$B$2:$B279,$B279,$A$2:$A279,$A279)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J279" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A279,Spiele!$A$2:$D$15,3,FALSE)=$B279,(COUNTIFS($L$1:$L278,"Tor",$B$1:$B278,$B279,$A$1:$A278,$A279)+COUNTIFS($L$1:$L278,"ET",$B$1:$B278,$B279,$A$1:$A278,$A279))-(COUNTIFS($L$1:$L278,"Tor",$B$1:$B278,"&lt;&gt;"&amp;$B279,$A$1:$A278,$A279)+COUNTIFS($L$1:$L278,"ET",$B$1:$B278,"&lt;&gt;"&amp;$B279,$A$1:$A278,$A279)),(COUNTIFS($L$1:$L278,"Tor",$B$1:$B278,$B279,$A$1:$A278,$A279)+COUNTIFS($L$1:$L278,"ET",$B$1:$B278,$B279,$A$1:$A278,$A279))-(COUNTIFS($L$1:$L278,"Tor",$B$1:$B278,"&lt;&gt;"&amp;$B279,$A$1:$A278,$A279)+COUNTIFS($L$1:$L278,"ET",$B$1:$B278,"&lt;&gt;"&amp;$B279,$A$1:$A278,$A279))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K279" s="3">
+        <v>23</v>
+      </c>
+      <c r="L279" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M279" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N279" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O279" s="17">
+        <v>7</v>
+      </c>
+      <c r="P279" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q279" s="2">
+        <v>8</v>
+      </c>
+      <c r="R279" s="2">
+        <v>7</v>
+      </c>
+      <c r="S279" s="2">
+        <v>23</v>
+      </c>
+      <c r="T279" s="2">
+        <v>6</v>
+      </c>
+      <c r="U279" s="2">
+        <v>5</v>
+      </c>
+      <c r="V279" s="2">
+        <v>16</v>
+      </c>
+      <c r="W279" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA279" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB279" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC279" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD279" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE279" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF279" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AG279" s="13">
+        <v>15</v>
+      </c>
+      <c r="AH279" s="19">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="AI279" s="19">
+        <f t="shared" si="17"/>
+        <v>26.748394088035369</v>
+      </c>
+      <c r="AJ279" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK279" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL279" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM279" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF279-$AK279)^2+($AG279-$AL279)^2))</f>
+        <v>11.76860229593982</v>
+      </c>
+      <c r="AN279" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO279" s="13"/>
+      <c r="AP279" s="13"/>
+      <c r="AQ279" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR279" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS279" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AT279" s="13">
+        <v>11</v>
+      </c>
+      <c r="AU279" s="19">
+        <f t="shared" si="19"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="280" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A280" s="3">
+        <v>13</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="17" t="str">
+        <f>IF($A280="","",IF(VLOOKUP($A280,Spiele!$A$2:$D$15,3,FALSE)=$B280,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D280" s="17" t="str">
+        <f>IF($B280="","",IF(VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)=$B280,VLOOKUP($A280,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E280" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A280,$A280,$B$2:$B280,$B280,$L$2:$L280,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F280" s="11">
+        <v>73</v>
+      </c>
+      <c r="G280" s="12">
+        <v>2</v>
+      </c>
+      <c r="H280" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A280,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B280,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F280,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G280)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A280,'Rote Karten'!$D$2:$D$4,$B280,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F280,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G280)</f>
+        <v>0</v>
+      </c>
+      <c r="I280" s="17" t="str">
+        <f>IF(OR($L280="Tor",$L280="ET"),_xlfn.IFNA(IF(VLOOKUP($A280,Spiele!$A$2:$C$15,3,FALSE)=$B280,COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,$B280,$A$2:$A280,$A280)&amp;":"&amp;COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280),COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)&amp;":"&amp;COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,$B280,$A$2:$A280,$A280)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J280" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A280,Spiele!$A$2:$D$15,3,FALSE)=$B280,(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,$B280,$A$1:$A279,$A280))-(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)),(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,$B280,$A$1:$A279,$A280))-(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K280" s="3">
+        <v>24</v>
+      </c>
+      <c r="L280" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M280" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N280" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O280" s="17">
+        <v>18</v>
+      </c>
+      <c r="P280" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q280" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA280" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB280" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC280" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD280" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE280" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF280" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG280" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH280" s="19">
+        <f t="shared" si="16"/>
+        <v>19.211340400919454</v>
+      </c>
+      <c r="AI280" s="19">
+        <f t="shared" si="17"/>
+        <v>15.312989252529659</v>
+      </c>
+      <c r="AJ280" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK280" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL280" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM280" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF280-$AK280)^2+($AG280-$AL280)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AN280" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO280" s="13">
+        <v>-12.5</v>
+      </c>
+      <c r="AP280" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AQ280" s="19">
+        <f t="shared" si="18"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR280" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU280" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A281" s="3">
+        <v>13</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="17" t="str">
+        <f>IF($A281="","",IF(VLOOKUP($A281,Spiele!$A$2:$D$15,3,FALSE)=$B281,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D281" s="17" t="str">
+        <f>IF($B281="","",IF(VLOOKUP($A281,Spiele!$A$2:$F$15,3,FALSE)=$B281,VLOOKUP($A281,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A281,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E281" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A281,$A281,$B$2:$B281,$B281,$L$2:$L281,"&lt;&gt;ET"))</f>
+        <v>15</v>
+      </c>
+      <c r="F281" s="11">
+        <v>77</v>
+      </c>
+      <c r="G281" s="12">
+        <v>2</v>
+      </c>
+      <c r="H281" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A281,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B281,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F281,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G281)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A281,'Rote Karten'!$D$2:$D$4,$B281,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F281,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G281)</f>
+        <v>0</v>
+      </c>
+      <c r="I281" s="17" t="str">
+        <f>IF(OR($L281="Tor",$L281="ET"),_xlfn.IFNA(IF(VLOOKUP($A281,Spiele!$A$2:$C$15,3,FALSE)=$B281,COUNTIFS($L$2:$L281,"Tor",$B$2:$B281,$B281,$A$2:$A281,$A281)+COUNTIFS($L$2:$L281,"ET",$B$2:$B281,$B281,$A$2:$A281,$A281)&amp;":"&amp;COUNTIFS($L$2:$L281,"Tor",$B$2:$B281,"&lt;&gt;"&amp;$B281,$A$2:$A281,$A281)+COUNTIFS($L$2:$L281,"ET",$B$2:$B281,"&lt;&gt;"&amp;$B281,$A$2:$A281,$A281),COUNTIFS($L$2:$L281,"Tor",$B$2:$B281,"&lt;&gt;"&amp;$B281,$A$2:$A281,$A281)+COUNTIFS($L$2:$L281,"ET",$B$2:$B281,"&lt;&gt;"&amp;$B281,$A$2:$A281,$A281)&amp;":"&amp;COUNTIFS($L$2:$L281,"Tor",$B$2:$B281,$B281,$A$2:$A281,$A281)+COUNTIFS($L$2:$L281,"ET",$B$2:$B281,$B281,$A$2:$A281,$A281)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J281" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A281,Spiele!$A$2:$D$15,3,FALSE)=$B281,(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,$B281,$A$1:$A280,$A281))-(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)),(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,$B281,$A$1:$A280,$A281))-(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K281" s="3">
+        <v>25</v>
+      </c>
+      <c r="L281" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M281" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N281" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O281" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA281" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB281" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC281" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD281" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE281" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF281" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AG281" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH281" s="19">
+        <f t="shared" si="16"/>
+        <v>17.7060893480181</v>
+      </c>
+      <c r="AI281" s="19">
+        <f t="shared" si="17"/>
+        <v>14.620361026676797</v>
+      </c>
+      <c r="AJ281" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK281" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AL281" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM281" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF281-$AK281)^2+($AG281-$AL281)^2))</f>
+        <v>17.327723451163457</v>
+      </c>
+      <c r="AN281" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO281" s="13">
+        <v>14</v>
+      </c>
+      <c r="AP281" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ281" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR281" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS281" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AT281" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU281" s="19">
+        <f t="shared" si="19"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="282" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A282" s="3">
+        <v>13</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C282" s="17" t="str">
+        <f>IF($A282="","",IF(VLOOKUP($A282,Spiele!$A$2:$D$15,3,FALSE)=$B282,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D282" s="17" t="str">
+        <f>IF($B282="","",IF(VLOOKUP($A282,Spiele!$A$2:$F$15,3,FALSE)=$B282,VLOOKUP($A282,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A282,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E282" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A282,$A282,$B$2:$B282,$B282,$L$2:$L282,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F282" s="11">
+        <v>83</v>
+      </c>
+      <c r="G282" s="12">
+        <v>2</v>
+      </c>
+      <c r="H282" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A282,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B282,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F282,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G282)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A282,'Rote Karten'!$D$2:$D$4,$B282,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F282,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G282)</f>
+        <v>0</v>
+      </c>
+      <c r="I282" s="17" t="str">
+        <f>IF(OR($L282="Tor",$L282="ET"),_xlfn.IFNA(IF(VLOOKUP($A282,Spiele!$A$2:$C$15,3,FALSE)=$B282,COUNTIFS($L$2:$L282,"Tor",$B$2:$B282,$B282,$A$2:$A282,$A282)+COUNTIFS($L$2:$L282,"ET",$B$2:$B282,$B282,$A$2:$A282,$A282)&amp;":"&amp;COUNTIFS($L$2:$L282,"Tor",$B$2:$B282,"&lt;&gt;"&amp;$B282,$A$2:$A282,$A282)+COUNTIFS($L$2:$L282,"ET",$B$2:$B282,"&lt;&gt;"&amp;$B282,$A$2:$A282,$A282),COUNTIFS($L$2:$L282,"Tor",$B$2:$B282,"&lt;&gt;"&amp;$B282,$A$2:$A282,$A282)+COUNTIFS($L$2:$L282,"ET",$B$2:$B282,"&lt;&gt;"&amp;$B282,$A$2:$A282,$A282)&amp;":"&amp;COUNTIFS($L$2:$L282,"Tor",$B$2:$B282,$B282,$A$2:$A282,$A282)+COUNTIFS($L$2:$L282,"ET",$B$2:$B282,$B282,$A$2:$A282,$A282)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J282" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A282,Spiele!$A$2:$D$15,3,FALSE)=$B282,(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,$B282,$A$1:$A281,$A282))-(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)),(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,$B282,$A$1:$A281,$A282))-(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K282" s="3">
+        <v>26</v>
+      </c>
+      <c r="L282" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O282" s="17"/>
+      <c r="AA282" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB282" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC282" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD282" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE282" s="18"/>
+      <c r="AF282" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AG282" s="13">
+        <v>18</v>
+      </c>
+      <c r="AH282" s="19">
         <f t="shared" si="16"/>
         <v>19.838235808660002</v>
       </c>
-      <c r="AI254" s="19">
+      <c r="AI282" s="19">
         <f t="shared" si="17"/>
         <v>16.163407255354326</v>
       </c>
-      <c r="AJ254" s="2" t="s">
+      <c r="AJ282" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AK254" s="13">
+      <c r="AK282" s="13">
         <v>-1.5</v>
       </c>
-      <c r="AL254" s="13">
+      <c r="AL282" s="13">
         <v>2.5</v>
       </c>
-      <c r="AM254" s="19">
-        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF254-$AK254)^2+($AG254-$AL254)^2))</f>
+      <c r="AM282" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF282-$AK282)^2+($AG282-$AL282)^2))</f>
         <v>18.721645226849056</v>
       </c>
-      <c r="AN254" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO254" s="13">
+      <c r="AN282" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO282" s="13">
         <v>-10.5</v>
       </c>
-      <c r="AP254" s="13">
+      <c r="AP282" s="13">
         <v>21</v>
       </c>
-      <c r="AQ254" s="19">
+      <c r="AQ282" s="19">
         <f t="shared" si="18"/>
         <v>3.3541019662496847</v>
       </c>
-      <c r="AR254" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU254" s="19" t="str">
+      <c r="AR282" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU282" s="19" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:47" ht="25.05" customHeight="1">
-      <c r="AC256" s="14"/>
-      <c r="AD256" s="14"/>
+    <row r="284" spans="1:47" ht="25.05" customHeight="1">
+      <c r="AC284" s="14"/>
+      <c r="AD284" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E254">
+  <conditionalFormatting sqref="A2:E282">
     <cfRule type="expression" dxfId="40" priority="127">
       <formula>$C2="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K254 M2:M254 AC2:AD254 AF2:AG254 AJ2:AL254 AN2:AN254 AR2:AR254">
+  <conditionalFormatting sqref="K2:K282 M2:M282 AC2:AD282 AF2:AG282 AJ2:AL282 AN2:AN282 AR2:AR282">
     <cfRule type="cellIs" dxfId="39" priority="47" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:M254 AA2:AG254 AJ2:AL254 AN2:AN254 AR2:AR254">
+  <conditionalFormatting sqref="K2:M282 AA2:AG282 AJ2:AL282 AN2:AN282 AR2:AR282">
     <cfRule type="expression" dxfId="38" priority="50">
       <formula>$F2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L254 AB2:AB254 AE2:AE254">
+  <conditionalFormatting sqref="L2:L282 AB2:AB282 AE2:AE282">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M257">
+  <conditionalFormatting sqref="M285">
     <cfRule type="cellIs" dxfId="36" priority="122" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="123">
-      <formula>$F257&lt;&gt;""</formula>
+      <formula>$F285&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AU1048576">
@@ -39251,7 +42448,7 @@
       <formula>$L2="ET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N254">
+  <conditionalFormatting sqref="N2:N282">
     <cfRule type="cellIs" dxfId="33" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -39283,41 +42480,41 @@
       <formula>$M2="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N257:Z257">
+  <conditionalFormatting sqref="N285:Z285">
     <cfRule type="expression" dxfId="23" priority="105">
-      <formula>$M257="nEW"</formula>
+      <formula>$M285="nEW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="106">
-      <formula>$M257="EW"</formula>
+      <formula>$M285="EW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="107">
-      <formula>$M257="n11M"</formula>
+      <formula>$M285="n11M"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="108">
-      <formula>$M257="nFS"</formula>
+      <formula>$M285="nFS"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="109">
-      <formula>$M257="nE"</formula>
+      <formula>$M285="nE"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="110">
-      <formula>$M257="FSF"</formula>
+      <formula>$M285="FSF"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="111">
-      <formula>$M257="E"</formula>
+      <formula>$M285="E"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="112">
-      <formula>$M257="USO"</formula>
+      <formula>$M285="USO"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="124">
-      <formula>$M257="EB"</formula>
+      <formula>$M285="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N257:AA257">
+  <conditionalFormatting sqref="N285:AA285">
     <cfRule type="cellIs" dxfId="14" priority="104" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA254">
+  <conditionalFormatting sqref="AA2:AA282">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -39325,23 +42522,23 @@
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA257">
+  <conditionalFormatting sqref="AA285">
     <cfRule type="expression" dxfId="11" priority="125">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC256:AD256">
+  <conditionalFormatting sqref="AC284:AD284">
     <cfRule type="expression" dxfId="10" priority="100">
-      <formula>$L256="ET"</formula>
+      <formula>$L284="ET"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="101" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="102">
-      <formula>$F256&lt;&gt;""</formula>
+      <formula>$F284&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE254">
+  <conditionalFormatting sqref="AE2:AE282">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($L2="ET", $D2="FCN")</formula>
     </cfRule>
@@ -39349,12 +42546,12 @@
       <formula>$B2&lt;&gt;"FCN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL254">
+  <conditionalFormatting sqref="AK2:AL282">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>$AJ2="niT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP254">
+  <conditionalFormatting sqref="AO2:AP282">
     <cfRule type="cellIs" dxfId="4" priority="18" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -39362,7 +42559,7 @@
       <formula>$AN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AT254">
+  <conditionalFormatting sqref="AS2:AT282">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D5D497-8400-444E-B088-637209857246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DE108-979F-40A6-AE0F-4A80479F4DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36351,17 +36351,17 @@
         <v>8.9022469073824286</v>
       </c>
       <c r="AN230" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO230" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AP230" s="13">
         <v>6.5</v>
-      </c>
-      <c r="AP230" s="13">
-        <v>5.5</v>
       </c>
       <c r="AQ230" s="19">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="AR230" s="3">
         <v>0</v>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DE108-979F-40A6-AE0F-4A80479F4DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FEECF-FA0B-4CD7-9121-4836936B3A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="188">
   <si>
     <t>Tor</t>
   </si>
@@ -3392,10 +3392,10 @@
     <tableColumn id="7" xr3:uid="{1F4B0B22-113B-4B13-B735-0BBD579317AF}" name="1. HZ" dataDxfId="124"/>
     <tableColumn id="8" xr3:uid="{12077EEE-5CEB-4092-B79D-C908B22B2779}" name="2. HZ" dataDxfId="123"/>
     <tableColumn id="13" xr3:uid="{9623CA39-28F7-4980-A88A-3573C5D164D8}" name="TH" dataDxfId="122">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{C91559F3-290E-4254-BCA6-0153E99BEA95}" name="TG" dataDxfId="121">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{20A97A80-E72B-4108-88BD-336F6FD51B46}" name="PH" dataDxfId="120">
       <calculatedColumnFormula>IF($A2="","",IF($G2&gt;$H2,3,IF($G2=$H2,1,IF($G2&lt;$H2,0,""))))</calculatedColumnFormula>
@@ -3437,8 +3437,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU282" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
-  <autoFilter ref="A1:AU282" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU307" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:AU307" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
   <tableColumns count="47">
     <tableColumn id="3" xr3:uid="{0676AC04-BF24-449C-85E1-9A2476826D3A}" name="SID" dataDxfId="101"/>
     <tableColumn id="4" xr3:uid="{115800A1-176E-47B9-8A68-56625F9DD647}" name="TID" dataDxfId="100"/>
@@ -3875,11 +3875,11 @@
         <v>40</v>
       </c>
       <c r="G2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$C2,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A2,Abschlüsse!$B$2:$B$282,$D2,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I2" s="18">
@@ -3911,11 +3911,11 @@
         <v>43</v>
       </c>
       <c r="G3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$C3,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$C3,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$C3,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$C3,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$D3,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A3,Abschlüsse!$B$2:$B$282,$D3,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$D3,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$D3,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I3" s="18">
@@ -3947,11 +3947,11 @@
         <v>40</v>
       </c>
       <c r="G4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$C4,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$C4,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$C4,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$C4,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$D4,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A4,Abschlüsse!$B$2:$B$282,$D4,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$D4,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$D4,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
@@ -3983,11 +3983,11 @@
         <v>43</v>
       </c>
       <c r="G5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$C5,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$C5,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$C5,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$C5,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$D5,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A5,Abschlüsse!$B$2:$B$282,$D5,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$D5,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$D5,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I5" s="18">
@@ -4019,11 +4019,11 @@
         <v>42</v>
       </c>
       <c r="G6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$C6,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$C6,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$C6,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$C6,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$D6,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A6,Abschlüsse!$B$2:$B$282,$D6,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$D6,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$D6,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I6" s="18">
@@ -4055,11 +4055,11 @@
         <v>45</v>
       </c>
       <c r="G7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$C7,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$C7,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$C7,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$C7,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$D7,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A7,Abschlüsse!$B$2:$B$282,$D7,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$D7,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$D7,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I7" s="18">
@@ -4091,11 +4091,11 @@
         <v>45</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$C8,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$C8,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$C8,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$C8,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$D8,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A8,Abschlüsse!$B$2:$B$282,$D8,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$D8,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$D8,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I8" s="18">
@@ -4127,11 +4127,11 @@
         <v>46</v>
       </c>
       <c r="G9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$C9,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$C9,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$C9,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$C9,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$D9,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A9,Abschlüsse!$B$2:$B$282,$D9,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$D9,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$D9,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I9" s="18">
@@ -4163,11 +4163,11 @@
         <v>44</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$C10,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$C10,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$C10,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$C10,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$D10,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A10,Abschlüsse!$B$2:$B$282,$D10,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$D10,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$D10,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I10" s="18">
@@ -4199,12 +4199,12 @@
         <v>44</v>
       </c>
       <c r="G11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$C11,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$C11,Abschlüsse!$L$2:$L$282,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$C11,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$C11,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <v>2</v>
       </c>
       <c r="H11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$D11,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A11,Abschlüsse!$B$2:$B$282,$D11,Abschlüsse!$L$2:$L$282,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$D11,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$D11,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <v>2</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="0"/>
@@ -4235,11 +4235,11 @@
         <v>46</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$C12,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$C12,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$C12,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$C12,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$D12,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A12,Abschlüsse!$B$2:$B$282,$D12,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$D12,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$D12,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I12" s="18">
@@ -4271,11 +4271,11 @@
         <v>45</v>
       </c>
       <c r="G13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$C13,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$C13,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$C13,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$C13,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$D13,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A13,Abschlüsse!$B$2:$B$282,$D13,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$D13,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$D13,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I13" s="18">
@@ -4307,11 +4307,11 @@
         <v>44</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$C14,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$C14,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$C14,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$C14,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>1</v>
       </c>
       <c r="H14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$D14,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A14,Abschlüsse!$B$2:$B$282,$D14,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$D14,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$D14,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I14" s="18">
@@ -4343,11 +4343,11 @@
         <v>45</v>
       </c>
       <c r="G15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$C15,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$C15,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$C15,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$C15,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$D15,Abschlüsse!$L$2:$L$282,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$282,$A15,Abschlüsse!$B$2:$B$282,$D15,Abschlüsse!$L$2:$L$282,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$D15,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$D15,Abschlüsse!$L$2:$L$307,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I15" s="18">
@@ -9178,7 +9178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV284"/>
+  <dimension ref="A1:AV309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -29651,27 +29651,27 @@
         <v>1</v>
       </c>
       <c r="AO172" s="13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AP172" s="13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ172" s="19">
         <f t="shared" si="10"/>
-        <v>5.0990195135927845</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR172" s="3">
         <v>3</v>
       </c>
       <c r="AS172" s="13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AT172" s="13">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AU172" s="19">
         <f t="shared" si="11"/>
-        <v>0.70710678118654757</v>
+        <v>5.0990195135927845</v>
       </c>
     </row>
     <row r="173" spans="1:47" ht="25.05" customHeight="1">
@@ -32144,11 +32144,11 @@
         <v>15</v>
       </c>
       <c r="AH194" s="19">
-        <f t="shared" ref="AH194:AH253" si="12">IF($L194="ET","",IF($AF194&gt;3.66,SQRT($AG194^2+($AF194-(7.32/2))^2),IF($AF194&lt;-3.66,SQRT($AG194^2+($AF194+(7.32/2))^2),$AG194)))</f>
+        <f t="shared" ref="AH194:AH257" si="12">IF($L194="ET","",IF($AF194&gt;3.66,SQRT($AG194^2+($AF194-(7.32/2))^2),IF($AF194&lt;-3.66,SQRT($AG194^2+($AF194+(7.32/2))^2),$AG194)))</f>
         <v>15</v>
       </c>
       <c r="AI194" s="19">
-        <f t="shared" ref="AI194:AI253" si="13">IF($L194="ET","",IF(DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))))</f>
+        <f t="shared" ref="AI194:AI257" si="13">IF($L194="ET","",IF(DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG194)/($AG194^2+$AF194^2-(7.32/2)^2)))))</f>
         <v>27.396825673048827</v>
       </c>
       <c r="AJ194" s="2" t="s">
@@ -33209,14 +33209,14 @@
         <v>6.5</v>
       </c>
       <c r="AQ203" s="19">
-        <f t="shared" ref="AQ203:AQ253" si="14">IF(AN203=0,"",SQRT(($AF203-$AO203)^2+($AG203-$AP203)^2))</f>
+        <f t="shared" ref="AQ203:AQ277" si="14">IF(AN203=0,"",SQRT(($AF203-$AO203)^2+($AG203-$AP203)^2))</f>
         <v>2.5</v>
       </c>
       <c r="AR203" s="3">
         <v>0</v>
       </c>
       <c r="AU203" s="19" t="str">
-        <f t="shared" ref="AU203:AU253" si="15">IF(AR203=0,"",SQRT(($AF203-$AS203)^2+($AG203-$AT203)^2))</f>
+        <f t="shared" ref="AU203:AU277" si="15">IF(AR203=0,"",SQRT(($AF203-$AS203)^2+($AG203-$AT203)^2))</f>
         <v/>
       </c>
     </row>
@@ -38983,25 +38983,25 @@
     </row>
     <row r="254" spans="1:47" ht="25.05" customHeight="1">
       <c r="A254" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C254" s="17" t="str">
         <f>IF($A254="","",IF(VLOOKUP($A254,Spiele!$A$2:$D$15,3,FALSE)=$B254,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D254" s="17" t="str">
         <f>IF($B254="","",IF(VLOOKUP($A254,Spiele!$A$2:$F$15,3,FALSE)=$B254,VLOOKUP($A254,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A254,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E254" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A254,$A254,$B$2:$B254,$B254,$L$2:$L254,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F254" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G254" s="12">
         <v>1</v>
@@ -39022,103 +39022,113 @@
         <v>1</v>
       </c>
       <c r="L254" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O254" s="17">
+        <v>8</v>
+      </c>
+      <c r="P254" s="2">
         <v>20</v>
       </c>
-      <c r="M254" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N254" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O254" s="17"/>
+      <c r="Q254" s="2">
+        <v>1</v>
+      </c>
+      <c r="R254" s="2">
+        <v>6</v>
+      </c>
+      <c r="S254" s="2">
+        <v>16</v>
+      </c>
       <c r="AA254" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB254" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC254" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD254" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE254" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE254" s="18">
+        <v>7</v>
+      </c>
       <c r="AF254" s="13">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="AG254" s="13">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="AH254" s="19">
-        <f t="shared" ref="AH254:AH282" si="16">IF($L254="ET","",IF($AF254&gt;3.66,SQRT($AG254^2+($AF254-(7.32/2))^2),IF($AF254&lt;-3.66,SQRT($AG254^2+($AF254+(7.32/2))^2),$AG254)))</f>
-        <v>17.5</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="AI254" s="19">
-        <f t="shared" ref="AI254:AI282" si="17">IF($L254="ET","",IF(DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG254)/($AG254^2+$AF254^2-(7.32/2)^2)))))</f>
-        <v>23.341389828691302</v>
+        <f t="shared" si="13"/>
+        <v>41.733771905497981</v>
       </c>
       <c r="AJ254" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK254" s="13">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="AL254" s="13">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM254" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF254-$AK254)^2+($AG254-$AL254)^2))</f>
-        <v>17.066048165876012</v>
+        <v>2.5495097567963922</v>
       </c>
       <c r="AN254" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO254" s="13">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="AP254" s="13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AQ254" s="19">
-        <f t="shared" ref="AQ254:AQ282" si="18">IF(AN254=0,"",SQRT(($AF254-$AO254)^2+($AG254-$AP254)^2))</f>
-        <v>0.70710678118654757</v>
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
       <c r="AR254" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS254" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AT254" s="13">
-        <v>14</v>
-      </c>
-      <c r="AU254" s="19">
-        <f t="shared" ref="AU254:AU282" si="19">IF(AR254=0,"",SQRT(($AF254-$AS254)^2+($AG254-$AT254)^2))</f>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="AU254" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="255" spans="1:47" ht="25.05" customHeight="1">
       <c r="A255" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C255" s="17" t="str">
         <f>IF($A255="","",IF(VLOOKUP($A255,Spiele!$A$2:$D$15,3,FALSE)=$B255,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D255" s="17" t="str">
         <f>IF($B255="","",IF(VLOOKUP($A255,Spiele!$A$2:$F$15,3,FALSE)=$B255,VLOOKUP($A255,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A255,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E255" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A255,$A255,$B$2:$B255,$B255,$L$2:$L255,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F255" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G255" s="12">
         <v>1</v>
@@ -39136,102 +39146,131 @@
         <v>0</v>
       </c>
       <c r="K255" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L255" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O255" s="17"/>
+        <v>158</v>
+      </c>
+      <c r="O255" s="17">
+        <v>20</v>
+      </c>
+      <c r="P255" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q255" s="2">
+        <v>20</v>
+      </c>
+      <c r="R255" s="2">
+        <v>16</v>
+      </c>
+      <c r="S255" s="2">
+        <v>6</v>
+      </c>
+      <c r="T255" s="2">
+        <v>26</v>
+      </c>
+      <c r="U255" s="2">
+        <v>8</v>
+      </c>
+      <c r="V255" s="2">
+        <v>23</v>
+      </c>
       <c r="AA255" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB255" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC255" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD255" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE255" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE255" s="18">
+        <v>7</v>
+      </c>
       <c r="AF255" s="13">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AG255" s="13">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH255" s="19">
-        <f t="shared" si="16"/>
-        <v>17.601295406872758</v>
+        <f t="shared" si="12"/>
+        <v>19.902904310677876</v>
       </c>
       <c r="AI255" s="19">
-        <f t="shared" si="17"/>
-        <v>17.011080950867086</v>
+        <f t="shared" si="13"/>
+        <v>16.753409291619413</v>
       </c>
       <c r="AJ255" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK255" s="13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL255" s="13">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="AM255" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF255-$AK255)^2+($AG255-$AL255)^2))</f>
-        <v>17.613914953808536</v>
+        <v>17</v>
       </c>
       <c r="AN255" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO255" s="13"/>
-      <c r="AP255" s="13"/>
-      <c r="AQ255" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="AO255" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP255" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="AQ255" s="19">
+        <f t="shared" si="14"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="AR255" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS255" s="13">
-        <v>-10.5</v>
+        <v>-7.5</v>
       </c>
       <c r="AT255" s="13">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AU255" s="19">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
+        <f t="shared" si="15"/>
+        <v>4.6097722286464435</v>
       </c>
     </row>
     <row r="256" spans="1:47" ht="25.05" customHeight="1">
       <c r="A256" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C256" s="17" t="str">
         <f>IF($A256="","",IF(VLOOKUP($A256,Spiele!$A$2:$D$15,3,FALSE)=$B256,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D256" s="17" t="str">
         <f>IF($B256="","",IF(VLOOKUP($A256,Spiele!$A$2:$F$15,3,FALSE)=$B256,VLOOKUP($A256,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A256,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E256" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A256,$A256,$B$2:$B256,$B256,$L$2:$L256,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F256" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G256" s="12">
         <v>1</v>
@@ -39249,7 +39288,7 @@
         <v>0</v>
       </c>
       <c r="K256" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L256" s="17" t="s">
         <v>19</v>
@@ -39258,11 +39297,9 @@
         <v>163</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O256" s="17">
-        <v>8</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O256" s="17"/>
       <c r="AA256" s="2" t="s">
         <v>151</v>
       </c>
@@ -39275,80 +39312,82 @@
       <c r="AD256" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE256" s="18">
-        <v>9</v>
-      </c>
+      <c r="AE256" s="18"/>
       <c r="AF256" s="13">
-        <v>-3.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG256" s="13">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH256" s="19">
-        <f t="shared" si="16"/>
-        <v>11.5</v>
+        <f t="shared" si="12"/>
+        <v>9.4358677396411181</v>
       </c>
       <c r="AI256" s="19">
-        <f t="shared" si="17"/>
-        <v>32.703859314557576</v>
+        <f t="shared" si="13"/>
+        <v>18.88300934462973</v>
       </c>
       <c r="AJ256" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK256" s="13">
-        <v>-1.5</v>
+        <v>3</v>
       </c>
       <c r="AL256" s="13">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM256" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF256-$AK256)^2+($AG256-$AL256)^2))</f>
-        <v>8.2462112512353212</v>
+        <v>9.6046863561492728</v>
       </c>
       <c r="AN256" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO256" s="13"/>
-      <c r="AP256" s="13"/>
-      <c r="AQ256" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO256" s="13">
+        <v>9</v>
+      </c>
+      <c r="AP256" s="13">
+        <v>7</v>
+      </c>
+      <c r="AQ256" s="19">
+        <f t="shared" si="14"/>
+        <v>1.5811388300841898</v>
       </c>
       <c r="AR256" s="3">
         <v>1</v>
       </c>
       <c r="AS256" s="13">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="AT256" s="13">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AU256" s="19">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>3.5355339059327378</v>
       </c>
     </row>
     <row r="257" spans="1:47" ht="25.05" customHeight="1">
       <c r="A257" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C257" s="17" t="str">
         <f>IF($A257="","",IF(VLOOKUP($A257,Spiele!$A$2:$D$15,3,FALSE)=$B257,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D257" s="17" t="str">
         <f>IF($B257="","",IF(VLOOKUP($A257,Spiele!$A$2:$F$15,3,FALSE)=$B257,VLOOKUP($A257,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A257,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E257" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A257,$A257,$B$2:$B257,$B257,$L$2:$L257,"&lt;&gt;ET"))</f>
         <v>3</v>
       </c>
       <c r="F257" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G257" s="12">
         <v>1</v>
@@ -39366,102 +39405,110 @@
         <v>0</v>
       </c>
       <c r="K257" s="3">
-        <v>3</v>
-      </c>
-      <c r="L257" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M257" s="2" t="s">
-        <v>147</v>
+        <v>4</v>
+      </c>
+      <c r="L257" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O257" s="17"/>
-      <c r="AA257" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O257" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA257" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AB257" s="17" t="s">
-        <v>143</v>
+      <c r="AB257" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="AC257" s="14" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="AD257" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE257" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="AE257" s="18">
+        <v>16</v>
+      </c>
       <c r="AF257" s="13">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AG257" s="13">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="AH257" s="19">
-        <f t="shared" si="16"/>
-        <v>15.5</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="AI257" s="19">
-        <f t="shared" si="17"/>
-        <v>26.546439371443093</v>
-      </c>
-      <c r="AJ257" s="2" t="s">
-        <v>146</v>
+        <f t="shared" si="13"/>
+        <v>102.12639849892098</v>
+      </c>
+      <c r="AJ257" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="AK257" s="13">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AL257" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AM257" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF257-$AK257)^2+($AG257-$AL257)^2))</f>
-        <v>15.033296378372908</v>
+        <v>0.5</v>
       </c>
       <c r="AN257" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO257" s="13"/>
-      <c r="AP257" s="13"/>
-      <c r="AQ257" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="AO257" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AP257" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AQ257" s="19">
+        <f>IF(AN257=0,"",SQRT(($AF257-$AO257)^2+($AG257-$AP257)^2))</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR257" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS257" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AT257" s="13">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="AU257" s="19">
-        <f t="shared" si="19"/>
-        <v>6.0207972893961479</v>
+        <f>IF(AR257=0,"",SQRT(($AF257-$AS257)^2+($AG257-$AT257)^2))</f>
+        <v>3.8078865529319543</v>
       </c>
     </row>
     <row r="258" spans="1:47" ht="25.05" customHeight="1">
       <c r="A258" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C258" s="17" t="str">
         <f>IF($A258="","",IF(VLOOKUP($A258,Spiele!$A$2:$D$15,3,FALSE)=$B258,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D258" s="17" t="str">
         <f>IF($B258="","",IF(VLOOKUP($A258,Spiele!$A$2:$F$15,3,FALSE)=$B258,VLOOKUP($A258,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A258,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E258" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A258,$A258,$B$2:$B258,$B258,$L$2:$L258,"&lt;&gt;ET"))</f>
         <v>2</v>
       </c>
       <c r="F258" s="11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G258" s="12">
         <v>1</v>
@@ -39479,98 +39526,85 @@
         <v>0</v>
       </c>
       <c r="K258" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L258" s="17" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O258" s="17">
-        <v>9</v>
-      </c>
-      <c r="P258" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q258" s="2">
-        <v>7</v>
-      </c>
-      <c r="R258" s="2">
-        <v>23</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O258" s="17"/>
       <c r="AA258" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AB258" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AC258" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD258" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE258" s="18">
-        <v>7</v>
-      </c>
+      <c r="AE258" s="18"/>
       <c r="AF258" s="13">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AG258" s="13">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="AH258" s="19">
-        <f t="shared" si="16"/>
-        <v>13.595793467098565</v>
+        <f t="shared" ref="AH258:AH278" si="16">IF($L258="ET","",IF($AF258&gt;3.66,SQRT($AG258^2+($AF258-(7.32/2))^2),IF($AF258&lt;-3.66,SQRT($AG258^2+($AF258+(7.32/2))^2),$AG258)))</f>
+        <v>2.8836782067352797</v>
       </c>
       <c r="AI258" s="19">
-        <f t="shared" si="17"/>
-        <v>11.583042211219654</v>
+        <f t="shared" ref="AI258:AI278" si="17">IF($L258="ET","",IF(DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))))</f>
+        <v>7.1675590179856794</v>
       </c>
       <c r="AJ258" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AK258" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL258" s="13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM258" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF258-$AK258)^2+($AG258-$AL258)^2))</f>
-        <v>12.529964086141668</v>
+        <v>1.5</v>
       </c>
       <c r="AN258" s="3">
         <v>1</v>
       </c>
       <c r="AO258" s="13">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP258" s="13">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="AQ258" s="19">
-        <f t="shared" si="18"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
       <c r="AR258" s="3">
         <v>0</v>
       </c>
       <c r="AU258" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:47" ht="25.05" customHeight="1">
       <c r="A259" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C259" s="17" t="str">
         <f>IF($A259="","",IF(VLOOKUP($A259,Spiele!$A$2:$D$15,3,FALSE)=$B259,"H","G"))</f>
@@ -39582,10 +39616,10 @@
       </c>
       <c r="E259" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A259,$A259,$B$2:$B259,$B259,$L$2:$L259,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F259" s="11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G259" s="12">
         <v>1</v>
@@ -39606,54 +39640,48 @@
         <v>5</v>
       </c>
       <c r="L259" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O259" s="17"/>
       <c r="AA259" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB259" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC259" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AD259" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE259" s="18"/>
       <c r="AF259" s="13">
-        <v>7.5</v>
+        <v>-5</v>
       </c>
       <c r="AG259" s="13">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="AH259" s="19">
         <f t="shared" si="16"/>
-        <v>13.555279414309393</v>
+        <v>1.4302447343024898</v>
       </c>
       <c r="AI259" s="19">
         <f t="shared" si="17"/>
-        <v>24.188491715950388</v>
+        <v>17.157869627506276</v>
       </c>
       <c r="AJ259" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK259" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL259" s="13">
-        <v>0.5</v>
+        <v>166</v>
       </c>
       <c r="AM259" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF259-$AK259)^2+($AG259-$AL259)^2))</f>
-        <v>14.089002803605371</v>
+        <v>5.024937810560445</v>
       </c>
       <c r="AN259" s="3">
         <v>0</v>
@@ -39661,29 +39689,29 @@
       <c r="AO259" s="13"/>
       <c r="AP259" s="13"/>
       <c r="AQ259" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR259" s="3">
         <v>2</v>
       </c>
       <c r="AS259" s="13">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="AT259" s="13">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="AU259" s="19">
-        <f t="shared" si="19"/>
-        <v>1.1180339887498949</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:47" ht="25.05" customHeight="1">
       <c r="A260" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C260" s="17" t="str">
         <f>IF($A260="","",IF(VLOOKUP($A260,Spiele!$A$2:$D$15,3,FALSE)=$B260,"H","G"))</f>
@@ -39695,10 +39723,10 @@
       </c>
       <c r="E260" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A260,$A260,$B$2:$B260,$B260,$L$2:$L260,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F260" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G260" s="12">
         <v>1</v>
@@ -39725,14 +39753,14 @@
         <v>163</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="O260" s="17"/>
       <c r="AA260" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AB260" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC260" s="14" t="s">
         <v>150</v>
@@ -39742,65 +39770,65 @@
       </c>
       <c r="AE260" s="18"/>
       <c r="AF260" s="13">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="AG260" s="13">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AH260" s="19">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>9.2068235564715799</v>
       </c>
       <c r="AI260" s="19">
         <f t="shared" si="17"/>
-        <v>21.750134253188115</v>
+        <v>23.905909882192447</v>
       </c>
       <c r="AJ260" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK260" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL260" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AM260" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF260-$AK260)^2+($AG260-$AL260)^2))</f>
-        <v>18.527007313648905</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="AN260" s="3">
         <v>1</v>
       </c>
       <c r="AO260" s="13">
-        <v>-1.5</v>
+        <v>-8</v>
       </c>
       <c r="AP260" s="13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AQ260" s="19">
-        <f t="shared" si="18"/>
-        <v>2.6925824035672519</v>
+        <f t="shared" si="14"/>
+        <v>1.1180339887498949</v>
       </c>
       <c r="AR260" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS260" s="13">
-        <v>1</v>
+        <v>-4.5</v>
       </c>
       <c r="AT260" s="13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AU260" s="19">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>4.7434164902525691</v>
       </c>
     </row>
     <row r="261" spans="1:47" ht="25.05" customHeight="1">
       <c r="A261" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C261" s="17" t="str">
         <f>IF($A261="","",IF(VLOOKUP($A261,Spiele!$A$2:$D$15,3,FALSE)=$B261,"H","G"))</f>
@@ -39812,10 +39840,10 @@
       </c>
       <c r="E261" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A261,$A261,$B$2:$B261,$B261,$L$2:$L261,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F261" s="11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G261" s="12">
         <v>1</v>
@@ -39826,7 +39854,7 @@
       </c>
       <c r="I261" s="17" t="str">
         <f>IF(OR($L261="Tor",$L261="ET"),_xlfn.IFNA(IF(VLOOKUP($A261,Spiele!$A$2:$C$15,3,FALSE)=$B261,COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,$B261,$A$2:$A261,$A261)&amp;":"&amp;COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261),COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,"&lt;&gt;"&amp;$B261,$A$2:$A261,$A261)&amp;":"&amp;COUNTIFS($L$2:$L261,"Tor",$B$2:$B261,$B261,$A$2:$A261,$A261)+COUNTIFS($L$2:$L261,"ET",$B$2:$B261,$B261,$A$2:$A261,$A261)),""),"")</f>
-        <v/>
+        <v>0:1</v>
       </c>
       <c r="J261" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A261,Spiele!$A$2:$D$15,3,FALSE)=$B261,(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,$B261,$A$1:$A260,$A261))-(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)),(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,$B261,$A$1:$A260,$A261))-(COUNTIFS($L$1:$L260,"Tor",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261)+COUNTIFS($L$1:$L260,"ET",$B$1:$B260,"&lt;&gt;"&amp;$B261,$A$1:$A260,$A261))),"")</f>
@@ -39836,20 +39864,20 @@
         <v>6</v>
       </c>
       <c r="L261" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M261" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="O261" s="17"/>
       <c r="AA261" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB261" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC261" s="14" t="s">
         <v>150</v>
@@ -39859,62 +39887,56 @@
       </c>
       <c r="AE261" s="18"/>
       <c r="AF261" s="13">
+        <v>-7</v>
+      </c>
+      <c r="AG261" s="13">
         <v>6.5</v>
-      </c>
-      <c r="AG261" s="13">
-        <v>14.5</v>
       </c>
       <c r="AH261" s="19">
         <f t="shared" si="16"/>
-        <v>14.775506759498978</v>
+        <v>7.3079135189190625</v>
       </c>
       <c r="AI261" s="19">
         <f t="shared" si="17"/>
-        <v>23.936746455580142</v>
+        <v>31.430803953861584</v>
       </c>
       <c r="AJ261" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK261" s="13">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AL261" s="13">
         <v>0.5</v>
       </c>
       <c r="AM261" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF261-$AK261)^2+($AG261-$AL261)^2))</f>
-        <v>15.231546211727817</v>
+        <v>7.5</v>
       </c>
       <c r="AN261" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO261" s="13">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="AP261" s="13">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="AQ261" s="19">
-        <f t="shared" si="18"/>
-        <v>3.5</v>
+        <f t="shared" si="14"/>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AR261" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS261" s="13">
-        <v>6</v>
-      </c>
-      <c r="AT261" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="AU261" s="19">
-        <f t="shared" si="19"/>
-        <v>1.1180339887498949</v>
+        <v>0</v>
+      </c>
+      <c r="AU261" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:47" ht="25.05" customHeight="1">
       <c r="A262" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>8</v>
@@ -39925,14 +39947,14 @@
       </c>
       <c r="D262" s="17" t="str">
         <f>IF($B262="","",IF(VLOOKUP($A262,Spiele!$A$2:$F$15,3,FALSE)=$B262,VLOOKUP($A262,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A262,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E262" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A262,$A262,$B$2:$B262,$B262,$L$2:$L262,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F262" s="11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G262" s="12">
         <v>1</v>
@@ -39947,28 +39969,26 @@
       </c>
       <c r="J262" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A262,Spiele!$A$2:$D$15,3,FALSE)=$B262,(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,$B262,$A$1:$A261,$A262))-(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)),(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,$B262,$A$1:$A261,$A262))-(COUNTIFS($L$1:$L261,"Tor",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262)+COUNTIFS($L$1:$L261,"ET",$B$1:$B261,"&lt;&gt;"&amp;$B262,$A$1:$A261,$A262))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K262" s="3">
         <v>7</v>
       </c>
-      <c r="L262" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M262" s="2" t="s">
-        <v>163</v>
+      <c r="L262" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O262" s="17">
-        <v>7</v>
-      </c>
-      <c r="AA262" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB262" s="17" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+      <c r="O262" s="17"/>
+      <c r="AA262" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB262" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="AC262" s="14" t="s">
         <v>150</v>
@@ -39977,83 +39997,79 @@
         <v>145</v>
       </c>
       <c r="AE262" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF262" s="13">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="AG262" s="13">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH262" s="19">
         <f t="shared" si="16"/>
-        <v>14.524310654898565</v>
+        <v>17.020740289423372</v>
       </c>
       <c r="AI262" s="19">
         <f t="shared" si="17"/>
-        <v>26.053510457112758</v>
-      </c>
-      <c r="AJ262" s="2" t="s">
+        <v>22.812220932037633</v>
+      </c>
+      <c r="AJ262" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK262" s="13">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AL262" s="13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AM262" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF262-$AK262)^2+($AG262-$AL262)^2))</f>
-        <v>11.401754250991379</v>
+        <v>12.020815280171307</v>
       </c>
       <c r="AN262" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO262" s="13">
-        <v>7</v>
-      </c>
-      <c r="AP262" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="AQ262" s="19">
-        <f t="shared" si="18"/>
-        <v>3.905124837953327</v>
+        <v>0</v>
+      </c>
+      <c r="AO262" s="13"/>
+      <c r="AP262" s="13"/>
+      <c r="AQ262" s="19" t="str">
+        <f>IF(AN262=0,"",SQRT(($AF262-$AO262)^2+($AG262-$AP262)^2))</f>
+        <v/>
       </c>
       <c r="AR262" s="3">
         <v>2</v>
       </c>
       <c r="AS262" s="13">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="AT262" s="13">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AU262" s="19">
-        <f t="shared" si="19"/>
-        <v>4.0311288741492746</v>
+        <f>IF(AR262=0,"",SQRT(($AF262-$AS262)^2+($AG262-$AT262)^2))</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="263" spans="1:47" ht="25.05" customHeight="1">
       <c r="A263" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C263" s="17" t="str">
         <f>IF($A263="","",IF(VLOOKUP($A263,Spiele!$A$2:$D$15,3,FALSE)=$B263,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D263" s="17" t="str">
         <f>IF($B263="","",IF(VLOOKUP($A263,Spiele!$A$2:$F$15,3,FALSE)=$B263,VLOOKUP($A263,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A263,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E263" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A263,$A263,$B$2:$B263,$B263,$L$2:$L263,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F263" s="11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G263" s="12">
         <v>1</v>
@@ -40068,7 +40084,7 @@
       </c>
       <c r="J263" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A263,Spiele!$A$2:$D$15,3,FALSE)=$B263,(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,$B263,$A$1:$A262,$A263))-(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)),(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,$B263,$A$1:$A262,$A263))-(COUNTIFS($L$1:$L262,"Tor",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263)+COUNTIFS($L$1:$L262,"ET",$B$1:$B262,"&lt;&gt;"&amp;$B263,$A$1:$A262,$A263))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" s="3">
         <v>8</v>
@@ -40077,10 +40093,10 @@
         <v>19</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="O263" s="17"/>
       <c r="AA263" s="2" t="s">
@@ -40090,71 +40106,69 @@
         <v>143</v>
       </c>
       <c r="AC263" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD263" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE263" s="18">
-        <v>6</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AE263" s="18"/>
       <c r="AF263" s="13">
-        <v>-6.5</v>
+        <v>7</v>
       </c>
       <c r="AG263" s="13">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH263" s="19">
         <f t="shared" si="16"/>
-        <v>16.742628228566744</v>
+        <v>11.495894919491914</v>
       </c>
       <c r="AI263" s="19">
         <f t="shared" si="17"/>
-        <v>21.856872591143812</v>
+        <v>27.210496491336805</v>
       </c>
       <c r="AJ263" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK263" s="13">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="AL263" s="13">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AM263" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF263-$AK263)^2+($AG263-$AL263)^2))</f>
-        <v>15.337861650177967</v>
+        <v>12.093386622447824</v>
       </c>
       <c r="AN263" s="3">
         <v>1</v>
       </c>
       <c r="AO263" s="13">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="AP263" s="13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AQ263" s="19">
-        <f t="shared" si="18"/>
-        <v>4.3011626335213133</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AR263" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS263" s="13">
-        <v>-2</v>
+        <v>4.5</v>
       </c>
       <c r="AT263" s="13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AU263" s="19">
-        <f t="shared" si="19"/>
-        <v>11.423659658795863</v>
+        <f t="shared" si="15"/>
+        <v>6.0415229867972862</v>
       </c>
     </row>
     <row r="264" spans="1:47" ht="25.05" customHeight="1">
       <c r="A264" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>8</v>
@@ -40165,14 +40179,14 @@
       </c>
       <c r="D264" s="17" t="str">
         <f>IF($B264="","",IF(VLOOKUP($A264,Spiele!$A$2:$F$15,3,FALSE)=$B264,VLOOKUP($A264,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A264,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E264" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A264,$A264,$B$2:$B264,$B264,$L$2:$L264,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F264" s="11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G264" s="12">
         <v>1</v>
@@ -40187,7 +40201,7 @@
       </c>
       <c r="J264" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A264,Spiele!$A$2:$D$15,3,FALSE)=$B264,(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,$B264,$A$1:$A263,$A264))-(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)),(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,$B264,$A$1:$A263,$A264))-(COUNTIFS($L$1:$L263,"Tor",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264)+COUNTIFS($L$1:$L263,"ET",$B$1:$B263,"&lt;&gt;"&amp;$B264,$A$1:$A263,$A264))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K264" s="3">
         <v>9</v>
@@ -40196,53 +40210,64 @@
         <v>20</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O264" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="O264" s="17">
+        <v>4</v>
+      </c>
+      <c r="P264" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q264" s="2">
+        <v>26</v>
+      </c>
+      <c r="R264" s="2">
+        <v>11</v>
+      </c>
       <c r="AA264" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB264" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC264" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD264" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE264" s="18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AF264" s="13">
-        <v>-13.5</v>
+        <v>-13</v>
       </c>
       <c r="AG264" s="13">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AH264" s="19">
         <f t="shared" si="16"/>
-        <v>23.644779550674606</v>
+        <v>22.983376601361254</v>
       </c>
       <c r="AI264" s="19">
         <f t="shared" si="17"/>
-        <v>14.002393253988416</v>
+        <v>14.448463924398597</v>
       </c>
       <c r="AJ264" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK264" s="13">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="AL264" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM264" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF264-$AK264)^2+($AG264-$AL264)^2))</f>
-        <v>22.610838109190027</v>
+        <v>19.416487838947599</v>
       </c>
       <c r="AN264" s="3">
         <v>0</v>
@@ -40250,44 +40275,44 @@
       <c r="AO264" s="13"/>
       <c r="AP264" s="13"/>
       <c r="AQ264" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR264" s="3">
         <v>2</v>
       </c>
       <c r="AS264" s="13">
-        <v>-12</v>
+        <v>-12.5</v>
       </c>
       <c r="AT264" s="13">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AU264" s="19">
-        <f t="shared" si="19"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="15"/>
+        <v>1.1180339887498949</v>
       </c>
     </row>
     <row r="265" spans="1:47" ht="25.05" customHeight="1">
       <c r="A265" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C265" s="17" t="str">
         <f>IF($A265="","",IF(VLOOKUP($A265,Spiele!$A$2:$D$15,3,FALSE)=$B265,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D265" s="17" t="str">
         <f>IF($B265="","",IF(VLOOKUP($A265,Spiele!$A$2:$F$15,3,FALSE)=$B265,VLOOKUP($A265,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A265,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E265" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A265,$A265,$B$2:$B265,$B265,$L$2:$L265,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F265" s="11">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G265" s="12">
         <v>1</v>
@@ -40298,51 +40323,50 @@
       </c>
       <c r="I265" s="17" t="str">
         <f>IF(OR($L265="Tor",$L265="ET"),_xlfn.IFNA(IF(VLOOKUP($A265,Spiele!$A$2:$C$15,3,FALSE)=$B265,COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,$B265,$A$2:$A265,$A265)&amp;":"&amp;COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265),COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,"&lt;&gt;"&amp;$B265,$A$2:$A265,$A265)&amp;":"&amp;COUNTIFS($L$2:$L265,"Tor",$B$2:$B265,$B265,$A$2:$A265,$A265)+COUNTIFS($L$2:$L265,"ET",$B$2:$B265,$B265,$A$2:$A265,$A265)),""),"")</f>
-        <v/>
+        <v>1:1</v>
       </c>
       <c r="J265" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A265,Spiele!$A$2:$D$15,3,FALSE)=$B265,(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,$B265,$A$1:$A264,$A265))-(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)),(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,$B265,$A$1:$A264,$A265))-(COUNTIFS($L$1:$L264,"Tor",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265)+COUNTIFS($L$1:$L264,"ET",$B$1:$B264,"&lt;&gt;"&amp;$B265,$A$1:$A264,$A265))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K265" s="3">
         <v>10</v>
       </c>
       <c r="L265" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N265" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O265" s="17"/>
       <c r="AA265" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB265" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC265" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD265" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE265" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="AE265" s="18">
+        <v>20</v>
+      </c>
       <c r="AF265" s="13">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="AG265" s="13">
-        <v>25.5</v>
+        <v>0.5</v>
       </c>
       <c r="AH265" s="19">
         <f t="shared" si="16"/>
-        <v>25.5</v>
+        <v>28.844333932334091</v>
       </c>
       <c r="AI265" s="19">
         <f t="shared" si="17"/>
-        <v>16.335693207949546</v>
+        <v>0.20103614983173052</v>
       </c>
       <c r="AJ265" s="2" t="s">
         <v>146</v>
@@ -40355,38 +40379,34 @@
       </c>
       <c r="AM265" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF265-$AK265)^2+($AG265-$AL265)^2))</f>
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="AN265" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO265" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AP265" s="13">
-        <v>28</v>
-      </c>
-      <c r="AQ265" s="19">
-        <f t="shared" si="18"/>
-        <v>3.2015621187164243</v>
+        <v>0</v>
+      </c>
+      <c r="AO265" s="13"/>
+      <c r="AP265" s="13"/>
+      <c r="AQ265" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR265" s="3">
         <v>1</v>
       </c>
       <c r="AS265" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT265" s="13">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="AU265" s="19">
-        <f t="shared" si="19"/>
-        <v>8.5</v>
+        <f t="shared" si="15"/>
+        <v>28.5</v>
       </c>
     </row>
     <row r="266" spans="1:47" ht="25.05" customHeight="1">
       <c r="A266" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>8</v>
@@ -40397,14 +40417,14 @@
       </c>
       <c r="D266" s="17" t="str">
         <f>IF($B266="","",IF(VLOOKUP($A266,Spiele!$A$2:$F$15,3,FALSE)=$B266,VLOOKUP($A266,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A266,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E266" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A266,$A266,$B$2:$B266,$B266,$L$2:$L266,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F266" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G266" s="12">
         <v>1</v>
@@ -40415,7 +40435,7 @@
       </c>
       <c r="I266" s="17" t="str">
         <f>IF(OR($L266="Tor",$L266="ET"),_xlfn.IFNA(IF(VLOOKUP($A266,Spiele!$A$2:$C$15,3,FALSE)=$B266,COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,$B266,$A$2:$A266,$A266)&amp;":"&amp;COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266),COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,"&lt;&gt;"&amp;$B266,$A$2:$A266,$A266)&amp;":"&amp;COUNTIFS($L$2:$L266,"Tor",$B$2:$B266,$B266,$A$2:$A266,$A266)+COUNTIFS($L$2:$L266,"ET",$B$2:$B266,$B266,$A$2:$A266,$A266)),""),"")</f>
-        <v/>
+        <v>2:1</v>
       </c>
       <c r="J266" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A266,Spiele!$A$2:$D$15,3,FALSE)=$B266,(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,$B266,$A$1:$A265,$A266))-(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)),(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,$B266,$A$1:$A265,$A266))-(COUNTIFS($L$1:$L265,"Tor",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266)+COUNTIFS($L$1:$L265,"ET",$B$1:$B265,"&lt;&gt;"&amp;$B266,$A$1:$A265,$A266))),"")</f>
@@ -40425,107 +40445,118 @@
         <v>11</v>
       </c>
       <c r="L266" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N266" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O266" s="17">
         <v>8</v>
       </c>
       <c r="P266" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q266" s="2">
+        <v>20</v>
+      </c>
+      <c r="R266" s="2">
         <v>16</v>
       </c>
-      <c r="Q266" s="2">
+      <c r="S266" s="2">
+        <v>1</v>
+      </c>
+      <c r="T266" s="2">
+        <v>4</v>
+      </c>
+      <c r="U266" s="2">
         <v>26</v>
       </c>
+      <c r="V266" s="2">
+        <v>11</v>
+      </c>
       <c r="AA266" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB266" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC266" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD266" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE266" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF266" s="13">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG266" s="13">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH266" s="19">
         <f t="shared" si="16"/>
-        <v>17.59646555419582</v>
+        <v>11.151484206149421</v>
       </c>
       <c r="AI266" s="19">
         <f t="shared" si="17"/>
-        <v>21.626656434445117</v>
+        <v>22.594491639085902</v>
       </c>
       <c r="AJ266" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK266" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL266" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AM266" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF266-$AK266)^2+($AG266-$AL266)^2))</f>
-        <v>15.182226450688976</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AN266" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO266" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="AP266" s="13">
-        <v>18.5</v>
-      </c>
-      <c r="AQ266" s="19">
-        <f t="shared" si="18"/>
-        <v>1.4142135623730951</v>
+        <v>0</v>
+      </c>
+      <c r="AO266" s="13"/>
+      <c r="AP266" s="13"/>
+      <c r="AQ266" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR266" s="3">
         <v>0</v>
       </c>
       <c r="AU266" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:47" ht="25.05" customHeight="1">
       <c r="A267" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C267" s="17" t="str">
         <f>IF($A267="","",IF(VLOOKUP($A267,Spiele!$A$2:$D$15,3,FALSE)=$B267,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D267" s="17" t="str">
         <f>IF($B267="","",IF(VLOOKUP($A267,Spiele!$A$2:$F$15,3,FALSE)=$B267,VLOOKUP($A267,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A267,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E267" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A267,$A267,$B$2:$B267,$B267,$L$2:$L267,"&lt;&gt;ET"))</f>
         <v>8</v>
       </c>
       <c r="F267" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G267" s="12">
         <v>1</v>
@@ -40540,106 +40571,110 @@
       </c>
       <c r="J267" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A267,Spiele!$A$2:$D$15,3,FALSE)=$B267,(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,$B267,$A$1:$A266,$A267))-(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)),(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,$B267,$A$1:$A266,$A267))-(COUNTIFS($L$1:$L266,"Tor",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267)+COUNTIFS($L$1:$L266,"ET",$B$1:$B266,"&lt;&gt;"&amp;$B267,$A$1:$A266,$A267))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" s="3">
         <v>12</v>
       </c>
       <c r="L267" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M267" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="O267" s="17"/>
       <c r="AA267" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB267" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AC267" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD267" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE267" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE267" s="18">
+        <v>20</v>
+      </c>
       <c r="AF267" s="13">
-        <v>-1</v>
+        <v>-9.5</v>
       </c>
       <c r="AG267" s="13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AH267" s="19">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>21.796917213220773</v>
       </c>
       <c r="AI267" s="19">
         <f t="shared" si="17"/>
-        <v>43.839454439268671</v>
+        <v>16.533005071706455</v>
       </c>
       <c r="AJ267" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK267" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL267" s="13">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="AM267" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF267-$AK267)^2+($AG267-$AL267)^2))</f>
-        <v>8.5</v>
+        <v>17.219175357722563</v>
       </c>
       <c r="AN267" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO267" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP267" s="13">
-        <v>9</v>
-      </c>
-      <c r="AQ267" s="19">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AO267" s="13"/>
+      <c r="AP267" s="13"/>
+      <c r="AQ267" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR267" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU267" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS267" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AT267" s="13">
+        <v>18</v>
+      </c>
+      <c r="AU267" s="19">
+        <f t="shared" si="15"/>
+        <v>3.3541019662496847</v>
       </c>
     </row>
     <row r="268" spans="1:47" ht="25.05" customHeight="1">
       <c r="A268" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C268" s="17" t="str">
         <f>IF($A268="","",IF(VLOOKUP($A268,Spiele!$A$2:$D$15,3,FALSE)=$B268,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D268" s="17" t="str">
         <f>IF($B268="","",IF(VLOOKUP($A268,Spiele!$A$2:$F$15,3,FALSE)=$B268,VLOOKUP($A268,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A268,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E268" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A268,$A268,$B$2:$B268,$B268,$L$2:$L268,"&lt;&gt;ET"))</f>
         <v>9</v>
       </c>
       <c r="F268" s="11">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G268" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A268,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B268,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F268,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G268)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A268,'Rote Karten'!$D$2:$D$4,$B268,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F268,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G268)</f>
@@ -40651,91 +40686,101 @@
       </c>
       <c r="J268" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A268,Spiele!$A$2:$D$15,3,FALSE)=$B268,(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,$B268,$A$1:$A267,$A268))-(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)),(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,$B268,$A$1:$A267,$A268))-(COUNTIFS($L$1:$L267,"Tor",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268)+COUNTIFS($L$1:$L267,"ET",$B$1:$B267,"&lt;&gt;"&amp;$B268,$A$1:$A267,$A268))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" s="3">
         <v>13</v>
       </c>
       <c r="L268" s="17" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O268" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="O268" s="17">
+        <v>8</v>
+      </c>
+      <c r="P268" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q268" s="2">
+        <v>9</v>
+      </c>
+      <c r="R268" s="2">
+        <v>23</v>
+      </c>
+      <c r="S268" s="2">
+        <v>16</v>
+      </c>
       <c r="AA268" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB268" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC268" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD268" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE268" s="18"/>
+      <c r="AE268" s="18">
+        <v>7</v>
+      </c>
       <c r="AF268" s="13">
-        <v>-6</v>
+        <v>-9.5</v>
       </c>
       <c r="AG268" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AH268" s="19">
         <f t="shared" si="16"/>
-        <v>2.5447200238926087</v>
+        <v>17.03248660648233</v>
       </c>
       <c r="AI268" s="19">
         <f t="shared" si="17"/>
-        <v>17.229273479884245</v>
+        <v>19.385214594561774</v>
       </c>
       <c r="AJ268" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK268" s="13">
-        <v>-4</v>
+        <v>-7.5</v>
       </c>
       <c r="AL268" s="13">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM268" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF268-$AK268)^2+($AG268-$AL268)^2))</f>
-        <v>2.0615528128088303</v>
+        <v>4.0311288741492746</v>
       </c>
       <c r="AN268" s="3">
         <v>1</v>
       </c>
       <c r="AO268" s="13">
-        <v>-5</v>
+        <v>-6.5</v>
       </c>
       <c r="AP268" s="13">
-        <v>1</v>
+        <v>18.5</v>
       </c>
       <c r="AQ268" s="19">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>3.905124837953327</v>
       </c>
       <c r="AR268" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS268" s="13">
-        <v>-3.5</v>
-      </c>
-      <c r="AT268" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AU268" s="19">
-        <f t="shared" si="19"/>
-        <v>2.5495097567963922</v>
+        <v>0</v>
+      </c>
+      <c r="AU268" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="269" spans="1:47" ht="25.05" customHeight="1">
       <c r="A269" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>8</v>
@@ -40746,17 +40791,17 @@
       </c>
       <c r="D269" s="17" t="str">
         <f>IF($B269="","",IF(VLOOKUP($A269,Spiele!$A$2:$F$15,3,FALSE)=$B269,VLOOKUP($A269,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A269,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E269" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A269,$A269,$B$2:$B269,$B269,$L$2:$L269,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F269" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G269" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A269,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B269,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F269,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G269)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A269,'Rote Karten'!$D$2:$D$4,$B269,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F269,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G269)</f>
@@ -40768,7 +40813,7 @@
       </c>
       <c r="J269" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A269,Spiele!$A$2:$D$15,3,FALSE)=$B269,(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,$B269,$A$1:$A268,$A269))-(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)),(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,$B269,$A$1:$A268,$A269))-(COUNTIFS($L$1:$L268,"Tor",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269)+COUNTIFS($L$1:$L268,"ET",$B$1:$B268,"&lt;&gt;"&amp;$B269,$A$1:$A268,$A269))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" s="3">
         <v>14</v>
@@ -40780,77 +40825,80 @@
         <v>163</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="O269" s="17">
+        <v>13</v>
+      </c>
+      <c r="P269" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA269" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB269" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC269" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD269" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE269" s="18">
         <v>7</v>
       </c>
-      <c r="AA269" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB269" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC269" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD269" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE269" s="18">
-        <v>9</v>
-      </c>
       <c r="AF269" s="13">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="AG269" s="13">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="AH269" s="19">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>23.406956231001072</v>
       </c>
       <c r="AI269" s="19">
         <f t="shared" si="17"/>
-        <v>42.615768593997174</v>
+        <v>11.718542136556508</v>
       </c>
       <c r="AJ269" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK269" s="13">
-        <v>-2</v>
+        <v>-4.5</v>
       </c>
       <c r="AL269" s="13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM269" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF269-$AK269)^2+($AG269-$AL269)^2))</f>
-        <v>6.5</v>
+        <v>20.180436070610565</v>
       </c>
       <c r="AN269" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO269" s="13">
-        <v>-0.5</v>
+        <v>-19</v>
       </c>
       <c r="AP269" s="13">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AQ269" s="19">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="AR269" s="3">
         <v>0</v>
       </c>
       <c r="AU269" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:47" ht="25.05" customHeight="1">
       <c r="A270" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>8</v>
@@ -40861,17 +40909,17 @@
       </c>
       <c r="D270" s="17" t="str">
         <f>IF($B270="","",IF(VLOOKUP($A270,Spiele!$A$2:$F$15,3,FALSE)=$B270,VLOOKUP($A270,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A270,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E270" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A270,$A270,$B$2:$B270,$B270,$L$2:$L270,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F270" s="11">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G270" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A270,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B270,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F270,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G270)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A270,'Rote Karten'!$D$2:$D$4,$B270,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F270,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G270)</f>
@@ -40879,109 +40927,122 @@
       </c>
       <c r="I270" s="17" t="str">
         <f>IF(OR($L270="Tor",$L270="ET"),_xlfn.IFNA(IF(VLOOKUP($A270,Spiele!$A$2:$C$15,3,FALSE)=$B270,COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,$B270,$A$2:$A270,$A270)&amp;":"&amp;COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270),COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,"&lt;&gt;"&amp;$B270,$A$2:$A270,$A270)&amp;":"&amp;COUNTIFS($L$2:$L270,"Tor",$B$2:$B270,$B270,$A$2:$A270,$A270)+COUNTIFS($L$2:$L270,"ET",$B$2:$B270,$B270,$A$2:$A270,$A270)),""),"")</f>
-        <v>1:0</v>
+        <v/>
       </c>
       <c r="J270" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A270,Spiele!$A$2:$D$15,3,FALSE)=$B270,(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,$B270,$A$1:$A269,$A270))-(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)),(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,$B270,$A$1:$A269,$A270))-(COUNTIFS($L$1:$L269,"Tor",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270)+COUNTIFS($L$1:$L269,"ET",$B$1:$B269,"&lt;&gt;"&amp;$B270,$A$1:$A269,$A270))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L270" s="17" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M270" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O270" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="O270" s="17">
+        <v>13</v>
+      </c>
+      <c r="P270" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q270" s="2">
+        <v>11</v>
+      </c>
+      <c r="R270" s="2">
+        <v>13</v>
+      </c>
+      <c r="S270" s="2">
+        <v>1</v>
+      </c>
+      <c r="T270" s="2">
+        <v>20</v>
+      </c>
       <c r="AA270" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AB270" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC270" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD270" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE270" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF270" s="13">
-        <v>-6.5</v>
+        <v>-6</v>
       </c>
       <c r="AG270" s="13">
         <v>5</v>
       </c>
       <c r="AH270" s="19">
         <f t="shared" si="16"/>
-        <v>5.7502695588989567</v>
+        <v>5.5204709943989378</v>
       </c>
       <c r="AI270" s="19">
         <f t="shared" si="17"/>
-        <v>34.200427604672875</v>
+        <v>37.554396904991115</v>
       </c>
       <c r="AJ270" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK270" s="13">
-        <v>0.5</v>
+        <v>-4.5</v>
       </c>
       <c r="AL270" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM270" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF270-$AK270)^2+($AG270-$AL270)^2))</f>
-        <v>7.6157731058639087</v>
+        <v>4.2720018726587652</v>
       </c>
       <c r="AN270" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO270" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AP270" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="AQ270" s="19">
-        <f t="shared" si="18"/>
-        <v>2.5495097567963922</v>
+        <v>0</v>
+      </c>
+      <c r="AO270" s="13"/>
+      <c r="AP270" s="13"/>
+      <c r="AQ270" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR270" s="3">
         <v>0</v>
       </c>
       <c r="AU270" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:47" ht="25.05" customHeight="1">
       <c r="A271" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C271" s="17" t="str">
         <f>IF($A271="","",IF(VLOOKUP($A271,Spiele!$A$2:$D$15,3,FALSE)=$B271,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D271" s="17" t="str">
         <f>IF($B271="","",IF(VLOOKUP($A271,Spiele!$A$2:$F$15,3,FALSE)=$B271,VLOOKUP($A271,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A271,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E271" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A271,$A271,$B$2:$B271,$B271,$L$2:$L271,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F271" s="11">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G271" s="12">
         <v>2</v>
@@ -40996,57 +41057,67 @@
       </c>
       <c r="J271" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A271,Spiele!$A$2:$D$15,3,FALSE)=$B271,(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,$B271,$A$1:$A270,$A271))-(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)),(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,$B271,$A$1:$A270,$A271))-(COUNTIFS($L$1:$L270,"Tor",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271)+COUNTIFS($L$1:$L270,"ET",$B$1:$B270,"&lt;&gt;"&amp;$B271,$A$1:$A270,$A271))),"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K271" s="3">
-        <v>15</v>
-      </c>
-      <c r="L271" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M271" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O271" s="17"/>
-      <c r="AA271" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB271" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L271" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O271" s="17">
+        <v>6</v>
+      </c>
+      <c r="P271" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA271" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB271" s="18" t="s">
         <v>143</v>
       </c>
       <c r="AC271" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD271" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE271" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE271" s="18">
+        <v>7</v>
+      </c>
       <c r="AF271" s="13">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="AG271" s="13">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AH271" s="19">
         <f t="shared" si="16"/>
-        <v>34</v>
+        <v>17.004869890710719</v>
       </c>
       <c r="AI271" s="19">
         <f t="shared" si="17"/>
-        <v>12.194976603981754</v>
-      </c>
-      <c r="AJ271" s="2" t="s">
+        <v>15.154838591136828</v>
+      </c>
+      <c r="AJ271" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK271" s="13">
-        <v>0.5</v>
+        <v>-4</v>
       </c>
       <c r="AL271" s="13">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AM271" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF271-$AK271)^2+($AG271-$AL271)^2))</f>
-        <v>33.68233958619858</v>
+        <v>14.866068747318506</v>
       </c>
       <c r="AN271" s="3">
         <v>0</v>
@@ -41054,26 +41125,26 @@
       <c r="AO271" s="13"/>
       <c r="AP271" s="13"/>
       <c r="AQ271" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(AN271=0,"",SQRT(($AF271-$AO271)^2+($AG271-$AP271)^2))</f>
         <v/>
       </c>
       <c r="AR271" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS271" s="13">
-        <v>-3.5</v>
+        <v>-13</v>
       </c>
       <c r="AT271" s="13">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AU271" s="19">
-        <f t="shared" si="19"/>
-        <v>7.0178344238090995</v>
+        <f>IF(AR271=0,"",SQRT(($AF271-$AS271)^2+($AG271-$AT271)^2))</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="272" spans="1:47" ht="25.05" customHeight="1">
       <c r="A272" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>8</v>
@@ -41084,14 +41155,14 @@
       </c>
       <c r="D272" s="17" t="str">
         <f>IF($B272="","",IF(VLOOKUP($A272,Spiele!$A$2:$F$15,3,FALSE)=$B272,VLOOKUP($A272,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A272,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E272" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A272,$A272,$B$2:$B272,$B272,$L$2:$L272,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F272" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G272" s="12">
         <v>2</v>
@@ -41109,101 +41180,98 @@
         <v>1</v>
       </c>
       <c r="K272" s="3">
-        <v>16</v>
-      </c>
-      <c r="L272" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M272" s="3" t="s">
-        <v>163</v>
+        <v>17</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M272" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O272" s="17">
+        <v>7</v>
+      </c>
+      <c r="P272" s="2">
         <v>8</v>
       </c>
-      <c r="P272" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q272" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA272" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB272" s="18" t="s">
-        <v>143</v>
+      <c r="AA272" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB272" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="AC272" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD272" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE272" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF272" s="13">
-        <v>-10.5</v>
+        <v>-3</v>
       </c>
       <c r="AG272" s="13">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH272" s="19">
         <f t="shared" si="16"/>
-        <v>14.689642609675703</v>
+        <v>15.5</v>
       </c>
       <c r="AI272" s="19">
         <f t="shared" si="17"/>
-        <v>19.694334659050181</v>
-      </c>
-      <c r="AJ272" s="3" t="s">
+        <v>25.690322994798194</v>
+      </c>
+      <c r="AJ272" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK272" s="13">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="AL272" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AM272" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF272-$AK272)^2+($AG272-$AL272)^2))</f>
-        <v>12.619429464123963</v>
+        <v>12.5</v>
       </c>
       <c r="AN272" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO272" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AP272" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AQ272" s="19">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR272" s="3">
         <v>2</v>
       </c>
-      <c r="AO272" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AP272" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="AQ272" s="19">
-        <f t="shared" si="18"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AR272" s="3">
-        <v>1</v>
-      </c>
       <c r="AS272" s="13">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="AT272" s="13">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AU272" s="19">
-        <f t="shared" si="19"/>
-        <v>9.3005376188691375</v>
+        <f t="shared" si="15"/>
+        <v>11.76860229593982</v>
       </c>
     </row>
     <row r="273" spans="1:47" ht="25.05" customHeight="1">
       <c r="A273" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C273" s="17" t="str">
         <f>IF($A273="","",IF(VLOOKUP($A273,Spiele!$A$2:$D$15,3,FALSE)=$B273,"H","G"))</f>
@@ -41215,10 +41283,10 @@
       </c>
       <c r="E273" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A273,$A273,$B$2:$B273,$B273,$L$2:$L273,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F273" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G273" s="12">
         <v>2</v>
@@ -41236,100 +41304,96 @@
         <v>-1</v>
       </c>
       <c r="K273" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L273" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M273" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O273" s="17"/>
       <c r="AA273" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB273" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC273" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD273" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE273" s="18"/>
       <c r="AF273" s="13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="AG273" s="13">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AH273" s="19">
         <f t="shared" si="16"/>
-        <v>11.216309553502882</v>
+        <v>11.336472114374914</v>
       </c>
       <c r="AI273" s="19">
         <f t="shared" si="17"/>
-        <v>16.373402664953399</v>
+        <v>23.592948898857642</v>
       </c>
       <c r="AJ273" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK273" s="13">
-        <v>3.5</v>
+        <v>-6</v>
       </c>
       <c r="AL273" s="13">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM273" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF273-$AK273)^2+($AG273-$AL273)^2))</f>
-        <v>11.01135777277262</v>
+        <v>4.6097722286464435</v>
       </c>
       <c r="AN273" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO273" s="13">
-        <v>9</v>
-      </c>
-      <c r="AP273" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="AQ273" s="19">
-        <f t="shared" si="18"/>
-        <v>3.1622776601683795</v>
+        <v>0</v>
+      </c>
+      <c r="AO273" s="13"/>
+      <c r="AP273" s="13"/>
+      <c r="AQ273" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR273" s="3">
         <v>0</v>
       </c>
       <c r="AU273" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:47" ht="25.05" customHeight="1">
       <c r="A274" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C274" s="17" t="str">
         <f>IF($A274="","",IF(VLOOKUP($A274,Spiele!$A$2:$D$15,3,FALSE)=$B274,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D274" s="17" t="str">
         <f>IF($B274="","",IF(VLOOKUP($A274,Spiele!$A$2:$F$15,3,FALSE)=$B274,VLOOKUP($A274,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A274,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E274" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A274,$A274,$B$2:$B274,$B274,$L$2:$L274,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F274" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G274" s="12">
         <v>2</v>
@@ -41344,43 +41408,26 @@
       </c>
       <c r="J274" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A274,Spiele!$A$2:$D$15,3,FALSE)=$B274,(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,$B274,$A$1:$A273,$A274))-(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)),(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,$B274,$A$1:$A273,$A274))-(COUNTIFS($L$1:$L273,"Tor",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274)+COUNTIFS($L$1:$L273,"ET",$B$1:$B273,"&lt;&gt;"&amp;$B274,$A$1:$A273,$A274))),"")</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K274" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L274" s="17" t="s">
         <v>18</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O274" s="17">
-        <v>4</v>
-      </c>
-      <c r="P274" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q274" s="2">
-        <v>6</v>
-      </c>
-      <c r="R274" s="2">
-        <v>8</v>
-      </c>
-      <c r="S274" s="2">
-        <v>20</v>
-      </c>
-      <c r="T274" s="2">
-        <v>4</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O274" s="17"/>
       <c r="AA274" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB274" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC274" s="14" t="s">
         <v>150</v>
@@ -41388,66 +41435,64 @@
       <c r="AD274" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE274" s="18">
-        <v>18</v>
-      </c>
+      <c r="AE274" s="18"/>
       <c r="AF274" s="13">
-        <v>-14</v>
+        <v>20.5</v>
       </c>
       <c r="AG274" s="13">
-        <v>19.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH274" s="19">
         <f t="shared" si="16"/>
-        <v>22.071828197954062</v>
+        <v>17.715405724961538</v>
       </c>
       <c r="AI274" s="19">
         <f t="shared" si="17"/>
-        <v>14.230221882728383</v>
+        <v>5.2624453383756933</v>
       </c>
       <c r="AJ274" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK274" s="13">
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="AL274" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM274" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF274-$AK274)^2+($AG274-$AL274)^2))</f>
-        <v>21.100947846009191</v>
+        <v>17.720045146669349</v>
       </c>
       <c r="AN274" s="3">
         <v>1</v>
       </c>
       <c r="AO274" s="13">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="AP274" s="13">
-        <v>18</v>
+        <v>2.5</v>
       </c>
       <c r="AQ274" s="19">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="14"/>
+        <v>3.3541019662496847</v>
       </c>
       <c r="AR274" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS274" s="13">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="AT274" s="13">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="AU274" s="19">
-        <f t="shared" si="19"/>
-        <v>5.8309518948453007</v>
+        <f t="shared" si="15"/>
+        <v>14.508618128546908</v>
       </c>
     </row>
     <row r="275" spans="1:47" ht="25.05" customHeight="1">
       <c r="A275" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>8</v>
@@ -41458,14 +41503,14 @@
       </c>
       <c r="D275" s="17" t="str">
         <f>IF($B275="","",IF(VLOOKUP($A275,Spiele!$A$2:$F$15,3,FALSE)=$B275,VLOOKUP($A275,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A275,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>SVA</v>
       </c>
       <c r="E275" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A275,$A275,$B$2:$B275,$B275,$L$2:$L275,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F275" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G275" s="12">
         <v>2</v>
@@ -41483,56 +41528,70 @@
         <v>1</v>
       </c>
       <c r="K275" s="3">
+        <v>20</v>
+      </c>
+      <c r="L275" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L275" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="M275" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O275" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="N275" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O275" s="17">
+        <v>9</v>
+      </c>
+      <c r="P275" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q275" s="2">
+        <v>8</v>
+      </c>
+      <c r="R275" s="2">
+        <v>9</v>
+      </c>
       <c r="AA275" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB275" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC275" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD275" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AE275" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF275" s="13">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="AG275" s="13">
-        <v>23.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH275" s="19">
         <f t="shared" si="16"/>
-        <v>25.674220533445606</v>
+        <v>8.8162123386406712</v>
       </c>
       <c r="AI275" s="19">
         <f t="shared" si="17"/>
-        <v>13.174977970680043</v>
+        <v>33.262980067405501</v>
       </c>
       <c r="AJ275" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AK275" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AL275" s="13">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="AM275" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF275-$AK275)^2+($AG275-$AL275)^2))</f>
-        <v>25.238858928247925</v>
+        <v>1.8027756377319946</v>
       </c>
       <c r="AN275" s="3">
         <v>0</v>
@@ -41540,44 +41599,38 @@
       <c r="AO275" s="13"/>
       <c r="AP275" s="13"/>
       <c r="AQ275" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AR275" s="3">
-        <v>3</v>
-      </c>
-      <c r="AS275" s="13">
-        <v>9</v>
-      </c>
-      <c r="AT275" s="13">
-        <v>16</v>
-      </c>
-      <c r="AU275" s="19">
-        <f t="shared" si="19"/>
-        <v>9.013878188659973</v>
+        <v>0</v>
+      </c>
+      <c r="AU275" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="276" spans="1:47" ht="25.05" customHeight="1">
       <c r="A276" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C276" s="17" t="str">
         <f>IF($A276="","",IF(VLOOKUP($A276,Spiele!$A$2:$D$15,3,FALSE)=$B276,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D276" s="17" t="str">
         <f>IF($B276="","",IF(VLOOKUP($A276,Spiele!$A$2:$F$15,3,FALSE)=$B276,VLOOKUP($A276,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A276,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>SVA</v>
       </c>
       <c r="E276" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A276,$A276,$B$2:$B276,$B276,$L$2:$L276,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F276" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G276" s="12">
         <v>2</v>
@@ -41588,92 +41641,102 @@
       </c>
       <c r="I276" s="17" t="str">
         <f>IF(OR($L276="Tor",$L276="ET"),_xlfn.IFNA(IF(VLOOKUP($A276,Spiele!$A$2:$C$15,3,FALSE)=$B276,COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,$B276,$A$2:$A276,$A276)&amp;":"&amp;COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276),COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,"&lt;&gt;"&amp;$B276,$A$2:$A276,$A276)&amp;":"&amp;COUNTIFS($L$2:$L276,"Tor",$B$2:$B276,$B276,$A$2:$A276,$A276)+COUNTIFS($L$2:$L276,"ET",$B$2:$B276,$B276,$A$2:$A276,$A276)),""),"")</f>
-        <v>1:1</v>
+        <v/>
       </c>
       <c r="J276" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A276,Spiele!$A$2:$D$15,3,FALSE)=$B276,(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,$B276,$A$1:$A275,$A276))-(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)),(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,$B276,$A$1:$A275,$A276))-(COUNTIFS($L$1:$L275,"Tor",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276)+COUNTIFS($L$1:$L275,"ET",$B$1:$B275,"&lt;&gt;"&amp;$B276,$A$1:$A275,$A276))),"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K276" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L276" s="17" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M276" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O276" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="O276" s="17">
+        <v>26</v>
+      </c>
       <c r="AA276" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB276" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC276" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD276" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE276" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE276" s="18">
+        <v>7</v>
+      </c>
       <c r="AF276" s="13">
-        <v>-8.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG276" s="13">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AH276" s="19">
         <f t="shared" si="16"/>
-        <v>8.5103231431009725</v>
+        <v>14.5</v>
       </c>
       <c r="AI276" s="19">
         <f t="shared" si="17"/>
-        <v>25.411688271902904</v>
+        <v>26.9120458740069</v>
       </c>
       <c r="AJ276" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK276" s="13">
-        <v>-3</v>
+        <v>2.5</v>
       </c>
       <c r="AL276" s="13">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM276" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF276-$AK276)^2+($AG276-$AL276)^2))</f>
-        <v>8.5146931829632013</v>
+        <v>7.0710678118654755</v>
       </c>
       <c r="AN276" s="3">
         <v>1</v>
       </c>
       <c r="AO276" s="13">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="AP276" s="13">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="AQ276" s="19">
-        <f t="shared" si="18"/>
-        <v>3.5355339059327378</v>
+        <f t="shared" si="14"/>
+        <v>3.3541019662496847</v>
       </c>
       <c r="AR276" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU276" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS276" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AT276" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU276" s="19">
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:47" ht="25.05" customHeight="1">
       <c r="A277" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C277" s="17" t="str">
         <f>IF($A277="","",IF(VLOOKUP($A277,Spiele!$A$2:$D$15,3,FALSE)=$B277,"H","G"))</f>
@@ -41685,10 +41748,10 @@
       </c>
       <c r="E277" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A277,$A277,$B$2:$B277,$B277,$L$2:$L277,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F277" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G277" s="12">
         <v>2</v>
@@ -41699,110 +41762,97 @@
       </c>
       <c r="I277" s="17" t="str">
         <f>IF(OR($L277="Tor",$L277="ET"),_xlfn.IFNA(IF(VLOOKUP($A277,Spiele!$A$2:$C$15,3,FALSE)=$B277,COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,$B277,$A$2:$A277,$A277)&amp;":"&amp;COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277),COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,"&lt;&gt;"&amp;$B277,$A$2:$A277,$A277)&amp;":"&amp;COUNTIFS($L$2:$L277,"Tor",$B$2:$B277,$B277,$A$2:$A277,$A277)+COUNTIFS($L$2:$L277,"ET",$B$2:$B277,$B277,$A$2:$A277,$A277)),""),"")</f>
-        <v/>
+        <v>2:2</v>
       </c>
       <c r="J277" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A277,Spiele!$A$2:$D$15,3,FALSE)=$B277,(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,$B277,$A$1:$A276,$A277))-(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)),(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,$B277,$A$1:$A276,$A277))-(COUNTIFS($L$1:$L276,"Tor",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277)+COUNTIFS($L$1:$L276,"ET",$B$1:$B276,"&lt;&gt;"&amp;$B277,$A$1:$A276,$A277))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K277" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L277" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N277" s="2" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="O277" s="17"/>
       <c r="AA277" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AB277" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC277" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD277" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE277" s="18"/>
       <c r="AF277" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AG277" s="13">
         <v>11</v>
       </c>
       <c r="AH277" s="19">
         <f t="shared" si="16"/>
-        <v>11.032026105842935</v>
+        <v>11</v>
       </c>
       <c r="AI277" s="19">
         <f t="shared" si="17"/>
-        <v>32.201857009576806</v>
+        <v>36.807381798785883</v>
       </c>
       <c r="AJ277" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK277" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL277" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM277" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF277-$AK277)^2+($AG277-$AL277)^2))</f>
-        <v>11.067971810589327</v>
+        <v>11</v>
       </c>
       <c r="AN277" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO277" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="AP277" s="13">
-        <v>9</v>
-      </c>
-      <c r="AQ277" s="19">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AO277" s="13"/>
+      <c r="AP277" s="13"/>
+      <c r="AQ277" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AR277" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS277" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT277" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="AU277" s="19">
-        <f t="shared" si="19"/>
-        <v>5.5226805085936306</v>
+        <v>0</v>
+      </c>
+      <c r="AU277" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
     <row r="278" spans="1:47" ht="25.05" customHeight="1">
       <c r="A278" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C278" s="17" t="str">
         <f>IF($A278="","",IF(VLOOKUP($A278,Spiele!$A$2:$D$15,3,FALSE)=$B278,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D278" s="17" t="str">
         <f>IF($B278="","",IF(VLOOKUP($A278,Spiele!$A$2:$F$15,3,FALSE)=$B278,VLOOKUP($A278,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A278,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E278" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A278,$A278,$B$2:$B278,$B278,$L$2:$L278,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F278" s="11">
         <v>68</v>
@@ -41823,96 +41873,77 @@
         <v>0</v>
       </c>
       <c r="K278" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L278" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O278" s="17">
-        <v>8</v>
-      </c>
-      <c r="P278" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q278" s="2">
-        <v>8</v>
-      </c>
-      <c r="R278" s="2">
+        <v>158</v>
+      </c>
+      <c r="O278" s="17"/>
+      <c r="AA278" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB278" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC278" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD278" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE278" s="18"/>
+      <c r="AF278" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG278" s="13">
         <v>6</v>
-      </c>
-      <c r="AA278" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB278" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC278" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD278" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE278" s="18">
-        <v>16</v>
-      </c>
-      <c r="AF278" s="13">
-        <v>-5.5</v>
-      </c>
-      <c r="AG278" s="13">
-        <v>4</v>
       </c>
       <c r="AH278" s="19">
         <f t="shared" si="16"/>
-        <v>4.4029081298614443</v>
+        <v>12.829481673084068</v>
       </c>
       <c r="AI278" s="19">
         <f t="shared" si="17"/>
-        <v>41.707579601485392</v>
+        <v>10.05848836503178</v>
       </c>
       <c r="AJ278" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK278" s="13">
-        <v>-4</v>
+        <v>3.5</v>
       </c>
       <c r="AL278" s="13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AM278" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF278-$AK278)^2+($AG278-$AL278)^2))</f>
-        <v>1.8027756377319946</v>
+        <v>12.747548783981962</v>
       </c>
       <c r="AN278" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO278" s="13">
-        <v>-5.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP278" s="13">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AQ278" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AQ278" si="18">IF(AN278=0,"",SQRT(($AF278-$AO278)^2+($AG278-$AP278)^2))</f>
         <v>0.5</v>
       </c>
       <c r="AR278" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS278" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AT278" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AU278" s="19">
-        <f t="shared" si="19"/>
-        <v>6.5</v>
+        <v>0</v>
+      </c>
+      <c r="AU278" s="19" t="str">
+        <f t="shared" ref="AU278" si="19">IF(AR278=0,"",SQRT(($AF278-$AS278)^2+($AG278-$AT278)^2))</f>
+        <v/>
       </c>
     </row>
     <row r="279" spans="1:47" ht="25.05" customHeight="1">
@@ -41920,25 +41951,25 @@
         <v>13</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C279" s="17" t="str">
         <f>IF($A279="","",IF(VLOOKUP($A279,Spiele!$A$2:$D$15,3,FALSE)=$B279,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D279" s="17" t="str">
         <f>IF($B279="","",IF(VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)=$B279,VLOOKUP($A279,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E279" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A279,$A279,$B$2:$B279,$B279,$L$2:$L279,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F279" s="11">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="G279" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A279,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B279,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F279,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G279)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A279,'Rote Karten'!$D$2:$D$4,$B279,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F279,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G279)</f>
@@ -41953,44 +41984,18 @@
         <v>0</v>
       </c>
       <c r="K279" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L279" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N279" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O279" s="17">
-        <v>7</v>
-      </c>
-      <c r="P279" s="2">
-        <v>18</v>
-      </c>
-      <c r="Q279" s="2">
-        <v>8</v>
-      </c>
-      <c r="R279" s="2">
-        <v>7</v>
-      </c>
-      <c r="S279" s="2">
-        <v>23</v>
-      </c>
-      <c r="T279" s="2">
-        <v>6</v>
-      </c>
-      <c r="U279" s="2">
-        <v>5</v>
-      </c>
-      <c r="V279" s="2">
-        <v>16</v>
-      </c>
-      <c r="W279" s="2">
-        <v>20</v>
-      </c>
+      <c r="O279" s="17"/>
       <c r="AA279" s="2" t="s">
         <v>142</v>
       </c>
@@ -42003,57 +42008,59 @@
       <c r="AD279" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE279" s="18">
-        <v>10</v>
-      </c>
+      <c r="AE279" s="18"/>
       <c r="AF279" s="13">
-        <v>2.5</v>
+        <v>-2</v>
       </c>
       <c r="AG279" s="13">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH279" s="19">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" ref="AH279:AH307" si="20">IF($L279="ET","",IF($AF279&gt;3.66,SQRT($AG279^2+($AF279-(7.32/2))^2),IF($AF279&lt;-3.66,SQRT($AG279^2+($AF279+(7.32/2))^2),$AG279)))</f>
+        <v>17.5</v>
       </c>
       <c r="AI279" s="19">
-        <f t="shared" si="17"/>
-        <v>26.748394088035369</v>
+        <f t="shared" ref="AI279:AI307" si="21">IF($L279="ET","",IF(DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2)))))</f>
+        <v>23.341389828691302</v>
       </c>
       <c r="AJ279" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK279" s="13">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AL279" s="13">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM279" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF279-$AK279)^2+($AG279-$AL279)^2))</f>
-        <v>11.76860229593982</v>
+        <v>17.066048165876012</v>
       </c>
       <c r="AN279" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO279" s="13"/>
-      <c r="AP279" s="13"/>
-      <c r="AQ279" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO279" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AP279" s="13">
+        <v>17</v>
+      </c>
+      <c r="AQ279" s="19">
+        <f t="shared" ref="AQ279:AQ307" si="22">IF(AN279=0,"",SQRT(($AF279-$AO279)^2+($AG279-$AP279)^2))</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR279" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS279" s="13">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="AT279" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU279" s="19">
-        <f t="shared" si="19"/>
-        <v>4.1231056256176606</v>
+        <f t="shared" ref="AU279:AU307" si="23">IF(AR279=0,"",SQRT(($AF279-$AS279)^2+($AG279-$AT279)^2))</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="280" spans="1:47" ht="25.05" customHeight="1">
@@ -42061,25 +42068,25 @@
         <v>13</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C280" s="17" t="str">
         <f>IF($A280="","",IF(VLOOKUP($A280,Spiele!$A$2:$D$15,3,FALSE)=$B280,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D280" s="17" t="str">
         <f>IF($B280="","",IF(VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)=$B280,VLOOKUP($A280,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E280" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A280,$A280,$B$2:$B280,$B280,$L$2:$L280,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F280" s="11">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G280" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A280,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B280,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F280,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G280)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A280,'Rote Karten'!$D$2:$D$4,$B280,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F280,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G280)</f>
@@ -42094,7 +42101,7 @@
         <v>0</v>
       </c>
       <c r="K280" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L280" s="17" t="s">
         <v>19</v>
@@ -42103,78 +42110,70 @@
         <v>163</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O280" s="17">
-        <v>18</v>
-      </c>
-      <c r="P280" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q280" s="2">
-        <v>18</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="O280" s="17"/>
       <c r="AA280" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB280" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC280" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD280" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE280" s="18">
-        <v>7</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AE280" s="18"/>
       <c r="AF280" s="13">
-        <v>-13.5</v>
+        <v>-12</v>
       </c>
       <c r="AG280" s="13">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH280" s="19">
-        <f t="shared" si="16"/>
-        <v>19.211340400919454</v>
+        <f t="shared" si="20"/>
+        <v>17.601295406872758</v>
       </c>
       <c r="AI280" s="19">
-        <f t="shared" si="17"/>
-        <v>15.312989252529659</v>
+        <f t="shared" si="21"/>
+        <v>17.011080950867086</v>
       </c>
       <c r="AJ280" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK280" s="13">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
       <c r="AL280" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM280" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF280-$AK280)^2+($AG280-$AL280)^2))</f>
         <v>17.613914953808536</v>
       </c>
       <c r="AN280" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO280" s="13"/>
+      <c r="AP280" s="13"/>
+      <c r="AQ280" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR280" s="3">
         <v>2</v>
       </c>
-      <c r="AO280" s="13">
-        <v>-12.5</v>
-      </c>
-      <c r="AP280" s="13">
-        <v>17.5</v>
-      </c>
-      <c r="AQ280" s="19">
-        <f t="shared" si="18"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AR280" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU280" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="AS280" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AT280" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU280" s="19">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="281" spans="1:47" ht="25.05" customHeight="1">
@@ -42194,13 +42193,13 @@
       </c>
       <c r="E281" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A281,$A281,$B$2:$B281,$B281,$L$2:$L281,"&lt;&gt;ET"))</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F281" s="11">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="G281" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A281,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B281,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F281,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G281)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A281,'Rote Karten'!$D$2:$D$4,$B281,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F281,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G281)</f>
@@ -42215,19 +42214,19 @@
         <v>0</v>
       </c>
       <c r="K281" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L281" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M281" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O281" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA281" s="2" t="s">
         <v>151</v>
@@ -42242,60 +42241,56 @@
         <v>156</v>
       </c>
       <c r="AE281" s="18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF281" s="13">
-        <v>14.5</v>
+        <v>-3.5</v>
       </c>
       <c r="AG281" s="13">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH281" s="19">
-        <f t="shared" si="16"/>
-        <v>17.7060893480181</v>
+        <f t="shared" si="20"/>
+        <v>11.5</v>
       </c>
       <c r="AI281" s="19">
-        <f t="shared" si="17"/>
-        <v>14.620361026676797</v>
+        <f t="shared" si="21"/>
+        <v>32.703859314557576</v>
       </c>
       <c r="AJ281" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK281" s="13">
-        <v>2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AL281" s="13">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM281" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF281-$AK281)^2+($AG281-$AL281)^2))</f>
-        <v>17.327723451163457</v>
+        <v>8.2462112512353212</v>
       </c>
       <c r="AN281" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO281" s="13">
-        <v>14</v>
-      </c>
-      <c r="AP281" s="13">
-        <v>14</v>
-      </c>
-      <c r="AQ281" s="19">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="AO281" s="13"/>
+      <c r="AP281" s="13"/>
+      <c r="AQ281" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="AR281" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS281" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT281" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU281" s="19">
+        <f t="shared" si="23"/>
         <v>2</v>
-      </c>
-      <c r="AS281" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="AT281" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU281" s="19">
-        <f t="shared" si="19"/>
-        <v>8.4852813742385695</v>
       </c>
     </row>
     <row r="282" spans="1:47" ht="25.05" customHeight="1">
@@ -42315,13 +42310,13 @@
       </c>
       <c r="E282" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A282,$A282,$B$2:$B282,$B282,$L$2:$L282,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F282" s="11">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="G282" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A282,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B282,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F282,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G282)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A282,'Rote Karten'!$D$2:$D$4,$B282,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F282,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G282)</f>
@@ -42336,7 +42331,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="L282" s="17" t="s">
         <v>18</v>
@@ -42345,102 +42340,3072 @@
         <v>147</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O282" s="17"/>
       <c r="AA282" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AB282" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC282" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD282" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE282" s="18"/>
       <c r="AF282" s="13">
-        <v>-12</v>
+        <v>-0.5</v>
       </c>
       <c r="AG282" s="13">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH282" s="19">
-        <f t="shared" si="16"/>
-        <v>19.838235808660002</v>
+        <f t="shared" si="20"/>
+        <v>15.5</v>
       </c>
       <c r="AI282" s="19">
-        <f t="shared" si="17"/>
-        <v>16.163407255354326</v>
+        <f t="shared" si="21"/>
+        <v>26.546439371443093</v>
       </c>
       <c r="AJ282" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK282" s="13">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AL282" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM282" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF282-$AK282)^2+($AG282-$AL282)^2))</f>
+        <v>15.033296378372908</v>
+      </c>
+      <c r="AN282" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO282" s="13"/>
+      <c r="AP282" s="13"/>
+      <c r="AQ282" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR282" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS282" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AT282" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU282" s="19">
+        <f t="shared" si="23"/>
+        <v>6.0207972893961479</v>
+      </c>
+    </row>
+    <row r="283" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A283" s="3">
+        <v>13</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="17" t="str">
+        <f>IF($A283="","",IF(VLOOKUP($A283,Spiele!$A$2:$D$15,3,FALSE)=$B283,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D283" s="17" t="str">
+        <f>IF($B283="","",IF(VLOOKUP($A283,Spiele!$A$2:$F$15,3,FALSE)=$B283,VLOOKUP($A283,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A283,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E283" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A283,$A283,$B$2:$B283,$B283,$L$2:$L283,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F283" s="11">
+        <v>10</v>
+      </c>
+      <c r="G283" s="12">
+        <v>1</v>
+      </c>
+      <c r="H283" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A283,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B283,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F283,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G283)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A283,'Rote Karten'!$D$2:$D$4,$B283,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F283,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G283)</f>
+        <v>0</v>
+      </c>
+      <c r="I283" s="17" t="str">
+        <f>IF(OR($L283="Tor",$L283="ET"),_xlfn.IFNA(IF(VLOOKUP($A283,Spiele!$A$2:$C$15,3,FALSE)=$B283,COUNTIFS($L$2:$L283,"Tor",$B$2:$B283,$B283,$A$2:$A283,$A283)+COUNTIFS($L$2:$L283,"ET",$B$2:$B283,$B283,$A$2:$A283,$A283)&amp;":"&amp;COUNTIFS($L$2:$L283,"Tor",$B$2:$B283,"&lt;&gt;"&amp;$B283,$A$2:$A283,$A283)+COUNTIFS($L$2:$L283,"ET",$B$2:$B283,"&lt;&gt;"&amp;$B283,$A$2:$A283,$A283),COUNTIFS($L$2:$L283,"Tor",$B$2:$B283,"&lt;&gt;"&amp;$B283,$A$2:$A283,$A283)+COUNTIFS($L$2:$L283,"ET",$B$2:$B283,"&lt;&gt;"&amp;$B283,$A$2:$A283,$A283)&amp;":"&amp;COUNTIFS($L$2:$L283,"Tor",$B$2:$B283,$B283,$A$2:$A283,$A283)+COUNTIFS($L$2:$L283,"ET",$B$2:$B283,$B283,$A$2:$A283,$A283)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J283" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A283,Spiele!$A$2:$D$15,3,FALSE)=$B283,(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,$B283,$A$1:$A282,$A283))-(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)),(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,$B283,$A$1:$A282,$A283))-(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K283" s="3">
+        <v>4</v>
+      </c>
+      <c r="L283" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M283" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O283" s="17">
+        <v>9</v>
+      </c>
+      <c r="P283" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q283" s="2">
+        <v>7</v>
+      </c>
+      <c r="R283" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA283" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB283" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC283" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD283" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE283" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF283" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG283" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH283" s="19">
+        <f t="shared" si="20"/>
+        <v>13.595793467098565</v>
+      </c>
+      <c r="AI283" s="19">
+        <f t="shared" si="21"/>
+        <v>11.583042211219654</v>
+      </c>
+      <c r="AJ283" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK283" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL283" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM283" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF283-$AK283)^2+($AG283-$AL283)^2))</f>
+        <v>12.529964086141668</v>
+      </c>
+      <c r="AN283" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO283" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AP283" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ283" s="19">
+        <f t="shared" si="22"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AR283" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU283" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A284" s="3">
+        <v>13</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C284" s="17" t="str">
+        <f>IF($A284="","",IF(VLOOKUP($A284,Spiele!$A$2:$D$15,3,FALSE)=$B284,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D284" s="17" t="str">
+        <f>IF($B284="","",IF(VLOOKUP($A284,Spiele!$A$2:$F$15,3,FALSE)=$B284,VLOOKUP($A284,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A284,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E284" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A284,$A284,$B$2:$B284,$B284,$L$2:$L284,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F284" s="11">
+        <v>14</v>
+      </c>
+      <c r="G284" s="12">
+        <v>1</v>
+      </c>
+      <c r="H284" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A284,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B284,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F284,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G284)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A284,'Rote Karten'!$D$2:$D$4,$B284,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F284,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G284)</f>
+        <v>0</v>
+      </c>
+      <c r="I284" s="17" t="str">
+        <f>IF(OR($L284="Tor",$L284="ET"),_xlfn.IFNA(IF(VLOOKUP($A284,Spiele!$A$2:$C$15,3,FALSE)=$B284,COUNTIFS($L$2:$L284,"Tor",$B$2:$B284,$B284,$A$2:$A284,$A284)+COUNTIFS($L$2:$L284,"ET",$B$2:$B284,$B284,$A$2:$A284,$A284)&amp;":"&amp;COUNTIFS($L$2:$L284,"Tor",$B$2:$B284,"&lt;&gt;"&amp;$B284,$A$2:$A284,$A284)+COUNTIFS($L$2:$L284,"ET",$B$2:$B284,"&lt;&gt;"&amp;$B284,$A$2:$A284,$A284),COUNTIFS($L$2:$L284,"Tor",$B$2:$B284,"&lt;&gt;"&amp;$B284,$A$2:$A284,$A284)+COUNTIFS($L$2:$L284,"ET",$B$2:$B284,"&lt;&gt;"&amp;$B284,$A$2:$A284,$A284)&amp;":"&amp;COUNTIFS($L$2:$L284,"Tor",$B$2:$B284,$B284,$A$2:$A284,$A284)+COUNTIFS($L$2:$L284,"ET",$B$2:$B284,$B284,$A$2:$A284,$A284)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J284" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A284,Spiele!$A$2:$D$15,3,FALSE)=$B284,(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,$B284,$A$1:$A283,$A284))-(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)),(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,$B284,$A$1:$A283,$A284))-(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K284" s="3">
+        <v>5</v>
+      </c>
+      <c r="L284" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M284" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O284" s="17"/>
+      <c r="AA284" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB284" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC284" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD284" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE284" s="18"/>
+      <c r="AF284" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AG284" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH284" s="19">
+        <f t="shared" si="20"/>
+        <v>13.555279414309393</v>
+      </c>
+      <c r="AI284" s="19">
+        <f t="shared" si="21"/>
+        <v>24.188491715950388</v>
+      </c>
+      <c r="AJ284" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK284" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL284" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM284" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF284-$AK284)^2+($AG284-$AL284)^2))</f>
+        <v>14.089002803605371</v>
+      </c>
+      <c r="AN284" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO284" s="13"/>
+      <c r="AP284" s="13"/>
+      <c r="AQ284" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR284" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS284" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT284" s="13">
+        <v>12</v>
+      </c>
+      <c r="AU284" s="19">
+        <f t="shared" si="23"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="285" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A285" s="3">
+        <v>13</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C285" s="17" t="str">
+        <f>IF($A285="","",IF(VLOOKUP($A285,Spiele!$A$2:$D$15,3,FALSE)=$B285,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D285" s="17" t="str">
+        <f>IF($B285="","",IF(VLOOKUP($A285,Spiele!$A$2:$F$15,3,FALSE)=$B285,VLOOKUP($A285,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A285,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E285" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A285,$A285,$B$2:$B285,$B285,$L$2:$L285,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F285" s="11">
+        <v>18</v>
+      </c>
+      <c r="G285" s="12">
+        <v>1</v>
+      </c>
+      <c r="H285" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A285,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B285,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F285,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G285)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A285,'Rote Karten'!$D$2:$D$4,$B285,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F285,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G285)</f>
+        <v>0</v>
+      </c>
+      <c r="I285" s="17" t="str">
+        <f>IF(OR($L285="Tor",$L285="ET"),_xlfn.IFNA(IF(VLOOKUP($A285,Spiele!$A$2:$C$15,3,FALSE)=$B285,COUNTIFS($L$2:$L285,"Tor",$B$2:$B285,$B285,$A$2:$A285,$A285)+COUNTIFS($L$2:$L285,"ET",$B$2:$B285,$B285,$A$2:$A285,$A285)&amp;":"&amp;COUNTIFS($L$2:$L285,"Tor",$B$2:$B285,"&lt;&gt;"&amp;$B285,$A$2:$A285,$A285)+COUNTIFS($L$2:$L285,"ET",$B$2:$B285,"&lt;&gt;"&amp;$B285,$A$2:$A285,$A285),COUNTIFS($L$2:$L285,"Tor",$B$2:$B285,"&lt;&gt;"&amp;$B285,$A$2:$A285,$A285)+COUNTIFS($L$2:$L285,"ET",$B$2:$B285,"&lt;&gt;"&amp;$B285,$A$2:$A285,$A285)&amp;":"&amp;COUNTIFS($L$2:$L285,"Tor",$B$2:$B285,$B285,$A$2:$A285,$A285)+COUNTIFS($L$2:$L285,"ET",$B$2:$B285,$B285,$A$2:$A285,$A285)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J285" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A285,Spiele!$A$2:$D$15,3,FALSE)=$B285,(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,$B285,$A$1:$A284,$A285))-(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)),(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,$B285,$A$1:$A284,$A285))-(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K285" s="3">
+        <v>6</v>
+      </c>
+      <c r="L285" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O285" s="17"/>
+      <c r="AA285" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB285" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC285" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD285" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE285" s="18"/>
+      <c r="AF285" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG285" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH285" s="19">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="AI285" s="19">
+        <f t="shared" si="21"/>
+        <v>21.750134253188115</v>
+      </c>
+      <c r="AJ285" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK285" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL285" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM285" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF285-$AK285)^2+($AG285-$AL285)^2))</f>
+        <v>18.527007313648905</v>
+      </c>
+      <c r="AN285" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO285" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AP285" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ285" s="19">
+        <f t="shared" si="22"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="AR285" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS285" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT285" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU285" s="19">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A286" s="3">
+        <v>13</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C286" s="17" t="str">
+        <f>IF($A286="","",IF(VLOOKUP($A286,Spiele!$A$2:$D$15,3,FALSE)=$B286,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D286" s="17" t="str">
+        <f>IF($B286="","",IF(VLOOKUP($A286,Spiele!$A$2:$F$15,3,FALSE)=$B286,VLOOKUP($A286,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A286,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E286" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A286,$A286,$B$2:$B286,$B286,$L$2:$L286,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F286" s="11">
+        <v>18</v>
+      </c>
+      <c r="G286" s="12">
+        <v>1</v>
+      </c>
+      <c r="H286" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A286,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B286,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F286,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G286)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A286,'Rote Karten'!$D$2:$D$4,$B286,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F286,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G286)</f>
+        <v>0</v>
+      </c>
+      <c r="I286" s="17" t="str">
+        <f>IF(OR($L286="Tor",$L286="ET"),_xlfn.IFNA(IF(VLOOKUP($A286,Spiele!$A$2:$C$15,3,FALSE)=$B286,COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,$B286,$A$2:$A286,$A286)&amp;":"&amp;COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286),COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)&amp;":"&amp;COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,$B286,$A$2:$A286,$A286)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J286" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A286,Spiele!$A$2:$D$15,3,FALSE)=$B286,(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,$B286,$A$1:$A285,$A286))-(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)),(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,$B286,$A$1:$A285,$A286))-(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K286" s="3">
+        <v>6</v>
+      </c>
+      <c r="L286" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O286" s="17"/>
+      <c r="AA286" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB286" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC286" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD286" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE286" s="18"/>
+      <c r="AF286" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AG286" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH286" s="19">
+        <f t="shared" si="20"/>
+        <v>14.775506759498978</v>
+      </c>
+      <c r="AI286" s="19">
+        <f t="shared" si="21"/>
+        <v>23.936746455580142</v>
+      </c>
+      <c r="AJ286" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK286" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL286" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM286" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF286-$AK286)^2+($AG286-$AL286)^2))</f>
+        <v>15.231546211727817</v>
+      </c>
+      <c r="AN286" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO286" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP286" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AQ286" s="19">
+        <f t="shared" si="22"/>
+        <v>3.5</v>
+      </c>
+      <c r="AR286" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS286" s="13">
+        <v>6</v>
+      </c>
+      <c r="AT286" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU286" s="19">
+        <f t="shared" si="23"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="287" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A287" s="3">
+        <v>13</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="17" t="str">
+        <f>IF($A287="","",IF(VLOOKUP($A287,Spiele!$A$2:$D$15,3,FALSE)=$B287,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D287" s="17" t="str">
+        <f>IF($B287="","",IF(VLOOKUP($A287,Spiele!$A$2:$F$15,3,FALSE)=$B287,VLOOKUP($A287,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A287,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E287" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A287,$A287,$B$2:$B287,$B287,$L$2:$L287,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F287" s="11">
+        <v>18</v>
+      </c>
+      <c r="G287" s="12">
+        <v>1</v>
+      </c>
+      <c r="H287" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A287,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B287,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F287,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G287)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A287,'Rote Karten'!$D$2:$D$4,$B287,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F287,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G287)</f>
+        <v>0</v>
+      </c>
+      <c r="I287" s="17" t="str">
+        <f>IF(OR($L287="Tor",$L287="ET"),_xlfn.IFNA(IF(VLOOKUP($A287,Spiele!$A$2:$C$15,3,FALSE)=$B287,COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,$B287,$A$2:$A287,$A287)&amp;":"&amp;COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287),COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)&amp;":"&amp;COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,$B287,$A$2:$A287,$A287)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J287" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A287,Spiele!$A$2:$D$15,3,FALSE)=$B287,(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,$B287,$A$1:$A286,$A287))-(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)),(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,$B287,$A$1:$A286,$A287))-(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K287" s="3">
+        <v>7</v>
+      </c>
+      <c r="L287" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M287" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N287" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O287" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA287" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB287" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC287" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD287" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE287" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF287" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG287" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH287" s="19">
+        <f t="shared" si="20"/>
+        <v>14.524310654898565</v>
+      </c>
+      <c r="AI287" s="19">
+        <f t="shared" si="21"/>
+        <v>26.053510457112758</v>
+      </c>
+      <c r="AJ287" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK287" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AL287" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM287" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF287-$AK287)^2+($AG287-$AL287)^2))</f>
+        <v>11.401754250991379</v>
+      </c>
+      <c r="AN287" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO287" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP287" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AQ287" s="19">
+        <f t="shared" si="22"/>
+        <v>3.905124837953327</v>
+      </c>
+      <c r="AR287" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS287" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT287" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AU287" s="19">
+        <f t="shared" si="23"/>
+        <v>4.0311288741492746</v>
+      </c>
+    </row>
+    <row r="288" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A288" s="3">
+        <v>13</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="17" t="str">
+        <f>IF($A288="","",IF(VLOOKUP($A288,Spiele!$A$2:$D$15,3,FALSE)=$B288,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D288" s="17" t="str">
+        <f>IF($B288="","",IF(VLOOKUP($A288,Spiele!$A$2:$F$15,3,FALSE)=$B288,VLOOKUP($A288,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A288,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E288" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A288,$A288,$B$2:$B288,$B288,$L$2:$L288,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F288" s="11">
+        <v>22</v>
+      </c>
+      <c r="G288" s="12">
+        <v>1</v>
+      </c>
+      <c r="H288" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A288,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B288,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F288,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G288)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A288,'Rote Karten'!$D$2:$D$4,$B288,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F288,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G288)</f>
+        <v>0</v>
+      </c>
+      <c r="I288" s="17" t="str">
+        <f>IF(OR($L288="Tor",$L288="ET"),_xlfn.IFNA(IF(VLOOKUP($A288,Spiele!$A$2:$C$15,3,FALSE)=$B288,COUNTIFS($L$2:$L288,"Tor",$B$2:$B288,$B288,$A$2:$A288,$A288)+COUNTIFS($L$2:$L288,"ET",$B$2:$B288,$B288,$A$2:$A288,$A288)&amp;":"&amp;COUNTIFS($L$2:$L288,"Tor",$B$2:$B288,"&lt;&gt;"&amp;$B288,$A$2:$A288,$A288)+COUNTIFS($L$2:$L288,"ET",$B$2:$B288,"&lt;&gt;"&amp;$B288,$A$2:$A288,$A288),COUNTIFS($L$2:$L288,"Tor",$B$2:$B288,"&lt;&gt;"&amp;$B288,$A$2:$A288,$A288)+COUNTIFS($L$2:$L288,"ET",$B$2:$B288,"&lt;&gt;"&amp;$B288,$A$2:$A288,$A288)&amp;":"&amp;COUNTIFS($L$2:$L288,"Tor",$B$2:$B288,$B288,$A$2:$A288,$A288)+COUNTIFS($L$2:$L288,"ET",$B$2:$B288,$B288,$A$2:$A288,$A288)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J288" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A288,Spiele!$A$2:$D$15,3,FALSE)=$B288,(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,$B288,$A$1:$A287,$A288))-(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)),(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,$B288,$A$1:$A287,$A288))-(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K288" s="3">
+        <v>8</v>
+      </c>
+      <c r="L288" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O288" s="17"/>
+      <c r="AA288" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB288" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC288" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD288" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE288" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF288" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG288" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH288" s="19">
+        <f t="shared" si="20"/>
+        <v>16.742628228566744</v>
+      </c>
+      <c r="AI288" s="19">
+        <f t="shared" si="21"/>
+        <v>21.856872591143812</v>
+      </c>
+      <c r="AJ288" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK288" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL288" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM288" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF288-$AK288)^2+($AG288-$AL288)^2))</f>
+        <v>15.337861650177967</v>
+      </c>
+      <c r="AN288" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO288" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AP288" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ288" s="19">
+        <f t="shared" si="22"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="AR288" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS288" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT288" s="13">
+        <v>6</v>
+      </c>
+      <c r="AU288" s="19">
+        <f t="shared" si="23"/>
+        <v>11.423659658795863</v>
+      </c>
+    </row>
+    <row r="289" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A289" s="3">
+        <v>13</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="17" t="str">
+        <f>IF($A289="","",IF(VLOOKUP($A289,Spiele!$A$2:$D$15,3,FALSE)=$B289,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D289" s="17" t="str">
+        <f>IF($B289="","",IF(VLOOKUP($A289,Spiele!$A$2:$F$15,3,FALSE)=$B289,VLOOKUP($A289,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A289,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E289" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A289,$A289,$B$2:$B289,$B289,$L$2:$L289,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F289" s="11">
+        <v>25</v>
+      </c>
+      <c r="G289" s="12">
+        <v>1</v>
+      </c>
+      <c r="H289" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A289,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B289,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F289,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G289)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A289,'Rote Karten'!$D$2:$D$4,$B289,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F289,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G289)</f>
+        <v>0</v>
+      </c>
+      <c r="I289" s="17" t="str">
+        <f>IF(OR($L289="Tor",$L289="ET"),_xlfn.IFNA(IF(VLOOKUP($A289,Spiele!$A$2:$C$15,3,FALSE)=$B289,COUNTIFS($L$2:$L289,"Tor",$B$2:$B289,$B289,$A$2:$A289,$A289)+COUNTIFS($L$2:$L289,"ET",$B$2:$B289,$B289,$A$2:$A289,$A289)&amp;":"&amp;COUNTIFS($L$2:$L289,"Tor",$B$2:$B289,"&lt;&gt;"&amp;$B289,$A$2:$A289,$A289)+COUNTIFS($L$2:$L289,"ET",$B$2:$B289,"&lt;&gt;"&amp;$B289,$A$2:$A289,$A289),COUNTIFS($L$2:$L289,"Tor",$B$2:$B289,"&lt;&gt;"&amp;$B289,$A$2:$A289,$A289)+COUNTIFS($L$2:$L289,"ET",$B$2:$B289,"&lt;&gt;"&amp;$B289,$A$2:$A289,$A289)&amp;":"&amp;COUNTIFS($L$2:$L289,"Tor",$B$2:$B289,$B289,$A$2:$A289,$A289)+COUNTIFS($L$2:$L289,"ET",$B$2:$B289,$B289,$A$2:$A289,$A289)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J289" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A289,Spiele!$A$2:$D$15,3,FALSE)=$B289,(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,$B289,$A$1:$A288,$A289))-(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)),(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,$B289,$A$1:$A288,$A289))-(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K289" s="3">
+        <v>9</v>
+      </c>
+      <c r="L289" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O289" s="17"/>
+      <c r="AA289" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB289" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC289" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD289" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE289" s="18">
+        <v>20</v>
+      </c>
+      <c r="AF289" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG289" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="AH289" s="19">
+        <f t="shared" si="20"/>
+        <v>23.644779550674606</v>
+      </c>
+      <c r="AI289" s="19">
+        <f t="shared" si="21"/>
+        <v>14.002393253988416</v>
+      </c>
+      <c r="AJ289" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK289" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL289" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM289" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF289-$AK289)^2+($AG289-$AL289)^2))</f>
+        <v>22.610838109190027</v>
+      </c>
+      <c r="AN289" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO289" s="13"/>
+      <c r="AP289" s="13"/>
+      <c r="AQ289" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR289" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS289" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AT289" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AU289" s="19">
+        <f t="shared" si="23"/>
+        <v>1.8027756377319946</v>
+      </c>
+    </row>
+    <row r="290" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A290" s="3">
+        <v>13</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C290" s="17" t="str">
+        <f>IF($A290="","",IF(VLOOKUP($A290,Spiele!$A$2:$D$15,3,FALSE)=$B290,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D290" s="17" t="str">
+        <f>IF($B290="","",IF(VLOOKUP($A290,Spiele!$A$2:$F$15,3,FALSE)=$B290,VLOOKUP($A290,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A290,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E290" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A290,$A290,$B$2:$B290,$B290,$L$2:$L290,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F290" s="11">
+        <v>28</v>
+      </c>
+      <c r="G290" s="12">
+        <v>1</v>
+      </c>
+      <c r="H290" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A290,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B290,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F290,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G290)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A290,'Rote Karten'!$D$2:$D$4,$B290,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F290,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G290)</f>
+        <v>0</v>
+      </c>
+      <c r="I290" s="17" t="str">
+        <f>IF(OR($L290="Tor",$L290="ET"),_xlfn.IFNA(IF(VLOOKUP($A290,Spiele!$A$2:$C$15,3,FALSE)=$B290,COUNTIFS($L$2:$L290,"Tor",$B$2:$B290,$B290,$A$2:$A290,$A290)+COUNTIFS($L$2:$L290,"ET",$B$2:$B290,$B290,$A$2:$A290,$A290)&amp;":"&amp;COUNTIFS($L$2:$L290,"Tor",$B$2:$B290,"&lt;&gt;"&amp;$B290,$A$2:$A290,$A290)+COUNTIFS($L$2:$L290,"ET",$B$2:$B290,"&lt;&gt;"&amp;$B290,$A$2:$A290,$A290),COUNTIFS($L$2:$L290,"Tor",$B$2:$B290,"&lt;&gt;"&amp;$B290,$A$2:$A290,$A290)+COUNTIFS($L$2:$L290,"ET",$B$2:$B290,"&lt;&gt;"&amp;$B290,$A$2:$A290,$A290)&amp;":"&amp;COUNTIFS($L$2:$L290,"Tor",$B$2:$B290,$B290,$A$2:$A290,$A290)+COUNTIFS($L$2:$L290,"ET",$B$2:$B290,$B290,$A$2:$A290,$A290)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J290" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A290,Spiele!$A$2:$D$15,3,FALSE)=$B290,(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,$B290,$A$1:$A289,$A290))-(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)),(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,$B290,$A$1:$A289,$A290))-(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K290" s="3">
+        <v>10</v>
+      </c>
+      <c r="L290" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M290" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O290" s="17"/>
+      <c r="AA290" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB290" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC290" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD290" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE290" s="18"/>
+      <c r="AF290" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG290" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="AH290" s="19">
+        <f t="shared" si="20"/>
+        <v>25.5</v>
+      </c>
+      <c r="AI290" s="19">
+        <f t="shared" si="21"/>
+        <v>16.335693207949546</v>
+      </c>
+      <c r="AJ290" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK290" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL290" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM290" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF290-$AK290)^2+($AG290-$AL290)^2))</f>
+        <v>25</v>
+      </c>
+      <c r="AN290" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO290" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AP290" s="13">
+        <v>28</v>
+      </c>
+      <c r="AQ290" s="19">
+        <f t="shared" si="22"/>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="AR290" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS290" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT290" s="13">
+        <v>17</v>
+      </c>
+      <c r="AU290" s="19">
+        <f t="shared" si="23"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A291" s="3">
+        <v>13</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="17" t="str">
+        <f>IF($A291="","",IF(VLOOKUP($A291,Spiele!$A$2:$D$15,3,FALSE)=$B291,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D291" s="17" t="str">
+        <f>IF($B291="","",IF(VLOOKUP($A291,Spiele!$A$2:$F$15,3,FALSE)=$B291,VLOOKUP($A291,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A291,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E291" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A291,$A291,$B$2:$B291,$B291,$L$2:$L291,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F291" s="11">
+        <v>33</v>
+      </c>
+      <c r="G291" s="12">
+        <v>1</v>
+      </c>
+      <c r="H291" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A291,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B291,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F291,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G291)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A291,'Rote Karten'!$D$2:$D$4,$B291,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F291,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G291)</f>
+        <v>0</v>
+      </c>
+      <c r="I291" s="17" t="str">
+        <f>IF(OR($L291="Tor",$L291="ET"),_xlfn.IFNA(IF(VLOOKUP($A291,Spiele!$A$2:$C$15,3,FALSE)=$B291,COUNTIFS($L$2:$L291,"Tor",$B$2:$B291,$B291,$A$2:$A291,$A291)+COUNTIFS($L$2:$L291,"ET",$B$2:$B291,$B291,$A$2:$A291,$A291)&amp;":"&amp;COUNTIFS($L$2:$L291,"Tor",$B$2:$B291,"&lt;&gt;"&amp;$B291,$A$2:$A291,$A291)+COUNTIFS($L$2:$L291,"ET",$B$2:$B291,"&lt;&gt;"&amp;$B291,$A$2:$A291,$A291),COUNTIFS($L$2:$L291,"Tor",$B$2:$B291,"&lt;&gt;"&amp;$B291,$A$2:$A291,$A291)+COUNTIFS($L$2:$L291,"ET",$B$2:$B291,"&lt;&gt;"&amp;$B291,$A$2:$A291,$A291)&amp;":"&amp;COUNTIFS($L$2:$L291,"Tor",$B$2:$B291,$B291,$A$2:$A291,$A291)+COUNTIFS($L$2:$L291,"ET",$B$2:$B291,$B291,$A$2:$A291,$A291)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J291" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A291,Spiele!$A$2:$D$15,3,FALSE)=$B291,(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,$B291,$A$1:$A290,$A291))-(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)),(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,$B291,$A$1:$A290,$A291))-(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K291" s="3">
+        <v>11</v>
+      </c>
+      <c r="L291" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O291" s="17">
+        <v>8</v>
+      </c>
+      <c r="P291" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q291" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA291" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB291" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC291" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD291" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE291" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF291" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AG291" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AH291" s="19">
+        <f t="shared" si="20"/>
+        <v>17.59646555419582</v>
+      </c>
+      <c r="AI291" s="19">
+        <f t="shared" si="21"/>
+        <v>21.626656434445117</v>
+      </c>
+      <c r="AJ291" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL291" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM291" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF291-$AK291)^2+($AG291-$AL291)^2))</f>
+        <v>15.182226450688976</v>
+      </c>
+      <c r="AN291" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO291" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AP291" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AQ291" s="19">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR291" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU291" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A292" s="3">
+        <v>13</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C292" s="17" t="str">
+        <f>IF($A292="","",IF(VLOOKUP($A292,Spiele!$A$2:$D$15,3,FALSE)=$B292,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D292" s="17" t="str">
+        <f>IF($B292="","",IF(VLOOKUP($A292,Spiele!$A$2:$F$15,3,FALSE)=$B292,VLOOKUP($A292,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A292,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E292" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A292,$A292,$B$2:$B292,$B292,$L$2:$L292,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F292" s="11">
+        <v>35</v>
+      </c>
+      <c r="G292" s="12">
+        <v>1</v>
+      </c>
+      <c r="H292" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A292,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B292,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F292,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G292)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A292,'Rote Karten'!$D$2:$D$4,$B292,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F292,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G292)</f>
+        <v>0</v>
+      </c>
+      <c r="I292" s="17" t="str">
+        <f>IF(OR($L292="Tor",$L292="ET"),_xlfn.IFNA(IF(VLOOKUP($A292,Spiele!$A$2:$C$15,3,FALSE)=$B292,COUNTIFS($L$2:$L292,"Tor",$B$2:$B292,$B292,$A$2:$A292,$A292)+COUNTIFS($L$2:$L292,"ET",$B$2:$B292,$B292,$A$2:$A292,$A292)&amp;":"&amp;COUNTIFS($L$2:$L292,"Tor",$B$2:$B292,"&lt;&gt;"&amp;$B292,$A$2:$A292,$A292)+COUNTIFS($L$2:$L292,"ET",$B$2:$B292,"&lt;&gt;"&amp;$B292,$A$2:$A292,$A292),COUNTIFS($L$2:$L292,"Tor",$B$2:$B292,"&lt;&gt;"&amp;$B292,$A$2:$A292,$A292)+COUNTIFS($L$2:$L292,"ET",$B$2:$B292,"&lt;&gt;"&amp;$B292,$A$2:$A292,$A292)&amp;":"&amp;COUNTIFS($L$2:$L292,"Tor",$B$2:$B292,$B292,$A$2:$A292,$A292)+COUNTIFS($L$2:$L292,"ET",$B$2:$B292,$B292,$A$2:$A292,$A292)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J292" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A292,Spiele!$A$2:$D$15,3,FALSE)=$B292,(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,$B292,$A$1:$A291,$A292))-(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)),(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,$B292,$A$1:$A291,$A292))-(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K292" s="3">
+        <v>12</v>
+      </c>
+      <c r="L292" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M292" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O292" s="17"/>
+      <c r="AA292" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB292" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC292" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD292" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE292" s="18"/>
+      <c r="AF292" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AG292" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH292" s="19">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AI292" s="19">
+        <f t="shared" si="21"/>
+        <v>43.839454439268671</v>
+      </c>
+      <c r="AJ292" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK292" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AL292" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM292" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF292-$AK292)^2+($AG292-$AL292)^2))</f>
+        <v>8.5</v>
+      </c>
+      <c r="AN292" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO292" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP292" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ292" s="19">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AR292" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU292" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A293" s="3">
+        <v>13</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293" s="17" t="str">
+        <f>IF($A293="","",IF(VLOOKUP($A293,Spiele!$A$2:$D$15,3,FALSE)=$B293,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D293" s="17" t="str">
+        <f>IF($B293="","",IF(VLOOKUP($A293,Spiele!$A$2:$F$15,3,FALSE)=$B293,VLOOKUP($A293,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A293,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E293" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A293,$A293,$B$2:$B293,$B293,$L$2:$L293,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F293" s="11">
+        <v>37</v>
+      </c>
+      <c r="G293" s="12">
+        <v>1</v>
+      </c>
+      <c r="H293" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A293,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B293,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F293,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G293)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A293,'Rote Karten'!$D$2:$D$4,$B293,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F293,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G293)</f>
+        <v>0</v>
+      </c>
+      <c r="I293" s="17" t="str">
+        <f>IF(OR($L293="Tor",$L293="ET"),_xlfn.IFNA(IF(VLOOKUP($A293,Spiele!$A$2:$C$15,3,FALSE)=$B293,COUNTIFS($L$2:$L293,"Tor",$B$2:$B293,$B293,$A$2:$A293,$A293)+COUNTIFS($L$2:$L293,"ET",$B$2:$B293,$B293,$A$2:$A293,$A293)&amp;":"&amp;COUNTIFS($L$2:$L293,"Tor",$B$2:$B293,"&lt;&gt;"&amp;$B293,$A$2:$A293,$A293)+COUNTIFS($L$2:$L293,"ET",$B$2:$B293,"&lt;&gt;"&amp;$B293,$A$2:$A293,$A293),COUNTIFS($L$2:$L293,"Tor",$B$2:$B293,"&lt;&gt;"&amp;$B293,$A$2:$A293,$A293)+COUNTIFS($L$2:$L293,"ET",$B$2:$B293,"&lt;&gt;"&amp;$B293,$A$2:$A293,$A293)&amp;":"&amp;COUNTIFS($L$2:$L293,"Tor",$B$2:$B293,$B293,$A$2:$A293,$A293)+COUNTIFS($L$2:$L293,"ET",$B$2:$B293,$B293,$A$2:$A293,$A293)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J293" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A293,Spiele!$A$2:$D$15,3,FALSE)=$B293,(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,$B293,$A$1:$A292,$A293))-(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)),(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,$B293,$A$1:$A292,$A293))-(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K293" s="3">
+        <v>13</v>
+      </c>
+      <c r="L293" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O293" s="17"/>
+      <c r="AA293" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB293" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC293" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD293" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE293" s="18"/>
+      <c r="AF293" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AG293" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH293" s="19">
+        <f t="shared" si="20"/>
+        <v>2.5447200238926087</v>
+      </c>
+      <c r="AI293" s="19">
+        <f t="shared" si="21"/>
+        <v>17.229273479884245</v>
+      </c>
+      <c r="AJ293" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK293" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL293" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM293" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF293-$AK293)^2+($AG293-$AL293)^2))</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="AN293" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO293" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP293" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ293" s="19">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AR293" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS293" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT293" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AU293" s="19">
+        <f t="shared" si="23"/>
+        <v>2.5495097567963922</v>
+      </c>
+    </row>
+    <row r="294" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A294" s="3">
+        <v>13</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="17" t="str">
+        <f>IF($A294="","",IF(VLOOKUP($A294,Spiele!$A$2:$D$15,3,FALSE)=$B294,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D294" s="17" t="str">
+        <f>IF($B294="","",IF(VLOOKUP($A294,Spiele!$A$2:$F$15,3,FALSE)=$B294,VLOOKUP($A294,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A294,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E294" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A294,$A294,$B$2:$B294,$B294,$L$2:$L294,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F294" s="11">
+        <v>40</v>
+      </c>
+      <c r="G294" s="12">
+        <v>1</v>
+      </c>
+      <c r="H294" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A294,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B294,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F294,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G294)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A294,'Rote Karten'!$D$2:$D$4,$B294,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F294,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G294)</f>
+        <v>0</v>
+      </c>
+      <c r="I294" s="17" t="str">
+        <f>IF(OR($L294="Tor",$L294="ET"),_xlfn.IFNA(IF(VLOOKUP($A294,Spiele!$A$2:$C$15,3,FALSE)=$B294,COUNTIFS($L$2:$L294,"Tor",$B$2:$B294,$B294,$A$2:$A294,$A294)+COUNTIFS($L$2:$L294,"ET",$B$2:$B294,$B294,$A$2:$A294,$A294)&amp;":"&amp;COUNTIFS($L$2:$L294,"Tor",$B$2:$B294,"&lt;&gt;"&amp;$B294,$A$2:$A294,$A294)+COUNTIFS($L$2:$L294,"ET",$B$2:$B294,"&lt;&gt;"&amp;$B294,$A$2:$A294,$A294),COUNTIFS($L$2:$L294,"Tor",$B$2:$B294,"&lt;&gt;"&amp;$B294,$A$2:$A294,$A294)+COUNTIFS($L$2:$L294,"ET",$B$2:$B294,"&lt;&gt;"&amp;$B294,$A$2:$A294,$A294)&amp;":"&amp;COUNTIFS($L$2:$L294,"Tor",$B$2:$B294,$B294,$A$2:$A294,$A294)+COUNTIFS($L$2:$L294,"ET",$B$2:$B294,$B294,$A$2:$A294,$A294)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J294" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A294,Spiele!$A$2:$D$15,3,FALSE)=$B294,(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,$B294,$A$1:$A293,$A294))-(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)),(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,$B294,$A$1:$A293,$A294))-(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K294" s="3">
+        <v>14</v>
+      </c>
+      <c r="L294" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O294" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA294" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB294" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC294" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD294" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE294" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF294" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG294" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH294" s="19">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AI294" s="19">
+        <f t="shared" si="21"/>
+        <v>42.615768593997174</v>
+      </c>
+      <c r="AJ294" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK294" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL294" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM294" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF294-$AK294)^2+($AG294-$AL294)^2))</f>
+        <v>6.5</v>
+      </c>
+      <c r="AN294" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO294" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AP294" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ294" s="19">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR294" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU294" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A295" s="3">
+        <v>13</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="17" t="str">
+        <f>IF($A295="","",IF(VLOOKUP($A295,Spiele!$A$2:$D$15,3,FALSE)=$B295,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D295" s="17" t="str">
+        <f>IF($B295="","",IF(VLOOKUP($A295,Spiele!$A$2:$F$15,3,FALSE)=$B295,VLOOKUP($A295,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A295,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E295" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A295,$A295,$B$2:$B295,$B295,$L$2:$L295,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F295" s="11">
+        <v>40</v>
+      </c>
+      <c r="G295" s="12">
+        <v>1</v>
+      </c>
+      <c r="H295" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A295,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B295,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F295,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G295)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A295,'Rote Karten'!$D$2:$D$4,$B295,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F295,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G295)</f>
+        <v>0</v>
+      </c>
+      <c r="I295" s="17" t="str">
+        <f>IF(OR($L295="Tor",$L295="ET"),_xlfn.IFNA(IF(VLOOKUP($A295,Spiele!$A$2:$C$15,3,FALSE)=$B295,COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,$B295,$A$2:$A295,$A295)&amp;":"&amp;COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295),COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)&amp;":"&amp;COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,$B295,$A$2:$A295,$A295)),""),"")</f>
+        <v>1:0</v>
+      </c>
+      <c r="J295" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A295,Spiele!$A$2:$D$15,3,FALSE)=$B295,(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,$B295,$A$1:$A294,$A295))-(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)),(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,$B295,$A$1:$A294,$A295))-(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K295" s="3">
+        <v>14</v>
+      </c>
+      <c r="L295" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O295" s="17"/>
+      <c r="AA295" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB295" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC295" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD295" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE295" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF295" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG295" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH295" s="19">
+        <f t="shared" si="20"/>
+        <v>5.7502695588989567</v>
+      </c>
+      <c r="AI295" s="19">
+        <f t="shared" si="21"/>
+        <v>34.200427604672875</v>
+      </c>
+      <c r="AJ295" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK295" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL295" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM295" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF295-$AK295)^2+($AG295-$AL295)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="AN295" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO295" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP295" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AQ295" s="19">
+        <f t="shared" si="22"/>
+        <v>2.5495097567963922</v>
+      </c>
+      <c r="AR295" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU295" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A296" s="3">
+        <v>13</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C296" s="17" t="str">
+        <f>IF($A296="","",IF(VLOOKUP($A296,Spiele!$A$2:$D$15,3,FALSE)=$B296,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D296" s="17" t="str">
+        <f>IF($B296="","",IF(VLOOKUP($A296,Spiele!$A$2:$F$15,3,FALSE)=$B296,VLOOKUP($A296,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A296,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E296" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A296,$A296,$B$2:$B296,$B296,$L$2:$L296,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F296" s="11">
+        <v>44</v>
+      </c>
+      <c r="G296" s="12">
+        <v>2</v>
+      </c>
+      <c r="H296" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A296,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B296,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F296,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G296)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A296,'Rote Karten'!$D$2:$D$4,$B296,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F296,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G296)</f>
+        <v>0</v>
+      </c>
+      <c r="I296" s="17" t="str">
+        <f>IF(OR($L296="Tor",$L296="ET"),_xlfn.IFNA(IF(VLOOKUP($A296,Spiele!$A$2:$C$15,3,FALSE)=$B296,COUNTIFS($L$2:$L296,"Tor",$B$2:$B296,$B296,$A$2:$A296,$A296)+COUNTIFS($L$2:$L296,"ET",$B$2:$B296,$B296,$A$2:$A296,$A296)&amp;":"&amp;COUNTIFS($L$2:$L296,"Tor",$B$2:$B296,"&lt;&gt;"&amp;$B296,$A$2:$A296,$A296)+COUNTIFS($L$2:$L296,"ET",$B$2:$B296,"&lt;&gt;"&amp;$B296,$A$2:$A296,$A296),COUNTIFS($L$2:$L296,"Tor",$B$2:$B296,"&lt;&gt;"&amp;$B296,$A$2:$A296,$A296)+COUNTIFS($L$2:$L296,"ET",$B$2:$B296,"&lt;&gt;"&amp;$B296,$A$2:$A296,$A296)&amp;":"&amp;COUNTIFS($L$2:$L296,"Tor",$B$2:$B296,$B296,$A$2:$A296,$A296)+COUNTIFS($L$2:$L296,"ET",$B$2:$B296,$B296,$A$2:$A296,$A296)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J296" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A296,Spiele!$A$2:$D$15,3,FALSE)=$B296,(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,$B296,$A$1:$A295,$A296))-(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)),(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,$B296,$A$1:$A295,$A296))-(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K296" s="3">
+        <v>15</v>
+      </c>
+      <c r="L296" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O296" s="17"/>
+      <c r="AA296" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB296" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC296" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD296" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE296" s="18"/>
+      <c r="AF296" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AG296" s="13">
+        <v>34</v>
+      </c>
+      <c r="AH296" s="19">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="AI296" s="19">
+        <f t="shared" si="21"/>
+        <v>12.194976603981754</v>
+      </c>
+      <c r="AJ296" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK296" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL296" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM296" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF296-$AK296)^2+($AG296-$AL296)^2))</f>
+        <v>33.68233958619858</v>
+      </c>
+      <c r="AN296" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO296" s="13"/>
+      <c r="AP296" s="13"/>
+      <c r="AQ296" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR296" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS296" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT296" s="13">
+        <v>27</v>
+      </c>
+      <c r="AU296" s="19">
+        <f t="shared" si="23"/>
+        <v>7.0178344238090995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A297" s="3">
+        <v>13</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="17" t="str">
+        <f>IF($A297="","",IF(VLOOKUP($A297,Spiele!$A$2:$D$15,3,FALSE)=$B297,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D297" s="17" t="str">
+        <f>IF($B297="","",IF(VLOOKUP($A297,Spiele!$A$2:$F$15,3,FALSE)=$B297,VLOOKUP($A297,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A297,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E297" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A297,$A297,$B$2:$B297,$B297,$L$2:$L297,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F297" s="11">
+        <v>51</v>
+      </c>
+      <c r="G297" s="12">
+        <v>2</v>
+      </c>
+      <c r="H297" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A297,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B297,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F297,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G297)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A297,'Rote Karten'!$D$2:$D$4,$B297,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F297,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G297)</f>
+        <v>0</v>
+      </c>
+      <c r="I297" s="17" t="str">
+        <f>IF(OR($L297="Tor",$L297="ET"),_xlfn.IFNA(IF(VLOOKUP($A297,Spiele!$A$2:$C$15,3,FALSE)=$B297,COUNTIFS($L$2:$L297,"Tor",$B$2:$B297,$B297,$A$2:$A297,$A297)+COUNTIFS($L$2:$L297,"ET",$B$2:$B297,$B297,$A$2:$A297,$A297)&amp;":"&amp;COUNTIFS($L$2:$L297,"Tor",$B$2:$B297,"&lt;&gt;"&amp;$B297,$A$2:$A297,$A297)+COUNTIFS($L$2:$L297,"ET",$B$2:$B297,"&lt;&gt;"&amp;$B297,$A$2:$A297,$A297),COUNTIFS($L$2:$L297,"Tor",$B$2:$B297,"&lt;&gt;"&amp;$B297,$A$2:$A297,$A297)+COUNTIFS($L$2:$L297,"ET",$B$2:$B297,"&lt;&gt;"&amp;$B297,$A$2:$A297,$A297)&amp;":"&amp;COUNTIFS($L$2:$L297,"Tor",$B$2:$B297,$B297,$A$2:$A297,$A297)+COUNTIFS($L$2:$L297,"ET",$B$2:$B297,$B297,$A$2:$A297,$A297)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J297" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A297,Spiele!$A$2:$D$15,3,FALSE)=$B297,(COUNTIFS($L$1:$L296,"Tor",$B$1:$B296,$B297,$A$1:$A296,$A297)+COUNTIFS($L$1:$L296,"ET",$B$1:$B296,$B297,$A$1:$A296,$A297))-(COUNTIFS($L$1:$L296,"Tor",$B$1:$B296,"&lt;&gt;"&amp;$B297,$A$1:$A296,$A297)+COUNTIFS($L$1:$L296,"ET",$B$1:$B296,"&lt;&gt;"&amp;$B297,$A$1:$A296,$A297)),(COUNTIFS($L$1:$L296,"Tor",$B$1:$B296,$B297,$A$1:$A296,$A297)+COUNTIFS($L$1:$L296,"ET",$B$1:$B296,$B297,$A$1:$A296,$A297))-(COUNTIFS($L$1:$L296,"Tor",$B$1:$B296,"&lt;&gt;"&amp;$B297,$A$1:$A296,$A297)+COUNTIFS($L$1:$L296,"ET",$B$1:$B296,"&lt;&gt;"&amp;$B297,$A$1:$A296,$A297))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K297" s="3">
+        <v>16</v>
+      </c>
+      <c r="L297" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N297" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O297" s="17">
+        <v>8</v>
+      </c>
+      <c r="P297" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q297" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA297" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB297" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC297" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD297" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE297" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF297" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AG297" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH297" s="19">
+        <f t="shared" si="20"/>
+        <v>14.689642609675703</v>
+      </c>
+      <c r="AI297" s="19">
+        <f t="shared" si="21"/>
+        <v>19.694334659050181</v>
+      </c>
+      <c r="AJ297" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK297" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL297" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM297" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF297-$AK297)^2+($AG297-$AL297)^2))</f>
+        <v>12.619429464123963</v>
+      </c>
+      <c r="AN297" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO297" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP297" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AQ297" s="19">
+        <f t="shared" si="22"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR297" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS297" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AT297" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AU297" s="19">
+        <f t="shared" si="23"/>
+        <v>9.3005376188691375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A298" s="3">
+        <v>13</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C298" s="17" t="str">
+        <f>IF($A298="","",IF(VLOOKUP($A298,Spiele!$A$2:$D$15,3,FALSE)=$B298,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D298" s="17" t="str">
+        <f>IF($B298="","",IF(VLOOKUP($A298,Spiele!$A$2:$F$15,3,FALSE)=$B298,VLOOKUP($A298,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A298,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E298" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A298,$A298,$B$2:$B298,$B298,$L$2:$L298,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F298" s="11">
+        <v>57</v>
+      </c>
+      <c r="G298" s="12">
+        <v>2</v>
+      </c>
+      <c r="H298" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A298,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B298,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F298,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G298)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A298,'Rote Karten'!$D$2:$D$4,$B298,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F298,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G298)</f>
+        <v>0</v>
+      </c>
+      <c r="I298" s="17" t="str">
+        <f>IF(OR($L298="Tor",$L298="ET"),_xlfn.IFNA(IF(VLOOKUP($A298,Spiele!$A$2:$C$15,3,FALSE)=$B298,COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,$B298,$A$2:$A298,$A298)&amp;":"&amp;COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298),COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)&amp;":"&amp;COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,$B298,$A$2:$A298,$A298)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J298" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A298,Spiele!$A$2:$D$15,3,FALSE)=$B298,(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,$B298,$A$1:$A297,$A298))-(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)),(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,$B298,$A$1:$A297,$A298))-(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K298" s="3">
+        <v>17</v>
+      </c>
+      <c r="L298" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M298" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N298" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O298" s="17"/>
+      <c r="AA298" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB298" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC298" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD298" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE298" s="18"/>
+      <c r="AF298" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG298" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH298" s="19">
+        <f t="shared" si="20"/>
+        <v>11.216309553502882</v>
+      </c>
+      <c r="AI298" s="19">
+        <f t="shared" si="21"/>
+        <v>16.373402664953399</v>
+      </c>
+      <c r="AJ298" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK298" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AL298" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM298" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF298-$AK298)^2+($AG298-$AL298)^2))</f>
+        <v>11.01135777277262</v>
+      </c>
+      <c r="AN298" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO298" s="13">
+        <v>9</v>
+      </c>
+      <c r="AP298" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ298" s="19">
+        <f t="shared" si="22"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AR298" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU298" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A299" s="3">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="17" t="str">
+        <f>IF($A299="","",IF(VLOOKUP($A299,Spiele!$A$2:$D$15,3,FALSE)=$B299,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D299" s="17" t="str">
+        <f>IF($B299="","",IF(VLOOKUP($A299,Spiele!$A$2:$F$15,3,FALSE)=$B299,VLOOKUP($A299,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A299,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E299" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A299,$A299,$B$2:$B299,$B299,$L$2:$L299,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F299" s="11">
+        <v>59</v>
+      </c>
+      <c r="G299" s="12">
+        <v>2</v>
+      </c>
+      <c r="H299" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A299,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B299,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F299,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G299)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A299,'Rote Karten'!$D$2:$D$4,$B299,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F299,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G299)</f>
+        <v>0</v>
+      </c>
+      <c r="I299" s="17" t="str">
+        <f>IF(OR($L299="Tor",$L299="ET"),_xlfn.IFNA(IF(VLOOKUP($A299,Spiele!$A$2:$C$15,3,FALSE)=$B299,COUNTIFS($L$2:$L299,"Tor",$B$2:$B299,$B299,$A$2:$A299,$A299)+COUNTIFS($L$2:$L299,"ET",$B$2:$B299,$B299,$A$2:$A299,$A299)&amp;":"&amp;COUNTIFS($L$2:$L299,"Tor",$B$2:$B299,"&lt;&gt;"&amp;$B299,$A$2:$A299,$A299)+COUNTIFS($L$2:$L299,"ET",$B$2:$B299,"&lt;&gt;"&amp;$B299,$A$2:$A299,$A299),COUNTIFS($L$2:$L299,"Tor",$B$2:$B299,"&lt;&gt;"&amp;$B299,$A$2:$A299,$A299)+COUNTIFS($L$2:$L299,"ET",$B$2:$B299,"&lt;&gt;"&amp;$B299,$A$2:$A299,$A299)&amp;":"&amp;COUNTIFS($L$2:$L299,"Tor",$B$2:$B299,$B299,$A$2:$A299,$A299)+COUNTIFS($L$2:$L299,"ET",$B$2:$B299,$B299,$A$2:$A299,$A299)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J299" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A299,Spiele!$A$2:$D$15,3,FALSE)=$B299,(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,$B299,$A$1:$A298,$A299))-(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)),(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,$B299,$A$1:$A298,$A299))-(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K299" s="3">
+        <v>18</v>
+      </c>
+      <c r="L299" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M299" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O299" s="17">
+        <v>4</v>
+      </c>
+      <c r="P299" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q299" s="2">
+        <v>6</v>
+      </c>
+      <c r="R299" s="2">
+        <v>8</v>
+      </c>
+      <c r="S299" s="2">
+        <v>20</v>
+      </c>
+      <c r="T299" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA299" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB299" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC299" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD299" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE299" s="18">
+        <v>18</v>
+      </c>
+      <c r="AF299" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AG299" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="AH299" s="19">
+        <f t="shared" si="20"/>
+        <v>22.071828197954062</v>
+      </c>
+      <c r="AI299" s="19">
+        <f t="shared" si="21"/>
+        <v>14.230221882728383</v>
+      </c>
+      <c r="AJ299" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK299" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL299" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM299" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF299-$AK299)^2+($AG299-$AL299)^2))</f>
+        <v>21.100947846009191</v>
+      </c>
+      <c r="AN299" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO299" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AP299" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ299" s="19">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR299" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS299" s="13">
+        <v>-11</v>
+      </c>
+      <c r="AT299" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AU299" s="19">
+        <f t="shared" si="23"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A300" s="3">
+        <v>13</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="17" t="str">
+        <f>IF($A300="","",IF(VLOOKUP($A300,Spiele!$A$2:$D$15,3,FALSE)=$B300,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D300" s="17" t="str">
+        <f>IF($B300="","",IF(VLOOKUP($A300,Spiele!$A$2:$F$15,3,FALSE)=$B300,VLOOKUP($A300,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A300,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E300" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A300,$A300,$B$2:$B300,$B300,$L$2:$L300,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F300" s="11">
+        <v>60</v>
+      </c>
+      <c r="G300" s="12">
+        <v>2</v>
+      </c>
+      <c r="H300" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A300,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B300,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F300,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G300)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A300,'Rote Karten'!$D$2:$D$4,$B300,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F300,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G300)</f>
+        <v>0</v>
+      </c>
+      <c r="I300" s="17" t="str">
+        <f>IF(OR($L300="Tor",$L300="ET"),_xlfn.IFNA(IF(VLOOKUP($A300,Spiele!$A$2:$C$15,3,FALSE)=$B300,COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,$B300,$A$2:$A300,$A300)&amp;":"&amp;COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300),COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)&amp;":"&amp;COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,$B300,$A$2:$A300,$A300)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J300" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A300,Spiele!$A$2:$D$15,3,FALSE)=$B300,(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,$B300,$A$1:$A299,$A300))-(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)),(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,$B300,$A$1:$A299,$A300))-(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K300" s="3">
+        <v>19</v>
+      </c>
+      <c r="L300" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O300" s="17"/>
+      <c r="AA300" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB300" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC300" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD300" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE300" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF300" s="13">
+        <v>14</v>
+      </c>
+      <c r="AG300" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="AH300" s="19">
+        <f t="shared" si="20"/>
+        <v>25.674220533445606</v>
+      </c>
+      <c r="AI300" s="19">
+        <f t="shared" si="21"/>
+        <v>13.174977970680043</v>
+      </c>
+      <c r="AJ300" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK300" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL300" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM300" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF300-$AK300)^2+($AG300-$AL300)^2))</f>
+        <v>25.238858928247925</v>
+      </c>
+      <c r="AN300" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO300" s="13"/>
+      <c r="AP300" s="13"/>
+      <c r="AQ300" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR300" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS300" s="13">
+        <v>9</v>
+      </c>
+      <c r="AT300" s="13">
+        <v>16</v>
+      </c>
+      <c r="AU300" s="19">
+        <f t="shared" si="23"/>
+        <v>9.013878188659973</v>
+      </c>
+    </row>
+    <row r="301" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A301" s="3">
+        <v>13</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C301" s="17" t="str">
+        <f>IF($A301="","",IF(VLOOKUP($A301,Spiele!$A$2:$D$15,3,FALSE)=$B301,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D301" s="17" t="str">
+        <f>IF($B301="","",IF(VLOOKUP($A301,Spiele!$A$2:$F$15,3,FALSE)=$B301,VLOOKUP($A301,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A301,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E301" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A301,$A301,$B$2:$B301,$B301,$L$2:$L301,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F301" s="11">
+        <v>61</v>
+      </c>
+      <c r="G301" s="12">
+        <v>2</v>
+      </c>
+      <c r="H301" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A301,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B301,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F301,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G301)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A301,'Rote Karten'!$D$2:$D$4,$B301,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F301,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G301)</f>
+        <v>0</v>
+      </c>
+      <c r="I301" s="17" t="str">
+        <f>IF(OR($L301="Tor",$L301="ET"),_xlfn.IFNA(IF(VLOOKUP($A301,Spiele!$A$2:$C$15,3,FALSE)=$B301,COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,$B301,$A$2:$A301,$A301)&amp;":"&amp;COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301),COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)&amp;":"&amp;COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,$B301,$A$2:$A301,$A301)),""),"")</f>
+        <v>1:1</v>
+      </c>
+      <c r="J301" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A301,Spiele!$A$2:$D$15,3,FALSE)=$B301,(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,$B301,$A$1:$A300,$A301))-(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)),(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,$B301,$A$1:$A300,$A301))-(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K301" s="3">
+        <v>20</v>
+      </c>
+      <c r="L301" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O301" s="17"/>
+      <c r="AA301" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB301" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC301" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD301" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE301" s="18"/>
+      <c r="AF301" s="13">
+        <v>-8.5</v>
+      </c>
+      <c r="AG301" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH301" s="19">
+        <f t="shared" si="20"/>
+        <v>8.5103231431009725</v>
+      </c>
+      <c r="AI301" s="19">
+        <f t="shared" si="21"/>
+        <v>25.411688271902904</v>
+      </c>
+      <c r="AJ301" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK301" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AL301" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM301" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF301-$AK301)^2+($AG301-$AL301)^2))</f>
+        <v>8.5146931829632013</v>
+      </c>
+      <c r="AN301" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO301" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP301" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AQ301" s="19">
+        <f t="shared" si="22"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AR301" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU301" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A302" s="3">
+        <v>13</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C302" s="17" t="str">
+        <f>IF($A302="","",IF(VLOOKUP($A302,Spiele!$A$2:$D$15,3,FALSE)=$B302,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D302" s="17" t="str">
+        <f>IF($B302="","",IF(VLOOKUP($A302,Spiele!$A$2:$F$15,3,FALSE)=$B302,VLOOKUP($A302,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A302,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E302" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A302,$A302,$B$2:$B302,$B302,$L$2:$L302,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F302" s="11">
+        <v>65</v>
+      </c>
+      <c r="G302" s="12">
+        <v>2</v>
+      </c>
+      <c r="H302" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A302,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B302,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F302,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G302)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A302,'Rote Karten'!$D$2:$D$4,$B302,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F302,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G302)</f>
+        <v>0</v>
+      </c>
+      <c r="I302" s="17" t="str">
+        <f>IF(OR($L302="Tor",$L302="ET"),_xlfn.IFNA(IF(VLOOKUP($A302,Spiele!$A$2:$C$15,3,FALSE)=$B302,COUNTIFS($L$2:$L302,"Tor",$B$2:$B302,$B302,$A$2:$A302,$A302)+COUNTIFS($L$2:$L302,"ET",$B$2:$B302,$B302,$A$2:$A302,$A302)&amp;":"&amp;COUNTIFS($L$2:$L302,"Tor",$B$2:$B302,"&lt;&gt;"&amp;$B302,$A$2:$A302,$A302)+COUNTIFS($L$2:$L302,"ET",$B$2:$B302,"&lt;&gt;"&amp;$B302,$A$2:$A302,$A302),COUNTIFS($L$2:$L302,"Tor",$B$2:$B302,"&lt;&gt;"&amp;$B302,$A$2:$A302,$A302)+COUNTIFS($L$2:$L302,"ET",$B$2:$B302,"&lt;&gt;"&amp;$B302,$A$2:$A302,$A302)&amp;":"&amp;COUNTIFS($L$2:$L302,"Tor",$B$2:$B302,$B302,$A$2:$A302,$A302)+COUNTIFS($L$2:$L302,"ET",$B$2:$B302,$B302,$A$2:$A302,$A302)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J302" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A302,Spiele!$A$2:$D$15,3,FALSE)=$B302,(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,$B302,$A$1:$A301,$A302))-(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)),(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,$B302,$A$1:$A301,$A302))-(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K302" s="3">
+        <v>21</v>
+      </c>
+      <c r="L302" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O302" s="17"/>
+      <c r="AA302" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB302" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC302" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD302" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE302" s="18"/>
+      <c r="AF302" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG302" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH302" s="19">
+        <f t="shared" si="20"/>
+        <v>11.032026105842935</v>
+      </c>
+      <c r="AI302" s="19">
+        <f t="shared" si="21"/>
+        <v>32.201857009576806</v>
+      </c>
+      <c r="AJ302" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK302" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL302" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM302" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF302-$AK302)^2+($AG302-$AL302)^2))</f>
+        <v>11.067971810589327</v>
+      </c>
+      <c r="AN302" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO302" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AP302" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ302" s="19">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AR302" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS302" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT302" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU302" s="19">
+        <f t="shared" si="23"/>
+        <v>5.5226805085936306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A303" s="3">
+        <v>13</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="17" t="str">
+        <f>IF($A303="","",IF(VLOOKUP($A303,Spiele!$A$2:$D$15,3,FALSE)=$B303,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D303" s="17" t="str">
+        <f>IF($B303="","",IF(VLOOKUP($A303,Spiele!$A$2:$F$15,3,FALSE)=$B303,VLOOKUP($A303,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A303,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E303" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A303,$A303,$B$2:$B303,$B303,$L$2:$L303,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F303" s="11">
+        <v>68</v>
+      </c>
+      <c r="G303" s="12">
+        <v>2</v>
+      </c>
+      <c r="H303" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A303,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B303,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F303,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G303)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A303,'Rote Karten'!$D$2:$D$4,$B303,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F303,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G303)</f>
+        <v>0</v>
+      </c>
+      <c r="I303" s="17" t="str">
+        <f>IF(OR($L303="Tor",$L303="ET"),_xlfn.IFNA(IF(VLOOKUP($A303,Spiele!$A$2:$C$15,3,FALSE)=$B303,COUNTIFS($L$2:$L303,"Tor",$B$2:$B303,$B303,$A$2:$A303,$A303)+COUNTIFS($L$2:$L303,"ET",$B$2:$B303,$B303,$A$2:$A303,$A303)&amp;":"&amp;COUNTIFS($L$2:$L303,"Tor",$B$2:$B303,"&lt;&gt;"&amp;$B303,$A$2:$A303,$A303)+COUNTIFS($L$2:$L303,"ET",$B$2:$B303,"&lt;&gt;"&amp;$B303,$A$2:$A303,$A303),COUNTIFS($L$2:$L303,"Tor",$B$2:$B303,"&lt;&gt;"&amp;$B303,$A$2:$A303,$A303)+COUNTIFS($L$2:$L303,"ET",$B$2:$B303,"&lt;&gt;"&amp;$B303,$A$2:$A303,$A303)&amp;":"&amp;COUNTIFS($L$2:$L303,"Tor",$B$2:$B303,$B303,$A$2:$A303,$A303)+COUNTIFS($L$2:$L303,"ET",$B$2:$B303,$B303,$A$2:$A303,$A303)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J303" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A303,Spiele!$A$2:$D$15,3,FALSE)=$B303,(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,$B303,$A$1:$A302,$A303))-(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)),(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,$B303,$A$1:$A302,$A303))-(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K303" s="3">
+        <v>22</v>
+      </c>
+      <c r="L303" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N303" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O303" s="17">
+        <v>8</v>
+      </c>
+      <c r="P303" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q303" s="2">
+        <v>8</v>
+      </c>
+      <c r="R303" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA303" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB303" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC303" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD303" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE303" s="18">
+        <v>16</v>
+      </c>
+      <c r="AF303" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AG303" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH303" s="19">
+        <f t="shared" si="20"/>
+        <v>4.4029081298614443</v>
+      </c>
+      <c r="AI303" s="19">
+        <f t="shared" si="21"/>
+        <v>41.707579601485392</v>
+      </c>
+      <c r="AJ303" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK303" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL303" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM303" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF303-$AK303)^2+($AG303-$AL303)^2))</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AN303" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO303" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AP303" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AQ303" s="19">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR303" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS303" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AT303" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AU303" s="19">
+        <f t="shared" si="23"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A304" s="3">
+        <v>13</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="17" t="str">
+        <f>IF($A304="","",IF(VLOOKUP($A304,Spiele!$A$2:$D$15,3,FALSE)=$B304,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D304" s="17" t="str">
+        <f>IF($B304="","",IF(VLOOKUP($A304,Spiele!$A$2:$F$15,3,FALSE)=$B304,VLOOKUP($A304,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A304,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E304" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A304,$A304,$B$2:$B304,$B304,$L$2:$L304,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F304" s="11">
+        <v>71</v>
+      </c>
+      <c r="G304" s="12">
+        <v>2</v>
+      </c>
+      <c r="H304" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A304,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B304,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F304,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G304)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A304,'Rote Karten'!$D$2:$D$4,$B304,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F304,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G304)</f>
+        <v>0</v>
+      </c>
+      <c r="I304" s="17" t="str">
+        <f>IF(OR($L304="Tor",$L304="ET"),_xlfn.IFNA(IF(VLOOKUP($A304,Spiele!$A$2:$C$15,3,FALSE)=$B304,COUNTIFS($L$2:$L304,"Tor",$B$2:$B304,$B304,$A$2:$A304,$A304)+COUNTIFS($L$2:$L304,"ET",$B$2:$B304,$B304,$A$2:$A304,$A304)&amp;":"&amp;COUNTIFS($L$2:$L304,"Tor",$B$2:$B304,"&lt;&gt;"&amp;$B304,$A$2:$A304,$A304)+COUNTIFS($L$2:$L304,"ET",$B$2:$B304,"&lt;&gt;"&amp;$B304,$A$2:$A304,$A304),COUNTIFS($L$2:$L304,"Tor",$B$2:$B304,"&lt;&gt;"&amp;$B304,$A$2:$A304,$A304)+COUNTIFS($L$2:$L304,"ET",$B$2:$B304,"&lt;&gt;"&amp;$B304,$A$2:$A304,$A304)&amp;":"&amp;COUNTIFS($L$2:$L304,"Tor",$B$2:$B304,$B304,$A$2:$A304,$A304)+COUNTIFS($L$2:$L304,"ET",$B$2:$B304,$B304,$A$2:$A304,$A304)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J304" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A304,Spiele!$A$2:$D$15,3,FALSE)=$B304,(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,$B304,$A$1:$A303,$A304))-(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)),(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,$B304,$A$1:$A303,$A304))-(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K304" s="3">
+        <v>23</v>
+      </c>
+      <c r="L304" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N304" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O304" s="17">
+        <v>7</v>
+      </c>
+      <c r="P304" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q304" s="2">
+        <v>8</v>
+      </c>
+      <c r="R304" s="2">
+        <v>7</v>
+      </c>
+      <c r="S304" s="2">
+        <v>23</v>
+      </c>
+      <c r="T304" s="2">
+        <v>6</v>
+      </c>
+      <c r="U304" s="2">
+        <v>5</v>
+      </c>
+      <c r="V304" s="2">
+        <v>16</v>
+      </c>
+      <c r="W304" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA304" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB304" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC304" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD304" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE304" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF304" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AG304" s="13">
+        <v>15</v>
+      </c>
+      <c r="AH304" s="19">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AI304" s="19">
+        <f t="shared" si="21"/>
+        <v>26.748394088035369</v>
+      </c>
+      <c r="AJ304" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK304" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL304" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM304" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF304-$AK304)^2+($AG304-$AL304)^2))</f>
+        <v>11.76860229593982</v>
+      </c>
+      <c r="AN304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO304" s="13"/>
+      <c r="AP304" s="13"/>
+      <c r="AQ304" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR304" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS304" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AT304" s="13">
+        <v>11</v>
+      </c>
+      <c r="AU304" s="19">
+        <f t="shared" si="23"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="305" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A305" s="3">
+        <v>13</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="17" t="str">
+        <f>IF($A305="","",IF(VLOOKUP($A305,Spiele!$A$2:$D$15,3,FALSE)=$B305,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D305" s="17" t="str">
+        <f>IF($B305="","",IF(VLOOKUP($A305,Spiele!$A$2:$F$15,3,FALSE)=$B305,VLOOKUP($A305,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A305,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E305" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A305,$A305,$B$2:$B305,$B305,$L$2:$L305,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F305" s="11">
+        <v>73</v>
+      </c>
+      <c r="G305" s="12">
+        <v>2</v>
+      </c>
+      <c r="H305" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A305,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B305,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F305,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G305)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A305,'Rote Karten'!$D$2:$D$4,$B305,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F305,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G305)</f>
+        <v>0</v>
+      </c>
+      <c r="I305" s="17" t="str">
+        <f>IF(OR($L305="Tor",$L305="ET"),_xlfn.IFNA(IF(VLOOKUP($A305,Spiele!$A$2:$C$15,3,FALSE)=$B305,COUNTIFS($L$2:$L305,"Tor",$B$2:$B305,$B305,$A$2:$A305,$A305)+COUNTIFS($L$2:$L305,"ET",$B$2:$B305,$B305,$A$2:$A305,$A305)&amp;":"&amp;COUNTIFS($L$2:$L305,"Tor",$B$2:$B305,"&lt;&gt;"&amp;$B305,$A$2:$A305,$A305)+COUNTIFS($L$2:$L305,"ET",$B$2:$B305,"&lt;&gt;"&amp;$B305,$A$2:$A305,$A305),COUNTIFS($L$2:$L305,"Tor",$B$2:$B305,"&lt;&gt;"&amp;$B305,$A$2:$A305,$A305)+COUNTIFS($L$2:$L305,"ET",$B$2:$B305,"&lt;&gt;"&amp;$B305,$A$2:$A305,$A305)&amp;":"&amp;COUNTIFS($L$2:$L305,"Tor",$B$2:$B305,$B305,$A$2:$A305,$A305)+COUNTIFS($L$2:$L305,"ET",$B$2:$B305,$B305,$A$2:$A305,$A305)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J305" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A305,Spiele!$A$2:$D$15,3,FALSE)=$B305,(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,$B305,$A$1:$A304,$A305))-(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)),(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,$B305,$A$1:$A304,$A305))-(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K305" s="3">
+        <v>24</v>
+      </c>
+      <c r="L305" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O305" s="17">
+        <v>18</v>
+      </c>
+      <c r="P305" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA305" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB305" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC305" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD305" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE305" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF305" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG305" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH305" s="19">
+        <f t="shared" si="20"/>
+        <v>19.211340400919454</v>
+      </c>
+      <c r="AI305" s="19">
+        <f t="shared" si="21"/>
+        <v>15.312989252529659</v>
+      </c>
+      <c r="AJ305" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK305" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL305" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM305" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF305-$AK305)^2+($AG305-$AL305)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AN305" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO305" s="13">
+        <v>-12.5</v>
+      </c>
+      <c r="AP305" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AQ305" s="19">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU305" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A306" s="3">
+        <v>13</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="17" t="str">
+        <f>IF($A306="","",IF(VLOOKUP($A306,Spiele!$A$2:$D$15,3,FALSE)=$B306,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D306" s="17" t="str">
+        <f>IF($B306="","",IF(VLOOKUP($A306,Spiele!$A$2:$F$15,3,FALSE)=$B306,VLOOKUP($A306,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A306,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E306" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A306,$A306,$B$2:$B306,$B306,$L$2:$L306,"&lt;&gt;ET"))</f>
+        <v>15</v>
+      </c>
+      <c r="F306" s="11">
+        <v>77</v>
+      </c>
+      <c r="G306" s="12">
+        <v>2</v>
+      </c>
+      <c r="H306" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A306,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B306,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F306,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G306)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A306,'Rote Karten'!$D$2:$D$4,$B306,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F306,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G306)</f>
+        <v>0</v>
+      </c>
+      <c r="I306" s="17" t="str">
+        <f>IF(OR($L306="Tor",$L306="ET"),_xlfn.IFNA(IF(VLOOKUP($A306,Spiele!$A$2:$C$15,3,FALSE)=$B306,COUNTIFS($L$2:$L306,"Tor",$B$2:$B306,$B306,$A$2:$A306,$A306)+COUNTIFS($L$2:$L306,"ET",$B$2:$B306,$B306,$A$2:$A306,$A306)&amp;":"&amp;COUNTIFS($L$2:$L306,"Tor",$B$2:$B306,"&lt;&gt;"&amp;$B306,$A$2:$A306,$A306)+COUNTIFS($L$2:$L306,"ET",$B$2:$B306,"&lt;&gt;"&amp;$B306,$A$2:$A306,$A306),COUNTIFS($L$2:$L306,"Tor",$B$2:$B306,"&lt;&gt;"&amp;$B306,$A$2:$A306,$A306)+COUNTIFS($L$2:$L306,"ET",$B$2:$B306,"&lt;&gt;"&amp;$B306,$A$2:$A306,$A306)&amp;":"&amp;COUNTIFS($L$2:$L306,"Tor",$B$2:$B306,$B306,$A$2:$A306,$A306)+COUNTIFS($L$2:$L306,"ET",$B$2:$B306,$B306,$A$2:$A306,$A306)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J306" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A306,Spiele!$A$2:$D$15,3,FALSE)=$B306,(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,$B306,$A$1:$A305,$A306))-(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)),(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,$B306,$A$1:$A305,$A306))-(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K306" s="3">
+        <v>25</v>
+      </c>
+      <c r="L306" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M306" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O306" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA306" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB306" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC306" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD306" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE306" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF306" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AG306" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH306" s="19">
+        <f t="shared" si="20"/>
+        <v>17.7060893480181</v>
+      </c>
+      <c r="AI306" s="19">
+        <f t="shared" si="21"/>
+        <v>14.620361026676797</v>
+      </c>
+      <c r="AJ306" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK306" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AL306" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM306" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF306-$AK306)^2+($AG306-$AL306)^2))</f>
+        <v>17.327723451163457</v>
+      </c>
+      <c r="AN306" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO306" s="13">
+        <v>14</v>
+      </c>
+      <c r="AP306" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ306" s="19">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR306" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS306" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AT306" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU306" s="19">
+        <f t="shared" si="23"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="307" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A307" s="3">
+        <v>13</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C307" s="17" t="str">
+        <f>IF($A307="","",IF(VLOOKUP($A307,Spiele!$A$2:$D$15,3,FALSE)=$B307,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D307" s="17" t="str">
+        <f>IF($B307="","",IF(VLOOKUP($A307,Spiele!$A$2:$F$15,3,FALSE)=$B307,VLOOKUP($A307,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A307,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E307" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A307,$A307,$B$2:$B307,$B307,$L$2:$L307,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F307" s="11">
+        <v>83</v>
+      </c>
+      <c r="G307" s="12">
+        <v>2</v>
+      </c>
+      <c r="H307" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A307,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B307,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F307,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G307)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A307,'Rote Karten'!$D$2:$D$4,$B307,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F307,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G307)</f>
+        <v>0</v>
+      </c>
+      <c r="I307" s="17" t="str">
+        <f>IF(OR($L307="Tor",$L307="ET"),_xlfn.IFNA(IF(VLOOKUP($A307,Spiele!$A$2:$C$15,3,FALSE)=$B307,COUNTIFS($L$2:$L307,"Tor",$B$2:$B307,$B307,$A$2:$A307,$A307)+COUNTIFS($L$2:$L307,"ET",$B$2:$B307,$B307,$A$2:$A307,$A307)&amp;":"&amp;COUNTIFS($L$2:$L307,"Tor",$B$2:$B307,"&lt;&gt;"&amp;$B307,$A$2:$A307,$A307)+COUNTIFS($L$2:$L307,"ET",$B$2:$B307,"&lt;&gt;"&amp;$B307,$A$2:$A307,$A307),COUNTIFS($L$2:$L307,"Tor",$B$2:$B307,"&lt;&gt;"&amp;$B307,$A$2:$A307,$A307)+COUNTIFS($L$2:$L307,"ET",$B$2:$B307,"&lt;&gt;"&amp;$B307,$A$2:$A307,$A307)&amp;":"&amp;COUNTIFS($L$2:$L307,"Tor",$B$2:$B307,$B307,$A$2:$A307,$A307)+COUNTIFS($L$2:$L307,"ET",$B$2:$B307,$B307,$A$2:$A307,$A307)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J307" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A307,Spiele!$A$2:$D$15,3,FALSE)=$B307,(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,$B307,$A$1:$A306,$A307))-(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)),(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,$B307,$A$1:$A306,$A307))-(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K307" s="3">
+        <v>26</v>
+      </c>
+      <c r="L307" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M307" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O307" s="17"/>
+      <c r="AA307" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB307" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC307" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD307" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE307" s="18"/>
+      <c r="AF307" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AG307" s="13">
+        <v>18</v>
+      </c>
+      <c r="AH307" s="19">
+        <f t="shared" si="20"/>
+        <v>19.838235808660002</v>
+      </c>
+      <c r="AI307" s="19">
+        <f t="shared" si="21"/>
+        <v>16.163407255354326</v>
+      </c>
+      <c r="AJ307" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK307" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL307" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM307" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF307-$AK307)^2+($AG307-$AL307)^2))</f>
         <v>18.721645226849056</v>
       </c>
-      <c r="AN282" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO282" s="13">
+      <c r="AN307" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO307" s="13">
         <v>-10.5</v>
       </c>
-      <c r="AP282" s="13">
+      <c r="AP307" s="13">
         <v>21</v>
       </c>
-      <c r="AQ282" s="19">
-        <f t="shared" si="18"/>
+      <c r="AQ307" s="19">
+        <f t="shared" si="22"/>
         <v>3.3541019662496847</v>
       </c>
-      <c r="AR282" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU282" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:47" ht="25.05" customHeight="1">
-      <c r="AC284" s="14"/>
-      <c r="AD284" s="14"/>
+      <c r="AR307" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU307" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:47" ht="25.05" customHeight="1">
+      <c r="AC309" s="14"/>
+      <c r="AD309" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E282">
+  <conditionalFormatting sqref="A2:E307">
     <cfRule type="expression" dxfId="40" priority="127">
       <formula>$C2="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K282 M2:M282 AC2:AD282 AF2:AG282 AJ2:AL282 AN2:AN282 AR2:AR282">
+  <conditionalFormatting sqref="K2:K307 M2:M307 AC2:AD307 AF2:AG307 AJ2:AL307 AN2:AN307 AR2:AR307">
     <cfRule type="cellIs" dxfId="39" priority="47" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:M282 AA2:AG282 AJ2:AL282 AN2:AN282 AR2:AR282">
+  <conditionalFormatting sqref="K2:M307 AA2:AG307 AJ2:AL307 AN2:AN307 AR2:AR307">
     <cfRule type="expression" dxfId="38" priority="50">
       <formula>$F2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L282 AB2:AB282 AE2:AE282">
+  <conditionalFormatting sqref="L2:L307 AB2:AB307 AE2:AE307">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M285">
+  <conditionalFormatting sqref="M310">
     <cfRule type="cellIs" dxfId="36" priority="122" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="123">
-      <formula>$F285&lt;&gt;""</formula>
+      <formula>$F310&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AU1048576">
@@ -42448,7 +45413,7 @@
       <formula>$L2="ET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N282">
+  <conditionalFormatting sqref="N2:N307">
     <cfRule type="cellIs" dxfId="33" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -42480,41 +45445,41 @@
       <formula>$M2="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N285:Z285">
+  <conditionalFormatting sqref="N310:Z310">
     <cfRule type="expression" dxfId="23" priority="105">
-      <formula>$M285="nEW"</formula>
+      <formula>$M310="nEW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="106">
-      <formula>$M285="EW"</formula>
+      <formula>$M310="EW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="107">
-      <formula>$M285="n11M"</formula>
+      <formula>$M310="n11M"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="108">
-      <formula>$M285="nFS"</formula>
+      <formula>$M310="nFS"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="109">
-      <formula>$M285="nE"</formula>
+      <formula>$M310="nE"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="110">
-      <formula>$M285="FSF"</formula>
+      <formula>$M310="FSF"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="111">
-      <formula>$M285="E"</formula>
+      <formula>$M310="E"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="112">
-      <formula>$M285="USO"</formula>
+      <formula>$M310="USO"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="124">
-      <formula>$M285="EB"</formula>
+      <formula>$M310="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N285:AA285">
+  <conditionalFormatting sqref="N310:AA310">
     <cfRule type="cellIs" dxfId="14" priority="104" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA282">
+  <conditionalFormatting sqref="AA2:AA307">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -42522,23 +45487,23 @@
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA285">
+  <conditionalFormatting sqref="AA310">
     <cfRule type="expression" dxfId="11" priority="125">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC284:AD284">
+  <conditionalFormatting sqref="AC309:AD309">
     <cfRule type="expression" dxfId="10" priority="100">
-      <formula>$L284="ET"</formula>
+      <formula>$L309="ET"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="101" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="102">
-      <formula>$F284&lt;&gt;""</formula>
+      <formula>$F309&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE282">
+  <conditionalFormatting sqref="AE2:AE307">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($L2="ET", $D2="FCN")</formula>
     </cfRule>
@@ -42546,12 +45511,12 @@
       <formula>$B2&lt;&gt;"FCN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL282">
+  <conditionalFormatting sqref="AK2:AL307">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>$AJ2="niT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP282">
+  <conditionalFormatting sqref="AO2:AP307">
     <cfRule type="cellIs" dxfId="4" priority="18" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -42559,7 +45524,7 @@
       <formula>$AN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AT282">
+  <conditionalFormatting sqref="AS2:AT307">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/xG_U16_Anwendung.xlsx
+++ b/xG_U16_Anwendung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benedikt\4_FCN\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FEECF-FA0B-4CD7-9121-4836936B3A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C850B1-0349-4165-B1A3-8CA49E360EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="188">
   <si>
     <t>Tor</t>
   </si>
@@ -3392,10 +3392,10 @@
     <tableColumn id="7" xr3:uid="{1F4B0B22-113B-4B13-B735-0BBD579317AF}" name="1. HZ" dataDxfId="124"/>
     <tableColumn id="8" xr3:uid="{12077EEE-5CEB-4092-B79D-C908B22B2779}" name="2. HZ" dataDxfId="123"/>
     <tableColumn id="13" xr3:uid="{9623CA39-28F7-4980-A88A-3573C5D164D8}" name="TH" dataDxfId="122">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$C2,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$C2,Abschlüsse!$L$2:$L$340,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{C91559F3-290E-4254-BCA6-0153E99BEA95}" name="TG" dataDxfId="121">
-      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"ET"))</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$D2,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$D2,Abschlüsse!$L$2:$L$340,"ET"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{20A97A80-E72B-4108-88BD-336F6FD51B46}" name="PH" dataDxfId="120">
       <calculatedColumnFormula>IF($A2="","",IF($G2&gt;$H2,3,IF($G2=$H2,1,IF($G2&lt;$H2,0,""))))</calculatedColumnFormula>
@@ -3437,8 +3437,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU307" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
-  <autoFilter ref="A1:AU307" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}" name="Abschlüsse" displayName="Abschlüsse" ref="A1:AU340" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:AU340" xr:uid="{3C2ACF92-1699-403D-A98C-81F228F02BD5}"/>
   <tableColumns count="47">
     <tableColumn id="3" xr3:uid="{0676AC04-BF24-449C-85E1-9A2476826D3A}" name="SID" dataDxfId="101"/>
     <tableColumn id="4" xr3:uid="{115800A1-176E-47B9-8A68-56625F9DD647}" name="TID" dataDxfId="100"/>
@@ -3875,11 +3875,11 @@
         <v>40</v>
       </c>
       <c r="G2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$C2,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$C2,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$C2,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H2" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A2,Abschlüsse!$B$2:$B$307,$D2,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$D2,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A2,Abschlüsse!$B$2:$B$340,$D2,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I2" s="18">
@@ -3911,11 +3911,11 @@
         <v>43</v>
       </c>
       <c r="G3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$C3,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$C3,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A3,Abschlüsse!$B$2:$B$340,$C3,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A3,Abschlüsse!$B$2:$B$340,$C3,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$D3,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A3,Abschlüsse!$B$2:$B$307,$D3,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A3,Abschlüsse!$B$2:$B$340,$D3,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A3,Abschlüsse!$B$2:$B$340,$D3,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I3" s="18">
@@ -3947,11 +3947,11 @@
         <v>40</v>
       </c>
       <c r="G4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$C4,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$C4,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A4,Abschlüsse!$B$2:$B$340,$C4,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A4,Abschlüsse!$B$2:$B$340,$C4,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H4" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$D4,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A4,Abschlüsse!$B$2:$B$307,$D4,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A4,Abschlüsse!$B$2:$B$340,$D4,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A4,Abschlüsse!$B$2:$B$340,$D4,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I4" s="18">
@@ -3983,11 +3983,11 @@
         <v>43</v>
       </c>
       <c r="G5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$C5,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$C5,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A5,Abschlüsse!$B$2:$B$340,$C5,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A5,Abschlüsse!$B$2:$B$340,$C5,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H5" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$D5,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A5,Abschlüsse!$B$2:$B$307,$D5,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A5,Abschlüsse!$B$2:$B$340,$D5,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A5,Abschlüsse!$B$2:$B$340,$D5,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I5" s="18">
@@ -4019,11 +4019,11 @@
         <v>42</v>
       </c>
       <c r="G6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$C6,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$C6,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A6,Abschlüsse!$B$2:$B$340,$C6,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A6,Abschlüsse!$B$2:$B$340,$C6,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H6" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$D6,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A6,Abschlüsse!$B$2:$B$307,$D6,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A6,Abschlüsse!$B$2:$B$340,$D6,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A6,Abschlüsse!$B$2:$B$340,$D6,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I6" s="18">
@@ -4055,11 +4055,11 @@
         <v>45</v>
       </c>
       <c r="G7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$C7,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$C7,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A7,Abschlüsse!$B$2:$B$340,$C7,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A7,Abschlüsse!$B$2:$B$340,$C7,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>4</v>
       </c>
       <c r="H7" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$D7,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A7,Abschlüsse!$B$2:$B$307,$D7,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A7,Abschlüsse!$B$2:$B$340,$D7,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A7,Abschlüsse!$B$2:$B$340,$D7,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I7" s="18">
@@ -4091,11 +4091,11 @@
         <v>45</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$C8,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$C8,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A8,Abschlüsse!$B$2:$B$340,$C8,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A8,Abschlüsse!$B$2:$B$340,$C8,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H8" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$D8,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A8,Abschlüsse!$B$2:$B$307,$D8,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A8,Abschlüsse!$B$2:$B$340,$D8,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A8,Abschlüsse!$B$2:$B$340,$D8,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I8" s="18">
@@ -4127,11 +4127,11 @@
         <v>46</v>
       </c>
       <c r="G9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$C9,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$C9,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A9,Abschlüsse!$B$2:$B$340,$C9,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A9,Abschlüsse!$B$2:$B$340,$C9,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H9" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$D9,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A9,Abschlüsse!$B$2:$B$307,$D9,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A9,Abschlüsse!$B$2:$B$340,$D9,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A9,Abschlüsse!$B$2:$B$340,$D9,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>3</v>
       </c>
       <c r="I9" s="18">
@@ -4163,11 +4163,11 @@
         <v>44</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$C10,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$C10,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A10,Abschlüsse!$B$2:$B$340,$C10,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A10,Abschlüsse!$B$2:$B$340,$C10,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$D10,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A10,Abschlüsse!$B$2:$B$307,$D10,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A10,Abschlüsse!$B$2:$B$340,$D10,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A10,Abschlüsse!$B$2:$B$340,$D10,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>4</v>
       </c>
       <c r="I10" s="18">
@@ -4199,11 +4199,11 @@
         <v>44</v>
       </c>
       <c r="G11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$C11,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$C11,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A11,Abschlüsse!$B$2:$B$340,$C11,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A11,Abschlüsse!$B$2:$B$340,$C11,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="H11" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$D11,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A11,Abschlüsse!$B$2:$B$307,$D11,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A11,Abschlüsse!$B$2:$B$340,$D11,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A11,Abschlüsse!$B$2:$B$340,$D11,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>2</v>
       </c>
       <c r="I11" s="18">
@@ -4235,12 +4235,12 @@
         <v>46</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$C12,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$C12,Abschlüsse!$L$2:$L$307,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A12,Abschlüsse!$B$2:$B$340,$C12,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A12,Abschlüsse!$B$2:$B$340,$C12,Abschlüsse!$L$2:$L$340,"ET"))</f>
+        <v>3</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$D12,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A12,Abschlüsse!$B$2:$B$307,$D12,Abschlüsse!$L$2:$L$307,"ET"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A12,Abschlüsse!$B$2:$B$340,$D12,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A12,Abschlüsse!$B$2:$B$340,$D12,Abschlüsse!$L$2:$L$340,"ET"))</f>
+        <v>3</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="0"/>
@@ -4271,11 +4271,11 @@
         <v>45</v>
       </c>
       <c r="G13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$C13,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$C13,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A13,Abschlüsse!$B$2:$B$340,$C13,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A13,Abschlüsse!$B$2:$B$340,$C13,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$D13,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A13,Abschlüsse!$B$2:$B$307,$D13,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A13,Abschlüsse!$B$2:$B$340,$D13,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A13,Abschlüsse!$B$2:$B$340,$D13,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I13" s="18">
@@ -4307,11 +4307,11 @@
         <v>44</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$C14,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$C14,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A14,Abschlüsse!$B$2:$B$340,$C14,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A14,Abschlüsse!$B$2:$B$340,$C14,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>1</v>
       </c>
       <c r="H14" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$D14,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A14,Abschlüsse!$B$2:$B$307,$D14,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A14,Abschlüsse!$B$2:$B$340,$D14,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A14,Abschlüsse!$B$2:$B$340,$D14,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>1</v>
       </c>
       <c r="I14" s="18">
@@ -4343,11 +4343,11 @@
         <v>45</v>
       </c>
       <c r="G15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$C15,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$C15,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A15,Abschlüsse!$B$2:$B$340,$C15,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A15,Abschlüsse!$B$2:$B$340,$C15,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$D15,Abschlüsse!$L$2:$L$307,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$307,$A15,Abschlüsse!$B$2:$B$307,$D15,Abschlüsse!$L$2:$L$307,"ET"))</f>
+        <f>SUM(COUNTIFS(Abschlüsse!$A$2:$A$340,$A15,Abschlüsse!$B$2:$B$340,$D15,Abschlüsse!$L$2:$L$340,"Tor"),COUNTIFS(Abschlüsse!$A$2:$A$340,$A15,Abschlüsse!$B$2:$B$340,$D15,Abschlüsse!$L$2:$L$340,"ET"))</f>
         <v>0</v>
       </c>
       <c r="I15" s="18">
@@ -9178,7 +9178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV309"/>
+  <dimension ref="A1:AV342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -39558,11 +39558,11 @@
         <v>0.5</v>
       </c>
       <c r="AH258" s="19">
-        <f t="shared" ref="AH258:AH278" si="16">IF($L258="ET","",IF($AF258&gt;3.66,SQRT($AG258^2+($AF258-(7.32/2))^2),IF($AF258&lt;-3.66,SQRT($AG258^2+($AF258+(7.32/2))^2),$AG258)))</f>
+        <f t="shared" ref="AH258:AH311" si="16">IF($L258="ET","",IF($AF258&gt;3.66,SQRT($AG258^2+($AF258-(7.32/2))^2),IF($AF258&lt;-3.66,SQRT($AG258^2+($AF258+(7.32/2))^2),$AG258)))</f>
         <v>2.8836782067352797</v>
       </c>
       <c r="AI258" s="19">
-        <f t="shared" ref="AI258:AI278" si="17">IF($L258="ET","",IF(DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))))</f>
+        <f t="shared" ref="AI258:AI311" si="17">IF($L258="ET","",IF(DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG258)/($AG258^2+$AF258^2-(7.32/2)^2)))))</f>
         <v>7.1675590179856794</v>
       </c>
       <c r="AJ258" s="2" t="s">
@@ -41935,23 +41935,23 @@
         <v>6</v>
       </c>
       <c r="AQ278" s="19">
-        <f t="shared" ref="AQ278" si="18">IF(AN278=0,"",SQRT(($AF278-$AO278)^2+($AG278-$AP278)^2))</f>
+        <f t="shared" ref="AQ278:AQ311" si="18">IF(AN278=0,"",SQRT(($AF278-$AO278)^2+($AG278-$AP278)^2))</f>
         <v>0.5</v>
       </c>
       <c r="AR278" s="3">
         <v>0</v>
       </c>
       <c r="AU278" s="19" t="str">
-        <f t="shared" ref="AU278" si="19">IF(AR278=0,"",SQRT(($AF278-$AS278)^2+($AG278-$AT278)^2))</f>
+        <f t="shared" ref="AU278:AU311" si="19">IF(AR278=0,"",SQRT(($AF278-$AS278)^2+($AG278-$AT278)^2))</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:47" ht="25.05" customHeight="1">
       <c r="A279" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C279" s="17" t="str">
         <f>IF($A279="","",IF(VLOOKUP($A279,Spiele!$A$2:$D$15,3,FALSE)=$B279,"H","G"))</f>
@@ -41959,14 +41959,14 @@
       </c>
       <c r="D279" s="17" t="str">
         <f>IF($B279="","",IF(VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)=$B279,VLOOKUP($A279,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A279,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E279" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A279,$A279,$B$2:$B279,$B279,$L$2:$L279,"&lt;&gt;ET"))</f>
         <v>1</v>
       </c>
       <c r="F279" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G279" s="12">
         <v>1</v>
@@ -41986,93 +41986,88 @@
       <c r="K279" s="3">
         <v>1</v>
       </c>
-      <c r="L279" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M279" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N279" s="2" t="s">
-        <v>158</v>
+      <c r="L279" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="O279" s="17"/>
-      <c r="AA279" s="2" t="s">
+      <c r="AA279" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AB279" s="17" t="s">
-        <v>149</v>
+      <c r="AB279" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="AC279" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD279" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE279" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE279" s="18">
+        <v>16</v>
+      </c>
       <c r="AF279" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG279" s="13">
-        <v>17.5</v>
+        <v>45</v>
       </c>
       <c r="AH279" s="19">
-        <f t="shared" ref="AH279:AH307" si="20">IF($L279="ET","",IF($AF279&gt;3.66,SQRT($AG279^2+($AF279-(7.32/2))^2),IF($AF279&lt;-3.66,SQRT($AG279^2+($AF279+(7.32/2))^2),$AG279)))</f>
-        <v>17.5</v>
+        <f t="shared" si="16"/>
+        <v>45</v>
       </c>
       <c r="AI279" s="19">
-        <f t="shared" ref="AI279:AI307" si="21">IF($L279="ET","",IF(DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG279)/($AG279^2+$AF279^2-(7.32/2)^2)))))</f>
-        <v>23.341389828691302</v>
-      </c>
-      <c r="AJ279" s="2" t="s">
+        <f t="shared" si="17"/>
+        <v>9.2996434576928593</v>
+      </c>
+      <c r="AJ279" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK279" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AL279" s="13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AM279" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF279-$AK279)^2+($AG279-$AL279)^2))</f>
-        <v>17.066048165876012</v>
+        <v>43</v>
       </c>
       <c r="AN279" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO279" s="13">
-        <v>-2.5</v>
-      </c>
-      <c r="AP279" s="13">
-        <v>17</v>
-      </c>
-      <c r="AQ279" s="19">
-        <f t="shared" ref="AQ279:AQ307" si="22">IF(AN279=0,"",SQRT(($AF279-$AO279)^2+($AG279-$AP279)^2))</f>
-        <v>0.70710678118654757</v>
+        <v>0</v>
+      </c>
+      <c r="AO279" s="13"/>
+      <c r="AP279" s="13"/>
+      <c r="AQ279" s="19" t="str">
+        <f>IF(AN279=0,"",SQRT(($AF279-$AO279)^2+($AG279-$AP279)^2))</f>
+        <v/>
       </c>
       <c r="AR279" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS279" s="13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AT279" s="13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AU279" s="19">
-        <f t="shared" ref="AU279:AU307" si="23">IF(AR279=0,"",SQRT(($AF279-$AS279)^2+($AG279-$AT279)^2))</f>
-        <v>3.5</v>
+        <f>IF(AR279=0,"",SQRT(($AF279-$AS279)^2+($AG279-$AT279)^2))</f>
+        <v>13.038404810405298</v>
       </c>
     </row>
     <row r="280" spans="1:47" ht="25.05" customHeight="1">
       <c r="A280" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C280" s="17" t="str">
         <f>IF($A280="","",IF(VLOOKUP($A280,Spiele!$A$2:$D$15,3,FALSE)=$B280,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D280" s="17" t="str">
         <f>IF($B280="","",IF(VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)=$B280,VLOOKUP($A280,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A280,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -42080,10 +42075,10 @@
       </c>
       <c r="E280" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A280,$A280,$B$2:$B280,$B280,$L$2:$L280,"&lt;&gt;ET"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F280" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G280" s="12">
         <v>1</v>
@@ -42094,64 +42089,64 @@
       </c>
       <c r="I280" s="17" t="str">
         <f>IF(OR($L280="Tor",$L280="ET"),_xlfn.IFNA(IF(VLOOKUP($A280,Spiele!$A$2:$C$15,3,FALSE)=$B280,COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,$B280,$A$2:$A280,$A280)&amp;":"&amp;COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280),COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,"&lt;&gt;"&amp;$B280,$A$2:$A280,$A280)&amp;":"&amp;COUNTIFS($L$2:$L280,"Tor",$B$2:$B280,$B280,$A$2:$A280,$A280)+COUNTIFS($L$2:$L280,"ET",$B$2:$B280,$B280,$A$2:$A280,$A280)),""),"")</f>
-        <v/>
+        <v>1:0</v>
       </c>
       <c r="J280" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A280,Spiele!$A$2:$D$15,3,FALSE)=$B280,(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,$B280,$A$1:$A279,$A280))-(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)),(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,$B280,$A$1:$A279,$A280))-(COUNTIFS($L$1:$L279,"Tor",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280)+COUNTIFS($L$1:$L279,"ET",$B$1:$B279,"&lt;&gt;"&amp;$B280,$A$1:$A279,$A280))),"")</f>
         <v>0</v>
       </c>
       <c r="K280" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L280" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M280" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O280" s="17"/>
       <c r="AA280" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AB280" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC280" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD280" s="14" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AE280" s="18"/>
       <c r="AF280" s="13">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="AG280" s="13">
-        <v>15.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH280" s="19">
-        <f t="shared" si="20"/>
-        <v>17.601295406872758</v>
+        <f t="shared" si="16"/>
+        <v>6.5</v>
       </c>
       <c r="AI280" s="19">
-        <f t="shared" si="21"/>
-        <v>17.011080950867086</v>
+        <f t="shared" si="17"/>
+        <v>51.49442528658183</v>
       </c>
       <c r="AJ280" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AK280" s="13">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="AL280" s="13">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="AM280" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF280-$AK280)^2+($AG280-$AL280)^2))</f>
-        <v>17.613914953808536</v>
+        <v>1.1180339887498949</v>
       </c>
       <c r="AN280" s="3">
         <v>0</v>
@@ -42159,44 +42154,38 @@
       <c r="AO280" s="13"/>
       <c r="AP280" s="13"/>
       <c r="AQ280" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR280" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS280" s="13">
-        <v>-10.5</v>
-      </c>
-      <c r="AT280" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="AU280" s="19">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="AU280" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="281" spans="1:47" ht="25.05" customHeight="1">
       <c r="A281" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C281" s="17" t="str">
         <f>IF($A281="","",IF(VLOOKUP($A281,Spiele!$A$2:$D$15,3,FALSE)=$B281,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D281" s="17" t="str">
         <f>IF($B281="","",IF(VLOOKUP($A281,Spiele!$A$2:$F$15,3,FALSE)=$B281,VLOOKUP($A281,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A281,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E281" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A281,$A281,$B$2:$B281,$B281,$L$2:$L281,"&lt;&gt;ET"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F281" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G281" s="12">
         <v>1</v>
@@ -42211,31 +42200,34 @@
       </c>
       <c r="J281" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A281,Spiele!$A$2:$D$15,3,FALSE)=$B281,(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,$B281,$A$1:$A280,$A281))-(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)),(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,$B281,$A$1:$A280,$A281))-(COUNTIFS($L$1:$L280,"Tor",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281)+COUNTIFS($L$1:$L280,"ET",$B$1:$B280,"&lt;&gt;"&amp;$B281,$A$1:$A280,$A281))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K281" s="3">
-        <v>2</v>
-      </c>
-      <c r="L281" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L281" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M281" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O281" s="17">
         <v>8</v>
       </c>
-      <c r="AA281" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB281" s="17" t="s">
-        <v>143</v>
+      <c r="P281" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA281" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB281" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="AC281" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD281" s="14" t="s">
         <v>156</v>
@@ -42244,40 +42236,44 @@
         <v>9</v>
       </c>
       <c r="AF281" s="13">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="AG281" s="13">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AH281" s="19">
-        <f t="shared" si="20"/>
-        <v>11.5</v>
+        <f t="shared" si="16"/>
+        <v>7.0082522785641785</v>
       </c>
       <c r="AI281" s="19">
-        <f t="shared" si="21"/>
-        <v>32.703859314557576</v>
-      </c>
-      <c r="AJ281" s="2" t="s">
+        <f t="shared" si="17"/>
+        <v>44.796989484282662</v>
+      </c>
+      <c r="AJ281" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK281" s="13">
         <v>-1.5</v>
       </c>
       <c r="AL281" s="13">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM281" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF281-$AK281)^2+($AG281-$AL281)^2))</f>
-        <v>8.2462112512353212</v>
+        <v>6.9641941385920596</v>
       </c>
       <c r="AN281" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO281" s="13"/>
-      <c r="AP281" s="13"/>
-      <c r="AQ281" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO281" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AP281" s="13">
+        <v>8</v>
+      </c>
+      <c r="AQ281" s="19">
+        <f>IF(AN281=0,"",SQRT(($AF281-$AO281)^2+($AG281-$AP281)^2))</f>
+        <v>2.6925824035672519</v>
       </c>
       <c r="AR281" s="3">
         <v>1</v>
@@ -42286,23 +42282,23 @@
         <v>-3.5</v>
       </c>
       <c r="AT281" s="13">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AU281" s="19">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f>IF(AR281=0,"",SQRT(($AF281-$AS281)^2+($AG281-$AT281)^2))</f>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="282" spans="1:47" ht="25.05" customHeight="1">
       <c r="A282" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C282" s="17" t="str">
         <f>IF($A282="","",IF(VLOOKUP($A282,Spiele!$A$2:$D$15,3,FALSE)=$B282,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D282" s="17" t="str">
         <f>IF($B282="","",IF(VLOOKUP($A282,Spiele!$A$2:$F$15,3,FALSE)=$B282,VLOOKUP($A282,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A282,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -42310,10 +42306,10 @@
       </c>
       <c r="E282" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A282,$A282,$B$2:$B282,$B282,$L$2:$L282,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F282" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G282" s="12">
         <v>1</v>
@@ -42328,105 +42324,109 @@
       </c>
       <c r="J282" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A282,Spiele!$A$2:$D$15,3,FALSE)=$B282,(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,$B282,$A$1:$A281,$A282))-(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)),(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,$B282,$A$1:$A281,$A282))-(COUNTIFS($L$1:$L281,"Tor",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282)+COUNTIFS($L$1:$L281,"ET",$B$1:$B281,"&lt;&gt;"&amp;$B282,$A$1:$A281,$A282))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L282" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N282" s="2" t="s">
         <v>158</v>
       </c>
       <c r="O282" s="17"/>
       <c r="AA282" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB282" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC282" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD282" s="14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE282" s="18"/>
       <c r="AF282" s="13">
-        <v>-0.5</v>
+        <v>-6.5</v>
       </c>
       <c r="AG282" s="13">
         <v>15.5</v>
       </c>
       <c r="AH282" s="19">
-        <f t="shared" si="20"/>
-        <v>15.5</v>
+        <f t="shared" si="16"/>
+        <v>15.758032872157616</v>
       </c>
       <c r="AI282" s="19">
-        <f t="shared" si="21"/>
-        <v>26.546439371443093</v>
+        <f t="shared" si="17"/>
+        <v>22.861297769799275</v>
       </c>
       <c r="AJ282" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK282" s="13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AL282" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM282" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF282-$AK282)^2+($AG282-$AL282)^2))</f>
-        <v>15.033296378372908</v>
+        <v>15.508062419270823</v>
       </c>
       <c r="AN282" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO282" s="13"/>
-      <c r="AP282" s="13"/>
-      <c r="AQ282" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO282" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP282" s="13">
+        <v>16</v>
+      </c>
+      <c r="AQ282" s="19">
+        <f t="shared" si="18"/>
+        <v>2.5495097567963922</v>
       </c>
       <c r="AR282" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS282" s="13">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="AT282" s="13">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="AU282" s="19">
-        <f t="shared" si="23"/>
-        <v>6.0207972893961479</v>
+        <f t="shared" si="19"/>
+        <v>1.5811388300841898</v>
       </c>
     </row>
     <row r="283" spans="1:47" ht="25.05" customHeight="1">
       <c r="A283" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C283" s="17" t="str">
         <f>IF($A283="","",IF(VLOOKUP($A283,Spiele!$A$2:$D$15,3,FALSE)=$B283,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D283" s="17" t="str">
         <f>IF($B283="","",IF(VLOOKUP($A283,Spiele!$A$2:$F$15,3,FALSE)=$B283,VLOOKUP($A283,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A283,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E283" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A283,$A283,$B$2:$B283,$B283,$L$2:$L283,"&lt;&gt;ET"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F283" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G283" s="12">
         <v>1</v>
@@ -42441,37 +42441,34 @@
       </c>
       <c r="J283" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A283,Spiele!$A$2:$D$15,3,FALSE)=$B283,(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,$B283,$A$1:$A282,$A283))-(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)),(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,$B283,$A$1:$A282,$A283))-(COUNTIFS($L$1:$L282,"Tor",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283)+COUNTIFS($L$1:$L282,"ET",$B$1:$B282,"&lt;&gt;"&amp;$B283,$A$1:$A282,$A283))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K283" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L283" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O283" s="17">
+        <v>7</v>
+      </c>
+      <c r="P283" s="2">
         <v>9</v>
       </c>
-      <c r="P283" s="2">
-        <v>6</v>
-      </c>
       <c r="Q283" s="2">
-        <v>7</v>
-      </c>
-      <c r="R283" s="2">
         <v>23</v>
       </c>
       <c r="AA283" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB283" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC283" s="14" t="s">
         <v>150</v>
@@ -42480,62 +42477,68 @@
         <v>145</v>
       </c>
       <c r="AE283" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF283" s="13">
         <v>7</v>
       </c>
-      <c r="AF283" s="13">
-        <v>15</v>
-      </c>
       <c r="AG283" s="13">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH283" s="19">
-        <f t="shared" si="20"/>
-        <v>13.595793467098565</v>
+        <f t="shared" si="16"/>
+        <v>13.907034191372365</v>
       </c>
       <c r="AI283" s="19">
-        <f t="shared" si="21"/>
-        <v>11.583042211219654</v>
+        <f t="shared" si="17"/>
+        <v>24.399315395957366</v>
       </c>
       <c r="AJ283" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK283" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL283" s="13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM283" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF283-$AK283)^2+($AG283-$AL283)^2))</f>
-        <v>12.529964086141668</v>
+        <v>13.928388277184119</v>
       </c>
       <c r="AN283" s="3">
         <v>1</v>
       </c>
       <c r="AO283" s="13">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP283" s="13">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AQ283" s="19">
-        <f t="shared" si="22"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="18"/>
+        <v>3.8078865529319543</v>
       </c>
       <c r="AR283" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU283" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="AS283" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT283" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AU283" s="19">
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:47" ht="25.05" customHeight="1">
       <c r="A284" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C284" s="17" t="str">
         <f>IF($A284="","",IF(VLOOKUP($A284,Spiele!$A$2:$D$15,3,FALSE)=$B284,"H","G"))</f>
@@ -42543,14 +42546,14 @@
       </c>
       <c r="D284" s="17" t="str">
         <f>IF($B284="","",IF(VLOOKUP($A284,Spiele!$A$2:$F$15,3,FALSE)=$B284,VLOOKUP($A284,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A284,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E284" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A284,$A284,$B$2:$B284,$B284,$L$2:$L284,"&lt;&gt;ET"))</f>
         <v>4</v>
       </c>
       <c r="F284" s="11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G284" s="12">
         <v>1</v>
@@ -42565,90 +42568,90 @@
       </c>
       <c r="J284" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A284,Spiele!$A$2:$D$15,3,FALSE)=$B284,(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,$B284,$A$1:$A283,$A284))-(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)),(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,$B284,$A$1:$A283,$A284))-(COUNTIFS($L$1:$L283,"Tor",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284)+COUNTIFS($L$1:$L283,"ET",$B$1:$B283,"&lt;&gt;"&amp;$B284,$A$1:$A283,$A284))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K284" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="O284" s="17"/>
       <c r="AA284" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB284" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC284" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AD284" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE284" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE284" s="18">
+        <v>8</v>
+      </c>
       <c r="AF284" s="13">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG284" s="13">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH284" s="19">
-        <f t="shared" si="20"/>
-        <v>13.555279414309393</v>
+        <f t="shared" si="16"/>
+        <v>10.5</v>
       </c>
       <c r="AI284" s="19">
-        <f t="shared" si="21"/>
-        <v>24.188491715950388</v>
+        <f t="shared" si="17"/>
+        <v>38.434190353957341</v>
       </c>
       <c r="AJ284" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK284" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL284" s="13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AM284" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF284-$AK284)^2+($AG284-$AL284)^2))</f>
-        <v>14.089002803605371</v>
+        <v>8.5146931829632013</v>
       </c>
       <c r="AN284" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO284" s="13"/>
-      <c r="AP284" s="13"/>
-      <c r="AQ284" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO284" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AP284" s="13">
+        <v>10</v>
+      </c>
+      <c r="AQ284" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5811388300841898</v>
       </c>
       <c r="AR284" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS284" s="13">
-        <v>7</v>
-      </c>
-      <c r="AT284" s="13">
-        <v>12</v>
-      </c>
-      <c r="AU284" s="19">
-        <f t="shared" si="23"/>
-        <v>1.1180339887498949</v>
+        <v>0</v>
+      </c>
+      <c r="AU284" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="285" spans="1:47" ht="25.05" customHeight="1">
       <c r="A285" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C285" s="17" t="str">
         <f>IF($A285="","",IF(VLOOKUP($A285,Spiele!$A$2:$D$15,3,FALSE)=$B285,"H","G"))</f>
@@ -42656,14 +42659,14 @@
       </c>
       <c r="D285" s="17" t="str">
         <f>IF($B285="","",IF(VLOOKUP($A285,Spiele!$A$2:$F$15,3,FALSE)=$B285,VLOOKUP($A285,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A285,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E285" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A285,$A285,$B$2:$B285,$B285,$L$2:$L285,"&lt;&gt;ET"))</f>
         <v>5</v>
       </c>
       <c r="F285" s="11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G285" s="12">
         <v>1</v>
@@ -42678,16 +42681,16 @@
       </c>
       <c r="J285" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A285,Spiele!$A$2:$D$15,3,FALSE)=$B285,(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,$B285,$A$1:$A284,$A285))-(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)),(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,$B285,$A$1:$A284,$A285))-(COUNTIFS($L$1:$L284,"Tor",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285)+COUNTIFS($L$1:$L284,"ET",$B$1:$B284,"&lt;&gt;"&amp;$B285,$A$1:$A284,$A285))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K285" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>3</v>
@@ -42697,75 +42700,73 @@
         <v>141</v>
       </c>
       <c r="AB285" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC285" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD285" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE285" s="18"/>
+      <c r="AE285" s="18">
+        <v>5</v>
+      </c>
       <c r="AF285" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG285" s="13">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="AH285" s="19">
-        <f t="shared" si="20"/>
-        <v>19</v>
+        <f t="shared" si="16"/>
+        <v>20.770305727167329</v>
       </c>
       <c r="AI285" s="19">
-        <f t="shared" si="21"/>
-        <v>21.750134253188115</v>
+        <f t="shared" si="17"/>
+        <v>18.220720642824585</v>
       </c>
       <c r="AJ285" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK285" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL285" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AM285" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF285-$AK285)^2+($AG285-$AL285)^2))</f>
-        <v>18.527007313648905</v>
+        <v>19.780040444852482</v>
       </c>
       <c r="AN285" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO285" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="AP285" s="13">
-        <v>18</v>
-      </c>
-      <c r="AQ285" s="19">
-        <f t="shared" si="22"/>
-        <v>2.6925824035672519</v>
+        <v>0</v>
+      </c>
+      <c r="AO285" s="13"/>
+      <c r="AP285" s="13"/>
+      <c r="AQ285" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AR285" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS285" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT285" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU285" s="19">
-        <f t="shared" si="23"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>5.8523499553598128</v>
       </c>
     </row>
     <row r="286" spans="1:47" ht="25.05" customHeight="1">
       <c r="A286" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C286" s="17" t="str">
         <f>IF($A286="","",IF(VLOOKUP($A286,Spiele!$A$2:$D$15,3,FALSE)=$B286,"H","G"))</f>
@@ -42773,14 +42774,14 @@
       </c>
       <c r="D286" s="17" t="str">
         <f>IF($B286="","",IF(VLOOKUP($A286,Spiele!$A$2:$F$15,3,FALSE)=$B286,VLOOKUP($A286,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A286,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E286" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A286,$A286,$B$2:$B286,$B286,$L$2:$L286,"&lt;&gt;ET"))</f>
         <v>6</v>
       </c>
       <c r="F286" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G286" s="12">
         <v>1</v>
@@ -42791,30 +42792,30 @@
       </c>
       <c r="I286" s="17" t="str">
         <f>IF(OR($L286="Tor",$L286="ET"),_xlfn.IFNA(IF(VLOOKUP($A286,Spiele!$A$2:$C$15,3,FALSE)=$B286,COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,$B286,$A$2:$A286,$A286)&amp;":"&amp;COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286),COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,"&lt;&gt;"&amp;$B286,$A$2:$A286,$A286)&amp;":"&amp;COUNTIFS($L$2:$L286,"Tor",$B$2:$B286,$B286,$A$2:$A286,$A286)+COUNTIFS($L$2:$L286,"ET",$B$2:$B286,$B286,$A$2:$A286,$A286)),""),"")</f>
-        <v/>
+        <v>1:1</v>
       </c>
       <c r="J286" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A286,Spiele!$A$2:$D$15,3,FALSE)=$B286,(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,$B286,$A$1:$A285,$A286))-(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)),(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,$B286,$A$1:$A285,$A286))-(COUNTIFS($L$1:$L285,"Tor",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286)+COUNTIFS($L$1:$L285,"ET",$B$1:$B285,"&lt;&gt;"&amp;$B286,$A$1:$A285,$A286))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K286" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M286" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N286" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="O286" s="17"/>
       <c r="AA286" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB286" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC286" s="14" t="s">
         <v>150</v>
@@ -42822,67 +42823,59 @@
       <c r="AD286" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE286" s="18"/>
+      <c r="AE286" s="18">
+        <v>7</v>
+      </c>
       <c r="AF286" s="13">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG286" s="13">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH286" s="19">
-        <f t="shared" si="20"/>
-        <v>14.775506759498978</v>
+        <f t="shared" si="16"/>
+        <v>8.5</v>
       </c>
       <c r="AI286" s="19">
-        <f t="shared" si="21"/>
-        <v>23.936746455580142</v>
+        <f t="shared" si="17"/>
+        <v>41.187590914486904</v>
       </c>
       <c r="AJ286" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK286" s="13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AL286" s="13">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AM286" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF286-$AK286)^2+($AG286-$AL286)^2))</f>
-        <v>15.231546211727817</v>
+        <v>4.7434164902525691</v>
       </c>
       <c r="AN286" s="3">
-        <v>2</v>
-      </c>
-      <c r="AO286" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP286" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="AQ286" s="19">
-        <f t="shared" si="22"/>
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="AO286" s="13"/>
+      <c r="AP286" s="13"/>
+      <c r="AQ286" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AR286" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS286" s="13">
-        <v>6</v>
-      </c>
-      <c r="AT286" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="AU286" s="19">
-        <f t="shared" si="23"/>
-        <v>1.1180339887498949</v>
+        <v>0</v>
+      </c>
+      <c r="AU286" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="287" spans="1:47" ht="25.05" customHeight="1">
       <c r="A287" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C287" s="17" t="str">
         <f>IF($A287="","",IF(VLOOKUP($A287,Spiele!$A$2:$D$15,3,FALSE)=$B287,"H","G"))</f>
@@ -42890,14 +42883,14 @@
       </c>
       <c r="D287" s="17" t="str">
         <f>IF($B287="","",IF(VLOOKUP($A287,Spiele!$A$2:$F$15,3,FALSE)=$B287,VLOOKUP($A287,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A287,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E287" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A287,$A287,$B$2:$B287,$B287,$L$2:$L287,"&lt;&gt;ET"))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F287" s="11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G287" s="12">
         <v>1</v>
@@ -42908,117 +42901,68 @@
       </c>
       <c r="I287" s="17" t="str">
         <f>IF(OR($L287="Tor",$L287="ET"),_xlfn.IFNA(IF(VLOOKUP($A287,Spiele!$A$2:$C$15,3,FALSE)=$B287,COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,$B287,$A$2:$A287,$A287)&amp;":"&amp;COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287),COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,"&lt;&gt;"&amp;$B287,$A$2:$A287,$A287)&amp;":"&amp;COUNTIFS($L$2:$L287,"Tor",$B$2:$B287,$B287,$A$2:$A287,$A287)+COUNTIFS($L$2:$L287,"ET",$B$2:$B287,$B287,$A$2:$A287,$A287)),""),"")</f>
-        <v/>
+        <v>2:1</v>
       </c>
       <c r="J287" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A287,Spiele!$A$2:$D$15,3,FALSE)=$B287,(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,$B287,$A$1:$A286,$A287))-(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)),(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,$B287,$A$1:$A286,$A287))-(COUNTIFS($L$1:$L286,"Tor",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287)+COUNTIFS($L$1:$L286,"ET",$B$1:$B286,"&lt;&gt;"&amp;$B287,$A$1:$A286,$A287))),"")</f>
         <v>0</v>
       </c>
       <c r="K287" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M287" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N287" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O287" s="17">
-        <v>7</v>
-      </c>
-      <c r="AA287" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB287" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC287" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD287" s="14" t="s">
-        <v>145</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O287" s="17"/>
+      <c r="AC287" s="14"/>
+      <c r="AD287" s="14"/>
       <c r="AE287" s="18">
-        <v>8</v>
-      </c>
-      <c r="AF287" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="AG287" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="AH287" s="19">
-        <f t="shared" si="20"/>
-        <v>14.524310654898565</v>
-      </c>
-      <c r="AI287" s="19">
-        <f t="shared" si="21"/>
-        <v>26.053510457112758</v>
-      </c>
-      <c r="AJ287" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK287" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AL287" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="AM287" s="19">
+        <v>6</v>
+      </c>
+      <c r="AH287" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AI287" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM287" s="19" t="str">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF287-$AK287)^2+($AG287-$AL287)^2))</f>
-        <v>11.401754250991379</v>
-      </c>
-      <c r="AN287" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO287" s="13">
-        <v>7</v>
-      </c>
-      <c r="AP287" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="AQ287" s="19">
-        <f t="shared" si="22"/>
-        <v>3.905124837953327</v>
-      </c>
-      <c r="AR287" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS287" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT287" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="AU287" s="19">
-        <f t="shared" si="23"/>
-        <v>4.0311288741492746</v>
+        <v/>
+      </c>
+      <c r="AO287" s="13"/>
+      <c r="AP287" s="13"/>
+      <c r="AQ287" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU287" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="288" spans="1:47" ht="25.05" customHeight="1">
       <c r="A288" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="17" t="str">
         <f>IF($A288="","",IF(VLOOKUP($A288,Spiele!$A$2:$D$15,3,FALSE)=$B288,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D288" s="17" t="str">
         <f>IF($B288="","",IF(VLOOKUP($A288,Spiele!$A$2:$F$15,3,FALSE)=$B288,VLOOKUP($A288,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A288,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E288" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A288,$A288,$B$2:$B288,$B288,$L$2:$L288,"&lt;&gt;ET"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F288" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G288" s="12">
         <v>1</v>
@@ -43033,96 +42977,92 @@
       </c>
       <c r="J288" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A288,Spiele!$A$2:$D$15,3,FALSE)=$B288,(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,$B288,$A$1:$A287,$A288))-(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)),(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,$B288,$A$1:$A287,$A288))-(COUNTIFS($L$1:$L287,"Tor",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288)+COUNTIFS($L$1:$L287,"ET",$B$1:$B287,"&lt;&gt;"&amp;$B288,$A$1:$A287,$A288))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K288" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L288" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O288" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="O288" s="17">
+        <v>8</v>
+      </c>
       <c r="AA288" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AB288" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC288" s="14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD288" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AE288" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF288" s="13">
-        <v>-6.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG288" s="13">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH288" s="19">
-        <f t="shared" si="20"/>
-        <v>16.742628228566744</v>
+        <f t="shared" si="16"/>
+        <v>12.953208096838404</v>
       </c>
       <c r="AI288" s="19">
-        <f t="shared" si="21"/>
-        <v>21.856872591143812</v>
+        <f t="shared" si="17"/>
+        <v>20.284547061609072</v>
       </c>
       <c r="AJ288" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK288" s="13">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="AL288" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM288" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF288-$AK288)^2+($AG288-$AL288)^2))</f>
-        <v>15.337861650177967</v>
+        <v>10.307764064044152</v>
       </c>
       <c r="AN288" s="3">
         <v>1</v>
       </c>
       <c r="AO288" s="13">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="AP288" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ288" s="19">
-        <f t="shared" si="22"/>
-        <v>4.3011626335213133</v>
+        <f t="shared" si="18"/>
+        <v>1.5</v>
       </c>
       <c r="AR288" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS288" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AT288" s="13">
-        <v>6</v>
-      </c>
-      <c r="AU288" s="19">
-        <f t="shared" si="23"/>
-        <v>11.423659658795863</v>
+        <v>0</v>
+      </c>
+      <c r="AU288" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="289" spans="1:47" ht="25.05" customHeight="1">
       <c r="A289" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C289" s="17" t="str">
         <f>IF($A289="","",IF(VLOOKUP($A289,Spiele!$A$2:$D$15,3,FALSE)=$B289,"H","G"))</f>
@@ -43130,14 +43070,14 @@
       </c>
       <c r="D289" s="17" t="str">
         <f>IF($B289="","",IF(VLOOKUP($A289,Spiele!$A$2:$F$15,3,FALSE)=$B289,VLOOKUP($A289,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A289,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E289" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A289,$A289,$B$2:$B289,$B289,$L$2:$L289,"&lt;&gt;ET"))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F289" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G289" s="12">
         <v>1</v>
@@ -43152,96 +43092,98 @@
       </c>
       <c r="J289" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A289,Spiele!$A$2:$D$15,3,FALSE)=$B289,(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,$B289,$A$1:$A288,$A289))-(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)),(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,$B289,$A$1:$A288,$A289))-(COUNTIFS($L$1:$L288,"Tor",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289)+COUNTIFS($L$1:$L288,"ET",$B$1:$B288,"&lt;&gt;"&amp;$B289,$A$1:$A288,$A289))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L289" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="O289" s="17"/>
       <c r="AA289" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB289" s="17" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AC289" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD289" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE289" s="18">
-        <v>20</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AE289" s="18"/>
       <c r="AF289" s="13">
-        <v>-13.5</v>
+        <v>8</v>
       </c>
       <c r="AG289" s="13">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH289" s="19">
-        <f t="shared" si="20"/>
-        <v>23.644779550674606</v>
+        <f t="shared" si="16"/>
+        <v>8.6651947468017134</v>
       </c>
       <c r="AI289" s="19">
-        <f t="shared" si="21"/>
-        <v>14.002393253988416</v>
+        <f t="shared" si="17"/>
+        <v>27.193339168377062</v>
       </c>
       <c r="AJ289" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK289" s="13">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="AL289" s="13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AM289" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF289-$AK289)^2+($AG289-$AL289)^2))</f>
-        <v>22.610838109190027</v>
+        <v>9.2195444572928871</v>
       </c>
       <c r="AN289" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO289" s="13"/>
-      <c r="AP289" s="13"/>
-      <c r="AQ289" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO289" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP289" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AQ289" s="19">
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="AR289" s="3">
         <v>2</v>
       </c>
       <c r="AS289" s="13">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="AT289" s="13">
-        <v>20.5</v>
+        <v>5.5</v>
       </c>
       <c r="AU289" s="19">
-        <f t="shared" si="23"/>
-        <v>1.8027756377319946</v>
+        <f t="shared" si="19"/>
+        <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="290" spans="1:47" ht="25.05" customHeight="1">
       <c r="A290" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C290" s="17" t="str">
         <f>IF($A290="","",IF(VLOOKUP($A290,Spiele!$A$2:$D$15,3,FALSE)=$B290,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D290" s="17" t="str">
         <f>IF($B290="","",IF(VLOOKUP($A290,Spiele!$A$2:$F$15,3,FALSE)=$B290,VLOOKUP($A290,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A290,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -43249,7 +43191,7 @@
       </c>
       <c r="E290" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A290,$A290,$B$2:$B290,$B290,$L$2:$L290,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F290" s="11">
         <v>28</v>
@@ -43267,109 +43209,109 @@
       </c>
       <c r="J290" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A290,Spiele!$A$2:$D$15,3,FALSE)=$B290,(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,$B290,$A$1:$A289,$A290))-(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)),(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,$B290,$A$1:$A289,$A290))-(COUNTIFS($L$1:$L289,"Tor",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290)+COUNTIFS($L$1:$L289,"ET",$B$1:$B289,"&lt;&gt;"&amp;$B290,$A$1:$A289,$A290))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L290" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M290" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="O290" s="17"/>
       <c r="AA290" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB290" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC290" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD290" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AE290" s="18"/>
       <c r="AF290" s="13">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AG290" s="13">
-        <v>25.5</v>
+        <v>9</v>
       </c>
       <c r="AH290" s="19">
-        <f t="shared" si="20"/>
-        <v>25.5</v>
+        <f t="shared" si="16"/>
+        <v>9.4374572846715452</v>
       </c>
       <c r="AI290" s="19">
-        <f t="shared" si="21"/>
-        <v>16.335693207949546</v>
+        <f t="shared" si="17"/>
+        <v>30.951237425314321</v>
       </c>
       <c r="AJ290" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK290" s="13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL290" s="13">
         <v>0.5</v>
       </c>
       <c r="AM290" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF290-$AK290)^2+($AG290-$AL290)^2))</f>
-        <v>25</v>
+        <v>9.8615414616580104</v>
       </c>
       <c r="AN290" s="3">
         <v>1</v>
       </c>
       <c r="AO290" s="13">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="AP290" s="13">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AQ290" s="19">
-        <f t="shared" si="22"/>
-        <v>3.2015621187164243</v>
+        <f t="shared" si="18"/>
+        <v>3.8078865529319543</v>
       </c>
       <c r="AR290" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS290" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AT290" s="13">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AU290" s="19">
-        <f t="shared" si="23"/>
-        <v>8.5</v>
+        <f t="shared" si="19"/>
+        <v>3.3541019662496847</v>
       </c>
     </row>
     <row r="291" spans="1:47" ht="25.05" customHeight="1">
       <c r="A291" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C291" s="17" t="str">
         <f>IF($A291="","",IF(VLOOKUP($A291,Spiele!$A$2:$D$15,3,FALSE)=$B291,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D291" s="17" t="str">
         <f>IF($B291="","",IF(VLOOKUP($A291,Spiele!$A$2:$F$15,3,FALSE)=$B291,VLOOKUP($A291,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A291,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E291" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A291,$A291,$B$2:$B291,$B291,$L$2:$L291,"&lt;&gt;ET"))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F291" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G291" s="12">
         <v>1</v>
@@ -43384,98 +43326,92 @@
       </c>
       <c r="J291" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A291,Spiele!$A$2:$D$15,3,FALSE)=$B291,(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,$B291,$A$1:$A290,$A291))-(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)),(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,$B291,$A$1:$A290,$A291))-(COUNTIFS($L$1:$L290,"Tor",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291)+COUNTIFS($L$1:$L290,"ET",$B$1:$B290,"&lt;&gt;"&amp;$B291,$A$1:$A290,$A291))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K291" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L291" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="O291" s="17">
         <v>8</v>
       </c>
-      <c r="P291" s="2">
+      <c r="AA291" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB291" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC291" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD291" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE291" s="18">
         <v>16</v>
       </c>
-      <c r="Q291" s="2">
-        <v>26</v>
-      </c>
-      <c r="AA291" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB291" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC291" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD291" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE291" s="18">
-        <v>7</v>
-      </c>
       <c r="AF291" s="13">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="AG291" s="13">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH291" s="19">
-        <f t="shared" si="20"/>
-        <v>17.59646555419582</v>
+        <f t="shared" si="16"/>
+        <v>16.5</v>
       </c>
       <c r="AI291" s="19">
-        <f t="shared" si="21"/>
-        <v>21.626656434445117</v>
+        <f t="shared" si="17"/>
+        <v>24.824014709145445</v>
       </c>
       <c r="AJ291" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK291" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL291" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM291" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF291-$AK291)^2+($AG291-$AL291)^2))</f>
-        <v>15.182226450688976</v>
+        <v>14.577379737113251</v>
       </c>
       <c r="AN291" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO291" s="13">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP291" s="13">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ291" s="19">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AR291" s="3">
         <v>0</v>
       </c>
       <c r="AU291" s="19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:47" ht="25.05" customHeight="1">
       <c r="A292" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C292" s="17" t="str">
         <f>IF($A292="","",IF(VLOOKUP($A292,Spiele!$A$2:$D$15,3,FALSE)=$B292,"H","G"))</f>
@@ -43483,11 +43419,11 @@
       </c>
       <c r="D292" s="17" t="str">
         <f>IF($B292="","",IF(VLOOKUP($A292,Spiele!$A$2:$F$15,3,FALSE)=$B292,VLOOKUP($A292,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A292,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E292" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A292,$A292,$B$2:$B292,$B292,$L$2:$L292,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F292" s="11">
         <v>35</v>
@@ -43505,92 +43441,100 @@
       </c>
       <c r="J292" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A292,Spiele!$A$2:$D$15,3,FALSE)=$B292,(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,$B292,$A$1:$A291,$A292))-(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)),(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,$B292,$A$1:$A291,$A292))-(COUNTIFS($L$1:$L291,"Tor",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292)+COUNTIFS($L$1:$L291,"ET",$B$1:$B291,"&lt;&gt;"&amp;$B292,$A$1:$A291,$A292))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K292" s="3">
-        <v>12</v>
-      </c>
-      <c r="L292" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L292" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M292" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="O292" s="17"/>
-      <c r="AA292" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB292" s="17" t="s">
-        <v>160</v>
+      <c r="AA292" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB292" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="AC292" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD292" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE292" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE292" s="18">
+        <v>5</v>
+      </c>
       <c r="AF292" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG292" s="13">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AH292" s="19">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>26</v>
       </c>
       <c r="AI292" s="19">
-        <f t="shared" si="21"/>
-        <v>43.839454439268671</v>
-      </c>
-      <c r="AJ292" s="2" t="s">
+        <f t="shared" si="17"/>
+        <v>15.934397372783307</v>
+      </c>
+      <c r="AJ292" s="3" t="s">
         <v>146</v>
       </c>
       <c r="AK292" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL292" s="13">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM292" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF292-$AK292)^2+($AG292-$AL292)^2))</f>
-        <v>8.5</v>
+        <v>22.588713996153036</v>
       </c>
       <c r="AN292" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO292" s="13">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="AP292" s="13">
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="AQ292" s="19">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>IF(AN292=0,"",SQRT(($AF292-$AO292)^2+($AG292-$AP292)^2))</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR292" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU292" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="AS292" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AT292" s="13">
+        <v>21</v>
+      </c>
+      <c r="AU292" s="19">
+        <f>IF(AR292=0,"",SQRT(($AF292-$AS292)^2+($AG292-$AT292)^2))</f>
+        <v>5.2201532544552753</v>
       </c>
     </row>
     <row r="293" spans="1:47" ht="25.05" customHeight="1">
       <c r="A293" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C293" s="17" t="str">
         <f>IF($A293="","",IF(VLOOKUP($A293,Spiele!$A$2:$D$15,3,FALSE)=$B293,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D293" s="17" t="str">
         <f>IF($B293="","",IF(VLOOKUP($A293,Spiele!$A$2:$F$15,3,FALSE)=$B293,VLOOKUP($A293,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A293,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -43598,10 +43542,10 @@
       </c>
       <c r="E293" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A293,$A293,$B$2:$B293,$B293,$L$2:$L293,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F293" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G293" s="12">
         <v>1</v>
@@ -43616,109 +43560,102 @@
       </c>
       <c r="J293" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A293,Spiele!$A$2:$D$15,3,FALSE)=$B293,(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,$B293,$A$1:$A292,$A293))-(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)),(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,$B293,$A$1:$A292,$A293))-(COUNTIFS($L$1:$L292,"Tor",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293)+COUNTIFS($L$1:$L292,"ET",$B$1:$B292,"&lt;&gt;"&amp;$B293,$A$1:$A292,$A293))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L293" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N293" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O293" s="17"/>
       <c r="AA293" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AB293" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC293" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD293" s="14" t="s">
         <v>145</v>
       </c>
       <c r="AE293" s="18"/>
       <c r="AF293" s="13">
-        <v>-6</v>
+        <v>3.5</v>
       </c>
       <c r="AG293" s="13">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AH293" s="19">
-        <f t="shared" si="20"/>
-        <v>2.5447200238926087</v>
+        <f t="shared" si="16"/>
+        <v>27</v>
       </c>
       <c r="AI293" s="19">
-        <f t="shared" si="21"/>
-        <v>17.229273479884245</v>
+        <f t="shared" si="17"/>
+        <v>15.191667285280417</v>
       </c>
       <c r="AJ293" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK293" s="13">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AL293" s="13">
         <v>0.5</v>
       </c>
       <c r="AM293" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF293-$AK293)^2+($AG293-$AL293)^2))</f>
-        <v>2.0615528128088303</v>
+        <v>26.730132809247319</v>
       </c>
       <c r="AN293" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO293" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AP293" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ293" s="19">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AO293" s="13"/>
+      <c r="AP293" s="13"/>
+      <c r="AQ293" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AR293" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS293" s="13">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="AT293" s="13">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="AU293" s="19">
-        <f t="shared" si="23"/>
-        <v>2.5495097567963922</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:47" ht="25.05" customHeight="1">
       <c r="A294" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C294" s="17" t="str">
         <f>IF($A294="","",IF(VLOOKUP($A294,Spiele!$A$2:$D$15,3,FALSE)=$B294,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D294" s="17" t="str">
         <f>IF($B294="","",IF(VLOOKUP($A294,Spiele!$A$2:$F$15,3,FALSE)=$B294,VLOOKUP($A294,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A294,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E294" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A294,$A294,$B$2:$B294,$B294,$L$2:$L294,"&lt;&gt;ET"))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F294" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G294" s="12">
         <v>1</v>
@@ -43733,10 +43670,10 @@
       </c>
       <c r="J294" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A294,Spiele!$A$2:$D$15,3,FALSE)=$B294,(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,$B294,$A$1:$A293,$A294))-(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)),(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,$B294,$A$1:$A293,$A294))-(COUNTIFS($L$1:$L293,"Tor",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294)+COUNTIFS($L$1:$L293,"ET",$B$1:$B293,"&lt;&gt;"&amp;$B294,$A$1:$A293,$A294))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K294" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L294" s="17" t="s">
         <v>18</v>
@@ -43745,80 +43682,86 @@
         <v>163</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O294" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA294" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB294" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC294" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD294" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE294" s="18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF294" s="13">
-        <v>-2</v>
+        <v>-10.5</v>
       </c>
       <c r="AG294" s="13">
-        <v>9</v>
+        <v>20.5</v>
       </c>
       <c r="AH294" s="19">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>21.611006455045079</v>
       </c>
       <c r="AI294" s="19">
-        <f t="shared" si="21"/>
-        <v>42.615768593997174</v>
+        <f t="shared" si="17"/>
+        <v>16.182350849663965</v>
       </c>
       <c r="AJ294" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK294" s="13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL294" s="13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AM294" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF294-$AK294)^2+($AG294-$AL294)^2))</f>
-        <v>6.5</v>
+        <v>20.796634343085422</v>
       </c>
       <c r="AN294" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO294" s="13">
-        <v>-0.5</v>
+        <v>-12.5</v>
       </c>
       <c r="AP294" s="13">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="AQ294" s="19">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="AR294" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU294" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS294" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AT294" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AU294" s="19">
+        <f t="shared" si="19"/>
+        <v>8.1394102980498531</v>
       </c>
     </row>
     <row r="295" spans="1:47" ht="25.05" customHeight="1">
       <c r="A295" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C295" s="17" t="str">
         <f>IF($A295="","",IF(VLOOKUP($A295,Spiele!$A$2:$D$15,3,FALSE)=$B295,"H","G"))</f>
@@ -43826,11 +43769,11 @@
       </c>
       <c r="D295" s="17" t="str">
         <f>IF($B295="","",IF(VLOOKUP($A295,Spiele!$A$2:$F$15,3,FALSE)=$B295,VLOOKUP($A295,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A295,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E295" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A295,$A295,$B$2:$B295,$B295,$L$2:$L295,"&lt;&gt;ET"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F295" s="11">
         <v>40</v>
@@ -43844,98 +43787,102 @@
       </c>
       <c r="I295" s="17" t="str">
         <f>IF(OR($L295="Tor",$L295="ET"),_xlfn.IFNA(IF(VLOOKUP($A295,Spiele!$A$2:$C$15,3,FALSE)=$B295,COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,$B295,$A$2:$A295,$A295)&amp;":"&amp;COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295),COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,"&lt;&gt;"&amp;$B295,$A$2:$A295,$A295)&amp;":"&amp;COUNTIFS($L$2:$L295,"Tor",$B$2:$B295,$B295,$A$2:$A295,$A295)+COUNTIFS($L$2:$L295,"ET",$B$2:$B295,$B295,$A$2:$A295,$A295)),""),"")</f>
-        <v>1:0</v>
+        <v/>
       </c>
       <c r="J295" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A295,Spiele!$A$2:$D$15,3,FALSE)=$B295,(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,$B295,$A$1:$A294,$A295))-(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)),(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,$B295,$A$1:$A294,$A295))-(COUNTIFS($L$1:$L294,"Tor",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295)+COUNTIFS($L$1:$L294,"ET",$B$1:$B294,"&lt;&gt;"&amp;$B295,$A$1:$A294,$A295))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295" s="3">
-        <v>14</v>
-      </c>
-      <c r="L295" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L295" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M295" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="O295" s="17"/>
-      <c r="AA295" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB295" s="17" t="s">
-        <v>160</v>
+      <c r="AA295" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB295" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="AC295" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AD295" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE295" s="18">
-        <v>7</v>
-      </c>
+      <c r="AE295" s="18"/>
       <c r="AF295" s="13">
-        <v>-6.5</v>
+        <v>-9</v>
       </c>
       <c r="AG295" s="13">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AH295" s="19">
-        <f t="shared" si="20"/>
-        <v>5.7502695588989567</v>
+        <f t="shared" si="16"/>
+        <v>22.63880738908302</v>
       </c>
       <c r="AI295" s="19">
-        <f t="shared" si="21"/>
-        <v>34.200427604672875</v>
-      </c>
-      <c r="AJ295" s="2" t="s">
-        <v>169</v>
+        <f t="shared" si="17"/>
+        <v>16.275078062412469</v>
+      </c>
+      <c r="AJ295" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="AK295" s="13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AL295" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM295" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF295-$AK295)^2+($AG295-$AL295)^2))</f>
-        <v>7.6157731058639087</v>
+        <v>22.472205054244231</v>
       </c>
       <c r="AN295" s="3">
         <v>1</v>
       </c>
       <c r="AO295" s="13">
-        <v>-4</v>
+        <v>-9.5</v>
       </c>
       <c r="AP295" s="13">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ295" s="19">
-        <f t="shared" si="22"/>
-        <v>2.5495097567963922</v>
+        <f>IF(AN295=0,"",SQRT(($AF295-$AO295)^2+($AG295-$AP295)^2))</f>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AR295" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU295" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AS295" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AT295" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AU295" s="19">
+        <f>IF(AR295=0,"",SQRT(($AF295-$AS295)^2+($AG295-$AT295)^2))</f>
+        <v>6.800735254367722</v>
       </c>
     </row>
     <row r="296" spans="1:47" ht="25.05" customHeight="1">
       <c r="A296" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C296" s="17" t="str">
         <f>IF($A296="","",IF(VLOOKUP($A296,Spiele!$A$2:$D$15,3,FALSE)=$B296,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D296" s="17" t="str">
         <f>IF($B296="","",IF(VLOOKUP($A296,Spiele!$A$2:$F$15,3,FALSE)=$B296,VLOOKUP($A296,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A296,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -43943,13 +43890,13 @@
       </c>
       <c r="E296" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A296,$A296,$B$2:$B296,$B296,$L$2:$L296,"&lt;&gt;ET"))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F296" s="11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G296" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" s="18">
         <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A296,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B296,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F296,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G296)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A296,'Rote Karten'!$D$2:$D$4,$B296,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F296,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G296)</f>
@@ -43961,87 +43908,94 @@
       </c>
       <c r="J296" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A296,Spiele!$A$2:$D$15,3,FALSE)=$B296,(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,$B296,$A$1:$A295,$A296))-(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)),(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,$B296,$A$1:$A295,$A296))-(COUNTIFS($L$1:$L295,"Tor",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296)+COUNTIFS($L$1:$L295,"ET",$B$1:$B295,"&lt;&gt;"&amp;$B296,$A$1:$A295,$A296))),"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K296" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L296" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="O296" s="17"/>
       <c r="AA296" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB296" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC296" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD296" s="14" t="s">
         <v>156</v>
       </c>
       <c r="AE296" s="18"/>
       <c r="AF296" s="13">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
       <c r="AG296" s="13">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AH296" s="19">
-        <f t="shared" si="20"/>
-        <v>34</v>
+        <f t="shared" si="16"/>
+        <v>13.62481559508238</v>
       </c>
       <c r="AI296" s="19">
-        <f t="shared" si="21"/>
-        <v>12.194976603981754</v>
+        <f t="shared" si="17"/>
+        <v>26.396240643890188</v>
       </c>
       <c r="AJ296" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK296" s="13">
-        <v>0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AL296" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AM296" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF296-$AK296)^2+($AG296-$AL296)^2))</f>
-        <v>33.68233958619858</v>
+        <v>12.369316876852981</v>
       </c>
       <c r="AN296" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO296" s="13"/>
-      <c r="AP296" s="13"/>
-      <c r="AQ296" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AO296" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AP296" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AQ296" s="19">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
       </c>
       <c r="AR296" s="3">
         <v>3</v>
       </c>
       <c r="AS296" s="13">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="AT296" s="13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AU296" s="19">
-        <f t="shared" si="23"/>
-        <v>7.0178344238090995</v>
+        <f t="shared" si="19"/>
+        <v>7.6485292703891776</v>
       </c>
     </row>
     <row r="297" spans="1:47" ht="25.05" customHeight="1">
       <c r="A297" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C297" s="17" t="str">
         <f>IF($A297="","",IF(VLOOKUP($A297,Spiele!$A$2:$D$15,3,FALSE)=$B297,"H","G"))</f>
@@ -44049,14 +44003,14 @@
       </c>
       <c r="D297" s="17" t="str">
         <f>IF($B297="","",IF(VLOOKUP($A297,Spiele!$A$2:$F$15,3,FALSE)=$B297,VLOOKUP($A297,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A297,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E297" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A297,$A297,$B$2:$B297,$B297,$L$2:$L297,"&lt;&gt;ET"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F297" s="11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G297" s="12">
         <v>2</v>
@@ -44074,30 +44028,22 @@
         <v>1</v>
       </c>
       <c r="K297" s="3">
-        <v>16</v>
-      </c>
-      <c r="L297" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L297" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M297" s="3" t="s">
+      <c r="M297" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O297" s="17">
-        <v>8</v>
-      </c>
-      <c r="P297" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q297" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA297" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB297" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O297" s="17"/>
+      <c r="AA297" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB297" s="17" t="s">
         <v>143</v>
       </c>
       <c r="AC297" s="14" t="s">
@@ -44106,73 +44052,67 @@
       <c r="AD297" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE297" s="18">
-        <v>10</v>
-      </c>
+      <c r="AE297" s="18"/>
       <c r="AF297" s="13">
-        <v>-10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG297" s="13">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AH297" s="19">
-        <f t="shared" si="20"/>
-        <v>14.689642609675703</v>
+        <f t="shared" si="16"/>
+        <v>10.849682022990351</v>
       </c>
       <c r="AI297" s="19">
-        <f t="shared" si="21"/>
-        <v>19.694334659050181</v>
-      </c>
-      <c r="AJ297" s="3" t="s">
+        <f t="shared" si="17"/>
+        <v>17.407629340775326</v>
+      </c>
+      <c r="AJ297" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK297" s="13">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="AL297" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM297" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF297-$AK297)^2+($AG297-$AL297)^2))</f>
-        <v>12.619429464123963</v>
+        <v>11.01135777277262</v>
       </c>
       <c r="AN297" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO297" s="13"/>
+      <c r="AP297" s="13"/>
+      <c r="AQ297" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR297" s="3">
         <v>2</v>
       </c>
-      <c r="AO297" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AP297" s="13">
-        <v>13.5</v>
-      </c>
-      <c r="AQ297" s="19">
-        <f t="shared" si="22"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AR297" s="3">
-        <v>1</v>
-      </c>
       <c r="AS297" s="13">
-        <v>-3</v>
+        <v>9.5</v>
       </c>
       <c r="AT297" s="13">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AU297" s="19">
-        <f t="shared" si="23"/>
-        <v>9.3005376188691375</v>
+        <f t="shared" si="19"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="298" spans="1:47" ht="25.05" customHeight="1">
       <c r="A298" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C298" s="17" t="str">
         <f>IF($A298="","",IF(VLOOKUP($A298,Spiele!$A$2:$D$15,3,FALSE)=$B298,"H","G"))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="D298" s="17" t="str">
         <f>IF($B298="","",IF(VLOOKUP($A298,Spiele!$A$2:$F$15,3,FALSE)=$B298,VLOOKUP($A298,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A298,Spiele!$A$2:$F$15,3,FALSE)))</f>
@@ -44180,10 +44120,10 @@
       </c>
       <c r="E298" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A298,$A298,$B$2:$B298,$B298,$L$2:$L298,"&lt;&gt;ET"))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F298" s="11">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G298" s="12">
         <v>2</v>
@@ -44194,17 +44134,17 @@
       </c>
       <c r="I298" s="17" t="str">
         <f>IF(OR($L298="Tor",$L298="ET"),_xlfn.IFNA(IF(VLOOKUP($A298,Spiele!$A$2:$C$15,3,FALSE)=$B298,COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,$B298,$A$2:$A298,$A298)&amp;":"&amp;COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298),COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,"&lt;&gt;"&amp;$B298,$A$2:$A298,$A298)&amp;":"&amp;COUNTIFS($L$2:$L298,"Tor",$B$2:$B298,$B298,$A$2:$A298,$A298)+COUNTIFS($L$2:$L298,"ET",$B$2:$B298,$B298,$A$2:$A298,$A298)),""),"")</f>
-        <v/>
+        <v>3:1</v>
       </c>
       <c r="J298" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A298,Spiele!$A$2:$D$15,3,FALSE)=$B298,(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,$B298,$A$1:$A297,$A298))-(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)),(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,$B298,$A$1:$A297,$A298))-(COUNTIFS($L$1:$L297,"Tor",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298)+COUNTIFS($L$1:$L297,"ET",$B$1:$B297,"&lt;&gt;"&amp;$B298,$A$1:$A297,$A298))),"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K298" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L298" s="17" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M298" s="2" t="s">
         <v>163</v>
@@ -44214,10 +44154,10 @@
       </c>
       <c r="O298" s="17"/>
       <c r="AA298" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB298" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC298" s="14" t="s">
         <v>150</v>
@@ -44230,56 +44170,56 @@
         <v>12</v>
       </c>
       <c r="AG298" s="13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH298" s="19">
-        <f t="shared" si="20"/>
-        <v>11.216309553502882</v>
+        <f t="shared" si="16"/>
+        <v>11.556625805138799</v>
       </c>
       <c r="AI298" s="19">
-        <f t="shared" si="21"/>
-        <v>16.373402664953399</v>
+        <f t="shared" si="17"/>
+        <v>16.747495596862677</v>
       </c>
       <c r="AJ298" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK298" s="13">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AL298" s="13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM298" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF298-$AK298)^2+($AG298-$AL298)^2))</f>
-        <v>11.01135777277262</v>
+        <v>5</v>
       </c>
       <c r="AN298" s="3">
         <v>1</v>
       </c>
       <c r="AO298" s="13">
+        <v>12</v>
+      </c>
+      <c r="AP298" s="13">
         <v>9</v>
       </c>
-      <c r="AP298" s="13">
-        <v>8.5</v>
-      </c>
       <c r="AQ298" s="19">
-        <f t="shared" si="22"/>
-        <v>3.1622776601683795</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AR298" s="3">
         <v>0</v>
       </c>
       <c r="AU298" s="19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:47" ht="25.05" customHeight="1">
       <c r="A299" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C299" s="17" t="str">
         <f>IF($A299="","",IF(VLOOKUP($A299,Spiele!$A$2:$D$15,3,FALSE)=$B299,"H","G"))</f>
@@ -44287,14 +44227,14 @@
       </c>
       <c r="D299" s="17" t="str">
         <f>IF($B299="","",IF(VLOOKUP($A299,Spiele!$A$2:$F$15,3,FALSE)=$B299,VLOOKUP($A299,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A299,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E299" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A299,$A299,$B$2:$B299,$B299,$L$2:$L299,"&lt;&gt;ET"))</f>
         <v>10</v>
       </c>
       <c r="F299" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G299" s="12">
         <v>2</v>
@@ -44309,128 +44249,109 @@
       </c>
       <c r="J299" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A299,Spiele!$A$2:$D$15,3,FALSE)=$B299,(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,$B299,$A$1:$A298,$A299))-(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)),(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,$B299,$A$1:$A298,$A299))-(COUNTIFS($L$1:$L298,"Tor",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299)+COUNTIFS($L$1:$L298,"ET",$B$1:$B298,"&lt;&gt;"&amp;$B299,$A$1:$A298,$A299))),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K299" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L299" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O299" s="17">
-        <v>4</v>
-      </c>
-      <c r="P299" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q299" s="2">
-        <v>6</v>
-      </c>
-      <c r="R299" s="2">
-        <v>8</v>
-      </c>
-      <c r="S299" s="2">
-        <v>20</v>
-      </c>
-      <c r="T299" s="2">
-        <v>4</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O299" s="17"/>
       <c r="AA299" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB299" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AC299" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD299" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE299" s="18">
-        <v>18</v>
-      </c>
+      <c r="AE299" s="18"/>
       <c r="AF299" s="13">
-        <v>-14</v>
+        <v>6.5</v>
       </c>
       <c r="AG299" s="13">
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="AH299" s="19">
-        <f t="shared" si="20"/>
-        <v>22.071828197954062</v>
+        <f t="shared" si="16"/>
+        <v>6.6381925250778924</v>
       </c>
       <c r="AI299" s="19">
-        <f t="shared" si="21"/>
-        <v>14.230221882728383</v>
+        <f t="shared" si="17"/>
+        <v>34.106220870775765</v>
       </c>
       <c r="AJ299" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK299" s="13">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="AL299" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM299" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF299-$AK299)^2+($AG299-$AL299)^2))</f>
-        <v>21.100947846009191</v>
+        <v>7.1063352017759476</v>
       </c>
       <c r="AN299" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO299" s="13">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="AP299" s="13">
-        <v>18</v>
+        <v>5.5</v>
       </c>
       <c r="AQ299" s="19">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR299" s="3">
         <v>2</v>
       </c>
       <c r="AS299" s="13">
-        <v>-11</v>
+        <v>3.5</v>
       </c>
       <c r="AT299" s="13">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="AU299" s="19">
-        <f t="shared" si="23"/>
-        <v>5.8309518948453007</v>
+        <f t="shared" si="19"/>
+        <v>3.3541019662496847</v>
       </c>
     </row>
     <row r="300" spans="1:47" ht="25.05" customHeight="1">
       <c r="A300" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C300" s="17" t="str">
         <f>IF($A300="","",IF(VLOOKUP($A300,Spiele!$A$2:$D$15,3,FALSE)=$B300,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D300" s="17" t="str">
         <f>IF($B300="","",IF(VLOOKUP($A300,Spiele!$A$2:$F$15,3,FALSE)=$B300,VLOOKUP($A300,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A300,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E300" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A300,$A300,$B$2:$B300,$B300,$L$2:$L300,"&lt;&gt;ET"))</f>
         <v>11</v>
       </c>
       <c r="F300" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G300" s="12">
         <v>2</v>
@@ -44441,27 +44362,44 @@
       </c>
       <c r="I300" s="17" t="str">
         <f>IF(OR($L300="Tor",$L300="ET"),_xlfn.IFNA(IF(VLOOKUP($A300,Spiele!$A$2:$C$15,3,FALSE)=$B300,COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,$B300,$A$2:$A300,$A300)&amp;":"&amp;COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300),COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,"&lt;&gt;"&amp;$B300,$A$2:$A300,$A300)&amp;":"&amp;COUNTIFS($L$2:$L300,"Tor",$B$2:$B300,$B300,$A$2:$A300,$A300)+COUNTIFS($L$2:$L300,"ET",$B$2:$B300,$B300,$A$2:$A300,$A300)),""),"")</f>
-        <v/>
+        <v>3:2</v>
       </c>
       <c r="J300" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A300,Spiele!$A$2:$D$15,3,FALSE)=$B300,(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,$B300,$A$1:$A299,$A300))-(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)),(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,$B300,$A$1:$A299,$A300))-(COUNTIFS($L$1:$L299,"Tor",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300)+COUNTIFS($L$1:$L299,"ET",$B$1:$B299,"&lt;&gt;"&amp;$B300,$A$1:$A299,$A300))),"")</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K300" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L300" s="17" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M300" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O300" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O300" s="17">
+        <v>8</v>
+      </c>
+      <c r="P300" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q300" s="2">
+        <v>21</v>
+      </c>
+      <c r="R300" s="2">
+        <v>16</v>
+      </c>
+      <c r="S300" s="2">
+        <v>20</v>
+      </c>
       <c r="AA300" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB300" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC300" s="14" t="s">
         <v>150</v>
@@ -44470,34 +44408,34 @@
         <v>145</v>
       </c>
       <c r="AE300" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF300" s="13">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG300" s="13">
-        <v>23.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH300" s="19">
-        <f t="shared" si="20"/>
-        <v>25.674220533445606</v>
+        <f t="shared" si="16"/>
+        <v>8.5</v>
       </c>
       <c r="AI300" s="19">
-        <f t="shared" si="21"/>
-        <v>13.174977970680043</v>
+        <f t="shared" si="17"/>
+        <v>46.110158509634289</v>
       </c>
       <c r="AJ300" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="AK300" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL300" s="13">
         <v>2.5</v>
       </c>
       <c r="AM300" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF300-$AK300)^2+($AG300-$AL300)^2))</f>
-        <v>25.238858928247925</v>
+        <v>6.7082039324993694</v>
       </c>
       <c r="AN300" s="3">
         <v>0</v>
@@ -44505,29 +44443,23 @@
       <c r="AO300" s="13"/>
       <c r="AP300" s="13"/>
       <c r="AQ300" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR300" s="3">
-        <v>3</v>
-      </c>
-      <c r="AS300" s="13">
-        <v>9</v>
-      </c>
-      <c r="AT300" s="13">
-        <v>16</v>
-      </c>
-      <c r="AU300" s="19">
-        <f t="shared" si="23"/>
-        <v>9.013878188659973</v>
+        <v>0</v>
+      </c>
+      <c r="AU300" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="301" spans="1:47" ht="25.05" customHeight="1">
       <c r="A301" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C301" s="17" t="str">
         <f>IF($A301="","",IF(VLOOKUP($A301,Spiele!$A$2:$D$15,3,FALSE)=$B301,"H","G"))</f>
@@ -44535,14 +44467,14 @@
       </c>
       <c r="D301" s="17" t="str">
         <f>IF($B301="","",IF(VLOOKUP($A301,Spiele!$A$2:$F$15,3,FALSE)=$B301,VLOOKUP($A301,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A301,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E301" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A301,$A301,$B$2:$B301,$B301,$L$2:$L301,"&lt;&gt;ET"))</f>
         <v>12</v>
       </c>
       <c r="F301" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G301" s="12">
         <v>2</v>
@@ -44553,92 +44485,96 @@
       </c>
       <c r="I301" s="17" t="str">
         <f>IF(OR($L301="Tor",$L301="ET"),_xlfn.IFNA(IF(VLOOKUP($A301,Spiele!$A$2:$C$15,3,FALSE)=$B301,COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,$B301,$A$2:$A301,$A301)&amp;":"&amp;COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301),COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,"&lt;&gt;"&amp;$B301,$A$2:$A301,$A301)&amp;":"&amp;COUNTIFS($L$2:$L301,"Tor",$B$2:$B301,$B301,$A$2:$A301,$A301)+COUNTIFS($L$2:$L301,"ET",$B$2:$B301,$B301,$A$2:$A301,$A301)),""),"")</f>
-        <v>1:1</v>
+        <v/>
       </c>
       <c r="J301" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A301,Spiele!$A$2:$D$15,3,FALSE)=$B301,(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,$B301,$A$1:$A300,$A301))-(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)),(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,$B301,$A$1:$A300,$A301))-(COUNTIFS($L$1:$L300,"Tor",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301)+COUNTIFS($L$1:$L300,"ET",$B$1:$B300,"&lt;&gt;"&amp;$B301,$A$1:$A300,$A301))),"")</f>
         <v>-1</v>
       </c>
       <c r="K301" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L301" s="17" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="M301" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O301" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="O301" s="17">
+        <v>9</v>
+      </c>
       <c r="AA301" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AB301" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC301" s="14" t="s">
         <v>150</v>
       </c>
       <c r="AD301" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE301" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE301" s="18">
+        <v>7</v>
+      </c>
       <c r="AF301" s="13">
-        <v>-8.5</v>
+        <v>-10</v>
       </c>
       <c r="AG301" s="13">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AH301" s="19">
-        <f t="shared" si="20"/>
-        <v>8.5103231431009725</v>
+        <f t="shared" si="16"/>
+        <v>10.604036967117759</v>
       </c>
       <c r="AI301" s="19">
-        <f t="shared" si="21"/>
-        <v>25.411688271902904</v>
+        <f t="shared" si="17"/>
+        <v>21.389256584913166</v>
       </c>
       <c r="AJ301" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK301" s="13">
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
       <c r="AL301" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM301" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF301-$AK301)^2+($AG301-$AL301)^2))</f>
-        <v>8.5146931829632013</v>
+        <v>9.9247166206396038</v>
       </c>
       <c r="AN301" s="3">
         <v>1</v>
       </c>
       <c r="AO301" s="13">
-        <v>-5</v>
+        <v>-10.5</v>
       </c>
       <c r="AP301" s="13">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AQ301" s="19">
-        <f t="shared" si="22"/>
-        <v>3.5355339059327378</v>
+        <f t="shared" si="18"/>
+        <v>0.70710678118654757</v>
       </c>
       <c r="AR301" s="3">
         <v>0</v>
       </c>
       <c r="AU301" s="19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:47" ht="25.05" customHeight="1">
       <c r="A302" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C302" s="17" t="str">
         <f>IF($A302="","",IF(VLOOKUP($A302,Spiele!$A$2:$D$15,3,FALSE)=$B302,"H","G"))</f>
@@ -44646,14 +44582,14 @@
       </c>
       <c r="D302" s="17" t="str">
         <f>IF($B302="","",IF(VLOOKUP($A302,Spiele!$A$2:$F$15,3,FALSE)=$B302,VLOOKUP($A302,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A302,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E302" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A302,$A302,$B$2:$B302,$B302,$L$2:$L302,"&lt;&gt;ET"))</f>
         <v>13</v>
       </c>
       <c r="F302" s="11">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G302" s="12">
         <v>2</v>
@@ -44668,26 +44604,34 @@
       </c>
       <c r="J302" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A302,Spiele!$A$2:$D$15,3,FALSE)=$B302,(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,$B302,$A$1:$A301,$A302))-(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)),(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,$B302,$A$1:$A301,$A302))-(COUNTIFS($L$1:$L301,"Tor",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302)+COUNTIFS($L$1:$L301,"ET",$B$1:$B301,"&lt;&gt;"&amp;$B302,$A$1:$A301,$A302))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K302" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L302" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M302" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O302" s="17"/>
+        <v>158</v>
+      </c>
+      <c r="O302" s="17">
+        <v>11</v>
+      </c>
+      <c r="P302" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q302" s="2">
+        <v>6</v>
+      </c>
       <c r="AA302" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AB302" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AC302" s="14" t="s">
         <v>150</v>
@@ -44695,67 +44639,69 @@
       <c r="AD302" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE302" s="18"/>
+      <c r="AE302" s="18">
+        <v>7</v>
+      </c>
       <c r="AF302" s="13">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AG302" s="13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AH302" s="19">
-        <f t="shared" si="20"/>
-        <v>11.032026105842935</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="AI302" s="19">
-        <f t="shared" si="21"/>
-        <v>32.201857009576806</v>
+        <f t="shared" si="17"/>
+        <v>20.307833196437571</v>
       </c>
       <c r="AJ302" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK302" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AL302" s="13">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="AM302" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF302-$AK302)^2+($AG302-$AL302)^2))</f>
-        <v>11.067971810589327</v>
+        <v>16.568041525780892</v>
       </c>
       <c r="AN302" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO302" s="13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AP302" s="13">
-        <v>9</v>
+        <v>20.5</v>
       </c>
       <c r="AQ302" s="19">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>2.0615528128088303</v>
       </c>
       <c r="AR302" s="3">
         <v>1</v>
       </c>
       <c r="AS302" s="13">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="AT302" s="13">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="AU302" s="19">
-        <f t="shared" si="23"/>
-        <v>5.5226805085936306</v>
+        <f t="shared" si="19"/>
+        <v>1.5811388300841898</v>
       </c>
     </row>
     <row r="303" spans="1:47" ht="25.05" customHeight="1">
       <c r="A303" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C303" s="17" t="str">
         <f>IF($A303="","",IF(VLOOKUP($A303,Spiele!$A$2:$D$15,3,FALSE)=$B303,"H","G"))</f>
@@ -44763,14 +44709,14 @@
       </c>
       <c r="D303" s="17" t="str">
         <f>IF($B303="","",IF(VLOOKUP($A303,Spiele!$A$2:$F$15,3,FALSE)=$B303,VLOOKUP($A303,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A303,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E303" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A303,$A303,$B$2:$B303,$B303,$L$2:$L303,"&lt;&gt;ET"))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F303" s="11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G303" s="12">
         <v>2</v>
@@ -44785,73 +44731,60 @@
       </c>
       <c r="J303" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A303,Spiele!$A$2:$D$15,3,FALSE)=$B303,(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,$B303,$A$1:$A302,$A303))-(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)),(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,$B303,$A$1:$A302,$A303))-(COUNTIFS($L$1:$L302,"Tor",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303)+COUNTIFS($L$1:$L302,"ET",$B$1:$B302,"&lt;&gt;"&amp;$B303,$A$1:$A302,$A303))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L303" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O303" s="17">
-        <v>8</v>
-      </c>
-      <c r="P303" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q303" s="2">
-        <v>8</v>
-      </c>
-      <c r="R303" s="2">
-        <v>6</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O303" s="17"/>
       <c r="AA303" s="2" t="s">
         <v>154</v>
       </c>
       <c r="AB303" s="17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AC303" s="14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AD303" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AE303" s="18">
-        <v>16</v>
-      </c>
+      <c r="AE303" s="18"/>
       <c r="AF303" s="13">
         <v>-5.5</v>
       </c>
       <c r="AG303" s="13">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AH303" s="19">
-        <f t="shared" si="20"/>
-        <v>4.4029081298614443</v>
+        <f t="shared" si="16"/>
+        <v>4.8616458118624806</v>
       </c>
       <c r="AI303" s="19">
-        <f t="shared" si="21"/>
-        <v>41.707579601485392</v>
+        <f t="shared" si="17"/>
+        <v>41.597558035663319</v>
       </c>
       <c r="AJ303" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="AK303" s="13">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="AL303" s="13">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AM303" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF303-$AK303)^2+($AG303-$AL303)^2))</f>
-        <v>1.8027756377319946</v>
+        <v>5.6568542494923806</v>
       </c>
       <c r="AN303" s="3">
         <v>1</v>
@@ -44860,47 +44793,41 @@
         <v>-5.5</v>
       </c>
       <c r="AP303" s="13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ303" s="19">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AR303" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS303" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="AT303" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="AU303" s="19">
-        <f t="shared" si="23"/>
-        <v>6.5</v>
+        <v>0</v>
+      </c>
+      <c r="AU303" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="304" spans="1:47" ht="25.05" customHeight="1">
       <c r="A304" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C304" s="17" t="str">
         <f>IF($A304="","",IF(VLOOKUP($A304,Spiele!$A$2:$D$15,3,FALSE)=$B304,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D304" s="17" t="str">
         <f>IF($B304="","",IF(VLOOKUP($A304,Spiele!$A$2:$F$15,3,FALSE)=$B304,VLOOKUP($A304,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A304,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E304" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A304,$A304,$B$2:$B304,$B304,$L$2:$L304,"&lt;&gt;ET"))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F304" s="11">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G304" s="12">
         <v>2</v>
@@ -44915,49 +44842,25 @@
       </c>
       <c r="J304" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A304,Spiele!$A$2:$D$15,3,FALSE)=$B304,(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,$B304,$A$1:$A303,$A304))-(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)),(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,$B304,$A$1:$A303,$A304))-(COUNTIFS($L$1:$L303,"Tor",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304)+COUNTIFS($L$1:$L303,"ET",$B$1:$B303,"&lt;&gt;"&amp;$B304,$A$1:$A303,$A304))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K304" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L304" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N304" s="2" t="s">
         <v>158</v>
       </c>
       <c r="O304" s="17">
-        <v>7</v>
-      </c>
-      <c r="P304" s="2">
-        <v>18</v>
-      </c>
-      <c r="Q304" s="2">
-        <v>8</v>
-      </c>
-      <c r="R304" s="2">
-        <v>7</v>
-      </c>
-      <c r="S304" s="2">
-        <v>23</v>
-      </c>
-      <c r="T304" s="2">
-        <v>6</v>
-      </c>
-      <c r="U304" s="2">
-        <v>5</v>
-      </c>
-      <c r="V304" s="2">
-        <v>16</v>
-      </c>
-      <c r="W304" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AA304" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB304" s="17" t="s">
         <v>149</v>
@@ -44969,21 +44872,21 @@
         <v>156</v>
       </c>
       <c r="AE304" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF304" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AG304" s="13">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH304" s="19">
-        <f t="shared" si="20"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>17.5</v>
       </c>
       <c r="AI304" s="19">
-        <f t="shared" si="21"/>
-        <v>26.748394088035369</v>
+        <f t="shared" si="17"/>
+        <v>22.995240605722035</v>
       </c>
       <c r="AJ304" s="2" t="s">
         <v>146</v>
@@ -44992,11 +44895,11 @@
         <v>0</v>
       </c>
       <c r="AL304" s="13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AM304" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF304-$AK304)^2+($AG304-$AL304)^2))</f>
-        <v>11.76860229593982</v>
+        <v>14.807092894960848</v>
       </c>
       <c r="AN304" s="3">
         <v>0</v>
@@ -45004,44 +44907,44 @@
       <c r="AO304" s="13"/>
       <c r="AP304" s="13"/>
       <c r="AQ304" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR304" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS304" s="13">
         <v>3</v>
       </c>
-      <c r="AS304" s="13">
-        <v>1.5</v>
-      </c>
       <c r="AT304" s="13">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AU304" s="19">
-        <f t="shared" si="23"/>
-        <v>4.1231056256176606</v>
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:47" ht="25.05" customHeight="1">
       <c r="A305" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C305" s="17" t="str">
         <f>IF($A305="","",IF(VLOOKUP($A305,Spiele!$A$2:$D$15,3,FALSE)=$B305,"H","G"))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="D305" s="17" t="str">
         <f>IF($B305="","",IF(VLOOKUP($A305,Spiele!$A$2:$F$15,3,FALSE)=$B305,VLOOKUP($A305,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A305,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>KSC</v>
       </c>
       <c r="E305" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A305,$A305,$B$2:$B305,$B305,$L$2:$L305,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F305" s="11">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G305" s="12">
         <v>2</v>
@@ -45056,31 +44959,25 @@
       </c>
       <c r="J305" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A305,Spiele!$A$2:$D$15,3,FALSE)=$B305,(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,$B305,$A$1:$A304,$A305))-(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)),(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,$B305,$A$1:$A304,$A305))-(COUNTIFS($L$1:$L304,"Tor",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305)+COUNTIFS($L$1:$L304,"ET",$B$1:$B304,"&lt;&gt;"&amp;$B305,$A$1:$A304,$A305))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K305" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L305" s="17" t="s">
         <v>19</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O305" s="17">
-        <v>18</v>
-      </c>
-      <c r="P305" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q305" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AA305" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AB305" s="17" t="s">
         <v>143</v>
@@ -45092,62 +44989,64 @@
         <v>145</v>
       </c>
       <c r="AE305" s="18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF305" s="13">
-        <v>-13.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AG305" s="13">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AH305" s="19">
-        <f t="shared" si="20"/>
-        <v>19.211340400919454</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="AI305" s="19">
-        <f t="shared" si="21"/>
-        <v>15.312989252529659</v>
+        <f t="shared" si="17"/>
+        <v>33.872689622349228</v>
       </c>
       <c r="AJ305" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK305" s="13">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
       <c r="AL305" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM305" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF305-$AK305)^2+($AG305-$AL305)^2))</f>
-        <v>17.613914953808536</v>
+        <v>11.101801655587259</v>
       </c>
       <c r="AN305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO305" s="13"/>
+      <c r="AP305" s="13"/>
+      <c r="AQ305" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR305" s="3">
         <v>2</v>
       </c>
-      <c r="AO305" s="13">
-        <v>-12.5</v>
-      </c>
-      <c r="AP305" s="13">
-        <v>17.5</v>
-      </c>
-      <c r="AQ305" s="19">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AR305" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU305" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+      <c r="AS305" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AT305" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU305" s="19">
+        <f t="shared" si="19"/>
+        <v>4.1231056256176606</v>
       </c>
     </row>
     <row r="306" spans="1:47" ht="25.05" customHeight="1">
       <c r="A306" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C306" s="17" t="str">
         <f>IF($A306="","",IF(VLOOKUP($A306,Spiele!$A$2:$D$15,3,FALSE)=$B306,"H","G"))</f>
@@ -45155,14 +45054,14 @@
       </c>
       <c r="D306" s="17" t="str">
         <f>IF($B306="","",IF(VLOOKUP($A306,Spiele!$A$2:$F$15,3,FALSE)=$B306,VLOOKUP($A306,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A306,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>60M</v>
+        <v>FCN</v>
       </c>
       <c r="E306" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A306,$A306,$B$2:$B306,$B306,$L$2:$L306,"&lt;&gt;ET"))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F306" s="11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G306" s="12">
         <v>2</v>
@@ -45177,98 +45076,88 @@
       </c>
       <c r="J306" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A306,Spiele!$A$2:$D$15,3,FALSE)=$B306,(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,$B306,$A$1:$A305,$A306))-(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)),(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,$B306,$A$1:$A305,$A306))-(COUNTIFS($L$1:$L305,"Tor",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306)+COUNTIFS($L$1:$L305,"ET",$B$1:$B305,"&lt;&gt;"&amp;$B306,$A$1:$A305,$A306))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L306" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O306" s="17">
-        <v>10</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O306" s="17"/>
       <c r="AA306" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AB306" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AC306" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD306" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE306" s="18">
+      <c r="AE306" s="18"/>
+      <c r="AF306" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AG306" s="13">
         <v>6</v>
       </c>
-      <c r="AF306" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="AG306" s="13">
-        <v>14</v>
-      </c>
       <c r="AH306" s="19">
-        <f t="shared" si="20"/>
-        <v>17.7060893480181</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="AI306" s="19">
-        <f t="shared" si="21"/>
-        <v>14.620361026676797</v>
+        <f t="shared" si="17"/>
+        <v>60.494407394016946</v>
       </c>
       <c r="AJ306" s="2" t="s">
         <v>146</v>
       </c>
       <c r="AK306" s="13">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AL306" s="13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AM306" s="19">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF306-$AK306)^2+($AG306-$AL306)^2))</f>
-        <v>17.327723451163457</v>
+        <v>5.5901699437494745</v>
       </c>
       <c r="AN306" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO306" s="13">
-        <v>14</v>
+        <v>-2.5</v>
       </c>
       <c r="AP306" s="13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AQ306" s="19">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="AR306" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS306" s="13">
-        <v>8.5</v>
-      </c>
-      <c r="AT306" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU306" s="19">
-        <f t="shared" si="23"/>
-        <v>8.4852813742385695</v>
+        <v>0</v>
+      </c>
+      <c r="AU306" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
     <row r="307" spans="1:47" ht="25.05" customHeight="1">
       <c r="A307" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C307" s="17" t="str">
         <f>IF($A307="","",IF(VLOOKUP($A307,Spiele!$A$2:$D$15,3,FALSE)=$B307,"H","G"))</f>
@@ -45276,14 +45165,14 @@
       </c>
       <c r="D307" s="17" t="str">
         <f>IF($B307="","",IF(VLOOKUP($A307,Spiele!$A$2:$F$15,3,FALSE)=$B307,VLOOKUP($A307,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A307,Spiele!$A$2:$F$15,3,FALSE)))</f>
-        <v>FCN</v>
+        <v>KSC</v>
       </c>
       <c r="E307" s="18">
         <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A307,$A307,$B$2:$B307,$B307,$L$2:$L307,"&lt;&gt;ET"))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F307" s="11">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G307" s="12">
         <v>2</v>
@@ -45298,114 +45187,4015 @@
       </c>
       <c r="J307" s="18">
         <f>_xlfn.IFNA(IF(VLOOKUP($A307,Spiele!$A$2:$D$15,3,FALSE)=$B307,(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,$B307,$A$1:$A306,$A307))-(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)),(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,$B307,$A$1:$A306,$A307))-(COUNTIFS($L$1:$L306,"Tor",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307)+COUNTIFS($L$1:$L306,"ET",$B$1:$B306,"&lt;&gt;"&amp;$B307,$A$1:$A306,$A307))),"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K307" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L307" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O307" s="17"/>
+        <v>175</v>
+      </c>
+      <c r="O307" s="17">
+        <v>16</v>
+      </c>
       <c r="AA307" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AB307" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="AC307" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AD307" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AE307" s="18"/>
+      <c r="AE307" s="18">
+        <v>9</v>
+      </c>
       <c r="AF307" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AG307" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="AH307" s="19">
+        <f t="shared" si="16"/>
+        <v>12.717138042814506</v>
+      </c>
+      <c r="AI307" s="19">
+        <f t="shared" si="17"/>
+        <v>27.093800036580017</v>
+      </c>
+      <c r="AJ307" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK307" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL307" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM307" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF307-$AK307)^2+($AG307-$AL307)^2))</f>
+        <v>12.175795661885921</v>
+      </c>
+      <c r="AN307" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO307" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AP307" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="AQ307" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR307" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU307" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A308" s="3">
+        <v>11</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C308" s="17" t="str">
+        <f>IF($A308="","",IF(VLOOKUP($A308,Spiele!$A$2:$D$15,3,FALSE)=$B308,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D308" s="17" t="str">
+        <f>IF($B308="","",IF(VLOOKUP($A308,Spiele!$A$2:$F$15,3,FALSE)=$B308,VLOOKUP($A308,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A308,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E308" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A308,$A308,$B$2:$B308,$B308,$L$2:$L308,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F308" s="11">
+        <v>73</v>
+      </c>
+      <c r="G308" s="12">
+        <v>2</v>
+      </c>
+      <c r="H308" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A308,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B308,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F308,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G308)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A308,'Rote Karten'!$D$2:$D$4,$B308,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F308,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G308)</f>
+        <v>0</v>
+      </c>
+      <c r="I308" s="17" t="str">
+        <f>IF(OR($L308="Tor",$L308="ET"),_xlfn.IFNA(IF(VLOOKUP($A308,Spiele!$A$2:$C$15,3,FALSE)=$B308,COUNTIFS($L$2:$L308,"Tor",$B$2:$B308,$B308,$A$2:$A308,$A308)+COUNTIFS($L$2:$L308,"ET",$B$2:$B308,$B308,$A$2:$A308,$A308)&amp;":"&amp;COUNTIFS($L$2:$L308,"Tor",$B$2:$B308,"&lt;&gt;"&amp;$B308,$A$2:$A308,$A308)+COUNTIFS($L$2:$L308,"ET",$B$2:$B308,"&lt;&gt;"&amp;$B308,$A$2:$A308,$A308),COUNTIFS($L$2:$L308,"Tor",$B$2:$B308,"&lt;&gt;"&amp;$B308,$A$2:$A308,$A308)+COUNTIFS($L$2:$L308,"ET",$B$2:$B308,"&lt;&gt;"&amp;$B308,$A$2:$A308,$A308)&amp;":"&amp;COUNTIFS($L$2:$L308,"Tor",$B$2:$B308,$B308,$A$2:$A308,$A308)+COUNTIFS($L$2:$L308,"ET",$B$2:$B308,$B308,$A$2:$A308,$A308)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J308" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A308,Spiele!$A$2:$D$15,3,FALSE)=$B308,(COUNTIFS($L$1:$L307,"Tor",$B$1:$B307,$B308,$A$1:$A307,$A308)+COUNTIFS($L$1:$L307,"ET",$B$1:$B307,$B308,$A$1:$A307,$A308))-(COUNTIFS($L$1:$L307,"Tor",$B$1:$B307,"&lt;&gt;"&amp;$B308,$A$1:$A307,$A308)+COUNTIFS($L$1:$L307,"ET",$B$1:$B307,"&lt;&gt;"&amp;$B308,$A$1:$A307,$A308)),(COUNTIFS($L$1:$L307,"Tor",$B$1:$B307,$B308,$A$1:$A307,$A308)+COUNTIFS($L$1:$L307,"ET",$B$1:$B307,$B308,$A$1:$A307,$A308))-(COUNTIFS($L$1:$L307,"Tor",$B$1:$B307,"&lt;&gt;"&amp;$B308,$A$1:$A307,$A308)+COUNTIFS($L$1:$L307,"ET",$B$1:$B307,"&lt;&gt;"&amp;$B308,$A$1:$A307,$A308))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K308" s="3">
+        <v>30</v>
+      </c>
+      <c r="L308" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M308" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O308" s="17"/>
+      <c r="AA308" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB308" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC308" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD308" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE308" s="18"/>
+      <c r="AF308" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AG308" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AH308" s="19">
+        <f t="shared" si="16"/>
+        <v>10.5</v>
+      </c>
+      <c r="AI308" s="19">
+        <f t="shared" si="17"/>
+        <v>35.163274230816945</v>
+      </c>
+      <c r="AJ308" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK308" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL308" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM308" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF308-$AK308)^2+($AG308-$AL308)^2))</f>
+        <v>10.111874208078342</v>
+      </c>
+      <c r="AN308" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO308" s="13"/>
+      <c r="AP308" s="13"/>
+      <c r="AQ308" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AR308" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS308" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AT308" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AU308" s="19">
+        <f t="shared" si="19"/>
+        <v>2.0615528128088303</v>
+      </c>
+    </row>
+    <row r="309" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A309" s="3">
+        <v>11</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C309" s="17" t="str">
+        <f>IF($A309="","",IF(VLOOKUP($A309,Spiele!$A$2:$D$15,3,FALSE)=$B309,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D309" s="17" t="str">
+        <f>IF($B309="","",IF(VLOOKUP($A309,Spiele!$A$2:$F$15,3,FALSE)=$B309,VLOOKUP($A309,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A309,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E309" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A309,$A309,$B$2:$B309,$B309,$L$2:$L309,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F309" s="11">
+        <v>74</v>
+      </c>
+      <c r="G309" s="12">
+        <v>2</v>
+      </c>
+      <c r="H309" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A309,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B309,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F309,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G309)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A309,'Rote Karten'!$D$2:$D$4,$B309,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F309,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G309)</f>
+        <v>0</v>
+      </c>
+      <c r="I309" s="17" t="str">
+        <f>IF(OR($L309="Tor",$L309="ET"),_xlfn.IFNA(IF(VLOOKUP($A309,Spiele!$A$2:$C$15,3,FALSE)=$B309,COUNTIFS($L$2:$L309,"Tor",$B$2:$B309,$B309,$A$2:$A309,$A309)+COUNTIFS($L$2:$L309,"ET",$B$2:$B309,$B309,$A$2:$A309,$A309)&amp;":"&amp;COUNTIFS($L$2:$L309,"Tor",$B$2:$B309,"&lt;&gt;"&amp;$B309,$A$2:$A309,$A309)+COUNTIFS($L$2:$L309,"ET",$B$2:$B309,"&lt;&gt;"&amp;$B309,$A$2:$A309,$A309),COUNTIFS($L$2:$L309,"Tor",$B$2:$B309,"&lt;&gt;"&amp;$B309,$A$2:$A309,$A309)+COUNTIFS($L$2:$L309,"ET",$B$2:$B309,"&lt;&gt;"&amp;$B309,$A$2:$A309,$A309)&amp;":"&amp;COUNTIFS($L$2:$L309,"Tor",$B$2:$B309,$B309,$A$2:$A309,$A309)+COUNTIFS($L$2:$L309,"ET",$B$2:$B309,$B309,$A$2:$A309,$A309)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J309" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A309,Spiele!$A$2:$D$15,3,FALSE)=$B309,(COUNTIFS($L$1:$L308,"Tor",$B$1:$B308,$B309,$A$1:$A308,$A309)+COUNTIFS($L$1:$L308,"ET",$B$1:$B308,$B309,$A$1:$A308,$A309))-(COUNTIFS($L$1:$L308,"Tor",$B$1:$B308,"&lt;&gt;"&amp;$B309,$A$1:$A308,$A309)+COUNTIFS($L$1:$L308,"ET",$B$1:$B308,"&lt;&gt;"&amp;$B309,$A$1:$A308,$A309)),(COUNTIFS($L$1:$L308,"Tor",$B$1:$B308,$B309,$A$1:$A308,$A309)+COUNTIFS($L$1:$L308,"ET",$B$1:$B308,$B309,$A$1:$A308,$A309))-(COUNTIFS($L$1:$L308,"Tor",$B$1:$B308,"&lt;&gt;"&amp;$B309,$A$1:$A308,$A309)+COUNTIFS($L$1:$L308,"ET",$B$1:$B308,"&lt;&gt;"&amp;$B309,$A$1:$A308,$A309))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K309" s="3">
+        <v>31</v>
+      </c>
+      <c r="L309" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O309" s="17"/>
+      <c r="AA309" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB309" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC309" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD309" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE309" s="18"/>
+      <c r="AF309" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AG309" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH309" s="19">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AI309" s="19">
+        <f t="shared" si="17"/>
+        <v>62.509140739217635</v>
+      </c>
+      <c r="AJ309" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK309" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL309" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM309" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF309-$AK309)^2+($AG309-$AL309)^2))</f>
+        <v>6.0207972893961479</v>
+      </c>
+      <c r="AN309" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO309" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AP309" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AQ309" s="19">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR309" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU309" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A310" s="3">
+        <v>11</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="17" t="str">
+        <f>IF($A310="","",IF(VLOOKUP($A310,Spiele!$A$2:$D$15,3,FALSE)=$B310,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D310" s="17" t="str">
+        <f>IF($B310="","",IF(VLOOKUP($A310,Spiele!$A$2:$F$15,3,FALSE)=$B310,VLOOKUP($A310,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A310,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>KSC</v>
+      </c>
+      <c r="E310" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A310,$A310,$B$2:$B310,$B310,$L$2:$L310,"&lt;&gt;ET"))</f>
+        <v>17</v>
+      </c>
+      <c r="F310" s="11">
+        <v>77</v>
+      </c>
+      <c r="G310" s="12">
+        <v>2</v>
+      </c>
+      <c r="H310" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A310,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B310,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F310,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G310)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A310,'Rote Karten'!$D$2:$D$4,$B310,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F310,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G310)</f>
+        <v>0</v>
+      </c>
+      <c r="I310" s="17" t="str">
+        <f>IF(OR($L310="Tor",$L310="ET"),_xlfn.IFNA(IF(VLOOKUP($A310,Spiele!$A$2:$C$15,3,FALSE)=$B310,COUNTIFS($L$2:$L310,"Tor",$B$2:$B310,$B310,$A$2:$A310,$A310)+COUNTIFS($L$2:$L310,"ET",$B$2:$B310,$B310,$A$2:$A310,$A310)&amp;":"&amp;COUNTIFS($L$2:$L310,"Tor",$B$2:$B310,"&lt;&gt;"&amp;$B310,$A$2:$A310,$A310)+COUNTIFS($L$2:$L310,"ET",$B$2:$B310,"&lt;&gt;"&amp;$B310,$A$2:$A310,$A310),COUNTIFS($L$2:$L310,"Tor",$B$2:$B310,"&lt;&gt;"&amp;$B310,$A$2:$A310,$A310)+COUNTIFS($L$2:$L310,"ET",$B$2:$B310,"&lt;&gt;"&amp;$B310,$A$2:$A310,$A310)&amp;":"&amp;COUNTIFS($L$2:$L310,"Tor",$B$2:$B310,$B310,$A$2:$A310,$A310)+COUNTIFS($L$2:$L310,"ET",$B$2:$B310,$B310,$A$2:$A310,$A310)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J310" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A310,Spiele!$A$2:$D$15,3,FALSE)=$B310,(COUNTIFS($L$1:$L309,"Tor",$B$1:$B309,$B310,$A$1:$A309,$A310)+COUNTIFS($L$1:$L309,"ET",$B$1:$B309,$B310,$A$1:$A309,$A310))-(COUNTIFS($L$1:$L309,"Tor",$B$1:$B309,"&lt;&gt;"&amp;$B310,$A$1:$A309,$A310)+COUNTIFS($L$1:$L309,"ET",$B$1:$B309,"&lt;&gt;"&amp;$B310,$A$1:$A309,$A310)),(COUNTIFS($L$1:$L309,"Tor",$B$1:$B309,$B310,$A$1:$A309,$A310)+COUNTIFS($L$1:$L309,"ET",$B$1:$B309,$B310,$A$1:$A309,$A310))-(COUNTIFS($L$1:$L309,"Tor",$B$1:$B309,"&lt;&gt;"&amp;$B310,$A$1:$A309,$A310)+COUNTIFS($L$1:$L309,"ET",$B$1:$B309,"&lt;&gt;"&amp;$B310,$A$1:$A309,$A310))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K310" s="3">
+        <v>32</v>
+      </c>
+      <c r="L310" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M310" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O310" s="17">
+        <v>4</v>
+      </c>
+      <c r="P310" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA310" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB310" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC310" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD310" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE310" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF310" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AG310" s="13">
+        <v>21</v>
+      </c>
+      <c r="AH310" s="19">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="AI310" s="19">
+        <f t="shared" si="17"/>
+        <v>19.677530693191148</v>
+      </c>
+      <c r="AJ310" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK310" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL310" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM310" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF310-$AK310)^2+($AG310-$AL310)^2))</f>
+        <v>18.527007313648905</v>
+      </c>
+      <c r="AN310" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO310" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AP310" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AQ310" s="19">
+        <f t="shared" si="18"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="AR310" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS310" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AT310" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU310" s="19">
+        <f t="shared" si="19"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="311" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A311" s="3">
+        <v>11</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="17" t="str">
+        <f>IF($A311="","",IF(VLOOKUP($A311,Spiele!$A$2:$D$15,3,FALSE)=$B311,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D311" s="17" t="str">
+        <f>IF($B311="","",IF(VLOOKUP($A311,Spiele!$A$2:$F$15,3,FALSE)=$B311,VLOOKUP($A311,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A311,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>KSC</v>
+      </c>
+      <c r="E311" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A311,$A311,$B$2:$B311,$B311,$L$2:$L311,"&lt;&gt;ET"))</f>
+        <v>18</v>
+      </c>
+      <c r="F311" s="11">
+        <v>81</v>
+      </c>
+      <c r="G311" s="12">
+        <v>2</v>
+      </c>
+      <c r="H311" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A311,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B311,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F311,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G311)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A311,'Rote Karten'!$D$2:$D$4,$B311,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F311,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G311)</f>
+        <v>0</v>
+      </c>
+      <c r="I311" s="17" t="str">
+        <f>IF(OR($L311="Tor",$L311="ET"),_xlfn.IFNA(IF(VLOOKUP($A311,Spiele!$A$2:$C$15,3,FALSE)=$B311,COUNTIFS($L$2:$L311,"Tor",$B$2:$B311,$B311,$A$2:$A311,$A311)+COUNTIFS($L$2:$L311,"ET",$B$2:$B311,$B311,$A$2:$A311,$A311)&amp;":"&amp;COUNTIFS($L$2:$L311,"Tor",$B$2:$B311,"&lt;&gt;"&amp;$B311,$A$2:$A311,$A311)+COUNTIFS($L$2:$L311,"ET",$B$2:$B311,"&lt;&gt;"&amp;$B311,$A$2:$A311,$A311),COUNTIFS($L$2:$L311,"Tor",$B$2:$B311,"&lt;&gt;"&amp;$B311,$A$2:$A311,$A311)+COUNTIFS($L$2:$L311,"ET",$B$2:$B311,"&lt;&gt;"&amp;$B311,$A$2:$A311,$A311)&amp;":"&amp;COUNTIFS($L$2:$L311,"Tor",$B$2:$B311,$B311,$A$2:$A311,$A311)+COUNTIFS($L$2:$L311,"ET",$B$2:$B311,$B311,$A$2:$A311,$A311)),""),"")</f>
+        <v>3:3</v>
+      </c>
+      <c r="J311" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A311,Spiele!$A$2:$D$15,3,FALSE)=$B311,(COUNTIFS($L$1:$L310,"Tor",$B$1:$B310,$B311,$A$1:$A310,$A311)+COUNTIFS($L$1:$L310,"ET",$B$1:$B310,$B311,$A$1:$A310,$A311))-(COUNTIFS($L$1:$L310,"Tor",$B$1:$B310,"&lt;&gt;"&amp;$B311,$A$1:$A310,$A311)+COUNTIFS($L$1:$L310,"ET",$B$1:$B310,"&lt;&gt;"&amp;$B311,$A$1:$A310,$A311)),(COUNTIFS($L$1:$L310,"Tor",$B$1:$B310,$B311,$A$1:$A310,$A311)+COUNTIFS($L$1:$L310,"ET",$B$1:$B310,$B311,$A$1:$A310,$A311))-(COUNTIFS($L$1:$L310,"Tor",$B$1:$B310,"&lt;&gt;"&amp;$B311,$A$1:$A310,$A311)+COUNTIFS($L$1:$L310,"ET",$B$1:$B310,"&lt;&gt;"&amp;$B311,$A$1:$A310,$A311))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K311" s="3">
+        <v>33</v>
+      </c>
+      <c r="L311" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M311" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N311" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O311" s="17">
+        <v>7</v>
+      </c>
+      <c r="P311" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA311" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB311" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC311" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD311" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE311" s="18">
+        <v>25</v>
+      </c>
+      <c r="AF311" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG311" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH311" s="19">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI311" s="19">
+        <f t="shared" si="17"/>
+        <v>158.18908586021939</v>
+      </c>
+      <c r="AJ311" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK311" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL311" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM311" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF311-$AK311)^2+($AG311-$AL311)^2))</f>
+        <v>1.5</v>
+      </c>
+      <c r="AN311" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO311" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AP311" s="13">
+        <v>3</v>
+      </c>
+      <c r="AQ311" s="19">
+        <f t="shared" si="18"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="AR311" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU311" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A312" s="3">
+        <v>13</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C312" s="17" t="str">
+        <f>IF($A312="","",IF(VLOOKUP($A312,Spiele!$A$2:$D$15,3,FALSE)=$B312,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D312" s="17" t="str">
+        <f>IF($B312="","",IF(VLOOKUP($A312,Spiele!$A$2:$F$15,3,FALSE)=$B312,VLOOKUP($A312,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A312,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E312" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A312,$A312,$B$2:$B312,$B312,$L$2:$L312,"&lt;&gt;ET"))</f>
+        <v>1</v>
+      </c>
+      <c r="F312" s="11">
+        <v>7</v>
+      </c>
+      <c r="G312" s="12">
+        <v>1</v>
+      </c>
+      <c r="H312" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A312,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B312,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F312,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G312)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A312,'Rote Karten'!$D$2:$D$4,$B312,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F312,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G312)</f>
+        <v>0</v>
+      </c>
+      <c r="I312" s="17" t="str">
+        <f>IF(OR($L312="Tor",$L312="ET"),_xlfn.IFNA(IF(VLOOKUP($A312,Spiele!$A$2:$C$15,3,FALSE)=$B312,COUNTIFS($L$2:$L312,"Tor",$B$2:$B312,$B312,$A$2:$A312,$A312)+COUNTIFS($L$2:$L312,"ET",$B$2:$B312,$B312,$A$2:$A312,$A312)&amp;":"&amp;COUNTIFS($L$2:$L312,"Tor",$B$2:$B312,"&lt;&gt;"&amp;$B312,$A$2:$A312,$A312)+COUNTIFS($L$2:$L312,"ET",$B$2:$B312,"&lt;&gt;"&amp;$B312,$A$2:$A312,$A312),COUNTIFS($L$2:$L312,"Tor",$B$2:$B312,"&lt;&gt;"&amp;$B312,$A$2:$A312,$A312)+COUNTIFS($L$2:$L312,"ET",$B$2:$B312,"&lt;&gt;"&amp;$B312,$A$2:$A312,$A312)&amp;":"&amp;COUNTIFS($L$2:$L312,"Tor",$B$2:$B312,$B312,$A$2:$A312,$A312)+COUNTIFS($L$2:$L312,"ET",$B$2:$B312,$B312,$A$2:$A312,$A312)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J312" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A312,Spiele!$A$2:$D$15,3,FALSE)=$B312,(COUNTIFS($L$1:$L311,"Tor",$B$1:$B311,$B312,$A$1:$A311,$A312)+COUNTIFS($L$1:$L311,"ET",$B$1:$B311,$B312,$A$1:$A311,$A312))-(COUNTIFS($L$1:$L311,"Tor",$B$1:$B311,"&lt;&gt;"&amp;$B312,$A$1:$A311,$A312)+COUNTIFS($L$1:$L311,"ET",$B$1:$B311,"&lt;&gt;"&amp;$B312,$A$1:$A311,$A312)),(COUNTIFS($L$1:$L311,"Tor",$B$1:$B311,$B312,$A$1:$A311,$A312)+COUNTIFS($L$1:$L311,"ET",$B$1:$B311,$B312,$A$1:$A311,$A312))-(COUNTIFS($L$1:$L311,"Tor",$B$1:$B311,"&lt;&gt;"&amp;$B312,$A$1:$A311,$A312)+COUNTIFS($L$1:$L311,"ET",$B$1:$B311,"&lt;&gt;"&amp;$B312,$A$1:$A311,$A312))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K312" s="3">
+        <v>1</v>
+      </c>
+      <c r="L312" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M312" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O312" s="17"/>
+      <c r="AA312" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB312" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC312" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD312" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE312" s="18"/>
+      <c r="AF312" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG312" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AH312" s="19">
+        <f t="shared" ref="AH312:AH340" si="20">IF($L312="ET","",IF($AF312&gt;3.66,SQRT($AG312^2+($AF312-(7.32/2))^2),IF($AF312&lt;-3.66,SQRT($AG312^2+($AF312+(7.32/2))^2),$AG312)))</f>
+        <v>17.5</v>
+      </c>
+      <c r="AI312" s="19">
+        <f t="shared" ref="AI312:AI340" si="21">IF($L312="ET","",IF(DEGREES(ATAN((7.32*$AG312)/($AG312^2+$AF312^2-(7.32/2)^2)))&lt;=0,180+DEGREES(ATAN((7.32*$AG312)/($AG312^2+$AF312^2-(7.32/2)^2))),DEGREES(ATAN((7.32*$AG312)/($AG312^2+$AF312^2-(7.32/2)^2)))))</f>
+        <v>23.341389828691302</v>
+      </c>
+      <c r="AJ312" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK312" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL312" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM312" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF312-$AK312)^2+($AG312-$AL312)^2))</f>
+        <v>17.066048165876012</v>
+      </c>
+      <c r="AN312" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO312" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="AP312" s="13">
+        <v>17</v>
+      </c>
+      <c r="AQ312" s="19">
+        <f t="shared" ref="AQ312:AQ340" si="22">IF(AN312=0,"",SQRT(($AF312-$AO312)^2+($AG312-$AP312)^2))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR312" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS312" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT312" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU312" s="19">
+        <f t="shared" ref="AU312:AU340" si="23">IF(AR312=0,"",SQRT(($AF312-$AS312)^2+($AG312-$AT312)^2))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A313" s="3">
+        <v>13</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C313" s="17" t="str">
+        <f>IF($A313="","",IF(VLOOKUP($A313,Spiele!$A$2:$D$15,3,FALSE)=$B313,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D313" s="17" t="str">
+        <f>IF($B313="","",IF(VLOOKUP($A313,Spiele!$A$2:$F$15,3,FALSE)=$B313,VLOOKUP($A313,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A313,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E313" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A313,$A313,$B$2:$B313,$B313,$L$2:$L313,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F313" s="11">
+        <v>7</v>
+      </c>
+      <c r="G313" s="12">
+        <v>1</v>
+      </c>
+      <c r="H313" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A313,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B313,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F313,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G313)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A313,'Rote Karten'!$D$2:$D$4,$B313,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F313,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G313)</f>
+        <v>0</v>
+      </c>
+      <c r="I313" s="17" t="str">
+        <f>IF(OR($L313="Tor",$L313="ET"),_xlfn.IFNA(IF(VLOOKUP($A313,Spiele!$A$2:$C$15,3,FALSE)=$B313,COUNTIFS($L$2:$L313,"Tor",$B$2:$B313,$B313,$A$2:$A313,$A313)+COUNTIFS($L$2:$L313,"ET",$B$2:$B313,$B313,$A$2:$A313,$A313)&amp;":"&amp;COUNTIFS($L$2:$L313,"Tor",$B$2:$B313,"&lt;&gt;"&amp;$B313,$A$2:$A313,$A313)+COUNTIFS($L$2:$L313,"ET",$B$2:$B313,"&lt;&gt;"&amp;$B313,$A$2:$A313,$A313),COUNTIFS($L$2:$L313,"Tor",$B$2:$B313,"&lt;&gt;"&amp;$B313,$A$2:$A313,$A313)+COUNTIFS($L$2:$L313,"ET",$B$2:$B313,"&lt;&gt;"&amp;$B313,$A$2:$A313,$A313)&amp;":"&amp;COUNTIFS($L$2:$L313,"Tor",$B$2:$B313,$B313,$A$2:$A313,$A313)+COUNTIFS($L$2:$L313,"ET",$B$2:$B313,$B313,$A$2:$A313,$A313)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J313" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A313,Spiele!$A$2:$D$15,3,FALSE)=$B313,(COUNTIFS($L$1:$L312,"Tor",$B$1:$B312,$B313,$A$1:$A312,$A313)+COUNTIFS($L$1:$L312,"ET",$B$1:$B312,$B313,$A$1:$A312,$A313))-(COUNTIFS($L$1:$L312,"Tor",$B$1:$B312,"&lt;&gt;"&amp;$B313,$A$1:$A312,$A313)+COUNTIFS($L$1:$L312,"ET",$B$1:$B312,"&lt;&gt;"&amp;$B313,$A$1:$A312,$A313)),(COUNTIFS($L$1:$L312,"Tor",$B$1:$B312,$B313,$A$1:$A312,$A313)+COUNTIFS($L$1:$L312,"ET",$B$1:$B312,$B313,$A$1:$A312,$A313))-(COUNTIFS($L$1:$L312,"Tor",$B$1:$B312,"&lt;&gt;"&amp;$B313,$A$1:$A312,$A313)+COUNTIFS($L$1:$L312,"ET",$B$1:$B312,"&lt;&gt;"&amp;$B313,$A$1:$A312,$A313))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K313" s="3">
+        <v>1</v>
+      </c>
+      <c r="L313" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M313" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N313" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O313" s="17"/>
+      <c r="AA313" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB313" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC313" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD313" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE313" s="18"/>
+      <c r="AF313" s="13">
         <v>-12</v>
       </c>
-      <c r="AG307" s="13">
+      <c r="AG313" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AH313" s="19">
+        <f t="shared" si="20"/>
+        <v>17.601295406872758</v>
+      </c>
+      <c r="AI313" s="19">
+        <f t="shared" si="21"/>
+        <v>17.011080950867086</v>
+      </c>
+      <c r="AJ313" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK313" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL313" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM313" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF313-$AK313)^2+($AG313-$AL313)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AN313" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO313" s="13"/>
+      <c r="AP313" s="13"/>
+      <c r="AQ313" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR313" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS313" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AT313" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU313" s="19">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A314" s="3">
+        <v>13</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="17" t="str">
+        <f>IF($A314="","",IF(VLOOKUP($A314,Spiele!$A$2:$D$15,3,FALSE)=$B314,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D314" s="17" t="str">
+        <f>IF($B314="","",IF(VLOOKUP($A314,Spiele!$A$2:$F$15,3,FALSE)=$B314,VLOOKUP($A314,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A314,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E314" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A314,$A314,$B$2:$B314,$B314,$L$2:$L314,"&lt;&gt;ET"))</f>
+        <v>1</v>
+      </c>
+      <c r="F314" s="11">
+        <v>8</v>
+      </c>
+      <c r="G314" s="12">
+        <v>1</v>
+      </c>
+      <c r="H314" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A314,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B314,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F314,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G314)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A314,'Rote Karten'!$D$2:$D$4,$B314,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F314,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G314)</f>
+        <v>0</v>
+      </c>
+      <c r="I314" s="17" t="str">
+        <f>IF(OR($L314="Tor",$L314="ET"),_xlfn.IFNA(IF(VLOOKUP($A314,Spiele!$A$2:$C$15,3,FALSE)=$B314,COUNTIFS($L$2:$L314,"Tor",$B$2:$B314,$B314,$A$2:$A314,$A314)+COUNTIFS($L$2:$L314,"ET",$B$2:$B314,$B314,$A$2:$A314,$A314)&amp;":"&amp;COUNTIFS($L$2:$L314,"Tor",$B$2:$B314,"&lt;&gt;"&amp;$B314,$A$2:$A314,$A314)+COUNTIFS($L$2:$L314,"ET",$B$2:$B314,"&lt;&gt;"&amp;$B314,$A$2:$A314,$A314),COUNTIFS($L$2:$L314,"Tor",$B$2:$B314,"&lt;&gt;"&amp;$B314,$A$2:$A314,$A314)+COUNTIFS($L$2:$L314,"ET",$B$2:$B314,"&lt;&gt;"&amp;$B314,$A$2:$A314,$A314)&amp;":"&amp;COUNTIFS($L$2:$L314,"Tor",$B$2:$B314,$B314,$A$2:$A314,$A314)+COUNTIFS($L$2:$L314,"ET",$B$2:$B314,$B314,$A$2:$A314,$A314)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J314" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A314,Spiele!$A$2:$D$15,3,FALSE)=$B314,(COUNTIFS($L$1:$L313,"Tor",$B$1:$B313,$B314,$A$1:$A313,$A314)+COUNTIFS($L$1:$L313,"ET",$B$1:$B313,$B314,$A$1:$A313,$A314))-(COUNTIFS($L$1:$L313,"Tor",$B$1:$B313,"&lt;&gt;"&amp;$B314,$A$1:$A313,$A314)+COUNTIFS($L$1:$L313,"ET",$B$1:$B313,"&lt;&gt;"&amp;$B314,$A$1:$A313,$A314)),(COUNTIFS($L$1:$L313,"Tor",$B$1:$B313,$B314,$A$1:$A313,$A314)+COUNTIFS($L$1:$L313,"ET",$B$1:$B313,$B314,$A$1:$A313,$A314))-(COUNTIFS($L$1:$L313,"Tor",$B$1:$B313,"&lt;&gt;"&amp;$B314,$A$1:$A313,$A314)+COUNTIFS($L$1:$L313,"ET",$B$1:$B313,"&lt;&gt;"&amp;$B314,$A$1:$A313,$A314))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K314" s="3">
+        <v>2</v>
+      </c>
+      <c r="L314" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M314" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N314" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O314" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA314" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB314" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC314" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD314" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE314" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF314" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AG314" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AH314" s="19">
+        <f t="shared" si="20"/>
+        <v>11.5</v>
+      </c>
+      <c r="AI314" s="19">
+        <f t="shared" si="21"/>
+        <v>32.703859314557576</v>
+      </c>
+      <c r="AJ314" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK314" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL314" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM314" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF314-$AK314)^2+($AG314-$AL314)^2))</f>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="AN314" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO314" s="13"/>
+      <c r="AP314" s="13"/>
+      <c r="AQ314" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR314" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS314" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT314" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU314" s="19">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A315" s="3">
+        <v>13</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C315" s="17" t="str">
+        <f>IF($A315="","",IF(VLOOKUP($A315,Spiele!$A$2:$D$15,3,FALSE)=$B315,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D315" s="17" t="str">
+        <f>IF($B315="","",IF(VLOOKUP($A315,Spiele!$A$2:$F$15,3,FALSE)=$B315,VLOOKUP($A315,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A315,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E315" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A315,$A315,$B$2:$B315,$B315,$L$2:$L315,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F315" s="11">
+        <v>9</v>
+      </c>
+      <c r="G315" s="12">
+        <v>1</v>
+      </c>
+      <c r="H315" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A315,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B315,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F315,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G315)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A315,'Rote Karten'!$D$2:$D$4,$B315,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F315,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G315)</f>
+        <v>0</v>
+      </c>
+      <c r="I315" s="17" t="str">
+        <f>IF(OR($L315="Tor",$L315="ET"),_xlfn.IFNA(IF(VLOOKUP($A315,Spiele!$A$2:$C$15,3,FALSE)=$B315,COUNTIFS($L$2:$L315,"Tor",$B$2:$B315,$B315,$A$2:$A315,$A315)+COUNTIFS($L$2:$L315,"ET",$B$2:$B315,$B315,$A$2:$A315,$A315)&amp;":"&amp;COUNTIFS($L$2:$L315,"Tor",$B$2:$B315,"&lt;&gt;"&amp;$B315,$A$2:$A315,$A315)+COUNTIFS($L$2:$L315,"ET",$B$2:$B315,"&lt;&gt;"&amp;$B315,$A$2:$A315,$A315),COUNTIFS($L$2:$L315,"Tor",$B$2:$B315,"&lt;&gt;"&amp;$B315,$A$2:$A315,$A315)+COUNTIFS($L$2:$L315,"ET",$B$2:$B315,"&lt;&gt;"&amp;$B315,$A$2:$A315,$A315)&amp;":"&amp;COUNTIFS($L$2:$L315,"Tor",$B$2:$B315,$B315,$A$2:$A315,$A315)+COUNTIFS($L$2:$L315,"ET",$B$2:$B315,$B315,$A$2:$A315,$A315)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J315" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A315,Spiele!$A$2:$D$15,3,FALSE)=$B315,(COUNTIFS($L$1:$L314,"Tor",$B$1:$B314,$B315,$A$1:$A314,$A315)+COUNTIFS($L$1:$L314,"ET",$B$1:$B314,$B315,$A$1:$A314,$A315))-(COUNTIFS($L$1:$L314,"Tor",$B$1:$B314,"&lt;&gt;"&amp;$B315,$A$1:$A314,$A315)+COUNTIFS($L$1:$L314,"ET",$B$1:$B314,"&lt;&gt;"&amp;$B315,$A$1:$A314,$A315)),(COUNTIFS($L$1:$L314,"Tor",$B$1:$B314,$B315,$A$1:$A314,$A315)+COUNTIFS($L$1:$L314,"ET",$B$1:$B314,$B315,$A$1:$A314,$A315))-(COUNTIFS($L$1:$L314,"Tor",$B$1:$B314,"&lt;&gt;"&amp;$B315,$A$1:$A314,$A315)+COUNTIFS($L$1:$L314,"ET",$B$1:$B314,"&lt;&gt;"&amp;$B315,$A$1:$A314,$A315))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K315" s="3">
+        <v>3</v>
+      </c>
+      <c r="L315" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AH307" s="19">
+      <c r="M315" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N315" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O315" s="17"/>
+      <c r="AA315" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB315" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC315" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD315" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE315" s="18"/>
+      <c r="AF315" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AG315" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="AH315" s="19">
+        <f t="shared" si="20"/>
+        <v>15.5</v>
+      </c>
+      <c r="AI315" s="19">
+        <f t="shared" si="21"/>
+        <v>26.546439371443093</v>
+      </c>
+      <c r="AJ315" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK315" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL315" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM315" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF315-$AK315)^2+($AG315-$AL315)^2))</f>
+        <v>15.033296378372908</v>
+      </c>
+      <c r="AN315" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO315" s="13"/>
+      <c r="AP315" s="13"/>
+      <c r="AQ315" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR315" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS315" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AT315" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AU315" s="19">
+        <f t="shared" si="23"/>
+        <v>6.0207972893961479</v>
+      </c>
+    </row>
+    <row r="316" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A316" s="3">
+        <v>13</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="17" t="str">
+        <f>IF($A316="","",IF(VLOOKUP($A316,Spiele!$A$2:$D$15,3,FALSE)=$B316,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D316" s="17" t="str">
+        <f>IF($B316="","",IF(VLOOKUP($A316,Spiele!$A$2:$F$15,3,FALSE)=$B316,VLOOKUP($A316,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A316,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E316" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A316,$A316,$B$2:$B316,$B316,$L$2:$L316,"&lt;&gt;ET"))</f>
+        <v>2</v>
+      </c>
+      <c r="F316" s="11">
+        <v>10</v>
+      </c>
+      <c r="G316" s="12">
+        <v>1</v>
+      </c>
+      <c r="H316" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A316,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B316,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F316,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G316)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A316,'Rote Karten'!$D$2:$D$4,$B316,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F316,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G316)</f>
+        <v>0</v>
+      </c>
+      <c r="I316" s="17" t="str">
+        <f>IF(OR($L316="Tor",$L316="ET"),_xlfn.IFNA(IF(VLOOKUP($A316,Spiele!$A$2:$C$15,3,FALSE)=$B316,COUNTIFS($L$2:$L316,"Tor",$B$2:$B316,$B316,$A$2:$A316,$A316)+COUNTIFS($L$2:$L316,"ET",$B$2:$B316,$B316,$A$2:$A316,$A316)&amp;":"&amp;COUNTIFS($L$2:$L316,"Tor",$B$2:$B316,"&lt;&gt;"&amp;$B316,$A$2:$A316,$A316)+COUNTIFS($L$2:$L316,"ET",$B$2:$B316,"&lt;&gt;"&amp;$B316,$A$2:$A316,$A316),COUNTIFS($L$2:$L316,"Tor",$B$2:$B316,"&lt;&gt;"&amp;$B316,$A$2:$A316,$A316)+COUNTIFS($L$2:$L316,"ET",$B$2:$B316,"&lt;&gt;"&amp;$B316,$A$2:$A316,$A316)&amp;":"&amp;COUNTIFS($L$2:$L316,"Tor",$B$2:$B316,$B316,$A$2:$A316,$A316)+COUNTIFS($L$2:$L316,"ET",$B$2:$B316,$B316,$A$2:$A316,$A316)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J316" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A316,Spiele!$A$2:$D$15,3,FALSE)=$B316,(COUNTIFS($L$1:$L315,"Tor",$B$1:$B315,$B316,$A$1:$A315,$A316)+COUNTIFS($L$1:$L315,"ET",$B$1:$B315,$B316,$A$1:$A315,$A316))-(COUNTIFS($L$1:$L315,"Tor",$B$1:$B315,"&lt;&gt;"&amp;$B316,$A$1:$A315,$A316)+COUNTIFS($L$1:$L315,"ET",$B$1:$B315,"&lt;&gt;"&amp;$B316,$A$1:$A315,$A316)),(COUNTIFS($L$1:$L315,"Tor",$B$1:$B315,$B316,$A$1:$A315,$A316)+COUNTIFS($L$1:$L315,"ET",$B$1:$B315,$B316,$A$1:$A315,$A316))-(COUNTIFS($L$1:$L315,"Tor",$B$1:$B315,"&lt;&gt;"&amp;$B316,$A$1:$A315,$A316)+COUNTIFS($L$1:$L315,"ET",$B$1:$B315,"&lt;&gt;"&amp;$B316,$A$1:$A315,$A316))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K316" s="3">
+        <v>4</v>
+      </c>
+      <c r="L316" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M316" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N316" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O316" s="17">
+        <v>9</v>
+      </c>
+      <c r="P316" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>7</v>
+      </c>
+      <c r="R316" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA316" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB316" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC316" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD316" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE316" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF316" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG316" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH316" s="19">
+        <f t="shared" si="20"/>
+        <v>13.595793467098565</v>
+      </c>
+      <c r="AI316" s="19">
+        <f t="shared" si="21"/>
+        <v>11.583042211219654</v>
+      </c>
+      <c r="AJ316" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK316" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL316" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM316" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF316-$AK316)^2+($AG316-$AL316)^2))</f>
+        <v>12.529964086141668</v>
+      </c>
+      <c r="AN316" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO316" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AP316" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ316" s="19">
+        <f t="shared" si="22"/>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AR316" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU316" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A317" s="3">
+        <v>13</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C317" s="17" t="str">
+        <f>IF($A317="","",IF(VLOOKUP($A317,Spiele!$A$2:$D$15,3,FALSE)=$B317,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D317" s="17" t="str">
+        <f>IF($B317="","",IF(VLOOKUP($A317,Spiele!$A$2:$F$15,3,FALSE)=$B317,VLOOKUP($A317,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A317,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E317" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A317,$A317,$B$2:$B317,$B317,$L$2:$L317,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F317" s="11">
+        <v>14</v>
+      </c>
+      <c r="G317" s="12">
+        <v>1</v>
+      </c>
+      <c r="H317" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A317,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B317,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F317,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G317)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A317,'Rote Karten'!$D$2:$D$4,$B317,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F317,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G317)</f>
+        <v>0</v>
+      </c>
+      <c r="I317" s="17" t="str">
+        <f>IF(OR($L317="Tor",$L317="ET"),_xlfn.IFNA(IF(VLOOKUP($A317,Spiele!$A$2:$C$15,3,FALSE)=$B317,COUNTIFS($L$2:$L317,"Tor",$B$2:$B317,$B317,$A$2:$A317,$A317)+COUNTIFS($L$2:$L317,"ET",$B$2:$B317,$B317,$A$2:$A317,$A317)&amp;":"&amp;COUNTIFS($L$2:$L317,"Tor",$B$2:$B317,"&lt;&gt;"&amp;$B317,$A$2:$A317,$A317)+COUNTIFS($L$2:$L317,"ET",$B$2:$B317,"&lt;&gt;"&amp;$B317,$A$2:$A317,$A317),COUNTIFS($L$2:$L317,"Tor",$B$2:$B317,"&lt;&gt;"&amp;$B317,$A$2:$A317,$A317)+COUNTIFS($L$2:$L317,"ET",$B$2:$B317,"&lt;&gt;"&amp;$B317,$A$2:$A317,$A317)&amp;":"&amp;COUNTIFS($L$2:$L317,"Tor",$B$2:$B317,$B317,$A$2:$A317,$A317)+COUNTIFS($L$2:$L317,"ET",$B$2:$B317,$B317,$A$2:$A317,$A317)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J317" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A317,Spiele!$A$2:$D$15,3,FALSE)=$B317,(COUNTIFS($L$1:$L316,"Tor",$B$1:$B316,$B317,$A$1:$A316,$A317)+COUNTIFS($L$1:$L316,"ET",$B$1:$B316,$B317,$A$1:$A316,$A317))-(COUNTIFS($L$1:$L316,"Tor",$B$1:$B316,"&lt;&gt;"&amp;$B317,$A$1:$A316,$A317)+COUNTIFS($L$1:$L316,"ET",$B$1:$B316,"&lt;&gt;"&amp;$B317,$A$1:$A316,$A317)),(COUNTIFS($L$1:$L316,"Tor",$B$1:$B316,$B317,$A$1:$A316,$A317)+COUNTIFS($L$1:$L316,"ET",$B$1:$B316,$B317,$A$1:$A316,$A317))-(COUNTIFS($L$1:$L316,"Tor",$B$1:$B316,"&lt;&gt;"&amp;$B317,$A$1:$A316,$A317)+COUNTIFS($L$1:$L316,"ET",$B$1:$B316,"&lt;&gt;"&amp;$B317,$A$1:$A316,$A317))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K317" s="3">
+        <v>5</v>
+      </c>
+      <c r="L317" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M317" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N317" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O317" s="17"/>
+      <c r="AA317" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB317" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC317" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD317" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE317" s="18"/>
+      <c r="AF317" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AG317" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH317" s="19">
+        <f t="shared" si="20"/>
+        <v>13.555279414309393</v>
+      </c>
+      <c r="AI317" s="19">
+        <f t="shared" si="21"/>
+        <v>24.188491715950388</v>
+      </c>
+      <c r="AJ317" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK317" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL317" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM317" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF317-$AK317)^2+($AG317-$AL317)^2))</f>
+        <v>14.089002803605371</v>
+      </c>
+      <c r="AN317" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO317" s="13"/>
+      <c r="AP317" s="13"/>
+      <c r="AQ317" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR317" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS317" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT317" s="13">
+        <v>12</v>
+      </c>
+      <c r="AU317" s="19">
+        <f t="shared" si="23"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="318" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A318" s="3">
+        <v>13</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C318" s="17" t="str">
+        <f>IF($A318="","",IF(VLOOKUP($A318,Spiele!$A$2:$D$15,3,FALSE)=$B318,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D318" s="17" t="str">
+        <f>IF($B318="","",IF(VLOOKUP($A318,Spiele!$A$2:$F$15,3,FALSE)=$B318,VLOOKUP($A318,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A318,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E318" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A318,$A318,$B$2:$B318,$B318,$L$2:$L318,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F318" s="11">
+        <v>18</v>
+      </c>
+      <c r="G318" s="12">
+        <v>1</v>
+      </c>
+      <c r="H318" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A318,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B318,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F318,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G318)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A318,'Rote Karten'!$D$2:$D$4,$B318,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F318,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G318)</f>
+        <v>0</v>
+      </c>
+      <c r="I318" s="17" t="str">
+        <f>IF(OR($L318="Tor",$L318="ET"),_xlfn.IFNA(IF(VLOOKUP($A318,Spiele!$A$2:$C$15,3,FALSE)=$B318,COUNTIFS($L$2:$L318,"Tor",$B$2:$B318,$B318,$A$2:$A318,$A318)+COUNTIFS($L$2:$L318,"ET",$B$2:$B318,$B318,$A$2:$A318,$A318)&amp;":"&amp;COUNTIFS($L$2:$L318,"Tor",$B$2:$B318,"&lt;&gt;"&amp;$B318,$A$2:$A318,$A318)+COUNTIFS($L$2:$L318,"ET",$B$2:$B318,"&lt;&gt;"&amp;$B318,$A$2:$A318,$A318),COUNTIFS($L$2:$L318,"Tor",$B$2:$B318,"&lt;&gt;"&amp;$B318,$A$2:$A318,$A318)+COUNTIFS($L$2:$L318,"ET",$B$2:$B318,"&lt;&gt;"&amp;$B318,$A$2:$A318,$A318)&amp;":"&amp;COUNTIFS($L$2:$L318,"Tor",$B$2:$B318,$B318,$A$2:$A318,$A318)+COUNTIFS($L$2:$L318,"ET",$B$2:$B318,$B318,$A$2:$A318,$A318)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J318" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A318,Spiele!$A$2:$D$15,3,FALSE)=$B318,(COUNTIFS($L$1:$L317,"Tor",$B$1:$B317,$B318,$A$1:$A317,$A318)+COUNTIFS($L$1:$L317,"ET",$B$1:$B317,$B318,$A$1:$A317,$A318))-(COUNTIFS($L$1:$L317,"Tor",$B$1:$B317,"&lt;&gt;"&amp;$B318,$A$1:$A317,$A318)+COUNTIFS($L$1:$L317,"ET",$B$1:$B317,"&lt;&gt;"&amp;$B318,$A$1:$A317,$A318)),(COUNTIFS($L$1:$L317,"Tor",$B$1:$B317,$B318,$A$1:$A317,$A318)+COUNTIFS($L$1:$L317,"ET",$B$1:$B317,$B318,$A$1:$A317,$A318))-(COUNTIFS($L$1:$L317,"Tor",$B$1:$B317,"&lt;&gt;"&amp;$B318,$A$1:$A317,$A318)+COUNTIFS($L$1:$L317,"ET",$B$1:$B317,"&lt;&gt;"&amp;$B318,$A$1:$A317,$A318))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K318" s="3">
+        <v>6</v>
+      </c>
+      <c r="L318" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M318" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O318" s="17"/>
+      <c r="AA318" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB318" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC318" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD318" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE318" s="18"/>
+      <c r="AF318" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG318" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH318" s="19">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="AI318" s="19">
+        <f t="shared" si="21"/>
+        <v>21.750134253188115</v>
+      </c>
+      <c r="AJ318" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK318" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL318" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM318" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF318-$AK318)^2+($AG318-$AL318)^2))</f>
+        <v>18.527007313648905</v>
+      </c>
+      <c r="AN318" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO318" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AP318" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ318" s="19">
+        <f t="shared" si="22"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="AR318" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS318" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT318" s="13">
+        <v>14</v>
+      </c>
+      <c r="AU318" s="19">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A319" s="3">
+        <v>13</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C319" s="17" t="str">
+        <f>IF($A319="","",IF(VLOOKUP($A319,Spiele!$A$2:$D$15,3,FALSE)=$B319,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D319" s="17" t="str">
+        <f>IF($B319="","",IF(VLOOKUP($A319,Spiele!$A$2:$F$15,3,FALSE)=$B319,VLOOKUP($A319,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A319,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E319" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A319,$A319,$B$2:$B319,$B319,$L$2:$L319,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F319" s="11">
+        <v>18</v>
+      </c>
+      <c r="G319" s="12">
+        <v>1</v>
+      </c>
+      <c r="H319" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A319,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B319,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F319,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G319)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A319,'Rote Karten'!$D$2:$D$4,$B319,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F319,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G319)</f>
+        <v>0</v>
+      </c>
+      <c r="I319" s="17" t="str">
+        <f>IF(OR($L319="Tor",$L319="ET"),_xlfn.IFNA(IF(VLOOKUP($A319,Spiele!$A$2:$C$15,3,FALSE)=$B319,COUNTIFS($L$2:$L319,"Tor",$B$2:$B319,$B319,$A$2:$A319,$A319)+COUNTIFS($L$2:$L319,"ET",$B$2:$B319,$B319,$A$2:$A319,$A319)&amp;":"&amp;COUNTIFS($L$2:$L319,"Tor",$B$2:$B319,"&lt;&gt;"&amp;$B319,$A$2:$A319,$A319)+COUNTIFS($L$2:$L319,"ET",$B$2:$B319,"&lt;&gt;"&amp;$B319,$A$2:$A319,$A319),COUNTIFS($L$2:$L319,"Tor",$B$2:$B319,"&lt;&gt;"&amp;$B319,$A$2:$A319,$A319)+COUNTIFS($L$2:$L319,"ET",$B$2:$B319,"&lt;&gt;"&amp;$B319,$A$2:$A319,$A319)&amp;":"&amp;COUNTIFS($L$2:$L319,"Tor",$B$2:$B319,$B319,$A$2:$A319,$A319)+COUNTIFS($L$2:$L319,"ET",$B$2:$B319,$B319,$A$2:$A319,$A319)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J319" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A319,Spiele!$A$2:$D$15,3,FALSE)=$B319,(COUNTIFS($L$1:$L318,"Tor",$B$1:$B318,$B319,$A$1:$A318,$A319)+COUNTIFS($L$1:$L318,"ET",$B$1:$B318,$B319,$A$1:$A318,$A319))-(COUNTIFS($L$1:$L318,"Tor",$B$1:$B318,"&lt;&gt;"&amp;$B319,$A$1:$A318,$A319)+COUNTIFS($L$1:$L318,"ET",$B$1:$B318,"&lt;&gt;"&amp;$B319,$A$1:$A318,$A319)),(COUNTIFS($L$1:$L318,"Tor",$B$1:$B318,$B319,$A$1:$A318,$A319)+COUNTIFS($L$1:$L318,"ET",$B$1:$B318,$B319,$A$1:$A318,$A319))-(COUNTIFS($L$1:$L318,"Tor",$B$1:$B318,"&lt;&gt;"&amp;$B319,$A$1:$A318,$A319)+COUNTIFS($L$1:$L318,"ET",$B$1:$B318,"&lt;&gt;"&amp;$B319,$A$1:$A318,$A319))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K319" s="3">
+        <v>6</v>
+      </c>
+      <c r="L319" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M319" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N319" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O319" s="17"/>
+      <c r="AA319" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB319" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC319" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD319" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE319" s="18"/>
+      <c r="AF319" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AG319" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH319" s="19">
+        <f t="shared" si="20"/>
+        <v>14.775506759498978</v>
+      </c>
+      <c r="AI319" s="19">
+        <f t="shared" si="21"/>
+        <v>23.936746455580142</v>
+      </c>
+      <c r="AJ319" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK319" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL319" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM319" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF319-$AK319)^2+($AG319-$AL319)^2))</f>
+        <v>15.231546211727817</v>
+      </c>
+      <c r="AN319" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO319" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP319" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AQ319" s="19">
+        <f t="shared" si="22"/>
+        <v>3.5</v>
+      </c>
+      <c r="AR319" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS319" s="13">
+        <v>6</v>
+      </c>
+      <c r="AT319" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AU319" s="19">
+        <f t="shared" si="23"/>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="320" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A320" s="3">
+        <v>13</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="17" t="str">
+        <f>IF($A320="","",IF(VLOOKUP($A320,Spiele!$A$2:$D$15,3,FALSE)=$B320,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D320" s="17" t="str">
+        <f>IF($B320="","",IF(VLOOKUP($A320,Spiele!$A$2:$F$15,3,FALSE)=$B320,VLOOKUP($A320,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A320,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E320" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A320,$A320,$B$2:$B320,$B320,$L$2:$L320,"&lt;&gt;ET"))</f>
+        <v>3</v>
+      </c>
+      <c r="F320" s="11">
+        <v>18</v>
+      </c>
+      <c r="G320" s="12">
+        <v>1</v>
+      </c>
+      <c r="H320" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A320,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B320,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F320,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G320)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A320,'Rote Karten'!$D$2:$D$4,$B320,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F320,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G320)</f>
+        <v>0</v>
+      </c>
+      <c r="I320" s="17" t="str">
+        <f>IF(OR($L320="Tor",$L320="ET"),_xlfn.IFNA(IF(VLOOKUP($A320,Spiele!$A$2:$C$15,3,FALSE)=$B320,COUNTIFS($L$2:$L320,"Tor",$B$2:$B320,$B320,$A$2:$A320,$A320)+COUNTIFS($L$2:$L320,"ET",$B$2:$B320,$B320,$A$2:$A320,$A320)&amp;":"&amp;COUNTIFS($L$2:$L320,"Tor",$B$2:$B320,"&lt;&gt;"&amp;$B320,$A$2:$A320,$A320)+COUNTIFS($L$2:$L320,"ET",$B$2:$B320,"&lt;&gt;"&amp;$B320,$A$2:$A320,$A320),COUNTIFS($L$2:$L320,"Tor",$B$2:$B320,"&lt;&gt;"&amp;$B320,$A$2:$A320,$A320)+COUNTIFS($L$2:$L320,"ET",$B$2:$B320,"&lt;&gt;"&amp;$B320,$A$2:$A320,$A320)&amp;":"&amp;COUNTIFS($L$2:$L320,"Tor",$B$2:$B320,$B320,$A$2:$A320,$A320)+COUNTIFS($L$2:$L320,"ET",$B$2:$B320,$B320,$A$2:$A320,$A320)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J320" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A320,Spiele!$A$2:$D$15,3,FALSE)=$B320,(COUNTIFS($L$1:$L319,"Tor",$B$1:$B319,$B320,$A$1:$A319,$A320)+COUNTIFS($L$1:$L319,"ET",$B$1:$B319,$B320,$A$1:$A319,$A320))-(COUNTIFS($L$1:$L319,"Tor",$B$1:$B319,"&lt;&gt;"&amp;$B320,$A$1:$A319,$A320)+COUNTIFS($L$1:$L319,"ET",$B$1:$B319,"&lt;&gt;"&amp;$B320,$A$1:$A319,$A320)),(COUNTIFS($L$1:$L319,"Tor",$B$1:$B319,$B320,$A$1:$A319,$A320)+COUNTIFS($L$1:$L319,"ET",$B$1:$B319,$B320,$A$1:$A319,$A320))-(COUNTIFS($L$1:$L319,"Tor",$B$1:$B319,"&lt;&gt;"&amp;$B320,$A$1:$A319,$A320)+COUNTIFS($L$1:$L319,"ET",$B$1:$B319,"&lt;&gt;"&amp;$B320,$A$1:$A319,$A320))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K320" s="3">
+        <v>7</v>
+      </c>
+      <c r="L320" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M320" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N320" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O320" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA320" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB320" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC320" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD320" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE320" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF320" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG320" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AH320" s="19">
+        <f t="shared" si="20"/>
+        <v>14.524310654898565</v>
+      </c>
+      <c r="AI320" s="19">
+        <f t="shared" si="21"/>
+        <v>26.053510457112758</v>
+      </c>
+      <c r="AJ320" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK320" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AL320" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM320" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF320-$AK320)^2+($AG320-$AL320)^2))</f>
+        <v>11.401754250991379</v>
+      </c>
+      <c r="AN320" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO320" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP320" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AQ320" s="19">
+        <f t="shared" si="22"/>
+        <v>3.905124837953327</v>
+      </c>
+      <c r="AR320" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS320" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT320" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="AU320" s="19">
+        <f t="shared" si="23"/>
+        <v>4.0311288741492746</v>
+      </c>
+    </row>
+    <row r="321" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A321" s="3">
+        <v>13</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321" s="17" t="str">
+        <f>IF($A321="","",IF(VLOOKUP($A321,Spiele!$A$2:$D$15,3,FALSE)=$B321,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D321" s="17" t="str">
+        <f>IF($B321="","",IF(VLOOKUP($A321,Spiele!$A$2:$F$15,3,FALSE)=$B321,VLOOKUP($A321,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A321,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E321" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A321,$A321,$B$2:$B321,$B321,$L$2:$L321,"&lt;&gt;ET"))</f>
+        <v>4</v>
+      </c>
+      <c r="F321" s="11">
+        <v>22</v>
+      </c>
+      <c r="G321" s="12">
+        <v>1</v>
+      </c>
+      <c r="H321" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A321,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B321,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F321,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G321)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A321,'Rote Karten'!$D$2:$D$4,$B321,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F321,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G321)</f>
+        <v>0</v>
+      </c>
+      <c r="I321" s="17" t="str">
+        <f>IF(OR($L321="Tor",$L321="ET"),_xlfn.IFNA(IF(VLOOKUP($A321,Spiele!$A$2:$C$15,3,FALSE)=$B321,COUNTIFS($L$2:$L321,"Tor",$B$2:$B321,$B321,$A$2:$A321,$A321)+COUNTIFS($L$2:$L321,"ET",$B$2:$B321,$B321,$A$2:$A321,$A321)&amp;":"&amp;COUNTIFS($L$2:$L321,"Tor",$B$2:$B321,"&lt;&gt;"&amp;$B321,$A$2:$A321,$A321)+COUNTIFS($L$2:$L321,"ET",$B$2:$B321,"&lt;&gt;"&amp;$B321,$A$2:$A321,$A321),COUNTIFS($L$2:$L321,"Tor",$B$2:$B321,"&lt;&gt;"&amp;$B321,$A$2:$A321,$A321)+COUNTIFS($L$2:$L321,"ET",$B$2:$B321,"&lt;&gt;"&amp;$B321,$A$2:$A321,$A321)&amp;":"&amp;COUNTIFS($L$2:$L321,"Tor",$B$2:$B321,$B321,$A$2:$A321,$A321)+COUNTIFS($L$2:$L321,"ET",$B$2:$B321,$B321,$A$2:$A321,$A321)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J321" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A321,Spiele!$A$2:$D$15,3,FALSE)=$B321,(COUNTIFS($L$1:$L320,"Tor",$B$1:$B320,$B321,$A$1:$A320,$A321)+COUNTIFS($L$1:$L320,"ET",$B$1:$B320,$B321,$A$1:$A320,$A321))-(COUNTIFS($L$1:$L320,"Tor",$B$1:$B320,"&lt;&gt;"&amp;$B321,$A$1:$A320,$A321)+COUNTIFS($L$1:$L320,"ET",$B$1:$B320,"&lt;&gt;"&amp;$B321,$A$1:$A320,$A321)),(COUNTIFS($L$1:$L320,"Tor",$B$1:$B320,$B321,$A$1:$A320,$A321)+COUNTIFS($L$1:$L320,"ET",$B$1:$B320,$B321,$A$1:$A320,$A321))-(COUNTIFS($L$1:$L320,"Tor",$B$1:$B320,"&lt;&gt;"&amp;$B321,$A$1:$A320,$A321)+COUNTIFS($L$1:$L320,"ET",$B$1:$B320,"&lt;&gt;"&amp;$B321,$A$1:$A320,$A321))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K321" s="3">
+        <v>8</v>
+      </c>
+      <c r="L321" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M321" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N321" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O321" s="17"/>
+      <c r="AA321" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB321" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC321" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD321" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE321" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF321" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG321" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH321" s="19">
+        <f t="shared" si="20"/>
+        <v>16.742628228566744</v>
+      </c>
+      <c r="AI321" s="19">
+        <f t="shared" si="21"/>
+        <v>21.856872591143812</v>
+      </c>
+      <c r="AJ321" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK321" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL321" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM321" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF321-$AK321)^2+($AG321-$AL321)^2))</f>
+        <v>15.337861650177967</v>
+      </c>
+      <c r="AN321" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO321" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AP321" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ321" s="19">
+        <f t="shared" si="22"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="AR321" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS321" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT321" s="13">
+        <v>6</v>
+      </c>
+      <c r="AU321" s="19">
+        <f t="shared" si="23"/>
+        <v>11.423659658795863</v>
+      </c>
+    </row>
+    <row r="322" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A322" s="3">
+        <v>13</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="17" t="str">
+        <f>IF($A322="","",IF(VLOOKUP($A322,Spiele!$A$2:$D$15,3,FALSE)=$B322,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D322" s="17" t="str">
+        <f>IF($B322="","",IF(VLOOKUP($A322,Spiele!$A$2:$F$15,3,FALSE)=$B322,VLOOKUP($A322,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A322,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E322" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A322,$A322,$B$2:$B322,$B322,$L$2:$L322,"&lt;&gt;ET"))</f>
+        <v>5</v>
+      </c>
+      <c r="F322" s="11">
+        <v>25</v>
+      </c>
+      <c r="G322" s="12">
+        <v>1</v>
+      </c>
+      <c r="H322" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A322,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B322,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F322,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G322)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A322,'Rote Karten'!$D$2:$D$4,$B322,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F322,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G322)</f>
+        <v>0</v>
+      </c>
+      <c r="I322" s="17" t="str">
+        <f>IF(OR($L322="Tor",$L322="ET"),_xlfn.IFNA(IF(VLOOKUP($A322,Spiele!$A$2:$C$15,3,FALSE)=$B322,COUNTIFS($L$2:$L322,"Tor",$B$2:$B322,$B322,$A$2:$A322,$A322)+COUNTIFS($L$2:$L322,"ET",$B$2:$B322,$B322,$A$2:$A322,$A322)&amp;":"&amp;COUNTIFS($L$2:$L322,"Tor",$B$2:$B322,"&lt;&gt;"&amp;$B322,$A$2:$A322,$A322)+COUNTIFS($L$2:$L322,"ET",$B$2:$B322,"&lt;&gt;"&amp;$B322,$A$2:$A322,$A322),COUNTIFS($L$2:$L322,"Tor",$B$2:$B322,"&lt;&gt;"&amp;$B322,$A$2:$A322,$A322)+COUNTIFS($L$2:$L322,"ET",$B$2:$B322,"&lt;&gt;"&amp;$B322,$A$2:$A322,$A322)&amp;":"&amp;COUNTIFS($L$2:$L322,"Tor",$B$2:$B322,$B322,$A$2:$A322,$A322)+COUNTIFS($L$2:$L322,"ET",$B$2:$B322,$B322,$A$2:$A322,$A322)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J322" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A322,Spiele!$A$2:$D$15,3,FALSE)=$B322,(COUNTIFS($L$1:$L321,"Tor",$B$1:$B321,$B322,$A$1:$A321,$A322)+COUNTIFS($L$1:$L321,"ET",$B$1:$B321,$B322,$A$1:$A321,$A322))-(COUNTIFS($L$1:$L321,"Tor",$B$1:$B321,"&lt;&gt;"&amp;$B322,$A$1:$A321,$A322)+COUNTIFS($L$1:$L321,"ET",$B$1:$B321,"&lt;&gt;"&amp;$B322,$A$1:$A321,$A322)),(COUNTIFS($L$1:$L321,"Tor",$B$1:$B321,$B322,$A$1:$A321,$A322)+COUNTIFS($L$1:$L321,"ET",$B$1:$B321,$B322,$A$1:$A321,$A322))-(COUNTIFS($L$1:$L321,"Tor",$B$1:$B321,"&lt;&gt;"&amp;$B322,$A$1:$A321,$A322)+COUNTIFS($L$1:$L321,"ET",$B$1:$B321,"&lt;&gt;"&amp;$B322,$A$1:$A321,$A322))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K322" s="3">
+        <v>9</v>
+      </c>
+      <c r="L322" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M322" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N322" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O322" s="17"/>
+      <c r="AA322" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB322" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC322" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD322" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE322" s="18">
+        <v>20</v>
+      </c>
+      <c r="AF322" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG322" s="13">
+        <v>21.5</v>
+      </c>
+      <c r="AH322" s="19">
+        <f t="shared" si="20"/>
+        <v>23.644779550674606</v>
+      </c>
+      <c r="AI322" s="19">
+        <f t="shared" si="21"/>
+        <v>14.002393253988416</v>
+      </c>
+      <c r="AJ322" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK322" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AL322" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM322" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF322-$AK322)^2+($AG322-$AL322)^2))</f>
+        <v>22.610838109190027</v>
+      </c>
+      <c r="AN322" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO322" s="13"/>
+      <c r="AP322" s="13"/>
+      <c r="AQ322" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR322" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS322" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AT322" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="AU322" s="19">
+        <f t="shared" si="23"/>
+        <v>1.8027756377319946</v>
+      </c>
+    </row>
+    <row r="323" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A323" s="3">
+        <v>13</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C323" s="17" t="str">
+        <f>IF($A323="","",IF(VLOOKUP($A323,Spiele!$A$2:$D$15,3,FALSE)=$B323,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D323" s="17" t="str">
+        <f>IF($B323="","",IF(VLOOKUP($A323,Spiele!$A$2:$F$15,3,FALSE)=$B323,VLOOKUP($A323,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A323,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E323" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A323,$A323,$B$2:$B323,$B323,$L$2:$L323,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F323" s="11">
+        <v>28</v>
+      </c>
+      <c r="G323" s="12">
+        <v>1</v>
+      </c>
+      <c r="H323" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A323,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B323,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F323,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G323)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A323,'Rote Karten'!$D$2:$D$4,$B323,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F323,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G323)</f>
+        <v>0</v>
+      </c>
+      <c r="I323" s="17" t="str">
+        <f>IF(OR($L323="Tor",$L323="ET"),_xlfn.IFNA(IF(VLOOKUP($A323,Spiele!$A$2:$C$15,3,FALSE)=$B323,COUNTIFS($L$2:$L323,"Tor",$B$2:$B323,$B323,$A$2:$A323,$A323)+COUNTIFS($L$2:$L323,"ET",$B$2:$B323,$B323,$A$2:$A323,$A323)&amp;":"&amp;COUNTIFS($L$2:$L323,"Tor",$B$2:$B323,"&lt;&gt;"&amp;$B323,$A$2:$A323,$A323)+COUNTIFS($L$2:$L323,"ET",$B$2:$B323,"&lt;&gt;"&amp;$B323,$A$2:$A323,$A323),COUNTIFS($L$2:$L323,"Tor",$B$2:$B323,"&lt;&gt;"&amp;$B323,$A$2:$A323,$A323)+COUNTIFS($L$2:$L323,"ET",$B$2:$B323,"&lt;&gt;"&amp;$B323,$A$2:$A323,$A323)&amp;":"&amp;COUNTIFS($L$2:$L323,"Tor",$B$2:$B323,$B323,$A$2:$A323,$A323)+COUNTIFS($L$2:$L323,"ET",$B$2:$B323,$B323,$A$2:$A323,$A323)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J323" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A323,Spiele!$A$2:$D$15,3,FALSE)=$B323,(COUNTIFS($L$1:$L322,"Tor",$B$1:$B322,$B323,$A$1:$A322,$A323)+COUNTIFS($L$1:$L322,"ET",$B$1:$B322,$B323,$A$1:$A322,$A323))-(COUNTIFS($L$1:$L322,"Tor",$B$1:$B322,"&lt;&gt;"&amp;$B323,$A$1:$A322,$A323)+COUNTIFS($L$1:$L322,"ET",$B$1:$B322,"&lt;&gt;"&amp;$B323,$A$1:$A322,$A323)),(COUNTIFS($L$1:$L322,"Tor",$B$1:$B322,$B323,$A$1:$A322,$A323)+COUNTIFS($L$1:$L322,"ET",$B$1:$B322,$B323,$A$1:$A322,$A323))-(COUNTIFS($L$1:$L322,"Tor",$B$1:$B322,"&lt;&gt;"&amp;$B323,$A$1:$A322,$A323)+COUNTIFS($L$1:$L322,"ET",$B$1:$B322,"&lt;&gt;"&amp;$B323,$A$1:$A322,$A323))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K323" s="3">
+        <v>10</v>
+      </c>
+      <c r="L323" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M323" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N323" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O323" s="17"/>
+      <c r="AA323" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB323" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC323" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD323" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE323" s="18"/>
+      <c r="AF323" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG323" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="AH323" s="19">
+        <f t="shared" si="20"/>
+        <v>25.5</v>
+      </c>
+      <c r="AI323" s="19">
+        <f t="shared" si="21"/>
+        <v>16.335693207949546</v>
+      </c>
+      <c r="AJ323" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK323" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL323" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM323" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF323-$AK323)^2+($AG323-$AL323)^2))</f>
+        <v>25</v>
+      </c>
+      <c r="AN323" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO323" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AP323" s="13">
+        <v>28</v>
+      </c>
+      <c r="AQ323" s="19">
+        <f t="shared" si="22"/>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="AR323" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS323" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT323" s="13">
+        <v>17</v>
+      </c>
+      <c r="AU323" s="19">
+        <f t="shared" si="23"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A324" s="3">
+        <v>13</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324" s="17" t="str">
+        <f>IF($A324="","",IF(VLOOKUP($A324,Spiele!$A$2:$D$15,3,FALSE)=$B324,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D324" s="17" t="str">
+        <f>IF($B324="","",IF(VLOOKUP($A324,Spiele!$A$2:$F$15,3,FALSE)=$B324,VLOOKUP($A324,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A324,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E324" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A324,$A324,$B$2:$B324,$B324,$L$2:$L324,"&lt;&gt;ET"))</f>
+        <v>6</v>
+      </c>
+      <c r="F324" s="11">
+        <v>33</v>
+      </c>
+      <c r="G324" s="12">
+        <v>1</v>
+      </c>
+      <c r="H324" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A324,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B324,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F324,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G324)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A324,'Rote Karten'!$D$2:$D$4,$B324,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F324,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G324)</f>
+        <v>0</v>
+      </c>
+      <c r="I324" s="17" t="str">
+        <f>IF(OR($L324="Tor",$L324="ET"),_xlfn.IFNA(IF(VLOOKUP($A324,Spiele!$A$2:$C$15,3,FALSE)=$B324,COUNTIFS($L$2:$L324,"Tor",$B$2:$B324,$B324,$A$2:$A324,$A324)+COUNTIFS($L$2:$L324,"ET",$B$2:$B324,$B324,$A$2:$A324,$A324)&amp;":"&amp;COUNTIFS($L$2:$L324,"Tor",$B$2:$B324,"&lt;&gt;"&amp;$B324,$A$2:$A324,$A324)+COUNTIFS($L$2:$L324,"ET",$B$2:$B324,"&lt;&gt;"&amp;$B324,$A$2:$A324,$A324),COUNTIFS($L$2:$L324,"Tor",$B$2:$B324,"&lt;&gt;"&amp;$B324,$A$2:$A324,$A324)+COUNTIFS($L$2:$L324,"ET",$B$2:$B324,"&lt;&gt;"&amp;$B324,$A$2:$A324,$A324)&amp;":"&amp;COUNTIFS($L$2:$L324,"Tor",$B$2:$B324,$B324,$A$2:$A324,$A324)+COUNTIFS($L$2:$L324,"ET",$B$2:$B324,$B324,$A$2:$A324,$A324)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J324" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A324,Spiele!$A$2:$D$15,3,FALSE)=$B324,(COUNTIFS($L$1:$L323,"Tor",$B$1:$B323,$B324,$A$1:$A323,$A324)+COUNTIFS($L$1:$L323,"ET",$B$1:$B323,$B324,$A$1:$A323,$A324))-(COUNTIFS($L$1:$L323,"Tor",$B$1:$B323,"&lt;&gt;"&amp;$B324,$A$1:$A323,$A324)+COUNTIFS($L$1:$L323,"ET",$B$1:$B323,"&lt;&gt;"&amp;$B324,$A$1:$A323,$A324)),(COUNTIFS($L$1:$L323,"Tor",$B$1:$B323,$B324,$A$1:$A323,$A324)+COUNTIFS($L$1:$L323,"ET",$B$1:$B323,$B324,$A$1:$A323,$A324))-(COUNTIFS($L$1:$L323,"Tor",$B$1:$B323,"&lt;&gt;"&amp;$B324,$A$1:$A323,$A324)+COUNTIFS($L$1:$L323,"ET",$B$1:$B323,"&lt;&gt;"&amp;$B324,$A$1:$A323,$A324))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K324" s="3">
+        <v>11</v>
+      </c>
+      <c r="L324" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M324" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N324" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O324" s="17">
+        <v>8</v>
+      </c>
+      <c r="P324" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q324" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA324" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB324" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC324" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD324" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE324" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF324" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AG324" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AH324" s="19">
+        <f t="shared" si="20"/>
+        <v>17.59646555419582</v>
+      </c>
+      <c r="AI324" s="19">
+        <f t="shared" si="21"/>
+        <v>21.626656434445117</v>
+      </c>
+      <c r="AJ324" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK324" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL324" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM324" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF324-$AK324)^2+($AG324-$AL324)^2))</f>
+        <v>15.182226450688976</v>
+      </c>
+      <c r="AN324" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO324" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AP324" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="AQ324" s="19">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR324" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU324" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A325" s="3">
+        <v>13</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C325" s="17" t="str">
+        <f>IF($A325="","",IF(VLOOKUP($A325,Spiele!$A$2:$D$15,3,FALSE)=$B325,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D325" s="17" t="str">
+        <f>IF($B325="","",IF(VLOOKUP($A325,Spiele!$A$2:$F$15,3,FALSE)=$B325,VLOOKUP($A325,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A325,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E325" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A325,$A325,$B$2:$B325,$B325,$L$2:$L325,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F325" s="11">
+        <v>35</v>
+      </c>
+      <c r="G325" s="12">
+        <v>1</v>
+      </c>
+      <c r="H325" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A325,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B325,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F325,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G325)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A325,'Rote Karten'!$D$2:$D$4,$B325,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F325,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G325)</f>
+        <v>0</v>
+      </c>
+      <c r="I325" s="17" t="str">
+        <f>IF(OR($L325="Tor",$L325="ET"),_xlfn.IFNA(IF(VLOOKUP($A325,Spiele!$A$2:$C$15,3,FALSE)=$B325,COUNTIFS($L$2:$L325,"Tor",$B$2:$B325,$B325,$A$2:$A325,$A325)+COUNTIFS($L$2:$L325,"ET",$B$2:$B325,$B325,$A$2:$A325,$A325)&amp;":"&amp;COUNTIFS($L$2:$L325,"Tor",$B$2:$B325,"&lt;&gt;"&amp;$B325,$A$2:$A325,$A325)+COUNTIFS($L$2:$L325,"ET",$B$2:$B325,"&lt;&gt;"&amp;$B325,$A$2:$A325,$A325),COUNTIFS($L$2:$L325,"Tor",$B$2:$B325,"&lt;&gt;"&amp;$B325,$A$2:$A325,$A325)+COUNTIFS($L$2:$L325,"ET",$B$2:$B325,"&lt;&gt;"&amp;$B325,$A$2:$A325,$A325)&amp;":"&amp;COUNTIFS($L$2:$L325,"Tor",$B$2:$B325,$B325,$A$2:$A325,$A325)+COUNTIFS($L$2:$L325,"ET",$B$2:$B325,$B325,$A$2:$A325,$A325)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J325" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A325,Spiele!$A$2:$D$15,3,FALSE)=$B325,(COUNTIFS($L$1:$L324,"Tor",$B$1:$B324,$B325,$A$1:$A324,$A325)+COUNTIFS($L$1:$L324,"ET",$B$1:$B324,$B325,$A$1:$A324,$A325))-(COUNTIFS($L$1:$L324,"Tor",$B$1:$B324,"&lt;&gt;"&amp;$B325,$A$1:$A324,$A325)+COUNTIFS($L$1:$L324,"ET",$B$1:$B324,"&lt;&gt;"&amp;$B325,$A$1:$A324,$A325)),(COUNTIFS($L$1:$L324,"Tor",$B$1:$B324,$B325,$A$1:$A324,$A325)+COUNTIFS($L$1:$L324,"ET",$B$1:$B324,$B325,$A$1:$A324,$A325))-(COUNTIFS($L$1:$L324,"Tor",$B$1:$B324,"&lt;&gt;"&amp;$B325,$A$1:$A324,$A325)+COUNTIFS($L$1:$L324,"ET",$B$1:$B324,"&lt;&gt;"&amp;$B325,$A$1:$A324,$A325))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K325" s="3">
+        <v>12</v>
+      </c>
+      <c r="L325" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M325" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N325" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O325" s="17"/>
+      <c r="AA325" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB325" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC325" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD325" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE325" s="18"/>
+      <c r="AF325" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AG325" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH325" s="19">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AI325" s="19">
+        <f t="shared" si="21"/>
+        <v>43.839454439268671</v>
+      </c>
+      <c r="AJ325" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK325" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AL325" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM325" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF325-$AK325)^2+($AG325-$AL325)^2))</f>
+        <v>8.5</v>
+      </c>
+      <c r="AN325" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO325" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP325" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ325" s="19">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AR325" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU325" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A326" s="3">
+        <v>13</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C326" s="17" t="str">
+        <f>IF($A326="","",IF(VLOOKUP($A326,Spiele!$A$2:$D$15,3,FALSE)=$B326,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D326" s="17" t="str">
+        <f>IF($B326="","",IF(VLOOKUP($A326,Spiele!$A$2:$F$15,3,FALSE)=$B326,VLOOKUP($A326,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A326,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E326" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A326,$A326,$B$2:$B326,$B326,$L$2:$L326,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F326" s="11">
+        <v>37</v>
+      </c>
+      <c r="G326" s="12">
+        <v>1</v>
+      </c>
+      <c r="H326" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A326,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B326,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F326,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G326)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A326,'Rote Karten'!$D$2:$D$4,$B326,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F326,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G326)</f>
+        <v>0</v>
+      </c>
+      <c r="I326" s="17" t="str">
+        <f>IF(OR($L326="Tor",$L326="ET"),_xlfn.IFNA(IF(VLOOKUP($A326,Spiele!$A$2:$C$15,3,FALSE)=$B326,COUNTIFS($L$2:$L326,"Tor",$B$2:$B326,$B326,$A$2:$A326,$A326)+COUNTIFS($L$2:$L326,"ET",$B$2:$B326,$B326,$A$2:$A326,$A326)&amp;":"&amp;COUNTIFS($L$2:$L326,"Tor",$B$2:$B326,"&lt;&gt;"&amp;$B326,$A$2:$A326,$A326)+COUNTIFS($L$2:$L326,"ET",$B$2:$B326,"&lt;&gt;"&amp;$B326,$A$2:$A326,$A326),COUNTIFS($L$2:$L326,"Tor",$B$2:$B326,"&lt;&gt;"&amp;$B326,$A$2:$A326,$A326)+COUNTIFS($L$2:$L326,"ET",$B$2:$B326,"&lt;&gt;"&amp;$B326,$A$2:$A326,$A326)&amp;":"&amp;COUNTIFS($L$2:$L326,"Tor",$B$2:$B326,$B326,$A$2:$A326,$A326)+COUNTIFS($L$2:$L326,"ET",$B$2:$B326,$B326,$A$2:$A326,$A326)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J326" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A326,Spiele!$A$2:$D$15,3,FALSE)=$B326,(COUNTIFS($L$1:$L325,"Tor",$B$1:$B325,$B326,$A$1:$A325,$A326)+COUNTIFS($L$1:$L325,"ET",$B$1:$B325,$B326,$A$1:$A325,$A326))-(COUNTIFS($L$1:$L325,"Tor",$B$1:$B325,"&lt;&gt;"&amp;$B326,$A$1:$A325,$A326)+COUNTIFS($L$1:$L325,"ET",$B$1:$B325,"&lt;&gt;"&amp;$B326,$A$1:$A325,$A326)),(COUNTIFS($L$1:$L325,"Tor",$B$1:$B325,$B326,$A$1:$A325,$A326)+COUNTIFS($L$1:$L325,"ET",$B$1:$B325,$B326,$A$1:$A325,$A326))-(COUNTIFS($L$1:$L325,"Tor",$B$1:$B325,"&lt;&gt;"&amp;$B326,$A$1:$A325,$A326)+COUNTIFS($L$1:$L325,"ET",$B$1:$B325,"&lt;&gt;"&amp;$B326,$A$1:$A325,$A326))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K326" s="3">
+        <v>13</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M326" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N326" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O326" s="17"/>
+      <c r="AA326" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB326" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC326" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD326" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE326" s="18"/>
+      <c r="AF326" s="13">
+        <v>-6</v>
+      </c>
+      <c r="AG326" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH326" s="19">
+        <f t="shared" si="20"/>
+        <v>2.5447200238926087</v>
+      </c>
+      <c r="AI326" s="19">
+        <f t="shared" si="21"/>
+        <v>17.229273479884245</v>
+      </c>
+      <c r="AJ326" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK326" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL326" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM326" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF326-$AK326)^2+($AG326-$AL326)^2))</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="AN326" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO326" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP326" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ326" s="19">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AR326" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS326" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT326" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AU326" s="19">
+        <f t="shared" si="23"/>
+        <v>2.5495097567963922</v>
+      </c>
+    </row>
+    <row r="327" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A327" s="3">
+        <v>13</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="17" t="str">
+        <f>IF($A327="","",IF(VLOOKUP($A327,Spiele!$A$2:$D$15,3,FALSE)=$B327,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D327" s="17" t="str">
+        <f>IF($B327="","",IF(VLOOKUP($A327,Spiele!$A$2:$F$15,3,FALSE)=$B327,VLOOKUP($A327,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A327,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E327" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A327,$A327,$B$2:$B327,$B327,$L$2:$L327,"&lt;&gt;ET"))</f>
+        <v>7</v>
+      </c>
+      <c r="F327" s="11">
+        <v>40</v>
+      </c>
+      <c r="G327" s="12">
+        <v>1</v>
+      </c>
+      <c r="H327" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A327,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B327,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F327,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G327)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A327,'Rote Karten'!$D$2:$D$4,$B327,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F327,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G327)</f>
+        <v>0</v>
+      </c>
+      <c r="I327" s="17" t="str">
+        <f>IF(OR($L327="Tor",$L327="ET"),_xlfn.IFNA(IF(VLOOKUP($A327,Spiele!$A$2:$C$15,3,FALSE)=$B327,COUNTIFS($L$2:$L327,"Tor",$B$2:$B327,$B327,$A$2:$A327,$A327)+COUNTIFS($L$2:$L327,"ET",$B$2:$B327,$B327,$A$2:$A327,$A327)&amp;":"&amp;COUNTIFS($L$2:$L327,"Tor",$B$2:$B327,"&lt;&gt;"&amp;$B327,$A$2:$A327,$A327)+COUNTIFS($L$2:$L327,"ET",$B$2:$B327,"&lt;&gt;"&amp;$B327,$A$2:$A327,$A327),COUNTIFS($L$2:$L327,"Tor",$B$2:$B327,"&lt;&gt;"&amp;$B327,$A$2:$A327,$A327)+COUNTIFS($L$2:$L327,"ET",$B$2:$B327,"&lt;&gt;"&amp;$B327,$A$2:$A327,$A327)&amp;":"&amp;COUNTIFS($L$2:$L327,"Tor",$B$2:$B327,$B327,$A$2:$A327,$A327)+COUNTIFS($L$2:$L327,"ET",$B$2:$B327,$B327,$A$2:$A327,$A327)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J327" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A327,Spiele!$A$2:$D$15,3,FALSE)=$B327,(COUNTIFS($L$1:$L326,"Tor",$B$1:$B326,$B327,$A$1:$A326,$A327)+COUNTIFS($L$1:$L326,"ET",$B$1:$B326,$B327,$A$1:$A326,$A327))-(COUNTIFS($L$1:$L326,"Tor",$B$1:$B326,"&lt;&gt;"&amp;$B327,$A$1:$A326,$A327)+COUNTIFS($L$1:$L326,"ET",$B$1:$B326,"&lt;&gt;"&amp;$B327,$A$1:$A326,$A327)),(COUNTIFS($L$1:$L326,"Tor",$B$1:$B326,$B327,$A$1:$A326,$A327)+COUNTIFS($L$1:$L326,"ET",$B$1:$B326,$B327,$A$1:$A326,$A327))-(COUNTIFS($L$1:$L326,"Tor",$B$1:$B326,"&lt;&gt;"&amp;$B327,$A$1:$A326,$A327)+COUNTIFS($L$1:$L326,"ET",$B$1:$B326,"&lt;&gt;"&amp;$B327,$A$1:$A326,$A327))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K327" s="3">
+        <v>14</v>
+      </c>
+      <c r="L327" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M327" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N327" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O327" s="17">
+        <v>7</v>
+      </c>
+      <c r="AA327" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB327" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC327" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD327" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE327" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF327" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AG327" s="13">
+        <v>9</v>
+      </c>
+      <c r="AH327" s="19">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AI327" s="19">
+        <f t="shared" si="21"/>
+        <v>42.615768593997174</v>
+      </c>
+      <c r="AJ327" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK327" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AL327" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM327" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF327-$AK327)^2+($AG327-$AL327)^2))</f>
+        <v>6.5</v>
+      </c>
+      <c r="AN327" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO327" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="AP327" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ327" s="19">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR327" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU327" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A328" s="3">
+        <v>13</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="17" t="str">
+        <f>IF($A328="","",IF(VLOOKUP($A328,Spiele!$A$2:$D$15,3,FALSE)=$B328,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D328" s="17" t="str">
+        <f>IF($B328="","",IF(VLOOKUP($A328,Spiele!$A$2:$F$15,3,FALSE)=$B328,VLOOKUP($A328,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A328,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E328" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A328,$A328,$B$2:$B328,$B328,$L$2:$L328,"&lt;&gt;ET"))</f>
+        <v>8</v>
+      </c>
+      <c r="F328" s="11">
+        <v>40</v>
+      </c>
+      <c r="G328" s="12">
+        <v>1</v>
+      </c>
+      <c r="H328" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A328,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B328,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F328,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G328)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A328,'Rote Karten'!$D$2:$D$4,$B328,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F328,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G328)</f>
+        <v>0</v>
+      </c>
+      <c r="I328" s="17" t="str">
+        <f>IF(OR($L328="Tor",$L328="ET"),_xlfn.IFNA(IF(VLOOKUP($A328,Spiele!$A$2:$C$15,3,FALSE)=$B328,COUNTIFS($L$2:$L328,"Tor",$B$2:$B328,$B328,$A$2:$A328,$A328)+COUNTIFS($L$2:$L328,"ET",$B$2:$B328,$B328,$A$2:$A328,$A328)&amp;":"&amp;COUNTIFS($L$2:$L328,"Tor",$B$2:$B328,"&lt;&gt;"&amp;$B328,$A$2:$A328,$A328)+COUNTIFS($L$2:$L328,"ET",$B$2:$B328,"&lt;&gt;"&amp;$B328,$A$2:$A328,$A328),COUNTIFS($L$2:$L328,"Tor",$B$2:$B328,"&lt;&gt;"&amp;$B328,$A$2:$A328,$A328)+COUNTIFS($L$2:$L328,"ET",$B$2:$B328,"&lt;&gt;"&amp;$B328,$A$2:$A328,$A328)&amp;":"&amp;COUNTIFS($L$2:$L328,"Tor",$B$2:$B328,$B328,$A$2:$A328,$A328)+COUNTIFS($L$2:$L328,"ET",$B$2:$B328,$B328,$A$2:$A328,$A328)),""),"")</f>
+        <v>1:0</v>
+      </c>
+      <c r="J328" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A328,Spiele!$A$2:$D$15,3,FALSE)=$B328,(COUNTIFS($L$1:$L327,"Tor",$B$1:$B327,$B328,$A$1:$A327,$A328)+COUNTIFS($L$1:$L327,"ET",$B$1:$B327,$B328,$A$1:$A327,$A328))-(COUNTIFS($L$1:$L327,"Tor",$B$1:$B327,"&lt;&gt;"&amp;$B328,$A$1:$A327,$A328)+COUNTIFS($L$1:$L327,"ET",$B$1:$B327,"&lt;&gt;"&amp;$B328,$A$1:$A327,$A328)),(COUNTIFS($L$1:$L327,"Tor",$B$1:$B327,$B328,$A$1:$A327,$A328)+COUNTIFS($L$1:$L327,"ET",$B$1:$B327,$B328,$A$1:$A327,$A328))-(COUNTIFS($L$1:$L327,"Tor",$B$1:$B327,"&lt;&gt;"&amp;$B328,$A$1:$A327,$A328)+COUNTIFS($L$1:$L327,"ET",$B$1:$B327,"&lt;&gt;"&amp;$B328,$A$1:$A327,$A328))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K328" s="3">
+        <v>14</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M328" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N328" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O328" s="17"/>
+      <c r="AA328" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB328" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC328" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD328" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE328" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF328" s="13">
+        <v>-6.5</v>
+      </c>
+      <c r="AG328" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH328" s="19">
+        <f t="shared" si="20"/>
+        <v>5.7502695588989567</v>
+      </c>
+      <c r="AI328" s="19">
+        <f t="shared" si="21"/>
+        <v>34.200427604672875</v>
+      </c>
+      <c r="AJ328" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK328" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL328" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM328" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF328-$AK328)^2+($AG328-$AL328)^2))</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="AN328" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO328" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP328" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AQ328" s="19">
+        <f t="shared" si="22"/>
+        <v>2.5495097567963922</v>
+      </c>
+      <c r="AR328" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU328" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A329" s="3">
+        <v>13</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C329" s="17" t="str">
+        <f>IF($A329="","",IF(VLOOKUP($A329,Spiele!$A$2:$D$15,3,FALSE)=$B329,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D329" s="17" t="str">
+        <f>IF($B329="","",IF(VLOOKUP($A329,Spiele!$A$2:$F$15,3,FALSE)=$B329,VLOOKUP($A329,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A329,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E329" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A329,$A329,$B$2:$B329,$B329,$L$2:$L329,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F329" s="11">
+        <v>44</v>
+      </c>
+      <c r="G329" s="12">
+        <v>2</v>
+      </c>
+      <c r="H329" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A329,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B329,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F329,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G329)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A329,'Rote Karten'!$D$2:$D$4,$B329,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F329,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G329)</f>
+        <v>0</v>
+      </c>
+      <c r="I329" s="17" t="str">
+        <f>IF(OR($L329="Tor",$L329="ET"),_xlfn.IFNA(IF(VLOOKUP($A329,Spiele!$A$2:$C$15,3,FALSE)=$B329,COUNTIFS($L$2:$L329,"Tor",$B$2:$B329,$B329,$A$2:$A329,$A329)+COUNTIFS($L$2:$L329,"ET",$B$2:$B329,$B329,$A$2:$A329,$A329)&amp;":"&amp;COUNTIFS($L$2:$L329,"Tor",$B$2:$B329,"&lt;&gt;"&amp;$B329,$A$2:$A329,$A329)+COUNTIFS($L$2:$L329,"ET",$B$2:$B329,"&lt;&gt;"&amp;$B329,$A$2:$A329,$A329),COUNTIFS($L$2:$L329,"Tor",$B$2:$B329,"&lt;&gt;"&amp;$B329,$A$2:$A329,$A329)+COUNTIFS($L$2:$L329,"ET",$B$2:$B329,"&lt;&gt;"&amp;$B329,$A$2:$A329,$A329)&amp;":"&amp;COUNTIFS($L$2:$L329,"Tor",$B$2:$B329,$B329,$A$2:$A329,$A329)+COUNTIFS($L$2:$L329,"ET",$B$2:$B329,$B329,$A$2:$A329,$A329)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J329" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A329,Spiele!$A$2:$D$15,3,FALSE)=$B329,(COUNTIFS($L$1:$L328,"Tor",$B$1:$B328,$B329,$A$1:$A328,$A329)+COUNTIFS($L$1:$L328,"ET",$B$1:$B328,$B329,$A$1:$A328,$A329))-(COUNTIFS($L$1:$L328,"Tor",$B$1:$B328,"&lt;&gt;"&amp;$B329,$A$1:$A328,$A329)+COUNTIFS($L$1:$L328,"ET",$B$1:$B328,"&lt;&gt;"&amp;$B329,$A$1:$A328,$A329)),(COUNTIFS($L$1:$L328,"Tor",$B$1:$B328,$B329,$A$1:$A328,$A329)+COUNTIFS($L$1:$L328,"ET",$B$1:$B328,$B329,$A$1:$A328,$A329))-(COUNTIFS($L$1:$L328,"Tor",$B$1:$B328,"&lt;&gt;"&amp;$B329,$A$1:$A328,$A329)+COUNTIFS($L$1:$L328,"ET",$B$1:$B328,"&lt;&gt;"&amp;$B329,$A$1:$A328,$A329))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K329" s="3">
+        <v>15</v>
+      </c>
+      <c r="L329" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M329" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O329" s="17"/>
+      <c r="AA329" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB329" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC329" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD329" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE329" s="18"/>
+      <c r="AF329" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AG329" s="13">
+        <v>34</v>
+      </c>
+      <c r="AH329" s="19">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="AI329" s="19">
+        <f t="shared" si="21"/>
+        <v>12.194976603981754</v>
+      </c>
+      <c r="AJ329" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK329" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AL329" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM329" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF329-$AK329)^2+($AG329-$AL329)^2))</f>
+        <v>33.68233958619858</v>
+      </c>
+      <c r="AN329" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO329" s="13"/>
+      <c r="AP329" s="13"/>
+      <c r="AQ329" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR329" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS329" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AT329" s="13">
+        <v>27</v>
+      </c>
+      <c r="AU329" s="19">
+        <f t="shared" si="23"/>
+        <v>7.0178344238090995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A330" s="3">
+        <v>13</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="17" t="str">
+        <f>IF($A330="","",IF(VLOOKUP($A330,Spiele!$A$2:$D$15,3,FALSE)=$B330,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D330" s="17" t="str">
+        <f>IF($B330="","",IF(VLOOKUP($A330,Spiele!$A$2:$F$15,3,FALSE)=$B330,VLOOKUP($A330,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A330,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E330" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A330,$A330,$B$2:$B330,$B330,$L$2:$L330,"&lt;&gt;ET"))</f>
+        <v>9</v>
+      </c>
+      <c r="F330" s="11">
+        <v>51</v>
+      </c>
+      <c r="G330" s="12">
+        <v>2</v>
+      </c>
+      <c r="H330" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A330,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B330,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F330,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G330)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A330,'Rote Karten'!$D$2:$D$4,$B330,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F330,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G330)</f>
+        <v>0</v>
+      </c>
+      <c r="I330" s="17" t="str">
+        <f>IF(OR($L330="Tor",$L330="ET"),_xlfn.IFNA(IF(VLOOKUP($A330,Spiele!$A$2:$C$15,3,FALSE)=$B330,COUNTIFS($L$2:$L330,"Tor",$B$2:$B330,$B330,$A$2:$A330,$A330)+COUNTIFS($L$2:$L330,"ET",$B$2:$B330,$B330,$A$2:$A330,$A330)&amp;":"&amp;COUNTIFS($L$2:$L330,"Tor",$B$2:$B330,"&lt;&gt;"&amp;$B330,$A$2:$A330,$A330)+COUNTIFS($L$2:$L330,"ET",$B$2:$B330,"&lt;&gt;"&amp;$B330,$A$2:$A330,$A330),COUNTIFS($L$2:$L330,"Tor",$B$2:$B330,"&lt;&gt;"&amp;$B330,$A$2:$A330,$A330)+COUNTIFS($L$2:$L330,"ET",$B$2:$B330,"&lt;&gt;"&amp;$B330,$A$2:$A330,$A330)&amp;":"&amp;COUNTIFS($L$2:$L330,"Tor",$B$2:$B330,$B330,$A$2:$A330,$A330)+COUNTIFS($L$2:$L330,"ET",$B$2:$B330,$B330,$A$2:$A330,$A330)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J330" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A330,Spiele!$A$2:$D$15,3,FALSE)=$B330,(COUNTIFS($L$1:$L329,"Tor",$B$1:$B329,$B330,$A$1:$A329,$A330)+COUNTIFS($L$1:$L329,"ET",$B$1:$B329,$B330,$A$1:$A329,$A330))-(COUNTIFS($L$1:$L329,"Tor",$B$1:$B329,"&lt;&gt;"&amp;$B330,$A$1:$A329,$A330)+COUNTIFS($L$1:$L329,"ET",$B$1:$B329,"&lt;&gt;"&amp;$B330,$A$1:$A329,$A330)),(COUNTIFS($L$1:$L329,"Tor",$B$1:$B329,$B330,$A$1:$A329,$A330)+COUNTIFS($L$1:$L329,"ET",$B$1:$B329,$B330,$A$1:$A329,$A330))-(COUNTIFS($L$1:$L329,"Tor",$B$1:$B329,"&lt;&gt;"&amp;$B330,$A$1:$A329,$A330)+COUNTIFS($L$1:$L329,"ET",$B$1:$B329,"&lt;&gt;"&amp;$B330,$A$1:$A329,$A330))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K330" s="3">
+        <v>16</v>
+      </c>
+      <c r="L330" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M330" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N330" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O330" s="17">
+        <v>8</v>
+      </c>
+      <c r="P330" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q330" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA330" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB330" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC330" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD330" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE330" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF330" s="13">
+        <v>-10.5</v>
+      </c>
+      <c r="AG330" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH330" s="19">
+        <f t="shared" si="20"/>
+        <v>14.689642609675703</v>
+      </c>
+      <c r="AI330" s="19">
+        <f t="shared" si="21"/>
+        <v>19.694334659050181</v>
+      </c>
+      <c r="AJ330" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK330" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL330" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM330" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF330-$AK330)^2+($AG330-$AL330)^2))</f>
+        <v>12.619429464123963</v>
+      </c>
+      <c r="AN330" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO330" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AP330" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="AQ330" s="19">
+        <f t="shared" si="22"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR330" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS330" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AT330" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AU330" s="19">
+        <f t="shared" si="23"/>
+        <v>9.3005376188691375</v>
+      </c>
+    </row>
+    <row r="331" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A331" s="3">
+        <v>13</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C331" s="17" t="str">
+        <f>IF($A331="","",IF(VLOOKUP($A331,Spiele!$A$2:$D$15,3,FALSE)=$B331,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D331" s="17" t="str">
+        <f>IF($B331="","",IF(VLOOKUP($A331,Spiele!$A$2:$F$15,3,FALSE)=$B331,VLOOKUP($A331,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A331,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E331" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A331,$A331,$B$2:$B331,$B331,$L$2:$L331,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F331" s="11">
+        <v>57</v>
+      </c>
+      <c r="G331" s="12">
+        <v>2</v>
+      </c>
+      <c r="H331" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A331,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B331,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F331,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G331)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A331,'Rote Karten'!$D$2:$D$4,$B331,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F331,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G331)</f>
+        <v>0</v>
+      </c>
+      <c r="I331" s="17" t="str">
+        <f>IF(OR($L331="Tor",$L331="ET"),_xlfn.IFNA(IF(VLOOKUP($A331,Spiele!$A$2:$C$15,3,FALSE)=$B331,COUNTIFS($L$2:$L331,"Tor",$B$2:$B331,$B331,$A$2:$A331,$A331)+COUNTIFS($L$2:$L331,"ET",$B$2:$B331,$B331,$A$2:$A331,$A331)&amp;":"&amp;COUNTIFS($L$2:$L331,"Tor",$B$2:$B331,"&lt;&gt;"&amp;$B331,$A$2:$A331,$A331)+COUNTIFS($L$2:$L331,"ET",$B$2:$B331,"&lt;&gt;"&amp;$B331,$A$2:$A331,$A331),COUNTIFS($L$2:$L331,"Tor",$B$2:$B331,"&lt;&gt;"&amp;$B331,$A$2:$A331,$A331)+COUNTIFS($L$2:$L331,"ET",$B$2:$B331,"&lt;&gt;"&amp;$B331,$A$2:$A331,$A331)&amp;":"&amp;COUNTIFS($L$2:$L331,"Tor",$B$2:$B331,$B331,$A$2:$A331,$A331)+COUNTIFS($L$2:$L331,"ET",$B$2:$B331,$B331,$A$2:$A331,$A331)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J331" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A331,Spiele!$A$2:$D$15,3,FALSE)=$B331,(COUNTIFS($L$1:$L330,"Tor",$B$1:$B330,$B331,$A$1:$A330,$A331)+COUNTIFS($L$1:$L330,"ET",$B$1:$B330,$B331,$A$1:$A330,$A331))-(COUNTIFS($L$1:$L330,"Tor",$B$1:$B330,"&lt;&gt;"&amp;$B331,$A$1:$A330,$A331)+COUNTIFS($L$1:$L330,"ET",$B$1:$B330,"&lt;&gt;"&amp;$B331,$A$1:$A330,$A331)),(COUNTIFS($L$1:$L330,"Tor",$B$1:$B330,$B331,$A$1:$A330,$A331)+COUNTIFS($L$1:$L330,"ET",$B$1:$B330,$B331,$A$1:$A330,$A331))-(COUNTIFS($L$1:$L330,"Tor",$B$1:$B330,"&lt;&gt;"&amp;$B331,$A$1:$A330,$A331)+COUNTIFS($L$1:$L330,"ET",$B$1:$B330,"&lt;&gt;"&amp;$B331,$A$1:$A330,$A331))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K331" s="3">
+        <v>17</v>
+      </c>
+      <c r="L331" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M331" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O331" s="17"/>
+      <c r="AA331" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB331" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC331" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD331" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE331" s="18"/>
+      <c r="AF331" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG331" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="AH331" s="19">
+        <f t="shared" si="20"/>
+        <v>11.216309553502882</v>
+      </c>
+      <c r="AI331" s="19">
+        <f t="shared" si="21"/>
+        <v>16.373402664953399</v>
+      </c>
+      <c r="AJ331" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK331" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AL331" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM331" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF331-$AK331)^2+($AG331-$AL331)^2))</f>
+        <v>11.01135777277262</v>
+      </c>
+      <c r="AN331" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO331" s="13">
+        <v>9</v>
+      </c>
+      <c r="AP331" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AQ331" s="19">
+        <f t="shared" si="22"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AR331" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU331" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A332" s="3">
+        <v>13</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="17" t="str">
+        <f>IF($A332="","",IF(VLOOKUP($A332,Spiele!$A$2:$D$15,3,FALSE)=$B332,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D332" s="17" t="str">
+        <f>IF($B332="","",IF(VLOOKUP($A332,Spiele!$A$2:$F$15,3,FALSE)=$B332,VLOOKUP($A332,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A332,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E332" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A332,$A332,$B$2:$B332,$B332,$L$2:$L332,"&lt;&gt;ET"))</f>
+        <v>10</v>
+      </c>
+      <c r="F332" s="11">
+        <v>59</v>
+      </c>
+      <c r="G332" s="12">
+        <v>2</v>
+      </c>
+      <c r="H332" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A332,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B332,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F332,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G332)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A332,'Rote Karten'!$D$2:$D$4,$B332,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F332,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G332)</f>
+        <v>0</v>
+      </c>
+      <c r="I332" s="17" t="str">
+        <f>IF(OR($L332="Tor",$L332="ET"),_xlfn.IFNA(IF(VLOOKUP($A332,Spiele!$A$2:$C$15,3,FALSE)=$B332,COUNTIFS($L$2:$L332,"Tor",$B$2:$B332,$B332,$A$2:$A332,$A332)+COUNTIFS($L$2:$L332,"ET",$B$2:$B332,$B332,$A$2:$A332,$A332)&amp;":"&amp;COUNTIFS($L$2:$L332,"Tor",$B$2:$B332,"&lt;&gt;"&amp;$B332,$A$2:$A332,$A332)+COUNTIFS($L$2:$L332,"ET",$B$2:$B332,"&lt;&gt;"&amp;$B332,$A$2:$A332,$A332),COUNTIFS($L$2:$L332,"Tor",$B$2:$B332,"&lt;&gt;"&amp;$B332,$A$2:$A332,$A332)+COUNTIFS($L$2:$L332,"ET",$B$2:$B332,"&lt;&gt;"&amp;$B332,$A$2:$A332,$A332)&amp;":"&amp;COUNTIFS($L$2:$L332,"Tor",$B$2:$B332,$B332,$A$2:$A332,$A332)+COUNTIFS($L$2:$L332,"ET",$B$2:$B332,$B332,$A$2:$A332,$A332)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J332" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A332,Spiele!$A$2:$D$15,3,FALSE)=$B332,(COUNTIFS($L$1:$L331,"Tor",$B$1:$B331,$B332,$A$1:$A331,$A332)+COUNTIFS($L$1:$L331,"ET",$B$1:$B331,$B332,$A$1:$A331,$A332))-(COUNTIFS($L$1:$L331,"Tor",$B$1:$B331,"&lt;&gt;"&amp;$B332,$A$1:$A331,$A332)+COUNTIFS($L$1:$L331,"ET",$B$1:$B331,"&lt;&gt;"&amp;$B332,$A$1:$A331,$A332)),(COUNTIFS($L$1:$L331,"Tor",$B$1:$B331,$B332,$A$1:$A331,$A332)+COUNTIFS($L$1:$L331,"ET",$B$1:$B331,$B332,$A$1:$A331,$A332))-(COUNTIFS($L$1:$L331,"Tor",$B$1:$B331,"&lt;&gt;"&amp;$B332,$A$1:$A331,$A332)+COUNTIFS($L$1:$L331,"ET",$B$1:$B331,"&lt;&gt;"&amp;$B332,$A$1:$A331,$A332))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K332" s="3">
+        <v>18</v>
+      </c>
+      <c r="L332" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M332" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O332" s="17">
+        <v>4</v>
+      </c>
+      <c r="P332" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q332" s="2">
+        <v>6</v>
+      </c>
+      <c r="R332" s="2">
+        <v>8</v>
+      </c>
+      <c r="S332" s="2">
+        <v>20</v>
+      </c>
+      <c r="T332" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA332" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB332" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC332" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD332" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE332" s="18">
+        <v>18</v>
+      </c>
+      <c r="AF332" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AG332" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="AH332" s="19">
+        <f t="shared" si="20"/>
+        <v>22.071828197954062</v>
+      </c>
+      <c r="AI332" s="19">
+        <f t="shared" si="21"/>
+        <v>14.230221882728383</v>
+      </c>
+      <c r="AJ332" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK332" s="13">
+        <v>-1.5</v>
+      </c>
+      <c r="AL332" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM332" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF332-$AK332)^2+($AG332-$AL332)^2))</f>
+        <v>21.100947846009191</v>
+      </c>
+      <c r="AN332" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO332" s="13">
+        <v>-14</v>
+      </c>
+      <c r="AP332" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ332" s="19">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR332" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS332" s="13">
+        <v>-11</v>
+      </c>
+      <c r="AT332" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AU332" s="19">
+        <f t="shared" si="23"/>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+    <row r="333" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A333" s="3">
+        <v>13</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="17" t="str">
+        <f>IF($A333="","",IF(VLOOKUP($A333,Spiele!$A$2:$D$15,3,FALSE)=$B333,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D333" s="17" t="str">
+        <f>IF($B333="","",IF(VLOOKUP($A333,Spiele!$A$2:$F$15,3,FALSE)=$B333,VLOOKUP($A333,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A333,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E333" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A333,$A333,$B$2:$B333,$B333,$L$2:$L333,"&lt;&gt;ET"))</f>
+        <v>11</v>
+      </c>
+      <c r="F333" s="11">
+        <v>60</v>
+      </c>
+      <c r="G333" s="12">
+        <v>2</v>
+      </c>
+      <c r="H333" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A333,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B333,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F333,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G333)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A333,'Rote Karten'!$D$2:$D$4,$B333,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F333,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G333)</f>
+        <v>0</v>
+      </c>
+      <c r="I333" s="17" t="str">
+        <f>IF(OR($L333="Tor",$L333="ET"),_xlfn.IFNA(IF(VLOOKUP($A333,Spiele!$A$2:$C$15,3,FALSE)=$B333,COUNTIFS($L$2:$L333,"Tor",$B$2:$B333,$B333,$A$2:$A333,$A333)+COUNTIFS($L$2:$L333,"ET",$B$2:$B333,$B333,$A$2:$A333,$A333)&amp;":"&amp;COUNTIFS($L$2:$L333,"Tor",$B$2:$B333,"&lt;&gt;"&amp;$B333,$A$2:$A333,$A333)+COUNTIFS($L$2:$L333,"ET",$B$2:$B333,"&lt;&gt;"&amp;$B333,$A$2:$A333,$A333),COUNTIFS($L$2:$L333,"Tor",$B$2:$B333,"&lt;&gt;"&amp;$B333,$A$2:$A333,$A333)+COUNTIFS($L$2:$L333,"ET",$B$2:$B333,"&lt;&gt;"&amp;$B333,$A$2:$A333,$A333)&amp;":"&amp;COUNTIFS($L$2:$L333,"Tor",$B$2:$B333,$B333,$A$2:$A333,$A333)+COUNTIFS($L$2:$L333,"ET",$B$2:$B333,$B333,$A$2:$A333,$A333)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J333" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A333,Spiele!$A$2:$D$15,3,FALSE)=$B333,(COUNTIFS($L$1:$L332,"Tor",$B$1:$B332,$B333,$A$1:$A332,$A333)+COUNTIFS($L$1:$L332,"ET",$B$1:$B332,$B333,$A$1:$A332,$A333))-(COUNTIFS($L$1:$L332,"Tor",$B$1:$B332,"&lt;&gt;"&amp;$B333,$A$1:$A332,$A333)+COUNTIFS($L$1:$L332,"ET",$B$1:$B332,"&lt;&gt;"&amp;$B333,$A$1:$A332,$A333)),(COUNTIFS($L$1:$L332,"Tor",$B$1:$B332,$B333,$A$1:$A332,$A333)+COUNTIFS($L$1:$L332,"ET",$B$1:$B332,$B333,$A$1:$A332,$A333))-(COUNTIFS($L$1:$L332,"Tor",$B$1:$B332,"&lt;&gt;"&amp;$B333,$A$1:$A332,$A333)+COUNTIFS($L$1:$L332,"ET",$B$1:$B332,"&lt;&gt;"&amp;$B333,$A$1:$A332,$A333))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K333" s="3">
+        <v>19</v>
+      </c>
+      <c r="L333" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M333" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O333" s="17"/>
+      <c r="AA333" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB333" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC333" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD333" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE333" s="18">
+        <v>8</v>
+      </c>
+      <c r="AF333" s="13">
+        <v>14</v>
+      </c>
+      <c r="AG333" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="AH333" s="19">
+        <f t="shared" si="20"/>
+        <v>25.674220533445606</v>
+      </c>
+      <c r="AI333" s="19">
+        <f t="shared" si="21"/>
+        <v>13.174977970680043</v>
+      </c>
+      <c r="AJ333" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK333" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL333" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AM333" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF333-$AK333)^2+($AG333-$AL333)^2))</f>
+        <v>25.238858928247925</v>
+      </c>
+      <c r="AN333" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO333" s="13"/>
+      <c r="AP333" s="13"/>
+      <c r="AQ333" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR333" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS333" s="13">
+        <v>9</v>
+      </c>
+      <c r="AT333" s="13">
+        <v>16</v>
+      </c>
+      <c r="AU333" s="19">
+        <f t="shared" si="23"/>
+        <v>9.013878188659973</v>
+      </c>
+    </row>
+    <row r="334" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A334" s="3">
+        <v>13</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C334" s="17" t="str">
+        <f>IF($A334="","",IF(VLOOKUP($A334,Spiele!$A$2:$D$15,3,FALSE)=$B334,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D334" s="17" t="str">
+        <f>IF($B334="","",IF(VLOOKUP($A334,Spiele!$A$2:$F$15,3,FALSE)=$B334,VLOOKUP($A334,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A334,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E334" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A334,$A334,$B$2:$B334,$B334,$L$2:$L334,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F334" s="11">
+        <v>61</v>
+      </c>
+      <c r="G334" s="12">
+        <v>2</v>
+      </c>
+      <c r="H334" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A334,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B334,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F334,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G334)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A334,'Rote Karten'!$D$2:$D$4,$B334,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F334,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G334)</f>
+        <v>0</v>
+      </c>
+      <c r="I334" s="17" t="str">
+        <f>IF(OR($L334="Tor",$L334="ET"),_xlfn.IFNA(IF(VLOOKUP($A334,Spiele!$A$2:$C$15,3,FALSE)=$B334,COUNTIFS($L$2:$L334,"Tor",$B$2:$B334,$B334,$A$2:$A334,$A334)+COUNTIFS($L$2:$L334,"ET",$B$2:$B334,$B334,$A$2:$A334,$A334)&amp;":"&amp;COUNTIFS($L$2:$L334,"Tor",$B$2:$B334,"&lt;&gt;"&amp;$B334,$A$2:$A334,$A334)+COUNTIFS($L$2:$L334,"ET",$B$2:$B334,"&lt;&gt;"&amp;$B334,$A$2:$A334,$A334),COUNTIFS($L$2:$L334,"Tor",$B$2:$B334,"&lt;&gt;"&amp;$B334,$A$2:$A334,$A334)+COUNTIFS($L$2:$L334,"ET",$B$2:$B334,"&lt;&gt;"&amp;$B334,$A$2:$A334,$A334)&amp;":"&amp;COUNTIFS($L$2:$L334,"Tor",$B$2:$B334,$B334,$A$2:$A334,$A334)+COUNTIFS($L$2:$L334,"ET",$B$2:$B334,$B334,$A$2:$A334,$A334)),""),"")</f>
+        <v>1:1</v>
+      </c>
+      <c r="J334" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A334,Spiele!$A$2:$D$15,3,FALSE)=$B334,(COUNTIFS($L$1:$L333,"Tor",$B$1:$B333,$B334,$A$1:$A333,$A334)+COUNTIFS($L$1:$L333,"ET",$B$1:$B333,$B334,$A$1:$A333,$A334))-(COUNTIFS($L$1:$L333,"Tor",$B$1:$B333,"&lt;&gt;"&amp;$B334,$A$1:$A333,$A334)+COUNTIFS($L$1:$L333,"ET",$B$1:$B333,"&lt;&gt;"&amp;$B334,$A$1:$A333,$A334)),(COUNTIFS($L$1:$L333,"Tor",$B$1:$B333,$B334,$A$1:$A333,$A334)+COUNTIFS($L$1:$L333,"ET",$B$1:$B333,$B334,$A$1:$A333,$A334))-(COUNTIFS($L$1:$L333,"Tor",$B$1:$B333,"&lt;&gt;"&amp;$B334,$A$1:$A333,$A334)+COUNTIFS($L$1:$L333,"ET",$B$1:$B333,"&lt;&gt;"&amp;$B334,$A$1:$A333,$A334))),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="K334" s="3">
+        <v>20</v>
+      </c>
+      <c r="L334" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M334" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N334" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O334" s="17"/>
+      <c r="AA334" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB334" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC334" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD334" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE334" s="18"/>
+      <c r="AF334" s="13">
+        <v>-8.5</v>
+      </c>
+      <c r="AG334" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH334" s="19">
+        <f t="shared" si="20"/>
+        <v>8.5103231431009725</v>
+      </c>
+      <c r="AI334" s="19">
+        <f t="shared" si="21"/>
+        <v>25.411688271902904</v>
+      </c>
+      <c r="AJ334" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK334" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AL334" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM334" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF334-$AK334)^2+($AG334-$AL334)^2))</f>
+        <v>8.5146931829632013</v>
+      </c>
+      <c r="AN334" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO334" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AP334" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AQ334" s="19">
+        <f t="shared" si="22"/>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AR334" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU334" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A335" s="3">
+        <v>13</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C335" s="17" t="str">
+        <f>IF($A335="","",IF(VLOOKUP($A335,Spiele!$A$2:$D$15,3,FALSE)=$B335,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D335" s="17" t="str">
+        <f>IF($B335="","",IF(VLOOKUP($A335,Spiele!$A$2:$F$15,3,FALSE)=$B335,VLOOKUP($A335,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A335,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E335" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A335,$A335,$B$2:$B335,$B335,$L$2:$L335,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F335" s="11">
+        <v>65</v>
+      </c>
+      <c r="G335" s="12">
+        <v>2</v>
+      </c>
+      <c r="H335" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A335,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B335,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F335,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G335)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A335,'Rote Karten'!$D$2:$D$4,$B335,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F335,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G335)</f>
+        <v>0</v>
+      </c>
+      <c r="I335" s="17" t="str">
+        <f>IF(OR($L335="Tor",$L335="ET"),_xlfn.IFNA(IF(VLOOKUP($A335,Spiele!$A$2:$C$15,3,FALSE)=$B335,COUNTIFS($L$2:$L335,"Tor",$B$2:$B335,$B335,$A$2:$A335,$A335)+COUNTIFS($L$2:$L335,"ET",$B$2:$B335,$B335,$A$2:$A335,$A335)&amp;":"&amp;COUNTIFS($L$2:$L335,"Tor",$B$2:$B335,"&lt;&gt;"&amp;$B335,$A$2:$A335,$A335)+COUNTIFS($L$2:$L335,"ET",$B$2:$B335,"&lt;&gt;"&amp;$B335,$A$2:$A335,$A335),COUNTIFS($L$2:$L335,"Tor",$B$2:$B335,"&lt;&gt;"&amp;$B335,$A$2:$A335,$A335)+COUNTIFS($L$2:$L335,"ET",$B$2:$B335,"&lt;&gt;"&amp;$B335,$A$2:$A335,$A335)&amp;":"&amp;COUNTIFS($L$2:$L335,"Tor",$B$2:$B335,$B335,$A$2:$A335,$A335)+COUNTIFS($L$2:$L335,"ET",$B$2:$B335,$B335,$A$2:$A335,$A335)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J335" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A335,Spiele!$A$2:$D$15,3,FALSE)=$B335,(COUNTIFS($L$1:$L334,"Tor",$B$1:$B334,$B335,$A$1:$A334,$A335)+COUNTIFS($L$1:$L334,"ET",$B$1:$B334,$B335,$A$1:$A334,$A335))-(COUNTIFS($L$1:$L334,"Tor",$B$1:$B334,"&lt;&gt;"&amp;$B335,$A$1:$A334,$A335)+COUNTIFS($L$1:$L334,"ET",$B$1:$B334,"&lt;&gt;"&amp;$B335,$A$1:$A334,$A335)),(COUNTIFS($L$1:$L334,"Tor",$B$1:$B334,$B335,$A$1:$A334,$A335)+COUNTIFS($L$1:$L334,"ET",$B$1:$B334,$B335,$A$1:$A334,$A335))-(COUNTIFS($L$1:$L334,"Tor",$B$1:$B334,"&lt;&gt;"&amp;$B335,$A$1:$A334,$A335)+COUNTIFS($L$1:$L334,"ET",$B$1:$B334,"&lt;&gt;"&amp;$B335,$A$1:$A334,$A335))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K335" s="3">
+        <v>21</v>
+      </c>
+      <c r="L335" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M335" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O335" s="17"/>
+      <c r="AA335" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB335" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC335" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD335" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE335" s="18"/>
+      <c r="AF335" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AG335" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH335" s="19">
+        <f t="shared" si="20"/>
+        <v>11.032026105842935</v>
+      </c>
+      <c r="AI335" s="19">
+        <f t="shared" si="21"/>
+        <v>32.201857009576806</v>
+      </c>
+      <c r="AJ335" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK335" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL335" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AM335" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF335-$AK335)^2+($AG335-$AL335)^2))</f>
+        <v>11.067971810589327</v>
+      </c>
+      <c r="AN335" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO335" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="AP335" s="13">
+        <v>9</v>
+      </c>
+      <c r="AQ335" s="19">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AR335" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS335" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT335" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AU335" s="19">
+        <f t="shared" si="23"/>
+        <v>5.5226805085936306</v>
+      </c>
+    </row>
+    <row r="336" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A336" s="3">
+        <v>13</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="17" t="str">
+        <f>IF($A336="","",IF(VLOOKUP($A336,Spiele!$A$2:$D$15,3,FALSE)=$B336,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D336" s="17" t="str">
+        <f>IF($B336="","",IF(VLOOKUP($A336,Spiele!$A$2:$F$15,3,FALSE)=$B336,VLOOKUP($A336,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A336,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E336" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A336,$A336,$B$2:$B336,$B336,$L$2:$L336,"&lt;&gt;ET"))</f>
+        <v>12</v>
+      </c>
+      <c r="F336" s="11">
+        <v>68</v>
+      </c>
+      <c r="G336" s="12">
+        <v>2</v>
+      </c>
+      <c r="H336" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A336,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B336,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F336,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G336)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A336,'Rote Karten'!$D$2:$D$4,$B336,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F336,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G336)</f>
+        <v>0</v>
+      </c>
+      <c r="I336" s="17" t="str">
+        <f>IF(OR($L336="Tor",$L336="ET"),_xlfn.IFNA(IF(VLOOKUP($A336,Spiele!$A$2:$C$15,3,FALSE)=$B336,COUNTIFS($L$2:$L336,"Tor",$B$2:$B336,$B336,$A$2:$A336,$A336)+COUNTIFS($L$2:$L336,"ET",$B$2:$B336,$B336,$A$2:$A336,$A336)&amp;":"&amp;COUNTIFS($L$2:$L336,"Tor",$B$2:$B336,"&lt;&gt;"&amp;$B336,$A$2:$A336,$A336)+COUNTIFS($L$2:$L336,"ET",$B$2:$B336,"&lt;&gt;"&amp;$B336,$A$2:$A336,$A336),COUNTIFS($L$2:$L336,"Tor",$B$2:$B336,"&lt;&gt;"&amp;$B336,$A$2:$A336,$A336)+COUNTIFS($L$2:$L336,"ET",$B$2:$B336,"&lt;&gt;"&amp;$B336,$A$2:$A336,$A336)&amp;":"&amp;COUNTIFS($L$2:$L336,"Tor",$B$2:$B336,$B336,$A$2:$A336,$A336)+COUNTIFS($L$2:$L336,"ET",$B$2:$B336,$B336,$A$2:$A336,$A336)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J336" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A336,Spiele!$A$2:$D$15,3,FALSE)=$B336,(COUNTIFS($L$1:$L335,"Tor",$B$1:$B335,$B336,$A$1:$A335,$A336)+COUNTIFS($L$1:$L335,"ET",$B$1:$B335,$B336,$A$1:$A335,$A336))-(COUNTIFS($L$1:$L335,"Tor",$B$1:$B335,"&lt;&gt;"&amp;$B336,$A$1:$A335,$A336)+COUNTIFS($L$1:$L335,"ET",$B$1:$B335,"&lt;&gt;"&amp;$B336,$A$1:$A335,$A336)),(COUNTIFS($L$1:$L335,"Tor",$B$1:$B335,$B336,$A$1:$A335,$A336)+COUNTIFS($L$1:$L335,"ET",$B$1:$B335,$B336,$A$1:$A335,$A336))-(COUNTIFS($L$1:$L335,"Tor",$B$1:$B335,"&lt;&gt;"&amp;$B336,$A$1:$A335,$A336)+COUNTIFS($L$1:$L335,"ET",$B$1:$B335,"&lt;&gt;"&amp;$B336,$A$1:$A335,$A336))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K336" s="3">
+        <v>22</v>
+      </c>
+      <c r="L336" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M336" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N336" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O336" s="17">
+        <v>8</v>
+      </c>
+      <c r="P336" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q336" s="2">
+        <v>8</v>
+      </c>
+      <c r="R336" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA336" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB336" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC336" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD336" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE336" s="18">
+        <v>16</v>
+      </c>
+      <c r="AF336" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AG336" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH336" s="19">
+        <f t="shared" si="20"/>
+        <v>4.4029081298614443</v>
+      </c>
+      <c r="AI336" s="19">
+        <f t="shared" si="21"/>
+        <v>41.707579601485392</v>
+      </c>
+      <c r="AJ336" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK336" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AL336" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM336" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF336-$AK336)^2+($AG336-$AL336)^2))</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="AN336" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO336" s="13">
+        <v>-5.5</v>
+      </c>
+      <c r="AP336" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AQ336" s="19">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR336" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS336" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AT336" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AU336" s="19">
+        <f t="shared" si="23"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A337" s="3">
+        <v>13</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="17" t="str">
+        <f>IF($A337="","",IF(VLOOKUP($A337,Spiele!$A$2:$D$15,3,FALSE)=$B337,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D337" s="17" t="str">
+        <f>IF($B337="","",IF(VLOOKUP($A337,Spiele!$A$2:$F$15,3,FALSE)=$B337,VLOOKUP($A337,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A337,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E337" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A337,$A337,$B$2:$B337,$B337,$L$2:$L337,"&lt;&gt;ET"))</f>
+        <v>13</v>
+      </c>
+      <c r="F337" s="11">
+        <v>71</v>
+      </c>
+      <c r="G337" s="12">
+        <v>2</v>
+      </c>
+      <c r="H337" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A337,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B337,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F337,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G337)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A337,'Rote Karten'!$D$2:$D$4,$B337,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F337,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G337)</f>
+        <v>0</v>
+      </c>
+      <c r="I337" s="17" t="str">
+        <f>IF(OR($L337="Tor",$L337="ET"),_xlfn.IFNA(IF(VLOOKUP($A337,Spiele!$A$2:$C$15,3,FALSE)=$B337,COUNTIFS($L$2:$L337,"Tor",$B$2:$B337,$B337,$A$2:$A337,$A337)+COUNTIFS($L$2:$L337,"ET",$B$2:$B337,$B337,$A$2:$A337,$A337)&amp;":"&amp;COUNTIFS($L$2:$L337,"Tor",$B$2:$B337,"&lt;&gt;"&amp;$B337,$A$2:$A337,$A337)+COUNTIFS($L$2:$L337,"ET",$B$2:$B337,"&lt;&gt;"&amp;$B337,$A$2:$A337,$A337),COUNTIFS($L$2:$L337,"Tor",$B$2:$B337,"&lt;&gt;"&amp;$B337,$A$2:$A337,$A337)+COUNTIFS($L$2:$L337,"ET",$B$2:$B337,"&lt;&gt;"&amp;$B337,$A$2:$A337,$A337)&amp;":"&amp;COUNTIFS($L$2:$L337,"Tor",$B$2:$B337,$B337,$A$2:$A337,$A337)+COUNTIFS($L$2:$L337,"ET",$B$2:$B337,$B337,$A$2:$A337,$A337)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J337" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A337,Spiele!$A$2:$D$15,3,FALSE)=$B337,(COUNTIFS($L$1:$L336,"Tor",$B$1:$B336,$B337,$A$1:$A336,$A337)+COUNTIFS($L$1:$L336,"ET",$B$1:$B336,$B337,$A$1:$A336,$A337))-(COUNTIFS($L$1:$L336,"Tor",$B$1:$B336,"&lt;&gt;"&amp;$B337,$A$1:$A336,$A337)+COUNTIFS($L$1:$L336,"ET",$B$1:$B336,"&lt;&gt;"&amp;$B337,$A$1:$A336,$A337)),(COUNTIFS($L$1:$L336,"Tor",$B$1:$B336,$B337,$A$1:$A336,$A337)+COUNTIFS($L$1:$L336,"ET",$B$1:$B336,$B337,$A$1:$A336,$A337))-(COUNTIFS($L$1:$L336,"Tor",$B$1:$B336,"&lt;&gt;"&amp;$B337,$A$1:$A336,$A337)+COUNTIFS($L$1:$L336,"ET",$B$1:$B336,"&lt;&gt;"&amp;$B337,$A$1:$A336,$A337))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K337" s="3">
+        <v>23</v>
+      </c>
+      <c r="L337" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M337" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O337" s="17">
+        <v>7</v>
+      </c>
+      <c r="P337" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q337" s="2">
+        <v>8</v>
+      </c>
+      <c r="R337" s="2">
+        <v>7</v>
+      </c>
+      <c r="S337" s="2">
+        <v>23</v>
+      </c>
+      <c r="T337" s="2">
+        <v>6</v>
+      </c>
+      <c r="U337" s="2">
+        <v>5</v>
+      </c>
+      <c r="V337" s="2">
+        <v>16</v>
+      </c>
+      <c r="W337" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA337" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB337" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC337" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD337" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE337" s="18">
+        <v>10</v>
+      </c>
+      <c r="AF337" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AG337" s="13">
+        <v>15</v>
+      </c>
+      <c r="AH337" s="19">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AI337" s="19">
+        <f t="shared" si="21"/>
+        <v>26.748394088035369</v>
+      </c>
+      <c r="AJ337" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK337" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL337" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="AM337" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF337-$AK337)^2+($AG337-$AL337)^2))</f>
+        <v>11.76860229593982</v>
+      </c>
+      <c r="AN337" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO337" s="13"/>
+      <c r="AP337" s="13"/>
+      <c r="AQ337" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AR337" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS337" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AT337" s="13">
+        <v>11</v>
+      </c>
+      <c r="AU337" s="19">
+        <f t="shared" si="23"/>
+        <v>4.1231056256176606</v>
+      </c>
+    </row>
+    <row r="338" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A338" s="3">
+        <v>13</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="17" t="str">
+        <f>IF($A338="","",IF(VLOOKUP($A338,Spiele!$A$2:$D$15,3,FALSE)=$B338,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D338" s="17" t="str">
+        <f>IF($B338="","",IF(VLOOKUP($A338,Spiele!$A$2:$F$15,3,FALSE)=$B338,VLOOKUP($A338,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A338,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E338" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A338,$A338,$B$2:$B338,$B338,$L$2:$L338,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F338" s="11">
+        <v>73</v>
+      </c>
+      <c r="G338" s="12">
+        <v>2</v>
+      </c>
+      <c r="H338" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A338,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B338,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F338,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G338)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A338,'Rote Karten'!$D$2:$D$4,$B338,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F338,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G338)</f>
+        <v>0</v>
+      </c>
+      <c r="I338" s="17" t="str">
+        <f>IF(OR($L338="Tor",$L338="ET"),_xlfn.IFNA(IF(VLOOKUP($A338,Spiele!$A$2:$C$15,3,FALSE)=$B338,COUNTIFS($L$2:$L338,"Tor",$B$2:$B338,$B338,$A$2:$A338,$A338)+COUNTIFS($L$2:$L338,"ET",$B$2:$B338,$B338,$A$2:$A338,$A338)&amp;":"&amp;COUNTIFS($L$2:$L338,"Tor",$B$2:$B338,"&lt;&gt;"&amp;$B338,$A$2:$A338,$A338)+COUNTIFS($L$2:$L338,"ET",$B$2:$B338,"&lt;&gt;"&amp;$B338,$A$2:$A338,$A338),COUNTIFS($L$2:$L338,"Tor",$B$2:$B338,"&lt;&gt;"&amp;$B338,$A$2:$A338,$A338)+COUNTIFS($L$2:$L338,"ET",$B$2:$B338,"&lt;&gt;"&amp;$B338,$A$2:$A338,$A338)&amp;":"&amp;COUNTIFS($L$2:$L338,"Tor",$B$2:$B338,$B338,$A$2:$A338,$A338)+COUNTIFS($L$2:$L338,"ET",$B$2:$B338,$B338,$A$2:$A338,$A338)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J338" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A338,Spiele!$A$2:$D$15,3,FALSE)=$B338,(COUNTIFS($L$1:$L337,"Tor",$B$1:$B337,$B338,$A$1:$A337,$A338)+COUNTIFS($L$1:$L337,"ET",$B$1:$B337,$B338,$A$1:$A337,$A338))-(COUNTIFS($L$1:$L337,"Tor",$B$1:$B337,"&lt;&gt;"&amp;$B338,$A$1:$A337,$A338)+COUNTIFS($L$1:$L337,"ET",$B$1:$B337,"&lt;&gt;"&amp;$B338,$A$1:$A337,$A338)),(COUNTIFS($L$1:$L337,"Tor",$B$1:$B337,$B338,$A$1:$A337,$A338)+COUNTIFS($L$1:$L337,"ET",$B$1:$B337,$B338,$A$1:$A337,$A338))-(COUNTIFS($L$1:$L337,"Tor",$B$1:$B337,"&lt;&gt;"&amp;$B338,$A$1:$A337,$A338)+COUNTIFS($L$1:$L337,"ET",$B$1:$B337,"&lt;&gt;"&amp;$B338,$A$1:$A337,$A338))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K338" s="3">
+        <v>24</v>
+      </c>
+      <c r="L338" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M338" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O338" s="17">
+        <v>18</v>
+      </c>
+      <c r="P338" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q338" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA338" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB338" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC338" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD338" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE338" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF338" s="13">
+        <v>-13.5</v>
+      </c>
+      <c r="AG338" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="AH338" s="19">
+        <f t="shared" si="20"/>
+        <v>19.211340400919454</v>
+      </c>
+      <c r="AI338" s="19">
+        <f t="shared" si="21"/>
+        <v>15.312989252529659</v>
+      </c>
+      <c r="AJ338" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK338" s="13">
+        <v>-3.5</v>
+      </c>
+      <c r="AL338" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM338" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF338-$AK338)^2+($AG338-$AL338)^2))</f>
+        <v>17.613914953808536</v>
+      </c>
+      <c r="AN338" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO338" s="13">
+        <v>-12.5</v>
+      </c>
+      <c r="AP338" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="AQ338" s="19">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AR338" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU338" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A339" s="3">
+        <v>13</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="17" t="str">
+        <f>IF($A339="","",IF(VLOOKUP($A339,Spiele!$A$2:$D$15,3,FALSE)=$B339,"H","G"))</f>
+        <v>H</v>
+      </c>
+      <c r="D339" s="17" t="str">
+        <f>IF($B339="","",IF(VLOOKUP($A339,Spiele!$A$2:$F$15,3,FALSE)=$B339,VLOOKUP($A339,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A339,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>60M</v>
+      </c>
+      <c r="E339" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A339,$A339,$B$2:$B339,$B339,$L$2:$L339,"&lt;&gt;ET"))</f>
+        <v>15</v>
+      </c>
+      <c r="F339" s="11">
+        <v>77</v>
+      </c>
+      <c r="G339" s="12">
+        <v>2</v>
+      </c>
+      <c r="H339" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A339,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B339,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F339,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G339)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A339,'Rote Karten'!$D$2:$D$4,$B339,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F339,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G339)</f>
+        <v>0</v>
+      </c>
+      <c r="I339" s="17" t="str">
+        <f>IF(OR($L339="Tor",$L339="ET"),_xlfn.IFNA(IF(VLOOKUP($A339,Spiele!$A$2:$C$15,3,FALSE)=$B339,COUNTIFS($L$2:$L339,"Tor",$B$2:$B339,$B339,$A$2:$A339,$A339)+COUNTIFS($L$2:$L339,"ET",$B$2:$B339,$B339,$A$2:$A339,$A339)&amp;":"&amp;COUNTIFS($L$2:$L339,"Tor",$B$2:$B339,"&lt;&gt;"&amp;$B339,$A$2:$A339,$A339)+COUNTIFS($L$2:$L339,"ET",$B$2:$B339,"&lt;&gt;"&amp;$B339,$A$2:$A339,$A339),COUNTIFS($L$2:$L339,"Tor",$B$2:$B339,"&lt;&gt;"&amp;$B339,$A$2:$A339,$A339)+COUNTIFS($L$2:$L339,"ET",$B$2:$B339,"&lt;&gt;"&amp;$B339,$A$2:$A339,$A339)&amp;":"&amp;COUNTIFS($L$2:$L339,"Tor",$B$2:$B339,$B339,$A$2:$A339,$A339)+COUNTIFS($L$2:$L339,"ET",$B$2:$B339,$B339,$A$2:$A339,$A339)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J339" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A339,Spiele!$A$2:$D$15,3,FALSE)=$B339,(COUNTIFS($L$1:$L338,"Tor",$B$1:$B338,$B339,$A$1:$A338,$A339)+COUNTIFS($L$1:$L338,"ET",$B$1:$B338,$B339,$A$1:$A338,$A339))-(COUNTIFS($L$1:$L338,"Tor",$B$1:$B338,"&lt;&gt;"&amp;$B339,$A$1:$A338,$A339)+COUNTIFS($L$1:$L338,"ET",$B$1:$B338,"&lt;&gt;"&amp;$B339,$A$1:$A338,$A339)),(COUNTIFS($L$1:$L338,"Tor",$B$1:$B338,$B339,$A$1:$A338,$A339)+COUNTIFS($L$1:$L338,"ET",$B$1:$B338,$B339,$A$1:$A338,$A339))-(COUNTIFS($L$1:$L338,"Tor",$B$1:$B338,"&lt;&gt;"&amp;$B339,$A$1:$A338,$A339)+COUNTIFS($L$1:$L338,"ET",$B$1:$B338,"&lt;&gt;"&amp;$B339,$A$1:$A338,$A339))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K339" s="3">
+        <v>25</v>
+      </c>
+      <c r="L339" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M339" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N339" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O339" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA339" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB339" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC339" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD339" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE339" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF339" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="AG339" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH339" s="19">
+        <f t="shared" si="20"/>
+        <v>17.7060893480181</v>
+      </c>
+      <c r="AI339" s="19">
+        <f t="shared" si="21"/>
+        <v>14.620361026676797</v>
+      </c>
+      <c r="AJ339" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK339" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AL339" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="AM339" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF339-$AK339)^2+($AG339-$AL339)^2))</f>
+        <v>17.327723451163457</v>
+      </c>
+      <c r="AN339" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO339" s="13">
+        <v>14</v>
+      </c>
+      <c r="AP339" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ339" s="19">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="AR339" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS339" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="AT339" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU339" s="19">
+        <f t="shared" si="23"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="340" spans="1:47" ht="25.05" customHeight="1">
+      <c r="A340" s="3">
+        <v>13</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C340" s="17" t="str">
+        <f>IF($A340="","",IF(VLOOKUP($A340,Spiele!$A$2:$D$15,3,FALSE)=$B340,"H","G"))</f>
+        <v>G</v>
+      </c>
+      <c r="D340" s="17" t="str">
+        <f>IF($B340="","",IF(VLOOKUP($A340,Spiele!$A$2:$F$15,3,FALSE)=$B340,VLOOKUP($A340,Spiele!$A$2:$F$15,4,FALSE),VLOOKUP($A340,Spiele!$A$2:$F$15,3,FALSE)))</f>
+        <v>FCN</v>
+      </c>
+      <c r="E340" s="18">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET",0,COUNTIFS($A$2:$A340,$A340,$B$2:$B340,$B340,$L$2:$L340,"&lt;&gt;ET"))</f>
+        <v>14</v>
+      </c>
+      <c r="F340" s="11">
+        <v>83</v>
+      </c>
+      <c r="G340" s="12">
+        <v>2</v>
+      </c>
+      <c r="H340" s="18">
+        <f>COUNTIFS('Rote Karten'!$A$2:$A$4,$A340,'Rote Karten'!$D$2:$D$4,"&lt;&gt;"&amp;$B340,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F340,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G340)-COUNTIFS('Rote Karten'!$A$2:$A$4,$A340,'Rote Karten'!$D$2:$D$4,$B340,'Rote Karten'!$B$2:$B$4,"&lt;"&amp;$F340,'Rote Karten'!$C$2:$C$4,"&lt;="&amp;$G340)</f>
+        <v>0</v>
+      </c>
+      <c r="I340" s="17" t="str">
+        <f>IF(OR($L340="Tor",$L340="ET"),_xlfn.IFNA(IF(VLOOKUP($A340,Spiele!$A$2:$C$15,3,FALSE)=$B340,COUNTIFS($L$2:$L340,"Tor",$B$2:$B340,$B340,$A$2:$A340,$A340)+COUNTIFS($L$2:$L340,"ET",$B$2:$B340,$B340,$A$2:$A340,$A340)&amp;":"&amp;COUNTIFS($L$2:$L340,"Tor",$B$2:$B340,"&lt;&gt;"&amp;$B340,$A$2:$A340,$A340)+COUNTIFS($L$2:$L340,"ET",$B$2:$B340,"&lt;&gt;"&amp;$B340,$A$2:$A340,$A340),COUNTIFS($L$2:$L340,"Tor",$B$2:$B340,"&lt;&gt;"&amp;$B340,$A$2:$A340,$A340)+COUNTIFS($L$2:$L340,"ET",$B$2:$B340,"&lt;&gt;"&amp;$B340,$A$2:$A340,$A340)&amp;":"&amp;COUNTIFS($L$2:$L340,"Tor",$B$2:$B340,$B340,$A$2:$A340,$A340)+COUNTIFS($L$2:$L340,"ET",$B$2:$B340,$B340,$A$2:$A340,$A340)),""),"")</f>
+        <v/>
+      </c>
+      <c r="J340" s="18">
+        <f>_xlfn.IFNA(IF(VLOOKUP($A340,Spiele!$A$2:$D$15,3,FALSE)=$B340,(COUNTIFS($L$1:$L339,"Tor",$B$1:$B339,$B340,$A$1:$A339,$A340)+COUNTIFS($L$1:$L339,"ET",$B$1:$B339,$B340,$A$1:$A339,$A340))-(COUNTIFS($L$1:$L339,"Tor",$B$1:$B339,"&lt;&gt;"&amp;$B340,$A$1:$A339,$A340)+COUNTIFS($L$1:$L339,"ET",$B$1:$B339,"&lt;&gt;"&amp;$B340,$A$1:$A339,$A340)),(COUNTIFS($L$1:$L339,"Tor",$B$1:$B339,$B340,$A$1:$A339,$A340)+COUNTIFS($L$1:$L339,"ET",$B$1:$B339,$B340,$A$1:$A339,$A340))-(COUNTIFS($L$1:$L339,"Tor",$B$1:$B339,"&lt;&gt;"&amp;$B340,$A$1:$A339,$A340)+COUNTIFS($L$1:$L339,"ET",$B$1:$B339,"&lt;&gt;"&amp;$B340,$A$1:$A339,$A340))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K340" s="3">
+        <v>26</v>
+      </c>
+      <c r="L340" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M340" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N340" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O340" s="17"/>
+      <c r="AA340" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB340" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC340" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD340" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE340" s="18"/>
+      <c r="AF340" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AG340" s="13">
+        <v>18</v>
+      </c>
+      <c r="AH340" s="19">
         <f t="shared" si="20"/>
         <v>19.838235808660002</v>
       </c>
-      <c r="AI307" s="19">
+      <c r="AI340" s="19">
         <f t="shared" si="21"/>
         <v>16.163407255354326</v>
       </c>
-      <c r="AJ307" s="2" t="s">
+      <c r="AJ340" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AK307" s="13">
+      <c r="AK340" s="13">
         <v>-1.5</v>
       </c>
-      <c r="AL307" s="13">
+      <c r="AL340" s="13">
         <v>2.5</v>
       </c>
-      <c r="AM307" s="19">
-        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF307-$AK307)^2+($AG307-$AL307)^2))</f>
+      <c r="AM340" s="19">
+        <f>IF(Abschlüsse[[#This Row],[Ergeb]]="ET","",SQRT(($AF340-$AK340)^2+($AG340-$AL340)^2))</f>
         <v>18.721645226849056</v>
       </c>
-      <c r="AN307" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO307" s="13">
+      <c r="AN340" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO340" s="13">
         <v>-10.5</v>
       </c>
-      <c r="AP307" s="13">
+      <c r="AP340" s="13">
         <v>21</v>
       </c>
-      <c r="AQ307" s="19">
+      <c r="AQ340" s="19">
         <f t="shared" si="22"/>
         <v>3.3541019662496847</v>
       </c>
-      <c r="AR307" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU307" s="19" t="str">
+      <c r="AR340" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU340" s="19" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:47" ht="25.05" customHeight="1">
-      <c r="AC309" s="14"/>
-      <c r="AD309" s="14"/>
+    <row r="342" spans="1:47" ht="25.05" customHeight="1">
+      <c r="AC342" s="14"/>
+      <c r="AD342" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E307">
+  <conditionalFormatting sqref="A2:E340">
     <cfRule type="expression" dxfId="40" priority="127">
       <formula>$C2="H"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K307 M2:M307 AC2:AD307 AF2:AG307 AJ2:AL307 AN2:AN307 AR2:AR307">
+  <conditionalFormatting sqref="K2:K340 M2:M340 AC2:AD340 AF2:AG340 AJ2:AL340 AN2:AN340 AR2:AR340">
     <cfRule type="cellIs" dxfId="39" priority="47" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:M307 AA2:AG307 AJ2:AL307 AN2:AN307 AR2:AR307">
+  <conditionalFormatting sqref="K2:M340 AA2:AG340 AJ2:AL340 AN2:AN340 AR2:AR340">
     <cfRule type="expression" dxfId="38" priority="50">
       <formula>$F2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L307 AB2:AB307 AE2:AE307">
+  <conditionalFormatting sqref="L2:L340 AB2:AB340 AE2:AE340">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M310">
+  <conditionalFormatting sqref="M343">
     <cfRule type="cellIs" dxfId="36" priority="122" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="123">
-      <formula>$F310&lt;&gt;""</formula>
+      <formula>$F343&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AU1048576">
@@ -45413,7 +49203,7 @@
       <formula>$L2="ET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N307">
+  <conditionalFormatting sqref="N2:N340">
     <cfRule type="cellIs" dxfId="33" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -45445,41 +49235,41 @@
       <formula>$M2="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N310:Z310">
+  <conditionalFormatting sqref="N343:Z343">
     <cfRule type="expression" dxfId="23" priority="105">
-      <formula>$M310="nEW"</formula>
+      <formula>$M343="nEW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="106">
-      <formula>$M310="EW"</formula>
+      <formula>$M343="EW"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="107">
-      <formula>$M310="n11M"</formula>
+      <formula>$M343="n11M"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="108">
-      <formula>$M310="nFS"</formula>
+      <formula>$M343="nFS"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="109">
-      <formula>$M310="nE"</formula>
+      <formula>$M343="nE"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="110">
-      <formula>$M310="FSF"</formula>
+      <formula>$M343="FSF"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="111">
-      <formula>$M310="E"</formula>
+      <formula>$M343="E"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="112">
-      <formula>$M310="USO"</formula>
+      <formula>$M343="USO"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="124">
-      <formula>$M310="EB"</formula>
+      <formula>$M343="EB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N310:AA310">
+  <conditionalFormatting sqref="N343:AA343">
     <cfRule type="cellIs" dxfId="14" priority="104" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA307">
+  <conditionalFormatting sqref="AA2:AA340">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -45487,23 +49277,23 @@
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA310">
+  <conditionalFormatting sqref="AA343">
     <cfRule type="expression" dxfId="11" priority="125">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC309:AD309">
+  <conditionalFormatting sqref="AC342:AD342">
     <cfRule type="expression" dxfId="10" priority="100">
-      <formula>$L309="ET"</formula>
+      <formula>$L342="ET"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="101" operator="notEqual">
       <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="102">
-      <formula>$F309&lt;&gt;""</formula>
+      <formula>$F342&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE307">
+  <conditionalFormatting sqref="AE2:AE340">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($L2="ET", $D2="FCN")</formula>
     </cfRule>
@@ -45511,12 +49301,12 @@
       <formula>$B2&lt;&gt;"FCN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AL307">
+  <conditionalFormatting sqref="AK2:AL340">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>$AJ2="niT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP307">
+  <conditionalFormatting sqref="AO2:AP340">
     <cfRule type="cellIs" dxfId="4" priority="18" operator="notEqual">
       <formula>""</formula>
     </cfRule>
@@ -45524,7 +49314,7 @@
       <formula>$AN2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AT307">
+  <conditionalFormatting sqref="AS2:AT340">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
       <formula>""</formula>
     </cfRule>
